--- a/Flota_Antigúedad_AF.xlsx
+++ b/Flota_Antigúedad_AF.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD87D8B7-C958-473D-80C2-79396BCBDACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F91A408-77C5-4D16-A997-EF2216E5B537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="C_11" sheetId="1" r:id="rId1"/>
+    <sheet name="C_15.2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">C_11!$B$5:$B$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'C_15.2'!$B$5:$B$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -265,15 +265,15 @@
     <xf numFmtId="17" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="17" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -543,25 +543,25 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="12"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,7 +574,7 @@
       <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -614,22 +614,22 @@
       <c r="B7" s="9">
         <v>45383</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>685435</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>676046</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>565</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>71981</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <v>107137</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="12">
         <v>15.827370783505845</v>
       </c>
       <c r="I7" s="6">
@@ -666,22 +666,22 @@
       <c r="B9" s="9">
         <v>45323</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>677153</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>667343</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>559</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>71797</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <v>105821</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="12">
         <v>15.980300420002477</v>
       </c>
       <c r="I9" s="6">
@@ -718,22 +718,22 @@
       <c r="B11" s="9">
         <v>45261</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>671002</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>660365</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>554</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <v>71562</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="12">
         <v>104689</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="12">
         <v>15.134234699377592</v>
       </c>
       <c r="I11" s="6">
@@ -770,22 +770,22 @@
       <c r="B13" s="9">
         <v>45200</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <v>662911</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>653227</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <v>551</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <v>71146</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="12">
         <v>103247</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="12">
         <v>15.305362027145584</v>
       </c>
       <c r="I13" s="6">
@@ -822,22 +822,22 @@
       <c r="B15" s="9">
         <v>45139</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="12">
         <v>655458</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>645999</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>546</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="12">
         <v>70834</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="12">
         <v>101930</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="12">
         <v>15.470034266398093</v>
       </c>
       <c r="I15" s="6">
@@ -874,22 +874,22 @@
       <c r="B17" s="9">
         <v>45078</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <v>647906</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>637598</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>538</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="12">
         <v>70673</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="12">
         <v>100843</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="12">
         <v>15.606316611861285</v>
       </c>
       <c r="I17" s="6">
@@ -926,22 +926,22 @@
       <c r="B19" s="9">
         <v>45017</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="12">
         <v>641751</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>630955</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
         <v>537</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="12">
         <v>70335</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="12">
         <v>99685</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="12">
         <v>15.757763792495</v>
       </c>
       <c r="I19" s="6">
@@ -978,22 +978,22 @@
       <c r="B21" s="9">
         <v>44958</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="12">
         <v>636167</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <v>625114</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <v>535</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="12">
         <v>70028</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="12">
         <v>98242</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="12">
         <v>15.924098175551197</v>
       </c>
       <c r="I21" s="6">

--- a/Flota_Antigúedad_AF.xlsx
+++ b/Flota_Antigúedad_AF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F91A408-77C5-4D16-A997-EF2216E5B537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1880F010-46D0-4EB8-9643-89C8C022D096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_15.2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Ultima actualización: mayo 2024</t>
   </si>
@@ -80,7 +80,13 @@
     <t>Notas: La Antigüedad promedio de la flota (Años), incluye la flota total de carga, pasaje y turismo.</t>
   </si>
   <si>
-    <t>Flota y antigüedad vehícular 2023 y 2024</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Flota y antigüedad vehícular</t>
   </si>
 </sst>
 </file>
@@ -152,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -237,12 +243,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,22 +339,140 @@
     <xf numFmtId="17" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Montserrat Medium"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -291,6 +483,35 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:K82" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K82" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{B20DCB96-4305-435C-8C2C-2E86DD8AD94F}" name="Periodo" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{B656E717-4464-4FD9-AF26-66FB1FB08E58}" name="Total" dataDxfId="8">
+      <calculatedColumnFormula>SUM(D6:F6)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{E586330F-E806-4820-BF1C-3FE78AFD021A}" name="Unidades Motrices" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{68D2B558-5DA9-42C9-82A8-45C2E1FD7B07}" name="Unidades de Arrastre" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{816B11E4-71BC-45BB-8222-E60C5AC8BEFC}" name="Grúas Industriales" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{08400F41-2543-49C7-9C14-EBB7DE79B9A0}" name="Total " dataDxfId="4">
+      <calculatedColumnFormula>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{437F3E11-8501-41E6-B7DB-15E3BE7D604F}" name="Pasajeros" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{261623A0-B69B-4DB7-BEA0-9DE86723147F}" name="Turismo" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{6B0A2EB7-96C1-4F12-9FDD-518B0C10619A}" name="Pasaje" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{734CB9C7-3D25-42E3-93AB-6CE379E4AEF2}" name="Carga" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,544 +737,2728 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I26"/>
+  <dimension ref="B2:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.59765625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="15.3984375" customWidth="1"/>
+    <col min="3" max="3" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.296875" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" customWidth="1"/>
+    <col min="6" max="6" width="17.09765625" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="10" max="11" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="17"/>
+      <c r="C4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="D5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="14"/>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="10">
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="24">
         <v>45413</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="25">
+        <f t="shared" ref="C6:C37" si="0">SUM(D6:F6)</f>
+        <v>1364076</v>
+      </c>
+      <c r="D6" s="26">
         <v>686433</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="26">
         <v>677060</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="26">
         <v>583</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="26">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>180169</v>
+      </c>
+      <c r="H6" s="26">
         <v>72197</v>
       </c>
-      <c r="G6" s="4">
+      <c r="I6" s="26">
         <v>107972</v>
       </c>
-      <c r="H6" s="4">
+      <c r="J6" s="26">
         <v>15.728466051318485</v>
       </c>
-      <c r="I6" s="5">
+      <c r="K6" s="27">
         <v>20.044184938661164</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7" s="9">
         <v>45383</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="23">
+        <f t="shared" si="0"/>
+        <v>1362046</v>
+      </c>
+      <c r="D7" s="18">
         <v>685435</v>
       </c>
-      <c r="D7" s="12">
+      <c r="E7" s="18">
         <v>676046</v>
       </c>
-      <c r="E7" s="12">
+      <c r="F7" s="18">
         <v>565</v>
       </c>
-      <c r="F7" s="12">
+      <c r="G7" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>179118</v>
+      </c>
+      <c r="H7" s="18">
         <v>71981</v>
       </c>
-      <c r="G7" s="12">
+      <c r="I7" s="18">
         <v>107137</v>
       </c>
-      <c r="H7" s="12">
+      <c r="J7" s="18">
         <v>15.827370783505845</v>
       </c>
-      <c r="I7" s="6">
+      <c r="K7" s="6">
         <v>20.082257252693545</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" s="10">
         <v>45352</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="22">
+        <f t="shared" si="0"/>
+        <v>1353988</v>
+      </c>
+      <c r="D8" s="4">
         <v>681551</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>671878</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>559</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>178140</v>
+      </c>
+      <c r="H8" s="4">
         <v>71842</v>
       </c>
-      <c r="G8" s="4">
+      <c r="I8" s="4">
         <v>106298</v>
       </c>
-      <c r="H8" s="4">
+      <c r="J8" s="4">
         <v>15.921746940608511</v>
       </c>
-      <c r="I8" s="5">
+      <c r="K8" s="5">
         <v>20.167528182043604</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="9">
         <v>45323</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="23">
+        <f t="shared" si="0"/>
+        <v>1345055</v>
+      </c>
+      <c r="D9" s="18">
         <v>677153</v>
       </c>
-      <c r="D9" s="12">
+      <c r="E9" s="18">
         <v>667343</v>
       </c>
-      <c r="E9" s="12">
+      <c r="F9" s="18">
         <v>559</v>
       </c>
-      <c r="F9" s="12">
+      <c r="G9" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>177618</v>
+      </c>
+      <c r="H9" s="18">
         <v>71797</v>
       </c>
-      <c r="G9" s="12">
+      <c r="I9" s="18">
         <v>105821</v>
       </c>
-      <c r="H9" s="12">
+      <c r="J9" s="18">
         <v>15.980300420002477</v>
       </c>
-      <c r="I9" s="6">
+      <c r="K9" s="6">
         <v>20.271950356861744</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="10">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="11">
         <v>45292</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="28">
+        <f t="shared" si="0"/>
+        <v>1337961</v>
+      </c>
+      <c r="D10" s="7">
         <v>673757</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="7">
         <v>663646</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="7">
         <v>558</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="7">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>176858</v>
+      </c>
+      <c r="H10" s="7">
         <v>71641</v>
       </c>
-      <c r="G10" s="4">
+      <c r="I10" s="7">
         <v>105217</v>
       </c>
-      <c r="H10" s="4">
+      <c r="J10" s="7">
         <v>16.059999999999999</v>
       </c>
-      <c r="I10" s="5">
+      <c r="K10" s="8">
         <v>20.36</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="9">
+    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="29">
         <v>45261</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="30">
+        <f t="shared" si="0"/>
+        <v>1331921</v>
+      </c>
+      <c r="D11" s="31">
         <v>671002</v>
       </c>
-      <c r="D11" s="12">
+      <c r="E11" s="31">
         <v>660365</v>
       </c>
-      <c r="E11" s="12">
+      <c r="F11" s="31">
         <v>554</v>
       </c>
-      <c r="F11" s="12">
+      <c r="G11" s="31">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>176251</v>
+      </c>
+      <c r="H11" s="31">
         <v>71562</v>
       </c>
-      <c r="G11" s="12">
+      <c r="I11" s="31">
         <v>104689</v>
       </c>
-      <c r="H11" s="12">
+      <c r="J11" s="31">
         <v>15.134234699377592</v>
       </c>
-      <c r="I11" s="6">
+      <c r="K11" s="32">
         <v>19.458281793496891</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10">
         <v>45231</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="22">
+        <f t="shared" si="0"/>
+        <v>1324591</v>
+      </c>
+      <c r="D12" s="4">
         <v>667021</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>657017</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>553</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>175311</v>
+      </c>
+      <c r="H12" s="4">
         <v>71379</v>
       </c>
-      <c r="G12" s="4">
+      <c r="I12" s="4">
         <v>103932</v>
       </c>
-      <c r="H12" s="4">
+      <c r="J12" s="4">
         <v>15.22355699300101</v>
       </c>
-      <c r="I12" s="5">
+      <c r="K12" s="5">
         <v>19.543477641633473</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="9">
         <v>45200</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="23">
+        <f t="shared" si="0"/>
+        <v>1316689</v>
+      </c>
+      <c r="D13" s="18">
         <v>662911</v>
       </c>
-      <c r="D13" s="12">
+      <c r="E13" s="18">
         <v>653227</v>
       </c>
-      <c r="E13" s="12">
+      <c r="F13" s="18">
         <v>551</v>
       </c>
-      <c r="F13" s="12">
+      <c r="G13" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>174393</v>
+      </c>
+      <c r="H13" s="18">
         <v>71146</v>
       </c>
-      <c r="G13" s="12">
+      <c r="I13" s="18">
         <v>103247</v>
       </c>
-      <c r="H13" s="12">
+      <c r="J13" s="18">
         <v>15.305362027145584</v>
       </c>
-      <c r="I13" s="6">
+      <c r="K13" s="6">
         <v>19.637007079381696</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10">
         <v>45170</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="22">
+        <f t="shared" si="0"/>
+        <v>1309236</v>
+      </c>
+      <c r="D14" s="4">
         <v>659020</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>649665</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>551</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>173599</v>
+      </c>
+      <c r="H14" s="4">
         <v>71029</v>
       </c>
-      <c r="G14" s="4">
+      <c r="I14" s="4">
         <v>102570</v>
       </c>
-      <c r="H14" s="4">
+      <c r="J14" s="4">
         <v>15.387882418677528</v>
       </c>
-      <c r="I14" s="5">
+      <c r="K14" s="5">
         <v>19.730128068950865</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" s="9">
         <v>45139</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="23">
+        <f t="shared" si="0"/>
+        <v>1302003</v>
+      </c>
+      <c r="D15" s="18">
         <v>655458</v>
       </c>
-      <c r="D15" s="12">
+      <c r="E15" s="18">
         <v>645999</v>
       </c>
-      <c r="E15" s="12">
+      <c r="F15" s="18">
         <v>546</v>
       </c>
-      <c r="F15" s="12">
+      <c r="G15" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>172764</v>
+      </c>
+      <c r="H15" s="18">
         <v>70834</v>
       </c>
-      <c r="G15" s="12">
+      <c r="I15" s="18">
         <v>101930</v>
       </c>
-      <c r="H15" s="12">
+      <c r="J15" s="18">
         <v>15.470034266398093</v>
       </c>
-      <c r="I15" s="6">
+      <c r="K15" s="6">
         <v>19.817370449365178</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>45108</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="22">
+        <f t="shared" si="0"/>
+        <v>1294209</v>
+      </c>
+      <c r="D16" s="4">
         <v>651761</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>641907</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>541</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>172137</v>
+      </c>
+      <c r="H16" s="4">
         <v>70783</v>
       </c>
-      <c r="G16" s="4">
+      <c r="I16" s="4">
         <v>101354</v>
       </c>
-      <c r="H16" s="4">
+      <c r="J16" s="4">
         <v>15.535631502814619</v>
       </c>
-      <c r="I16" s="5">
+      <c r="K16" s="5">
         <v>19.908092076696825</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" s="9">
         <v>45078</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="23">
+        <f t="shared" si="0"/>
+        <v>1286042</v>
+      </c>
+      <c r="D17" s="18">
         <v>647906</v>
       </c>
-      <c r="D17" s="12">
+      <c r="E17" s="18">
         <v>637598</v>
       </c>
-      <c r="E17" s="12">
+      <c r="F17" s="18">
         <v>538</v>
       </c>
-      <c r="F17" s="12">
+      <c r="G17" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>171516</v>
+      </c>
+      <c r="H17" s="18">
         <v>70673</v>
       </c>
-      <c r="G17" s="12">
+      <c r="I17" s="18">
         <v>100843</v>
       </c>
-      <c r="H17" s="12">
+      <c r="J17" s="18">
         <v>15.606316611861285</v>
       </c>
-      <c r="I17" s="6">
+      <c r="K17" s="6">
         <v>20.002412386982062</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" s="10">
         <v>45047</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="22">
+        <f t="shared" si="0"/>
+        <v>1279902</v>
+      </c>
+      <c r="D18" s="4">
         <v>645139</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>634226</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>537</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>170681</v>
+      </c>
+      <c r="H18" s="4">
         <v>70483</v>
       </c>
-      <c r="G18" s="4">
+      <c r="I18" s="4">
         <v>100198</v>
       </c>
-      <c r="H18" s="4">
+      <c r="J18" s="4">
         <v>15.688172672998165</v>
       </c>
-      <c r="I18" s="5">
+      <c r="K18" s="5">
         <v>20.079559598784137</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" s="9">
         <v>45017</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="23">
+        <f t="shared" si="0"/>
+        <v>1273243</v>
+      </c>
+      <c r="D19" s="18">
         <v>641751</v>
       </c>
-      <c r="D19" s="12">
+      <c r="E19" s="18">
         <v>630955</v>
       </c>
-      <c r="E19" s="12">
+      <c r="F19" s="18">
         <v>537</v>
       </c>
-      <c r="F19" s="12">
+      <c r="G19" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>170020</v>
+      </c>
+      <c r="H19" s="18">
         <v>70335</v>
       </c>
-      <c r="G19" s="12">
+      <c r="I19" s="18">
         <v>99685</v>
       </c>
-      <c r="H19" s="12">
+      <c r="J19" s="18">
         <v>15.757763792495</v>
       </c>
-      <c r="I19" s="6">
+      <c r="K19" s="6">
         <v>20.166095572893536</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" s="10">
         <v>44986</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="22">
+        <f t="shared" si="0"/>
+        <v>1267813</v>
+      </c>
+      <c r="D20" s="4">
         <v>639200</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>628078</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>535</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>169398</v>
+      </c>
+      <c r="H20" s="4">
         <v>70212</v>
       </c>
-      <c r="G20" s="4">
+      <c r="I20" s="4">
         <v>99186</v>
       </c>
-      <c r="H20" s="4">
+      <c r="J20" s="4">
         <v>15.818386285552368</v>
       </c>
-      <c r="I20" s="5">
+      <c r="K20" s="5">
         <v>20.231362640801002</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" s="9">
         <v>44958</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="23">
+        <f t="shared" si="0"/>
+        <v>1261816</v>
+      </c>
+      <c r="D21" s="18">
         <v>636167</v>
       </c>
-      <c r="D21" s="12">
+      <c r="E21" s="18">
         <v>625114</v>
       </c>
-      <c r="E21" s="12">
+      <c r="F21" s="18">
         <v>535</v>
       </c>
-      <c r="F21" s="12">
+      <c r="G21" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>168270</v>
+      </c>
+      <c r="H21" s="18">
         <v>70028</v>
       </c>
-      <c r="G21" s="12">
+      <c r="I21" s="18">
         <v>98242</v>
       </c>
-      <c r="H21" s="12">
+      <c r="J21" s="18">
         <v>15.924098175551197</v>
       </c>
-      <c r="I21" s="6">
+      <c r="K21" s="6">
         <v>20.308953466621187</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" s="11">
         <v>44927</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="28">
+        <f t="shared" si="0"/>
+        <v>1256959</v>
+      </c>
+      <c r="D22" s="7">
         <v>633934</v>
       </c>
-      <c r="D22" s="7">
+      <c r="E22" s="7">
         <v>622491</v>
       </c>
-      <c r="E22" s="7">
+      <c r="F22" s="7">
         <v>534</v>
       </c>
-      <c r="F22" s="7">
+      <c r="G22" s="7">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>167855</v>
+      </c>
+      <c r="H22" s="7">
         <v>70043</v>
       </c>
-      <c r="G22" s="7">
+      <c r="I22" s="7">
         <v>97812</v>
       </c>
-      <c r="H22" s="7">
+      <c r="J22" s="7">
         <v>15.971731554019838</v>
       </c>
-      <c r="I22" s="8">
+      <c r="K22" s="8">
         <v>20.368738701505205</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="29">
+        <v>44896</v>
+      </c>
+      <c r="C23" s="30">
+        <f t="shared" si="0"/>
+        <v>1253020</v>
+      </c>
+      <c r="D23" s="31">
+        <v>632252</v>
+      </c>
+      <c r="E23" s="31">
+        <v>620240</v>
+      </c>
+      <c r="F23" s="31">
+        <v>528</v>
+      </c>
+      <c r="G23" s="31">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>167359</v>
+      </c>
+      <c r="H23" s="31">
+        <v>70056</v>
+      </c>
+      <c r="I23" s="31">
+        <v>97303</v>
+      </c>
+      <c r="J23" s="31">
+        <v>15.042250491458482</v>
+      </c>
+      <c r="K23" s="32">
+        <v>19.442766491841862</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="10">
+        <v>44866</v>
+      </c>
+      <c r="C24" s="22">
+        <f t="shared" si="0"/>
+        <v>1248052</v>
+      </c>
+      <c r="D24" s="4">
+        <v>629746</v>
+      </c>
+      <c r="E24" s="4">
+        <v>617778</v>
+      </c>
+      <c r="F24" s="4">
+        <v>528</v>
+      </c>
+      <c r="G24" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>166178</v>
+      </c>
+      <c r="H24" s="4">
+        <v>69821</v>
+      </c>
+      <c r="I24" s="4">
+        <v>96357</v>
+      </c>
+      <c r="J24" s="4">
+        <v>15.145163619733058</v>
+      </c>
+      <c r="K24" s="5">
+        <v>19.503375964277662</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="9">
+        <v>44835</v>
+      </c>
+      <c r="C25" s="23">
+        <f t="shared" si="0"/>
+        <v>1243495</v>
+      </c>
+      <c r="D25" s="18">
+        <v>627591</v>
+      </c>
+      <c r="E25" s="18">
+        <v>615376</v>
+      </c>
+      <c r="F25" s="18">
+        <v>528</v>
+      </c>
+      <c r="G25" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>165354</v>
+      </c>
+      <c r="H25" s="18">
+        <v>69675</v>
+      </c>
+      <c r="I25" s="18">
+        <v>95679</v>
+      </c>
+      <c r="J25" s="18">
+        <v>15.219299200503164</v>
+      </c>
+      <c r="K25" s="6">
+        <v>19.558707820857851</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="10">
+        <v>44805</v>
+      </c>
+      <c r="C26" s="22">
+        <f t="shared" si="0"/>
+        <v>1239858</v>
+      </c>
+      <c r="D26" s="4">
+        <v>625802</v>
+      </c>
+      <c r="E26" s="4">
+        <v>613527</v>
+      </c>
+      <c r="F26" s="4">
+        <v>529</v>
+      </c>
+      <c r="G26" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>164931</v>
+      </c>
+      <c r="H26" s="4">
+        <v>69723</v>
+      </c>
+      <c r="I26" s="4">
+        <v>95208</v>
+      </c>
+      <c r="J26" s="4">
+        <v>15.268857886025065</v>
+      </c>
+      <c r="K26" s="5">
+        <v>19.601036749642859</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="9">
+        <v>44774</v>
+      </c>
+      <c r="C27" s="23">
+        <f t="shared" si="0"/>
+        <v>1234757</v>
+      </c>
+      <c r="D27" s="18">
+        <v>623225</v>
+      </c>
+      <c r="E27" s="18">
+        <v>611005</v>
+      </c>
+      <c r="F27" s="18">
+        <v>527</v>
+      </c>
+      <c r="G27" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>166002</v>
+      </c>
+      <c r="H27" s="18">
+        <v>69645</v>
+      </c>
+      <c r="I27" s="18">
+        <v>96357</v>
+      </c>
+      <c r="J27" s="18">
+        <v>15.188636281490584</v>
+      </c>
+      <c r="K27" s="6">
+        <v>19.665687352079907</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="10">
+        <v>44743</v>
+      </c>
+      <c r="C28" s="22">
+        <f t="shared" si="0"/>
+        <v>1227595</v>
+      </c>
+      <c r="D28" s="4">
+        <v>619408</v>
+      </c>
+      <c r="E28" s="4">
+        <v>607662</v>
+      </c>
+      <c r="F28" s="4">
+        <v>525</v>
+      </c>
+      <c r="G28" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>163526</v>
+      </c>
+      <c r="H28" s="4">
+        <v>69586</v>
+      </c>
+      <c r="I28" s="4">
+        <v>93940</v>
+      </c>
+      <c r="J28" s="4">
+        <v>15.421364186734831</v>
+      </c>
+      <c r="K28" s="5">
+        <v>19.756386743471186</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="9">
+        <v>44713</v>
+      </c>
+      <c r="C29" s="23">
+        <f t="shared" si="0"/>
+        <v>1225289</v>
+      </c>
+      <c r="D29" s="18">
+        <v>618040</v>
+      </c>
+      <c r="E29" s="18">
+        <v>606724</v>
+      </c>
+      <c r="F29" s="18">
+        <v>525</v>
+      </c>
+      <c r="G29" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>163070</v>
+      </c>
+      <c r="H29" s="18">
+        <v>69430</v>
+      </c>
+      <c r="I29" s="18">
+        <v>93640</v>
+      </c>
+      <c r="J29" s="18">
+        <v>15.452272030416385</v>
+      </c>
+      <c r="K29" s="6">
+        <v>19.768709145039157</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="10">
+        <v>44682</v>
+      </c>
+      <c r="C30" s="22">
+        <f t="shared" si="0"/>
+        <v>1222511</v>
+      </c>
+      <c r="D30" s="4">
+        <v>616795</v>
+      </c>
+      <c r="E30" s="4">
+        <v>605191</v>
+      </c>
+      <c r="F30" s="4">
+        <v>525</v>
+      </c>
+      <c r="G30" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>162777</v>
+      </c>
+      <c r="H30" s="4">
+        <v>69624</v>
+      </c>
+      <c r="I30" s="4">
+        <v>93153</v>
+      </c>
+      <c r="J30" s="4">
+        <v>15.510440664221603</v>
+      </c>
+      <c r="K30" s="5">
+        <v>19.817924918327808</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="9">
+        <v>44652</v>
+      </c>
+      <c r="C31" s="23">
+        <f t="shared" si="0"/>
+        <v>1217422</v>
+      </c>
+      <c r="D31" s="18">
+        <v>614317</v>
+      </c>
+      <c r="E31" s="18">
+        <v>602581</v>
+      </c>
+      <c r="F31" s="18">
+        <v>524</v>
+      </c>
+      <c r="G31" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>162245</v>
+      </c>
+      <c r="H31" s="18">
+        <v>69515</v>
+      </c>
+      <c r="I31" s="18">
+        <v>92730</v>
+      </c>
+      <c r="J31" s="18">
+        <v>15.572301149496132</v>
+      </c>
+      <c r="K31" s="6">
+        <v>19.875979339656887</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="10">
+        <v>44621</v>
+      </c>
+      <c r="C32" s="22">
+        <f t="shared" si="0"/>
+        <v>1212635</v>
+      </c>
+      <c r="D32" s="4">
+        <v>611918</v>
+      </c>
+      <c r="E32" s="4">
+        <v>600194</v>
+      </c>
+      <c r="F32" s="4">
+        <v>523</v>
+      </c>
+      <c r="G32" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>161903</v>
+      </c>
+      <c r="H32" s="4">
+        <v>69487</v>
+      </c>
+      <c r="I32" s="4">
+        <v>92416</v>
+      </c>
+      <c r="J32" s="4">
+        <v>15.612731079720573</v>
+      </c>
+      <c r="K32" s="5">
+        <v>19.925975375785644</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="9">
+        <v>44593</v>
+      </c>
+      <c r="C33" s="23">
+        <f t="shared" si="0"/>
+        <v>1207392</v>
+      </c>
+      <c r="D33" s="18">
+        <v>609072</v>
+      </c>
+      <c r="E33" s="18">
+        <v>597797</v>
+      </c>
+      <c r="F33" s="18">
+        <v>523</v>
+      </c>
+      <c r="G33" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>161179</v>
+      </c>
+      <c r="H33" s="18">
+        <v>69288</v>
+      </c>
+      <c r="I33" s="18">
+        <v>91891</v>
+      </c>
+      <c r="J33" s="18">
+        <v>15.690822005348091</v>
+      </c>
+      <c r="K33" s="6">
+        <v>19.992202892268896</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="11">
+        <v>44562</v>
+      </c>
+      <c r="C34" s="28">
+        <f t="shared" si="0"/>
+        <v>1203679</v>
+      </c>
+      <c r="D34" s="7">
+        <v>607150</v>
+      </c>
+      <c r="E34" s="7">
+        <v>596005</v>
+      </c>
+      <c r="F34" s="7">
+        <v>524</v>
+      </c>
+      <c r="G34" s="7">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>160915</v>
+      </c>
+      <c r="H34" s="7">
+        <v>69335</v>
+      </c>
+      <c r="I34" s="7">
+        <v>91580</v>
+      </c>
+      <c r="J34" s="7">
+        <v>15.723189261411305</v>
+      </c>
+      <c r="K34" s="8">
+        <v>20.040443053611135</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="29">
+        <v>44531</v>
+      </c>
+      <c r="C35" s="30">
+        <f t="shared" si="0"/>
+        <v>1201053</v>
+      </c>
+      <c r="D35" s="31">
+        <v>606090</v>
+      </c>
+      <c r="E35" s="31">
+        <v>594443</v>
+      </c>
+      <c r="F35" s="31">
+        <v>520</v>
+      </c>
+      <c r="G35" s="31">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>160633</v>
+      </c>
+      <c r="H35" s="31">
+        <v>69330</v>
+      </c>
+      <c r="I35" s="31">
+        <v>91303</v>
+      </c>
+      <c r="J35" s="31">
+        <v>14.77932927854177</v>
+      </c>
+      <c r="K35" s="32">
+        <v>19.103214044118861</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="10">
+        <v>44501</v>
+      </c>
+      <c r="C36" s="22">
+        <f t="shared" si="0"/>
+        <v>1195350</v>
+      </c>
+      <c r="D36" s="4">
+        <v>603380</v>
+      </c>
+      <c r="E36" s="4">
+        <v>591451</v>
+      </c>
+      <c r="F36" s="4">
+        <v>519</v>
+      </c>
+      <c r="G36" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>159783</v>
+      </c>
+      <c r="H36" s="4">
+        <v>69196</v>
+      </c>
+      <c r="I36" s="4">
+        <v>90587</v>
+      </c>
+      <c r="J36" s="4">
+        <v>14.853858044973496</v>
+      </c>
+      <c r="K36" s="5">
+        <v>19.159161722297721</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="9">
+        <v>44470</v>
+      </c>
+      <c r="C37" s="23">
+        <f t="shared" si="0"/>
+        <v>1192781</v>
+      </c>
+      <c r="D37" s="18">
+        <v>602061</v>
+      </c>
+      <c r="E37" s="18">
+        <v>590200</v>
+      </c>
+      <c r="F37" s="18">
+        <v>520</v>
+      </c>
+      <c r="G37" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>159209</v>
+      </c>
+      <c r="H37" s="18">
+        <v>69167</v>
+      </c>
+      <c r="I37" s="18">
+        <v>90042</v>
+      </c>
+      <c r="J37" s="18">
+        <v>14.91196477586066</v>
+      </c>
+      <c r="K37" s="6">
+        <v>19.201099224164992</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="10">
+        <v>44440</v>
+      </c>
+      <c r="C38" s="22">
+        <f t="shared" ref="C38:C69" si="1">SUM(D38:F38)</f>
+        <v>1186041</v>
+      </c>
+      <c r="D38" s="4">
+        <v>599199</v>
+      </c>
+      <c r="E38" s="4">
+        <v>586326</v>
+      </c>
+      <c r="F38" s="4">
+        <v>516</v>
+      </c>
+      <c r="G38" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>158594</v>
+      </c>
+      <c r="H38" s="4">
+        <v>69024</v>
+      </c>
+      <c r="I38" s="4">
+        <v>89570</v>
+      </c>
+      <c r="J38" s="4">
+        <v>14.981991752525316</v>
+      </c>
+      <c r="K38" s="5">
+        <v>19.262381946565331</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="9">
+        <v>44409</v>
+      </c>
+      <c r="C39" s="23">
+        <f t="shared" si="1"/>
+        <v>1182334</v>
+      </c>
+      <c r="D39" s="18">
+        <v>597975</v>
+      </c>
+      <c r="E39" s="18">
+        <v>583854</v>
+      </c>
+      <c r="F39" s="18">
+        <v>505</v>
+      </c>
+      <c r="G39" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>157584</v>
+      </c>
+      <c r="H39" s="18">
+        <v>68967</v>
+      </c>
+      <c r="I39" s="18">
+        <v>88617</v>
+      </c>
+      <c r="J39" s="18">
+        <v>15.069702507868818</v>
+      </c>
+      <c r="K39" s="6">
+        <v>19.317817634516494</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="10">
+        <v>44378</v>
+      </c>
+      <c r="C40" s="22">
+        <f t="shared" si="1"/>
+        <v>1175907</v>
+      </c>
+      <c r="D40" s="4">
+        <v>594590</v>
+      </c>
+      <c r="E40" s="4">
+        <v>580812</v>
+      </c>
+      <c r="F40" s="4">
+        <v>505</v>
+      </c>
+      <c r="G40" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>157806</v>
+      </c>
+      <c r="H40" s="4">
+        <v>69051</v>
+      </c>
+      <c r="I40" s="4">
+        <v>88755</v>
+      </c>
+      <c r="J40" s="4">
+        <v>15.078070542311446</v>
+      </c>
+      <c r="K40" s="5">
+        <v>19.364975865722599</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="9">
+        <v>44348</v>
+      </c>
+      <c r="C41" s="23">
+        <f t="shared" si="1"/>
+        <v>1172788</v>
+      </c>
+      <c r="D41" s="18">
+        <v>593307</v>
+      </c>
+      <c r="E41" s="18">
+        <v>578970</v>
+      </c>
+      <c r="F41" s="18">
+        <v>511</v>
+      </c>
+      <c r="G41" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>157163</v>
+      </c>
+      <c r="H41" s="18">
+        <v>68993</v>
+      </c>
+      <c r="I41" s="18">
+        <v>88170</v>
+      </c>
+      <c r="J41" s="18">
+        <v>15.1151861443215</v>
+      </c>
+      <c r="K41" s="6">
+        <v>19.410730026782087</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="10">
+        <v>44317</v>
+      </c>
+      <c r="C42" s="22">
+        <f t="shared" si="1"/>
+        <v>1166805</v>
+      </c>
+      <c r="D42" s="4">
+        <v>590245</v>
+      </c>
+      <c r="E42" s="4">
+        <v>576050</v>
+      </c>
+      <c r="F42" s="4">
+        <v>510</v>
+      </c>
+      <c r="G42" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>156786</v>
+      </c>
+      <c r="H42" s="4">
+        <v>69018</v>
+      </c>
+      <c r="I42" s="4">
+        <v>87768</v>
+      </c>
+      <c r="J42" s="4">
+        <v>15.155396527751202</v>
+      </c>
+      <c r="K42" s="5">
+        <v>19.481235758032682</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="9">
+        <v>44287</v>
+      </c>
+      <c r="C43" s="23">
+        <f t="shared" si="1"/>
+        <v>1162463</v>
+      </c>
+      <c r="D43" s="18">
+        <v>588077</v>
+      </c>
+      <c r="E43" s="18">
+        <v>573877</v>
+      </c>
+      <c r="F43" s="18">
+        <v>509</v>
+      </c>
+      <c r="G43" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>156695</v>
+      </c>
+      <c r="H43" s="18">
+        <v>69223</v>
+      </c>
+      <c r="I43" s="18">
+        <v>87472</v>
+      </c>
+      <c r="J43" s="18">
+        <v>15.176859504132231</v>
+      </c>
+      <c r="K43" s="6">
+        <v>19.539313729324562</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="10">
+        <v>44256</v>
+      </c>
+      <c r="C44" s="22">
+        <f t="shared" si="1"/>
+        <v>1157730</v>
+      </c>
+      <c r="D44" s="4">
+        <v>586093</v>
+      </c>
+      <c r="E44" s="4">
+        <v>571129</v>
+      </c>
+      <c r="F44" s="4">
+        <v>508</v>
+      </c>
+      <c r="G44" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>156467</v>
+      </c>
+      <c r="H44" s="4">
+        <v>69334</v>
+      </c>
+      <c r="I44" s="4">
+        <v>87133</v>
+      </c>
+      <c r="J44" s="4">
+        <v>15.205474636824379</v>
+      </c>
+      <c r="K44" s="5">
+        <v>19.591187746654541</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="9">
+        <v>44228</v>
+      </c>
+      <c r="C45" s="23">
+        <f t="shared" si="1"/>
+        <v>1151624</v>
+      </c>
+      <c r="D45" s="18">
+        <v>583440</v>
+      </c>
+      <c r="E45" s="18">
+        <v>567677</v>
+      </c>
+      <c r="F45" s="18">
+        <v>507</v>
+      </c>
+      <c r="G45" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>156128</v>
+      </c>
+      <c r="H45" s="18">
+        <v>69352</v>
+      </c>
+      <c r="I45" s="18">
+        <v>86776</v>
+      </c>
+      <c r="J45" s="18">
+        <v>15.246899979503997</v>
+      </c>
+      <c r="K45" s="6">
+        <v>19.65870183737831</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="11">
+        <v>44197</v>
+      </c>
+      <c r="C46" s="28">
+        <f t="shared" si="1"/>
+        <v>1146962</v>
+      </c>
+      <c r="D46" s="7">
+        <v>581299</v>
+      </c>
+      <c r="E46" s="7">
+        <v>565156</v>
+      </c>
+      <c r="F46" s="7">
+        <v>507</v>
+      </c>
+      <c r="G46" s="7">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>156135</v>
+      </c>
+      <c r="H46" s="7">
+        <v>69558</v>
+      </c>
+      <c r="I46" s="7">
+        <v>86577</v>
+      </c>
+      <c r="J46" s="7">
+        <v>15.270791302398566</v>
+      </c>
+      <c r="K46" s="8">
+        <v>19.71498144672535</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="29">
+        <v>44166</v>
+      </c>
+      <c r="C47" s="30">
+        <f t="shared" si="1"/>
+        <v>1143940</v>
+      </c>
+      <c r="D47" s="31">
+        <v>580035</v>
+      </c>
+      <c r="E47" s="31">
+        <v>563400</v>
+      </c>
+      <c r="F47" s="31">
+        <v>505</v>
+      </c>
+      <c r="G47" s="31">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>156064</v>
+      </c>
+      <c r="H47" s="31">
+        <v>69624</v>
+      </c>
+      <c r="I47" s="31">
+        <v>86440</v>
+      </c>
+      <c r="J47" s="31">
+        <v>14.291950738158704</v>
+      </c>
+      <c r="K47" s="32">
+        <v>18.763405656555207</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="10">
+        <v>44136</v>
+      </c>
+      <c r="C48" s="22">
+        <f t="shared" si="1"/>
+        <v>1137719</v>
+      </c>
+      <c r="D48" s="4">
+        <v>576835</v>
+      </c>
+      <c r="E48" s="4">
+        <v>560383</v>
+      </c>
+      <c r="F48" s="4">
+        <v>501</v>
+      </c>
+      <c r="G48" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>155330</v>
+      </c>
+      <c r="H48" s="4">
+        <v>69641</v>
+      </c>
+      <c r="I48" s="4">
+        <v>85689</v>
+      </c>
+      <c r="J48" s="4">
+        <v>14.359087104873495</v>
+      </c>
+      <c r="K48" s="5">
+        <v>18.843092045385596</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="9">
+        <v>44105</v>
+      </c>
+      <c r="C49" s="23">
+        <f t="shared" si="1"/>
+        <v>1131496</v>
+      </c>
+      <c r="D49" s="18">
+        <v>574056</v>
+      </c>
+      <c r="E49" s="18">
+        <v>556941</v>
+      </c>
+      <c r="F49" s="18">
+        <v>499</v>
+      </c>
+      <c r="G49" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>154998</v>
+      </c>
+      <c r="H49" s="18">
+        <v>69581</v>
+      </c>
+      <c r="I49" s="18">
+        <v>85417</v>
+      </c>
+      <c r="J49" s="18">
+        <v>14.401392276029368</v>
+      </c>
+      <c r="K49" s="6">
+        <v>18.916173683403709</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="10">
+        <v>44075</v>
+      </c>
+      <c r="C50" s="22">
+        <f t="shared" si="1"/>
+        <v>1124473</v>
+      </c>
+      <c r="D50" s="4">
+        <v>571367</v>
+      </c>
+      <c r="E50" s="4">
+        <v>552611</v>
+      </c>
+      <c r="F50" s="4">
+        <v>495</v>
+      </c>
+      <c r="G50" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>154974</v>
+      </c>
+      <c r="H50" s="4">
+        <v>69802</v>
+      </c>
+      <c r="I50" s="4">
+        <v>85172</v>
+      </c>
+      <c r="J50" s="4">
+        <v>14.418154012931202</v>
+      </c>
+      <c r="K50" s="5">
+        <v>18.991473081224502</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="9">
+        <v>44044</v>
+      </c>
+      <c r="C51" s="23">
+        <f t="shared" si="1"/>
+        <v>1119301</v>
+      </c>
+      <c r="D51" s="18">
+        <v>569174</v>
+      </c>
+      <c r="E51" s="18">
+        <v>549631</v>
+      </c>
+      <c r="F51" s="18">
+        <v>496</v>
+      </c>
+      <c r="G51" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>155005</v>
+      </c>
+      <c r="H51" s="18">
+        <v>69935</v>
+      </c>
+      <c r="I51" s="18">
+        <v>85070</v>
+      </c>
+      <c r="J51" s="18">
+        <v>14.424315344666301</v>
+      </c>
+      <c r="K51" s="6">
+        <v>19.054786409779787</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="10">
+        <v>44013</v>
+      </c>
+      <c r="C52" s="22">
+        <f t="shared" si="1"/>
+        <v>1115206</v>
+      </c>
+      <c r="D52" s="4">
+        <v>567168</v>
+      </c>
+      <c r="E52" s="4">
+        <v>547540</v>
+      </c>
+      <c r="F52" s="4">
+        <v>498</v>
+      </c>
+      <c r="G52" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>154854</v>
+      </c>
+      <c r="H52" s="4">
+        <v>69936</v>
+      </c>
+      <c r="I52" s="4">
+        <v>84918</v>
+      </c>
+      <c r="J52" s="4">
+        <v>14.441519108321387</v>
+      </c>
+      <c r="K52" s="5">
+        <v>19.111048225569849</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="9">
+        <v>43983</v>
+      </c>
+      <c r="C53" s="23">
+        <f t="shared" si="1"/>
+        <v>1112456</v>
+      </c>
+      <c r="D53" s="18">
+        <v>566042</v>
+      </c>
+      <c r="E53" s="18">
+        <v>545916</v>
+      </c>
+      <c r="F53" s="18">
+        <v>498</v>
+      </c>
+      <c r="G53" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>154797</v>
+      </c>
+      <c r="H53" s="18">
+        <v>69959</v>
+      </c>
+      <c r="I53" s="18">
+        <v>84838</v>
+      </c>
+      <c r="J53" s="18">
+        <v>14.450499686686435</v>
+      </c>
+      <c r="K53" s="6">
+        <v>19.140800505969523</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="10">
+        <v>43952</v>
+      </c>
+      <c r="C54" s="22">
+        <f t="shared" si="1"/>
+        <v>1111879</v>
+      </c>
+      <c r="D54" s="4">
+        <v>565980</v>
+      </c>
+      <c r="E54" s="4">
+        <v>545400</v>
+      </c>
+      <c r="F54" s="4">
+        <v>499</v>
+      </c>
+      <c r="G54" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>154663</v>
+      </c>
+      <c r="H54" s="4">
+        <v>69945</v>
+      </c>
+      <c r="I54" s="4">
+        <v>84718</v>
+      </c>
+      <c r="J54" s="4">
+        <v>14.46115101866639</v>
+      </c>
+      <c r="K54" s="5">
+        <v>19.144045725997383</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="9">
+        <v>43922</v>
+      </c>
+      <c r="C55" s="23">
+        <f t="shared" si="1"/>
+        <v>1111626</v>
+      </c>
+      <c r="D55" s="18">
+        <v>565883</v>
+      </c>
+      <c r="E55" s="18">
+        <v>545244</v>
+      </c>
+      <c r="F55" s="18">
+        <v>499</v>
+      </c>
+      <c r="G55" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>154659</v>
+      </c>
+      <c r="H55" s="18">
+        <v>69947</v>
+      </c>
+      <c r="I55" s="18">
+        <v>84712</v>
+      </c>
+      <c r="J55" s="18">
+        <v>14.461473305788864</v>
+      </c>
+      <c r="K55" s="6">
+        <v>19.146164489832703</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="10">
+        <v>43891</v>
+      </c>
+      <c r="C56" s="22">
+        <f t="shared" si="1"/>
+        <v>1111436</v>
+      </c>
+      <c r="D56" s="4">
+        <v>565809</v>
+      </c>
+      <c r="E56" s="4">
+        <v>545128</v>
+      </c>
+      <c r="F56" s="4">
+        <v>499</v>
+      </c>
+      <c r="G56" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>154670</v>
+      </c>
+      <c r="H56" s="4">
+        <v>69953</v>
+      </c>
+      <c r="I56" s="4">
+        <v>84717</v>
+      </c>
+      <c r="J56" s="4">
+        <v>14.461059028900239</v>
+      </c>
+      <c r="K56" s="5">
+        <v>19.148813468856098</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="9">
+        <v>43862</v>
+      </c>
+      <c r="C57" s="23">
+        <f t="shared" si="1"/>
+        <v>1107180</v>
+      </c>
+      <c r="D57" s="18">
+        <v>564089</v>
+      </c>
+      <c r="E57" s="18">
+        <v>542595</v>
+      </c>
+      <c r="F57" s="18">
+        <v>496</v>
+      </c>
+      <c r="G57" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>154310</v>
+      </c>
+      <c r="H57" s="18">
+        <v>69893</v>
+      </c>
+      <c r="I57" s="18">
+        <v>84417</v>
+      </c>
+      <c r="J57" s="18">
+        <v>14.507322921392003</v>
+      </c>
+      <c r="K57" s="6">
+        <v>19.193769068356236</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="11">
+        <v>43831</v>
+      </c>
+      <c r="C58" s="28">
+        <f t="shared" si="1"/>
+        <v>1102434</v>
+      </c>
+      <c r="D58" s="7">
+        <v>562170</v>
+      </c>
+      <c r="E58" s="7">
+        <v>539768</v>
+      </c>
+      <c r="F58" s="7">
+        <v>496</v>
+      </c>
+      <c r="G58" s="7">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>153904</v>
+      </c>
+      <c r="H58" s="7">
+        <v>69851</v>
+      </c>
+      <c r="I58" s="7">
+        <v>84053</v>
+      </c>
+      <c r="J58" s="7">
+        <v>14.558120646636899</v>
+      </c>
+      <c r="K58" s="8">
+        <v>19.246057242471139</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="29">
+        <v>43800</v>
+      </c>
+      <c r="C59" s="30">
+        <f t="shared" si="1"/>
+        <v>1099371</v>
+      </c>
+      <c r="D59" s="31">
+        <v>561061</v>
+      </c>
+      <c r="E59" s="31">
+        <v>537813</v>
+      </c>
+      <c r="F59" s="31">
+        <v>497</v>
+      </c>
+      <c r="G59" s="31">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>153726</v>
+      </c>
+      <c r="H59" s="31">
+        <v>69871</v>
+      </c>
+      <c r="I59" s="31">
+        <v>83855</v>
+      </c>
+      <c r="J59" s="31">
+        <v>13.608641348893485</v>
+      </c>
+      <c r="K59" s="32">
+        <v>18.302218475352948</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="10">
+        <v>43770</v>
+      </c>
+      <c r="C60" s="22">
+        <f t="shared" si="1"/>
+        <v>1094843</v>
+      </c>
+      <c r="D60" s="4">
+        <v>558626</v>
+      </c>
+      <c r="E60" s="4">
+        <v>535724</v>
+      </c>
+      <c r="F60" s="4">
+        <v>493</v>
+      </c>
+      <c r="G60" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>152624</v>
+      </c>
+      <c r="H60" s="4">
+        <v>69534</v>
+      </c>
+      <c r="I60" s="4">
+        <v>83090</v>
+      </c>
+      <c r="J60" s="4">
+        <v>13.697282209875249</v>
+      </c>
+      <c r="K60" s="5">
+        <v>18.357969374859028</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="9">
+        <v>43739</v>
+      </c>
+      <c r="C61" s="23">
+        <f t="shared" si="1"/>
+        <v>1089907</v>
+      </c>
+      <c r="D61" s="18">
+        <v>556346</v>
+      </c>
+      <c r="E61" s="18">
+        <v>533069</v>
+      </c>
+      <c r="F61" s="18">
+        <v>492</v>
+      </c>
+      <c r="G61" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>151838</v>
+      </c>
+      <c r="H61" s="18">
+        <v>69318</v>
+      </c>
+      <c r="I61" s="18">
+        <v>82520</v>
+      </c>
+      <c r="J61" s="18">
+        <v>13.773673257023933</v>
+      </c>
+      <c r="K61" s="6">
+        <v>18.416267933983526</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="10">
+        <v>43709</v>
+      </c>
+      <c r="C62" s="22">
+        <f t="shared" si="1"/>
+        <v>1026253</v>
+      </c>
+      <c r="D62" s="4">
+        <v>519860</v>
+      </c>
+      <c r="E62" s="4">
+        <v>505944</v>
+      </c>
+      <c r="F62" s="4">
+        <v>449</v>
+      </c>
+      <c r="G62" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>134666</v>
+      </c>
+      <c r="H62" s="4">
+        <v>59103</v>
+      </c>
+      <c r="I62" s="4">
+        <v>75563</v>
+      </c>
+      <c r="J62" s="4">
+        <v>13.265634978390983</v>
+      </c>
+      <c r="K62" s="5">
+        <v>18.202425653060438</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="9">
+        <v>43678</v>
+      </c>
+      <c r="C63" s="23">
+        <f t="shared" si="1"/>
+        <v>1021601</v>
+      </c>
+      <c r="D63" s="18">
+        <v>517666</v>
+      </c>
+      <c r="E63" s="18">
+        <v>503486</v>
+      </c>
+      <c r="F63" s="18">
+        <v>449</v>
+      </c>
+      <c r="G63" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>134177</v>
+      </c>
+      <c r="H63" s="18">
+        <v>58996</v>
+      </c>
+      <c r="I63" s="18">
+        <v>75181</v>
+      </c>
+      <c r="J63" s="18">
+        <v>13.321195137765788</v>
+      </c>
+      <c r="K63" s="6">
+        <v>18.260312634014984</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="10">
+        <v>43647</v>
+      </c>
+      <c r="C64" s="22">
+        <f t="shared" si="1"/>
+        <v>1012889</v>
+      </c>
+      <c r="D64" s="4">
+        <v>514393</v>
+      </c>
+      <c r="E64" s="4">
+        <v>498050</v>
+      </c>
+      <c r="F64" s="4">
+        <v>446</v>
+      </c>
+      <c r="G64" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>134315</v>
+      </c>
+      <c r="H64" s="4">
+        <v>59818</v>
+      </c>
+      <c r="I64" s="4">
+        <v>74497</v>
+      </c>
+      <c r="J64" s="4">
+        <v>13.572348583553588</v>
+      </c>
+      <c r="K64" s="5">
+        <v>18.476849412803052</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="9">
+        <v>43617</v>
+      </c>
+      <c r="C65" s="23">
+        <f t="shared" si="1"/>
+        <v>1011042</v>
+      </c>
+      <c r="D65" s="18">
+        <v>512802</v>
+      </c>
+      <c r="E65" s="18">
+        <v>497796</v>
+      </c>
+      <c r="F65" s="18">
+        <v>444</v>
+      </c>
+      <c r="G65" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>132861</v>
+      </c>
+      <c r="H65" s="18">
+        <v>58917</v>
+      </c>
+      <c r="I65" s="18">
+        <v>73944</v>
+      </c>
+      <c r="J65" s="18">
+        <v>13.491144880740022</v>
+      </c>
+      <c r="K65" s="6">
+        <v>18.398711393481303</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="10">
+        <v>43586</v>
+      </c>
+      <c r="C66" s="22">
+        <f t="shared" si="1"/>
+        <v>1006543</v>
+      </c>
+      <c r="D66" s="4">
+        <v>506850</v>
+      </c>
+      <c r="E66" s="4">
+        <v>499239</v>
+      </c>
+      <c r="F66" s="4">
+        <v>454</v>
+      </c>
+      <c r="G66" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>133322</v>
+      </c>
+      <c r="H66" s="4">
+        <v>58537</v>
+      </c>
+      <c r="I66" s="4">
+        <v>74785</v>
+      </c>
+      <c r="J66" s="4">
+        <v>12.551904411875009</v>
+      </c>
+      <c r="K66" s="5">
+        <v>17.760755647627501</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="9">
+        <v>43556</v>
+      </c>
+      <c r="C67" s="23">
+        <f t="shared" si="1"/>
+        <v>1000820</v>
+      </c>
+      <c r="D67" s="18">
+        <v>504046</v>
+      </c>
+      <c r="E67" s="18">
+        <v>496323</v>
+      </c>
+      <c r="F67" s="18">
+        <v>451</v>
+      </c>
+      <c r="G67" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>132406</v>
+      </c>
+      <c r="H67" s="18">
+        <v>58289</v>
+      </c>
+      <c r="I67" s="18">
+        <v>74117</v>
+      </c>
+      <c r="J67" s="18">
+        <v>12.619949247012975</v>
+      </c>
+      <c r="K67" s="6">
+        <v>17.838770667756513</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="10">
+        <v>43525</v>
+      </c>
+      <c r="C68" s="22">
+        <f t="shared" si="1"/>
+        <v>995167</v>
+      </c>
+      <c r="D68" s="4">
+        <v>501424</v>
+      </c>
+      <c r="E68" s="4">
+        <v>493291</v>
+      </c>
+      <c r="F68" s="4">
+        <v>452</v>
+      </c>
+      <c r="G68" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>131276</v>
+      </c>
+      <c r="H68" s="4">
+        <v>57933</v>
+      </c>
+      <c r="I68" s="4">
+        <v>73343</v>
+      </c>
+      <c r="J68" s="4">
+        <v>12.722576860964685</v>
+      </c>
+      <c r="K68" s="5">
+        <v>17.901807651807651</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="9">
+        <v>43497</v>
+      </c>
+      <c r="C69" s="23">
+        <f t="shared" si="1"/>
+        <v>990002</v>
+      </c>
+      <c r="D69" s="18">
+        <v>499221</v>
+      </c>
+      <c r="E69" s="18">
+        <v>490327</v>
+      </c>
+      <c r="F69" s="18">
+        <v>454</v>
+      </c>
+      <c r="G69" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>130579</v>
+      </c>
+      <c r="H69" s="18">
+        <v>57862</v>
+      </c>
+      <c r="I69" s="18">
+        <v>72717</v>
+      </c>
+      <c r="J69" s="18">
+        <v>12.793971465549591</v>
+      </c>
+      <c r="K69" s="6">
+        <v>17.958405195294269</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="11">
+        <v>43466</v>
+      </c>
+      <c r="C70" s="28">
+        <f t="shared" ref="C70:C101" si="2">SUM(D70:F70)</f>
+        <v>985713</v>
+      </c>
+      <c r="D70" s="7">
+        <v>497141</v>
+      </c>
+      <c r="E70" s="7">
+        <v>488120</v>
+      </c>
+      <c r="F70" s="7">
+        <v>452</v>
+      </c>
+      <c r="G70" s="7">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>129833</v>
+      </c>
+      <c r="H70" s="7">
+        <v>57647</v>
+      </c>
+      <c r="I70" s="7">
+        <v>72186</v>
+      </c>
+      <c r="J70" s="7">
+        <v>12.85511387705745</v>
+      </c>
+      <c r="K70" s="8">
+        <v>18.009015550920161</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="29">
+        <v>43435</v>
+      </c>
+      <c r="C71" s="30">
+        <f t="shared" si="2"/>
+        <v>982856</v>
+      </c>
+      <c r="D71" s="31">
+        <v>496057</v>
+      </c>
+      <c r="E71" s="31">
+        <v>486335</v>
+      </c>
+      <c r="F71" s="31">
+        <v>464</v>
+      </c>
+      <c r="G71" s="31">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>129315</v>
+      </c>
+      <c r="H71" s="31">
+        <v>57599</v>
+      </c>
+      <c r="I71" s="31">
+        <v>71716</v>
+      </c>
+      <c r="J71" s="31">
+        <v>11.5</v>
+      </c>
+      <c r="K71" s="32">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="10">
+        <v>43405</v>
+      </c>
+      <c r="C72" s="22">
+        <f t="shared" si="2"/>
+        <v>978058</v>
+      </c>
+      <c r="D72" s="4">
+        <v>493248</v>
+      </c>
+      <c r="E72" s="4">
+        <v>484343</v>
+      </c>
+      <c r="F72" s="4">
+        <v>467</v>
+      </c>
+      <c r="G72" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>127995</v>
+      </c>
+      <c r="H72" s="4">
+        <v>57117</v>
+      </c>
+      <c r="I72" s="4">
+        <v>70878</v>
+      </c>
+      <c r="J72" s="4">
+        <v>11.579603101683661</v>
+      </c>
+      <c r="K72" s="5">
+        <v>16.657281844021668</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="9">
+        <v>43374</v>
+      </c>
+      <c r="C73" s="23">
+        <f t="shared" si="2"/>
+        <v>971514</v>
+      </c>
+      <c r="D73" s="18">
+        <v>489853</v>
+      </c>
+      <c r="E73" s="18">
+        <v>481195</v>
+      </c>
+      <c r="F73" s="18">
+        <v>466</v>
+      </c>
+      <c r="G73" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>126537</v>
+      </c>
+      <c r="H73" s="18">
+        <v>56599</v>
+      </c>
+      <c r="I73" s="18">
+        <v>69938</v>
+      </c>
+      <c r="J73" s="18">
+        <v>11.695425480294306</v>
+      </c>
+      <c r="K73" s="6">
+        <v>16.724397819345807</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="10">
+        <v>43344</v>
+      </c>
+      <c r="C74" s="22">
+        <f t="shared" si="2"/>
+        <v>965544</v>
+      </c>
+      <c r="D74" s="4">
+        <v>486879</v>
+      </c>
+      <c r="E74" s="4">
+        <v>478202</v>
+      </c>
+      <c r="F74" s="4">
+        <v>463</v>
+      </c>
+      <c r="G74" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>125592</v>
+      </c>
+      <c r="H74" s="4">
+        <v>56443</v>
+      </c>
+      <c r="I74" s="4">
+        <v>69149</v>
+      </c>
+      <c r="J74" s="4">
+        <v>11.775922614497736</v>
+      </c>
+      <c r="K74" s="5">
+        <v>16.795398144097401</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="9">
+        <v>43313</v>
+      </c>
+      <c r="C75" s="23">
+        <f t="shared" si="2"/>
+        <v>960111</v>
+      </c>
+      <c r="D75" s="18">
+        <v>483912</v>
+      </c>
+      <c r="E75" s="18">
+        <v>475735</v>
+      </c>
+      <c r="F75" s="18">
+        <v>464</v>
+      </c>
+      <c r="G75" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>124463</v>
+      </c>
+      <c r="H75" s="18">
+        <v>56029</v>
+      </c>
+      <c r="I75" s="18">
+        <v>68434</v>
+      </c>
+      <c r="J75" s="18">
+        <v>11.859889509332092</v>
+      </c>
+      <c r="K75" s="6">
+        <v>16.84972398287292</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="10">
+        <v>43282</v>
+      </c>
+      <c r="C76" s="22">
+        <f t="shared" si="2"/>
+        <v>953323</v>
+      </c>
+      <c r="D76" s="4">
+        <v>480495</v>
+      </c>
+      <c r="E76" s="4">
+        <v>472364</v>
+      </c>
+      <c r="F76" s="4">
+        <v>464</v>
+      </c>
+      <c r="G76" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>123737</v>
+      </c>
+      <c r="H76" s="4">
+        <v>55960</v>
+      </c>
+      <c r="I76" s="4">
+        <v>67777</v>
+      </c>
+      <c r="J76" s="4">
+        <v>11.930278889903581</v>
+      </c>
+      <c r="K76" s="5">
+        <v>16.922447322032493</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="9">
+        <v>43252</v>
+      </c>
+      <c r="C77" s="23">
+        <f t="shared" si="2"/>
+        <v>947851</v>
+      </c>
+      <c r="D77" s="18">
+        <v>477880</v>
+      </c>
+      <c r="E77" s="18">
+        <v>469513</v>
+      </c>
+      <c r="F77" s="18">
+        <v>458</v>
+      </c>
+      <c r="G77" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>122946</v>
+      </c>
+      <c r="H77" s="18">
+        <v>55790</v>
+      </c>
+      <c r="I77" s="18">
+        <v>67156</v>
+      </c>
+      <c r="J77" s="18">
+        <v>12.01</v>
+      </c>
+      <c r="K77" s="6">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="10">
+        <v>43221</v>
+      </c>
+      <c r="C78" s="22">
+        <f t="shared" si="2"/>
+        <v>944527</v>
+      </c>
+      <c r="D78" s="4">
+        <v>476241</v>
+      </c>
+      <c r="E78" s="4">
+        <v>467827</v>
+      </c>
+      <c r="F78" s="4">
+        <v>459</v>
+      </c>
+      <c r="G78" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>122105</v>
+      </c>
+      <c r="H78" s="4">
+        <v>55617</v>
+      </c>
+      <c r="I78" s="4">
+        <v>66488</v>
+      </c>
+      <c r="J78" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="K78" s="5">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="9">
+        <v>43191</v>
+      </c>
+      <c r="C79" s="23">
+        <f t="shared" si="2"/>
+        <v>936533</v>
+      </c>
+      <c r="D79" s="18">
+        <v>472271</v>
+      </c>
+      <c r="E79" s="18">
+        <v>463807</v>
+      </c>
+      <c r="F79" s="18">
+        <v>455</v>
+      </c>
+      <c r="G79" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>121075</v>
+      </c>
+      <c r="H79" s="18">
+        <v>55199</v>
+      </c>
+      <c r="I79" s="18">
+        <v>65876</v>
+      </c>
+      <c r="J79" s="18">
+        <v>12.15</v>
+      </c>
+      <c r="K79" s="6">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="10">
+        <v>43160</v>
+      </c>
+      <c r="C80" s="22">
+        <f t="shared" si="2"/>
+        <v>930205</v>
+      </c>
+      <c r="D80" s="4">
+        <v>469020</v>
+      </c>
+      <c r="E80" s="4">
+        <v>460731</v>
+      </c>
+      <c r="F80" s="4">
+        <v>454</v>
+      </c>
+      <c r="G80" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>120039</v>
+      </c>
+      <c r="H80" s="4">
+        <v>54921</v>
+      </c>
+      <c r="I80" s="4">
+        <v>65118</v>
+      </c>
+      <c r="J80" s="4">
+        <v>12.219768117028636</v>
+      </c>
+      <c r="K80" s="5">
+        <v>17.169355262035737</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="9">
+        <v>43132</v>
+      </c>
+      <c r="C81" s="23">
+        <f t="shared" si="2"/>
+        <v>924012</v>
+      </c>
+      <c r="D81" s="18">
+        <v>466319</v>
+      </c>
+      <c r="E81" s="18">
+        <v>457242</v>
+      </c>
+      <c r="F81" s="18">
+        <v>451</v>
+      </c>
+      <c r="G81" s="18">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>118763</v>
+      </c>
+      <c r="H81" s="18">
+        <v>54503</v>
+      </c>
+      <c r="I81" s="18">
+        <v>64260</v>
+      </c>
+      <c r="J81" s="18">
+        <v>12.303791963827118</v>
+      </c>
+      <c r="K81" s="6">
+        <v>17.220716288635032</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="11">
+        <v>43101</v>
+      </c>
+      <c r="C82" s="28">
+        <f t="shared" si="2"/>
+        <v>920526</v>
+      </c>
+      <c r="D82" s="7">
+        <v>464622</v>
+      </c>
+      <c r="E82" s="7">
+        <v>455453</v>
+      </c>
+      <c r="F82" s="7">
+        <v>451</v>
+      </c>
+      <c r="G82" s="7">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>118260</v>
+      </c>
+      <c r="H82" s="7">
+        <v>54504</v>
+      </c>
+      <c r="I82" s="7">
+        <v>63756</v>
+      </c>
+      <c r="J82" s="7">
+        <v>12.37</v>
+      </c>
+      <c r="K82" s="8">
+        <v>17.28</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
+      <c r="K83" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I25" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I26" s="3" t="s">
+      <c r="K84" s="3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
+  <mergeCells count="3">
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Flota_Antigúedad_AF.xlsx
+++ b/Flota_Antigúedad_AF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ABC2B5-4E83-4523-B8A5-F33B03E84BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64982E4C-04F4-4EDD-B77C-304196B8F2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
-  <si>
-    <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="28">
   <si>
     <t>Carga</t>
   </si>
@@ -87,6 +84,45 @@
   </si>
   <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
   </si>
 </sst>
 </file>
@@ -353,18 +389,6 @@
     <xf numFmtId="17" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -387,6 +411,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -433,19 +469,19 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -497,7 +533,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:L85" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:L85" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="B5:L85" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
     <filterColumn colId="0">
       <filters>
@@ -772,7 +808,7 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -783,63 +819,63 @@
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="20"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="I5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>7</v>
-      </c>
       <c r="K5" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="24">
+      <c r="B6" s="20">
         <v>2024</v>
       </c>
-      <c r="C6" s="25">
-        <v>8</v>
+      <c r="C6" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="11">
         <f>SUM(E6:G6)</f>
@@ -872,11 +908,11 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="26">
+      <c r="B7" s="22">
         <v>2024</v>
       </c>
-      <c r="C7" s="27">
-        <v>7</v>
+      <c r="C7" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="15">
         <f t="shared" ref="D7:D9" si="0">SUM(E7:G7)</f>
@@ -909,11 +945,11 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="24">
+      <c r="B8" s="20">
         <v>2024</v>
       </c>
-      <c r="C8" s="25">
-        <v>6</v>
+      <c r="C8" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
@@ -946,11 +982,11 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="26">
+      <c r="B9" s="22">
         <v>2024</v>
       </c>
-      <c r="C9" s="27">
-        <v>5</v>
+      <c r="C9" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="D9" s="15">
         <f t="shared" si="0"/>
@@ -983,11 +1019,11 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="24">
+      <c r="B10" s="20">
         <v>2024</v>
       </c>
-      <c r="C10" s="25">
-        <v>4</v>
+      <c r="C10" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" ref="D10:D40" si="1">SUM(E10:G10)</f>
@@ -1020,11 +1056,11 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="26">
+      <c r="B11" s="22">
         <v>2024</v>
       </c>
-      <c r="C11" s="27">
-        <v>3</v>
+      <c r="C11" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="D11" s="15">
         <f t="shared" si="1"/>
@@ -1057,11 +1093,11 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="24">
+      <c r="B12" s="20">
         <v>2024</v>
       </c>
-      <c r="C12" s="25">
-        <v>2</v>
+      <c r="C12" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="11">
         <f t="shared" si="1"/>
@@ -1094,11 +1130,11 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="28">
+      <c r="B13" s="24">
         <v>2024</v>
       </c>
-      <c r="C13" s="29">
-        <v>1</v>
+      <c r="C13" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="D13" s="16">
         <f t="shared" si="1"/>
@@ -1131,11 +1167,11 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="30">
+      <c r="B14" s="26">
         <v>2023</v>
       </c>
-      <c r="C14" s="31">
-        <v>12</v>
+      <c r="C14" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="D14" s="17">
         <f t="shared" si="1"/>
@@ -1168,11 +1204,11 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="26">
+      <c r="B15" s="22">
         <v>2023</v>
       </c>
-      <c r="C15" s="27">
-        <v>11</v>
+      <c r="C15" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="D15" s="15">
         <f t="shared" si="1"/>
@@ -1205,11 +1241,11 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="24">
+      <c r="B16" s="20">
         <v>2023</v>
       </c>
-      <c r="C16" s="25">
-        <v>10</v>
+      <c r="C16" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="1"/>
@@ -1242,11 +1278,11 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="26">
+      <c r="B17" s="22">
         <v>2023</v>
       </c>
-      <c r="C17" s="27">
-        <v>9</v>
+      <c r="C17" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="D17" s="15">
         <f t="shared" si="1"/>
@@ -1279,11 +1315,11 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="24">
+      <c r="B18" s="20">
         <v>2023</v>
       </c>
-      <c r="C18" s="25">
-        <v>8</v>
+      <c r="C18" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="D18" s="11">
         <f t="shared" si="1"/>
@@ -1316,11 +1352,11 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="26">
+      <c r="B19" s="22">
         <v>2023</v>
       </c>
-      <c r="C19" s="27">
-        <v>7</v>
+      <c r="C19" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="D19" s="15">
         <f t="shared" si="1"/>
@@ -1353,11 +1389,11 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="24">
+      <c r="B20" s="20">
         <v>2023</v>
       </c>
-      <c r="C20" s="25">
-        <v>6</v>
+      <c r="C20" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" si="1"/>
@@ -1390,11 +1426,11 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="26">
+      <c r="B21" s="22">
         <v>2023</v>
       </c>
-      <c r="C21" s="27">
-        <v>5</v>
+      <c r="C21" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="D21" s="15">
         <f t="shared" si="1"/>
@@ -1427,11 +1463,11 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="24">
+      <c r="B22" s="20">
         <v>2023</v>
       </c>
-      <c r="C22" s="25">
-        <v>4</v>
+      <c r="C22" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D22" s="11">
         <f t="shared" si="1"/>
@@ -1464,11 +1500,11 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B23" s="26">
+      <c r="B23" s="22">
         <v>2023</v>
       </c>
-      <c r="C23" s="27">
-        <v>3</v>
+      <c r="C23" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="D23" s="15">
         <f t="shared" si="1"/>
@@ -1501,11 +1537,11 @@
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B24" s="24">
+      <c r="B24" s="20">
         <v>2023</v>
       </c>
-      <c r="C24" s="25">
-        <v>2</v>
+      <c r="C24" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D24" s="11">
         <f t="shared" si="1"/>
@@ -1538,11 +1574,11 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B25" s="28">
+      <c r="B25" s="24">
         <v>2023</v>
       </c>
-      <c r="C25" s="29">
-        <v>1</v>
+      <c r="C25" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="D25" s="16">
         <f t="shared" si="1"/>
@@ -1575,11 +1611,11 @@
       </c>
     </row>
     <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="30">
+      <c r="B26" s="26">
         <v>2022</v>
       </c>
-      <c r="C26" s="31">
-        <v>12</v>
+      <c r="C26" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="D26" s="17">
         <f t="shared" si="1"/>
@@ -1612,11 +1648,11 @@
       </c>
     </row>
     <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="26">
+      <c r="B27" s="22">
         <v>2022</v>
       </c>
-      <c r="C27" s="27">
-        <v>11</v>
+      <c r="C27" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="D27" s="15">
         <f t="shared" si="1"/>
@@ -1649,11 +1685,11 @@
       </c>
     </row>
     <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="24">
+      <c r="B28" s="20">
         <v>2022</v>
       </c>
-      <c r="C28" s="25">
-        <v>10</v>
+      <c r="C28" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D28" s="11">
         <f t="shared" si="1"/>
@@ -1686,11 +1722,11 @@
       </c>
     </row>
     <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="26">
+      <c r="B29" s="22">
         <v>2022</v>
       </c>
-      <c r="C29" s="27">
-        <v>9</v>
+      <c r="C29" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="D29" s="15">
         <f t="shared" si="1"/>
@@ -1723,11 +1759,11 @@
       </c>
     </row>
     <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="24">
+      <c r="B30" s="20">
         <v>2022</v>
       </c>
-      <c r="C30" s="25">
-        <v>8</v>
+      <c r="C30" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="D30" s="11">
         <f t="shared" si="1"/>
@@ -1760,11 +1796,11 @@
       </c>
     </row>
     <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="26">
+      <c r="B31" s="22">
         <v>2022</v>
       </c>
-      <c r="C31" s="27">
-        <v>7</v>
+      <c r="C31" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="D31" s="15">
         <f t="shared" si="1"/>
@@ -1797,11 +1833,11 @@
       </c>
     </row>
     <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="24">
+      <c r="B32" s="20">
         <v>2022</v>
       </c>
-      <c r="C32" s="25">
-        <v>6</v>
+      <c r="C32" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D32" s="11">
         <f t="shared" si="1"/>
@@ -1834,11 +1870,11 @@
       </c>
     </row>
     <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="26">
+      <c r="B33" s="22">
         <v>2022</v>
       </c>
-      <c r="C33" s="27">
-        <v>5</v>
+      <c r="C33" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="D33" s="15">
         <f t="shared" si="1"/>
@@ -1871,11 +1907,11 @@
       </c>
     </row>
     <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="24">
+      <c r="B34" s="20">
         <v>2022</v>
       </c>
-      <c r="C34" s="25">
-        <v>4</v>
+      <c r="C34" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D34" s="11">
         <f t="shared" si="1"/>
@@ -1908,11 +1944,11 @@
       </c>
     </row>
     <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="26">
+      <c r="B35" s="22">
         <v>2022</v>
       </c>
-      <c r="C35" s="27">
-        <v>3</v>
+      <c r="C35" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="D35" s="15">
         <f t="shared" si="1"/>
@@ -1945,11 +1981,11 @@
       </c>
     </row>
     <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="24">
+      <c r="B36" s="20">
         <v>2022</v>
       </c>
-      <c r="C36" s="25">
-        <v>2</v>
+      <c r="C36" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D36" s="11">
         <f t="shared" si="1"/>
@@ -1982,11 +2018,11 @@
       </c>
     </row>
     <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="28">
+      <c r="B37" s="24">
         <v>2022</v>
       </c>
-      <c r="C37" s="29">
-        <v>1</v>
+      <c r="C37" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="D37" s="16">
         <f t="shared" si="1"/>
@@ -2019,11 +2055,11 @@
       </c>
     </row>
     <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="30">
+      <c r="B38" s="26">
         <v>2021</v>
       </c>
-      <c r="C38" s="31">
-        <v>12</v>
+      <c r="C38" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="D38" s="17">
         <f t="shared" si="1"/>
@@ -2056,11 +2092,11 @@
       </c>
     </row>
     <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="26">
+      <c r="B39" s="22">
         <v>2021</v>
       </c>
-      <c r="C39" s="27">
-        <v>11</v>
+      <c r="C39" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="D39" s="15">
         <f t="shared" si="1"/>
@@ -2093,11 +2129,11 @@
       </c>
     </row>
     <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="24">
+      <c r="B40" s="20">
         <v>2021</v>
       </c>
-      <c r="C40" s="25">
-        <v>10</v>
+      <c r="C40" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D40" s="11">
         <f t="shared" si="1"/>
@@ -2130,11 +2166,11 @@
       </c>
     </row>
     <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="26">
+      <c r="B41" s="22">
         <v>2021</v>
       </c>
-      <c r="C41" s="27">
-        <v>9</v>
+      <c r="C41" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="D41" s="15">
         <f t="shared" ref="D41:D72" si="2">SUM(E41:G41)</f>
@@ -2167,11 +2203,11 @@
       </c>
     </row>
     <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="24">
+      <c r="B42" s="20">
         <v>2021</v>
       </c>
-      <c r="C42" s="25">
-        <v>8</v>
+      <c r="C42" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="D42" s="11">
         <f t="shared" si="2"/>
@@ -2204,11 +2240,11 @@
       </c>
     </row>
     <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="26">
+      <c r="B43" s="22">
         <v>2021</v>
       </c>
-      <c r="C43" s="27">
-        <v>7</v>
+      <c r="C43" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="D43" s="15">
         <f t="shared" si="2"/>
@@ -2241,11 +2277,11 @@
       </c>
     </row>
     <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="24">
+      <c r="B44" s="20">
         <v>2021</v>
       </c>
-      <c r="C44" s="25">
-        <v>6</v>
+      <c r="C44" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D44" s="11">
         <f t="shared" si="2"/>
@@ -2278,11 +2314,11 @@
       </c>
     </row>
     <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="26">
+      <c r="B45" s="22">
         <v>2021</v>
       </c>
-      <c r="C45" s="27">
-        <v>5</v>
+      <c r="C45" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="D45" s="15">
         <f t="shared" si="2"/>
@@ -2315,11 +2351,11 @@
       </c>
     </row>
     <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="24">
+      <c r="B46" s="20">
         <v>2021</v>
       </c>
-      <c r="C46" s="25">
-        <v>4</v>
+      <c r="C46" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D46" s="11">
         <f t="shared" si="2"/>
@@ -2352,11 +2388,11 @@
       </c>
     </row>
     <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="26">
+      <c r="B47" s="22">
         <v>2021</v>
       </c>
-      <c r="C47" s="27">
-        <v>3</v>
+      <c r="C47" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="D47" s="15">
         <f t="shared" si="2"/>
@@ -2389,11 +2425,11 @@
       </c>
     </row>
     <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="24">
+      <c r="B48" s="20">
         <v>2021</v>
       </c>
-      <c r="C48" s="25">
-        <v>2</v>
+      <c r="C48" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D48" s="11">
         <f t="shared" si="2"/>
@@ -2426,11 +2462,11 @@
       </c>
     </row>
     <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="28">
+      <c r="B49" s="24">
         <v>2021</v>
       </c>
-      <c r="C49" s="29">
-        <v>1</v>
+      <c r="C49" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="D49" s="16">
         <f t="shared" si="2"/>
@@ -2463,11 +2499,11 @@
       </c>
     </row>
     <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="30">
+      <c r="B50" s="26">
         <v>2020</v>
       </c>
-      <c r="C50" s="31">
-        <v>12</v>
+      <c r="C50" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="D50" s="17">
         <f t="shared" si="2"/>
@@ -2500,11 +2536,11 @@
       </c>
     </row>
     <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="26">
+      <c r="B51" s="22">
         <v>2020</v>
       </c>
-      <c r="C51" s="27">
-        <v>11</v>
+      <c r="C51" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="D51" s="15">
         <f t="shared" si="2"/>
@@ -2537,11 +2573,11 @@
       </c>
     </row>
     <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="24">
+      <c r="B52" s="20">
         <v>2020</v>
       </c>
-      <c r="C52" s="25">
-        <v>10</v>
+      <c r="C52" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D52" s="11">
         <f t="shared" si="2"/>
@@ -2574,11 +2610,11 @@
       </c>
     </row>
     <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="26">
+      <c r="B53" s="22">
         <v>2020</v>
       </c>
-      <c r="C53" s="27">
-        <v>9</v>
+      <c r="C53" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="D53" s="15">
         <f t="shared" si="2"/>
@@ -2611,11 +2647,11 @@
       </c>
     </row>
     <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="24">
+      <c r="B54" s="20">
         <v>2020</v>
       </c>
-      <c r="C54" s="25">
-        <v>8</v>
+      <c r="C54" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="D54" s="11">
         <f t="shared" si="2"/>
@@ -2648,11 +2684,11 @@
       </c>
     </row>
     <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="26">
+      <c r="B55" s="22">
         <v>2020</v>
       </c>
-      <c r="C55" s="27">
-        <v>7</v>
+      <c r="C55" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="D55" s="15">
         <f t="shared" si="2"/>
@@ -2685,11 +2721,11 @@
       </c>
     </row>
     <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="24">
+      <c r="B56" s="20">
         <v>2020</v>
       </c>
-      <c r="C56" s="25">
-        <v>6</v>
+      <c r="C56" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D56" s="11">
         <f t="shared" si="2"/>
@@ -2722,11 +2758,11 @@
       </c>
     </row>
     <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="26">
+      <c r="B57" s="22">
         <v>2020</v>
       </c>
-      <c r="C57" s="27">
-        <v>5</v>
+      <c r="C57" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="D57" s="15">
         <f t="shared" si="2"/>
@@ -2759,11 +2795,11 @@
       </c>
     </row>
     <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="24">
+      <c r="B58" s="20">
         <v>2020</v>
       </c>
-      <c r="C58" s="25">
-        <v>4</v>
+      <c r="C58" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D58" s="11">
         <f t="shared" si="2"/>
@@ -2796,11 +2832,11 @@
       </c>
     </row>
     <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="26">
+      <c r="B59" s="22">
         <v>2020</v>
       </c>
-      <c r="C59" s="27">
-        <v>3</v>
+      <c r="C59" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="D59" s="15">
         <f t="shared" si="2"/>
@@ -2833,11 +2869,11 @@
       </c>
     </row>
     <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="24">
+      <c r="B60" s="20">
         <v>2020</v>
       </c>
-      <c r="C60" s="25">
-        <v>2</v>
+      <c r="C60" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D60" s="11">
         <f t="shared" si="2"/>
@@ -2870,11 +2906,11 @@
       </c>
     </row>
     <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="28">
+      <c r="B61" s="24">
         <v>2020</v>
       </c>
-      <c r="C61" s="29">
-        <v>1</v>
+      <c r="C61" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="D61" s="16">
         <f t="shared" si="2"/>
@@ -2907,11 +2943,11 @@
       </c>
     </row>
     <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="30">
+      <c r="B62" s="26">
         <v>2019</v>
       </c>
-      <c r="C62" s="31">
-        <v>12</v>
+      <c r="C62" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="D62" s="17">
         <f t="shared" si="2"/>
@@ -2944,11 +2980,11 @@
       </c>
     </row>
     <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="26">
+      <c r="B63" s="22">
         <v>2019</v>
       </c>
-      <c r="C63" s="27">
-        <v>11</v>
+      <c r="C63" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="D63" s="15">
         <f t="shared" si="2"/>
@@ -2981,11 +3017,11 @@
       </c>
     </row>
     <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="24">
+      <c r="B64" s="20">
         <v>2019</v>
       </c>
-      <c r="C64" s="25">
-        <v>10</v>
+      <c r="C64" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D64" s="11">
         <f t="shared" si="2"/>
@@ -3018,11 +3054,11 @@
       </c>
     </row>
     <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="26">
+      <c r="B65" s="22">
         <v>2019</v>
       </c>
-      <c r="C65" s="27">
-        <v>9</v>
+      <c r="C65" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="D65" s="15">
         <f t="shared" si="2"/>
@@ -3055,11 +3091,11 @@
       </c>
     </row>
     <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="24">
+      <c r="B66" s="20">
         <v>2019</v>
       </c>
-      <c r="C66" s="25">
-        <v>8</v>
+      <c r="C66" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="D66" s="11">
         <f t="shared" si="2"/>
@@ -3092,11 +3128,11 @@
       </c>
     </row>
     <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="26">
+      <c r="B67" s="22">
         <v>2019</v>
       </c>
-      <c r="C67" s="27">
-        <v>7</v>
+      <c r="C67" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="D67" s="15">
         <f t="shared" si="2"/>
@@ -3129,11 +3165,11 @@
       </c>
     </row>
     <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="24">
+      <c r="B68" s="20">
         <v>2019</v>
       </c>
-      <c r="C68" s="25">
-        <v>6</v>
+      <c r="C68" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D68" s="11">
         <f t="shared" si="2"/>
@@ -3166,11 +3202,11 @@
       </c>
     </row>
     <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="26">
+      <c r="B69" s="22">
         <v>2019</v>
       </c>
-      <c r="C69" s="27">
-        <v>5</v>
+      <c r="C69" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="D69" s="15">
         <f t="shared" si="2"/>
@@ -3203,11 +3239,11 @@
       </c>
     </row>
     <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="24">
+      <c r="B70" s="20">
         <v>2019</v>
       </c>
-      <c r="C70" s="25">
-        <v>4</v>
+      <c r="C70" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D70" s="11">
         <f t="shared" si="2"/>
@@ -3240,11 +3276,11 @@
       </c>
     </row>
     <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="26">
+      <c r="B71" s="22">
         <v>2019</v>
       </c>
-      <c r="C71" s="27">
-        <v>3</v>
+      <c r="C71" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="D71" s="15">
         <f t="shared" si="2"/>
@@ -3277,11 +3313,11 @@
       </c>
     </row>
     <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="24">
+      <c r="B72" s="20">
         <v>2019</v>
       </c>
-      <c r="C72" s="25">
-        <v>2</v>
+      <c r="C72" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D72" s="11">
         <f t="shared" si="2"/>
@@ -3314,11 +3350,11 @@
       </c>
     </row>
     <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="28">
+      <c r="B73" s="24">
         <v>2019</v>
       </c>
-      <c r="C73" s="29">
-        <v>1</v>
+      <c r="C73" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="D73" s="16">
         <f t="shared" ref="D73:D85" si="3">SUM(E73:G73)</f>
@@ -3351,11 +3387,11 @@
       </c>
     </row>
     <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="30">
+      <c r="B74" s="26">
         <v>2018</v>
       </c>
-      <c r="C74" s="31">
-        <v>12</v>
+      <c r="C74" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="D74" s="17">
         <f t="shared" si="3"/>
@@ -3388,11 +3424,11 @@
       </c>
     </row>
     <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="26">
+      <c r="B75" s="22">
         <v>2018</v>
       </c>
-      <c r="C75" s="27">
-        <v>11</v>
+      <c r="C75" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="D75" s="15">
         <f t="shared" si="3"/>
@@ -3425,11 +3461,11 @@
       </c>
     </row>
     <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="24">
+      <c r="B76" s="20">
         <v>2018</v>
       </c>
-      <c r="C76" s="25">
-        <v>10</v>
+      <c r="C76" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
@@ -3462,11 +3498,11 @@
       </c>
     </row>
     <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="26">
+      <c r="B77" s="22">
         <v>2018</v>
       </c>
-      <c r="C77" s="27">
-        <v>9</v>
+      <c r="C77" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="D77" s="15">
         <f t="shared" si="3"/>
@@ -3499,11 +3535,11 @@
       </c>
     </row>
     <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="24">
+      <c r="B78" s="20">
         <v>2018</v>
       </c>
-      <c r="C78" s="25">
-        <v>8</v>
+      <c r="C78" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
@@ -3536,11 +3572,11 @@
       </c>
     </row>
     <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="26">
+      <c r="B79" s="22">
         <v>2018</v>
       </c>
-      <c r="C79" s="27">
-        <v>7</v>
+      <c r="C79" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="D79" s="15">
         <f t="shared" si="3"/>
@@ -3573,11 +3609,11 @@
       </c>
     </row>
     <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="24">
+      <c r="B80" s="20">
         <v>2018</v>
       </c>
-      <c r="C80" s="25">
-        <v>6</v>
+      <c r="C80" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
@@ -3610,11 +3646,11 @@
       </c>
     </row>
     <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="26">
+      <c r="B81" s="22">
         <v>2018</v>
       </c>
-      <c r="C81" s="27">
-        <v>5</v>
+      <c r="C81" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="D81" s="15">
         <f t="shared" si="3"/>
@@ -3647,11 +3683,11 @@
       </c>
     </row>
     <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="24">
+      <c r="B82" s="20">
         <v>2018</v>
       </c>
-      <c r="C82" s="25">
-        <v>4</v>
+      <c r="C82" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
@@ -3684,11 +3720,11 @@
       </c>
     </row>
     <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="26">
+      <c r="B83" s="22">
         <v>2018</v>
       </c>
-      <c r="C83" s="27">
-        <v>3</v>
+      <c r="C83" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="D83" s="15">
         <f t="shared" si="3"/>
@@ -3721,11 +3757,11 @@
       </c>
     </row>
     <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="24">
+      <c r="B84" s="20">
         <v>2018</v>
       </c>
-      <c r="C84" s="25">
-        <v>2</v>
+      <c r="C84" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
@@ -3758,11 +3794,11 @@
       </c>
     </row>
     <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="28">
+      <c r="B85" s="24">
         <v>2018</v>
       </c>
-      <c r="C85" s="29">
-        <v>1</v>
+      <c r="C85" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="D85" s="16">
         <f t="shared" si="3"/>
@@ -3796,19 +3832,19 @@
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L86" s="3"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L87" s="3"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Flota_Antigúedad_AF.xlsx
+++ b/Flota_Antigúedad_AF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64982E4C-04F4-4EDD-B77C-304196B8F2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939626C2-4B21-4BA3-8C56-8D3C19B8FA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="28">
   <si>
     <t>Carga</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Antigüedad promedio de la flota (años)</t>
   </si>
   <si>
-    <t>Actualización: agosto 2024.</t>
-  </si>
-  <si>
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>Sep.</t>
+  </si>
+  <si>
+    <t>Actualización: septiembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -469,19 +469,19 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -533,8 +533,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:L85" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="B5:L85" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:L86" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="B5:L86" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -786,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:L88"/>
+  <dimension ref="B2:L89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -871,2980 +871,3017 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="20">
+      <c r="B6" s="22">
         <v>2024</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="15">
+        <f>SUM(E6:G6)</f>
+        <v>1409947</v>
+      </c>
+      <c r="E6" s="4">
+        <v>709391</v>
+      </c>
+      <c r="F6" s="4">
+        <v>699945</v>
+      </c>
+      <c r="G6" s="4">
+        <v>611</v>
+      </c>
+      <c r="H6" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>183444</v>
+      </c>
+      <c r="I6" s="15">
+        <v>72959</v>
+      </c>
+      <c r="J6" s="4">
+        <v>110485</v>
+      </c>
+      <c r="K6" s="4">
+        <v>15.41505309522252</v>
+      </c>
+      <c r="L6" s="5">
+        <v>19.569322136875151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="20">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="11">
+        <f>SUM(E7:G7)</f>
+        <v>1401613</v>
+      </c>
+      <c r="E7" s="11">
+        <v>704941</v>
+      </c>
+      <c r="F7" s="11">
+        <v>696064</v>
+      </c>
+      <c r="G7" s="11">
+        <v>608</v>
+      </c>
+      <c r="H7" s="11">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>182766</v>
+      </c>
+      <c r="I7" s="11">
+        <v>72808</v>
+      </c>
+      <c r="J7" s="11">
+        <v>109958</v>
+      </c>
+      <c r="K7" s="11">
+        <v>19.663221461086813</v>
+      </c>
+      <c r="L7" s="6">
+        <v>15.486441679524638</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="11">
-        <f>SUM(E6:G6)</f>
-        <v>1401613</v>
-      </c>
-      <c r="E6" s="11">
-        <v>704941</v>
-      </c>
-      <c r="F6" s="11">
-        <v>696064</v>
-      </c>
-      <c r="G6" s="11">
-        <v>608</v>
-      </c>
-      <c r="H6" s="11">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>182766</v>
-      </c>
-      <c r="I6" s="11">
-        <v>72808</v>
-      </c>
-      <c r="J6" s="11">
-        <v>109958</v>
-      </c>
-      <c r="K6" s="11">
-        <v>19.663221461086813</v>
-      </c>
-      <c r="L6" s="6">
-        <v>15.486441679524638</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="22">
+      <c r="D8" s="15">
+        <f t="shared" ref="D8:D10" si="0">SUM(E8:G8)</f>
+        <v>1392231</v>
+      </c>
+      <c r="E8" s="4">
+        <v>700064</v>
+      </c>
+      <c r="F8" s="4">
+        <v>691573</v>
+      </c>
+      <c r="G8" s="4">
+        <v>594</v>
+      </c>
+      <c r="H8" s="4">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>182096</v>
+      </c>
+      <c r="I8" s="4">
+        <v>72722</v>
+      </c>
+      <c r="J8" s="4">
+        <v>109374</v>
+      </c>
+      <c r="K8" s="4">
+        <v>15.548683112204552</v>
+      </c>
+      <c r="L8" s="5">
+        <v>19.76646992274992</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="20">
         <v>2024</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="15">
-        <f t="shared" ref="D7:D9" si="0">SUM(E7:G7)</f>
-        <v>1392231</v>
-      </c>
-      <c r="E7" s="4">
-        <v>700064</v>
-      </c>
-      <c r="F7" s="4">
-        <v>691573</v>
-      </c>
-      <c r="G7" s="4">
-        <v>594</v>
-      </c>
-      <c r="H7" s="4">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>182096</v>
-      </c>
-      <c r="I7" s="4">
-        <v>72722</v>
-      </c>
-      <c r="J7" s="4">
-        <v>109374</v>
-      </c>
-      <c r="K7" s="4">
-        <v>15.548683112204552</v>
-      </c>
-      <c r="L7" s="5">
-        <v>19.76646992274992</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="20">
-        <v>2024</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>1381670</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E9" s="11">
         <v>694997</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F9" s="11">
         <v>686081</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G9" s="11">
         <v>592</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H9" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>181209</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I9" s="11">
         <v>72604</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J9" s="11">
         <v>108605</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K9" s="11">
         <v>15.6321154026566</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L9" s="6">
         <v>19.872406643481913</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="22">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="22">
         <v>2024</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="C10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="15">
         <f t="shared" si="0"/>
         <v>1364076</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="4">
         <v>686433</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="4">
         <v>677060</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G10" s="4">
         <v>583</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>180169</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I10" s="4">
         <v>72197</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J10" s="4">
         <v>107972</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K10" s="4">
         <v>15.728466051318485</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L10" s="4">
         <v>20.044184938661164</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="20">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="20">
         <v>2024</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" ref="D11:D41" si="1">SUM(E11:G11)</f>
+        <v>1362046</v>
+      </c>
+      <c r="E11" s="11">
+        <v>685435</v>
+      </c>
+      <c r="F11" s="11">
+        <v>676046</v>
+      </c>
+      <c r="G11" s="11">
+        <v>565</v>
+      </c>
+      <c r="H11" s="11">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>179118</v>
+      </c>
+      <c r="I11" s="11">
+        <v>71981</v>
+      </c>
+      <c r="J11" s="11">
+        <v>107137</v>
+      </c>
+      <c r="K11" s="11">
+        <v>15.827370783505845</v>
+      </c>
+      <c r="L11" s="6">
+        <v>20.082257252693545</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B12" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="11">
-        <f t="shared" ref="D10:D40" si="1">SUM(E10:G10)</f>
-        <v>1362046</v>
-      </c>
-      <c r="E10" s="11">
-        <v>685435</v>
-      </c>
-      <c r="F10" s="11">
-        <v>676046</v>
-      </c>
-      <c r="G10" s="11">
-        <v>565</v>
-      </c>
-      <c r="H10" s="11">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>179118</v>
-      </c>
-      <c r="I10" s="11">
-        <v>71981</v>
-      </c>
-      <c r="J10" s="11">
-        <v>107137</v>
-      </c>
-      <c r="K10" s="11">
-        <v>15.827370783505845</v>
-      </c>
-      <c r="L10" s="6">
-        <v>20.082257252693545</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="22">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="D12" s="15">
         <f t="shared" si="1"/>
         <v>1353988</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="4">
         <v>681551</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="4">
         <v>671878</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G12" s="4">
         <v>559</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H12" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>178140</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I12" s="4">
         <v>71842</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J12" s="4">
         <v>106298</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K12" s="4">
         <v>15.921746940608511</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L12" s="5">
         <v>20.167528182043604</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="20">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B13" s="20">
         <v>2024</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="C13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="11">
         <f t="shared" si="1"/>
         <v>1345055</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="11">
         <v>677153</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="11">
         <v>667343</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G13" s="11">
         <v>559</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H13" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>177618</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I13" s="11">
         <v>71797</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J13" s="11">
         <v>105821</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K13" s="11">
         <v>15.980300420002477</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L13" s="6">
         <v>20.271950356861744</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="24">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="24">
         <v>2024</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="C14" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="16">
         <f t="shared" si="1"/>
         <v>1337961</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
         <v>673757</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="7">
         <v>663646</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G14" s="7">
         <v>558</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H14" s="7">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>176858</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I14" s="7">
         <v>71641</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J14" s="7">
         <v>105217</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K14" s="7">
         <v>16.059999999999999</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L14" s="8">
         <v>20.36</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="26">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B15" s="26">
         <v>2023</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="17">
+      <c r="C15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="17">
         <f t="shared" si="1"/>
         <v>1331921</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E15" s="17">
         <v>671002</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F15" s="17">
         <v>660365</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G15" s="17">
         <v>554</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H15" s="17">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>176251</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I15" s="17">
         <v>71562</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J15" s="17">
         <v>104689</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K15" s="17">
         <v>15.134234699377592</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L15" s="18">
         <v>19.458281793496891</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="22">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="22">
         <v>2023</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="15">
+      <c r="C16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="15">
         <f t="shared" si="1"/>
         <v>1324591</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="4">
         <v>667021</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="4">
         <v>657017</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="4">
         <v>553</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H16" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>175311</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="4">
         <v>71379</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J16" s="4">
         <v>103932</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K16" s="4">
         <v>15.22355699300101</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L16" s="5">
         <v>19.543477641633473</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="20">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="20">
         <v>2023</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="C17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="11">
         <f t="shared" si="1"/>
         <v>1316689</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="11">
         <v>662911</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F17" s="11">
         <v>653227</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G17" s="11">
         <v>551</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H17" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>174393</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I17" s="11">
         <v>71146</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J17" s="11">
         <v>103247</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K17" s="11">
         <v>15.305362027145584</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L17" s="6">
         <v>19.637007079381696</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="22">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="22">
         <v>2023</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="15">
+      <c r="C18" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="15">
         <f t="shared" si="1"/>
         <v>1309236</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="4">
         <v>659020</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F18" s="4">
         <v>649665</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G18" s="4">
         <v>551</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H18" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>173599</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I18" s="4">
         <v>71029</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J18" s="4">
         <v>102570</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K18" s="4">
         <v>15.387882418677528</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L18" s="5">
         <v>19.730128068950865</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="20">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="20">
         <v>2023</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="C19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="11">
         <f t="shared" si="1"/>
         <v>1302003</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="11">
         <v>655458</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F19" s="11">
         <v>645999</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G19" s="11">
         <v>546</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H19" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>172764</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I19" s="11">
         <v>70834</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J19" s="11">
         <v>101930</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K19" s="11">
         <v>15.470034266398093</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L19" s="6">
         <v>19.817370449365178</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="22">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="22">
         <v>2023</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="15">
+      <c r="C20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="15">
         <f t="shared" si="1"/>
         <v>1294209</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <v>651761</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="4">
         <v>641907</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="4">
         <v>541</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>172137</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="4">
         <v>70783</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J20" s="4">
         <v>101354</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K20" s="4">
         <v>15.535631502814619</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L20" s="5">
         <v>19.908092076696825</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="20">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="20">
         <v>2023</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="11">
+      <c r="C21" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="11">
         <f t="shared" si="1"/>
         <v>1286042</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="11">
         <v>647906</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="11">
         <v>637598</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G21" s="11">
         <v>538</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H21" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>171516</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I21" s="11">
         <v>70673</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J21" s="11">
         <v>100843</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K21" s="11">
         <v>15.606316611861285</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L21" s="6">
         <v>20.002412386982062</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="22">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22" s="22">
         <v>2023</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="15">
+      <c r="C22" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="15">
         <f t="shared" si="1"/>
         <v>1279902</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="4">
         <v>645139</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="4">
         <v>634226</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G22" s="4">
         <v>537</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H22" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>170681</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I22" s="4">
         <v>70483</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J22" s="4">
         <v>100198</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K22" s="4">
         <v>15.688172672998165</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L22" s="5">
         <v>20.079559598784137</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="20">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="20">
         <v>2023</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="11">
+      <c r="C23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="11">
         <f t="shared" si="1"/>
         <v>1273243</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="11">
         <v>641751</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="11">
         <v>630955</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G23" s="11">
         <v>537</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H23" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>170020</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I23" s="11">
         <v>70335</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J23" s="11">
         <v>99685</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K23" s="11">
         <v>15.757763792495</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L23" s="6">
         <v>20.166095572893536</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B23" s="22">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="22">
         <v>2023</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="15">
+      <c r="C24" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="15">
         <f t="shared" si="1"/>
         <v>1267813</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="4">
         <v>639200</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F24" s="4">
         <v>628078</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G24" s="4">
         <v>535</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>169398</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I24" s="4">
         <v>70212</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J24" s="4">
         <v>99186</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K24" s="4">
         <v>15.818386285552368</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L24" s="5">
         <v>20.231362640801002</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B24" s="20">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B25" s="20">
         <v>2023</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="11">
+      <c r="C25" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="11">
         <f t="shared" si="1"/>
         <v>1261816</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="11">
         <v>636167</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="11">
         <v>625114</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G25" s="11">
         <v>535</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H25" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>168270</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I25" s="11">
         <v>70028</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J25" s="11">
         <v>98242</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K25" s="11">
         <v>15.924098175551197</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L25" s="6">
         <v>20.308953466621187</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B25" s="24">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B26" s="24">
         <v>2023</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="16">
+      <c r="C26" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="16">
         <f t="shared" si="1"/>
         <v>1256959</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E26" s="7">
         <v>633934</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F26" s="7">
         <v>622491</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G26" s="7">
         <v>534</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H26" s="7">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>167855</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I26" s="7">
         <v>70043</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J26" s="7">
         <v>97812</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K26" s="7">
         <v>15.971731554019838</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L26" s="8">
         <v>20.368738701505205</v>
       </c>
     </row>
-    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="26">
+    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="26">
         <v>2022</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="17">
+      <c r="C27" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="17">
         <f t="shared" si="1"/>
         <v>1253020</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E27" s="17">
         <v>632252</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F27" s="17">
         <v>620240</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G27" s="17">
         <v>528</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H27" s="17">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>167359</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I27" s="17">
         <v>70056</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J27" s="17">
         <v>97303</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K27" s="17">
         <v>15.042250491458482</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L27" s="18">
         <v>19.442766491841862</v>
       </c>
     </row>
-    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="22">
+    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="22">
         <v>2022</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="15">
+      <c r="C28" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="15">
         <f t="shared" si="1"/>
         <v>1248052</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="4">
         <v>629746</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F28" s="4">
         <v>617778</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G28" s="4">
         <v>528</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H28" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>166178</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I28" s="4">
         <v>69821</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J28" s="4">
         <v>96357</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K28" s="4">
         <v>15.145163619733058</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L28" s="5">
         <v>19.503375964277662</v>
       </c>
     </row>
-    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="20">
+    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="20">
         <v>2022</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="11">
+      <c r="C29" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="11">
         <f t="shared" si="1"/>
         <v>1243495</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="11">
         <v>627591</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="11">
         <v>615376</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G29" s="11">
         <v>528</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H29" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>165354</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I29" s="11">
         <v>69675</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J29" s="11">
         <v>95679</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K29" s="11">
         <v>15.219299200503164</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L29" s="6">
         <v>19.558707820857851</v>
       </c>
     </row>
-    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="22">
+    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="22">
         <v>2022</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="15">
+      <c r="C30" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="15">
         <f t="shared" si="1"/>
         <v>1239858</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="4">
         <v>625802</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F30" s="4">
         <v>613527</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G30" s="4">
         <v>529</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H30" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>164931</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I30" s="4">
         <v>69723</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J30" s="4">
         <v>95208</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K30" s="4">
         <v>15.268857886025065</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L30" s="5">
         <v>19.601036749642859</v>
       </c>
     </row>
-    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="20">
+    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="20">
         <v>2022</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="11">
+      <c r="C31" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="11">
         <f t="shared" si="1"/>
         <v>1234757</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="11">
         <v>623225</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F31" s="11">
         <v>611005</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G31" s="11">
         <v>527</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H31" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>166002</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I31" s="11">
         <v>69645</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J31" s="11">
         <v>96357</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K31" s="11">
         <v>15.188636281490584</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L31" s="6">
         <v>19.665687352079907</v>
       </c>
     </row>
-    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="22">
+    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="22">
         <v>2022</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="15">
+      <c r="C32" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="15">
         <f t="shared" si="1"/>
         <v>1227595</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E32" s="4">
         <v>619408</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F32" s="4">
         <v>607662</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G32" s="4">
         <v>525</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H32" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>163526</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I32" s="4">
         <v>69586</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J32" s="4">
         <v>93940</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K32" s="4">
         <v>15.421364186734831</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L32" s="5">
         <v>19.756386743471186</v>
       </c>
     </row>
-    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="20">
+    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="20">
         <v>2022</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="11">
+      <c r="C33" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="11">
         <f t="shared" si="1"/>
         <v>1225289</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E33" s="11">
         <v>618040</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F33" s="11">
         <v>606724</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G33" s="11">
         <v>525</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H33" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>163070</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I33" s="11">
         <v>69430</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J33" s="11">
         <v>93640</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K33" s="11">
         <v>15.452272030416385</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L33" s="6">
         <v>19.768709145039157</v>
       </c>
     </row>
-    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="22">
+    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="22">
         <v>2022</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="15">
+      <c r="C34" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="15">
         <f t="shared" si="1"/>
         <v>1222511</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E34" s="4">
         <v>616795</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F34" s="4">
         <v>605191</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G34" s="4">
         <v>525</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H34" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>162777</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I34" s="4">
         <v>69624</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J34" s="4">
         <v>93153</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K34" s="4">
         <v>15.510440664221603</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L34" s="5">
         <v>19.817924918327808</v>
       </c>
     </row>
-    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="20">
+    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="20">
         <v>2022</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="11">
+      <c r="C35" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="11">
         <f t="shared" si="1"/>
         <v>1217422</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="11">
         <v>614317</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F35" s="11">
         <v>602581</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G35" s="11">
         <v>524</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H35" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>162245</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I35" s="11">
         <v>69515</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J35" s="11">
         <v>92730</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K35" s="11">
         <v>15.572301149496132</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L35" s="6">
         <v>19.875979339656887</v>
       </c>
     </row>
-    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="22">
+    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="22">
         <v>2022</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="15">
+      <c r="C36" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="15">
         <f t="shared" si="1"/>
         <v>1212635</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="4">
         <v>611918</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F36" s="4">
         <v>600194</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G36" s="4">
         <v>523</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H36" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>161903</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I36" s="4">
         <v>69487</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J36" s="4">
         <v>92416</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K36" s="4">
         <v>15.612731079720573</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L36" s="5">
         <v>19.925975375785644</v>
       </c>
     </row>
-    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="20">
+    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="20">
         <v>2022</v>
       </c>
-      <c r="C36" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="11">
+      <c r="C37" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="11">
         <f t="shared" si="1"/>
         <v>1207392</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E37" s="11">
         <v>609072</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F37" s="11">
         <v>597797</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G37" s="11">
         <v>523</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H37" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>161179</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I37" s="11">
         <v>69288</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J37" s="11">
         <v>91891</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K37" s="11">
         <v>15.690822005348091</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L37" s="6">
         <v>19.992202892268896</v>
       </c>
     </row>
-    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="24">
+    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="24">
         <v>2022</v>
       </c>
-      <c r="C37" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="16">
+      <c r="C38" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="16">
         <f t="shared" si="1"/>
         <v>1203679</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E38" s="7">
         <v>607150</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F38" s="7">
         <v>596005</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G38" s="7">
         <v>524</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H38" s="7">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>160915</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I38" s="7">
         <v>69335</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J38" s="7">
         <v>91580</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K38" s="7">
         <v>15.723189261411305</v>
       </c>
-      <c r="L37" s="8">
+      <c r="L38" s="8">
         <v>20.040443053611135</v>
       </c>
     </row>
-    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="26">
+    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="26">
         <v>2021</v>
       </c>
-      <c r="C38" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="17">
+      <c r="C39" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="17">
         <f t="shared" si="1"/>
         <v>1201053</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E39" s="17">
         <v>606090</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F39" s="17">
         <v>594443</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G39" s="17">
         <v>520</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H39" s="17">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>160633</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I39" s="17">
         <v>69330</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J39" s="17">
         <v>91303</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K39" s="17">
         <v>14.77932927854177</v>
       </c>
-      <c r="L38" s="18">
+      <c r="L39" s="18">
         <v>19.103214044118861</v>
       </c>
     </row>
-    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="22">
+    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="22">
         <v>2021</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="15">
+      <c r="C40" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="15">
         <f t="shared" si="1"/>
         <v>1195350</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E40" s="4">
         <v>603380</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F40" s="4">
         <v>591451</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G40" s="4">
         <v>519</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H40" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>159783</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I40" s="4">
         <v>69196</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J40" s="4">
         <v>90587</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K40" s="4">
         <v>14.853858044973496</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L40" s="5">
         <v>19.159161722297721</v>
       </c>
     </row>
-    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="20">
+    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="20">
         <v>2021</v>
       </c>
-      <c r="C40" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="11">
+      <c r="C41" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="11">
         <f t="shared" si="1"/>
         <v>1192781</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E41" s="11">
         <v>602061</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F41" s="11">
         <v>590200</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G41" s="11">
         <v>520</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H41" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>159209</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I41" s="11">
         <v>69167</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J41" s="11">
         <v>90042</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K41" s="11">
         <v>14.91196477586066</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L41" s="6">
         <v>19.201099224164992</v>
       </c>
     </row>
-    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="22">
+    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="22">
         <v>2021</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="15">
-        <f t="shared" ref="D41:D72" si="2">SUM(E41:G41)</f>
+      <c r="C42" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="15">
+        <f t="shared" ref="D42:D73" si="2">SUM(E42:G42)</f>
         <v>1186041</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="4">
         <v>599199</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F42" s="4">
         <v>586326</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G42" s="4">
         <v>516</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H42" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>158594</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I42" s="4">
         <v>69024</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J42" s="4">
         <v>89570</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K42" s="4">
         <v>14.981991752525316</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L42" s="5">
         <v>19.262381946565331</v>
       </c>
     </row>
-    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="20">
+    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="20">
         <v>2021</v>
       </c>
-      <c r="C42" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="11">
+      <c r="C43" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="11">
         <f t="shared" si="2"/>
         <v>1182334</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E43" s="11">
         <v>597975</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F43" s="11">
         <v>583854</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G43" s="11">
         <v>505</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H43" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157584</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I43" s="11">
         <v>68967</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J43" s="11">
         <v>88617</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K43" s="11">
         <v>15.069702507868818</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L43" s="6">
         <v>19.317817634516494</v>
       </c>
     </row>
-    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="22">
+    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="22">
         <v>2021</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="15">
+      <c r="C44" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="15">
         <f t="shared" si="2"/>
         <v>1175907</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E44" s="4">
         <v>594590</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F44" s="4">
         <v>580812</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G44" s="4">
         <v>505</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H44" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157806</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I44" s="4">
         <v>69051</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J44" s="4">
         <v>88755</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K44" s="4">
         <v>15.078070542311446</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L44" s="5">
         <v>19.364975865722599</v>
       </c>
     </row>
-    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="20">
+    <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="20">
         <v>2021</v>
       </c>
-      <c r="C44" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="11">
+      <c r="C45" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="11">
         <f t="shared" si="2"/>
         <v>1172788</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E45" s="11">
         <v>593307</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F45" s="11">
         <v>578970</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G45" s="11">
         <v>511</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H45" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157163</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I45" s="11">
         <v>68993</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J45" s="11">
         <v>88170</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K45" s="11">
         <v>15.1151861443215</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L45" s="6">
         <v>19.410730026782087</v>
       </c>
     </row>
-    <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="22">
+    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="22">
         <v>2021</v>
       </c>
-      <c r="C45" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="15">
+      <c r="C46" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="15">
         <f t="shared" si="2"/>
         <v>1166805</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E46" s="4">
         <v>590245</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F46" s="4">
         <v>576050</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G46" s="4">
         <v>510</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H46" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156786</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I46" s="4">
         <v>69018</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J46" s="4">
         <v>87768</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K46" s="4">
         <v>15.155396527751202</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L46" s="5">
         <v>19.481235758032682</v>
       </c>
     </row>
-    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="20">
+    <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="20">
         <v>2021</v>
       </c>
-      <c r="C46" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="11">
+      <c r="C47" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="11">
         <f t="shared" si="2"/>
         <v>1162463</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="11">
         <v>588077</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F47" s="11">
         <v>573877</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G47" s="11">
         <v>509</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H47" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156695</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I47" s="11">
         <v>69223</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J47" s="11">
         <v>87472</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K47" s="11">
         <v>15.176859504132231</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L47" s="6">
         <v>19.539313729324562</v>
       </c>
     </row>
-    <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="22">
+    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="22">
         <v>2021</v>
       </c>
-      <c r="C47" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="15">
+      <c r="C48" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="15">
         <f t="shared" si="2"/>
         <v>1157730</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E48" s="4">
         <v>586093</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F48" s="4">
         <v>571129</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G48" s="4">
         <v>508</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H48" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156467</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I48" s="4">
         <v>69334</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J48" s="4">
         <v>87133</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K48" s="4">
         <v>15.205474636824379</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L48" s="5">
         <v>19.591187746654541</v>
       </c>
     </row>
-    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="20">
+    <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="20">
         <v>2021</v>
       </c>
-      <c r="C48" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="11">
+      <c r="C49" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="11">
         <f t="shared" si="2"/>
         <v>1151624</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E49" s="11">
         <v>583440</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F49" s="11">
         <v>567677</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G49" s="11">
         <v>507</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H49" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156128</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I49" s="11">
         <v>69352</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J49" s="11">
         <v>86776</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K49" s="11">
         <v>15.246899979503997</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L49" s="6">
         <v>19.65870183737831</v>
       </c>
     </row>
-    <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="24">
+    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="24">
         <v>2021</v>
       </c>
-      <c r="C49" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="16">
+      <c r="C50" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="16">
         <f t="shared" si="2"/>
         <v>1146962</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E50" s="7">
         <v>581299</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F50" s="7">
         <v>565156</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G50" s="7">
         <v>507</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H50" s="7">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156135</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I50" s="7">
         <v>69558</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J50" s="7">
         <v>86577</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K50" s="7">
         <v>15.270791302398566</v>
       </c>
-      <c r="L49" s="8">
+      <c r="L50" s="8">
         <v>19.71498144672535</v>
       </c>
     </row>
-    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="26">
+    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="26">
         <v>2020</v>
       </c>
-      <c r="C50" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="17">
+      <c r="C51" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="17">
         <f t="shared" si="2"/>
         <v>1143940</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E51" s="17">
         <v>580035</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F51" s="17">
         <v>563400</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G51" s="17">
         <v>505</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H51" s="17">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156064</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I51" s="17">
         <v>69624</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J51" s="17">
         <v>86440</v>
       </c>
-      <c r="K50" s="17">
+      <c r="K51" s="17">
         <v>14.291950738158704</v>
       </c>
-      <c r="L50" s="18">
+      <c r="L51" s="18">
         <v>18.763405656555207</v>
       </c>
     </row>
-    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="22">
+    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="22">
         <v>2020</v>
       </c>
-      <c r="C51" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="15">
+      <c r="C52" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="15">
         <f t="shared" si="2"/>
         <v>1137719</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E52" s="4">
         <v>576835</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F52" s="4">
         <v>560383</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G52" s="4">
         <v>501</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H52" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>155330</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I52" s="4">
         <v>69641</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J52" s="4">
         <v>85689</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K52" s="4">
         <v>14.359087104873495</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L52" s="5">
         <v>18.843092045385596</v>
       </c>
     </row>
-    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="20">
+    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="20">
         <v>2020</v>
       </c>
-      <c r="C52" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="11">
+      <c r="C53" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="11">
         <f t="shared" si="2"/>
         <v>1131496</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E53" s="11">
         <v>574056</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F53" s="11">
         <v>556941</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G53" s="11">
         <v>499</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H53" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154998</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I53" s="11">
         <v>69581</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J53" s="11">
         <v>85417</v>
       </c>
-      <c r="K52" s="11">
+      <c r="K53" s="11">
         <v>14.401392276029368</v>
       </c>
-      <c r="L52" s="6">
+      <c r="L53" s="6">
         <v>18.916173683403709</v>
       </c>
     </row>
-    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="22">
+    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="22">
         <v>2020</v>
       </c>
-      <c r="C53" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="15">
+      <c r="C54" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="15">
         <f t="shared" si="2"/>
         <v>1124473</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E54" s="4">
         <v>571367</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F54" s="4">
         <v>552611</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G54" s="4">
         <v>495</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H54" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154974</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I54" s="4">
         <v>69802</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J54" s="4">
         <v>85172</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K54" s="4">
         <v>14.418154012931202</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L54" s="5">
         <v>18.991473081224502</v>
       </c>
     </row>
-    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="20">
+    <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="20">
         <v>2020</v>
       </c>
-      <c r="C54" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="11">
+      <c r="C55" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="11">
         <f t="shared" si="2"/>
         <v>1119301</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E55" s="11">
         <v>569174</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F55" s="11">
         <v>549631</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G55" s="11">
         <v>496</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H55" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>155005</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I55" s="11">
         <v>69935</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J55" s="11">
         <v>85070</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K55" s="11">
         <v>14.424315344666301</v>
       </c>
-      <c r="L54" s="6">
+      <c r="L55" s="6">
         <v>19.054786409779787</v>
       </c>
     </row>
-    <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="22">
+    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="22">
         <v>2020</v>
       </c>
-      <c r="C55" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="15">
+      <c r="C56" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="15">
         <f t="shared" si="2"/>
         <v>1115206</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E56" s="4">
         <v>567168</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F56" s="4">
         <v>547540</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G56" s="4">
         <v>498</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H56" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154854</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I56" s="4">
         <v>69936</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J56" s="4">
         <v>84918</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K56" s="4">
         <v>14.441519108321387</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L56" s="5">
         <v>19.111048225569849</v>
       </c>
     </row>
-    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="20">
+    <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="20">
         <v>2020</v>
       </c>
-      <c r="C56" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="11">
+      <c r="C57" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="11">
         <f t="shared" si="2"/>
         <v>1112456</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E57" s="11">
         <v>566042</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F57" s="11">
         <v>545916</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G57" s="11">
         <v>498</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H57" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154797</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I57" s="11">
         <v>69959</v>
       </c>
-      <c r="J56" s="11">
+      <c r="J57" s="11">
         <v>84838</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K57" s="11">
         <v>14.450499686686435</v>
       </c>
-      <c r="L56" s="6">
+      <c r="L57" s="6">
         <v>19.140800505969523</v>
       </c>
     </row>
-    <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="22">
+    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="22">
         <v>2020</v>
       </c>
-      <c r="C57" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="15">
+      <c r="C58" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="15">
         <f t="shared" si="2"/>
         <v>1111879</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E58" s="4">
         <v>565980</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F58" s="4">
         <v>545400</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G58" s="4">
         <v>499</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H58" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154663</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I58" s="4">
         <v>69945</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J58" s="4">
         <v>84718</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K58" s="4">
         <v>14.46115101866639</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L58" s="5">
         <v>19.144045725997383</v>
       </c>
     </row>
-    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="20">
+    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="20">
         <v>2020</v>
       </c>
-      <c r="C58" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="11">
+      <c r="C59" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="11">
         <f t="shared" si="2"/>
         <v>1111626</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="11">
         <v>565883</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F59" s="11">
         <v>545244</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G59" s="11">
         <v>499</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H59" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154659</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I59" s="11">
         <v>69947</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J59" s="11">
         <v>84712</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K59" s="11">
         <v>14.461473305788864</v>
       </c>
-      <c r="L58" s="6">
+      <c r="L59" s="6">
         <v>19.146164489832703</v>
       </c>
     </row>
-    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="22">
+    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="22">
         <v>2020</v>
       </c>
-      <c r="C59" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="15">
+      <c r="C60" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="15">
         <f t="shared" si="2"/>
         <v>1111436</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E60" s="4">
         <v>565809</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F60" s="4">
         <v>545128</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G60" s="4">
         <v>499</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H60" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154670</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I60" s="4">
         <v>69953</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J60" s="4">
         <v>84717</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K60" s="4">
         <v>14.461059028900239</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L60" s="5">
         <v>19.148813468856098</v>
       </c>
     </row>
-    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="20">
+    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="20">
         <v>2020</v>
       </c>
-      <c r="C60" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="11">
+      <c r="C61" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="11">
         <f t="shared" si="2"/>
         <v>1107180</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E61" s="11">
         <v>564089</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F61" s="11">
         <v>542595</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G61" s="11">
         <v>496</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H61" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154310</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I61" s="11">
         <v>69893</v>
       </c>
-      <c r="J60" s="11">
+      <c r="J61" s="11">
         <v>84417</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K61" s="11">
         <v>14.507322921392003</v>
       </c>
-      <c r="L60" s="6">
+      <c r="L61" s="6">
         <v>19.193769068356236</v>
       </c>
     </row>
-    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="24">
+    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="24">
         <v>2020</v>
       </c>
-      <c r="C61" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="16">
+      <c r="C62" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="16">
         <f t="shared" si="2"/>
         <v>1102434</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E62" s="7">
         <v>562170</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F62" s="7">
         <v>539768</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G62" s="7">
         <v>496</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H62" s="7">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>153904</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I62" s="7">
         <v>69851</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J62" s="7">
         <v>84053</v>
       </c>
-      <c r="K61" s="7">
+      <c r="K62" s="7">
         <v>14.558120646636899</v>
       </c>
-      <c r="L61" s="8">
+      <c r="L62" s="8">
         <v>19.246057242471139</v>
       </c>
     </row>
-    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="26">
+    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="26">
         <v>2019</v>
       </c>
-      <c r="C62" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="17">
+      <c r="C63" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="17">
         <f t="shared" si="2"/>
         <v>1099371</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E63" s="17">
         <v>561061</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F63" s="17">
         <v>537813</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G63" s="17">
         <v>497</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H63" s="17">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>153726</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I63" s="17">
         <v>69871</v>
       </c>
-      <c r="J62" s="17">
+      <c r="J63" s="17">
         <v>83855</v>
       </c>
-      <c r="K62" s="17">
+      <c r="K63" s="17">
         <v>13.608641348893485</v>
       </c>
-      <c r="L62" s="18">
+      <c r="L63" s="18">
         <v>18.302218475352948</v>
       </c>
     </row>
-    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="22">
+    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="22">
         <v>2019</v>
       </c>
-      <c r="C63" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="15">
+      <c r="C64" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="15">
         <f t="shared" si="2"/>
         <v>1094843</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E64" s="4">
         <v>558626</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F64" s="4">
         <v>535724</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G64" s="4">
         <v>493</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H64" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>152624</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I64" s="4">
         <v>69534</v>
       </c>
-      <c r="J63" s="4">
+      <c r="J64" s="4">
         <v>83090</v>
       </c>
-      <c r="K63" s="4">
+      <c r="K64" s="4">
         <v>13.697282209875249</v>
       </c>
-      <c r="L63" s="5">
+      <c r="L64" s="5">
         <v>18.357969374859028</v>
       </c>
     </row>
-    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="20">
+    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="20">
         <v>2019</v>
       </c>
-      <c r="C64" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64" s="11">
+      <c r="C65" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="11">
         <f t="shared" si="2"/>
         <v>1089907</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="11">
         <v>556346</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F65" s="11">
         <v>533069</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G65" s="11">
         <v>492</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H65" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>151838</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I65" s="11">
         <v>69318</v>
       </c>
-      <c r="J64" s="11">
+      <c r="J65" s="11">
         <v>82520</v>
       </c>
-      <c r="K64" s="11">
+      <c r="K65" s="11">
         <v>13.773673257023933</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L65" s="6">
         <v>18.416267933983526</v>
       </c>
     </row>
-    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="22">
+    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="22">
         <v>2019</v>
       </c>
-      <c r="C65" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" s="15">
+      <c r="C66" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="15">
         <f t="shared" si="2"/>
         <v>1026253</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E66" s="4">
         <v>519860</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F66" s="4">
         <v>505944</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G66" s="4">
         <v>449</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H66" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134666</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I66" s="4">
         <v>59103</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J66" s="4">
         <v>75563</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K66" s="4">
         <v>13.265634978390983</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L66" s="5">
         <v>18.202425653060438</v>
       </c>
     </row>
-    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="20">
+    <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="20">
         <v>2019</v>
       </c>
-      <c r="C66" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="11">
+      <c r="C67" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="11">
         <f t="shared" si="2"/>
         <v>1021601</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E67" s="11">
         <v>517666</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F67" s="11">
         <v>503486</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G67" s="11">
         <v>449</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H67" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134177</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I67" s="11">
         <v>58996</v>
       </c>
-      <c r="J66" s="11">
+      <c r="J67" s="11">
         <v>75181</v>
       </c>
-      <c r="K66" s="11">
+      <c r="K67" s="11">
         <v>13.321195137765788</v>
       </c>
-      <c r="L66" s="6">
+      <c r="L67" s="6">
         <v>18.260312634014984</v>
       </c>
     </row>
-    <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="22">
+    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="22">
         <v>2019</v>
       </c>
-      <c r="C67" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="15">
+      <c r="C68" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="15">
         <f t="shared" si="2"/>
         <v>1012889</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E68" s="4">
         <v>514393</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F68" s="4">
         <v>498050</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G68" s="4">
         <v>446</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H68" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134315</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I68" s="4">
         <v>59818</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J68" s="4">
         <v>74497</v>
       </c>
-      <c r="K67" s="4">
+      <c r="K68" s="4">
         <v>13.572348583553588</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L68" s="5">
         <v>18.476849412803052</v>
       </c>
     </row>
-    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="20">
+    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="20">
         <v>2019</v>
       </c>
-      <c r="C68" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="11">
+      <c r="C69" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="11">
         <f t="shared" si="2"/>
         <v>1011042</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E69" s="11">
         <v>512802</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F69" s="11">
         <v>497796</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G69" s="11">
         <v>444</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H69" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>132861</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I69" s="11">
         <v>58917</v>
       </c>
-      <c r="J68" s="11">
+      <c r="J69" s="11">
         <v>73944</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K69" s="11">
         <v>13.491144880740022</v>
       </c>
-      <c r="L68" s="6">
+      <c r="L69" s="6">
         <v>18.398711393481303</v>
       </c>
     </row>
-    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="22">
+    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="22">
         <v>2019</v>
       </c>
-      <c r="C69" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="15">
+      <c r="C70" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="15">
         <f t="shared" si="2"/>
         <v>1006543</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E70" s="4">
         <v>506850</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F70" s="4">
         <v>499239</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G70" s="4">
         <v>454</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H70" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>133322</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I70" s="4">
         <v>58537</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J70" s="4">
         <v>74785</v>
       </c>
-      <c r="K69" s="4">
+      <c r="K70" s="4">
         <v>12.551904411875009</v>
       </c>
-      <c r="L69" s="5">
+      <c r="L70" s="5">
         <v>17.760755647627501</v>
       </c>
     </row>
-    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="20">
+    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="20">
         <v>2019</v>
       </c>
-      <c r="C70" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="11">
+      <c r="C71" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="11">
         <f t="shared" si="2"/>
         <v>1000820</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="11">
         <v>504046</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="11">
         <v>496323</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G71" s="11">
         <v>451</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H71" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>132406</v>
       </c>
-      <c r="I70" s="11">
+      <c r="I71" s="11">
         <v>58289</v>
       </c>
-      <c r="J70" s="11">
+      <c r="J71" s="11">
         <v>74117</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K71" s="11">
         <v>12.619949247012975</v>
       </c>
-      <c r="L70" s="6">
+      <c r="L71" s="6">
         <v>17.838770667756513</v>
       </c>
     </row>
-    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="22">
+    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="22">
         <v>2019</v>
       </c>
-      <c r="C71" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="15">
+      <c r="C72" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="15">
         <f t="shared" si="2"/>
         <v>995167</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E72" s="4">
         <v>501424</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F72" s="4">
         <v>493291</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G72" s="4">
         <v>452</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H72" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>131276</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I72" s="4">
         <v>57933</v>
       </c>
-      <c r="J71" s="4">
+      <c r="J72" s="4">
         <v>73343</v>
       </c>
-      <c r="K71" s="4">
+      <c r="K72" s="4">
         <v>12.722576860964685</v>
       </c>
-      <c r="L71" s="5">
+      <c r="L72" s="5">
         <v>17.901807651807651</v>
       </c>
     </row>
-    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="20">
+    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="20">
         <v>2019</v>
       </c>
-      <c r="C72" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" s="11">
+      <c r="C73" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="11">
         <f t="shared" si="2"/>
         <v>990002</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E73" s="11">
         <v>499221</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F73" s="11">
         <v>490327</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G73" s="11">
         <v>454</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H73" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>130579</v>
       </c>
-      <c r="I72" s="11">
+      <c r="I73" s="11">
         <v>57862</v>
       </c>
-      <c r="J72" s="11">
+      <c r="J73" s="11">
         <v>72717</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K73" s="11">
         <v>12.793971465549591</v>
       </c>
-      <c r="L72" s="6">
+      <c r="L73" s="6">
         <v>17.958405195294269</v>
       </c>
     </row>
-    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="24">
+    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="24">
         <v>2019</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C74" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="16">
+        <f t="shared" ref="D74:D86" si="3">SUM(E74:G74)</f>
+        <v>985713</v>
+      </c>
+      <c r="E74" s="7">
+        <v>497141</v>
+      </c>
+      <c r="F74" s="7">
+        <v>488120</v>
+      </c>
+      <c r="G74" s="7">
+        <v>452</v>
+      </c>
+      <c r="H74" s="7">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>129833</v>
+      </c>
+      <c r="I74" s="7">
+        <v>57647</v>
+      </c>
+      <c r="J74" s="7">
+        <v>72186</v>
+      </c>
+      <c r="K74" s="7">
+        <v>12.85511387705745</v>
+      </c>
+      <c r="L74" s="8">
+        <v>18.009015550920161</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="26">
+        <v>2018</v>
+      </c>
+      <c r="C75" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="16">
-        <f t="shared" ref="D73:D85" si="3">SUM(E73:G73)</f>
-        <v>985713</v>
-      </c>
-      <c r="E73" s="7">
-        <v>497141</v>
-      </c>
-      <c r="F73" s="7">
-        <v>488120</v>
-      </c>
-      <c r="G73" s="7">
-        <v>452</v>
-      </c>
-      <c r="H73" s="7">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>129833</v>
-      </c>
-      <c r="I73" s="7">
-        <v>57647</v>
-      </c>
-      <c r="J73" s="7">
-        <v>72186</v>
-      </c>
-      <c r="K73" s="7">
-        <v>12.85511387705745</v>
-      </c>
-      <c r="L73" s="8">
-        <v>18.009015550920161</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="26">
-        <v>2018</v>
-      </c>
-      <c r="C74" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" s="17">
+      <c r="D75" s="17">
         <f t="shared" si="3"/>
         <v>982856</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E75" s="17">
         <v>496057</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F75" s="17">
         <v>486335</v>
       </c>
-      <c r="G74" s="17">
+      <c r="G75" s="17">
         <v>464</v>
       </c>
-      <c r="H74" s="17">
+      <c r="H75" s="17">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>129315</v>
       </c>
-      <c r="I74" s="17">
+      <c r="I75" s="17">
         <v>57599</v>
       </c>
-      <c r="J74" s="17">
+      <c r="J75" s="17">
         <v>71716</v>
       </c>
-      <c r="K74" s="17">
+      <c r="K75" s="17">
         <v>11.5</v>
       </c>
-      <c r="L74" s="18">
+      <c r="L75" s="18">
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="22">
+    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="22">
         <v>2018</v>
       </c>
-      <c r="C75" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="15">
+      <c r="C76" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="15">
         <f t="shared" si="3"/>
         <v>978058</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E76" s="4">
         <v>493248</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F76" s="4">
         <v>484343</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G76" s="4">
         <v>467</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H76" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>127995</v>
       </c>
-      <c r="I75" s="4">
+      <c r="I76" s="4">
         <v>57117</v>
       </c>
-      <c r="J75" s="4">
+      <c r="J76" s="4">
         <v>70878</v>
       </c>
-      <c r="K75" s="4">
+      <c r="K76" s="4">
         <v>11.579603101683661</v>
       </c>
-      <c r="L75" s="5">
+      <c r="L76" s="5">
         <v>16.657281844021668</v>
       </c>
     </row>
-    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="20">
+    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="20">
         <v>2018</v>
       </c>
-      <c r="C76" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D76" s="11">
+      <c r="C77" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="11">
         <f t="shared" si="3"/>
         <v>971514</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E77" s="11">
         <v>489853</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F77" s="11">
         <v>481195</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G77" s="11">
         <v>466</v>
       </c>
-      <c r="H76" s="11">
+      <c r="H77" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>126537</v>
       </c>
-      <c r="I76" s="11">
+      <c r="I77" s="11">
         <v>56599</v>
       </c>
-      <c r="J76" s="11">
+      <c r="J77" s="11">
         <v>69938</v>
       </c>
-      <c r="K76" s="11">
+      <c r="K77" s="11">
         <v>11.695425480294306</v>
       </c>
-      <c r="L76" s="6">
+      <c r="L77" s="6">
         <v>16.724397819345807</v>
       </c>
     </row>
-    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="22">
+    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="22">
         <v>2018</v>
       </c>
-      <c r="C77" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D77" s="15">
+      <c r="C78" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="15">
         <f t="shared" si="3"/>
         <v>965544</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E78" s="4">
         <v>486879</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F78" s="4">
         <v>478202</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G78" s="4">
         <v>463</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H78" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>125592</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I78" s="4">
         <v>56443</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J78" s="4">
         <v>69149</v>
       </c>
-      <c r="K77" s="4">
+      <c r="K78" s="4">
         <v>11.775922614497736</v>
       </c>
-      <c r="L77" s="5">
+      <c r="L78" s="5">
         <v>16.795398144097401</v>
       </c>
     </row>
-    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="20">
+    <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="20">
         <v>2018</v>
       </c>
-      <c r="C78" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="11">
+      <c r="C79" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="11">
         <f t="shared" si="3"/>
         <v>960111</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E79" s="11">
         <v>483912</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F79" s="11">
         <v>475735</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G79" s="11">
         <v>464</v>
       </c>
-      <c r="H78" s="11">
+      <c r="H79" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>124463</v>
       </c>
-      <c r="I78" s="11">
+      <c r="I79" s="11">
         <v>56029</v>
       </c>
-      <c r="J78" s="11">
+      <c r="J79" s="11">
         <v>68434</v>
       </c>
-      <c r="K78" s="11">
+      <c r="K79" s="11">
         <v>11.859889509332092</v>
       </c>
-      <c r="L78" s="6">
+      <c r="L79" s="6">
         <v>16.84972398287292</v>
       </c>
     </row>
-    <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="22">
+    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="22">
         <v>2018</v>
       </c>
-      <c r="C79" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" s="15">
+      <c r="C80" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="15">
         <f t="shared" si="3"/>
         <v>953323</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E80" s="4">
         <v>480495</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F80" s="4">
         <v>472364</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G80" s="4">
         <v>464</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H80" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>123737</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I80" s="4">
         <v>55960</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J80" s="4">
         <v>67777</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K80" s="4">
         <v>11.930278889903581</v>
       </c>
-      <c r="L79" s="5">
+      <c r="L80" s="5">
         <v>16.922447322032493</v>
       </c>
     </row>
-    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="20">
+    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="20">
         <v>2018</v>
       </c>
-      <c r="C80" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" s="11">
+      <c r="C81" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="11">
         <f t="shared" si="3"/>
         <v>947851</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E81" s="11">
         <v>477880</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F81" s="11">
         <v>469513</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G81" s="11">
         <v>458</v>
       </c>
-      <c r="H80" s="11">
+      <c r="H81" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>122946</v>
       </c>
-      <c r="I80" s="11">
+      <c r="I81" s="11">
         <v>55790</v>
       </c>
-      <c r="J80" s="11">
+      <c r="J81" s="11">
         <v>67156</v>
       </c>
-      <c r="K80" s="11">
+      <c r="K81" s="11">
         <v>12.01</v>
       </c>
-      <c r="L80" s="6">
+      <c r="L81" s="6">
         <v>16.98</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="22">
+    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="22">
         <v>2018</v>
       </c>
-      <c r="C81" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="15">
+      <c r="C82" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="15">
         <f t="shared" si="3"/>
         <v>944527</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E82" s="4">
         <v>476241</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F82" s="4">
         <v>467827</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G82" s="4">
         <v>459</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H82" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>122105</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I82" s="4">
         <v>55617</v>
       </c>
-      <c r="J81" s="4">
+      <c r="J82" s="4">
         <v>66488</v>
       </c>
-      <c r="K81" s="4">
+      <c r="K82" s="4">
         <v>12.1</v>
       </c>
-      <c r="L81" s="5">
+      <c r="L82" s="5">
         <v>17.03</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="20">
+    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="20">
         <v>2018</v>
       </c>
-      <c r="C82" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" s="11">
+      <c r="C83" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="11">
         <f t="shared" si="3"/>
         <v>936533</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="11">
         <v>472271</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="11">
         <v>463807</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G83" s="11">
         <v>455</v>
       </c>
-      <c r="H82" s="11">
+      <c r="H83" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>121075</v>
       </c>
-      <c r="I82" s="11">
+      <c r="I83" s="11">
         <v>55199</v>
       </c>
-      <c r="J82" s="11">
+      <c r="J83" s="11">
         <v>65876</v>
       </c>
-      <c r="K82" s="11">
+      <c r="K83" s="11">
         <v>12.15</v>
       </c>
-      <c r="L82" s="6">
+      <c r="L83" s="6">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="22">
+    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="22">
         <v>2018</v>
       </c>
-      <c r="C83" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="15">
+      <c r="C84" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="15">
         <f t="shared" si="3"/>
         <v>930205</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E84" s="4">
         <v>469020</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F84" s="4">
         <v>460731</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G84" s="4">
         <v>454</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H84" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>120039</v>
       </c>
-      <c r="I83" s="4">
+      <c r="I84" s="4">
         <v>54921</v>
       </c>
-      <c r="J83" s="4">
+      <c r="J84" s="4">
         <v>65118</v>
       </c>
-      <c r="K83" s="4">
+      <c r="K84" s="4">
         <v>12.219768117028636</v>
       </c>
-      <c r="L83" s="5">
+      <c r="L84" s="5">
         <v>17.169355262035737</v>
       </c>
     </row>
-    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="20">
+    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="20">
         <v>2018</v>
       </c>
-      <c r="C84" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84" s="11">
+      <c r="C85" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="11">
         <f t="shared" si="3"/>
         <v>924012</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="11">
         <v>466319</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F85" s="11">
         <v>457242</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G85" s="11">
         <v>451</v>
       </c>
-      <c r="H84" s="11">
+      <c r="H85" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>118763</v>
       </c>
-      <c r="I84" s="11">
+      <c r="I85" s="11">
         <v>54503</v>
       </c>
-      <c r="J84" s="11">
+      <c r="J85" s="11">
         <v>64260</v>
       </c>
-      <c r="K84" s="11">
+      <c r="K85" s="11">
         <v>12.303791963827118</v>
       </c>
-      <c r="L84" s="6">
+      <c r="L85" s="6">
         <v>17.220716288635032</v>
       </c>
     </row>
-    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="24">
+    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="24">
         <v>2018</v>
       </c>
-      <c r="C85" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D85" s="16">
+      <c r="C86" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="16">
         <f t="shared" si="3"/>
         <v>920526</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E86" s="7">
         <v>464622</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F86" s="7">
         <v>455453</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G86" s="7">
         <v>451</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H86" s="7">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>118260</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I86" s="7">
         <v>54504</v>
       </c>
-      <c r="J85" s="7">
+      <c r="J86" s="7">
         <v>63756</v>
       </c>
-      <c r="K85" s="7">
+      <c r="K86" s="7">
         <v>12.37</v>
       </c>
-      <c r="L85" s="8">
+      <c r="L86" s="8">
         <v>17.28</v>
       </c>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B86" t="s">
-        <v>14</v>
-      </c>
-      <c r="L86" s="3"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="L87" s="3"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Flota_Antigúedad_AF.xlsx
+++ b/Flota_Antigúedad_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939626C2-4B21-4BA3-8C56-8D3C19B8FA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307A33E7-B285-4912-890D-E74C34A4C50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_15.2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Carga</t>
   </si>
@@ -122,7 +122,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: septiembre 2024.</t>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -136,33 +136,33 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -170,7 +170,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -352,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -386,9 +386,6 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,16 +411,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -497,7 +494,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -533,8 +530,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:L86" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
-  <autoFilter ref="B5:L86" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:L87" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="B5:L87" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -566,7 +563,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -574,28 +571,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -604,14 +601,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -786,56 +783,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:L89"/>
+  <dimension ref="B2:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.296875" customWidth="1"/>
-    <col min="6" max="6" width="19.3984375" customWidth="1"/>
-    <col min="7" max="7" width="17.09765625" customWidth="1"/>
-    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="11" max="12" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="28" t="s">
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="28"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
@@ -870,3017 +868,3054 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="22">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="19">
         <v>2024</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" ref="D6" si="0">SUM(E6:G6)</f>
+        <v>1419744</v>
+      </c>
+      <c r="E6" s="11">
+        <v>714747</v>
+      </c>
+      <c r="F6" s="11">
+        <v>704375</v>
+      </c>
+      <c r="G6" s="11">
+        <v>622</v>
+      </c>
+      <c r="H6" s="11">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>184353</v>
+      </c>
+      <c r="I6" s="11">
+        <v>73206</v>
+      </c>
+      <c r="J6" s="11">
+        <v>111147</v>
+      </c>
+      <c r="K6" s="11">
+        <v>15.333984258460671</v>
+      </c>
+      <c r="L6" s="6">
+        <v>19.45495538980926</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="21">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="15">
-        <f>SUM(E6:G6)</f>
+      <c r="D7" s="15">
+        <f>SUM(E7:G7)</f>
         <v>1409947</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="4">
         <v>709391</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="4">
         <v>699945</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G7" s="4">
         <v>611</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H7" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>183444</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I7" s="15">
         <v>72959</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J7" s="4">
         <v>110485</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K7" s="4">
         <v>15.41505309522252</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L7" s="5">
         <v>19.569322136875151</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="20">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="19">
         <v>2024</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="11">
-        <f>SUM(E7:G7)</f>
+      <c r="D8" s="11">
+        <f>SUM(E8:G8)</f>
         <v>1401613</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E8" s="11">
         <v>704941</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F8" s="11">
         <v>696064</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G8" s="11">
         <v>608</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H8" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>182766</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I8" s="11">
         <v>72808</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J8" s="11">
         <v>109958</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K8" s="11">
+        <v>15.486441679524638</v>
+      </c>
+      <c r="L8" s="6">
         <v>19.663221461086813</v>
       </c>
-      <c r="L7" s="6">
-        <v>15.486441679524638</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="22">
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="21">
         <v>2024</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="15">
-        <f t="shared" ref="D8:D10" si="0">SUM(E8:G8)</f>
+      <c r="D9" s="15">
+        <f t="shared" ref="D9:D11" si="1">SUM(E9:G9)</f>
         <v>1392231</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <v>700064</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="4">
         <v>691573</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G9" s="4">
         <v>594</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H9" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>182096</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I9" s="4">
         <v>72722</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J9" s="4">
         <v>109374</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K9" s="4">
         <v>15.548683112204552</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L9" s="5">
         <v>19.76646992274992</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="20">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="19">
         <v>2024</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="11">
-        <f t="shared" si="0"/>
+      <c r="D10" s="11">
+        <f t="shared" si="1"/>
         <v>1381670</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E10" s="11">
         <v>694997</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="11">
         <v>686081</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G10" s="11">
         <v>592</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H10" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>181209</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I10" s="11">
         <v>72604</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J10" s="11">
         <v>108605</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K10" s="11">
         <v>15.6321154026566</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L10" s="6">
         <v>19.872406643481913</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="22">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="21">
         <v>2024</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="15">
-        <f t="shared" si="0"/>
+      <c r="D11" s="15">
+        <f t="shared" si="1"/>
         <v>1364076</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <v>686433</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="4">
         <v>677060</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G11" s="4">
         <v>583</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H11" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>180169</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I11" s="4">
         <v>72197</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J11" s="4">
         <v>107972</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K11" s="4">
         <v>15.728466051318485</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L11" s="4">
         <v>20.044184938661164</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="20">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="19">
         <v>2024</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="11">
-        <f t="shared" ref="D11:D41" si="1">SUM(E11:G11)</f>
+      <c r="D12" s="11">
+        <f t="shared" ref="D12:D42" si="2">SUM(E12:G12)</f>
         <v>1362046</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="11">
         <v>685435</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="11">
         <v>676046</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G12" s="11">
         <v>565</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H12" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>179118</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I12" s="11">
         <v>71981</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J12" s="11">
         <v>107137</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K12" s="11">
         <v>15.827370783505845</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L12" s="6">
         <v>20.082257252693545</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="22">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="21">
         <v>2024</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="15">
-        <f t="shared" si="1"/>
+      <c r="D13" s="15">
+        <f t="shared" si="2"/>
         <v>1353988</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="4">
         <v>681551</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F13" s="4">
         <v>671878</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G13" s="4">
         <v>559</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H13" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>178140</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I13" s="4">
         <v>71842</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J13" s="4">
         <v>106298</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K13" s="4">
         <v>15.921746940608511</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L13" s="5">
         <v>20.167528182043604</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="20">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="19">
         <v>2024</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="11">
-        <f t="shared" si="1"/>
+      <c r="D14" s="11">
+        <f t="shared" si="2"/>
         <v>1345055</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="11">
         <v>677153</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="11">
         <v>667343</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G14" s="11">
         <v>559</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H14" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>177618</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I14" s="11">
         <v>71797</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J14" s="11">
         <v>105821</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K14" s="11">
         <v>15.980300420002477</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L14" s="6">
         <v>20.271950356861744</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="24">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="23">
         <v>2024</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="16">
-        <f t="shared" si="1"/>
+      <c r="D15" s="16">
+        <f t="shared" si="2"/>
         <v>1337961</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="7">
         <v>673757</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="7">
         <v>663646</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G15" s="7">
         <v>558</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H15" s="7">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>176858</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I15" s="7">
         <v>71641</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J15" s="7">
         <v>105217</v>
       </c>
-      <c r="K14" s="7">
-        <v>16.059999999999999</v>
-      </c>
-      <c r="L14" s="8">
-        <v>20.36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="26">
+      <c r="K15" s="7">
+        <v>16.061088556921373</v>
+      </c>
+      <c r="L15" s="8">
+        <v>20.355880532595581</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="25">
         <v>2023</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="17">
-        <f t="shared" si="1"/>
+      <c r="D16" s="17">
+        <f t="shared" si="2"/>
         <v>1331921</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E16" s="17">
         <v>671002</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F16" s="17">
         <v>660365</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G16" s="17">
         <v>554</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H16" s="17">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>176251</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I16" s="17">
         <v>71562</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J16" s="17">
         <v>104689</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K16" s="17">
         <v>15.134234699377592</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L16" s="18">
         <v>19.458281793496891</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="22">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="21">
         <v>2023</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="15">
-        <f t="shared" si="1"/>
+      <c r="D17" s="15">
+        <f t="shared" si="2"/>
         <v>1324591</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E17" s="4">
         <v>667021</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F17" s="4">
         <v>657017</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G17" s="4">
         <v>553</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H17" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>175311</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I17" s="4">
         <v>71379</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J17" s="4">
         <v>103932</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K17" s="4">
         <v>15.22355699300101</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L17" s="5">
         <v>19.543477641633473</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="20">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="19">
         <v>2023</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="11">
-        <f t="shared" si="1"/>
+      <c r="D18" s="11">
+        <f t="shared" si="2"/>
         <v>1316689</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E18" s="11">
         <v>662911</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F18" s="11">
         <v>653227</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G18" s="11">
         <v>551</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H18" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>174393</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I18" s="11">
         <v>71146</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J18" s="11">
         <v>103247</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K18" s="11">
         <v>15.305362027145584</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L18" s="6">
         <v>19.637007079381696</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="22">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="21">
         <v>2023</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="15">
-        <f t="shared" si="1"/>
+      <c r="D19" s="15">
+        <f t="shared" si="2"/>
         <v>1309236</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="4">
         <v>659020</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F19" s="4">
         <v>649665</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G19" s="4">
         <v>551</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H19" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>173599</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I19" s="4">
         <v>71029</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J19" s="4">
         <v>102570</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K19" s="4">
         <v>15.387882418677528</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L19" s="5">
         <v>19.730128068950865</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="20">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="19">
         <v>2023</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="11">
-        <f t="shared" si="1"/>
+      <c r="D20" s="11">
+        <f t="shared" si="2"/>
         <v>1302003</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E20" s="11">
         <v>655458</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <v>645999</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G20" s="11">
         <v>546</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H20" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>172764</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I20" s="11">
         <v>70834</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J20" s="11">
         <v>101930</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K20" s="11">
         <v>15.470034266398093</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L20" s="6">
         <v>19.817370449365178</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="22">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="21">
         <v>2023</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="15">
-        <f t="shared" si="1"/>
+      <c r="D21" s="15">
+        <f t="shared" si="2"/>
         <v>1294209</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <v>651761</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F21" s="4">
         <v>641907</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G21" s="4">
         <v>541</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H21" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>172137</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I21" s="4">
         <v>70783</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J21" s="4">
         <v>101354</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K21" s="4">
         <v>15.535631502814619</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L21" s="5">
         <v>19.908092076696825</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="20">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="19">
         <v>2023</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="11">
-        <f t="shared" si="1"/>
+      <c r="D22" s="11">
+        <f t="shared" si="2"/>
         <v>1286042</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="11">
         <v>647906</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F22" s="11">
         <v>637598</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G22" s="11">
         <v>538</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H22" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>171516</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I22" s="11">
         <v>70673</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J22" s="11">
         <v>100843</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K22" s="11">
         <v>15.606316611861285</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L22" s="6">
         <v>20.002412386982062</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="22">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="21">
         <v>2023</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="15">
-        <f t="shared" si="1"/>
+      <c r="D23" s="15">
+        <f t="shared" si="2"/>
         <v>1279902</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4">
         <v>645139</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F23" s="4">
         <v>634226</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G23" s="4">
         <v>537</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H23" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>170681</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I23" s="4">
         <v>70483</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J23" s="4">
         <v>100198</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K23" s="4">
         <v>15.688172672998165</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L23" s="5">
         <v>20.079559598784137</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B23" s="20">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="19">
         <v>2023</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="11">
-        <f t="shared" si="1"/>
+      <c r="D24" s="11">
+        <f t="shared" si="2"/>
         <v>1273243</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="11">
         <v>641751</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F24" s="11">
         <v>630955</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G24" s="11">
         <v>537</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H24" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>170020</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I24" s="11">
         <v>70335</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J24" s="11">
         <v>99685</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K24" s="11">
         <v>15.757763792495</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L24" s="6">
         <v>20.166095572893536</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B24" s="22">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="21">
         <v>2023</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="15">
-        <f t="shared" si="1"/>
+      <c r="D25" s="15">
+        <f t="shared" si="2"/>
         <v>1267813</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="4">
         <v>639200</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F25" s="4">
         <v>628078</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G25" s="4">
         <v>535</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H25" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>169398</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I25" s="4">
         <v>70212</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J25" s="4">
         <v>99186</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K25" s="4">
         <v>15.818386285552368</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L25" s="5">
         <v>20.231362640801002</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B25" s="20">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="19">
         <v>2023</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="11">
-        <f t="shared" si="1"/>
+      <c r="D26" s="11">
+        <f t="shared" si="2"/>
         <v>1261816</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="11">
         <v>636167</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F26" s="11">
         <v>625114</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G26" s="11">
         <v>535</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H26" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>168270</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I26" s="11">
         <v>70028</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J26" s="11">
         <v>98242</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K26" s="11">
         <v>15.924098175551197</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L26" s="6">
         <v>20.308953466621187</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="24">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="23">
         <v>2023</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="16">
-        <f t="shared" si="1"/>
+      <c r="D27" s="16">
+        <f t="shared" si="2"/>
         <v>1256959</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E27" s="7">
         <v>633934</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F27" s="7">
         <v>622491</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G27" s="7">
         <v>534</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H27" s="7">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>167855</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I27" s="7">
         <v>70043</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J27" s="7">
         <v>97812</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K27" s="7">
         <v>15.971731554019838</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L27" s="8">
         <v>20.368738701505205</v>
       </c>
     </row>
-    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="26">
+    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="25">
         <v>2022</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="17">
-        <f t="shared" si="1"/>
+      <c r="D28" s="17">
+        <f t="shared" si="2"/>
         <v>1253020</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E28" s="17">
         <v>632252</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F28" s="17">
         <v>620240</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G28" s="17">
         <v>528</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H28" s="17">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>167359</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I28" s="17">
         <v>70056</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J28" s="17">
         <v>97303</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K28" s="17">
         <v>15.042250491458482</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L28" s="18">
         <v>19.442766491841862</v>
       </c>
     </row>
-    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="22">
+    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="21">
         <v>2022</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C29" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="15">
-        <f t="shared" si="1"/>
+      <c r="D29" s="15">
+        <f t="shared" si="2"/>
         <v>1248052</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E29" s="4">
         <v>629746</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F29" s="4">
         <v>617778</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G29" s="4">
         <v>528</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H29" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>166178</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I29" s="4">
         <v>69821</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J29" s="4">
         <v>96357</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K29" s="4">
         <v>15.145163619733058</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L29" s="5">
         <v>19.503375964277662</v>
       </c>
     </row>
-    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="20">
+    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="19">
         <v>2022</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="11">
-        <f t="shared" si="1"/>
+      <c r="D30" s="11">
+        <f t="shared" si="2"/>
         <v>1243495</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E30" s="11">
         <v>627591</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F30" s="11">
         <v>615376</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G30" s="11">
         <v>528</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H30" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>165354</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I30" s="11">
         <v>69675</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J30" s="11">
         <v>95679</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K30" s="11">
         <v>15.219299200503164</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L30" s="6">
         <v>19.558707820857851</v>
       </c>
     </row>
-    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="22">
+    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="21">
         <v>2022</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="15">
-        <f t="shared" si="1"/>
+      <c r="D31" s="15">
+        <f t="shared" si="2"/>
         <v>1239858</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E31" s="4">
         <v>625802</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F31" s="4">
         <v>613527</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G31" s="4">
         <v>529</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H31" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>164931</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I31" s="4">
         <v>69723</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J31" s="4">
         <v>95208</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K31" s="4">
         <v>15.268857886025065</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L31" s="5">
         <v>19.601036749642859</v>
       </c>
     </row>
-    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="20">
+    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="19">
         <v>2022</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="11">
-        <f t="shared" si="1"/>
+      <c r="D32" s="11">
+        <f t="shared" si="2"/>
         <v>1234757</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E32" s="11">
         <v>623225</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F32" s="11">
         <v>611005</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G32" s="11">
         <v>527</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H32" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>166002</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I32" s="11">
         <v>69645</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J32" s="11">
         <v>96357</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K32" s="11">
         <v>15.188636281490584</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L32" s="6">
         <v>19.665687352079907</v>
       </c>
     </row>
-    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="22">
+    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="21">
         <v>2022</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="15">
-        <f t="shared" si="1"/>
+      <c r="D33" s="15">
+        <f t="shared" si="2"/>
         <v>1227595</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E33" s="4">
         <v>619408</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F33" s="4">
         <v>607662</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G33" s="4">
         <v>525</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H33" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>163526</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I33" s="4">
         <v>69586</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J33" s="4">
         <v>93940</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K33" s="4">
         <v>15.421364186734831</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L33" s="5">
         <v>19.756386743471186</v>
       </c>
     </row>
-    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="20">
+    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="19">
         <v>2022</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="11">
-        <f t="shared" si="1"/>
+      <c r="D34" s="11">
+        <f t="shared" si="2"/>
         <v>1225289</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E34" s="11">
         <v>618040</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F34" s="11">
         <v>606724</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G34" s="11">
         <v>525</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H34" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>163070</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I34" s="11">
         <v>69430</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J34" s="11">
         <v>93640</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K34" s="11">
         <v>15.452272030416385</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L34" s="6">
         <v>19.768709145039157</v>
       </c>
     </row>
-    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="22">
+    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="21">
         <v>2022</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C35" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="15">
-        <f t="shared" si="1"/>
+      <c r="D35" s="15">
+        <f t="shared" si="2"/>
         <v>1222511</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E35" s="4">
         <v>616795</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F35" s="4">
         <v>605191</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G35" s="4">
         <v>525</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H35" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>162777</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I35" s="4">
         <v>69624</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J35" s="4">
         <v>93153</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K35" s="4">
         <v>15.510440664221603</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L35" s="5">
         <v>19.817924918327808</v>
       </c>
     </row>
-    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="20">
+    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="19">
         <v>2022</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="11">
-        <f t="shared" si="1"/>
+      <c r="D36" s="11">
+        <f t="shared" si="2"/>
         <v>1217422</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E36" s="11">
         <v>614317</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F36" s="11">
         <v>602581</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G36" s="11">
         <v>524</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H36" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>162245</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I36" s="11">
         <v>69515</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J36" s="11">
         <v>92730</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K36" s="11">
         <v>15.572301149496132</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L36" s="6">
         <v>19.875979339656887</v>
       </c>
     </row>
-    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="22">
+    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="21">
         <v>2022</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C37" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="15">
-        <f t="shared" si="1"/>
+      <c r="D37" s="15">
+        <f t="shared" si="2"/>
         <v>1212635</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E37" s="4">
         <v>611918</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F37" s="4">
         <v>600194</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G37" s="4">
         <v>523</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H37" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>161903</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I37" s="4">
         <v>69487</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J37" s="4">
         <v>92416</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K37" s="4">
         <v>15.612731079720573</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L37" s="5">
         <v>19.925975375785644</v>
       </c>
     </row>
-    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="20">
+    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="19">
         <v>2022</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="11">
-        <f t="shared" si="1"/>
+      <c r="D38" s="11">
+        <f t="shared" si="2"/>
         <v>1207392</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E38" s="11">
         <v>609072</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F38" s="11">
         <v>597797</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G38" s="11">
         <v>523</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H38" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>161179</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I38" s="11">
         <v>69288</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J38" s="11">
         <v>91891</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K38" s="11">
         <v>15.690822005348091</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L38" s="6">
         <v>19.992202892268896</v>
       </c>
     </row>
-    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="24">
+    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="23">
         <v>2022</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C39" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="16">
-        <f t="shared" si="1"/>
+      <c r="D39" s="16">
+        <f t="shared" si="2"/>
         <v>1203679</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E39" s="7">
         <v>607150</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F39" s="7">
         <v>596005</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G39" s="7">
         <v>524</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H39" s="7">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>160915</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I39" s="7">
         <v>69335</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J39" s="7">
         <v>91580</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K39" s="7">
         <v>15.723189261411305</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L39" s="8">
         <v>20.040443053611135</v>
       </c>
     </row>
-    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="26">
+    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="25">
         <v>2021</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C40" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="17">
-        <f t="shared" si="1"/>
+      <c r="D40" s="17">
+        <f t="shared" si="2"/>
         <v>1201053</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E40" s="17">
         <v>606090</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F40" s="17">
         <v>594443</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G40" s="17">
         <v>520</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H40" s="17">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>160633</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I40" s="17">
         <v>69330</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J40" s="17">
         <v>91303</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K40" s="17">
         <v>14.77932927854177</v>
       </c>
-      <c r="L39" s="18">
+      <c r="L40" s="18">
         <v>19.103214044118861</v>
       </c>
     </row>
-    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="22">
+    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="21">
         <v>2021</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C41" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="15">
-        <f t="shared" si="1"/>
+      <c r="D41" s="15">
+        <f t="shared" si="2"/>
         <v>1195350</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E41" s="4">
         <v>603380</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F41" s="4">
         <v>591451</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G41" s="4">
         <v>519</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H41" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>159783</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I41" s="4">
         <v>69196</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J41" s="4">
         <v>90587</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K41" s="4">
         <v>14.853858044973496</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L41" s="5">
         <v>19.159161722297721</v>
       </c>
     </row>
-    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="20">
+    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="19">
         <v>2021</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C42" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="11">
-        <f t="shared" si="1"/>
+      <c r="D42" s="11">
+        <f t="shared" si="2"/>
         <v>1192781</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E42" s="11">
         <v>602061</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F42" s="11">
         <v>590200</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G42" s="11">
         <v>520</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H42" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>159209</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I42" s="11">
         <v>69167</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J42" s="11">
         <v>90042</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K42" s="11">
         <v>14.91196477586066</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L42" s="6">
         <v>19.201099224164992</v>
       </c>
     </row>
-    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="22">
+    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="21">
         <v>2021</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C43" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="15">
-        <f t="shared" ref="D42:D73" si="2">SUM(E42:G42)</f>
+      <c r="D43" s="15">
+        <f t="shared" ref="D43:D74" si="3">SUM(E43:G43)</f>
         <v>1186041</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E43" s="4">
         <v>599199</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F43" s="4">
         <v>586326</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G43" s="4">
         <v>516</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H43" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>158594</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I43" s="4">
         <v>69024</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J43" s="4">
         <v>89570</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K43" s="4">
         <v>14.981991752525316</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L43" s="5">
         <v>19.262381946565331</v>
       </c>
     </row>
-    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="20">
+    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="19">
         <v>2021</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C44" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="11">
-        <f t="shared" si="2"/>
+      <c r="D44" s="11">
+        <f t="shared" si="3"/>
         <v>1182334</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E44" s="11">
         <v>597975</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F44" s="11">
         <v>583854</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G44" s="11">
         <v>505</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H44" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157584</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I44" s="11">
         <v>68967</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J44" s="11">
         <v>88617</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K44" s="11">
         <v>15.069702507868818</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L44" s="6">
         <v>19.317817634516494</v>
       </c>
     </row>
-    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="22">
+    <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="21">
         <v>2021</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C45" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="15">
-        <f t="shared" si="2"/>
+      <c r="D45" s="15">
+        <f t="shared" si="3"/>
         <v>1175907</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E45" s="4">
         <v>594590</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F45" s="4">
         <v>580812</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G45" s="4">
         <v>505</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H45" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157806</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I45" s="4">
         <v>69051</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J45" s="4">
         <v>88755</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K45" s="4">
         <v>15.078070542311446</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L45" s="5">
         <v>19.364975865722599</v>
       </c>
     </row>
-    <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="20">
+    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="19">
         <v>2021</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C46" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="11">
-        <f t="shared" si="2"/>
+      <c r="D46" s="11">
+        <f t="shared" si="3"/>
         <v>1172788</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E46" s="11">
         <v>593307</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F46" s="11">
         <v>578970</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G46" s="11">
         <v>511</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H46" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157163</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I46" s="11">
         <v>68993</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J46" s="11">
         <v>88170</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K46" s="11">
         <v>15.1151861443215</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L46" s="6">
         <v>19.410730026782087</v>
       </c>
     </row>
-    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="22">
+    <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="21">
         <v>2021</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C47" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="15">
-        <f t="shared" si="2"/>
+      <c r="D47" s="15">
+        <f t="shared" si="3"/>
         <v>1166805</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E47" s="4">
         <v>590245</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F47" s="4">
         <v>576050</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G47" s="4">
         <v>510</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H47" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156786</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I47" s="4">
         <v>69018</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J47" s="4">
         <v>87768</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K47" s="4">
         <v>15.155396527751202</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L47" s="5">
         <v>19.481235758032682</v>
       </c>
     </row>
-    <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="20">
+    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="19">
         <v>2021</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="11">
-        <f t="shared" si="2"/>
+      <c r="D48" s="11">
+        <f t="shared" si="3"/>
         <v>1162463</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E48" s="11">
         <v>588077</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F48" s="11">
         <v>573877</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G48" s="11">
         <v>509</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H48" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156695</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I48" s="11">
         <v>69223</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J48" s="11">
         <v>87472</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K48" s="11">
         <v>15.176859504132231</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L48" s="6">
         <v>19.539313729324562</v>
       </c>
     </row>
-    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="22">
+    <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="21">
         <v>2021</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C49" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="15">
-        <f t="shared" si="2"/>
+      <c r="D49" s="15">
+        <f t="shared" si="3"/>
         <v>1157730</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E49" s="4">
         <v>586093</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F49" s="4">
         <v>571129</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G49" s="4">
         <v>508</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H49" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156467</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I49" s="4">
         <v>69334</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J49" s="4">
         <v>87133</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K49" s="4">
         <v>15.205474636824379</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L49" s="5">
         <v>19.591187746654541</v>
       </c>
     </row>
-    <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="20">
+    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="19">
         <v>2021</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C50" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="11">
-        <f t="shared" si="2"/>
+      <c r="D50" s="11">
+        <f t="shared" si="3"/>
         <v>1151624</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E50" s="11">
         <v>583440</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F50" s="11">
         <v>567677</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G50" s="11">
         <v>507</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H50" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156128</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I50" s="11">
         <v>69352</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J50" s="11">
         <v>86776</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K50" s="11">
         <v>15.246899979503997</v>
       </c>
-      <c r="L49" s="6">
+      <c r="L50" s="6">
         <v>19.65870183737831</v>
       </c>
     </row>
-    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="24">
+    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="23">
         <v>2021</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C51" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="16">
-        <f t="shared" si="2"/>
+      <c r="D51" s="16">
+        <f t="shared" si="3"/>
         <v>1146962</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E51" s="7">
         <v>581299</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F51" s="7">
         <v>565156</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G51" s="7">
         <v>507</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H51" s="7">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156135</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I51" s="7">
         <v>69558</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J51" s="7">
         <v>86577</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K51" s="7">
         <v>15.270791302398566</v>
       </c>
-      <c r="L50" s="8">
+      <c r="L51" s="8">
         <v>19.71498144672535</v>
       </c>
     </row>
-    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="26">
+    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="25">
         <v>2020</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C52" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="17">
-        <f t="shared" si="2"/>
+      <c r="D52" s="17">
+        <f t="shared" si="3"/>
         <v>1143940</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E52" s="17">
         <v>580035</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F52" s="17">
         <v>563400</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G52" s="17">
         <v>505</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H52" s="17">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156064</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I52" s="17">
         <v>69624</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J52" s="17">
         <v>86440</v>
       </c>
-      <c r="K51" s="17">
+      <c r="K52" s="17">
         <v>14.291950738158704</v>
       </c>
-      <c r="L51" s="18">
+      <c r="L52" s="18">
         <v>18.763405656555207</v>
       </c>
     </row>
-    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="22">
+    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="21">
         <v>2020</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C53" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="15">
-        <f t="shared" si="2"/>
+      <c r="D53" s="15">
+        <f t="shared" si="3"/>
         <v>1137719</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E53" s="4">
         <v>576835</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F53" s="4">
         <v>560383</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G53" s="4">
         <v>501</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H53" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>155330</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I53" s="4">
         <v>69641</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J53" s="4">
         <v>85689</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K53" s="4">
         <v>14.359087104873495</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L53" s="5">
         <v>18.843092045385596</v>
       </c>
     </row>
-    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="20">
+    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="19">
         <v>2020</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C54" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="11">
-        <f t="shared" si="2"/>
+      <c r="D54" s="11">
+        <f t="shared" si="3"/>
         <v>1131496</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E54" s="11">
         <v>574056</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F54" s="11">
         <v>556941</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G54" s="11">
         <v>499</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H54" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154998</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I54" s="11">
         <v>69581</v>
       </c>
-      <c r="J53" s="11">
+      <c r="J54" s="11">
         <v>85417</v>
       </c>
-      <c r="K53" s="11">
+      <c r="K54" s="11">
         <v>14.401392276029368</v>
       </c>
-      <c r="L53" s="6">
+      <c r="L54" s="6">
         <v>18.916173683403709</v>
       </c>
     </row>
-    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="22">
+    <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="21">
         <v>2020</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C55" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="15">
-        <f t="shared" si="2"/>
+      <c r="D55" s="15">
+        <f t="shared" si="3"/>
         <v>1124473</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E55" s="4">
         <v>571367</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F55" s="4">
         <v>552611</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G55" s="4">
         <v>495</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H55" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154974</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I55" s="4">
         <v>69802</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J55" s="4">
         <v>85172</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K55" s="4">
         <v>14.418154012931202</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L55" s="5">
         <v>18.991473081224502</v>
       </c>
     </row>
-    <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="20">
+    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="19">
         <v>2020</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C56" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="11">
-        <f t="shared" si="2"/>
+      <c r="D56" s="11">
+        <f t="shared" si="3"/>
         <v>1119301</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E56" s="11">
         <v>569174</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F56" s="11">
         <v>549631</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G56" s="11">
         <v>496</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H56" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>155005</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I56" s="11">
         <v>69935</v>
       </c>
-      <c r="J55" s="11">
+      <c r="J56" s="11">
         <v>85070</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K56" s="11">
         <v>14.424315344666301</v>
       </c>
-      <c r="L55" s="6">
+      <c r="L56" s="6">
         <v>19.054786409779787</v>
       </c>
     </row>
-    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="22">
+    <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="21">
         <v>2020</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C57" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="15">
-        <f t="shared" si="2"/>
+      <c r="D57" s="15">
+        <f t="shared" si="3"/>
         <v>1115206</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E57" s="4">
         <v>567168</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F57" s="4">
         <v>547540</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G57" s="4">
         <v>498</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H57" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154854</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I57" s="4">
         <v>69936</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J57" s="4">
         <v>84918</v>
       </c>
-      <c r="K56" s="4">
+      <c r="K57" s="4">
         <v>14.441519108321387</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L57" s="5">
         <v>19.111048225569849</v>
       </c>
     </row>
-    <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="20">
+    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="19">
         <v>2020</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C58" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="11">
-        <f t="shared" si="2"/>
+      <c r="D58" s="11">
+        <f t="shared" si="3"/>
         <v>1112456</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E58" s="11">
         <v>566042</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F58" s="11">
         <v>545916</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G58" s="11">
         <v>498</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H58" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154797</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I58" s="11">
         <v>69959</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J58" s="11">
         <v>84838</v>
       </c>
-      <c r="K57" s="11">
+      <c r="K58" s="11">
         <v>14.450499686686435</v>
       </c>
-      <c r="L57" s="6">
+      <c r="L58" s="6">
         <v>19.140800505969523</v>
       </c>
     </row>
-    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="22">
+    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="21">
         <v>2020</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C59" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="15">
-        <f t="shared" si="2"/>
+      <c r="D59" s="15">
+        <f t="shared" si="3"/>
         <v>1111879</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E59" s="4">
         <v>565980</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F59" s="4">
         <v>545400</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G59" s="4">
         <v>499</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H59" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154663</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I59" s="4">
         <v>69945</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J59" s="4">
         <v>84718</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K59" s="4">
         <v>14.46115101866639</v>
       </c>
-      <c r="L58" s="5">
+      <c r="L59" s="5">
         <v>19.144045725997383</v>
       </c>
     </row>
-    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="20">
+    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="19">
         <v>2020</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C60" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="11">
-        <f t="shared" si="2"/>
+      <c r="D60" s="11">
+        <f t="shared" si="3"/>
         <v>1111626</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E60" s="11">
         <v>565883</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F60" s="11">
         <v>545244</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G60" s="11">
         <v>499</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H60" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154659</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I60" s="11">
         <v>69947</v>
       </c>
-      <c r="J59" s="11">
+      <c r="J60" s="11">
         <v>84712</v>
       </c>
-      <c r="K59" s="11">
+      <c r="K60" s="11">
         <v>14.461473305788864</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L60" s="6">
         <v>19.146164489832703</v>
       </c>
     </row>
-    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="22">
+    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="21">
         <v>2020</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C61" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="15">
-        <f t="shared" si="2"/>
+      <c r="D61" s="15">
+        <f t="shared" si="3"/>
         <v>1111436</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E61" s="4">
         <v>565809</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F61" s="4">
         <v>545128</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G61" s="4">
         <v>499</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H61" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154670</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I61" s="4">
         <v>69953</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J61" s="4">
         <v>84717</v>
       </c>
-      <c r="K60" s="4">
+      <c r="K61" s="4">
         <v>14.461059028900239</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L61" s="5">
         <v>19.148813468856098</v>
       </c>
     </row>
-    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="20">
+    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="19">
         <v>2020</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C62" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="11">
-        <f t="shared" si="2"/>
+      <c r="D62" s="11">
+        <f t="shared" si="3"/>
         <v>1107180</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E62" s="11">
         <v>564089</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F62" s="11">
         <v>542595</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G62" s="11">
         <v>496</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H62" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154310</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I62" s="11">
         <v>69893</v>
       </c>
-      <c r="J61" s="11">
+      <c r="J62" s="11">
         <v>84417</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K62" s="11">
         <v>14.507322921392003</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L62" s="6">
         <v>19.193769068356236</v>
       </c>
     </row>
-    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="24">
+    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="23">
         <v>2020</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C63" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="16">
-        <f t="shared" si="2"/>
+      <c r="D63" s="16">
+        <f t="shared" si="3"/>
         <v>1102434</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E63" s="7">
         <v>562170</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F63" s="7">
         <v>539768</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G63" s="7">
         <v>496</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H63" s="7">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>153904</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I63" s="7">
         <v>69851</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J63" s="7">
         <v>84053</v>
       </c>
-      <c r="K62" s="7">
+      <c r="K63" s="7">
         <v>14.558120646636899</v>
       </c>
-      <c r="L62" s="8">
+      <c r="L63" s="8">
         <v>19.246057242471139</v>
       </c>
     </row>
-    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="26">
+    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="25">
         <v>2019</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C64" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="17">
-        <f t="shared" si="2"/>
+      <c r="D64" s="17">
+        <f t="shared" si="3"/>
         <v>1099371</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E64" s="17">
         <v>561061</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F64" s="17">
         <v>537813</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G64" s="17">
         <v>497</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H64" s="17">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>153726</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I64" s="17">
         <v>69871</v>
       </c>
-      <c r="J63" s="17">
+      <c r="J64" s="17">
         <v>83855</v>
       </c>
-      <c r="K63" s="17">
+      <c r="K64" s="17">
         <v>13.608641348893485</v>
       </c>
-      <c r="L63" s="18">
+      <c r="L64" s="18">
         <v>18.302218475352948</v>
       </c>
     </row>
-    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="22">
+    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="21">
         <v>2019</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C65" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D64" s="15">
-        <f t="shared" si="2"/>
+      <c r="D65" s="15">
+        <f t="shared" si="3"/>
         <v>1094843</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E65" s="4">
         <v>558626</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F65" s="4">
         <v>535724</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G65" s="4">
         <v>493</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H65" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>152624</v>
       </c>
-      <c r="I64" s="4">
+      <c r="I65" s="4">
         <v>69534</v>
       </c>
-      <c r="J64" s="4">
+      <c r="J65" s="4">
         <v>83090</v>
       </c>
-      <c r="K64" s="4">
+      <c r="K65" s="4">
         <v>13.697282209875249</v>
       </c>
-      <c r="L64" s="5">
+      <c r="L65" s="5">
         <v>18.357969374859028</v>
       </c>
     </row>
-    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="20">
+    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="19">
         <v>2019</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C66" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="11">
-        <f t="shared" si="2"/>
+      <c r="D66" s="11">
+        <f t="shared" si="3"/>
         <v>1089907</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E66" s="11">
         <v>556346</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F66" s="11">
         <v>533069</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G66" s="11">
         <v>492</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H66" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>151838</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I66" s="11">
         <v>69318</v>
       </c>
-      <c r="J65" s="11">
+      <c r="J66" s="11">
         <v>82520</v>
       </c>
-      <c r="K65" s="11">
+      <c r="K66" s="11">
         <v>13.773673257023933</v>
       </c>
-      <c r="L65" s="6">
+      <c r="L66" s="6">
         <v>18.416267933983526</v>
       </c>
     </row>
-    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="22">
+    <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="21">
         <v>2019</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C67" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="15">
-        <f t="shared" si="2"/>
+      <c r="D67" s="15">
+        <f t="shared" si="3"/>
         <v>1026253</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E67" s="4">
         <v>519860</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F67" s="4">
         <v>505944</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G67" s="4">
         <v>449</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H67" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134666</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I67" s="4">
         <v>59103</v>
       </c>
-      <c r="J66" s="4">
+      <c r="J67" s="4">
         <v>75563</v>
       </c>
-      <c r="K66" s="4">
+      <c r="K67" s="4">
         <v>13.265634978390983</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L67" s="5">
         <v>18.202425653060438</v>
       </c>
     </row>
-    <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="20">
+    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="19">
         <v>2019</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C68" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="11">
-        <f t="shared" si="2"/>
+      <c r="D68" s="11">
+        <f t="shared" si="3"/>
         <v>1021601</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E68" s="11">
         <v>517666</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F68" s="11">
         <v>503486</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G68" s="11">
         <v>449</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H68" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134177</v>
       </c>
-      <c r="I67" s="11">
+      <c r="I68" s="11">
         <v>58996</v>
       </c>
-      <c r="J67" s="11">
+      <c r="J68" s="11">
         <v>75181</v>
       </c>
-      <c r="K67" s="11">
+      <c r="K68" s="11">
         <v>13.321195137765788</v>
       </c>
-      <c r="L67" s="6">
+      <c r="L68" s="6">
         <v>18.260312634014984</v>
       </c>
     </row>
-    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="22">
+    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="21">
         <v>2019</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C69" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="15">
-        <f t="shared" si="2"/>
+      <c r="D69" s="15">
+        <f t="shared" si="3"/>
         <v>1012889</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E69" s="4">
         <v>514393</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F69" s="4">
         <v>498050</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G69" s="4">
         <v>446</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H69" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134315</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I69" s="4">
         <v>59818</v>
       </c>
-      <c r="J68" s="4">
+      <c r="J69" s="4">
         <v>74497</v>
       </c>
-      <c r="K68" s="4">
+      <c r="K69" s="4">
         <v>13.572348583553588</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L69" s="5">
         <v>18.476849412803052</v>
       </c>
     </row>
-    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="20">
+    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="19">
         <v>2019</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C70" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="11">
-        <f t="shared" si="2"/>
+      <c r="D70" s="11">
+        <f t="shared" si="3"/>
         <v>1011042</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E70" s="11">
         <v>512802</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F70" s="11">
         <v>497796</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G70" s="11">
         <v>444</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H70" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>132861</v>
       </c>
-      <c r="I69" s="11">
+      <c r="I70" s="11">
         <v>58917</v>
       </c>
-      <c r="J69" s="11">
+      <c r="J70" s="11">
         <v>73944</v>
       </c>
-      <c r="K69" s="11">
+      <c r="K70" s="11">
         <v>13.491144880740022</v>
       </c>
-      <c r="L69" s="6">
+      <c r="L70" s="6">
         <v>18.398711393481303</v>
       </c>
     </row>
-    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="22">
+    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="21">
         <v>2019</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C71" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="15">
-        <f t="shared" si="2"/>
+      <c r="D71" s="15">
+        <f t="shared" si="3"/>
         <v>1006543</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E71" s="4">
         <v>506850</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F71" s="4">
         <v>499239</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G71" s="4">
         <v>454</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H71" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>133322</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I71" s="4">
         <v>58537</v>
       </c>
-      <c r="J70" s="4">
+      <c r="J71" s="4">
         <v>74785</v>
       </c>
-      <c r="K70" s="4">
+      <c r="K71" s="4">
         <v>12.551904411875009</v>
       </c>
-      <c r="L70" s="5">
+      <c r="L71" s="5">
         <v>17.760755647627501</v>
       </c>
     </row>
-    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="20">
+    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="19">
         <v>2019</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C72" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="11">
-        <f t="shared" si="2"/>
+      <c r="D72" s="11">
+        <f t="shared" si="3"/>
         <v>1000820</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E72" s="11">
         <v>504046</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F72" s="11">
         <v>496323</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G72" s="11">
         <v>451</v>
       </c>
-      <c r="H71" s="11">
+      <c r="H72" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>132406</v>
       </c>
-      <c r="I71" s="11">
+      <c r="I72" s="11">
         <v>58289</v>
       </c>
-      <c r="J71" s="11">
+      <c r="J72" s="11">
         <v>74117</v>
       </c>
-      <c r="K71" s="11">
+      <c r="K72" s="11">
         <v>12.619949247012975</v>
       </c>
-      <c r="L71" s="6">
+      <c r="L72" s="6">
         <v>17.838770667756513</v>
       </c>
     </row>
-    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="22">
+    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="21">
         <v>2019</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C73" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="15">
-        <f t="shared" si="2"/>
+      <c r="D73" s="15">
+        <f t="shared" si="3"/>
         <v>995167</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E73" s="4">
         <v>501424</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F73" s="4">
         <v>493291</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G73" s="4">
         <v>452</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H73" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>131276</v>
       </c>
-      <c r="I72" s="4">
+      <c r="I73" s="4">
         <v>57933</v>
       </c>
-      <c r="J72" s="4">
+      <c r="J73" s="4">
         <v>73343</v>
       </c>
-      <c r="K72" s="4">
+      <c r="K73" s="4">
         <v>12.722576860964685</v>
       </c>
-      <c r="L72" s="5">
+      <c r="L73" s="5">
         <v>17.901807651807651</v>
       </c>
     </row>
-    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="20">
+    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="19">
         <v>2019</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C74" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="11">
-        <f t="shared" si="2"/>
+      <c r="D74" s="11">
+        <f t="shared" si="3"/>
         <v>990002</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="11">
         <v>499221</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="11">
         <v>490327</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G74" s="11">
         <v>454</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H74" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>130579</v>
       </c>
-      <c r="I73" s="11">
+      <c r="I74" s="11">
         <v>57862</v>
       </c>
-      <c r="J73" s="11">
+      <c r="J74" s="11">
         <v>72717</v>
       </c>
-      <c r="K73" s="11">
+      <c r="K74" s="11">
         <v>12.793971465549591</v>
       </c>
-      <c r="L73" s="6">
+      <c r="L74" s="6">
         <v>17.958405195294269</v>
       </c>
     </row>
-    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="24">
+    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="23">
         <v>2019</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C75" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="16">
-        <f t="shared" ref="D74:D86" si="3">SUM(E74:G74)</f>
+      <c r="D75" s="16">
+        <f t="shared" ref="D75:D87" si="4">SUM(E75:G75)</f>
         <v>985713</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E75" s="7">
         <v>497141</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F75" s="7">
         <v>488120</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G75" s="7">
         <v>452</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H75" s="7">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>129833</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I75" s="7">
         <v>57647</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J75" s="7">
         <v>72186</v>
       </c>
-      <c r="K74" s="7">
+      <c r="K75" s="7">
         <v>12.85511387705745</v>
       </c>
-      <c r="L74" s="8">
+      <c r="L75" s="8">
         <v>18.009015550920161</v>
       </c>
     </row>
-    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="26">
+    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="25">
         <v>2018</v>
       </c>
-      <c r="C75" s="27" t="s">
+      <c r="C76" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="17">
-        <f t="shared" si="3"/>
+      <c r="D76" s="17">
+        <f t="shared" si="4"/>
         <v>982856</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E76" s="17">
         <v>496057</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F76" s="17">
         <v>486335</v>
       </c>
-      <c r="G75" s="17">
+      <c r="G76" s="17">
         <v>464</v>
       </c>
-      <c r="H75" s="17">
+      <c r="H76" s="17">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>129315</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I76" s="17">
         <v>57599</v>
       </c>
-      <c r="J75" s="17">
+      <c r="J76" s="17">
         <v>71716</v>
       </c>
-      <c r="K75" s="17">
+      <c r="K76" s="17">
         <v>11.5</v>
       </c>
-      <c r="L75" s="18">
+      <c r="L76" s="18">
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="22">
+    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="21">
         <v>2018</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C77" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="15">
-        <f t="shared" si="3"/>
+      <c r="D77" s="15">
+        <f t="shared" si="4"/>
         <v>978058</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E77" s="4">
         <v>493248</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F77" s="4">
         <v>484343</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G77" s="4">
         <v>467</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H77" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>127995</v>
       </c>
-      <c r="I76" s="4">
+      <c r="I77" s="4">
         <v>57117</v>
       </c>
-      <c r="J76" s="4">
+      <c r="J77" s="4">
         <v>70878</v>
       </c>
-      <c r="K76" s="4">
+      <c r="K77" s="4">
         <v>11.579603101683661</v>
       </c>
-      <c r="L76" s="5">
+      <c r="L77" s="5">
         <v>16.657281844021668</v>
       </c>
     </row>
-    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="20">
+    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="19">
         <v>2018</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C78" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="11">
-        <f t="shared" si="3"/>
+      <c r="D78" s="11">
+        <f t="shared" si="4"/>
         <v>971514</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E78" s="11">
         <v>489853</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F78" s="11">
         <v>481195</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G78" s="11">
         <v>466</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H78" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>126537</v>
       </c>
-      <c r="I77" s="11">
+      <c r="I78" s="11">
         <v>56599</v>
       </c>
-      <c r="J77" s="11">
+      <c r="J78" s="11">
         <v>69938</v>
       </c>
-      <c r="K77" s="11">
+      <c r="K78" s="11">
         <v>11.695425480294306</v>
       </c>
-      <c r="L77" s="6">
+      <c r="L78" s="6">
         <v>16.724397819345807</v>
       </c>
     </row>
-    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="22">
+    <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="21">
         <v>2018</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C79" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="15">
-        <f t="shared" si="3"/>
+      <c r="D79" s="15">
+        <f t="shared" si="4"/>
         <v>965544</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E79" s="4">
         <v>486879</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F79" s="4">
         <v>478202</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G79" s="4">
         <v>463</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H79" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>125592</v>
       </c>
-      <c r="I78" s="4">
+      <c r="I79" s="4">
         <v>56443</v>
       </c>
-      <c r="J78" s="4">
+      <c r="J79" s="4">
         <v>69149</v>
       </c>
-      <c r="K78" s="4">
+      <c r="K79" s="4">
         <v>11.775922614497736</v>
       </c>
-      <c r="L78" s="5">
+      <c r="L79" s="5">
         <v>16.795398144097401</v>
       </c>
     </row>
-    <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="20">
+    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="19">
         <v>2018</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C80" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="11">
-        <f t="shared" si="3"/>
+      <c r="D80" s="11">
+        <f t="shared" si="4"/>
         <v>960111</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E80" s="11">
         <v>483912</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F80" s="11">
         <v>475735</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G80" s="11">
         <v>464</v>
       </c>
-      <c r="H79" s="11">
+      <c r="H80" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>124463</v>
       </c>
-      <c r="I79" s="11">
+      <c r="I80" s="11">
         <v>56029</v>
       </c>
-      <c r="J79" s="11">
+      <c r="J80" s="11">
         <v>68434</v>
       </c>
-      <c r="K79" s="11">
+      <c r="K80" s="11">
         <v>11.859889509332092</v>
       </c>
-      <c r="L79" s="6">
+      <c r="L80" s="6">
         <v>16.84972398287292</v>
       </c>
     </row>
-    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="22">
+    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="21">
         <v>2018</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C81" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="15">
-        <f t="shared" si="3"/>
+      <c r="D81" s="15">
+        <f t="shared" si="4"/>
         <v>953323</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E81" s="4">
         <v>480495</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F81" s="4">
         <v>472364</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G81" s="4">
         <v>464</v>
       </c>
-      <c r="H80" s="4">
+      <c r="H81" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>123737</v>
       </c>
-      <c r="I80" s="4">
+      <c r="I81" s="4">
         <v>55960</v>
       </c>
-      <c r="J80" s="4">
+      <c r="J81" s="4">
         <v>67777</v>
       </c>
-      <c r="K80" s="4">
+      <c r="K81" s="4">
         <v>11.930278889903581</v>
       </c>
-      <c r="L80" s="5">
+      <c r="L81" s="5">
         <v>16.922447322032493</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="20">
+    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="19">
         <v>2018</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C82" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="11">
-        <f t="shared" si="3"/>
+      <c r="D82" s="11">
+        <f t="shared" si="4"/>
         <v>947851</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E82" s="11">
         <v>477880</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F82" s="11">
         <v>469513</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G82" s="11">
         <v>458</v>
       </c>
-      <c r="H81" s="11">
+      <c r="H82" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>122946</v>
       </c>
-      <c r="I81" s="11">
+      <c r="I82" s="11">
         <v>55790</v>
       </c>
-      <c r="J81" s="11">
+      <c r="J82" s="11">
         <v>67156</v>
       </c>
-      <c r="K81" s="11">
+      <c r="K82" s="11">
         <v>12.01</v>
       </c>
-      <c r="L81" s="6">
+      <c r="L82" s="6">
         <v>16.98</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="22">
+    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="21">
         <v>2018</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C83" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="15">
-        <f t="shared" si="3"/>
+      <c r="D83" s="15">
+        <f t="shared" si="4"/>
         <v>944527</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E83" s="4">
         <v>476241</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F83" s="4">
         <v>467827</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G83" s="4">
         <v>459</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H83" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>122105</v>
       </c>
-      <c r="I82" s="4">
+      <c r="I83" s="4">
         <v>55617</v>
       </c>
-      <c r="J82" s="4">
+      <c r="J83" s="4">
         <v>66488</v>
       </c>
-      <c r="K82" s="4">
+      <c r="K83" s="4">
         <v>12.1</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L83" s="5">
         <v>17.03</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="20">
+    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="19">
         <v>2018</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C84" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="11">
-        <f t="shared" si="3"/>
+      <c r="D84" s="11">
+        <f t="shared" si="4"/>
         <v>936533</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E84" s="11">
         <v>472271</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F84" s="11">
         <v>463807</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G84" s="11">
         <v>455</v>
       </c>
-      <c r="H83" s="11">
+      <c r="H84" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>121075</v>
       </c>
-      <c r="I83" s="11">
+      <c r="I84" s="11">
         <v>55199</v>
       </c>
-      <c r="J83" s="11">
+      <c r="J84" s="11">
         <v>65876</v>
       </c>
-      <c r="K83" s="11">
+      <c r="K84" s="11">
         <v>12.15</v>
       </c>
-      <c r="L83" s="6">
+      <c r="L84" s="6">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="22">
+    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="21">
         <v>2018</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C85" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="15">
-        <f t="shared" si="3"/>
+      <c r="D85" s="15">
+        <f t="shared" si="4"/>
         <v>930205</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E85" s="4">
         <v>469020</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F85" s="4">
         <v>460731</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G85" s="4">
         <v>454</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H85" s="4">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>120039</v>
       </c>
-      <c r="I84" s="4">
+      <c r="I85" s="4">
         <v>54921</v>
       </c>
-      <c r="J84" s="4">
+      <c r="J85" s="4">
         <v>65118</v>
       </c>
-      <c r="K84" s="4">
+      <c r="K85" s="4">
         <v>12.219768117028636</v>
       </c>
-      <c r="L84" s="5">
+      <c r="L85" s="5">
         <v>17.169355262035737</v>
       </c>
     </row>
-    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="20">
+    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="19">
         <v>2018</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C86" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="11">
-        <f t="shared" si="3"/>
+      <c r="D86" s="11">
+        <f t="shared" si="4"/>
         <v>924012</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E86" s="11">
         <v>466319</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F86" s="11">
         <v>457242</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G86" s="11">
         <v>451</v>
       </c>
-      <c r="H85" s="11">
+      <c r="H86" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>118763</v>
       </c>
-      <c r="I85" s="11">
+      <c r="I86" s="11">
         <v>54503</v>
       </c>
-      <c r="J85" s="11">
+      <c r="J86" s="11">
         <v>64260</v>
       </c>
-      <c r="K85" s="11">
+      <c r="K86" s="11">
         <v>12.303791963827118</v>
       </c>
-      <c r="L85" s="6">
+      <c r="L86" s="6">
         <v>17.220716288635032</v>
       </c>
     </row>
-    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="24">
+    <row r="87" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="23">
         <v>2018</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C87" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="16">
-        <f t="shared" si="3"/>
+      <c r="D87" s="16">
+        <f t="shared" si="4"/>
         <v>920526</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E87" s="7">
         <v>464622</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F87" s="7">
         <v>455453</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G87" s="7">
         <v>451</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H87" s="7">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>118260</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I87" s="7">
         <v>54504</v>
       </c>
-      <c r="J86" s="7">
+      <c r="J87" s="7">
         <v>63756</v>
       </c>
-      <c r="K86" s="7">
+      <c r="K87" s="7">
         <v>12.37</v>
       </c>
-      <c r="L86" s="8">
+      <c r="L87" s="8">
         <v>17.28</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B87" t="s">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>27</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>7</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B89" t="s">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Flota_Antigúedad_AF.xlsx
+++ b/Flota_Antigúedad_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307A33E7-B285-4912-890D-E74C34A4C50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0574C6-FA86-4FD6-B98E-38881C019043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_15.2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="28">
   <si>
     <t>Carga</t>
   </si>
@@ -122,7 +122,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Noviembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -132,19 +132,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
@@ -160,18 +154,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -350,117 +360,251 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -483,6 +627,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -494,9 +652,10 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Geomanist"/>
+        <name val="Noto Sans"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -530,11 +689,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:L87" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
-  <autoFilter ref="B5:L87" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:L88" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="B5:L88" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
         <filter val="2024"/>
       </filters>
     </filterColumn>
@@ -783,3139 +941,3178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:L90"/>
+  <dimension ref="B2:O91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="5.625" customWidth="1"/>
-    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.5" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:15" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="28" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="2:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="27" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="27"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="19">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6" s="17">
         <v>2024</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="19">
+        <f>SUM(E6:G6)</f>
+        <v>1428265</v>
+      </c>
+      <c r="E6" s="20">
+        <v>719185</v>
+      </c>
+      <c r="F6" s="20">
+        <v>708450</v>
+      </c>
+      <c r="G6" s="20">
+        <v>630</v>
+      </c>
+      <c r="H6" s="20">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>184987</v>
+      </c>
+      <c r="I6" s="19">
+        <v>73204</v>
+      </c>
+      <c r="J6" s="20">
+        <v>111783</v>
+      </c>
+      <c r="K6" s="20">
+        <v>15.270154118938088</v>
+      </c>
+      <c r="L6" s="21">
+        <v>19.35768543559724</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" s="13">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="11">
-        <f t="shared" ref="D6" si="0">SUM(E6:G6)</f>
+      <c r="D7" s="15">
+        <f t="shared" ref="D7" si="0">SUM(E7:G7)</f>
         <v>1419744</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="15">
         <v>714747</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F7" s="15">
         <v>704375</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G7" s="15">
         <v>622</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H7" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>184353</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I7" s="15">
         <v>73206</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J7" s="15">
         <v>111147</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K7" s="15">
         <v>15.333984258460671</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L7" s="16">
         <v>19.45495538980926</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="21">
+      <c r="O7"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" s="17">
         <v>2024</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="15">
-        <f>SUM(E7:G7)</f>
+      <c r="D8" s="19">
+        <f>SUM(E8:G8)</f>
         <v>1409947</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="20">
         <v>709391</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="20">
         <v>699945</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G8" s="20">
         <v>611</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H8" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>183444</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I8" s="19">
         <v>72959</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J8" s="20">
         <v>110485</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K8" s="20">
         <v>15.41505309522252</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L8" s="21">
         <v>19.569322136875151</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="19">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" s="13">
         <v>2024</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="11">
-        <f>SUM(E8:G8)</f>
+      <c r="D9" s="15">
+        <f>SUM(E9:G9)</f>
         <v>1401613</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E9" s="15">
         <v>704941</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F9" s="15">
         <v>696064</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G9" s="15">
         <v>608</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H9" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>182766</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I9" s="15">
         <v>72808</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J9" s="15">
         <v>109958</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K9" s="15">
         <v>15.486441679524638</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L9" s="16">
         <v>19.663221461086813</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="21">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="17">
         <v>2024</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="15">
-        <f t="shared" ref="D9:D11" si="1">SUM(E9:G9)</f>
+      <c r="D10" s="19">
+        <f t="shared" ref="D10:D12" si="1">SUM(E10:G10)</f>
         <v>1392231</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="20">
         <v>700064</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="20">
         <v>691573</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G10" s="20">
         <v>594</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>182096</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I10" s="20">
         <v>72722</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J10" s="20">
         <v>109374</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K10" s="20">
         <v>15.548683112204552</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L10" s="21">
         <v>19.76646992274992</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="19">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="13">
         <v>2024</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="15">
         <f t="shared" si="1"/>
         <v>1381670</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="15">
         <v>694997</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="15">
         <v>686081</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="15">
         <v>592</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H11" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>181209</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I11" s="15">
         <v>72604</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J11" s="15">
         <v>108605</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K11" s="15">
         <v>15.6321154026566</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L11" s="16">
         <v>19.872406643481913</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="21">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="17">
         <v>2024</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D12" s="19">
         <f t="shared" si="1"/>
         <v>1364076</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="20">
         <v>686433</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="20">
         <v>677060</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G12" s="20">
         <v>583</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H12" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>180169</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I12" s="20">
         <v>72197</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J12" s="20">
         <v>107972</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K12" s="20">
         <v>15.728466051318485</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L12" s="20">
         <v>20.044184938661164</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="19">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="13">
         <v>2024</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="11">
-        <f t="shared" ref="D12:D42" si="2">SUM(E12:G12)</f>
+      <c r="D13" s="15">
+        <f t="shared" ref="D13:D43" si="2">SUM(E13:G13)</f>
         <v>1362046</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="15">
         <v>685435</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="15">
         <v>676046</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G13" s="15">
         <v>565</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H13" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>179118</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I13" s="15">
         <v>71981</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J13" s="15">
         <v>107137</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K13" s="15">
         <v>15.827370783505845</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L13" s="16">
         <v>20.082257252693545</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="21">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="17">
         <v>2024</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D14" s="19">
         <f t="shared" si="2"/>
         <v>1353988</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="20">
         <v>681551</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="20">
         <v>671878</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="20">
         <v>559</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H14" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>178140</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I14" s="20">
         <v>71842</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J14" s="20">
         <v>106298</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K14" s="20">
         <v>15.921746940608511</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L14" s="21">
         <v>20.167528182043604</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="19">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="13">
         <v>2024</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="15">
         <f t="shared" si="2"/>
         <v>1345055</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="15">
         <v>677153</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="15">
         <v>667343</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G15" s="15">
         <v>559</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H15" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>177618</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I15" s="15">
         <v>71797</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J15" s="15">
         <v>105821</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K15" s="15">
         <v>15.980300420002477</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L15" s="16">
         <v>20.271950356861744</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="23">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="22">
         <v>2024</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D16" s="24">
         <f t="shared" si="2"/>
         <v>1337961</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E16" s="25">
         <v>673757</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F16" s="25">
         <v>663646</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G16" s="25">
         <v>558</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H16" s="25">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>176858</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I16" s="25">
         <v>71641</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J16" s="25">
         <v>105217</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K16" s="25">
         <v>16.061088556921373</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L16" s="26">
         <v>20.355880532595581</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="25">
+    <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="27">
         <v>2023</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C17" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D17" s="29">
         <f t="shared" si="2"/>
         <v>1331921</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E17" s="29">
         <v>671002</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F17" s="29">
         <v>660365</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G17" s="29">
         <v>554</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H17" s="29">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>176251</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I17" s="29">
         <v>71562</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J17" s="29">
         <v>104689</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K17" s="29">
         <v>15.134234699377592</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L17" s="30">
         <v>19.458281793496891</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="21">
+    <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="17">
         <v>2023</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D18" s="19">
         <f t="shared" si="2"/>
         <v>1324591</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="20">
         <v>667021</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F18" s="20">
         <v>657017</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G18" s="20">
         <v>553</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H18" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>175311</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I18" s="20">
         <v>71379</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J18" s="20">
         <v>103932</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K18" s="20">
         <v>15.22355699300101</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L18" s="21">
         <v>19.543477641633473</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="19">
+    <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="13">
         <v>2023</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C19" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="15">
         <f t="shared" si="2"/>
         <v>1316689</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="15">
         <v>662911</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F19" s="15">
         <v>653227</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G19" s="15">
         <v>551</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H19" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>174393</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I19" s="15">
         <v>71146</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J19" s="15">
         <v>103247</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K19" s="15">
         <v>15.305362027145584</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L19" s="16">
         <v>19.637007079381696</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="21">
+    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="17">
         <v>2023</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D20" s="19">
         <f t="shared" si="2"/>
         <v>1309236</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="20">
         <v>659020</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="20">
         <v>649665</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="20">
         <v>551</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>173599</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="20">
         <v>71029</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J20" s="20">
         <v>102570</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K20" s="20">
         <v>15.387882418677528</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L20" s="21">
         <v>19.730128068950865</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="19">
+    <row r="21" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="13">
         <v>2023</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="15">
         <f t="shared" si="2"/>
         <v>1302003</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="15">
         <v>655458</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="15">
         <v>645999</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G21" s="15">
         <v>546</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H21" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>172764</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I21" s="15">
         <v>70834</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J21" s="15">
         <v>101930</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K21" s="15">
         <v>15.470034266398093</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L21" s="16">
         <v>19.817370449365178</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="21">
+    <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="17">
         <v>2023</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D22" s="19">
         <f t="shared" si="2"/>
         <v>1294209</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="20">
         <v>651761</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="20">
         <v>641907</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G22" s="20">
         <v>541</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H22" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>172137</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I22" s="20">
         <v>70783</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J22" s="20">
         <v>101354</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K22" s="20">
         <v>15.535631502814619</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L22" s="21">
         <v>19.908092076696825</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="19">
+    <row r="23" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="13">
         <v>2023</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C23" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="15">
         <f t="shared" si="2"/>
         <v>1286042</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="15">
         <v>647906</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="15">
         <v>637598</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G23" s="15">
         <v>538</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H23" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>171516</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I23" s="15">
         <v>70673</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J23" s="15">
         <v>100843</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K23" s="15">
         <v>15.606316611861285</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L23" s="16">
         <v>20.002412386982062</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="21">
+    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="17">
         <v>2023</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C24" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D24" s="19">
         <f t="shared" si="2"/>
         <v>1279902</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="20">
         <v>645139</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F24" s="20">
         <v>634226</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G24" s="20">
         <v>537</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>170681</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I24" s="20">
         <v>70483</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J24" s="20">
         <v>100198</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K24" s="20">
         <v>15.688172672998165</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L24" s="21">
         <v>20.079559598784137</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="19">
+    <row r="25" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="13">
         <v>2023</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C25" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="15">
         <f t="shared" si="2"/>
         <v>1273243</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="15">
         <v>641751</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="15">
         <v>630955</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G25" s="15">
         <v>537</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H25" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>170020</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I25" s="15">
         <v>70335</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J25" s="15">
         <v>99685</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K25" s="15">
         <v>15.757763792495</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L25" s="16">
         <v>20.166095572893536</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="21">
+    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="17">
         <v>2023</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C26" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D26" s="19">
         <f t="shared" si="2"/>
         <v>1267813</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E26" s="20">
         <v>639200</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F26" s="20">
         <v>628078</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G26" s="20">
         <v>535</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H26" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>169398</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I26" s="20">
         <v>70212</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J26" s="20">
         <v>99186</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K26" s="20">
         <v>15.818386285552368</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L26" s="21">
         <v>20.231362640801002</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="19">
+    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="13">
         <v>2023</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="15">
         <f t="shared" si="2"/>
         <v>1261816</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="15">
         <v>636167</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="15">
         <v>625114</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G27" s="15">
         <v>535</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H27" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>168270</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I27" s="15">
         <v>70028</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J27" s="15">
         <v>98242</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K27" s="15">
         <v>15.924098175551197</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L27" s="16">
         <v>20.308953466621187</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="23">
+    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="22">
         <v>2023</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D28" s="24">
         <f t="shared" si="2"/>
         <v>1256959</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E28" s="25">
         <v>633934</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F28" s="25">
         <v>622491</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G28" s="25">
         <v>534</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H28" s="25">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>167855</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I28" s="25">
         <v>70043</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J28" s="25">
         <v>97812</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K28" s="25">
         <v>15.971731554019838</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L28" s="26">
         <v>20.368738701505205</v>
       </c>
     </row>
-    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="25">
+    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="27">
         <v>2022</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C29" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D29" s="29">
         <f t="shared" si="2"/>
         <v>1253020</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E29" s="29">
         <v>632252</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F29" s="29">
         <v>620240</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G29" s="29">
         <v>528</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H29" s="29">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>167359</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I29" s="29">
         <v>70056</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J29" s="29">
         <v>97303</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K29" s="29">
         <v>15.042250491458482</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L29" s="30">
         <v>19.442766491841862</v>
       </c>
     </row>
-    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="21">
+    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="17">
         <v>2022</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C30" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D30" s="19">
         <f t="shared" si="2"/>
         <v>1248052</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="20">
         <v>629746</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F30" s="20">
         <v>617778</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G30" s="20">
         <v>528</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H30" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>166178</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I30" s="20">
         <v>69821</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J30" s="20">
         <v>96357</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K30" s="20">
         <v>15.145163619733058</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L30" s="21">
         <v>19.503375964277662</v>
       </c>
     </row>
-    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="19">
+    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="13">
         <v>2022</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C31" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="15">
         <f t="shared" si="2"/>
         <v>1243495</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="15">
         <v>627591</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F31" s="15">
         <v>615376</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G31" s="15">
         <v>528</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H31" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>165354</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I31" s="15">
         <v>69675</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J31" s="15">
         <v>95679</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K31" s="15">
         <v>15.219299200503164</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L31" s="16">
         <v>19.558707820857851</v>
       </c>
     </row>
-    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="21">
+    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="17">
         <v>2022</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C32" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D32" s="19">
         <f t="shared" si="2"/>
         <v>1239858</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E32" s="20">
         <v>625802</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F32" s="20">
         <v>613527</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G32" s="20">
         <v>529</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H32" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>164931</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I32" s="20">
         <v>69723</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J32" s="20">
         <v>95208</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K32" s="20">
         <v>15.268857886025065</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L32" s="21">
         <v>19.601036749642859</v>
       </c>
     </row>
-    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19">
+    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="13">
         <v>2022</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C33" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="15">
         <f t="shared" si="2"/>
         <v>1234757</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E33" s="15">
         <v>623225</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F33" s="15">
         <v>611005</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G33" s="15">
         <v>527</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H33" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>166002</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I33" s="15">
         <v>69645</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J33" s="15">
         <v>96357</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K33" s="15">
         <v>15.188636281490584</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L33" s="16">
         <v>19.665687352079907</v>
       </c>
     </row>
-    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="21">
+    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="17">
         <v>2022</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C34" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D34" s="19">
         <f t="shared" si="2"/>
         <v>1227595</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E34" s="20">
         <v>619408</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F34" s="20">
         <v>607662</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G34" s="20">
         <v>525</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H34" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>163526</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I34" s="20">
         <v>69586</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J34" s="20">
         <v>93940</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K34" s="20">
         <v>15.421364186734831</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L34" s="21">
         <v>19.756386743471186</v>
       </c>
     </row>
-    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="19">
+    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="13">
         <v>2022</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C35" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="15">
         <f t="shared" si="2"/>
         <v>1225289</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="15">
         <v>618040</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F35" s="15">
         <v>606724</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G35" s="15">
         <v>525</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H35" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>163070</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I35" s="15">
         <v>69430</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J35" s="15">
         <v>93640</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K35" s="15">
         <v>15.452272030416385</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L35" s="16">
         <v>19.768709145039157</v>
       </c>
     </row>
-    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="21">
+    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="17">
         <v>2022</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C36" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D36" s="19">
         <f t="shared" si="2"/>
         <v>1222511</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="20">
         <v>616795</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F36" s="20">
         <v>605191</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G36" s="20">
         <v>525</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H36" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>162777</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I36" s="20">
         <v>69624</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J36" s="20">
         <v>93153</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K36" s="20">
         <v>15.510440664221603</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L36" s="21">
         <v>19.817924918327808</v>
       </c>
     </row>
-    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="19">
+    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="13">
         <v>2022</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C37" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="15">
         <f t="shared" si="2"/>
         <v>1217422</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E37" s="15">
         <v>614317</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F37" s="15">
         <v>602581</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G37" s="15">
         <v>524</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H37" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>162245</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I37" s="15">
         <v>69515</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J37" s="15">
         <v>92730</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K37" s="15">
         <v>15.572301149496132</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L37" s="16">
         <v>19.875979339656887</v>
       </c>
     </row>
-    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="21">
+    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="17">
         <v>2022</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C38" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D38" s="19">
         <f t="shared" si="2"/>
         <v>1212635</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E38" s="20">
         <v>611918</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F38" s="20">
         <v>600194</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G38" s="20">
         <v>523</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H38" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>161903</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I38" s="20">
         <v>69487</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J38" s="20">
         <v>92416</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K38" s="20">
         <v>15.612731079720573</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L38" s="21">
         <v>19.925975375785644</v>
       </c>
     </row>
-    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="19">
+    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="13">
         <v>2022</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C39" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="15">
         <f t="shared" si="2"/>
         <v>1207392</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="15">
         <v>609072</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F39" s="15">
         <v>597797</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G39" s="15">
         <v>523</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H39" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>161179</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I39" s="15">
         <v>69288</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J39" s="15">
         <v>91891</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K39" s="15">
         <v>15.690822005348091</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L39" s="16">
         <v>19.992202892268896</v>
       </c>
     </row>
-    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="23">
+    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="22">
         <v>2022</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C40" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D40" s="24">
         <f t="shared" si="2"/>
         <v>1203679</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E40" s="25">
         <v>607150</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F40" s="25">
         <v>596005</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G40" s="25">
         <v>524</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H40" s="25">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>160915</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I40" s="25">
         <v>69335</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J40" s="25">
         <v>91580</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K40" s="25">
         <v>15.723189261411305</v>
       </c>
-      <c r="L39" s="8">
+      <c r="L40" s="26">
         <v>20.040443053611135</v>
       </c>
     </row>
-    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="25">
+    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="27">
         <v>2021</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C41" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D41" s="29">
         <f t="shared" si="2"/>
         <v>1201053</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E41" s="29">
         <v>606090</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F41" s="29">
         <v>594443</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G41" s="29">
         <v>520</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H41" s="29">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>160633</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I41" s="29">
         <v>69330</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J41" s="29">
         <v>91303</v>
       </c>
-      <c r="K40" s="17">
+      <c r="K41" s="29">
         <v>14.77932927854177</v>
       </c>
-      <c r="L40" s="18">
+      <c r="L41" s="30">
         <v>19.103214044118861</v>
       </c>
     </row>
-    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="21">
+    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="17">
         <v>2021</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C42" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D42" s="19">
         <f t="shared" si="2"/>
         <v>1195350</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="20">
         <v>603380</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F42" s="20">
         <v>591451</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G42" s="20">
         <v>519</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H42" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>159783</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I42" s="20">
         <v>69196</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J42" s="20">
         <v>90587</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K42" s="20">
         <v>14.853858044973496</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L42" s="21">
         <v>19.159161722297721</v>
       </c>
     </row>
-    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="19">
+    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="13">
         <v>2021</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C43" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="15">
         <f t="shared" si="2"/>
         <v>1192781</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E43" s="15">
         <v>602061</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F43" s="15">
         <v>590200</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G43" s="15">
         <v>520</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H43" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>159209</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I43" s="15">
         <v>69167</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J43" s="15">
         <v>90042</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K43" s="15">
         <v>14.91196477586066</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L43" s="16">
         <v>19.201099224164992</v>
       </c>
     </row>
-    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="21">
+    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="17">
         <v>2021</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C44" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="15">
-        <f t="shared" ref="D43:D74" si="3">SUM(E43:G43)</f>
+      <c r="D44" s="19">
+        <f t="shared" ref="D44:D75" si="3">SUM(E44:G44)</f>
         <v>1186041</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E44" s="20">
         <v>599199</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F44" s="20">
         <v>586326</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G44" s="20">
         <v>516</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H44" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>158594</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I44" s="20">
         <v>69024</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J44" s="20">
         <v>89570</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K44" s="20">
         <v>14.981991752525316</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L44" s="21">
         <v>19.262381946565331</v>
       </c>
     </row>
-    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="19">
+    <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="13">
         <v>2021</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C45" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="15">
         <f t="shared" si="3"/>
         <v>1182334</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E45" s="15">
         <v>597975</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F45" s="15">
         <v>583854</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G45" s="15">
         <v>505</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H45" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157584</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I45" s="15">
         <v>68967</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J45" s="15">
         <v>88617</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K45" s="15">
         <v>15.069702507868818</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L45" s="16">
         <v>19.317817634516494</v>
       </c>
     </row>
-    <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="21">
+    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="17">
         <v>2021</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C46" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D46" s="19">
         <f t="shared" si="3"/>
         <v>1175907</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E46" s="20">
         <v>594590</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F46" s="20">
         <v>580812</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G46" s="20">
         <v>505</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H46" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157806</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I46" s="20">
         <v>69051</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J46" s="20">
         <v>88755</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K46" s="20">
         <v>15.078070542311446</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L46" s="21">
         <v>19.364975865722599</v>
       </c>
     </row>
-    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="19">
+    <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="13">
         <v>2021</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C47" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="15">
         <f t="shared" si="3"/>
         <v>1172788</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="15">
         <v>593307</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F47" s="15">
         <v>578970</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G47" s="15">
         <v>511</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H47" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157163</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I47" s="15">
         <v>68993</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J47" s="15">
         <v>88170</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K47" s="15">
         <v>15.1151861443215</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L47" s="16">
         <v>19.410730026782087</v>
       </c>
     </row>
-    <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="21">
+    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="17">
         <v>2021</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C48" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D48" s="19">
         <f t="shared" si="3"/>
         <v>1166805</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E48" s="20">
         <v>590245</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F48" s="20">
         <v>576050</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G48" s="20">
         <v>510</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H48" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156786</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I48" s="20">
         <v>69018</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J48" s="20">
         <v>87768</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K48" s="20">
         <v>15.155396527751202</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L48" s="21">
         <v>19.481235758032682</v>
       </c>
     </row>
-    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="19">
+    <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="13">
         <v>2021</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C49" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="15">
         <f t="shared" si="3"/>
         <v>1162463</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E49" s="15">
         <v>588077</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F49" s="15">
         <v>573877</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G49" s="15">
         <v>509</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H49" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156695</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I49" s="15">
         <v>69223</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J49" s="15">
         <v>87472</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K49" s="15">
         <v>15.176859504132231</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L49" s="16">
         <v>19.539313729324562</v>
       </c>
     </row>
-    <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="21">
+    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="17">
         <v>2021</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C50" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D50" s="19">
         <f t="shared" si="3"/>
         <v>1157730</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E50" s="20">
         <v>586093</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F50" s="20">
         <v>571129</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G50" s="20">
         <v>508</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H50" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156467</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I50" s="20">
         <v>69334</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J50" s="20">
         <v>87133</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K50" s="20">
         <v>15.205474636824379</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L50" s="21">
         <v>19.591187746654541</v>
       </c>
     </row>
-    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="19">
+    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="13">
         <v>2021</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C51" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="15">
         <f t="shared" si="3"/>
         <v>1151624</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="15">
         <v>583440</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F51" s="15">
         <v>567677</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G51" s="15">
         <v>507</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H51" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156128</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I51" s="15">
         <v>69352</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J51" s="15">
         <v>86776</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K51" s="15">
         <v>15.246899979503997</v>
       </c>
-      <c r="L50" s="6">
+      <c r="L51" s="16">
         <v>19.65870183737831</v>
       </c>
     </row>
-    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="23">
+    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="22">
         <v>2021</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C52" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D52" s="24">
         <f t="shared" si="3"/>
         <v>1146962</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E52" s="25">
         <v>581299</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F52" s="25">
         <v>565156</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G52" s="25">
         <v>507</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H52" s="25">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156135</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I52" s="25">
         <v>69558</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J52" s="25">
         <v>86577</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K52" s="25">
         <v>15.270791302398566</v>
       </c>
-      <c r="L51" s="8">
+      <c r="L52" s="26">
         <v>19.71498144672535</v>
       </c>
     </row>
-    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="25">
+    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="27">
         <v>2020</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C53" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D53" s="29">
         <f t="shared" si="3"/>
         <v>1143940</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E53" s="29">
         <v>580035</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F53" s="29">
         <v>563400</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G53" s="29">
         <v>505</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H53" s="29">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156064</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I53" s="29">
         <v>69624</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J53" s="29">
         <v>86440</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K53" s="29">
         <v>14.291950738158704</v>
       </c>
-      <c r="L52" s="18">
+      <c r="L53" s="30">
         <v>18.763405656555207</v>
       </c>
     </row>
-    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="21">
+    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="17">
         <v>2020</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C54" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D54" s="19">
         <f t="shared" si="3"/>
         <v>1137719</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E54" s="20">
         <v>576835</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F54" s="20">
         <v>560383</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G54" s="20">
         <v>501</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H54" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>155330</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I54" s="20">
         <v>69641</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J54" s="20">
         <v>85689</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K54" s="20">
         <v>14.359087104873495</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L54" s="21">
         <v>18.843092045385596</v>
       </c>
     </row>
-    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="19">
+    <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="13">
         <v>2020</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C55" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="15">
         <f t="shared" si="3"/>
         <v>1131496</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E55" s="15">
         <v>574056</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F55" s="15">
         <v>556941</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G55" s="15">
         <v>499</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H55" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154998</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I55" s="15">
         <v>69581</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J55" s="15">
         <v>85417</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K55" s="15">
         <v>14.401392276029368</v>
       </c>
-      <c r="L54" s="6">
+      <c r="L55" s="16">
         <v>18.916173683403709</v>
       </c>
     </row>
-    <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="21">
+    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="17">
         <v>2020</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C56" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D56" s="19">
         <f t="shared" si="3"/>
         <v>1124473</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E56" s="20">
         <v>571367</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F56" s="20">
         <v>552611</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G56" s="20">
         <v>495</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H56" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154974</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I56" s="20">
         <v>69802</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J56" s="20">
         <v>85172</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K56" s="20">
         <v>14.418154012931202</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L56" s="21">
         <v>18.991473081224502</v>
       </c>
     </row>
-    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="19">
+    <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="13">
         <v>2020</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C57" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="15">
         <f t="shared" si="3"/>
         <v>1119301</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E57" s="15">
         <v>569174</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F57" s="15">
         <v>549631</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G57" s="15">
         <v>496</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H57" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>155005</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I57" s="15">
         <v>69935</v>
       </c>
-      <c r="J56" s="11">
+      <c r="J57" s="15">
         <v>85070</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K57" s="15">
         <v>14.424315344666301</v>
       </c>
-      <c r="L56" s="6">
+      <c r="L57" s="16">
         <v>19.054786409779787</v>
       </c>
     </row>
-    <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="21">
+    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="17">
         <v>2020</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C58" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D58" s="19">
         <f t="shared" si="3"/>
         <v>1115206</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E58" s="20">
         <v>567168</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F58" s="20">
         <v>547540</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G58" s="20">
         <v>498</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H58" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154854</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I58" s="20">
         <v>69936</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J58" s="20">
         <v>84918</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K58" s="20">
         <v>14.441519108321387</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L58" s="21">
         <v>19.111048225569849</v>
       </c>
     </row>
-    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="19">
+    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="13">
         <v>2020</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C59" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="15">
         <f t="shared" si="3"/>
         <v>1112456</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="15">
         <v>566042</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F59" s="15">
         <v>545916</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G59" s="15">
         <v>498</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H59" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154797</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I59" s="15">
         <v>69959</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J59" s="15">
         <v>84838</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K59" s="15">
         <v>14.450499686686435</v>
       </c>
-      <c r="L58" s="6">
+      <c r="L59" s="16">
         <v>19.140800505969523</v>
       </c>
     </row>
-    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="21">
+    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="17">
         <v>2020</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C60" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D60" s="19">
         <f t="shared" si="3"/>
         <v>1111879</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E60" s="20">
         <v>565980</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F60" s="20">
         <v>545400</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G60" s="20">
         <v>499</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H60" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154663</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I60" s="20">
         <v>69945</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J60" s="20">
         <v>84718</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K60" s="20">
         <v>14.46115101866639</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L60" s="21">
         <v>19.144045725997383</v>
       </c>
     </row>
-    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="19">
+    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="13">
         <v>2020</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C61" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="15">
         <f t="shared" si="3"/>
         <v>1111626</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E61" s="15">
         <v>565883</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F61" s="15">
         <v>545244</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G61" s="15">
         <v>499</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H61" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154659</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I61" s="15">
         <v>69947</v>
       </c>
-      <c r="J60" s="11">
+      <c r="J61" s="15">
         <v>84712</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K61" s="15">
         <v>14.461473305788864</v>
       </c>
-      <c r="L60" s="6">
+      <c r="L61" s="16">
         <v>19.146164489832703</v>
       </c>
     </row>
-    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="21">
+    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="17">
         <v>2020</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C62" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D62" s="19">
         <f t="shared" si="3"/>
         <v>1111436</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E62" s="20">
         <v>565809</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F62" s="20">
         <v>545128</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G62" s="20">
         <v>499</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H62" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154670</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I62" s="20">
         <v>69953</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J62" s="20">
         <v>84717</v>
       </c>
-      <c r="K61" s="4">
+      <c r="K62" s="20">
         <v>14.461059028900239</v>
       </c>
-      <c r="L61" s="5">
+      <c r="L62" s="21">
         <v>19.148813468856098</v>
       </c>
     </row>
-    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="19">
+    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="13">
         <v>2020</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C63" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="15">
         <f t="shared" si="3"/>
         <v>1107180</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="15">
         <v>564089</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F63" s="15">
         <v>542595</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G63" s="15">
         <v>496</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H63" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154310</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I63" s="15">
         <v>69893</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J63" s="15">
         <v>84417</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K63" s="15">
         <v>14.507322921392003</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L63" s="16">
         <v>19.193769068356236</v>
       </c>
     </row>
-    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="23">
+    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="22">
         <v>2020</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C64" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D64" s="24">
         <f t="shared" si="3"/>
         <v>1102434</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E64" s="25">
         <v>562170</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F64" s="25">
         <v>539768</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G64" s="25">
         <v>496</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H64" s="25">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>153904</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I64" s="25">
         <v>69851</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J64" s="25">
         <v>84053</v>
       </c>
-      <c r="K63" s="7">
+      <c r="K64" s="25">
         <v>14.558120646636899</v>
       </c>
-      <c r="L63" s="8">
+      <c r="L64" s="26">
         <v>19.246057242471139</v>
       </c>
     </row>
-    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="25">
+    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="27">
         <v>2019</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C65" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D65" s="29">
         <f t="shared" si="3"/>
         <v>1099371</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E65" s="29">
         <v>561061</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F65" s="29">
         <v>537813</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G65" s="29">
         <v>497</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H65" s="29">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>153726</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I65" s="29">
         <v>69871</v>
       </c>
-      <c r="J64" s="17">
+      <c r="J65" s="29">
         <v>83855</v>
       </c>
-      <c r="K64" s="17">
+      <c r="K65" s="29">
         <v>13.608641348893485</v>
       </c>
-      <c r="L64" s="18">
+      <c r="L65" s="30">
         <v>18.302218475352948</v>
       </c>
     </row>
-    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="21">
+    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="17">
         <v>2019</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C66" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D66" s="19">
         <f t="shared" si="3"/>
         <v>1094843</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E66" s="20">
         <v>558626</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F66" s="20">
         <v>535724</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G66" s="20">
         <v>493</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H66" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>152624</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I66" s="20">
         <v>69534</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J66" s="20">
         <v>83090</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K66" s="20">
         <v>13.697282209875249</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L66" s="21">
         <v>18.357969374859028</v>
       </c>
     </row>
-    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="19">
+    <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="13">
         <v>2019</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C67" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="15">
         <f t="shared" si="3"/>
         <v>1089907</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E67" s="15">
         <v>556346</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F67" s="15">
         <v>533069</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G67" s="15">
         <v>492</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H67" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>151838</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I67" s="15">
         <v>69318</v>
       </c>
-      <c r="J66" s="11">
+      <c r="J67" s="15">
         <v>82520</v>
       </c>
-      <c r="K66" s="11">
+      <c r="K67" s="15">
         <v>13.773673257023933</v>
       </c>
-      <c r="L66" s="6">
+      <c r="L67" s="16">
         <v>18.416267933983526</v>
       </c>
     </row>
-    <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="21">
+    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="17">
         <v>2019</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C68" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D68" s="19">
         <f t="shared" si="3"/>
         <v>1026253</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E68" s="20">
         <v>519860</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F68" s="20">
         <v>505944</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G68" s="20">
         <v>449</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H68" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134666</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I68" s="20">
         <v>59103</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J68" s="20">
         <v>75563</v>
       </c>
-      <c r="K67" s="4">
+      <c r="K68" s="20">
         <v>13.265634978390983</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L68" s="21">
         <v>18.202425653060438</v>
       </c>
     </row>
-    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="19">
+    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="13">
         <v>2019</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C69" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="15">
         <f t="shared" si="3"/>
         <v>1021601</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E69" s="15">
         <v>517666</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F69" s="15">
         <v>503486</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G69" s="15">
         <v>449</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H69" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134177</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I69" s="15">
         <v>58996</v>
       </c>
-      <c r="J68" s="11">
+      <c r="J69" s="15">
         <v>75181</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K69" s="15">
         <v>13.321195137765788</v>
       </c>
-      <c r="L68" s="6">
+      <c r="L69" s="16">
         <v>18.260312634014984</v>
       </c>
     </row>
-    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="21">
+    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="17">
         <v>2019</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C70" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D70" s="19">
         <f t="shared" si="3"/>
         <v>1012889</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E70" s="20">
         <v>514393</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F70" s="20">
         <v>498050</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G70" s="20">
         <v>446</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H70" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134315</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I70" s="20">
         <v>59818</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J70" s="20">
         <v>74497</v>
       </c>
-      <c r="K69" s="4">
+      <c r="K70" s="20">
         <v>13.572348583553588</v>
       </c>
-      <c r="L69" s="5">
+      <c r="L70" s="21">
         <v>18.476849412803052</v>
       </c>
     </row>
-    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="19">
+    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="13">
         <v>2019</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C71" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="15">
         <f t="shared" si="3"/>
         <v>1011042</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="15">
         <v>512802</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="15">
         <v>497796</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G71" s="15">
         <v>444</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H71" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>132861</v>
       </c>
-      <c r="I70" s="11">
+      <c r="I71" s="15">
         <v>58917</v>
       </c>
-      <c r="J70" s="11">
+      <c r="J71" s="15">
         <v>73944</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K71" s="15">
         <v>13.491144880740022</v>
       </c>
-      <c r="L70" s="6">
+      <c r="L71" s="16">
         <v>18.398711393481303</v>
       </c>
     </row>
-    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="21">
+    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="17">
         <v>2019</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C72" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D72" s="19">
         <f t="shared" si="3"/>
         <v>1006543</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E72" s="20">
         <v>506850</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F72" s="20">
         <v>499239</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G72" s="20">
         <v>454</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H72" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>133322</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I72" s="20">
         <v>58537</v>
       </c>
-      <c r="J71" s="4">
+      <c r="J72" s="20">
         <v>74785</v>
       </c>
-      <c r="K71" s="4">
+      <c r="K72" s="20">
         <v>12.551904411875009</v>
       </c>
-      <c r="L71" s="5">
+      <c r="L72" s="21">
         <v>17.760755647627501</v>
       </c>
     </row>
-    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="19">
+    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="13">
         <v>2019</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C73" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="15">
         <f t="shared" si="3"/>
         <v>1000820</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E73" s="15">
         <v>504046</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F73" s="15">
         <v>496323</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G73" s="15">
         <v>451</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H73" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>132406</v>
       </c>
-      <c r="I72" s="11">
+      <c r="I73" s="15">
         <v>58289</v>
       </c>
-      <c r="J72" s="11">
+      <c r="J73" s="15">
         <v>74117</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K73" s="15">
         <v>12.619949247012975</v>
       </c>
-      <c r="L72" s="6">
+      <c r="L73" s="16">
         <v>17.838770667756513</v>
       </c>
     </row>
-    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="21">
+    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="17">
         <v>2019</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C74" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D74" s="19">
         <f t="shared" si="3"/>
         <v>995167</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E74" s="20">
         <v>501424</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F74" s="20">
         <v>493291</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G74" s="20">
         <v>452</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H74" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>131276</v>
       </c>
-      <c r="I73" s="4">
+      <c r="I74" s="20">
         <v>57933</v>
       </c>
-      <c r="J73" s="4">
+      <c r="J74" s="20">
         <v>73343</v>
       </c>
-      <c r="K73" s="4">
+      <c r="K74" s="20">
         <v>12.722576860964685</v>
       </c>
-      <c r="L73" s="5">
+      <c r="L74" s="21">
         <v>17.901807651807651</v>
       </c>
     </row>
-    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="19">
+    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="13">
         <v>2019</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C75" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="15">
         <f t="shared" si="3"/>
         <v>990002</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="15">
         <v>499221</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="15">
         <v>490327</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G75" s="15">
         <v>454</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H75" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>130579</v>
       </c>
-      <c r="I74" s="11">
+      <c r="I75" s="15">
         <v>57862</v>
       </c>
-      <c r="J74" s="11">
+      <c r="J75" s="15">
         <v>72717</v>
       </c>
-      <c r="K74" s="11">
+      <c r="K75" s="15">
         <v>12.793971465549591</v>
       </c>
-      <c r="L74" s="6">
+      <c r="L75" s="16">
         <v>17.958405195294269</v>
       </c>
     </row>
-    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="23">
+    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="22">
         <v>2019</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C76" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="16">
-        <f t="shared" ref="D75:D87" si="4">SUM(E75:G75)</f>
+      <c r="D76" s="24">
+        <f t="shared" ref="D76:D88" si="4">SUM(E76:G76)</f>
         <v>985713</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E76" s="25">
         <v>497141</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F76" s="25">
         <v>488120</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G76" s="25">
         <v>452</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H76" s="25">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>129833</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I76" s="25">
         <v>57647</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J76" s="25">
         <v>72186</v>
       </c>
-      <c r="K75" s="7">
+      <c r="K76" s="25">
         <v>12.85511387705745</v>
       </c>
-      <c r="L75" s="8">
+      <c r="L76" s="26">
         <v>18.009015550920161</v>
       </c>
     </row>
-    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="25">
+    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="27">
         <v>2018</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="C77" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D77" s="29">
         <f t="shared" si="4"/>
         <v>982856</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E77" s="29">
         <v>496057</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F77" s="29">
         <v>486335</v>
       </c>
-      <c r="G76" s="17">
+      <c r="G77" s="29">
         <v>464</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H77" s="29">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>129315</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I77" s="29">
         <v>57599</v>
       </c>
-      <c r="J76" s="17">
+      <c r="J77" s="29">
         <v>71716</v>
       </c>
-      <c r="K76" s="17">
+      <c r="K77" s="29">
         <v>11.5</v>
       </c>
-      <c r="L76" s="18">
+      <c r="L77" s="30">
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="21">
+    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="17">
         <v>2018</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C78" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D78" s="19">
         <f t="shared" si="4"/>
         <v>978058</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E78" s="20">
         <v>493248</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F78" s="20">
         <v>484343</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G78" s="20">
         <v>467</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H78" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>127995</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I78" s="20">
         <v>57117</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J78" s="20">
         <v>70878</v>
       </c>
-      <c r="K77" s="4">
+      <c r="K78" s="20">
         <v>11.579603101683661</v>
       </c>
-      <c r="L77" s="5">
+      <c r="L78" s="21">
         <v>16.657281844021668</v>
       </c>
     </row>
-    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="19">
+    <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="13">
         <v>2018</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C79" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="15">
         <f t="shared" si="4"/>
         <v>971514</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E79" s="15">
         <v>489853</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F79" s="15">
         <v>481195</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G79" s="15">
         <v>466</v>
       </c>
-      <c r="H78" s="11">
+      <c r="H79" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>126537</v>
       </c>
-      <c r="I78" s="11">
+      <c r="I79" s="15">
         <v>56599</v>
       </c>
-      <c r="J78" s="11">
+      <c r="J79" s="15">
         <v>69938</v>
       </c>
-      <c r="K78" s="11">
+      <c r="K79" s="15">
         <v>11.695425480294306</v>
       </c>
-      <c r="L78" s="6">
+      <c r="L79" s="16">
         <v>16.724397819345807</v>
       </c>
     </row>
-    <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="21">
+    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="17">
         <v>2018</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C80" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D80" s="19">
         <f t="shared" si="4"/>
         <v>965544</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E80" s="20">
         <v>486879</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F80" s="20">
         <v>478202</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G80" s="20">
         <v>463</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H80" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>125592</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I80" s="20">
         <v>56443</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J80" s="20">
         <v>69149</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K80" s="20">
         <v>11.775922614497736</v>
       </c>
-      <c r="L79" s="5">
+      <c r="L80" s="21">
         <v>16.795398144097401</v>
       </c>
     </row>
-    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="19">
+    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="13">
         <v>2018</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C81" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="15">
         <f t="shared" si="4"/>
         <v>960111</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E81" s="15">
         <v>483912</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F81" s="15">
         <v>475735</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G81" s="15">
         <v>464</v>
       </c>
-      <c r="H80" s="11">
+      <c r="H81" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>124463</v>
       </c>
-      <c r="I80" s="11">
+      <c r="I81" s="15">
         <v>56029</v>
       </c>
-      <c r="J80" s="11">
+      <c r="J81" s="15">
         <v>68434</v>
       </c>
-      <c r="K80" s="11">
+      <c r="K81" s="15">
         <v>11.859889509332092</v>
       </c>
-      <c r="L80" s="6">
+      <c r="L81" s="16">
         <v>16.84972398287292</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="21">
+    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="17">
         <v>2018</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C82" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D82" s="19">
         <f t="shared" si="4"/>
         <v>953323</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E82" s="20">
         <v>480495</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F82" s="20">
         <v>472364</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G82" s="20">
         <v>464</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H82" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>123737</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I82" s="20">
         <v>55960</v>
       </c>
-      <c r="J81" s="4">
+      <c r="J82" s="20">
         <v>67777</v>
       </c>
-      <c r="K81" s="4">
+      <c r="K82" s="20">
         <v>11.930278889903581</v>
       </c>
-      <c r="L81" s="5">
+      <c r="L82" s="21">
         <v>16.922447322032493</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="19">
+    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="13">
         <v>2018</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C83" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="15">
         <f t="shared" si="4"/>
         <v>947851</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="15">
         <v>477880</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="15">
         <v>469513</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G83" s="15">
         <v>458</v>
       </c>
-      <c r="H82" s="11">
+      <c r="H83" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>122946</v>
       </c>
-      <c r="I82" s="11">
+      <c r="I83" s="15">
         <v>55790</v>
       </c>
-      <c r="J82" s="11">
+      <c r="J83" s="15">
         <v>67156</v>
       </c>
-      <c r="K82" s="11">
+      <c r="K83" s="15">
         <v>12.01</v>
       </c>
-      <c r="L82" s="6">
+      <c r="L83" s="16">
         <v>16.98</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="21">
+    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="17">
         <v>2018</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C84" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D84" s="19">
         <f t="shared" si="4"/>
         <v>944527</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E84" s="20">
         <v>476241</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F84" s="20">
         <v>467827</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G84" s="20">
         <v>459</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H84" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>122105</v>
       </c>
-      <c r="I83" s="4">
+      <c r="I84" s="20">
         <v>55617</v>
       </c>
-      <c r="J83" s="4">
+      <c r="J84" s="20">
         <v>66488</v>
       </c>
-      <c r="K83" s="4">
+      <c r="K84" s="20">
         <v>12.1</v>
       </c>
-      <c r="L83" s="5">
+      <c r="L84" s="21">
         <v>17.03</v>
       </c>
     </row>
-    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="19">
+    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C85" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="15">
         <f t="shared" si="4"/>
         <v>936533</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="15">
         <v>472271</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F85" s="15">
         <v>463807</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G85" s="15">
         <v>455</v>
       </c>
-      <c r="H84" s="11">
+      <c r="H85" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>121075</v>
       </c>
-      <c r="I84" s="11">
+      <c r="I85" s="15">
         <v>55199</v>
       </c>
-      <c r="J84" s="11">
+      <c r="J85" s="15">
         <v>65876</v>
       </c>
-      <c r="K84" s="11">
+      <c r="K85" s="15">
         <v>12.15</v>
       </c>
-      <c r="L84" s="6">
+      <c r="L85" s="16">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="21">
+    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="17">
         <v>2018</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C86" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D86" s="19">
         <f t="shared" si="4"/>
         <v>930205</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E86" s="20">
         <v>469020</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F86" s="20">
         <v>460731</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G86" s="20">
         <v>454</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H86" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>120039</v>
       </c>
-      <c r="I85" s="4">
+      <c r="I86" s="20">
         <v>54921</v>
       </c>
-      <c r="J85" s="4">
+      <c r="J86" s="20">
         <v>65118</v>
       </c>
-      <c r="K85" s="4">
+      <c r="K86" s="20">
         <v>12.219768117028636</v>
       </c>
-      <c r="L85" s="5">
+      <c r="L86" s="21">
         <v>17.169355262035737</v>
       </c>
     </row>
-    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="19">
+    <row r="87" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="13">
         <v>2018</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C87" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="15">
         <f t="shared" si="4"/>
         <v>924012</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E87" s="15">
         <v>466319</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F87" s="15">
         <v>457242</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G87" s="15">
         <v>451</v>
       </c>
-      <c r="H86" s="11">
+      <c r="H87" s="15">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>118763</v>
       </c>
-      <c r="I86" s="11">
+      <c r="I87" s="15">
         <v>54503</v>
       </c>
-      <c r="J86" s="11">
+      <c r="J87" s="15">
         <v>64260</v>
       </c>
-      <c r="K86" s="11">
+      <c r="K87" s="15">
         <v>12.303791963827118</v>
       </c>
-      <c r="L86" s="6">
+      <c r="L87" s="16">
         <v>17.220716288635032</v>
       </c>
     </row>
-    <row r="87" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="23">
+    <row r="88" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="22">
         <v>2018</v>
       </c>
-      <c r="C87" s="24" t="s">
+      <c r="C88" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D88" s="24">
         <f t="shared" si="4"/>
         <v>920526</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E88" s="25">
         <v>464622</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F88" s="25">
         <v>455453</v>
       </c>
-      <c r="G87" s="7">
+      <c r="G88" s="25">
         <v>451</v>
       </c>
-      <c r="H87" s="7">
+      <c r="H88" s="25">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>118260</v>
       </c>
-      <c r="I87" s="7">
+      <c r="I88" s="25">
         <v>54504</v>
       </c>
-      <c r="J87" s="7">
+      <c r="J88" s="25">
         <v>63756</v>
       </c>
-      <c r="K87" s="7">
+      <c r="K88" s="25">
         <v>12.37</v>
       </c>
-      <c r="L87" s="8">
+      <c r="L88" s="26">
         <v>17.28</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B89" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+      <c r="L89" s="31"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B90" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+      <c r="L90" s="31"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B91" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3925,7 +4122,7 @@
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="H4:J4"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Flota_Antigúedad_AF.xlsx
+++ b/Flota_Antigúedad_AF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0574C6-FA86-4FD6-B98E-38881C019043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085B78B6-2BE4-4D6B-9A5E-0C9E769F62BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="28">
   <si>
     <t>Carga</t>
   </si>
@@ -122,7 +122,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -369,18 +369,6 @@
     <xf numFmtId="17" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="17" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -434,6 +422,18 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -689,8 +689,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:L88" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
-  <autoFilter ref="B5:L88" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:L89" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="B5:L89" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -941,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O91"/>
+  <dimension ref="B2:O92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -964,7 +964,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1"/>
@@ -976,92 +976,92 @@
     <row r="4" spans="2:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="7" t="s">
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" s="17">
+      <c r="B6" s="9">
         <v>2024</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="C6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="11">
         <f>SUM(E6:G6)</f>
-        <v>1428265</v>
-      </c>
-      <c r="E6" s="20">
-        <v>719185</v>
-      </c>
-      <c r="F6" s="20">
-        <v>708450</v>
-      </c>
-      <c r="G6" s="20">
-        <v>630</v>
-      </c>
-      <c r="H6" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>184987</v>
-      </c>
-      <c r="I6" s="19">
-        <v>73204</v>
-      </c>
-      <c r="J6" s="20">
-        <v>111783</v>
-      </c>
-      <c r="K6" s="20">
-        <v>15.270154118938088</v>
-      </c>
-      <c r="L6" s="21">
-        <v>19.35768543559724</v>
+        <v>1435884</v>
+      </c>
+      <c r="E6" s="11">
+        <v>723462</v>
+      </c>
+      <c r="F6" s="11">
+        <v>711776</v>
+      </c>
+      <c r="G6" s="11">
+        <v>646</v>
+      </c>
+      <c r="H6" s="11">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>186064</v>
+      </c>
+      <c r="I6" s="11">
+        <v>73453</v>
+      </c>
+      <c r="J6" s="11">
+        <v>112611</v>
+      </c>
+      <c r="K6" s="11">
+        <v>15.191272895347836</v>
+      </c>
+      <c r="L6" s="12">
+        <v>19.269418435246081</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
@@ -1069,74 +1069,74 @@
         <v>2024</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="15">
+        <f>SUM(E7:G7)</f>
+        <v>1428265</v>
+      </c>
+      <c r="E7" s="16">
+        <v>719185</v>
+      </c>
+      <c r="F7" s="16">
+        <v>708450</v>
+      </c>
+      <c r="G7" s="16">
+        <v>630</v>
+      </c>
+      <c r="H7" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>184987</v>
+      </c>
+      <c r="I7" s="15">
+        <v>73204</v>
+      </c>
+      <c r="J7" s="16">
+        <v>111783</v>
+      </c>
+      <c r="K7" s="16">
+        <v>15.270154118938088</v>
+      </c>
+      <c r="L7" s="17">
+        <v>19.35768543559724</v>
+      </c>
+      <c r="O7"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="15">
-        <f t="shared" ref="D7" si="0">SUM(E7:G7)</f>
+      <c r="D8" s="11">
+        <f t="shared" ref="D8" si="0">SUM(E8:G8)</f>
         <v>1419744</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E8" s="11">
         <v>714747</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F8" s="11">
         <v>704375</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G8" s="11">
         <v>622</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H8" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>184353</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I8" s="11">
         <v>73206</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J8" s="11">
         <v>111147</v>
       </c>
-      <c r="K7" s="15">
-        <v>15.333984258460671</v>
-      </c>
-      <c r="L7" s="16">
+      <c r="K8" s="11">
+        <v>15.333984258460672</v>
+      </c>
+      <c r="L8" s="12">
         <v>19.45495538980926</v>
-      </c>
-      <c r="O7"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="17">
-        <v>2024</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="19">
-        <f>SUM(E8:G8)</f>
-        <v>1409947</v>
-      </c>
-      <c r="E8" s="20">
-        <v>709391</v>
-      </c>
-      <c r="F8" s="20">
-        <v>699945</v>
-      </c>
-      <c r="G8" s="20">
-        <v>611</v>
-      </c>
-      <c r="H8" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>183444</v>
-      </c>
-      <c r="I8" s="19">
-        <v>72959</v>
-      </c>
-      <c r="J8" s="20">
-        <v>110485</v>
-      </c>
-      <c r="K8" s="20">
-        <v>15.41505309522252</v>
-      </c>
-      <c r="L8" s="21">
-        <v>19.569322136875151</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
@@ -1144,73 +1144,73 @@
         <v>2024</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D9" s="15">
         <f>SUM(E9:G9)</f>
+        <v>1409947</v>
+      </c>
+      <c r="E9" s="16">
+        <v>709391</v>
+      </c>
+      <c r="F9" s="16">
+        <v>699945</v>
+      </c>
+      <c r="G9" s="16">
+        <v>611</v>
+      </c>
+      <c r="H9" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>183444</v>
+      </c>
+      <c r="I9" s="15">
+        <v>72959</v>
+      </c>
+      <c r="J9" s="16">
+        <v>110485</v>
+      </c>
+      <c r="K9" s="16">
+        <v>15.41505309522252</v>
+      </c>
+      <c r="L9" s="17">
+        <v>19.569322136875151</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="11">
+        <f>SUM(E10:G10)</f>
         <v>1401613</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E10" s="11">
         <v>704941</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F10" s="11">
         <v>696064</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G10" s="11">
         <v>608</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H10" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>182766</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I10" s="11">
         <v>72808</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J10" s="11">
         <v>109958</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K10" s="11">
         <v>15.486441679524638</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L10" s="12">
         <v>19.663221461086813</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="17">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="19">
-        <f t="shared" ref="D10:D12" si="1">SUM(E10:G10)</f>
-        <v>1392231</v>
-      </c>
-      <c r="E10" s="20">
-        <v>700064</v>
-      </c>
-      <c r="F10" s="20">
-        <v>691573</v>
-      </c>
-      <c r="G10" s="20">
-        <v>594</v>
-      </c>
-      <c r="H10" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>182096</v>
-      </c>
-      <c r="I10" s="20">
-        <v>72722</v>
-      </c>
-      <c r="J10" s="20">
-        <v>109374</v>
-      </c>
-      <c r="K10" s="20">
-        <v>15.548683112204552</v>
-      </c>
-      <c r="L10" s="21">
-        <v>19.76646992274992</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
@@ -1218,73 +1218,73 @@
         <v>2024</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" ref="D11:D13" si="1">SUM(E11:G11)</f>
+        <v>1392231</v>
+      </c>
+      <c r="E11" s="16">
+        <v>700064</v>
+      </c>
+      <c r="F11" s="16">
+        <v>691573</v>
+      </c>
+      <c r="G11" s="16">
+        <v>594</v>
+      </c>
+      <c r="H11" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>182096</v>
+      </c>
+      <c r="I11" s="16">
+        <v>72722</v>
+      </c>
+      <c r="J11" s="16">
+        <v>109374</v>
+      </c>
+      <c r="K11" s="16">
+        <v>15.548683112204552</v>
+      </c>
+      <c r="L11" s="17">
+        <v>19.76646992274992</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D12" s="11">
         <f t="shared" si="1"/>
         <v>1381670</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E12" s="11">
         <v>694997</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F12" s="11">
         <v>686081</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G12" s="11">
         <v>592</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H12" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>181209</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I12" s="11">
         <v>72604</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J12" s="11">
         <v>108605</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K12" s="11">
         <v>15.6321154026566</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L12" s="12">
         <v>19.872406643481913</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="17">
-        <v>2024</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="19">
-        <f t="shared" si="1"/>
-        <v>1364076</v>
-      </c>
-      <c r="E12" s="20">
-        <v>686433</v>
-      </c>
-      <c r="F12" s="20">
-        <v>677060</v>
-      </c>
-      <c r="G12" s="20">
-        <v>583</v>
-      </c>
-      <c r="H12" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>180169</v>
-      </c>
-      <c r="I12" s="20">
-        <v>72197</v>
-      </c>
-      <c r="J12" s="20">
-        <v>107972</v>
-      </c>
-      <c r="K12" s="20">
-        <v>15.728466051318485</v>
-      </c>
-      <c r="L12" s="20">
-        <v>20.044184938661164</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
@@ -1292,73 +1292,73 @@
         <v>2024</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" si="1"/>
+        <v>1364076</v>
+      </c>
+      <c r="E13" s="16">
+        <v>686433</v>
+      </c>
+      <c r="F13" s="16">
+        <v>677060</v>
+      </c>
+      <c r="G13" s="16">
+        <v>583</v>
+      </c>
+      <c r="H13" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>180169</v>
+      </c>
+      <c r="I13" s="16">
+        <v>72197</v>
+      </c>
+      <c r="J13" s="16">
+        <v>107972</v>
+      </c>
+      <c r="K13" s="16">
+        <v>15.728466051318485</v>
+      </c>
+      <c r="L13" s="16">
+        <v>20.044184938661164</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="15">
-        <f t="shared" ref="D13:D43" si="2">SUM(E13:G13)</f>
+      <c r="D14" s="11">
+        <f t="shared" ref="D14:D44" si="2">SUM(E14:G14)</f>
         <v>1362046</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E14" s="11">
         <v>685435</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F14" s="11">
         <v>676046</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G14" s="11">
         <v>565</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H14" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>179118</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I14" s="11">
         <v>71981</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J14" s="11">
         <v>107137</v>
       </c>
-      <c r="K13" s="15">
-        <v>15.827370783505845</v>
-      </c>
-      <c r="L13" s="16">
+      <c r="K14" s="11">
+        <v>15.827370783505843</v>
+      </c>
+      <c r="L14" s="12">
         <v>20.082257252693545</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="17">
-        <v>2024</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="19">
-        <f t="shared" si="2"/>
-        <v>1353988</v>
-      </c>
-      <c r="E14" s="20">
-        <v>681551</v>
-      </c>
-      <c r="F14" s="20">
-        <v>671878</v>
-      </c>
-      <c r="G14" s="20">
-        <v>559</v>
-      </c>
-      <c r="H14" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>178140</v>
-      </c>
-      <c r="I14" s="20">
-        <v>71842</v>
-      </c>
-      <c r="J14" s="20">
-        <v>106298</v>
-      </c>
-      <c r="K14" s="20">
-        <v>15.921746940608511</v>
-      </c>
-      <c r="L14" s="21">
-        <v>20.167528182043604</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
@@ -1366,147 +1366,147 @@
         <v>2024</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="15">
         <f t="shared" si="2"/>
+        <v>1353988</v>
+      </c>
+      <c r="E15" s="16">
+        <v>681551</v>
+      </c>
+      <c r="F15" s="16">
+        <v>671878</v>
+      </c>
+      <c r="G15" s="16">
+        <v>559</v>
+      </c>
+      <c r="H15" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>178140</v>
+      </c>
+      <c r="I15" s="16">
+        <v>71842</v>
+      </c>
+      <c r="J15" s="16">
+        <v>106298</v>
+      </c>
+      <c r="K15" s="16">
+        <v>15.921746940608513</v>
+      </c>
+      <c r="L15" s="17">
+        <v>20.167528182043604</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="11">
+        <f t="shared" si="2"/>
         <v>1345055</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E16" s="11">
         <v>677153</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F16" s="11">
         <v>667343</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G16" s="11">
         <v>559</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H16" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>177618</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I16" s="11">
         <v>71797</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J16" s="11">
         <v>105821</v>
       </c>
-      <c r="K15" s="15">
-        <v>15.980300420002477</v>
-      </c>
-      <c r="L15" s="16">
+      <c r="K16" s="11">
+        <v>15.980300420002475</v>
+      </c>
+      <c r="L16" s="12">
         <v>20.271950356861744</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="22">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B17" s="18">
         <v>2024</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C17" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D17" s="20">
         <f t="shared" si="2"/>
         <v>1337961</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E17" s="21">
         <v>673757</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F17" s="21">
         <v>663646</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G17" s="21">
         <v>558</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H17" s="21">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>176858</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I17" s="21">
         <v>71641</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J17" s="21">
         <v>105217</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K17" s="21">
         <v>16.061088556921373</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L17" s="22">
         <v>20.355880532595581</v>
       </c>
     </row>
-    <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="27">
+    <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="23">
         <v>2023</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C18" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D18" s="25">
         <f t="shared" si="2"/>
         <v>1331921</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E18" s="25">
         <v>671002</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F18" s="25">
         <v>660365</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G18" s="25">
         <v>554</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H18" s="25">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>176251</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I18" s="25">
         <v>71562</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J18" s="25">
         <v>104689</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K18" s="25">
         <v>15.134234699377592</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L18" s="26">
         <v>19.458281793496891</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="17">
-        <v>2023</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="19">
-        <f t="shared" si="2"/>
-        <v>1324591</v>
-      </c>
-      <c r="E18" s="20">
-        <v>667021</v>
-      </c>
-      <c r="F18" s="20">
-        <v>657017</v>
-      </c>
-      <c r="G18" s="20">
-        <v>553</v>
-      </c>
-      <c r="H18" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>175311</v>
-      </c>
-      <c r="I18" s="20">
-        <v>71379</v>
-      </c>
-      <c r="J18" s="20">
-        <v>103932</v>
-      </c>
-      <c r="K18" s="20">
-        <v>15.22355699300101</v>
-      </c>
-      <c r="L18" s="21">
-        <v>19.543477641633473</v>
       </c>
     </row>
     <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -1514,73 +1514,73 @@
         <v>2023</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="15">
         <f t="shared" si="2"/>
+        <v>1324591</v>
+      </c>
+      <c r="E19" s="16">
+        <v>667021</v>
+      </c>
+      <c r="F19" s="16">
+        <v>657017</v>
+      </c>
+      <c r="G19" s="16">
+        <v>553</v>
+      </c>
+      <c r="H19" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>175311</v>
+      </c>
+      <c r="I19" s="16">
+        <v>71379</v>
+      </c>
+      <c r="J19" s="16">
+        <v>103932</v>
+      </c>
+      <c r="K19" s="16">
+        <v>15.22355699300101</v>
+      </c>
+      <c r="L19" s="17">
+        <v>19.543477641633473</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="2"/>
         <v>1316689</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E20" s="11">
         <v>662911</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F20" s="11">
         <v>653227</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G20" s="11">
         <v>551</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H20" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>174393</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I20" s="11">
         <v>71146</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J20" s="11">
         <v>103247</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K20" s="11">
         <v>15.305362027145584</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L20" s="12">
         <v>19.637007079381696</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="17">
-        <v>2023</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="19">
-        <f t="shared" si="2"/>
-        <v>1309236</v>
-      </c>
-      <c r="E20" s="20">
-        <v>659020</v>
-      </c>
-      <c r="F20" s="20">
-        <v>649665</v>
-      </c>
-      <c r="G20" s="20">
-        <v>551</v>
-      </c>
-      <c r="H20" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>173599</v>
-      </c>
-      <c r="I20" s="20">
-        <v>71029</v>
-      </c>
-      <c r="J20" s="20">
-        <v>102570</v>
-      </c>
-      <c r="K20" s="20">
-        <v>15.387882418677528</v>
-      </c>
-      <c r="L20" s="21">
-        <v>19.730128068950865</v>
       </c>
     </row>
     <row r="21" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -1588,73 +1588,73 @@
         <v>2023</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D21" s="15">
         <f t="shared" si="2"/>
+        <v>1309236</v>
+      </c>
+      <c r="E21" s="16">
+        <v>659020</v>
+      </c>
+      <c r="F21" s="16">
+        <v>649665</v>
+      </c>
+      <c r="G21" s="16">
+        <v>551</v>
+      </c>
+      <c r="H21" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>173599</v>
+      </c>
+      <c r="I21" s="16">
+        <v>71029</v>
+      </c>
+      <c r="J21" s="16">
+        <v>102570</v>
+      </c>
+      <c r="K21" s="16">
+        <v>15.387882418677528</v>
+      </c>
+      <c r="L21" s="17">
+        <v>19.730128068950865</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="11">
+        <f t="shared" si="2"/>
         <v>1302003</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E22" s="11">
         <v>655458</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F22" s="11">
         <v>645999</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G22" s="11">
         <v>546</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H22" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>172764</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I22" s="11">
         <v>70834</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J22" s="11">
         <v>101930</v>
       </c>
-      <c r="K21" s="15">
-        <v>15.470034266398093</v>
-      </c>
-      <c r="L21" s="16">
-        <v>19.817370449365178</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="17">
-        <v>2023</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="19">
-        <f t="shared" si="2"/>
-        <v>1294209</v>
-      </c>
-      <c r="E22" s="20">
-        <v>651761</v>
-      </c>
-      <c r="F22" s="20">
-        <v>641907</v>
-      </c>
-      <c r="G22" s="20">
-        <v>541</v>
-      </c>
-      <c r="H22" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>172137</v>
-      </c>
-      <c r="I22" s="20">
-        <v>70783</v>
-      </c>
-      <c r="J22" s="20">
-        <v>101354</v>
-      </c>
-      <c r="K22" s="20">
-        <v>15.535631502814619</v>
-      </c>
-      <c r="L22" s="21">
-        <v>19.908092076696825</v>
+      <c r="K22" s="11">
+        <v>15.470034266398091</v>
+      </c>
+      <c r="L22" s="12">
+        <v>19.817370449365175</v>
       </c>
     </row>
     <row r="23" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -1662,73 +1662,73 @@
         <v>2023</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="15">
         <f t="shared" si="2"/>
+        <v>1294209</v>
+      </c>
+      <c r="E23" s="16">
+        <v>651761</v>
+      </c>
+      <c r="F23" s="16">
+        <v>641907</v>
+      </c>
+      <c r="G23" s="16">
+        <v>541</v>
+      </c>
+      <c r="H23" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>172137</v>
+      </c>
+      <c r="I23" s="16">
+        <v>70783</v>
+      </c>
+      <c r="J23" s="16">
+        <v>101354</v>
+      </c>
+      <c r="K23" s="16">
+        <v>15.535631502814621</v>
+      </c>
+      <c r="L23" s="17">
+        <v>19.908092076696825</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="11">
+        <f t="shared" si="2"/>
         <v>1286042</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E24" s="11">
         <v>647906</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F24" s="11">
         <v>637598</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G24" s="11">
         <v>538</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H24" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>171516</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I24" s="11">
         <v>70673</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J24" s="11">
         <v>100843</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K24" s="11">
         <v>15.606316611861285</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L24" s="12">
         <v>20.002412386982062</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="17">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="19">
-        <f t="shared" si="2"/>
-        <v>1279902</v>
-      </c>
-      <c r="E24" s="20">
-        <v>645139</v>
-      </c>
-      <c r="F24" s="20">
-        <v>634226</v>
-      </c>
-      <c r="G24" s="20">
-        <v>537</v>
-      </c>
-      <c r="H24" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>170681</v>
-      </c>
-      <c r="I24" s="20">
-        <v>70483</v>
-      </c>
-      <c r="J24" s="20">
-        <v>100198</v>
-      </c>
-      <c r="K24" s="20">
-        <v>15.688172672998165</v>
-      </c>
-      <c r="L24" s="21">
-        <v>20.079559598784137</v>
       </c>
     </row>
     <row r="25" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -1736,73 +1736,73 @@
         <v>2023</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="15">
         <f t="shared" si="2"/>
+        <v>1279902</v>
+      </c>
+      <c r="E25" s="16">
+        <v>645139</v>
+      </c>
+      <c r="F25" s="16">
+        <v>634226</v>
+      </c>
+      <c r="G25" s="16">
+        <v>537</v>
+      </c>
+      <c r="H25" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>170681</v>
+      </c>
+      <c r="I25" s="16">
+        <v>70483</v>
+      </c>
+      <c r="J25" s="16">
+        <v>100198</v>
+      </c>
+      <c r="K25" s="16">
+        <v>15.688172672998165</v>
+      </c>
+      <c r="L25" s="17">
+        <v>20.079559598784137</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="11">
+        <f t="shared" si="2"/>
         <v>1273243</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E26" s="11">
         <v>641751</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F26" s="11">
         <v>630955</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G26" s="11">
         <v>537</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H26" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>170020</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I26" s="11">
         <v>70335</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J26" s="11">
         <v>99685</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K26" s="11">
         <v>15.757763792495</v>
       </c>
-      <c r="L25" s="16">
+      <c r="L26" s="12">
         <v>20.166095572893536</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="17">
-        <v>2023</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="19">
-        <f t="shared" si="2"/>
-        <v>1267813</v>
-      </c>
-      <c r="E26" s="20">
-        <v>639200</v>
-      </c>
-      <c r="F26" s="20">
-        <v>628078</v>
-      </c>
-      <c r="G26" s="20">
-        <v>535</v>
-      </c>
-      <c r="H26" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>169398</v>
-      </c>
-      <c r="I26" s="20">
-        <v>70212</v>
-      </c>
-      <c r="J26" s="20">
-        <v>99186</v>
-      </c>
-      <c r="K26" s="20">
-        <v>15.818386285552368</v>
-      </c>
-      <c r="L26" s="21">
-        <v>20.231362640801002</v>
       </c>
     </row>
     <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -1810,147 +1810,147 @@
         <v>2023</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="15">
         <f t="shared" si="2"/>
+        <v>1267813</v>
+      </c>
+      <c r="E27" s="16">
+        <v>639200</v>
+      </c>
+      <c r="F27" s="16">
+        <v>628078</v>
+      </c>
+      <c r="G27" s="16">
+        <v>535</v>
+      </c>
+      <c r="H27" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>169398</v>
+      </c>
+      <c r="I27" s="16">
+        <v>70212</v>
+      </c>
+      <c r="J27" s="16">
+        <v>99186</v>
+      </c>
+      <c r="K27" s="16">
+        <v>15.818386285552368</v>
+      </c>
+      <c r="L27" s="17">
+        <v>20.231362640801002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="11">
+        <f t="shared" si="2"/>
         <v>1261816</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E28" s="11">
         <v>636167</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F28" s="11">
         <v>625114</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G28" s="11">
         <v>535</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H28" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>168270</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I28" s="11">
         <v>70028</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J28" s="11">
         <v>98242</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K28" s="11">
         <v>15.924098175551197</v>
       </c>
-      <c r="L27" s="16">
+      <c r="L28" s="12">
         <v>20.308953466621187</v>
       </c>
     </row>
-    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="22">
+    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="18">
         <v>2023</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C29" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D29" s="20">
         <f t="shared" si="2"/>
         <v>1256959</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E29" s="21">
         <v>633934</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F29" s="21">
         <v>622491</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G29" s="21">
         <v>534</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H29" s="21">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>167855</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I29" s="21">
         <v>70043</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J29" s="21">
         <v>97812</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K29" s="21">
         <v>15.971731554019838</v>
       </c>
-      <c r="L28" s="26">
+      <c r="L29" s="22">
         <v>20.368738701505205</v>
       </c>
     </row>
-    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="27">
+    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="23">
         <v>2022</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C30" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D30" s="25">
         <f t="shared" si="2"/>
         <v>1253020</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E30" s="25">
         <v>632252</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F30" s="25">
         <v>620240</v>
       </c>
-      <c r="G29" s="29">
+      <c r="G30" s="25">
         <v>528</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H30" s="25">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>167359</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I30" s="25">
         <v>70056</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J30" s="25">
         <v>97303</v>
       </c>
-      <c r="K29" s="29">
+      <c r="K30" s="25">
         <v>15.042250491458482</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L30" s="26">
         <v>19.442766491841862</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="17">
-        <v>2022</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="19">
-        <f t="shared" si="2"/>
-        <v>1248052</v>
-      </c>
-      <c r="E30" s="20">
-        <v>629746</v>
-      </c>
-      <c r="F30" s="20">
-        <v>617778</v>
-      </c>
-      <c r="G30" s="20">
-        <v>528</v>
-      </c>
-      <c r="H30" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>166178</v>
-      </c>
-      <c r="I30" s="20">
-        <v>69821</v>
-      </c>
-      <c r="J30" s="20">
-        <v>96357</v>
-      </c>
-      <c r="K30" s="20">
-        <v>15.145163619733058</v>
-      </c>
-      <c r="L30" s="21">
-        <v>19.503375964277662</v>
       </c>
     </row>
     <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -1958,73 +1958,73 @@
         <v>2022</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="15">
         <f t="shared" si="2"/>
+        <v>1248052</v>
+      </c>
+      <c r="E31" s="16">
+        <v>629746</v>
+      </c>
+      <c r="F31" s="16">
+        <v>617778</v>
+      </c>
+      <c r="G31" s="16">
+        <v>528</v>
+      </c>
+      <c r="H31" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>166178</v>
+      </c>
+      <c r="I31" s="16">
+        <v>69821</v>
+      </c>
+      <c r="J31" s="16">
+        <v>96357</v>
+      </c>
+      <c r="K31" s="16">
+        <v>15.145163619733058</v>
+      </c>
+      <c r="L31" s="17">
+        <v>19.503375964277662</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="11">
+        <f t="shared" si="2"/>
         <v>1243495</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E32" s="11">
         <v>627591</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F32" s="11">
         <v>615376</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G32" s="11">
         <v>528</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H32" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>165354</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I32" s="11">
         <v>69675</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J32" s="11">
         <v>95679</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K32" s="11">
         <v>15.219299200503164</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L32" s="12">
         <v>19.558707820857851</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="17">
-        <v>2022</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="19">
-        <f t="shared" si="2"/>
-        <v>1239858</v>
-      </c>
-      <c r="E32" s="20">
-        <v>625802</v>
-      </c>
-      <c r="F32" s="20">
-        <v>613527</v>
-      </c>
-      <c r="G32" s="20">
-        <v>529</v>
-      </c>
-      <c r="H32" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>164931</v>
-      </c>
-      <c r="I32" s="20">
-        <v>69723</v>
-      </c>
-      <c r="J32" s="20">
-        <v>95208</v>
-      </c>
-      <c r="K32" s="20">
-        <v>15.268857886025065</v>
-      </c>
-      <c r="L32" s="21">
-        <v>19.601036749642859</v>
       </c>
     </row>
     <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -2032,73 +2032,73 @@
         <v>2022</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D33" s="15">
         <f t="shared" si="2"/>
+        <v>1239858</v>
+      </c>
+      <c r="E33" s="16">
+        <v>625802</v>
+      </c>
+      <c r="F33" s="16">
+        <v>613527</v>
+      </c>
+      <c r="G33" s="16">
+        <v>529</v>
+      </c>
+      <c r="H33" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>164931</v>
+      </c>
+      <c r="I33" s="16">
+        <v>69723</v>
+      </c>
+      <c r="J33" s="16">
+        <v>95208</v>
+      </c>
+      <c r="K33" s="16">
+        <v>15.268857886025065</v>
+      </c>
+      <c r="L33" s="17">
+        <v>19.601036749642859</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="11">
+        <f t="shared" si="2"/>
         <v>1234757</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E34" s="11">
         <v>623225</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F34" s="11">
         <v>611005</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G34" s="11">
         <v>527</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H34" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>166002</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I34" s="11">
         <v>69645</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J34" s="11">
         <v>96357</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K34" s="11">
         <v>15.188636281490584</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L34" s="12">
         <v>19.665687352079907</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="17">
-        <v>2022</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="19">
-        <f t="shared" si="2"/>
-        <v>1227595</v>
-      </c>
-      <c r="E34" s="20">
-        <v>619408</v>
-      </c>
-      <c r="F34" s="20">
-        <v>607662</v>
-      </c>
-      <c r="G34" s="20">
-        <v>525</v>
-      </c>
-      <c r="H34" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>163526</v>
-      </c>
-      <c r="I34" s="20">
-        <v>69586</v>
-      </c>
-      <c r="J34" s="20">
-        <v>93940</v>
-      </c>
-      <c r="K34" s="20">
-        <v>15.421364186734831</v>
-      </c>
-      <c r="L34" s="21">
-        <v>19.756386743471186</v>
       </c>
     </row>
     <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -2106,73 +2106,73 @@
         <v>2022</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" s="15">
         <f t="shared" si="2"/>
+        <v>1227595</v>
+      </c>
+      <c r="E35" s="16">
+        <v>619408</v>
+      </c>
+      <c r="F35" s="16">
+        <v>607662</v>
+      </c>
+      <c r="G35" s="16">
+        <v>525</v>
+      </c>
+      <c r="H35" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>163526</v>
+      </c>
+      <c r="I35" s="16">
+        <v>69586</v>
+      </c>
+      <c r="J35" s="16">
+        <v>93940</v>
+      </c>
+      <c r="K35" s="16">
+        <v>15.421364186734831</v>
+      </c>
+      <c r="L35" s="17">
+        <v>19.756386743471186</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="11">
+        <f t="shared" si="2"/>
         <v>1225289</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E36" s="11">
         <v>618040</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F36" s="11">
         <v>606724</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G36" s="11">
         <v>525</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H36" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>163070</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I36" s="11">
         <v>69430</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J36" s="11">
         <v>93640</v>
       </c>
-      <c r="K35" s="15">
+      <c r="K36" s="11">
         <v>15.452272030416385</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L36" s="12">
         <v>19.768709145039157</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="17">
-        <v>2022</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="19">
-        <f t="shared" si="2"/>
-        <v>1222511</v>
-      </c>
-      <c r="E36" s="20">
-        <v>616795</v>
-      </c>
-      <c r="F36" s="20">
-        <v>605191</v>
-      </c>
-      <c r="G36" s="20">
-        <v>525</v>
-      </c>
-      <c r="H36" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>162777</v>
-      </c>
-      <c r="I36" s="20">
-        <v>69624</v>
-      </c>
-      <c r="J36" s="20">
-        <v>93153</v>
-      </c>
-      <c r="K36" s="20">
-        <v>15.510440664221603</v>
-      </c>
-      <c r="L36" s="21">
-        <v>19.817924918327808</v>
       </c>
     </row>
     <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -2180,73 +2180,73 @@
         <v>2022</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37" s="15">
         <f t="shared" si="2"/>
+        <v>1222511</v>
+      </c>
+      <c r="E37" s="16">
+        <v>616795</v>
+      </c>
+      <c r="F37" s="16">
+        <v>605191</v>
+      </c>
+      <c r="G37" s="16">
+        <v>525</v>
+      </c>
+      <c r="H37" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>162777</v>
+      </c>
+      <c r="I37" s="16">
+        <v>69624</v>
+      </c>
+      <c r="J37" s="16">
+        <v>93153</v>
+      </c>
+      <c r="K37" s="16">
+        <v>15.510440664221603</v>
+      </c>
+      <c r="L37" s="17">
+        <v>19.817924918327808</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="11">
+        <f t="shared" si="2"/>
         <v>1217422</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E38" s="11">
         <v>614317</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F38" s="11">
         <v>602581</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G38" s="11">
         <v>524</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H38" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>162245</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I38" s="11">
         <v>69515</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J38" s="11">
         <v>92730</v>
       </c>
-      <c r="K37" s="15">
+      <c r="K38" s="11">
         <v>15.572301149496132</v>
       </c>
-      <c r="L37" s="16">
+      <c r="L38" s="12">
         <v>19.875979339656887</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="17">
-        <v>2022</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="19">
-        <f t="shared" si="2"/>
-        <v>1212635</v>
-      </c>
-      <c r="E38" s="20">
-        <v>611918</v>
-      </c>
-      <c r="F38" s="20">
-        <v>600194</v>
-      </c>
-      <c r="G38" s="20">
-        <v>523</v>
-      </c>
-      <c r="H38" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>161903</v>
-      </c>
-      <c r="I38" s="20">
-        <v>69487</v>
-      </c>
-      <c r="J38" s="20">
-        <v>92416</v>
-      </c>
-      <c r="K38" s="20">
-        <v>15.612731079720573</v>
-      </c>
-      <c r="L38" s="21">
-        <v>19.925975375785644</v>
       </c>
     </row>
     <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -2254,147 +2254,147 @@
         <v>2022</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39" s="15">
         <f t="shared" si="2"/>
+        <v>1212635</v>
+      </c>
+      <c r="E39" s="16">
+        <v>611918</v>
+      </c>
+      <c r="F39" s="16">
+        <v>600194</v>
+      </c>
+      <c r="G39" s="16">
+        <v>523</v>
+      </c>
+      <c r="H39" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>161903</v>
+      </c>
+      <c r="I39" s="16">
+        <v>69487</v>
+      </c>
+      <c r="J39" s="16">
+        <v>92416</v>
+      </c>
+      <c r="K39" s="16">
+        <v>15.612731079720573</v>
+      </c>
+      <c r="L39" s="17">
+        <v>19.925975375785644</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="11">
+        <f t="shared" si="2"/>
         <v>1207392</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E40" s="11">
         <v>609072</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F40" s="11">
         <v>597797</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G40" s="11">
         <v>523</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H40" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>161179</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I40" s="11">
         <v>69288</v>
       </c>
-      <c r="J39" s="15">
+      <c r="J40" s="11">
         <v>91891</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K40" s="11">
         <v>15.690822005348091</v>
       </c>
-      <c r="L39" s="16">
+      <c r="L40" s="12">
         <v>19.992202892268896</v>
       </c>
     </row>
-    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="22">
+    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="18">
         <v>2022</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C41" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D41" s="20">
         <f t="shared" si="2"/>
         <v>1203679</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E41" s="21">
         <v>607150</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F41" s="21">
         <v>596005</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G41" s="21">
         <v>524</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H41" s="21">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>160915</v>
       </c>
-      <c r="I40" s="25">
+      <c r="I41" s="21">
         <v>69335</v>
       </c>
-      <c r="J40" s="25">
+      <c r="J41" s="21">
         <v>91580</v>
       </c>
-      <c r="K40" s="25">
+      <c r="K41" s="21">
         <v>15.723189261411305</v>
       </c>
-      <c r="L40" s="26">
+      <c r="L41" s="22">
         <v>20.040443053611135</v>
       </c>
     </row>
-    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="27">
+    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="23">
         <v>2021</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C42" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D42" s="25">
         <f t="shared" si="2"/>
         <v>1201053</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E42" s="25">
         <v>606090</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F42" s="25">
         <v>594443</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G42" s="25">
         <v>520</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H42" s="25">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>160633</v>
       </c>
-      <c r="I41" s="29">
+      <c r="I42" s="25">
         <v>69330</v>
       </c>
-      <c r="J41" s="29">
+      <c r="J42" s="25">
         <v>91303</v>
       </c>
-      <c r="K41" s="29">
+      <c r="K42" s="25">
         <v>14.77932927854177</v>
       </c>
-      <c r="L41" s="30">
+      <c r="L42" s="26">
         <v>19.103214044118861</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="17">
-        <v>2021</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="19">
-        <f t="shared" si="2"/>
-        <v>1195350</v>
-      </c>
-      <c r="E42" s="20">
-        <v>603380</v>
-      </c>
-      <c r="F42" s="20">
-        <v>591451</v>
-      </c>
-      <c r="G42" s="20">
-        <v>519</v>
-      </c>
-      <c r="H42" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>159783</v>
-      </c>
-      <c r="I42" s="20">
-        <v>69196</v>
-      </c>
-      <c r="J42" s="20">
-        <v>90587</v>
-      </c>
-      <c r="K42" s="20">
-        <v>14.853858044973496</v>
-      </c>
-      <c r="L42" s="21">
-        <v>19.159161722297721</v>
       </c>
     </row>
     <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -2402,73 +2402,73 @@
         <v>2021</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43" s="15">
         <f t="shared" si="2"/>
+        <v>1195350</v>
+      </c>
+      <c r="E43" s="16">
+        <v>603380</v>
+      </c>
+      <c r="F43" s="16">
+        <v>591451</v>
+      </c>
+      <c r="G43" s="16">
+        <v>519</v>
+      </c>
+      <c r="H43" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>159783</v>
+      </c>
+      <c r="I43" s="16">
+        <v>69196</v>
+      </c>
+      <c r="J43" s="16">
+        <v>90587</v>
+      </c>
+      <c r="K43" s="16">
+        <v>14.853858044973496</v>
+      </c>
+      <c r="L43" s="17">
+        <v>19.159161722297721</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="11">
+        <f t="shared" si="2"/>
         <v>1192781</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E44" s="11">
         <v>602061</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F44" s="11">
         <v>590200</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G44" s="11">
         <v>520</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H44" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>159209</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I44" s="11">
         <v>69167</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J44" s="11">
         <v>90042</v>
       </c>
-      <c r="K43" s="15">
+      <c r="K44" s="11">
         <v>14.91196477586066</v>
       </c>
-      <c r="L43" s="16">
+      <c r="L44" s="12">
         <v>19.201099224164992</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="17">
-        <v>2021</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="19">
-        <f t="shared" ref="D44:D75" si="3">SUM(E44:G44)</f>
-        <v>1186041</v>
-      </c>
-      <c r="E44" s="20">
-        <v>599199</v>
-      </c>
-      <c r="F44" s="20">
-        <v>586326</v>
-      </c>
-      <c r="G44" s="20">
-        <v>516</v>
-      </c>
-      <c r="H44" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>158594</v>
-      </c>
-      <c r="I44" s="20">
-        <v>69024</v>
-      </c>
-      <c r="J44" s="20">
-        <v>89570</v>
-      </c>
-      <c r="K44" s="20">
-        <v>14.981991752525316</v>
-      </c>
-      <c r="L44" s="21">
-        <v>19.262381946565331</v>
       </c>
     </row>
     <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -2476,73 +2476,73 @@
         <v>2021</v>
       </c>
       <c r="C45" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="15">
+        <f t="shared" ref="D45:D76" si="3">SUM(E45:G45)</f>
+        <v>1186041</v>
+      </c>
+      <c r="E45" s="16">
+        <v>599199</v>
+      </c>
+      <c r="F45" s="16">
+        <v>586326</v>
+      </c>
+      <c r="G45" s="16">
+        <v>516</v>
+      </c>
+      <c r="H45" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>158594</v>
+      </c>
+      <c r="I45" s="16">
+        <v>69024</v>
+      </c>
+      <c r="J45" s="16">
+        <v>89570</v>
+      </c>
+      <c r="K45" s="16">
+        <v>14.981991752525316</v>
+      </c>
+      <c r="L45" s="17">
+        <v>19.262381946565331</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D46" s="11">
         <f t="shared" si="3"/>
         <v>1182334</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E46" s="11">
         <v>597975</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F46" s="11">
         <v>583854</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G46" s="11">
         <v>505</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H46" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157584</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I46" s="11">
         <v>68967</v>
       </c>
-      <c r="J45" s="15">
+      <c r="J46" s="11">
         <v>88617</v>
       </c>
-      <c r="K45" s="15">
+      <c r="K46" s="11">
         <v>15.069702507868818</v>
       </c>
-      <c r="L45" s="16">
+      <c r="L46" s="12">
         <v>19.317817634516494</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="17">
-        <v>2021</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="19">
-        <f t="shared" si="3"/>
-        <v>1175907</v>
-      </c>
-      <c r="E46" s="20">
-        <v>594590</v>
-      </c>
-      <c r="F46" s="20">
-        <v>580812</v>
-      </c>
-      <c r="G46" s="20">
-        <v>505</v>
-      </c>
-      <c r="H46" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>157806</v>
-      </c>
-      <c r="I46" s="20">
-        <v>69051</v>
-      </c>
-      <c r="J46" s="20">
-        <v>88755</v>
-      </c>
-      <c r="K46" s="20">
-        <v>15.078070542311446</v>
-      </c>
-      <c r="L46" s="21">
-        <v>19.364975865722599</v>
       </c>
     </row>
     <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -2550,73 +2550,73 @@
         <v>2021</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47" s="15">
         <f t="shared" si="3"/>
+        <v>1175907</v>
+      </c>
+      <c r="E47" s="16">
+        <v>594590</v>
+      </c>
+      <c r="F47" s="16">
+        <v>580812</v>
+      </c>
+      <c r="G47" s="16">
+        <v>505</v>
+      </c>
+      <c r="H47" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>157806</v>
+      </c>
+      <c r="I47" s="16">
+        <v>69051</v>
+      </c>
+      <c r="J47" s="16">
+        <v>88755</v>
+      </c>
+      <c r="K47" s="16">
+        <v>15.078070542311446</v>
+      </c>
+      <c r="L47" s="17">
+        <v>19.364975865722599</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="11">
+        <f t="shared" si="3"/>
         <v>1172788</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E48" s="11">
         <v>593307</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F48" s="11">
         <v>578970</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G48" s="11">
         <v>511</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H48" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157163</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I48" s="11">
         <v>68993</v>
       </c>
-      <c r="J47" s="15">
+      <c r="J48" s="11">
         <v>88170</v>
       </c>
-      <c r="K47" s="15">
+      <c r="K48" s="11">
         <v>15.1151861443215</v>
       </c>
-      <c r="L47" s="16">
+      <c r="L48" s="12">
         <v>19.410730026782087</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="17">
-        <v>2021</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="19">
-        <f t="shared" si="3"/>
-        <v>1166805</v>
-      </c>
-      <c r="E48" s="20">
-        <v>590245</v>
-      </c>
-      <c r="F48" s="20">
-        <v>576050</v>
-      </c>
-      <c r="G48" s="20">
-        <v>510</v>
-      </c>
-      <c r="H48" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>156786</v>
-      </c>
-      <c r="I48" s="20">
-        <v>69018</v>
-      </c>
-      <c r="J48" s="20">
-        <v>87768</v>
-      </c>
-      <c r="K48" s="20">
-        <v>15.155396527751202</v>
-      </c>
-      <c r="L48" s="21">
-        <v>19.481235758032682</v>
       </c>
     </row>
     <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -2624,73 +2624,73 @@
         <v>2021</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" s="15">
         <f t="shared" si="3"/>
+        <v>1166805</v>
+      </c>
+      <c r="E49" s="16">
+        <v>590245</v>
+      </c>
+      <c r="F49" s="16">
+        <v>576050</v>
+      </c>
+      <c r="G49" s="16">
+        <v>510</v>
+      </c>
+      <c r="H49" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>156786</v>
+      </c>
+      <c r="I49" s="16">
+        <v>69018</v>
+      </c>
+      <c r="J49" s="16">
+        <v>87768</v>
+      </c>
+      <c r="K49" s="16">
+        <v>15.155396527751202</v>
+      </c>
+      <c r="L49" s="17">
+        <v>19.481235758032682</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="11">
+        <f t="shared" si="3"/>
         <v>1162463</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E50" s="11">
         <v>588077</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F50" s="11">
         <v>573877</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G50" s="11">
         <v>509</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H50" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156695</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I50" s="11">
         <v>69223</v>
       </c>
-      <c r="J49" s="15">
+      <c r="J50" s="11">
         <v>87472</v>
       </c>
-      <c r="K49" s="15">
+      <c r="K50" s="11">
         <v>15.176859504132231</v>
       </c>
-      <c r="L49" s="16">
+      <c r="L50" s="12">
         <v>19.539313729324562</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="17">
-        <v>2021</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="19">
-        <f t="shared" si="3"/>
-        <v>1157730</v>
-      </c>
-      <c r="E50" s="20">
-        <v>586093</v>
-      </c>
-      <c r="F50" s="20">
-        <v>571129</v>
-      </c>
-      <c r="G50" s="20">
-        <v>508</v>
-      </c>
-      <c r="H50" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>156467</v>
-      </c>
-      <c r="I50" s="20">
-        <v>69334</v>
-      </c>
-      <c r="J50" s="20">
-        <v>87133</v>
-      </c>
-      <c r="K50" s="20">
-        <v>15.205474636824379</v>
-      </c>
-      <c r="L50" s="21">
-        <v>19.591187746654541</v>
       </c>
     </row>
     <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -2698,147 +2698,147 @@
         <v>2021</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D51" s="15">
         <f t="shared" si="3"/>
+        <v>1157730</v>
+      </c>
+      <c r="E51" s="16">
+        <v>586093</v>
+      </c>
+      <c r="F51" s="16">
+        <v>571129</v>
+      </c>
+      <c r="G51" s="16">
+        <v>508</v>
+      </c>
+      <c r="H51" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>156467</v>
+      </c>
+      <c r="I51" s="16">
+        <v>69334</v>
+      </c>
+      <c r="J51" s="16">
+        <v>87133</v>
+      </c>
+      <c r="K51" s="16">
+        <v>15.205474636824379</v>
+      </c>
+      <c r="L51" s="17">
+        <v>19.591187746654541</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="11">
+        <f t="shared" si="3"/>
         <v>1151624</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E52" s="11">
         <v>583440</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F52" s="11">
         <v>567677</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G52" s="11">
         <v>507</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H52" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156128</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I52" s="11">
         <v>69352</v>
       </c>
-      <c r="J51" s="15">
+      <c r="J52" s="11">
         <v>86776</v>
       </c>
-      <c r="K51" s="15">
+      <c r="K52" s="11">
         <v>15.246899979503997</v>
       </c>
-      <c r="L51" s="16">
+      <c r="L52" s="12">
         <v>19.65870183737831</v>
       </c>
     </row>
-    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="22">
+    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="18">
         <v>2021</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C53" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="24">
+      <c r="D53" s="20">
         <f t="shared" si="3"/>
         <v>1146962</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E53" s="21">
         <v>581299</v>
       </c>
-      <c r="F52" s="25">
+      <c r="F53" s="21">
         <v>565156</v>
       </c>
-      <c r="G52" s="25">
+      <c r="G53" s="21">
         <v>507</v>
       </c>
-      <c r="H52" s="25">
+      <c r="H53" s="21">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156135</v>
       </c>
-      <c r="I52" s="25">
+      <c r="I53" s="21">
         <v>69558</v>
       </c>
-      <c r="J52" s="25">
+      <c r="J53" s="21">
         <v>86577</v>
       </c>
-      <c r="K52" s="25">
+      <c r="K53" s="21">
         <v>15.270791302398566</v>
       </c>
-      <c r="L52" s="26">
+      <c r="L53" s="22">
         <v>19.71498144672535</v>
       </c>
     </row>
-    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="27">
+    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="23">
         <v>2020</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C54" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D54" s="25">
         <f t="shared" si="3"/>
         <v>1143940</v>
       </c>
-      <c r="E53" s="29">
+      <c r="E54" s="25">
         <v>580035</v>
       </c>
-      <c r="F53" s="29">
+      <c r="F54" s="25">
         <v>563400</v>
       </c>
-      <c r="G53" s="29">
+      <c r="G54" s="25">
         <v>505</v>
       </c>
-      <c r="H53" s="29">
+      <c r="H54" s="25">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156064</v>
       </c>
-      <c r="I53" s="29">
+      <c r="I54" s="25">
         <v>69624</v>
       </c>
-      <c r="J53" s="29">
+      <c r="J54" s="25">
         <v>86440</v>
       </c>
-      <c r="K53" s="29">
+      <c r="K54" s="25">
         <v>14.291950738158704</v>
       </c>
-      <c r="L53" s="30">
+      <c r="L54" s="26">
         <v>18.763405656555207</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="17">
-        <v>2020</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="19">
-        <f t="shared" si="3"/>
-        <v>1137719</v>
-      </c>
-      <c r="E54" s="20">
-        <v>576835</v>
-      </c>
-      <c r="F54" s="20">
-        <v>560383</v>
-      </c>
-      <c r="G54" s="20">
-        <v>501</v>
-      </c>
-      <c r="H54" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>155330</v>
-      </c>
-      <c r="I54" s="20">
-        <v>69641</v>
-      </c>
-      <c r="J54" s="20">
-        <v>85689</v>
-      </c>
-      <c r="K54" s="20">
-        <v>14.359087104873495</v>
-      </c>
-      <c r="L54" s="21">
-        <v>18.843092045385596</v>
       </c>
     </row>
     <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -2846,73 +2846,73 @@
         <v>2020</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D55" s="15">
         <f t="shared" si="3"/>
+        <v>1137719</v>
+      </c>
+      <c r="E55" s="16">
+        <v>576835</v>
+      </c>
+      <c r="F55" s="16">
+        <v>560383</v>
+      </c>
+      <c r="G55" s="16">
+        <v>501</v>
+      </c>
+      <c r="H55" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>155330</v>
+      </c>
+      <c r="I55" s="16">
+        <v>69641</v>
+      </c>
+      <c r="J55" s="16">
+        <v>85689</v>
+      </c>
+      <c r="K55" s="16">
+        <v>14.359087104873495</v>
+      </c>
+      <c r="L55" s="17">
+        <v>18.843092045385596</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="11">
+        <f t="shared" si="3"/>
         <v>1131496</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E56" s="11">
         <v>574056</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F56" s="11">
         <v>556941</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G56" s="11">
         <v>499</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H56" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154998</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I56" s="11">
         <v>69581</v>
       </c>
-      <c r="J55" s="15">
+      <c r="J56" s="11">
         <v>85417</v>
       </c>
-      <c r="K55" s="15">
+      <c r="K56" s="11">
         <v>14.401392276029368</v>
       </c>
-      <c r="L55" s="16">
+      <c r="L56" s="12">
         <v>18.916173683403709</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="17">
-        <v>2020</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="19">
-        <f t="shared" si="3"/>
-        <v>1124473</v>
-      </c>
-      <c r="E56" s="20">
-        <v>571367</v>
-      </c>
-      <c r="F56" s="20">
-        <v>552611</v>
-      </c>
-      <c r="G56" s="20">
-        <v>495</v>
-      </c>
-      <c r="H56" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>154974</v>
-      </c>
-      <c r="I56" s="20">
-        <v>69802</v>
-      </c>
-      <c r="J56" s="20">
-        <v>85172</v>
-      </c>
-      <c r="K56" s="20">
-        <v>14.418154012931202</v>
-      </c>
-      <c r="L56" s="21">
-        <v>18.991473081224502</v>
       </c>
     </row>
     <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -2920,73 +2920,73 @@
         <v>2020</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D57" s="15">
         <f t="shared" si="3"/>
+        <v>1124473</v>
+      </c>
+      <c r="E57" s="16">
+        <v>571367</v>
+      </c>
+      <c r="F57" s="16">
+        <v>552611</v>
+      </c>
+      <c r="G57" s="16">
+        <v>495</v>
+      </c>
+      <c r="H57" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>154974</v>
+      </c>
+      <c r="I57" s="16">
+        <v>69802</v>
+      </c>
+      <c r="J57" s="16">
+        <v>85172</v>
+      </c>
+      <c r="K57" s="16">
+        <v>14.418154012931202</v>
+      </c>
+      <c r="L57" s="17">
+        <v>18.991473081224502</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="11">
+        <f t="shared" si="3"/>
         <v>1119301</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E58" s="11">
         <v>569174</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F58" s="11">
         <v>549631</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G58" s="11">
         <v>496</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H58" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>155005</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I58" s="11">
         <v>69935</v>
       </c>
-      <c r="J57" s="15">
+      <c r="J58" s="11">
         <v>85070</v>
       </c>
-      <c r="K57" s="15">
+      <c r="K58" s="11">
         <v>14.424315344666301</v>
       </c>
-      <c r="L57" s="16">
+      <c r="L58" s="12">
         <v>19.054786409779787</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="17">
-        <v>2020</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="19">
-        <f t="shared" si="3"/>
-        <v>1115206</v>
-      </c>
-      <c r="E58" s="20">
-        <v>567168</v>
-      </c>
-      <c r="F58" s="20">
-        <v>547540</v>
-      </c>
-      <c r="G58" s="20">
-        <v>498</v>
-      </c>
-      <c r="H58" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>154854</v>
-      </c>
-      <c r="I58" s="20">
-        <v>69936</v>
-      </c>
-      <c r="J58" s="20">
-        <v>84918</v>
-      </c>
-      <c r="K58" s="20">
-        <v>14.441519108321387</v>
-      </c>
-      <c r="L58" s="21">
-        <v>19.111048225569849</v>
       </c>
     </row>
     <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -2994,73 +2994,73 @@
         <v>2020</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D59" s="15">
         <f t="shared" si="3"/>
+        <v>1115206</v>
+      </c>
+      <c r="E59" s="16">
+        <v>567168</v>
+      </c>
+      <c r="F59" s="16">
+        <v>547540</v>
+      </c>
+      <c r="G59" s="16">
+        <v>498</v>
+      </c>
+      <c r="H59" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>154854</v>
+      </c>
+      <c r="I59" s="16">
+        <v>69936</v>
+      </c>
+      <c r="J59" s="16">
+        <v>84918</v>
+      </c>
+      <c r="K59" s="16">
+        <v>14.441519108321387</v>
+      </c>
+      <c r="L59" s="17">
+        <v>19.111048225569849</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="11">
+        <f t="shared" si="3"/>
         <v>1112456</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E60" s="11">
         <v>566042</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F60" s="11">
         <v>545916</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G60" s="11">
         <v>498</v>
       </c>
-      <c r="H59" s="15">
+      <c r="H60" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154797</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I60" s="11">
         <v>69959</v>
       </c>
-      <c r="J59" s="15">
+      <c r="J60" s="11">
         <v>84838</v>
       </c>
-      <c r="K59" s="15">
+      <c r="K60" s="11">
         <v>14.450499686686435</v>
       </c>
-      <c r="L59" s="16">
+      <c r="L60" s="12">
         <v>19.140800505969523</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="17">
-        <v>2020</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="19">
-        <f t="shared" si="3"/>
-        <v>1111879</v>
-      </c>
-      <c r="E60" s="20">
-        <v>565980</v>
-      </c>
-      <c r="F60" s="20">
-        <v>545400</v>
-      </c>
-      <c r="G60" s="20">
-        <v>499</v>
-      </c>
-      <c r="H60" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>154663</v>
-      </c>
-      <c r="I60" s="20">
-        <v>69945</v>
-      </c>
-      <c r="J60" s="20">
-        <v>84718</v>
-      </c>
-      <c r="K60" s="20">
-        <v>14.46115101866639</v>
-      </c>
-      <c r="L60" s="21">
-        <v>19.144045725997383</v>
       </c>
     </row>
     <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -3068,73 +3068,73 @@
         <v>2020</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" s="15">
         <f t="shared" si="3"/>
+        <v>1111879</v>
+      </c>
+      <c r="E61" s="16">
+        <v>565980</v>
+      </c>
+      <c r="F61" s="16">
+        <v>545400</v>
+      </c>
+      <c r="G61" s="16">
+        <v>499</v>
+      </c>
+      <c r="H61" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>154663</v>
+      </c>
+      <c r="I61" s="16">
+        <v>69945</v>
+      </c>
+      <c r="J61" s="16">
+        <v>84718</v>
+      </c>
+      <c r="K61" s="16">
+        <v>14.46115101866639</v>
+      </c>
+      <c r="L61" s="17">
+        <v>19.144045725997383</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="11">
+        <f t="shared" si="3"/>
         <v>1111626</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E62" s="11">
         <v>565883</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F62" s="11">
         <v>545244</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G62" s="11">
         <v>499</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H62" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154659</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I62" s="11">
         <v>69947</v>
       </c>
-      <c r="J61" s="15">
+      <c r="J62" s="11">
         <v>84712</v>
       </c>
-      <c r="K61" s="15">
+      <c r="K62" s="11">
         <v>14.461473305788864</v>
       </c>
-      <c r="L61" s="16">
+      <c r="L62" s="12">
         <v>19.146164489832703</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="17">
-        <v>2020</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="19">
-        <f t="shared" si="3"/>
-        <v>1111436</v>
-      </c>
-      <c r="E62" s="20">
-        <v>565809</v>
-      </c>
-      <c r="F62" s="20">
-        <v>545128</v>
-      </c>
-      <c r="G62" s="20">
-        <v>499</v>
-      </c>
-      <c r="H62" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>154670</v>
-      </c>
-      <c r="I62" s="20">
-        <v>69953</v>
-      </c>
-      <c r="J62" s="20">
-        <v>84717</v>
-      </c>
-      <c r="K62" s="20">
-        <v>14.461059028900239</v>
-      </c>
-      <c r="L62" s="21">
-        <v>19.148813468856098</v>
       </c>
     </row>
     <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -3142,147 +3142,147 @@
         <v>2020</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D63" s="15">
         <f t="shared" si="3"/>
+        <v>1111436</v>
+      </c>
+      <c r="E63" s="16">
+        <v>565809</v>
+      </c>
+      <c r="F63" s="16">
+        <v>545128</v>
+      </c>
+      <c r="G63" s="16">
+        <v>499</v>
+      </c>
+      <c r="H63" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>154670</v>
+      </c>
+      <c r="I63" s="16">
+        <v>69953</v>
+      </c>
+      <c r="J63" s="16">
+        <v>84717</v>
+      </c>
+      <c r="K63" s="16">
+        <v>14.461059028900239</v>
+      </c>
+      <c r="L63" s="17">
+        <v>19.148813468856098</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="11">
+        <f t="shared" si="3"/>
         <v>1107180</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E64" s="11">
         <v>564089</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F64" s="11">
         <v>542595</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G64" s="11">
         <v>496</v>
       </c>
-      <c r="H63" s="15">
+      <c r="H64" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154310</v>
       </c>
-      <c r="I63" s="15">
+      <c r="I64" s="11">
         <v>69893</v>
       </c>
-      <c r="J63" s="15">
+      <c r="J64" s="11">
         <v>84417</v>
       </c>
-      <c r="K63" s="15">
+      <c r="K64" s="11">
         <v>14.507322921392003</v>
       </c>
-      <c r="L63" s="16">
+      <c r="L64" s="12">
         <v>19.193769068356236</v>
       </c>
     </row>
-    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="22">
+    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="18">
         <v>2020</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C65" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="24">
+      <c r="D65" s="20">
         <f t="shared" si="3"/>
         <v>1102434</v>
       </c>
-      <c r="E64" s="25">
+      <c r="E65" s="21">
         <v>562170</v>
       </c>
-      <c r="F64" s="25">
+      <c r="F65" s="21">
         <v>539768</v>
       </c>
-      <c r="G64" s="25">
+      <c r="G65" s="21">
         <v>496</v>
       </c>
-      <c r="H64" s="25">
+      <c r="H65" s="21">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>153904</v>
       </c>
-      <c r="I64" s="25">
+      <c r="I65" s="21">
         <v>69851</v>
       </c>
-      <c r="J64" s="25">
+      <c r="J65" s="21">
         <v>84053</v>
       </c>
-      <c r="K64" s="25">
+      <c r="K65" s="21">
         <v>14.558120646636899</v>
       </c>
-      <c r="L64" s="26">
+      <c r="L65" s="22">
         <v>19.246057242471139</v>
       </c>
     </row>
-    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="27">
+    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="23">
         <v>2019</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C66" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="29">
+      <c r="D66" s="25">
         <f t="shared" si="3"/>
         <v>1099371</v>
       </c>
-      <c r="E65" s="29">
+      <c r="E66" s="25">
         <v>561061</v>
       </c>
-      <c r="F65" s="29">
+      <c r="F66" s="25">
         <v>537813</v>
       </c>
-      <c r="G65" s="29">
+      <c r="G66" s="25">
         <v>497</v>
       </c>
-      <c r="H65" s="29">
+      <c r="H66" s="25">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>153726</v>
       </c>
-      <c r="I65" s="29">
+      <c r="I66" s="25">
         <v>69871</v>
       </c>
-      <c r="J65" s="29">
+      <c r="J66" s="25">
         <v>83855</v>
       </c>
-      <c r="K65" s="29">
+      <c r="K66" s="25">
         <v>13.608641348893485</v>
       </c>
-      <c r="L65" s="30">
+      <c r="L66" s="26">
         <v>18.302218475352948</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="17">
-        <v>2019</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="19">
-        <f t="shared" si="3"/>
-        <v>1094843</v>
-      </c>
-      <c r="E66" s="20">
-        <v>558626</v>
-      </c>
-      <c r="F66" s="20">
-        <v>535724</v>
-      </c>
-      <c r="G66" s="20">
-        <v>493</v>
-      </c>
-      <c r="H66" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>152624</v>
-      </c>
-      <c r="I66" s="20">
-        <v>69534</v>
-      </c>
-      <c r="J66" s="20">
-        <v>83090</v>
-      </c>
-      <c r="K66" s="20">
-        <v>13.697282209875249</v>
-      </c>
-      <c r="L66" s="21">
-        <v>18.357969374859028</v>
       </c>
     </row>
     <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -3290,73 +3290,73 @@
         <v>2019</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D67" s="15">
         <f t="shared" si="3"/>
+        <v>1094843</v>
+      </c>
+      <c r="E67" s="16">
+        <v>558626</v>
+      </c>
+      <c r="F67" s="16">
+        <v>535724</v>
+      </c>
+      <c r="G67" s="16">
+        <v>493</v>
+      </c>
+      <c r="H67" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>152624</v>
+      </c>
+      <c r="I67" s="16">
+        <v>69534</v>
+      </c>
+      <c r="J67" s="16">
+        <v>83090</v>
+      </c>
+      <c r="K67" s="16">
+        <v>13.697282209875249</v>
+      </c>
+      <c r="L67" s="17">
+        <v>18.357969374859028</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="11">
+        <f t="shared" si="3"/>
         <v>1089907</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E68" s="11">
         <v>556346</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F68" s="11">
         <v>533069</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G68" s="11">
         <v>492</v>
       </c>
-      <c r="H67" s="15">
+      <c r="H68" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>151838</v>
       </c>
-      <c r="I67" s="15">
+      <c r="I68" s="11">
         <v>69318</v>
       </c>
-      <c r="J67" s="15">
+      <c r="J68" s="11">
         <v>82520</v>
       </c>
-      <c r="K67" s="15">
+      <c r="K68" s="11">
         <v>13.773673257023933</v>
       </c>
-      <c r="L67" s="16">
+      <c r="L68" s="12">
         <v>18.416267933983526</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="17">
-        <v>2019</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D68" s="19">
-        <f t="shared" si="3"/>
-        <v>1026253</v>
-      </c>
-      <c r="E68" s="20">
-        <v>519860</v>
-      </c>
-      <c r="F68" s="20">
-        <v>505944</v>
-      </c>
-      <c r="G68" s="20">
-        <v>449</v>
-      </c>
-      <c r="H68" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>134666</v>
-      </c>
-      <c r="I68" s="20">
-        <v>59103</v>
-      </c>
-      <c r="J68" s="20">
-        <v>75563</v>
-      </c>
-      <c r="K68" s="20">
-        <v>13.265634978390983</v>
-      </c>
-      <c r="L68" s="21">
-        <v>18.202425653060438</v>
       </c>
     </row>
     <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -3364,73 +3364,73 @@
         <v>2019</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D69" s="15">
         <f t="shared" si="3"/>
+        <v>1026253</v>
+      </c>
+      <c r="E69" s="16">
+        <v>519860</v>
+      </c>
+      <c r="F69" s="16">
+        <v>505944</v>
+      </c>
+      <c r="G69" s="16">
+        <v>449</v>
+      </c>
+      <c r="H69" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>134666</v>
+      </c>
+      <c r="I69" s="16">
+        <v>59103</v>
+      </c>
+      <c r="J69" s="16">
+        <v>75563</v>
+      </c>
+      <c r="K69" s="16">
+        <v>13.265634978390983</v>
+      </c>
+      <c r="L69" s="17">
+        <v>18.202425653060438</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="11">
+        <f t="shared" si="3"/>
         <v>1021601</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E70" s="11">
         <v>517666</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F70" s="11">
         <v>503486</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G70" s="11">
         <v>449</v>
       </c>
-      <c r="H69" s="15">
+      <c r="H70" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134177</v>
       </c>
-      <c r="I69" s="15">
+      <c r="I70" s="11">
         <v>58996</v>
       </c>
-      <c r="J69" s="15">
+      <c r="J70" s="11">
         <v>75181</v>
       </c>
-      <c r="K69" s="15">
+      <c r="K70" s="11">
         <v>13.321195137765788</v>
       </c>
-      <c r="L69" s="16">
+      <c r="L70" s="12">
         <v>18.260312634014984</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="17">
-        <v>2019</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="19">
-        <f t="shared" si="3"/>
-        <v>1012889</v>
-      </c>
-      <c r="E70" s="20">
-        <v>514393</v>
-      </c>
-      <c r="F70" s="20">
-        <v>498050</v>
-      </c>
-      <c r="G70" s="20">
-        <v>446</v>
-      </c>
-      <c r="H70" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>134315</v>
-      </c>
-      <c r="I70" s="20">
-        <v>59818</v>
-      </c>
-      <c r="J70" s="20">
-        <v>74497</v>
-      </c>
-      <c r="K70" s="20">
-        <v>13.572348583553588</v>
-      </c>
-      <c r="L70" s="21">
-        <v>18.476849412803052</v>
       </c>
     </row>
     <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -3438,73 +3438,73 @@
         <v>2019</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D71" s="15">
         <f t="shared" si="3"/>
+        <v>1012889</v>
+      </c>
+      <c r="E71" s="16">
+        <v>514393</v>
+      </c>
+      <c r="F71" s="16">
+        <v>498050</v>
+      </c>
+      <c r="G71" s="16">
+        <v>446</v>
+      </c>
+      <c r="H71" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>134315</v>
+      </c>
+      <c r="I71" s="16">
+        <v>59818</v>
+      </c>
+      <c r="J71" s="16">
+        <v>74497</v>
+      </c>
+      <c r="K71" s="16">
+        <v>13.572348583553588</v>
+      </c>
+      <c r="L71" s="17">
+        <v>18.476849412803052</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="11">
+        <f t="shared" si="3"/>
         <v>1011042</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E72" s="11">
         <v>512802</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F72" s="11">
         <v>497796</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G72" s="11">
         <v>444</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H72" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>132861</v>
       </c>
-      <c r="I71" s="15">
+      <c r="I72" s="11">
         <v>58917</v>
       </c>
-      <c r="J71" s="15">
+      <c r="J72" s="11">
         <v>73944</v>
       </c>
-      <c r="K71" s="15">
+      <c r="K72" s="11">
         <v>13.491144880740022</v>
       </c>
-      <c r="L71" s="16">
+      <c r="L72" s="12">
         <v>18.398711393481303</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="17">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="19">
-        <f t="shared" si="3"/>
-        <v>1006543</v>
-      </c>
-      <c r="E72" s="20">
-        <v>506850</v>
-      </c>
-      <c r="F72" s="20">
-        <v>499239</v>
-      </c>
-      <c r="G72" s="20">
-        <v>454</v>
-      </c>
-      <c r="H72" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>133322</v>
-      </c>
-      <c r="I72" s="20">
-        <v>58537</v>
-      </c>
-      <c r="J72" s="20">
-        <v>74785</v>
-      </c>
-      <c r="K72" s="20">
-        <v>12.551904411875009</v>
-      </c>
-      <c r="L72" s="21">
-        <v>17.760755647627501</v>
       </c>
     </row>
     <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -3512,73 +3512,73 @@
         <v>2019</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D73" s="15">
         <f t="shared" si="3"/>
+        <v>1006543</v>
+      </c>
+      <c r="E73" s="16">
+        <v>506850</v>
+      </c>
+      <c r="F73" s="16">
+        <v>499239</v>
+      </c>
+      <c r="G73" s="16">
+        <v>454</v>
+      </c>
+      <c r="H73" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>133322</v>
+      </c>
+      <c r="I73" s="16">
+        <v>58537</v>
+      </c>
+      <c r="J73" s="16">
+        <v>74785</v>
+      </c>
+      <c r="K73" s="16">
+        <v>12.551904411875009</v>
+      </c>
+      <c r="L73" s="17">
+        <v>17.760755647627501</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="11">
+        <f t="shared" si="3"/>
         <v>1000820</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E74" s="11">
         <v>504046</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F74" s="11">
         <v>496323</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G74" s="11">
         <v>451</v>
       </c>
-      <c r="H73" s="15">
+      <c r="H74" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>132406</v>
       </c>
-      <c r="I73" s="15">
+      <c r="I74" s="11">
         <v>58289</v>
       </c>
-      <c r="J73" s="15">
+      <c r="J74" s="11">
         <v>74117</v>
       </c>
-      <c r="K73" s="15">
+      <c r="K74" s="11">
         <v>12.619949247012975</v>
       </c>
-      <c r="L73" s="16">
+      <c r="L74" s="12">
         <v>17.838770667756513</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="17">
-        <v>2019</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D74" s="19">
-        <f t="shared" si="3"/>
-        <v>995167</v>
-      </c>
-      <c r="E74" s="20">
-        <v>501424</v>
-      </c>
-      <c r="F74" s="20">
-        <v>493291</v>
-      </c>
-      <c r="G74" s="20">
-        <v>452</v>
-      </c>
-      <c r="H74" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>131276</v>
-      </c>
-      <c r="I74" s="20">
-        <v>57933</v>
-      </c>
-      <c r="J74" s="20">
-        <v>73343</v>
-      </c>
-      <c r="K74" s="20">
-        <v>12.722576860964685</v>
-      </c>
-      <c r="L74" s="21">
-        <v>17.901807651807651</v>
       </c>
     </row>
     <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -3586,147 +3586,147 @@
         <v>2019</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D75" s="15">
         <f t="shared" si="3"/>
+        <v>995167</v>
+      </c>
+      <c r="E75" s="16">
+        <v>501424</v>
+      </c>
+      <c r="F75" s="16">
+        <v>493291</v>
+      </c>
+      <c r="G75" s="16">
+        <v>452</v>
+      </c>
+      <c r="H75" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>131276</v>
+      </c>
+      <c r="I75" s="16">
+        <v>57933</v>
+      </c>
+      <c r="J75" s="16">
+        <v>73343</v>
+      </c>
+      <c r="K75" s="16">
+        <v>12.722576860964685</v>
+      </c>
+      <c r="L75" s="17">
+        <v>17.901807651807651</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="11">
+        <f t="shared" si="3"/>
         <v>990002</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E76" s="11">
         <v>499221</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F76" s="11">
         <v>490327</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G76" s="11">
         <v>454</v>
       </c>
-      <c r="H75" s="15">
+      <c r="H76" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>130579</v>
       </c>
-      <c r="I75" s="15">
+      <c r="I76" s="11">
         <v>57862</v>
       </c>
-      <c r="J75" s="15">
+      <c r="J76" s="11">
         <v>72717</v>
       </c>
-      <c r="K75" s="15">
+      <c r="K76" s="11">
         <v>12.793971465549591</v>
       </c>
-      <c r="L75" s="16">
+      <c r="L76" s="12">
         <v>17.958405195294269</v>
       </c>
     </row>
-    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="22">
+    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="18">
         <v>2019</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C77" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="24">
-        <f t="shared" ref="D76:D88" si="4">SUM(E76:G76)</f>
+      <c r="D77" s="20">
+        <f t="shared" ref="D77:D89" si="4">SUM(E77:G77)</f>
         <v>985713</v>
       </c>
-      <c r="E76" s="25">
+      <c r="E77" s="21">
         <v>497141</v>
       </c>
-      <c r="F76" s="25">
+      <c r="F77" s="21">
         <v>488120</v>
       </c>
-      <c r="G76" s="25">
+      <c r="G77" s="21">
         <v>452</v>
       </c>
-      <c r="H76" s="25">
+      <c r="H77" s="21">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>129833</v>
       </c>
-      <c r="I76" s="25">
+      <c r="I77" s="21">
         <v>57647</v>
       </c>
-      <c r="J76" s="25">
+      <c r="J77" s="21">
         <v>72186</v>
       </c>
-      <c r="K76" s="25">
+      <c r="K77" s="21">
         <v>12.85511387705745</v>
       </c>
-      <c r="L76" s="26">
+      <c r="L77" s="22">
         <v>18.009015550920161</v>
       </c>
     </row>
-    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="27">
+    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="23">
         <v>2018</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="C78" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D77" s="29">
+      <c r="D78" s="25">
         <f t="shared" si="4"/>
         <v>982856</v>
       </c>
-      <c r="E77" s="29">
+      <c r="E78" s="25">
         <v>496057</v>
       </c>
-      <c r="F77" s="29">
+      <c r="F78" s="25">
         <v>486335</v>
       </c>
-      <c r="G77" s="29">
+      <c r="G78" s="25">
         <v>464</v>
       </c>
-      <c r="H77" s="29">
+      <c r="H78" s="25">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>129315</v>
       </c>
-      <c r="I77" s="29">
+      <c r="I78" s="25">
         <v>57599</v>
       </c>
-      <c r="J77" s="29">
+      <c r="J78" s="25">
         <v>71716</v>
       </c>
-      <c r="K77" s="29">
+      <c r="K78" s="25">
         <v>11.5</v>
       </c>
-      <c r="L77" s="30">
+      <c r="L78" s="26">
         <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="17">
-        <v>2018</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="19">
-        <f t="shared" si="4"/>
-        <v>978058</v>
-      </c>
-      <c r="E78" s="20">
-        <v>493248</v>
-      </c>
-      <c r="F78" s="20">
-        <v>484343</v>
-      </c>
-      <c r="G78" s="20">
-        <v>467</v>
-      </c>
-      <c r="H78" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>127995</v>
-      </c>
-      <c r="I78" s="20">
-        <v>57117</v>
-      </c>
-      <c r="J78" s="20">
-        <v>70878</v>
-      </c>
-      <c r="K78" s="20">
-        <v>11.579603101683661</v>
-      </c>
-      <c r="L78" s="21">
-        <v>16.657281844021668</v>
       </c>
     </row>
     <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -3734,73 +3734,73 @@
         <v>2018</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D79" s="15">
         <f t="shared" si="4"/>
+        <v>978058</v>
+      </c>
+      <c r="E79" s="16">
+        <v>493248</v>
+      </c>
+      <c r="F79" s="16">
+        <v>484343</v>
+      </c>
+      <c r="G79" s="16">
+        <v>467</v>
+      </c>
+      <c r="H79" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>127995</v>
+      </c>
+      <c r="I79" s="16">
+        <v>57117</v>
+      </c>
+      <c r="J79" s="16">
+        <v>70878</v>
+      </c>
+      <c r="K79" s="16">
+        <v>11.579603101683661</v>
+      </c>
+      <c r="L79" s="17">
+        <v>16.657281844021668</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="11">
+        <f t="shared" si="4"/>
         <v>971514</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E80" s="11">
         <v>489853</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F80" s="11">
         <v>481195</v>
       </c>
-      <c r="G79" s="15">
+      <c r="G80" s="11">
         <v>466</v>
       </c>
-      <c r="H79" s="15">
+      <c r="H80" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>126537</v>
       </c>
-      <c r="I79" s="15">
+      <c r="I80" s="11">
         <v>56599</v>
       </c>
-      <c r="J79" s="15">
+      <c r="J80" s="11">
         <v>69938</v>
       </c>
-      <c r="K79" s="15">
+      <c r="K80" s="11">
         <v>11.695425480294306</v>
       </c>
-      <c r="L79" s="16">
+      <c r="L80" s="12">
         <v>16.724397819345807</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="17">
-        <v>2018</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D80" s="19">
-        <f t="shared" si="4"/>
-        <v>965544</v>
-      </c>
-      <c r="E80" s="20">
-        <v>486879</v>
-      </c>
-      <c r="F80" s="20">
-        <v>478202</v>
-      </c>
-      <c r="G80" s="20">
-        <v>463</v>
-      </c>
-      <c r="H80" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>125592</v>
-      </c>
-      <c r="I80" s="20">
-        <v>56443</v>
-      </c>
-      <c r="J80" s="20">
-        <v>69149</v>
-      </c>
-      <c r="K80" s="20">
-        <v>11.775922614497736</v>
-      </c>
-      <c r="L80" s="21">
-        <v>16.795398144097401</v>
       </c>
     </row>
     <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -3808,73 +3808,73 @@
         <v>2018</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D81" s="15">
         <f t="shared" si="4"/>
+        <v>965544</v>
+      </c>
+      <c r="E81" s="16">
+        <v>486879</v>
+      </c>
+      <c r="F81" s="16">
+        <v>478202</v>
+      </c>
+      <c r="G81" s="16">
+        <v>463</v>
+      </c>
+      <c r="H81" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>125592</v>
+      </c>
+      <c r="I81" s="16">
+        <v>56443</v>
+      </c>
+      <c r="J81" s="16">
+        <v>69149</v>
+      </c>
+      <c r="K81" s="16">
+        <v>11.775922614497736</v>
+      </c>
+      <c r="L81" s="17">
+        <v>16.795398144097401</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="11">
+        <f t="shared" si="4"/>
         <v>960111</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E82" s="11">
         <v>483912</v>
       </c>
-      <c r="F81" s="15">
+      <c r="F82" s="11">
         <v>475735</v>
       </c>
-      <c r="G81" s="15">
+      <c r="G82" s="11">
         <v>464</v>
       </c>
-      <c r="H81" s="15">
+      <c r="H82" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>124463</v>
       </c>
-      <c r="I81" s="15">
+      <c r="I82" s="11">
         <v>56029</v>
       </c>
-      <c r="J81" s="15">
+      <c r="J82" s="11">
         <v>68434</v>
       </c>
-      <c r="K81" s="15">
+      <c r="K82" s="11">
         <v>11.859889509332092</v>
       </c>
-      <c r="L81" s="16">
+      <c r="L82" s="12">
         <v>16.84972398287292</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="17">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="19">
-        <f t="shared" si="4"/>
-        <v>953323</v>
-      </c>
-      <c r="E82" s="20">
-        <v>480495</v>
-      </c>
-      <c r="F82" s="20">
-        <v>472364</v>
-      </c>
-      <c r="G82" s="20">
-        <v>464</v>
-      </c>
-      <c r="H82" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>123737</v>
-      </c>
-      <c r="I82" s="20">
-        <v>55960</v>
-      </c>
-      <c r="J82" s="20">
-        <v>67777</v>
-      </c>
-      <c r="K82" s="20">
-        <v>11.930278889903581</v>
-      </c>
-      <c r="L82" s="21">
-        <v>16.922447322032493</v>
       </c>
     </row>
     <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -3882,73 +3882,73 @@
         <v>2018</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D83" s="15">
         <f t="shared" si="4"/>
+        <v>953323</v>
+      </c>
+      <c r="E83" s="16">
+        <v>480495</v>
+      </c>
+      <c r="F83" s="16">
+        <v>472364</v>
+      </c>
+      <c r="G83" s="16">
+        <v>464</v>
+      </c>
+      <c r="H83" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>123737</v>
+      </c>
+      <c r="I83" s="16">
+        <v>55960</v>
+      </c>
+      <c r="J83" s="16">
+        <v>67777</v>
+      </c>
+      <c r="K83" s="16">
+        <v>11.930278889903581</v>
+      </c>
+      <c r="L83" s="17">
+        <v>16.922447322032493</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="11">
+        <f t="shared" si="4"/>
         <v>947851</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E84" s="11">
         <v>477880</v>
       </c>
-      <c r="F83" s="15">
+      <c r="F84" s="11">
         <v>469513</v>
       </c>
-      <c r="G83" s="15">
+      <c r="G84" s="11">
         <v>458</v>
       </c>
-      <c r="H83" s="15">
+      <c r="H84" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>122946</v>
       </c>
-      <c r="I83" s="15">
+      <c r="I84" s="11">
         <v>55790</v>
       </c>
-      <c r="J83" s="15">
+      <c r="J84" s="11">
         <v>67156</v>
       </c>
-      <c r="K83" s="15">
+      <c r="K84" s="11">
         <v>12.01</v>
       </c>
-      <c r="L83" s="16">
+      <c r="L84" s="12">
         <v>16.98</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="17">
-        <v>2018</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" s="19">
-        <f t="shared" si="4"/>
-        <v>944527</v>
-      </c>
-      <c r="E84" s="20">
-        <v>476241</v>
-      </c>
-      <c r="F84" s="20">
-        <v>467827</v>
-      </c>
-      <c r="G84" s="20">
-        <v>459</v>
-      </c>
-      <c r="H84" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>122105</v>
-      </c>
-      <c r="I84" s="20">
-        <v>55617</v>
-      </c>
-      <c r="J84" s="20">
-        <v>66488</v>
-      </c>
-      <c r="K84" s="20">
-        <v>12.1</v>
-      </c>
-      <c r="L84" s="21">
-        <v>17.03</v>
       </c>
     </row>
     <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -3956,73 +3956,73 @@
         <v>2018</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D85" s="15">
         <f t="shared" si="4"/>
+        <v>944527</v>
+      </c>
+      <c r="E85" s="16">
+        <v>476241</v>
+      </c>
+      <c r="F85" s="16">
+        <v>467827</v>
+      </c>
+      <c r="G85" s="16">
+        <v>459</v>
+      </c>
+      <c r="H85" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>122105</v>
+      </c>
+      <c r="I85" s="16">
+        <v>55617</v>
+      </c>
+      <c r="J85" s="16">
+        <v>66488</v>
+      </c>
+      <c r="K85" s="16">
+        <v>12.1</v>
+      </c>
+      <c r="L85" s="17">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="11">
+        <f t="shared" si="4"/>
         <v>936533</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E86" s="11">
         <v>472271</v>
       </c>
-      <c r="F85" s="15">
+      <c r="F86" s="11">
         <v>463807</v>
       </c>
-      <c r="G85" s="15">
+      <c r="G86" s="11">
         <v>455</v>
       </c>
-      <c r="H85" s="15">
+      <c r="H86" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>121075</v>
       </c>
-      <c r="I85" s="15">
+      <c r="I86" s="11">
         <v>55199</v>
       </c>
-      <c r="J85" s="15">
+      <c r="J86" s="11">
         <v>65876</v>
       </c>
-      <c r="K85" s="15">
+      <c r="K86" s="11">
         <v>12.15</v>
       </c>
-      <c r="L85" s="16">
+      <c r="L86" s="12">
         <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="17">
-        <v>2018</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D86" s="19">
-        <f t="shared" si="4"/>
-        <v>930205</v>
-      </c>
-      <c r="E86" s="20">
-        <v>469020</v>
-      </c>
-      <c r="F86" s="20">
-        <v>460731</v>
-      </c>
-      <c r="G86" s="20">
-        <v>454</v>
-      </c>
-      <c r="H86" s="20">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>120039</v>
-      </c>
-      <c r="I86" s="20">
-        <v>54921</v>
-      </c>
-      <c r="J86" s="20">
-        <v>65118</v>
-      </c>
-      <c r="K86" s="20">
-        <v>12.219768117028636</v>
-      </c>
-      <c r="L86" s="21">
-        <v>17.169355262035737</v>
       </c>
     </row>
     <row r="87" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
@@ -4030,89 +4030,126 @@
         <v>2018</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D87" s="15">
         <f t="shared" si="4"/>
+        <v>930205</v>
+      </c>
+      <c r="E87" s="16">
+        <v>469020</v>
+      </c>
+      <c r="F87" s="16">
+        <v>460731</v>
+      </c>
+      <c r="G87" s="16">
+        <v>454</v>
+      </c>
+      <c r="H87" s="16">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>120039</v>
+      </c>
+      <c r="I87" s="16">
+        <v>54921</v>
+      </c>
+      <c r="J87" s="16">
+        <v>65118</v>
+      </c>
+      <c r="K87" s="16">
+        <v>12.219768117028636</v>
+      </c>
+      <c r="L87" s="17">
+        <v>17.169355262035737</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="11">
+        <f t="shared" si="4"/>
         <v>924012</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E88" s="11">
         <v>466319</v>
       </c>
-      <c r="F87" s="15">
+      <c r="F88" s="11">
         <v>457242</v>
       </c>
-      <c r="G87" s="15">
+      <c r="G88" s="11">
         <v>451</v>
       </c>
-      <c r="H87" s="15">
+      <c r="H88" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>118763</v>
       </c>
-      <c r="I87" s="15">
+      <c r="I88" s="11">
         <v>54503</v>
       </c>
-      <c r="J87" s="15">
+      <c r="J88" s="11">
         <v>64260</v>
       </c>
-      <c r="K87" s="15">
+      <c r="K88" s="11">
         <v>12.303791963827118</v>
       </c>
-      <c r="L87" s="16">
+      <c r="L88" s="12">
         <v>17.220716288635032</v>
       </c>
     </row>
-    <row r="88" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="22">
+    <row r="89" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="18">
         <v>2018</v>
       </c>
-      <c r="C88" s="23" t="s">
+      <c r="C89" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="24">
+      <c r="D89" s="20">
         <f t="shared" si="4"/>
         <v>920526</v>
       </c>
-      <c r="E88" s="25">
+      <c r="E89" s="21">
         <v>464622</v>
       </c>
-      <c r="F88" s="25">
+      <c r="F89" s="21">
         <v>455453</v>
       </c>
-      <c r="G88" s="25">
+      <c r="G89" s="21">
         <v>451</v>
       </c>
-      <c r="H88" s="25">
+      <c r="H89" s="21">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>118260</v>
       </c>
-      <c r="I88" s="25">
+      <c r="I89" s="21">
         <v>54504</v>
       </c>
-      <c r="J88" s="25">
+      <c r="J89" s="21">
         <v>63756</v>
       </c>
-      <c r="K88" s="25">
+      <c r="K89" s="21">
         <v>12.37</v>
       </c>
-      <c r="L88" s="26">
+      <c r="L89" s="22">
         <v>17.28</v>
       </c>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B89" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L89" s="31"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B90" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L90" s="31"/>
+        <v>27</v>
+      </c>
+      <c r="L90" s="27"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L91" s="27"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B92" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Flota_Antigúedad_AF.xlsx
+++ b/Flota_Antigúedad_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085B78B6-2BE4-4D6B-9A5E-0C9E769F62BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1054B9-40DE-4A32-878D-B03673E60025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_15.2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="31">
   <si>
     <t>Carga</t>
   </si>
@@ -122,7 +122,16 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Antigüedad promedio</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>ND No Disponible.</t>
+  </si>
+  <si>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -362,27 +371,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,8 +416,20 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -434,12 +440,35 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
     <dxf>
       <font>
         <strike val="0"/>
@@ -463,6 +492,26 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Noto Sans"/>
         <family val="2"/>
         <charset val="1"/>
@@ -610,13 +659,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -638,6 +680,13 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -663,7 +712,7 @@
           <bgColor theme="7"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -689,28 +738,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:L89" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
-  <autoFilter ref="B5:L89" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:M90" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+  <autoFilter ref="B5:M90" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
+        <filter val="2025"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B20DCB96-4305-435C-8C2C-2E86DD8AD94F}" name="Año" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{F1D60920-E961-4373-8027-4347AEE54E44}" name="Mes" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{B656E717-4464-4FD9-AF26-66FB1FB08E58}" name="Total" dataDxfId="8">
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{B20DCB96-4305-435C-8C2C-2E86DD8AD94F}" name="Año" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{F1D60920-E961-4373-8027-4347AEE54E44}" name="Mes" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{B656E717-4464-4FD9-AF26-66FB1FB08E58}" name="Total" dataDxfId="9">
       <calculatedColumnFormula>SUM(E6:G6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E586330F-E806-4820-BF1C-3FE78AFD021A}" name="Unidades Motrices" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{68D2B558-5DA9-42C9-82A8-45C2E1FD7B07}" name="Unidades de Arrastre" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{816B11E4-71BC-45BB-8222-E60C5AC8BEFC}" name="Grúas Industriales" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{08400F41-2543-49C7-9C14-EBB7DE79B9A0}" name="Total " dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{E586330F-E806-4820-BF1C-3FE78AFD021A}" name="Unidades Motrices" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{68D2B558-5DA9-42C9-82A8-45C2E1FD7B07}" name="Unidades de Arrastre" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{816B11E4-71BC-45BB-8222-E60C5AC8BEFC}" name="Grúas Industriales" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{08400F41-2543-49C7-9C14-EBB7DE79B9A0}" name="Total " dataDxfId="5">
       <calculatedColumnFormula>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{437F3E11-8501-41E6-B7DB-15E3BE7D604F}" name="Pasajeros" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{261623A0-B69B-4DB7-BEA0-9DE86723147F}" name="Turismo" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{437F3E11-8501-41E6-B7DB-15E3BE7D604F}" name="Pasajeros" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{261623A0-B69B-4DB7-BEA0-9DE86723147F}" name="Turismo" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{BDFFBB1E-E639-409D-A0CE-EE6AF345C43A}" name="Antigüedad promedio" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{6B0A2EB7-96C1-4F12-9FDD-518B0C10619A}" name="Pasaje" dataDxfId="1"/>
     <tableColumn id="10" xr3:uid="{734CB9C7-3D25-42E3-93AB-6CE379E4AEF2}" name="Carga" dataDxfId="0"/>
   </tableColumns>
@@ -941,7 +992,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O92"/>
+  <dimension ref="B2:P94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -953,3211 +1004,3515 @@
     <col min="2" max="2" width="7.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="6.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.5" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="11" style="2"/>
+    <col min="11" max="11" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.5" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="2:16" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="2:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32" t="s">
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="29" t="s">
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="29"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5" s="4" t="s">
+      <c r="L4" s="33"/>
+      <c r="M4" s="34"/>
+    </row>
+    <row r="5" spans="2:16" ht="39" x14ac:dyDescent="0.45">
+      <c r="B5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" s="9">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B6" s="35">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="37">
+        <f>SUM(E6:G6)</f>
+        <v>1441492</v>
+      </c>
+      <c r="E6" s="38">
+        <v>726109</v>
+      </c>
+      <c r="F6" s="38">
+        <v>714727</v>
+      </c>
+      <c r="G6" s="38">
+        <v>656</v>
+      </c>
+      <c r="H6" s="38">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>186423</v>
+      </c>
+      <c r="I6" s="37">
+        <v>73458</v>
+      </c>
+      <c r="J6" s="38">
+        <v>112965</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B7" s="4">
         <v>2024</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="11">
-        <f>SUM(E6:G6)</f>
+      <c r="D7" s="6">
+        <f>SUM(E7:G7)</f>
         <v>1435884</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="6">
         <v>723462</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F7" s="6">
         <v>711776</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G7" s="6">
         <v>646</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H7" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>186064</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I7" s="6">
         <v>73453</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J7" s="6">
         <v>112611</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K7" s="6">
+        <v>18.404813538748488</v>
+      </c>
+      <c r="L7" s="6">
         <v>15.191272895347836</v>
       </c>
-      <c r="L6" s="12">
+      <c r="M7" s="7">
         <v>19.269418435246081</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" s="13">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B8" s="8">
         <v>2024</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="15">
-        <f>SUM(E7:G7)</f>
+      <c r="D8" s="10">
+        <f>SUM(E8:G8)</f>
         <v>1428265</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E8" s="11">
         <v>719185</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F8" s="11">
         <v>708450</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G8" s="11">
         <v>630</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H8" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>184987</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I8" s="10">
         <v>73204</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J8" s="11">
         <v>111783</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K8" s="11">
+        <v>18.476960502833276</v>
+      </c>
+      <c r="L8" s="11">
         <v>15.270154118938088</v>
       </c>
-      <c r="L7" s="17">
+      <c r="M8" s="12">
         <v>19.35768543559724</v>
       </c>
-      <c r="O7"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="9">
+      <c r="P8"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B9" s="4">
         <v>2024</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="11">
-        <f t="shared" ref="D8" si="0">SUM(E8:G8)</f>
+      <c r="D9" s="6">
+        <f t="shared" ref="D9" si="0">SUM(E9:G9)</f>
         <v>1419744</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E9" s="6">
         <v>714747</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F9" s="6">
         <v>704375</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G9" s="6">
         <v>622</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H9" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>184353</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I9" s="6">
         <v>73206</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J9" s="6">
         <v>111147</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K9" s="6">
+        <v>18.559178035204791</v>
+      </c>
+      <c r="L9" s="6">
         <v>15.333984258460672</v>
       </c>
-      <c r="L8" s="12">
+      <c r="M9" s="7">
         <v>19.45495538980926</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="13">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B10" s="8">
         <v>2024</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="15">
-        <f>SUM(E9:G9)</f>
+      <c r="D10" s="10">
+        <f>SUM(E10:G10)</f>
         <v>1409947</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E10" s="11">
         <v>709391</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F10" s="11">
         <v>699945</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G10" s="11">
         <v>611</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H10" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>183444</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I10" s="10">
         <v>72959</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J10" s="11">
         <v>110485</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K10" s="11">
+        <v>18.653800273735229</v>
+      </c>
+      <c r="L10" s="11">
         <v>15.41505309522252</v>
       </c>
-      <c r="L9" s="17">
+      <c r="M10" s="12">
         <v>19.569322136875151</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="9">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B11" s="4">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="11">
-        <f>SUM(E10:G10)</f>
+      <c r="D11" s="6">
+        <f>SUM(E11:G11)</f>
         <v>1401613</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="6">
         <v>704941</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="6">
         <v>696064</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="6">
         <v>608</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H11" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>182766</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I11" s="6">
         <v>72808</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J11" s="6">
         <v>109958</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K11" s="6">
+        <v>18.731302694644619</v>
+      </c>
+      <c r="L11" s="6">
         <v>15.486441679524638</v>
       </c>
-      <c r="L10" s="12">
+      <c r="M11" s="7">
         <v>19.663221461086813</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="13">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B12" s="8">
         <v>2024</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="15">
-        <f t="shared" ref="D11:D13" si="1">SUM(E11:G11)</f>
+      <c r="D12" s="10">
+        <f t="shared" ref="D12:D14" si="1">SUM(E12:G12)</f>
         <v>1392231</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E12" s="11">
         <v>700064</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F12" s="11">
         <v>691573</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G12" s="11">
         <v>594</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H12" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>182096</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I12" s="11">
         <v>72722</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J12" s="11">
         <v>109374</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K12" s="11">
+        <v>18.818005976871554</v>
+      </c>
+      <c r="L12" s="11">
         <v>15.548683112204552</v>
       </c>
-      <c r="L11" s="17">
+      <c r="M12" s="12">
         <v>19.76646992274992</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="9">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B13" s="4">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="6">
         <f t="shared" si="1"/>
         <v>1381670</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="6">
         <v>694997</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="6">
         <v>686081</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G13" s="6">
         <v>592</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H13" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>181209</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I13" s="6">
         <v>72604</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J13" s="6">
         <v>108605</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K13" s="6">
+        <v>18.917404420570612</v>
+      </c>
+      <c r="L13" s="6">
         <v>15.6321154026566</v>
       </c>
-      <c r="L12" s="12">
+      <c r="M13" s="7">
         <v>19.872406643481913</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="13">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B14" s="8">
         <v>2024</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D14" s="10">
         <f t="shared" si="1"/>
         <v>1364076</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E14" s="11">
         <v>686433</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F14" s="11">
         <v>677060</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G14" s="11">
         <v>583</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H14" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>180169</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I14" s="11">
         <v>72197</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J14" s="11">
         <v>107972</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K14" s="11">
+        <v>19.07390024500182</v>
+      </c>
+      <c r="L14" s="11">
         <v>15.728466051318485</v>
       </c>
-      <c r="L13" s="16">
+      <c r="M14" s="11">
         <v>20.044184938661164</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="9">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B15" s="4">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="11">
-        <f t="shared" ref="D14:D44" si="2">SUM(E14:G14)</f>
+      <c r="D15" s="6">
+        <f t="shared" ref="D15:D45" si="2">SUM(E15:G15)</f>
         <v>1362046</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="6">
         <v>685435</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="6">
         <v>676046</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G15" s="6">
         <v>565</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H15" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>179118</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I15" s="6">
         <v>71981</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J15" s="6">
         <v>107137</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K15" s="6">
+        <v>19.118977099167271</v>
+      </c>
+      <c r="L15" s="6">
         <v>15.827370783505843</v>
       </c>
-      <c r="L14" s="12">
+      <c r="M15" s="7">
         <v>20.082257252693545</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="13">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B16" s="8">
         <v>2024</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D16" s="10">
         <f t="shared" si="2"/>
         <v>1353988</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E16" s="11">
         <v>681551</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F16" s="11">
         <v>671878</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G16" s="11">
         <v>559</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H16" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>178140</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I16" s="11">
         <v>71842</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J16" s="11">
         <v>106298</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K16" s="11">
+        <v>19.204794560349551</v>
+      </c>
+      <c r="L16" s="11">
         <v>15.921746940608513</v>
       </c>
-      <c r="L15" s="17">
+      <c r="M16" s="12">
         <v>20.167528182043604</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="9">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B17" s="4">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="6">
         <f t="shared" si="2"/>
         <v>1345055</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="6">
         <v>677153</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F17" s="6">
         <v>667343</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G17" s="6">
         <v>559</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H17" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>177618</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I17" s="6">
         <v>71797</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J17" s="6">
         <v>105821</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K17" s="6">
+        <v>19.298350846257247</v>
+      </c>
+      <c r="L17" s="6">
         <v>15.980300420002475</v>
       </c>
-      <c r="L16" s="12">
+      <c r="M17" s="7">
         <v>20.271950356861744</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B17" s="18">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B18" s="13">
         <v>2024</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D18" s="15">
         <f t="shared" si="2"/>
         <v>1337961</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E18" s="16">
         <v>673757</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F18" s="16">
         <v>663646</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G18" s="16">
         <v>558</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H18" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>176858</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I18" s="16">
         <v>71641</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J18" s="16">
         <v>105217</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K18" s="16">
+        <v>19.37957723272276</v>
+      </c>
+      <c r="L18" s="16">
         <v>16.061088556921373</v>
       </c>
-      <c r="L17" s="22">
+      <c r="M18" s="17">
         <v>20.355880532595581</v>
       </c>
     </row>
-    <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="23">
+    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="18">
         <v>2023</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D19" s="20">
         <f t="shared" si="2"/>
         <v>1331921</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E19" s="20">
         <v>671002</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F19" s="20">
         <v>660365</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G19" s="20">
         <v>554</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H19" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>176251</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I19" s="20">
         <v>71562</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J19" s="20">
         <v>104689</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K19" s="20">
+        <v>18.475869218860481</v>
+      </c>
+      <c r="L19" s="20">
         <v>15.134234699377592</v>
       </c>
-      <c r="L18" s="26">
+      <c r="M19" s="21">
         <v>19.458281793496891</v>
       </c>
     </row>
-    <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="13">
+    <row r="20" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="8">
         <v>2023</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D20" s="10">
         <f t="shared" si="2"/>
         <v>1324591</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E20" s="11">
         <v>667021</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F20" s="11">
         <v>657017</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G20" s="11">
         <v>553</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H20" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>175311</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I20" s="11">
         <v>71379</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J20" s="11">
         <v>103932</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K20" s="11">
+        <v>18.551437990754653</v>
+      </c>
+      <c r="L20" s="11">
         <v>15.22355699300101</v>
       </c>
-      <c r="L19" s="17">
+      <c r="M20" s="12">
         <v>19.543477641633473</v>
       </c>
     </row>
-    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="9">
+    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="4">
         <v>2023</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="6">
         <f t="shared" si="2"/>
         <v>1316689</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="6">
         <v>662911</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="6">
         <v>653227</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G21" s="6">
         <v>551</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H21" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>174393</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I21" s="6">
         <v>71146</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J21" s="6">
         <v>103247</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K21" s="6">
+        <v>18.63639333901811</v>
+      </c>
+      <c r="L21" s="6">
         <v>15.305362027145584</v>
       </c>
-      <c r="L20" s="12">
+      <c r="M21" s="7">
         <v>19.637007079381696</v>
       </c>
     </row>
-    <row r="21" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="13">
+    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="8">
         <v>2023</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D22" s="10">
         <f t="shared" si="2"/>
         <v>1309236</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E22" s="11">
         <v>659020</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F22" s="11">
         <v>649665</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G22" s="11">
         <v>551</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H22" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>173599</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I22" s="11">
         <v>71029</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J22" s="11">
         <v>102570</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K22" s="11">
+        <v>18.719585450561432</v>
+      </c>
+      <c r="L22" s="11">
         <v>15.387882418677528</v>
       </c>
-      <c r="L21" s="17">
+      <c r="M22" s="12">
         <v>19.730128068950865</v>
       </c>
     </row>
-    <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="9">
+    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="4">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="6">
         <f t="shared" si="2"/>
         <v>1302003</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="6">
         <v>655458</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="6">
         <v>645999</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G23" s="6">
         <v>546</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H23" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>172764</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I23" s="6">
         <v>70834</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J23" s="6">
         <v>101930</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K23" s="6">
+        <v>18.802238606016331</v>
+      </c>
+      <c r="L23" s="6">
         <v>15.470034266398091</v>
       </c>
-      <c r="L22" s="12">
+      <c r="M23" s="7">
         <v>19.817370449365175</v>
       </c>
     </row>
-    <row r="23" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="13">
+    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="8">
         <v>2023</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D24" s="10">
         <f t="shared" si="2"/>
         <v>1294209</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E24" s="11">
         <v>651761</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F24" s="11">
         <v>641907</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G24" s="11">
         <v>541</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H24" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>172137</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I24" s="11">
         <v>70783</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J24" s="11">
         <v>101354</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K24" s="11">
+        <v>18.888086750966192</v>
+      </c>
+      <c r="L24" s="11">
         <v>15.535631502814621</v>
       </c>
-      <c r="L23" s="17">
+      <c r="M24" s="12">
         <v>19.908092076696825</v>
       </c>
     </row>
-    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="9">
+    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="4">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="6">
         <f t="shared" si="2"/>
         <v>1286042</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="6">
         <v>647906</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="6">
         <v>637598</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G25" s="6">
         <v>538</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H25" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>171516</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I25" s="6">
         <v>70673</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J25" s="6">
         <v>100843</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K25" s="6">
+        <v>18.982887674843173</v>
+      </c>
+      <c r="L25" s="6">
         <v>15.606316611861285</v>
       </c>
-      <c r="L24" s="12">
-        <v>20.002412386982062</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="13">
+      <c r="M25" s="7">
+        <v>20.002412386982066</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="8">
         <v>2023</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D26" s="10">
         <f t="shared" si="2"/>
         <v>1279902</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E26" s="11">
         <v>645139</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F26" s="11">
         <v>634226</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G26" s="11">
         <v>537</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H26" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>170681</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I26" s="11">
         <v>70483</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J26" s="11">
         <v>100198</v>
       </c>
-      <c r="K25" s="16">
-        <v>15.688172672998165</v>
-      </c>
-      <c r="L25" s="17">
+      <c r="K26" s="11">
+        <v>19.060761520669001</v>
+      </c>
+      <c r="L26" s="11">
+        <v>15.688172672998164</v>
+      </c>
+      <c r="M26" s="12">
         <v>20.079559598784137</v>
       </c>
     </row>
-    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="9">
+    <row r="27" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="4">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="6">
         <f t="shared" si="2"/>
         <v>1273243</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="6">
         <v>641751</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="6">
         <v>630955</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G27" s="6">
         <v>537</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H27" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>170020</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I27" s="6">
         <v>70335</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J27" s="6">
         <v>99685</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K27" s="6">
+        <v>19.1410877741165</v>
+      </c>
+      <c r="L27" s="6">
         <v>15.757763792495</v>
       </c>
-      <c r="L26" s="12">
+      <c r="M27" s="7">
         <v>20.166095572893536</v>
       </c>
     </row>
-    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="13">
+    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="8">
         <v>2023</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D28" s="10">
         <f t="shared" si="2"/>
         <v>1267813</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E28" s="11">
         <v>639200</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F28" s="11">
         <v>628078</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G28" s="11">
         <v>535</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H28" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>169398</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I28" s="11">
         <v>70212</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J28" s="11">
         <v>99186</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K28" s="11">
+        <v>19.207652247270783</v>
+      </c>
+      <c r="L28" s="11">
         <v>15.818386285552368</v>
       </c>
-      <c r="L27" s="17">
-        <v>20.231362640801002</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="9">
+      <c r="M28" s="12">
+        <v>20.231362640800999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="4">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="6">
         <f t="shared" si="2"/>
         <v>1261816</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="6">
         <v>636167</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="6">
         <v>625114</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G29" s="6">
         <v>535</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H29" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>168270</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I29" s="6">
         <v>70028</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J29" s="6">
         <v>98242</v>
       </c>
-      <c r="K28" s="11">
-        <v>15.924098175551197</v>
-      </c>
-      <c r="L28" s="12">
+      <c r="K29" s="6">
+        <v>19.287032781621644</v>
+      </c>
+      <c r="L29" s="6">
+        <v>15.924098175551196</v>
+      </c>
+      <c r="M29" s="7">
         <v>20.308953466621187</v>
       </c>
     </row>
-    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="18">
+    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="13">
         <v>2023</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C30" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D30" s="15">
         <f t="shared" si="2"/>
         <v>1256959</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E30" s="16">
         <v>633934</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F30" s="16">
         <v>622491</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G30" s="16">
         <v>534</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H30" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>167855</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I30" s="16">
         <v>70043</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J30" s="16">
         <v>97812</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K30" s="16">
+        <v>19.347213328839835</v>
+      </c>
+      <c r="L30" s="16">
         <v>15.971731554019838</v>
       </c>
-      <c r="L29" s="22">
+      <c r="M30" s="17">
         <v>20.368738701505205</v>
       </c>
     </row>
-    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="23">
+    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="18">
         <v>2022</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C31" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D31" s="20">
         <f t="shared" si="2"/>
         <v>1253020</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E31" s="20">
         <v>632252</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F31" s="20">
         <v>620240</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G31" s="20">
         <v>528</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H31" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>167359</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I31" s="20">
         <v>70056</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J31" s="20">
         <v>97303</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K31" s="20">
+        <v>18.42307890053252</v>
+      </c>
+      <c r="L31" s="20">
         <v>15.042250491458482</v>
       </c>
-      <c r="L30" s="26">
-        <v>19.442766491841862</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="13">
+      <c r="M31" s="21">
+        <v>19.442766491841866</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="8">
         <v>2022</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D32" s="10">
         <f t="shared" si="2"/>
         <v>1248052</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E32" s="11">
         <v>629746</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F32" s="11">
         <v>617778</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G32" s="11">
         <v>528</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H32" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>166178</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I32" s="11">
         <v>69821</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J32" s="11">
         <v>96357</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K32" s="11">
+        <v>18.489979500630259</v>
+      </c>
+      <c r="L32" s="11">
         <v>15.145163619733058</v>
       </c>
-      <c r="L31" s="17">
+      <c r="M32" s="12">
         <v>19.503375964277662</v>
       </c>
     </row>
-    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="9">
+    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="4">
         <v>2022</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="6">
         <f t="shared" si="2"/>
         <v>1243495</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E33" s="6">
         <v>627591</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F33" s="6">
         <v>615376</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G33" s="6">
         <v>528</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H33" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>165354</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I33" s="6">
         <v>69675</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J33" s="6">
         <v>95679</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K33" s="6">
+        <v>18.547631541388647</v>
+      </c>
+      <c r="L33" s="6">
         <v>15.219299200503164</v>
       </c>
-      <c r="L32" s="12">
+      <c r="M33" s="7">
         <v>19.558707820857851</v>
       </c>
     </row>
-    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="13">
+    <row r="34" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="8">
         <v>2022</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C34" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D34" s="10">
         <f t="shared" si="2"/>
         <v>1239858</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E34" s="11">
         <v>625802</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F34" s="11">
         <v>613527</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G34" s="11">
         <v>529</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H34" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>164931</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I34" s="11">
         <v>69723</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J34" s="11">
         <v>95208</v>
       </c>
-      <c r="K33" s="16">
-        <v>15.268857886025065</v>
-      </c>
-      <c r="L33" s="17">
+      <c r="K34" s="11">
+        <v>18.59142751342344</v>
+      </c>
+      <c r="L34" s="11">
+        <v>15.268857886025064</v>
+      </c>
+      <c r="M34" s="12">
         <v>19.601036749642859</v>
       </c>
     </row>
-    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="9">
+    <row r="35" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="4">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="6">
         <f t="shared" si="2"/>
         <v>1234757</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="6">
         <v>623225</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F35" s="6">
         <v>611005</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G35" s="6">
         <v>527</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H35" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>166002</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I35" s="6">
         <v>69645</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J35" s="6">
         <v>96357</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K35" s="6">
+        <v>18.633291483125653</v>
+      </c>
+      <c r="L35" s="6">
         <v>15.188636281490584</v>
       </c>
-      <c r="L34" s="12">
+      <c r="M35" s="7">
         <v>19.665687352079907</v>
       </c>
     </row>
-    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="13">
+    <row r="36" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="8">
         <v>2022</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C36" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D36" s="10">
         <f t="shared" si="2"/>
         <v>1227595</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E36" s="11">
         <v>619408</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F36" s="11">
         <v>607662</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G36" s="11">
         <v>525</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H36" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>163526</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I36" s="11">
         <v>69586</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J36" s="11">
         <v>93940</v>
       </c>
-      <c r="K35" s="16">
-        <v>15.421364186734831</v>
-      </c>
-      <c r="L35" s="17">
-        <v>19.756386743471186</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="9">
+      <c r="K36" s="11">
+        <v>18.738775316483004</v>
+      </c>
+      <c r="L36" s="11">
+        <v>15.421364186734833</v>
+      </c>
+      <c r="M36" s="12">
+        <v>19.756386743471182</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="4">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="6">
         <f t="shared" si="2"/>
         <v>1225289</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E37" s="6">
         <v>618040</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F37" s="6">
         <v>606724</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G37" s="6">
         <v>525</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H37" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>163070</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I37" s="6">
         <v>69430</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J37" s="6">
         <v>93640</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K37" s="6">
+        <v>18.751951602280965</v>
+      </c>
+      <c r="L37" s="6">
         <v>15.452272030416385</v>
       </c>
-      <c r="L36" s="12">
+      <c r="M37" s="7">
         <v>19.768709145039157</v>
       </c>
     </row>
-    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="13">
+    <row r="38" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="8">
         <v>2022</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C38" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D38" s="10">
         <f t="shared" si="2"/>
         <v>1222511</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E38" s="11">
         <v>616795</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F38" s="11">
         <v>605191</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G38" s="11">
         <v>525</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H38" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>162777</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I38" s="11">
         <v>69624</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J38" s="11">
         <v>93153</v>
       </c>
-      <c r="K37" s="16">
-        <v>15.510440664221603</v>
-      </c>
-      <c r="L37" s="17">
+      <c r="K38" s="11">
+        <v>18.804625051362581</v>
+      </c>
+      <c r="L38" s="11">
+        <v>15.510440664221605</v>
+      </c>
+      <c r="M38" s="12">
         <v>19.817924918327808</v>
       </c>
     </row>
-    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="9">
+    <row r="39" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="4">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="6">
         <f t="shared" si="2"/>
         <v>1217422</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="6">
         <v>614317</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F39" s="6">
         <v>602581</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G39" s="6">
         <v>524</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H39" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>162245</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I39" s="6">
         <v>69515</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J39" s="6">
         <v>92730</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K39" s="6">
+        <v>18.867667819798235</v>
+      </c>
+      <c r="L39" s="6">
         <v>15.572301149496132</v>
       </c>
-      <c r="L38" s="12">
+      <c r="M39" s="7">
         <v>19.875979339656887</v>
       </c>
     </row>
-    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="13">
+    <row r="40" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="8">
         <v>2022</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C40" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D40" s="10">
         <f t="shared" si="2"/>
         <v>1212635</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E40" s="11">
         <v>611918</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F40" s="11">
         <v>600194</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G40" s="11">
         <v>523</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H40" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>161903</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I40" s="11">
         <v>69487</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J40" s="11">
         <v>92416</v>
       </c>
-      <c r="K39" s="16">
-        <v>15.612731079720573</v>
-      </c>
-      <c r="L39" s="17">
+      <c r="K40" s="11">
+        <v>18.918767990160223</v>
+      </c>
+      <c r="L40" s="11">
+        <v>15.612731079720572</v>
+      </c>
+      <c r="M40" s="12">
         <v>19.925975375785644</v>
       </c>
     </row>
-    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="9">
+    <row r="41" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="4">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="6">
         <f t="shared" si="2"/>
         <v>1207392</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E41" s="6">
         <v>609072</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F41" s="6">
         <v>597797</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G41" s="6">
         <v>523</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H41" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>161179</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I41" s="6">
         <v>69288</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J41" s="6">
         <v>91891</v>
       </c>
-      <c r="K40" s="11">
-        <v>15.690822005348091</v>
-      </c>
-      <c r="L40" s="12">
+      <c r="K41" s="6">
+        <v>18.985056810872138</v>
+      </c>
+      <c r="L41" s="6">
+        <v>15.690822005348092</v>
+      </c>
+      <c r="M41" s="7">
         <v>19.992202892268896</v>
       </c>
     </row>
-    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="18">
+    <row r="42" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="13">
         <v>2022</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C42" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D42" s="15">
         <f t="shared" si="2"/>
         <v>1203679</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E42" s="16">
         <v>607150</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F42" s="16">
         <v>596005</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G42" s="16">
         <v>524</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H42" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>160915</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I42" s="16">
         <v>69335</v>
       </c>
-      <c r="J41" s="21">
+      <c r="J42" s="16">
         <v>91580</v>
       </c>
-      <c r="K41" s="21">
+      <c r="K42" s="16">
+        <v>19.033586986005115</v>
+      </c>
+      <c r="L42" s="16">
         <v>15.723189261411305</v>
       </c>
-      <c r="L41" s="22">
+      <c r="M42" s="17">
         <v>20.040443053611135</v>
       </c>
     </row>
-    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="23">
+    <row r="43" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="18">
         <v>2021</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C43" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D43" s="20">
         <f t="shared" si="2"/>
         <v>1201053</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E43" s="20">
         <v>606090</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F43" s="20">
         <v>594443</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G43" s="20">
         <v>520</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H43" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>160633</v>
       </c>
-      <c r="I42" s="25">
+      <c r="I43" s="20">
         <v>69330</v>
       </c>
-      <c r="J42" s="25">
+      <c r="J43" s="20">
         <v>91303</v>
       </c>
-      <c r="K42" s="25">
+      <c r="K43" s="20">
+        <v>18.104901973748976</v>
+      </c>
+      <c r="L43" s="20">
         <v>14.77932927854177</v>
       </c>
-      <c r="L42" s="26">
+      <c r="M43" s="21">
         <v>19.103214044118861</v>
       </c>
     </row>
-    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="13">
+    <row r="44" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="8">
         <v>2021</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D44" s="10">
         <f t="shared" si="2"/>
         <v>1195350</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E44" s="11">
         <v>603380</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F44" s="11">
         <v>591451</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G44" s="11">
         <v>519</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H44" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>159783</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I44" s="11">
         <v>69196</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J44" s="11">
         <v>90587</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K44" s="11">
+        <v>18.165010106199993</v>
+      </c>
+      <c r="L44" s="11">
         <v>14.853858044973496</v>
       </c>
-      <c r="L43" s="17">
+      <c r="M44" s="12">
         <v>19.159161722297721</v>
       </c>
     </row>
-    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="9">
+    <row r="45" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="4">
         <v>2021</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="6">
         <f t="shared" si="2"/>
         <v>1192781</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E45" s="6">
         <v>602061</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F45" s="6">
         <v>590200</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G45" s="6">
         <v>520</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H45" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>159209</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I45" s="6">
         <v>69167</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J45" s="6">
         <v>90042</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K45" s="6">
+        <v>18.210527795659541</v>
+      </c>
+      <c r="L45" s="6">
         <v>14.91196477586066</v>
       </c>
-      <c r="L44" s="12">
+      <c r="M45" s="7">
         <v>19.201099224164992</v>
       </c>
     </row>
-    <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="13">
+    <row r="46" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="8">
         <v>2021</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C46" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="15">
-        <f t="shared" ref="D45:D76" si="3">SUM(E45:G45)</f>
+      <c r="D46" s="10">
+        <f t="shared" ref="D46:D77" si="3">SUM(E46:G46)</f>
         <v>1186041</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E46" s="11">
         <v>599199</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F46" s="11">
         <v>586326</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G46" s="11">
         <v>516</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H46" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>158594</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I46" s="11">
         <v>69024</v>
       </c>
-      <c r="J45" s="16">
+      <c r="J46" s="11">
         <v>89570</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K46" s="11">
+        <v>18.280978841903135</v>
+      </c>
+      <c r="L46" s="11">
         <v>14.981991752525316</v>
       </c>
-      <c r="L45" s="17">
+      <c r="M46" s="12">
         <v>19.262381946565331</v>
       </c>
     </row>
-    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="9">
+    <row r="47" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="4">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="6">
         <f t="shared" si="3"/>
         <v>1182334</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="6">
         <v>597975</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F47" s="6">
         <v>583854</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G47" s="6">
         <v>505</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H47" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157584</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I47" s="6">
         <v>68967</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J47" s="6">
         <v>88617</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K47" s="6">
+        <v>18.343313078191716</v>
+      </c>
+      <c r="L47" s="6">
         <v>15.069702507868818</v>
       </c>
-      <c r="L46" s="12">
+      <c r="M47" s="7">
         <v>19.317817634516494</v>
       </c>
     </row>
-    <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="13">
+    <row r="48" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="8">
         <v>2021</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D48" s="10">
         <f t="shared" si="3"/>
         <v>1175907</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E48" s="11">
         <v>594590</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F48" s="11">
         <v>580812</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G48" s="11">
         <v>505</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H48" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157806</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I48" s="11">
         <v>69051</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J48" s="11">
         <v>88755</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K48" s="11">
+        <v>18.386941872536017</v>
+      </c>
+      <c r="L48" s="11">
         <v>15.078070542311446</v>
       </c>
-      <c r="L47" s="17">
+      <c r="M48" s="12">
         <v>19.364975865722599</v>
       </c>
     </row>
-    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="9">
+    <row r="49" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="4">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="6">
         <f t="shared" si="3"/>
         <v>1172788</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E49" s="6">
         <v>593307</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F49" s="6">
         <v>578970</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G49" s="6">
         <v>511</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H49" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157163</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I49" s="6">
         <v>68993</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J49" s="6">
         <v>88170</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K49" s="6">
+        <v>18.439486550728127</v>
+      </c>
+      <c r="L49" s="6">
         <v>15.1151861443215</v>
       </c>
-      <c r="L48" s="12">
+      <c r="M49" s="7">
         <v>19.410730026782087</v>
       </c>
     </row>
-    <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="13">
+    <row r="50" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="8">
         <v>2021</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C50" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D50" s="10">
         <f t="shared" si="3"/>
         <v>1166805</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E50" s="11">
         <v>590245</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F50" s="11">
         <v>576050</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G50" s="11">
         <v>510</v>
       </c>
-      <c r="H49" s="16">
+      <c r="H50" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156786</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I50" s="11">
         <v>69018</v>
       </c>
-      <c r="J49" s="16">
+      <c r="J50" s="11">
         <v>87768</v>
       </c>
-      <c r="K49" s="16">
+      <c r="K50" s="11">
+        <v>18.504217806770711</v>
+      </c>
+      <c r="L50" s="11">
         <v>15.155396527751202</v>
       </c>
-      <c r="L49" s="17">
-        <v>19.481235758032682</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="9">
+      <c r="M50" s="12">
+        <v>19.481235758032678</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="4">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="6">
         <f t="shared" si="3"/>
         <v>1162463</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="6">
         <v>588077</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F51" s="6">
         <v>573877</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G51" s="6">
         <v>509</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H51" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156695</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I51" s="6">
         <v>69223</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J51" s="6">
         <v>87472</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K51" s="6">
+        <v>18.555855273086319</v>
+      </c>
+      <c r="L51" s="6">
         <v>15.176859504132231</v>
       </c>
-      <c r="L50" s="12">
+      <c r="M51" s="7">
         <v>19.539313729324562</v>
       </c>
     </row>
-    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="13">
+    <row r="52" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="8">
         <v>2021</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C52" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D52" s="10">
         <f t="shared" si="3"/>
         <v>1157730</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E52" s="11">
         <v>586093</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F52" s="11">
         <v>571129</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G52" s="11">
         <v>508</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H52" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156467</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I52" s="11">
         <v>69334</v>
       </c>
-      <c r="J51" s="16">
+      <c r="J52" s="11">
         <v>87133</v>
       </c>
-      <c r="K51" s="16">
-        <v>15.205474636824379</v>
-      </c>
-      <c r="L51" s="17">
+      <c r="K52" s="11">
+        <v>18.610992403833784</v>
+      </c>
+      <c r="L52" s="11">
+        <v>15.20547463682438</v>
+      </c>
+      <c r="M52" s="12">
         <v>19.591187746654541</v>
       </c>
     </row>
-    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="9">
+    <row r="53" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="4">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="6">
         <f t="shared" si="3"/>
         <v>1151624</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E53" s="6">
         <v>583440</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F53" s="6">
         <v>567677</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G53" s="6">
         <v>507</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H53" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156128</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I53" s="6">
         <v>69352</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J53" s="6">
         <v>86776</v>
       </c>
-      <c r="K52" s="11">
-        <v>15.246899979503997</v>
-      </c>
-      <c r="L52" s="12">
+      <c r="K53" s="6">
+        <v>18.682593545968817</v>
+      </c>
+      <c r="L53" s="6">
+        <v>15.246899979503995</v>
+      </c>
+      <c r="M53" s="7">
         <v>19.65870183737831</v>
       </c>
     </row>
-    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="18">
+    <row r="54" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="13">
         <v>2021</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C54" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D54" s="15">
         <f t="shared" si="3"/>
         <v>1146962</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E54" s="16">
         <v>581299</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F54" s="16">
         <v>565156</v>
       </c>
-      <c r="G53" s="21">
+      <c r="G54" s="16">
         <v>507</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H54" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156135</v>
       </c>
-      <c r="I53" s="21">
+      <c r="I54" s="16">
         <v>69558</v>
       </c>
-      <c r="J53" s="21">
+      <c r="J54" s="16">
         <v>86577</v>
       </c>
-      <c r="K53" s="21">
+      <c r="K54" s="16">
+        <v>18.737382445742711</v>
+      </c>
+      <c r="L54" s="16">
         <v>15.270791302398566</v>
       </c>
-      <c r="L53" s="22">
+      <c r="M54" s="17">
         <v>19.71498144672535</v>
       </c>
     </row>
-    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="23">
+    <row r="55" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="18">
         <v>2020</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C55" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="25">
+      <c r="D55" s="20">
         <f t="shared" si="3"/>
         <v>1143940</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E55" s="20">
         <v>580035</v>
       </c>
-      <c r="F54" s="25">
+      <c r="F55" s="20">
         <v>563400</v>
       </c>
-      <c r="G54" s="25">
+      <c r="G55" s="20">
         <v>505</v>
       </c>
-      <c r="H54" s="25">
+      <c r="H55" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156064</v>
       </c>
-      <c r="I54" s="25">
+      <c r="I55" s="20">
         <v>69624</v>
       </c>
-      <c r="J54" s="25">
+      <c r="J55" s="20">
         <v>86440</v>
       </c>
-      <c r="K54" s="25">
+      <c r="K55" s="20">
+        <v>17.787893642088221</v>
+      </c>
+      <c r="L55" s="20">
         <v>14.291950738158704</v>
       </c>
-      <c r="L54" s="26">
+      <c r="M55" s="21">
         <v>18.763405656555207</v>
       </c>
     </row>
-    <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="13">
+    <row r="56" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="8">
         <v>2020</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D56" s="10">
         <f t="shared" si="3"/>
         <v>1137719</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E56" s="11">
         <v>576835</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F56" s="11">
         <v>560383</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G56" s="11">
         <v>501</v>
       </c>
-      <c r="H55" s="16">
+      <c r="H56" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>155330</v>
       </c>
-      <c r="I55" s="16">
+      <c r="I56" s="11">
         <v>69641</v>
       </c>
-      <c r="J55" s="16">
+      <c r="J56" s="11">
         <v>85689</v>
       </c>
-      <c r="K55" s="16">
+      <c r="K56" s="11">
+        <v>17.860964544450187</v>
+      </c>
+      <c r="L56" s="11">
         <v>14.359087104873495</v>
       </c>
-      <c r="L55" s="17">
+      <c r="M56" s="12">
         <v>18.843092045385596</v>
       </c>
     </row>
-    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="9">
+    <row r="57" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="4">
         <v>2020</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="6">
         <f t="shared" si="3"/>
         <v>1131496</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E57" s="6">
         <v>574056</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F57" s="6">
         <v>556941</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G57" s="6">
         <v>499</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H57" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154998</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I57" s="6">
         <v>69581</v>
       </c>
-      <c r="J56" s="11">
+      <c r="J57" s="6">
         <v>85417</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K57" s="6">
+        <v>17.931151365285245</v>
+      </c>
+      <c r="L57" s="6">
         <v>14.401392276029368</v>
       </c>
-      <c r="L56" s="12">
+      <c r="M57" s="7">
         <v>18.916173683403709</v>
       </c>
     </row>
-    <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="13">
+    <row r="58" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="8">
         <v>2020</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D58" s="10">
         <f t="shared" si="3"/>
         <v>1124473</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E58" s="11">
         <v>571367</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F58" s="11">
         <v>552611</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G58" s="11">
         <v>495</v>
       </c>
-      <c r="H57" s="16">
+      <c r="H58" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154974</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I58" s="11">
         <v>69802</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J58" s="11">
         <v>85172</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K58" s="11">
+        <v>18.015470478954644</v>
+      </c>
+      <c r="L58" s="11">
         <v>14.418154012931202</v>
       </c>
-      <c r="L57" s="17">
-        <v>18.991473081224502</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="9">
+      <c r="M58" s="12">
+        <v>18.991473081224505</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="4">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="6">
         <f t="shared" si="3"/>
         <v>1119301</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="6">
         <v>569174</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F59" s="6">
         <v>549631</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G59" s="6">
         <v>496</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H59" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>155005</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I59" s="6">
         <v>69935</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J59" s="6">
         <v>85070</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K59" s="6">
+        <v>18.074266962890857</v>
+      </c>
+      <c r="L59" s="6">
         <v>14.424315344666301</v>
       </c>
-      <c r="L58" s="12">
+      <c r="M59" s="7">
         <v>19.054786409779787</v>
       </c>
     </row>
-    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="13">
+    <row r="60" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="8">
         <v>2020</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D60" s="10">
         <f t="shared" si="3"/>
         <v>1115206</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E60" s="11">
         <v>567168</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F60" s="11">
         <v>547540</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G60" s="11">
         <v>498</v>
       </c>
-      <c r="H59" s="16">
+      <c r="H60" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154854</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I60" s="11">
         <v>69936</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J60" s="11">
         <v>84918</v>
       </c>
-      <c r="K59" s="16">
-        <v>14.441519108321387</v>
-      </c>
-      <c r="L59" s="17">
+      <c r="K60" s="11">
+        <v>18.123512676025275</v>
+      </c>
+      <c r="L60" s="11">
+        <v>14.441519108321389</v>
+      </c>
+      <c r="M60" s="12">
         <v>19.111048225569849</v>
       </c>
     </row>
-    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="9">
+    <row r="61" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="4">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="6">
         <f t="shared" si="3"/>
         <v>1112456</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E61" s="6">
         <v>566042</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F61" s="6">
         <v>545916</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G61" s="6">
         <v>498</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H61" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154797</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I61" s="6">
         <v>69959</v>
       </c>
-      <c r="J60" s="11">
+      <c r="J61" s="6">
         <v>84838</v>
       </c>
-      <c r="K60" s="11">
-        <v>14.450499686686435</v>
-      </c>
-      <c r="L60" s="12">
+      <c r="K61" s="6">
+        <v>18.154673950369251</v>
+      </c>
+      <c r="L61" s="6">
+        <v>14.450499686686436</v>
+      </c>
+      <c r="M61" s="7">
         <v>19.140800505969523</v>
       </c>
     </row>
-    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="13">
+    <row r="62" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="8">
         <v>2020</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C62" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D62" s="10">
         <f t="shared" si="3"/>
         <v>1111879</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E62" s="11">
         <v>565980</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F62" s="11">
         <v>545400</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G62" s="11">
         <v>499</v>
       </c>
-      <c r="H61" s="16">
+      <c r="H62" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154663</v>
       </c>
-      <c r="I61" s="16">
+      <c r="I62" s="11">
         <v>69945</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J62" s="11">
         <v>84718</v>
       </c>
-      <c r="K61" s="16">
+      <c r="K62" s="11">
+        <v>18.164229808940139</v>
+      </c>
+      <c r="L62" s="11">
         <v>14.46115101866639</v>
       </c>
-      <c r="L61" s="17">
+      <c r="M62" s="12">
         <v>19.144045725997383</v>
       </c>
     </row>
-    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="9">
+    <row r="63" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="4">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="6">
         <f t="shared" si="3"/>
         <v>1111626</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="6">
         <v>565883</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F63" s="6">
         <v>545244</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G63" s="6">
         <v>499</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H63" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154659</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I63" s="6">
         <v>69947</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J63" s="6">
         <v>84712</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K63" s="6">
+        <v>18.16685047867491</v>
+      </c>
+      <c r="L63" s="6">
         <v>14.461473305788864</v>
       </c>
-      <c r="L62" s="12">
+      <c r="M63" s="7">
         <v>19.146164489832703</v>
       </c>
     </row>
-    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="13">
+    <row r="64" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="8">
         <v>2020</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C64" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D64" s="10">
         <f t="shared" si="3"/>
         <v>1111436</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E64" s="11">
         <v>565809</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F64" s="11">
         <v>545128</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G64" s="11">
         <v>499</v>
       </c>
-      <c r="H63" s="16">
+      <c r="H64" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154670</v>
       </c>
-      <c r="I63" s="16">
+      <c r="I64" s="11">
         <v>69953</v>
       </c>
-      <c r="J63" s="16">
+      <c r="J64" s="11">
         <v>84717</v>
       </c>
-      <c r="K63" s="16">
+      <c r="K64" s="11">
+        <v>18.1697391054253</v>
+      </c>
+      <c r="L64" s="11">
         <v>14.461059028900239</v>
       </c>
-      <c r="L63" s="17">
+      <c r="M64" s="12">
         <v>19.148813468856098</v>
       </c>
     </row>
-    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="9">
+    <row r="65" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="4">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="6">
         <f t="shared" si="3"/>
         <v>1107180</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="6">
         <v>564089</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F65" s="6">
         <v>542595</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G65" s="6">
         <v>496</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H65" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154310</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I65" s="6">
         <v>69893</v>
       </c>
-      <c r="J64" s="11">
+      <c r="J65" s="6">
         <v>84417</v>
       </c>
-      <c r="K64" s="11">
-        <v>14.507322921392003</v>
-      </c>
-      <c r="L64" s="12">
+      <c r="K65" s="6">
+        <v>18.222653716036714</v>
+      </c>
+      <c r="L65" s="6">
+        <v>14.507322921392005</v>
+      </c>
+      <c r="M65" s="7">
         <v>19.193769068356236</v>
       </c>
     </row>
-    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="18">
+    <row r="66" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="13">
         <v>2020</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C66" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D66" s="15">
         <f t="shared" si="3"/>
         <v>1102434</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E66" s="16">
         <v>562170</v>
       </c>
-      <c r="F65" s="21">
+      <c r="F66" s="16">
         <v>539768</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G66" s="16">
         <v>496</v>
       </c>
-      <c r="H65" s="21">
+      <c r="H66" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>153904</v>
       </c>
-      <c r="I65" s="21">
+      <c r="I66" s="16">
         <v>69851</v>
       </c>
-      <c r="J65" s="21">
+      <c r="J66" s="16">
         <v>84053</v>
       </c>
-      <c r="K65" s="21">
-        <v>14.558120646636899</v>
-      </c>
-      <c r="L65" s="22">
+      <c r="K66" s="16">
+        <v>18.280507420519459</v>
+      </c>
+      <c r="L66" s="16">
+        <v>14.558120646636864</v>
+      </c>
+      <c r="M66" s="17">
         <v>19.246057242471139</v>
       </c>
     </row>
-    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="23">
+    <row r="67" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="18">
         <v>2019</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C67" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="25">
+      <c r="D67" s="20">
         <f t="shared" si="3"/>
         <v>1099371</v>
       </c>
-      <c r="E66" s="25">
+      <c r="E67" s="20">
         <v>561061</v>
       </c>
-      <c r="F66" s="25">
+      <c r="F67" s="20">
         <v>537813</v>
       </c>
-      <c r="G66" s="25">
+      <c r="G67" s="20">
         <v>497</v>
       </c>
-      <c r="H66" s="25">
+      <c r="H67" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>153726</v>
       </c>
-      <c r="I66" s="25">
+      <c r="I67" s="20">
         <v>69871</v>
       </c>
-      <c r="J66" s="25">
+      <c r="J67" s="20">
         <v>83855</v>
       </c>
-      <c r="K66" s="25">
-        <v>13.608641348893485</v>
-      </c>
-      <c r="L66" s="26">
+      <c r="K67" s="20">
+        <v>17.338868752993772</v>
+      </c>
+      <c r="L67" s="20">
+        <v>13.608641348893483</v>
+      </c>
+      <c r="M67" s="21">
         <v>18.302218475352948</v>
       </c>
     </row>
-    <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="13">
+    <row r="68" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="8">
         <v>2019</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C68" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D68" s="10">
         <f t="shared" si="3"/>
         <v>1094843</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E68" s="11">
         <v>558626</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F68" s="11">
         <v>535724</v>
       </c>
-      <c r="G67" s="16">
+      <c r="G68" s="11">
         <v>493</v>
       </c>
-      <c r="H67" s="16">
+      <c r="H68" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>152624</v>
       </c>
-      <c r="I67" s="16">
+      <c r="I68" s="11">
         <v>69534</v>
       </c>
-      <c r="J67" s="16">
+      <c r="J68" s="11">
         <v>83090</v>
       </c>
-      <c r="K67" s="16">
-        <v>13.697282209875249</v>
-      </c>
-      <c r="L67" s="17">
+      <c r="K68" s="11">
+        <v>17.393954485017328</v>
+      </c>
+      <c r="L68" s="11">
+        <v>13.697282209875247</v>
+      </c>
+      <c r="M68" s="12">
         <v>18.357969374859028</v>
       </c>
     </row>
-    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="9">
+    <row r="69" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="4">
         <v>2019</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="6">
         <f t="shared" si="3"/>
         <v>1089907</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E69" s="6">
         <v>556346</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F69" s="6">
         <v>533069</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G69" s="6">
         <v>492</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H69" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>151838</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I69" s="6">
         <v>69318</v>
       </c>
-      <c r="J68" s="11">
+      <c r="J69" s="6">
         <v>82520</v>
       </c>
-      <c r="K68" s="11">
-        <v>13.773673257023933</v>
-      </c>
-      <c r="L68" s="12">
+      <c r="K69" s="6">
+        <v>17.456851262393727</v>
+      </c>
+      <c r="L69" s="6">
+        <v>13.773673257023932</v>
+      </c>
+      <c r="M69" s="7">
         <v>18.416267933983526</v>
       </c>
     </row>
-    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="13">
+    <row r="70" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="8">
         <v>2019</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C70" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D70" s="10">
         <f t="shared" si="3"/>
         <v>1026253</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E70" s="11">
         <v>519860</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F70" s="11">
         <v>505944</v>
       </c>
-      <c r="G69" s="16">
+      <c r="G70" s="11">
         <v>449</v>
       </c>
-      <c r="H69" s="16">
+      <c r="H70" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134666</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I70" s="11">
         <v>59103</v>
       </c>
-      <c r="J69" s="16">
+      <c r="J70" s="11">
         <v>75563</v>
       </c>
-      <c r="K69" s="16">
-        <v>13.265634978390983</v>
-      </c>
-      <c r="L69" s="17">
-        <v>18.202425653060438</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="9">
+      <c r="K70" s="11">
+        <v>17.271427094194593</v>
+      </c>
+      <c r="L70" s="11">
+        <v>13.265634978390985</v>
+      </c>
+      <c r="M70" s="12">
+        <v>18.202425653060441</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="4">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="6">
         <f t="shared" si="3"/>
         <v>1021601</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="6">
         <v>517666</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="6">
         <v>503486</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G71" s="6">
         <v>449</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H71" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134177</v>
       </c>
-      <c r="I70" s="11">
+      <c r="I71" s="6">
         <v>58996</v>
       </c>
-      <c r="J70" s="11">
+      <c r="J71" s="6">
         <v>75181</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K71" s="6">
+        <v>17.331093567286896</v>
+      </c>
+      <c r="L71" s="6">
         <v>13.321195137765788</v>
       </c>
-      <c r="L70" s="12">
+      <c r="M71" s="7">
         <v>18.260312634014984</v>
       </c>
     </row>
-    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="13">
+    <row r="72" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="8">
         <v>2019</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C72" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D72" s="10">
         <f t="shared" si="3"/>
         <v>1012889</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E72" s="11">
         <v>514393</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F72" s="11">
         <v>498050</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G72" s="11">
         <v>446</v>
       </c>
-      <c r="H71" s="16">
+      <c r="H72" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134315</v>
       </c>
-      <c r="I71" s="16">
+      <c r="I72" s="11">
         <v>59818</v>
       </c>
-      <c r="J71" s="16">
+      <c r="J72" s="11">
         <v>74497</v>
       </c>
-      <c r="K71" s="16">
+      <c r="K72" s="11">
+        <v>17.523646663027421</v>
+      </c>
+      <c r="L72" s="11">
         <v>13.572348583553588</v>
       </c>
-      <c r="L71" s="17">
+      <c r="M72" s="12">
         <v>18.476849412803052</v>
       </c>
     </row>
-    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="9">
+    <row r="73" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="4">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="6">
         <f t="shared" si="3"/>
         <v>1011042</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E73" s="6">
         <v>512802</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F73" s="6">
         <v>497796</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G73" s="6">
         <v>444</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H73" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>132861</v>
       </c>
-      <c r="I72" s="11">
+      <c r="I73" s="6">
         <v>58917</v>
       </c>
-      <c r="J72" s="11">
+      <c r="J73" s="6">
         <v>73944</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K73" s="6">
+        <v>17.474399169537342</v>
+      </c>
+      <c r="L73" s="6">
         <v>13.491144880740022</v>
       </c>
-      <c r="L72" s="12">
+      <c r="M73" s="7">
         <v>18.398711393481303</v>
       </c>
     </row>
-    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="13">
+    <row r="74" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="8">
         <v>2019</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C74" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D74" s="10">
         <f t="shared" si="3"/>
         <v>1006543</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E74" s="11">
         <v>506850</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F74" s="11">
         <v>499239</v>
       </c>
-      <c r="G73" s="16">
+      <c r="G74" s="11">
         <v>454</v>
       </c>
-      <c r="H73" s="16">
+      <c r="H74" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>133322</v>
       </c>
-      <c r="I73" s="16">
+      <c r="I74" s="11">
         <v>58537</v>
       </c>
-      <c r="J73" s="16">
+      <c r="J74" s="11">
         <v>74785</v>
       </c>
-      <c r="K73" s="16">
-        <v>12.551904411875009</v>
-      </c>
-      <c r="L73" s="17">
+      <c r="K74" s="11">
+        <v>17.005059631686898</v>
+      </c>
+      <c r="L74" s="11">
+        <v>12.551904411875007</v>
+      </c>
+      <c r="M74" s="12">
         <v>17.760755647627501</v>
       </c>
     </row>
-    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="9">
+    <row r="75" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="4">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="6">
         <f t="shared" si="3"/>
         <v>1000820</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="6">
         <v>504046</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="6">
         <v>496323</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G75" s="6">
         <v>451</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H75" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>132406</v>
       </c>
-      <c r="I74" s="11">
+      <c r="I75" s="6">
         <v>58289</v>
       </c>
-      <c r="J74" s="11">
+      <c r="J75" s="6">
         <v>74117</v>
       </c>
-      <c r="K74" s="11">
+      <c r="K75" s="6">
+        <v>17.079096025247733</v>
+      </c>
+      <c r="L75" s="6">
         <v>12.619949247012975</v>
       </c>
-      <c r="L74" s="12">
+      <c r="M75" s="7">
         <v>17.838770667756513</v>
       </c>
     </row>
-    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="13">
+    <row r="76" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="8">
         <v>2019</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C76" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D76" s="10">
         <f t="shared" si="3"/>
         <v>995167</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E76" s="11">
         <v>501424</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F76" s="11">
         <v>493291</v>
       </c>
-      <c r="G75" s="16">
+      <c r="G76" s="11">
         <v>452</v>
       </c>
-      <c r="H75" s="16">
+      <c r="H76" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>131276</v>
       </c>
-      <c r="I75" s="16">
+      <c r="I76" s="11">
         <v>57933</v>
       </c>
-      <c r="J75" s="16">
+      <c r="J76" s="11">
         <v>73343</v>
       </c>
-      <c r="K75" s="16">
+      <c r="K76" s="11">
+        <v>17.153564282485384</v>
+      </c>
+      <c r="L76" s="11">
         <v>12.722576860964685</v>
       </c>
-      <c r="L75" s="17">
+      <c r="M76" s="12">
         <v>17.901807651807651</v>
       </c>
     </row>
-    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="9">
+    <row r="77" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="4">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="6">
         <f t="shared" si="3"/>
         <v>990002</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E77" s="6">
         <v>499221</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F77" s="6">
         <v>490327</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G77" s="6">
         <v>454</v>
       </c>
-      <c r="H76" s="11">
+      <c r="H77" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>130579</v>
       </c>
-      <c r="I76" s="11">
+      <c r="I77" s="6">
         <v>57862</v>
       </c>
-      <c r="J76" s="11">
+      <c r="J77" s="6">
         <v>72717</v>
       </c>
-      <c r="K76" s="11">
-        <v>12.793971465549591</v>
-      </c>
-      <c r="L76" s="12">
+      <c r="K77" s="6">
+        <v>17.220458930103462</v>
+      </c>
+      <c r="L77" s="6">
+        <v>12.793971465549593</v>
+      </c>
+      <c r="M77" s="7">
         <v>17.958405195294269</v>
       </c>
     </row>
-    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="18">
+    <row r="78" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="13">
         <v>2019</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C78" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="20">
-        <f t="shared" ref="D77:D89" si="4">SUM(E77:G77)</f>
+      <c r="D78" s="15">
+        <f t="shared" ref="D78:D90" si="4">SUM(E78:G78)</f>
         <v>985713</v>
       </c>
-      <c r="E77" s="21">
+      <c r="E78" s="16">
         <v>497141</v>
       </c>
-      <c r="F77" s="21">
+      <c r="F78" s="16">
         <v>488120</v>
       </c>
-      <c r="G77" s="21">
+      <c r="G78" s="16">
         <v>452</v>
       </c>
-      <c r="H77" s="21">
+      <c r="H78" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>129833</v>
       </c>
-      <c r="I77" s="21">
+      <c r="I78" s="16">
         <v>57647</v>
       </c>
-      <c r="J77" s="21">
+      <c r="J78" s="16">
         <v>72186</v>
       </c>
-      <c r="K77" s="21">
+      <c r="K78" s="16">
+        <v>17.272496309728147</v>
+      </c>
+      <c r="L78" s="16">
         <v>12.85511387705745</v>
       </c>
-      <c r="L77" s="22">
+      <c r="M78" s="17">
         <v>18.009015550920161</v>
       </c>
     </row>
-    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="23">
+    <row r="79" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="18">
         <v>2018</v>
       </c>
-      <c r="C78" s="24" t="s">
+      <c r="C79" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D78" s="25">
+      <c r="D79" s="20">
         <f t="shared" si="4"/>
         <v>982856</v>
       </c>
-      <c r="E78" s="25">
+      <c r="E79" s="20">
         <v>496057</v>
       </c>
-      <c r="F78" s="25">
+      <c r="F79" s="20">
         <v>486335</v>
       </c>
-      <c r="G78" s="25">
+      <c r="G79" s="20">
         <v>464</v>
       </c>
-      <c r="H78" s="25">
+      <c r="H79" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>129315</v>
       </c>
-      <c r="I78" s="25">
+      <c r="I79" s="20">
         <v>57599</v>
       </c>
-      <c r="J78" s="25">
+      <c r="J79" s="20">
         <v>71716</v>
       </c>
-      <c r="K78" s="25">
+      <c r="K79" s="20">
+        <v>15.55</v>
+      </c>
+      <c r="L79" s="20">
         <v>11.5</v>
       </c>
-      <c r="L78" s="26">
+      <c r="M79" s="21">
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="13">
+    <row r="80" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="8">
         <v>2018</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C80" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D80" s="10">
         <f t="shared" si="4"/>
         <v>978058</v>
       </c>
-      <c r="E79" s="16">
+      <c r="E80" s="11">
         <v>493248</v>
       </c>
-      <c r="F79" s="16">
+      <c r="F80" s="11">
         <v>484343</v>
       </c>
-      <c r="G79" s="16">
+      <c r="G80" s="11">
         <v>467</v>
       </c>
-      <c r="H79" s="16">
+      <c r="H80" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>127995</v>
       </c>
-      <c r="I79" s="16">
+      <c r="I80" s="11">
         <v>57117</v>
       </c>
-      <c r="J79" s="16">
+      <c r="J80" s="11">
         <v>70878</v>
       </c>
-      <c r="K79" s="16">
-        <v>11.579603101683661</v>
-      </c>
-      <c r="L79" s="17">
+      <c r="K80" s="11">
+        <v>15.611125202215558</v>
+      </c>
+      <c r="L80" s="11">
+        <v>11.579603101683659</v>
+      </c>
+      <c r="M80" s="12">
         <v>16.657281844021668</v>
       </c>
     </row>
-    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="9">
+    <row r="81" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="4">
         <v>2018</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="6">
         <f t="shared" si="4"/>
         <v>971514</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E81" s="6">
         <v>489853</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F81" s="6">
         <v>481195</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G81" s="6">
         <v>466</v>
       </c>
-      <c r="H80" s="11">
+      <c r="H81" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>126537</v>
       </c>
-      <c r="I80" s="11">
+      <c r="I81" s="6">
         <v>56599</v>
       </c>
-      <c r="J80" s="11">
+      <c r="J81" s="6">
         <v>69938</v>
       </c>
-      <c r="K80" s="11">
+      <c r="K81" s="6">
+        <v>15.692013983030227</v>
+      </c>
+      <c r="L81" s="6">
         <v>11.695425480294306</v>
       </c>
-      <c r="L80" s="12">
+      <c r="M81" s="7">
         <v>16.724397819345807</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="13">
+    <row r="82" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="8">
         <v>2018</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C82" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D82" s="10">
         <f t="shared" si="4"/>
         <v>965544</v>
       </c>
-      <c r="E81" s="16">
+      <c r="E82" s="11">
         <v>486879</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F82" s="11">
         <v>478202</v>
       </c>
-      <c r="G81" s="16">
+      <c r="G82" s="11">
         <v>463</v>
       </c>
-      <c r="H81" s="16">
+      <c r="H82" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>125592</v>
       </c>
-      <c r="I81" s="16">
+      <c r="I82" s="11">
         <v>56443</v>
       </c>
-      <c r="J81" s="16">
+      <c r="J82" s="11">
         <v>69149</v>
       </c>
-      <c r="K81" s="16">
+      <c r="K82" s="11">
+        <v>15.766115172800014</v>
+      </c>
+      <c r="L82" s="11">
         <v>11.775922614497736</v>
       </c>
-      <c r="L81" s="17">
+      <c r="M82" s="12">
         <v>16.795398144097401</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="9">
+    <row r="83" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="4">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="6">
         <f t="shared" si="4"/>
         <v>960111</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="6">
         <v>483912</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="6">
         <v>475735</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G83" s="6">
         <v>464</v>
       </c>
-      <c r="H82" s="11">
+      <c r="H83" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>124463</v>
       </c>
-      <c r="I82" s="11">
+      <c r="I83" s="6">
         <v>56029</v>
       </c>
-      <c r="J82" s="11">
+      <c r="J83" s="6">
         <v>68434</v>
       </c>
-      <c r="K82" s="11">
+      <c r="K83" s="6">
+        <v>15.828890174645572</v>
+      </c>
+      <c r="L83" s="6">
         <v>11.859889509332092</v>
       </c>
-      <c r="L82" s="12">
+      <c r="M83" s="7">
         <v>16.84972398287292</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="13">
+    <row r="84" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="8">
         <v>2018</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C84" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D84" s="10">
         <f t="shared" si="4"/>
         <v>953323</v>
       </c>
-      <c r="E83" s="16">
+      <c r="E84" s="11">
         <v>480495</v>
       </c>
-      <c r="F83" s="16">
+      <c r="F84" s="11">
         <v>472364</v>
       </c>
-      <c r="G83" s="16">
+      <c r="G84" s="11">
         <v>464</v>
       </c>
-      <c r="H83" s="16">
+      <c r="H84" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>123737</v>
       </c>
-      <c r="I83" s="16">
+      <c r="I84" s="11">
         <v>55960</v>
       </c>
-      <c r="J83" s="16">
+      <c r="J84" s="11">
         <v>67777</v>
       </c>
-      <c r="K83" s="16">
-        <v>11.930278889903581</v>
-      </c>
-      <c r="L83" s="17">
+      <c r="K84" s="11">
+        <v>15.900131480954339</v>
+      </c>
+      <c r="L84" s="11">
+        <v>11.93027888990358</v>
+      </c>
+      <c r="M84" s="12">
         <v>16.922447322032493</v>
       </c>
     </row>
-    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="9">
+    <row r="85" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="4">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="6">
         <f t="shared" si="4"/>
         <v>947851</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="6">
         <v>477880</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F85" s="6">
         <v>469513</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G85" s="6">
         <v>458</v>
       </c>
-      <c r="H84" s="11">
+      <c r="H85" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>122946</v>
       </c>
-      <c r="I84" s="11">
+      <c r="I85" s="6">
         <v>55790</v>
       </c>
-      <c r="J84" s="11">
+      <c r="J85" s="6">
         <v>67156</v>
       </c>
-      <c r="K84" s="11">
+      <c r="K85" s="6">
+        <v>15.97</v>
+      </c>
+      <c r="L85" s="6">
         <v>12.01</v>
       </c>
-      <c r="L84" s="12">
+      <c r="M85" s="7">
         <v>16.98</v>
       </c>
     </row>
-    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="13">
+    <row r="86" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="8">
         <v>2018</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C86" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D86" s="10">
         <f t="shared" si="4"/>
         <v>944527</v>
       </c>
-      <c r="E85" s="16">
+      <c r="E86" s="11">
         <v>476241</v>
       </c>
-      <c r="F85" s="16">
+      <c r="F86" s="11">
         <v>467827</v>
       </c>
-      <c r="G85" s="16">
+      <c r="G86" s="11">
         <v>459</v>
       </c>
-      <c r="H85" s="16">
+      <c r="H86" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>122105</v>
       </c>
-      <c r="I85" s="16">
+      <c r="I86" s="11">
         <v>55617</v>
       </c>
-      <c r="J85" s="16">
+      <c r="J86" s="11">
         <v>66488</v>
       </c>
-      <c r="K85" s="16">
+      <c r="K86" s="11">
+        <v>16.02</v>
+      </c>
+      <c r="L86" s="11">
         <v>12.1</v>
       </c>
-      <c r="L85" s="17">
+      <c r="M86" s="12">
         <v>17.03</v>
       </c>
     </row>
-    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="9">
+    <row r="87" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="4">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="6">
         <f t="shared" si="4"/>
         <v>936533</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E87" s="6">
         <v>472271</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F87" s="6">
         <v>463807</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G87" s="6">
         <v>455</v>
       </c>
-      <c r="H86" s="11">
+      <c r="H87" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>121075</v>
       </c>
-      <c r="I86" s="11">
+      <c r="I87" s="6">
         <v>55199</v>
       </c>
-      <c r="J86" s="11">
+      <c r="J87" s="6">
         <v>65876</v>
       </c>
-      <c r="K86" s="11">
+      <c r="K87" s="6">
+        <v>16.09</v>
+      </c>
+      <c r="L87" s="6">
         <v>12.15</v>
       </c>
-      <c r="L86" s="12">
+      <c r="M87" s="7">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="87" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="13">
+    <row r="88" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="8">
         <v>2018</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C88" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="15">
+      <c r="D88" s="10">
         <f t="shared" si="4"/>
         <v>930205</v>
       </c>
-      <c r="E87" s="16">
+      <c r="E88" s="11">
         <v>469020</v>
       </c>
-      <c r="F87" s="16">
+      <c r="F88" s="11">
         <v>460731</v>
       </c>
-      <c r="G87" s="16">
+      <c r="G88" s="11">
         <v>454</v>
       </c>
-      <c r="H87" s="16">
+      <c r="H88" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>120039</v>
       </c>
-      <c r="I87" s="16">
+      <c r="I88" s="11">
         <v>54921</v>
       </c>
-      <c r="J87" s="16">
+      <c r="J88" s="11">
         <v>65118</v>
       </c>
-      <c r="K87" s="16">
+      <c r="K88" s="11">
+        <v>16.160723713583874</v>
+      </c>
+      <c r="L88" s="11">
         <v>12.219768117028636</v>
       </c>
-      <c r="L87" s="17">
+      <c r="M88" s="12">
         <v>17.169355262035737</v>
       </c>
     </row>
-    <row r="88" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="9">
+    <row r="89" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="4">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="6">
         <f t="shared" si="4"/>
         <v>924012</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E89" s="6">
         <v>466319</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F89" s="6">
         <v>457242</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G89" s="6">
         <v>451</v>
       </c>
-      <c r="H88" s="11">
+      <c r="H89" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>118763</v>
       </c>
-      <c r="I88" s="11">
+      <c r="I89" s="6">
         <v>54503</v>
       </c>
-      <c r="J88" s="11">
+      <c r="J89" s="6">
         <v>64260</v>
       </c>
-      <c r="K88" s="11">
+      <c r="K89" s="6">
+        <v>16.222653310134305</v>
+      </c>
+      <c r="L89" s="6">
         <v>12.303791963827118</v>
       </c>
-      <c r="L88" s="12">
+      <c r="M89" s="7">
         <v>17.220716288635032</v>
       </c>
     </row>
-    <row r="89" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="18">
+    <row r="90" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="13">
         <v>2018</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C90" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="20">
+      <c r="D90" s="15">
         <f t="shared" si="4"/>
         <v>920526</v>
       </c>
-      <c r="E89" s="21">
+      <c r="E90" s="16">
         <v>464622</v>
       </c>
-      <c r="F89" s="21">
+      <c r="F90" s="16">
         <v>455453</v>
       </c>
-      <c r="G89" s="21">
+      <c r="G90" s="16">
         <v>451</v>
       </c>
-      <c r="H89" s="21">
+      <c r="H90" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>118260</v>
       </c>
-      <c r="I89" s="21">
+      <c r="I90" s="16">
         <v>54504</v>
       </c>
-      <c r="J89" s="21">
+      <c r="J90" s="16">
         <v>63756</v>
       </c>
-      <c r="K89" s="21">
+      <c r="K90" s="16">
+        <v>16.29</v>
+      </c>
+      <c r="L90" s="16">
         <v>12.37</v>
       </c>
-      <c r="L89" s="22">
+      <c r="M90" s="17">
         <v>17.28</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B90" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L90" s="27"/>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B91" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M91" s="22"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B92" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L91" s="27"/>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B92" s="2" t="s">
+      <c r="M92" s="22"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M93" s="22"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B94" s="2" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="K4:L4"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Flota_Antigúedad_AF.xlsx
+++ b/Flota_Antigúedad_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1054B9-40DE-4A32-878D-B03673E60025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C283440-78D5-495C-A3F7-9083D0632D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_15.2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="30">
   <si>
     <t>Carga</t>
   </si>
@@ -125,13 +125,10 @@
     <t>Antigüedad promedio</t>
   </si>
   <si>
-    <t>ND</t>
-  </si>
-  <si>
     <t>ND No Disponible.</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
@@ -141,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -449,18 +446,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -658,6 +647,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -680,13 +676,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -738,8 +727,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:M90" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
-  <autoFilter ref="B5:M90" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:M91" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
+  <autoFilter ref="B5:M91" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -992,13 +981,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:P94"/>
+  <dimension ref="B2:P95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="2" customWidth="1"/>
@@ -1015,18 +1004,18 @@
     <col min="14" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:16" ht="18">
       <c r="B2" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16">
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:16">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="29" t="s">
@@ -1046,7 +1035,7 @@
       <c r="L4" s="33"/>
       <c r="M4" s="34"/>
     </row>
-    <row r="5" spans="2:16" ht="39" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:16" ht="33">
       <c r="B5" s="24" t="s">
         <v>11</v>
       </c>
@@ -1084,3427 +1073,3467 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B6" s="35">
+    <row r="6" spans="2:16">
+      <c r="B6" s="19">
         <v>2025</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="20">
+        <f>SUM(E6:G6)</f>
+        <v>1448239</v>
+      </c>
+      <c r="E6" s="20">
+        <v>729319</v>
+      </c>
+      <c r="F6" s="20">
+        <v>718257</v>
+      </c>
+      <c r="G6" s="20">
+        <v>663</v>
+      </c>
+      <c r="H6" s="20">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>186866</v>
+      </c>
+      <c r="I6" s="20">
+        <v>73570</v>
+      </c>
+      <c r="J6" s="20">
+        <v>113296</v>
+      </c>
+      <c r="K6" s="20">
+        <v>19.252675224939154</v>
+      </c>
+      <c r="L6" s="20">
+        <v>16.075695953249923</v>
+      </c>
+      <c r="M6" s="20">
+        <v>20.096500982423329</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="37">
-        <f>SUM(E6:G6)</f>
+      <c r="D7" s="15">
+        <f>SUM(E7:G7)</f>
         <v>1441492</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E7" s="16">
         <v>726109</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F7" s="16">
         <v>714727</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G7" s="16">
         <v>656</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H7" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>186423</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I7" s="15">
         <v>73458</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J7" s="16">
         <v>112965</v>
       </c>
-      <c r="K6" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B7" s="4">
+      <c r="K7" s="35">
+        <v>19.321609528661387</v>
+      </c>
+      <c r="L7" s="35">
+        <v>16.134200179162441</v>
+      </c>
+      <c r="M7" s="36">
+        <v>20.172519552849504</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="4">
         <v>2024</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="6">
-        <f>SUM(E7:G7)</f>
+      <c r="D8" s="6">
+        <f>SUM(E8:G8)</f>
         <v>1435884</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E8" s="6">
         <v>723462</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F8" s="6">
         <v>711776</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G8" s="6">
         <v>646</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H8" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>186064</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I8" s="6">
         <v>73453</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J8" s="6">
         <v>112611</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K8" s="6">
         <v>18.404813538748488</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L8" s="6">
         <v>15.191272895347836</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M8" s="7">
         <v>19.269418435246081</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="8">
+    <row r="9" spans="2:16">
+      <c r="B9" s="8">
         <v>2024</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="10">
-        <f>SUM(E8:G8)</f>
+      <c r="D9" s="10">
+        <f>SUM(E9:G9)</f>
         <v>1428265</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E9" s="11">
         <v>719185</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F9" s="11">
         <v>708450</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G9" s="11">
         <v>630</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H9" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>184987</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I9" s="10">
         <v>73204</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J9" s="11">
         <v>111783</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K9" s="11">
         <v>18.476960502833276</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L9" s="11">
         <v>15.270154118938088</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M9" s="12">
         <v>19.35768543559724</v>
       </c>
-      <c r="P8"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="4">
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="4">
         <v>2024</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6">
-        <f t="shared" ref="D9" si="0">SUM(E9:G9)</f>
+      <c r="D10" s="6">
+        <f t="shared" ref="D10" si="0">SUM(E10:G10)</f>
         <v>1419744</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="6">
         <v>714747</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F10" s="6">
         <v>704375</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G10" s="6">
         <v>622</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H10" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>184353</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I10" s="6">
         <v>73206</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J10" s="6">
         <v>111147</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K10" s="6">
         <v>18.559178035204791</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L10" s="6">
         <v>15.333984258460672</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M10" s="7">
         <v>19.45495538980926</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="8">
+    <row r="11" spans="2:16">
+      <c r="B11" s="8">
         <v>2024</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="10">
-        <f>SUM(E10:G10)</f>
+      <c r="D11" s="10">
+        <f>SUM(E11:G11)</f>
         <v>1409947</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="11">
         <v>709391</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <v>699945</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="11">
         <v>611</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H11" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>183444</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I11" s="10">
         <v>72959</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J11" s="11">
         <v>110485</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K11" s="11">
         <v>18.653800273735229</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L11" s="11">
         <v>15.41505309522252</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M11" s="12">
         <v>19.569322136875151</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="4">
+    <row r="12" spans="2:16">
+      <c r="B12" s="4">
         <v>2024</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="6">
-        <f>SUM(E11:G11)</f>
+      <c r="D12" s="6">
+        <f>SUM(E12:G12)</f>
         <v>1401613</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E12" s="6">
         <v>704941</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F12" s="6">
         <v>696064</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G12" s="6">
         <v>608</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H12" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>182766</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I12" s="6">
         <v>72808</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J12" s="6">
         <v>109958</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K12" s="6">
         <v>18.731302694644619</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L12" s="6">
         <v>15.486441679524638</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M12" s="7">
         <v>19.663221461086813</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="8">
+    <row r="13" spans="2:16">
+      <c r="B13" s="8">
         <v>2024</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="10">
-        <f t="shared" ref="D12:D14" si="1">SUM(E12:G12)</f>
+      <c r="D13" s="10">
+        <f t="shared" ref="D13:D15" si="1">SUM(E13:G13)</f>
         <v>1392231</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="11">
         <v>700064</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="11">
         <v>691573</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G13" s="11">
         <v>594</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H13" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>182096</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I13" s="11">
         <v>72722</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J13" s="11">
         <v>109374</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K13" s="11">
         <v>18.818005976871554</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L13" s="11">
         <v>15.548683112204552</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M13" s="12">
         <v>19.76646992274992</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="4">
+    <row r="14" spans="2:16">
+      <c r="B14" s="4">
         <v>2024</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="6">
         <f t="shared" si="1"/>
         <v>1381670</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <v>694997</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F14" s="6">
         <v>686081</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G14" s="6">
         <v>592</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H14" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>181209</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I14" s="6">
         <v>72604</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J14" s="6">
         <v>108605</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K14" s="6">
         <v>18.917404420570612</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L14" s="6">
         <v>15.6321154026566</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M14" s="7">
         <v>19.872406643481913</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="8">
+    <row r="15" spans="2:16">
+      <c r="B15" s="8">
         <v>2024</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D15" s="10">
         <f t="shared" si="1"/>
         <v>1364076</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="11">
         <v>686433</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="11">
         <v>677060</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G15" s="11">
         <v>583</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H15" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>180169</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I15" s="11">
         <v>72197</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J15" s="11">
         <v>107972</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K15" s="11">
         <v>19.07390024500182</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L15" s="11">
         <v>15.728466051318485</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M15" s="11">
         <v>20.044184938661164</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="4">
+    <row r="16" spans="2:16">
+      <c r="B16" s="4">
         <v>2024</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="6">
-        <f t="shared" ref="D15:D45" si="2">SUM(E15:G15)</f>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16:D46" si="2">SUM(E16:G16)</f>
         <v>1362046</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="6">
         <v>685435</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F16" s="6">
         <v>676046</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G16" s="6">
         <v>565</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H16" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>179118</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I16" s="6">
         <v>71981</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J16" s="6">
         <v>107137</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K16" s="6">
         <v>19.118977099167271</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L16" s="6">
         <v>15.827370783505843</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M16" s="7">
         <v>20.082257252693545</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B16" s="8">
+    <row r="17" spans="2:13">
+      <c r="B17" s="8">
         <v>2024</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D17" s="10">
         <f t="shared" si="2"/>
         <v>1353988</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="11">
         <v>681551</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F17" s="11">
         <v>671878</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G17" s="11">
         <v>559</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H17" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>178140</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I17" s="11">
         <v>71842</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J17" s="11">
         <v>106298</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K17" s="11">
         <v>19.204794560349551</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L17" s="11">
         <v>15.921746940608513</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M17" s="12">
         <v>20.167528182043604</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" s="4">
+    <row r="18" spans="2:13">
+      <c r="B18" s="4">
         <v>2024</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <f t="shared" si="2"/>
         <v>1345055</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="6">
         <v>677153</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F18" s="6">
         <v>667343</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G18" s="6">
         <v>559</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H18" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>177618</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I18" s="6">
         <v>71797</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J18" s="6">
         <v>105821</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K18" s="6">
         <v>19.298350846257247</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L18" s="6">
         <v>15.980300420002475</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M18" s="7">
         <v>20.271950356861744</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="13">
+    <row r="19" spans="2:13">
+      <c r="B19" s="13">
         <v>2024</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D19" s="15">
         <f t="shared" si="2"/>
         <v>1337961</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E19" s="16">
         <v>673757</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F19" s="16">
         <v>663646</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G19" s="16">
         <v>558</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H19" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>176858</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I19" s="16">
         <v>71641</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J19" s="16">
         <v>105217</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K19" s="16">
         <v>19.37957723272276</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L19" s="16">
         <v>16.061088556921373</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M19" s="17">
         <v>20.355880532595581</v>
       </c>
     </row>
-    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="18">
+    <row r="20" spans="2:13" hidden="1">
+      <c r="B20" s="18">
         <v>2023</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D20" s="20">
         <f t="shared" si="2"/>
         <v>1331921</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E20" s="20">
         <v>671002</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F20" s="20">
         <v>660365</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G20" s="20">
         <v>554</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H20" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>176251</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I20" s="20">
         <v>71562</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J20" s="20">
         <v>104689</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K20" s="20">
         <v>18.475869218860481</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L20" s="20">
         <v>15.134234699377592</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M20" s="21">
         <v>19.458281793496891</v>
       </c>
     </row>
-    <row r="20" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="8">
+    <row r="21" spans="2:13" hidden="1">
+      <c r="B21" s="8">
         <v>2023</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D21" s="10">
         <f t="shared" si="2"/>
         <v>1324591</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="11">
         <v>667021</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="11">
         <v>657017</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G21" s="11">
         <v>553</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H21" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>175311</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I21" s="11">
         <v>71379</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J21" s="11">
         <v>103932</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K21" s="11">
         <v>18.551437990754653</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L21" s="11">
         <v>15.22355699300101</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M21" s="12">
         <v>19.543477641633473</v>
       </c>
     </row>
-    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="4">
+    <row r="22" spans="2:13" hidden="1">
+      <c r="B22" s="4">
         <v>2023</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D22" s="6">
         <f t="shared" si="2"/>
         <v>1316689</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="6">
         <v>662911</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F22" s="6">
         <v>653227</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G22" s="6">
         <v>551</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H22" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>174393</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I22" s="6">
         <v>71146</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J22" s="6">
         <v>103247</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K22" s="6">
         <v>18.63639333901811</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L22" s="6">
         <v>15.305362027145584</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M22" s="7">
         <v>19.637007079381696</v>
       </c>
     </row>
-    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="8">
+    <row r="23" spans="2:13" hidden="1">
+      <c r="B23" s="8">
         <v>2023</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D23" s="10">
         <f t="shared" si="2"/>
         <v>1309236</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="11">
         <v>659020</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="11">
         <v>649665</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G23" s="11">
         <v>551</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H23" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>173599</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I23" s="11">
         <v>71029</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J23" s="11">
         <v>102570</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K23" s="11">
         <v>18.719585450561432</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L23" s="11">
         <v>15.387882418677528</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M23" s="12">
         <v>19.730128068950865</v>
       </c>
     </row>
-    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="4">
+    <row r="24" spans="2:13" hidden="1">
+      <c r="B24" s="4">
         <v>2023</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D24" s="6">
         <f t="shared" si="2"/>
         <v>1302003</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E24" s="6">
         <v>655458</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F24" s="6">
         <v>645999</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G24" s="6">
         <v>546</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H24" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>172764</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I24" s="6">
         <v>70834</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J24" s="6">
         <v>101930</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K24" s="6">
         <v>18.802238606016331</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L24" s="6">
         <v>15.470034266398091</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M24" s="7">
         <v>19.817370449365175</v>
       </c>
     </row>
-    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="8">
+    <row r="25" spans="2:13" hidden="1">
+      <c r="B25" s="8">
         <v>2023</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D25" s="10">
         <f t="shared" si="2"/>
         <v>1294209</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="11">
         <v>651761</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="11">
         <v>641907</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G25" s="11">
         <v>541</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H25" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>172137</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I25" s="11">
         <v>70783</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J25" s="11">
         <v>101354</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K25" s="11">
         <v>18.888086750966192</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L25" s="11">
         <v>15.535631502814621</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M25" s="12">
         <v>19.908092076696825</v>
       </c>
     </row>
-    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="4">
+    <row r="26" spans="2:13" hidden="1">
+      <c r="B26" s="4">
         <v>2023</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D26" s="6">
         <f t="shared" si="2"/>
         <v>1286042</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="6">
         <v>647906</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="6">
         <v>637598</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G26" s="6">
         <v>538</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H26" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>171516</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I26" s="6">
         <v>70673</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J26" s="6">
         <v>100843</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K26" s="6">
         <v>18.982887674843173</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L26" s="6">
         <v>15.606316611861285</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M26" s="7">
         <v>20.002412386982066</v>
       </c>
     </row>
-    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="8">
+    <row r="27" spans="2:13" hidden="1">
+      <c r="B27" s="8">
         <v>2023</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D27" s="10">
         <f t="shared" si="2"/>
         <v>1279902</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="11">
         <v>645139</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="11">
         <v>634226</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G27" s="11">
         <v>537</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H27" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>170681</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I27" s="11">
         <v>70483</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J27" s="11">
         <v>100198</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K27" s="11">
         <v>19.060761520669001</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L27" s="11">
         <v>15.688172672998164</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M27" s="12">
         <v>20.079559598784137</v>
       </c>
     </row>
-    <row r="27" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="4">
+    <row r="28" spans="2:13" hidden="1">
+      <c r="B28" s="4">
         <v>2023</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D28" s="6">
         <f t="shared" si="2"/>
         <v>1273243</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="6">
         <v>641751</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F28" s="6">
         <v>630955</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G28" s="6">
         <v>537</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H28" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>170020</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I28" s="6">
         <v>70335</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J28" s="6">
         <v>99685</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K28" s="6">
         <v>19.1410877741165</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L28" s="6">
         <v>15.757763792495</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M28" s="7">
         <v>20.166095572893536</v>
       </c>
     </row>
-    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="8">
+    <row r="29" spans="2:13" hidden="1">
+      <c r="B29" s="8">
         <v>2023</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D29" s="10">
         <f t="shared" si="2"/>
         <v>1267813</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="11">
         <v>639200</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="11">
         <v>628078</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G29" s="11">
         <v>535</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H29" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>169398</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I29" s="11">
         <v>70212</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J29" s="11">
         <v>99186</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K29" s="11">
         <v>19.207652247270783</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L29" s="11">
         <v>15.818386285552368</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M29" s="12">
         <v>20.231362640800999</v>
       </c>
     </row>
-    <row r="29" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="4">
+    <row r="30" spans="2:13" hidden="1">
+      <c r="B30" s="4">
         <v>2023</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D30" s="6">
         <f t="shared" si="2"/>
         <v>1261816</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E30" s="6">
         <v>636167</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F30" s="6">
         <v>625114</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G30" s="6">
         <v>535</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H30" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>168270</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I30" s="6">
         <v>70028</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J30" s="6">
         <v>98242</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K30" s="6">
         <v>19.287032781621644</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L30" s="6">
         <v>15.924098175551196</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M30" s="7">
         <v>20.308953466621187</v>
       </c>
     </row>
-    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="13">
+    <row r="31" spans="2:13" hidden="1">
+      <c r="B31" s="13">
         <v>2023</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D31" s="15">
         <f t="shared" si="2"/>
         <v>1256959</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E31" s="16">
         <v>633934</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F31" s="16">
         <v>622491</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G31" s="16">
         <v>534</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H31" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>167855</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I31" s="16">
         <v>70043</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J31" s="16">
         <v>97812</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K31" s="16">
         <v>19.347213328839835</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L31" s="16">
         <v>15.971731554019838</v>
       </c>
-      <c r="M30" s="17">
+      <c r="M31" s="17">
         <v>20.368738701505205</v>
       </c>
     </row>
-    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="18">
+    <row r="32" spans="2:13" hidden="1">
+      <c r="B32" s="18">
         <v>2022</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C32" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D32" s="20">
         <f t="shared" si="2"/>
         <v>1253020</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E32" s="20">
         <v>632252</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F32" s="20">
         <v>620240</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G32" s="20">
         <v>528</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H32" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>167359</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I32" s="20">
         <v>70056</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J32" s="20">
         <v>97303</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K32" s="20">
         <v>18.42307890053252</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L32" s="20">
         <v>15.042250491458482</v>
       </c>
-      <c r="M31" s="21">
+      <c r="M32" s="21">
         <v>19.442766491841866</v>
       </c>
     </row>
-    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="8">
+    <row r="33" spans="2:13" hidden="1">
+      <c r="B33" s="8">
         <v>2022</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D33" s="10">
         <f t="shared" si="2"/>
         <v>1248052</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E33" s="11">
         <v>629746</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F33" s="11">
         <v>617778</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G33" s="11">
         <v>528</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H33" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>166178</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I33" s="11">
         <v>69821</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J33" s="11">
         <v>96357</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K33" s="11">
         <v>18.489979500630259</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L33" s="11">
         <v>15.145163619733058</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M33" s="12">
         <v>19.503375964277662</v>
       </c>
     </row>
-    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="4">
+    <row r="34" spans="2:13" hidden="1">
+      <c r="B34" s="4">
         <v>2022</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D34" s="6">
         <f t="shared" si="2"/>
         <v>1243495</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E34" s="6">
         <v>627591</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F34" s="6">
         <v>615376</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G34" s="6">
         <v>528</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H34" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>165354</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I34" s="6">
         <v>69675</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J34" s="6">
         <v>95679</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K34" s="6">
         <v>18.547631541388647</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L34" s="6">
         <v>15.219299200503164</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M34" s="7">
         <v>19.558707820857851</v>
       </c>
     </row>
-    <row r="34" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="8">
+    <row r="35" spans="2:13" hidden="1">
+      <c r="B35" s="8">
         <v>2022</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D35" s="10">
         <f t="shared" si="2"/>
         <v>1239858</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="11">
         <v>625802</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F35" s="11">
         <v>613527</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G35" s="11">
         <v>529</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H35" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>164931</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I35" s="11">
         <v>69723</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J35" s="11">
         <v>95208</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K35" s="11">
         <v>18.59142751342344</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L35" s="11">
         <v>15.268857886025064</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M35" s="12">
         <v>19.601036749642859</v>
       </c>
     </row>
-    <row r="35" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="4">
+    <row r="36" spans="2:13" hidden="1">
+      <c r="B36" s="4">
         <v>2022</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D36" s="6">
         <f t="shared" si="2"/>
         <v>1234757</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E36" s="6">
         <v>623225</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F36" s="6">
         <v>611005</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G36" s="6">
         <v>527</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H36" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>166002</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I36" s="6">
         <v>69645</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J36" s="6">
         <v>96357</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K36" s="6">
         <v>18.633291483125653</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L36" s="6">
         <v>15.188636281490584</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M36" s="7">
         <v>19.665687352079907</v>
       </c>
     </row>
-    <row r="36" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="8">
+    <row r="37" spans="2:13" hidden="1">
+      <c r="B37" s="8">
         <v>2022</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D37" s="10">
         <f t="shared" si="2"/>
         <v>1227595</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E37" s="11">
         <v>619408</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F37" s="11">
         <v>607662</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G37" s="11">
         <v>525</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H37" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>163526</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I37" s="11">
         <v>69586</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J37" s="11">
         <v>93940</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K37" s="11">
         <v>18.738775316483004</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L37" s="11">
         <v>15.421364186734833</v>
       </c>
-      <c r="M36" s="12">
+      <c r="M37" s="12">
         <v>19.756386743471182</v>
       </c>
     </row>
-    <row r="37" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="4">
+    <row r="38" spans="2:13" hidden="1">
+      <c r="B38" s="4">
         <v>2022</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D38" s="6">
         <f t="shared" si="2"/>
         <v>1225289</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E38" s="6">
         <v>618040</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F38" s="6">
         <v>606724</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G38" s="6">
         <v>525</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H38" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>163070</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I38" s="6">
         <v>69430</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J38" s="6">
         <v>93640</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K38" s="6">
         <v>18.751951602280965</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L38" s="6">
         <v>15.452272030416385</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M38" s="7">
         <v>19.768709145039157</v>
       </c>
     </row>
-    <row r="38" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="8">
+    <row r="39" spans="2:13" hidden="1">
+      <c r="B39" s="8">
         <v>2022</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D39" s="10">
         <f t="shared" si="2"/>
         <v>1222511</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="11">
         <v>616795</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F39" s="11">
         <v>605191</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G39" s="11">
         <v>525</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H39" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>162777</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I39" s="11">
         <v>69624</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J39" s="11">
         <v>93153</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K39" s="11">
         <v>18.804625051362581</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L39" s="11">
         <v>15.510440664221605</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M39" s="12">
         <v>19.817924918327808</v>
       </c>
     </row>
-    <row r="39" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="4">
+    <row r="40" spans="2:13" hidden="1">
+      <c r="B40" s="4">
         <v>2022</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D40" s="6">
         <f t="shared" si="2"/>
         <v>1217422</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E40" s="6">
         <v>614317</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F40" s="6">
         <v>602581</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G40" s="6">
         <v>524</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H40" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>162245</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I40" s="6">
         <v>69515</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J40" s="6">
         <v>92730</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K40" s="6">
         <v>18.867667819798235</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L40" s="6">
         <v>15.572301149496132</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M40" s="7">
         <v>19.875979339656887</v>
       </c>
     </row>
-    <row r="40" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="8">
+    <row r="41" spans="2:13" hidden="1">
+      <c r="B41" s="8">
         <v>2022</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D41" s="10">
         <f t="shared" si="2"/>
         <v>1212635</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E41" s="11">
         <v>611918</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F41" s="11">
         <v>600194</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G41" s="11">
         <v>523</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H41" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>161903</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I41" s="11">
         <v>69487</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J41" s="11">
         <v>92416</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K41" s="11">
         <v>18.918767990160223</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L41" s="11">
         <v>15.612731079720572</v>
       </c>
-      <c r="M40" s="12">
+      <c r="M41" s="12">
         <v>19.925975375785644</v>
       </c>
     </row>
-    <row r="41" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="4">
+    <row r="42" spans="2:13" hidden="1">
+      <c r="B42" s="4">
         <v>2022</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D42" s="6">
         <f t="shared" si="2"/>
         <v>1207392</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E42" s="6">
         <v>609072</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F42" s="6">
         <v>597797</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G42" s="6">
         <v>523</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H42" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>161179</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I42" s="6">
         <v>69288</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J42" s="6">
         <v>91891</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K42" s="6">
         <v>18.985056810872138</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L42" s="6">
         <v>15.690822005348092</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M42" s="7">
         <v>19.992202892268896</v>
       </c>
     </row>
-    <row r="42" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="13">
+    <row r="43" spans="2:13" hidden="1">
+      <c r="B43" s="13">
         <v>2022</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D43" s="15">
         <f t="shared" si="2"/>
         <v>1203679</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E43" s="16">
         <v>607150</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F43" s="16">
         <v>596005</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G43" s="16">
         <v>524</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H43" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>160915</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I43" s="16">
         <v>69335</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J43" s="16">
         <v>91580</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K43" s="16">
         <v>19.033586986005115</v>
       </c>
-      <c r="L42" s="16">
+      <c r="L43" s="16">
         <v>15.723189261411305</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M43" s="17">
         <v>20.040443053611135</v>
       </c>
     </row>
-    <row r="43" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="18">
+    <row r="44" spans="2:13" hidden="1">
+      <c r="B44" s="18">
         <v>2021</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C44" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D44" s="20">
         <f t="shared" si="2"/>
         <v>1201053</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E44" s="20">
         <v>606090</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F44" s="20">
         <v>594443</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G44" s="20">
         <v>520</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H44" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>160633</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I44" s="20">
         <v>69330</v>
       </c>
-      <c r="J43" s="20">
+      <c r="J44" s="20">
         <v>91303</v>
       </c>
-      <c r="K43" s="20">
+      <c r="K44" s="20">
         <v>18.104901973748976</v>
       </c>
-      <c r="L43" s="20">
+      <c r="L44" s="20">
         <v>14.77932927854177</v>
       </c>
-      <c r="M43" s="21">
+      <c r="M44" s="21">
         <v>19.103214044118861</v>
       </c>
     </row>
-    <row r="44" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="8">
+    <row r="45" spans="2:13" hidden="1">
+      <c r="B45" s="8">
         <v>2021</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D45" s="10">
         <f t="shared" si="2"/>
         <v>1195350</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E45" s="11">
         <v>603380</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F45" s="11">
         <v>591451</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G45" s="11">
         <v>519</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H45" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>159783</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I45" s="11">
         <v>69196</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J45" s="11">
         <v>90587</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K45" s="11">
         <v>18.165010106199993</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L45" s="11">
         <v>14.853858044973496</v>
       </c>
-      <c r="M44" s="12">
+      <c r="M45" s="12">
         <v>19.159161722297721</v>
       </c>
     </row>
-    <row r="45" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="4">
+    <row r="46" spans="2:13" hidden="1">
+      <c r="B46" s="4">
         <v>2021</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D46" s="6">
         <f t="shared" si="2"/>
         <v>1192781</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E46" s="6">
         <v>602061</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F46" s="6">
         <v>590200</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G46" s="6">
         <v>520</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H46" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>159209</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I46" s="6">
         <v>69167</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J46" s="6">
         <v>90042</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K46" s="6">
         <v>18.210527795659541</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L46" s="6">
         <v>14.91196477586066</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M46" s="7">
         <v>19.201099224164992</v>
       </c>
     </row>
-    <row r="46" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="8">
+    <row r="47" spans="2:13" hidden="1">
+      <c r="B47" s="8">
         <v>2021</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="10">
-        <f t="shared" ref="D46:D77" si="3">SUM(E46:G46)</f>
+      <c r="D47" s="10">
+        <f t="shared" ref="D47:D78" si="3">SUM(E47:G47)</f>
         <v>1186041</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="11">
         <v>599199</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F47" s="11">
         <v>586326</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G47" s="11">
         <v>516</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H47" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>158594</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I47" s="11">
         <v>69024</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J47" s="11">
         <v>89570</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K47" s="11">
         <v>18.280978841903135</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L47" s="11">
         <v>14.981991752525316</v>
       </c>
-      <c r="M46" s="12">
+      <c r="M47" s="12">
         <v>19.262381946565331</v>
       </c>
     </row>
-    <row r="47" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="4">
+    <row r="48" spans="2:13" hidden="1">
+      <c r="B48" s="4">
         <v>2021</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D48" s="6">
         <f t="shared" si="3"/>
         <v>1182334</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E48" s="6">
         <v>597975</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F48" s="6">
         <v>583854</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G48" s="6">
         <v>505</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H48" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157584</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I48" s="6">
         <v>68967</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J48" s="6">
         <v>88617</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K48" s="6">
         <v>18.343313078191716</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L48" s="6">
         <v>15.069702507868818</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M48" s="7">
         <v>19.317817634516494</v>
       </c>
     </row>
-    <row r="48" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="8">
+    <row r="49" spans="2:13" hidden="1">
+      <c r="B49" s="8">
         <v>2021</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D49" s="10">
         <f t="shared" si="3"/>
         <v>1175907</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E49" s="11">
         <v>594590</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F49" s="11">
         <v>580812</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G49" s="11">
         <v>505</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H49" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157806</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I49" s="11">
         <v>69051</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J49" s="11">
         <v>88755</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K49" s="11">
         <v>18.386941872536017</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L49" s="11">
         <v>15.078070542311446</v>
       </c>
-      <c r="M48" s="12">
+      <c r="M49" s="12">
         <v>19.364975865722599</v>
       </c>
     </row>
-    <row r="49" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="4">
+    <row r="50" spans="2:13" hidden="1">
+      <c r="B50" s="4">
         <v>2021</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D50" s="6">
         <f t="shared" si="3"/>
         <v>1172788</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E50" s="6">
         <v>593307</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F50" s="6">
         <v>578970</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G50" s="6">
         <v>511</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H50" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157163</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I50" s="6">
         <v>68993</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J50" s="6">
         <v>88170</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K50" s="6">
         <v>18.439486550728127</v>
       </c>
-      <c r="L49" s="6">
+      <c r="L50" s="6">
         <v>15.1151861443215</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M50" s="7">
         <v>19.410730026782087</v>
       </c>
     </row>
-    <row r="50" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="8">
+    <row r="51" spans="2:13" hidden="1">
+      <c r="B51" s="8">
         <v>2021</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C51" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D51" s="10">
         <f t="shared" si="3"/>
         <v>1166805</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="11">
         <v>590245</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F51" s="11">
         <v>576050</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G51" s="11">
         <v>510</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H51" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156786</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I51" s="11">
         <v>69018</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J51" s="11">
         <v>87768</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K51" s="11">
         <v>18.504217806770711</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L51" s="11">
         <v>15.155396527751202</v>
       </c>
-      <c r="M50" s="12">
+      <c r="M51" s="12">
         <v>19.481235758032678</v>
       </c>
     </row>
-    <row r="51" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="4">
+    <row r="52" spans="2:13" hidden="1">
+      <c r="B52" s="4">
         <v>2021</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D52" s="6">
         <f t="shared" si="3"/>
         <v>1162463</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E52" s="6">
         <v>588077</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F52" s="6">
         <v>573877</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G52" s="6">
         <v>509</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H52" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156695</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I52" s="6">
         <v>69223</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J52" s="6">
         <v>87472</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K52" s="6">
         <v>18.555855273086319</v>
       </c>
-      <c r="L51" s="6">
+      <c r="L52" s="6">
         <v>15.176859504132231</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M52" s="7">
         <v>19.539313729324562</v>
       </c>
     </row>
-    <row r="52" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="8">
+    <row r="53" spans="2:13" hidden="1">
+      <c r="B53" s="8">
         <v>2021</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D53" s="10">
         <f t="shared" si="3"/>
         <v>1157730</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E53" s="11">
         <v>586093</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F53" s="11">
         <v>571129</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G53" s="11">
         <v>508</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H53" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156467</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I53" s="11">
         <v>69334</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J53" s="11">
         <v>87133</v>
       </c>
-      <c r="K52" s="11">
+      <c r="K53" s="11">
         <v>18.610992403833784</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L53" s="11">
         <v>15.20547463682438</v>
       </c>
-      <c r="M52" s="12">
+      <c r="M53" s="12">
         <v>19.591187746654541</v>
       </c>
     </row>
-    <row r="53" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="4">
+    <row r="54" spans="2:13" hidden="1">
+      <c r="B54" s="4">
         <v>2021</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D54" s="6">
         <f t="shared" si="3"/>
         <v>1151624</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E54" s="6">
         <v>583440</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F54" s="6">
         <v>567677</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G54" s="6">
         <v>507</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H54" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156128</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I54" s="6">
         <v>69352</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J54" s="6">
         <v>86776</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K54" s="6">
         <v>18.682593545968817</v>
       </c>
-      <c r="L53" s="6">
+      <c r="L54" s="6">
         <v>15.246899979503995</v>
       </c>
-      <c r="M53" s="7">
+      <c r="M54" s="7">
         <v>19.65870183737831</v>
       </c>
     </row>
-    <row r="54" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="13">
+    <row r="55" spans="2:13" hidden="1">
+      <c r="B55" s="13">
         <v>2021</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D55" s="15">
         <f t="shared" si="3"/>
         <v>1146962</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E55" s="16">
         <v>581299</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F55" s="16">
         <v>565156</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G55" s="16">
         <v>507</v>
       </c>
-      <c r="H54" s="16">
+      <c r="H55" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156135</v>
       </c>
-      <c r="I54" s="16">
+      <c r="I55" s="16">
         <v>69558</v>
       </c>
-      <c r="J54" s="16">
+      <c r="J55" s="16">
         <v>86577</v>
       </c>
-      <c r="K54" s="16">
+      <c r="K55" s="16">
         <v>18.737382445742711</v>
       </c>
-      <c r="L54" s="16">
+      <c r="L55" s="16">
         <v>15.270791302398566</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M55" s="17">
         <v>19.71498144672535</v>
       </c>
     </row>
-    <row r="55" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="18">
+    <row r="56" spans="2:13" hidden="1">
+      <c r="B56" s="18">
         <v>2020</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C56" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D56" s="20">
         <f t="shared" si="3"/>
         <v>1143940</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E56" s="20">
         <v>580035</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F56" s="20">
         <v>563400</v>
       </c>
-      <c r="G55" s="20">
+      <c r="G56" s="20">
         <v>505</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H56" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156064</v>
       </c>
-      <c r="I55" s="20">
+      <c r="I56" s="20">
         <v>69624</v>
       </c>
-      <c r="J55" s="20">
+      <c r="J56" s="20">
         <v>86440</v>
       </c>
-      <c r="K55" s="20">
+      <c r="K56" s="20">
         <v>17.787893642088221</v>
       </c>
-      <c r="L55" s="20">
+      <c r="L56" s="20">
         <v>14.291950738158704</v>
       </c>
-      <c r="M55" s="21">
+      <c r="M56" s="21">
         <v>18.763405656555207</v>
       </c>
     </row>
-    <row r="56" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="8">
+    <row r="57" spans="2:13" hidden="1">
+      <c r="B57" s="8">
         <v>2020</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C57" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D57" s="10">
         <f t="shared" si="3"/>
         <v>1137719</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E57" s="11">
         <v>576835</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F57" s="11">
         <v>560383</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G57" s="11">
         <v>501</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H57" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>155330</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I57" s="11">
         <v>69641</v>
       </c>
-      <c r="J56" s="11">
+      <c r="J57" s="11">
         <v>85689</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K57" s="11">
         <v>17.860964544450187</v>
       </c>
-      <c r="L56" s="11">
+      <c r="L57" s="11">
         <v>14.359087104873495</v>
       </c>
-      <c r="M56" s="12">
+      <c r="M57" s="12">
         <v>18.843092045385596</v>
       </c>
     </row>
-    <row r="57" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="4">
+    <row r="58" spans="2:13" hidden="1">
+      <c r="B58" s="4">
         <v>2020</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D58" s="6">
         <f t="shared" si="3"/>
         <v>1131496</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E58" s="6">
         <v>574056</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F58" s="6">
         <v>556941</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G58" s="6">
         <v>499</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H58" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154998</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I58" s="6">
         <v>69581</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J58" s="6">
         <v>85417</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K58" s="6">
         <v>17.931151365285245</v>
       </c>
-      <c r="L57" s="6">
+      <c r="L58" s="6">
         <v>14.401392276029368</v>
       </c>
-      <c r="M57" s="7">
+      <c r="M58" s="7">
         <v>18.916173683403709</v>
       </c>
     </row>
-    <row r="58" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="8">
+    <row r="59" spans="2:13" hidden="1">
+      <c r="B59" s="8">
         <v>2020</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D59" s="10">
         <f t="shared" si="3"/>
         <v>1124473</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="11">
         <v>571367</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F59" s="11">
         <v>552611</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G59" s="11">
         <v>495</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H59" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154974</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I59" s="11">
         <v>69802</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J59" s="11">
         <v>85172</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K59" s="11">
         <v>18.015470478954644</v>
       </c>
-      <c r="L58" s="11">
+      <c r="L59" s="11">
         <v>14.418154012931202</v>
       </c>
-      <c r="M58" s="12">
+      <c r="M59" s="12">
         <v>18.991473081224505</v>
       </c>
     </row>
-    <row r="59" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="4">
+    <row r="60" spans="2:13" hidden="1">
+      <c r="B60" s="4">
         <v>2020</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D60" s="6">
         <f t="shared" si="3"/>
         <v>1119301</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E60" s="6">
         <v>569174</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F60" s="6">
         <v>549631</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G60" s="6">
         <v>496</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H60" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>155005</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I60" s="6">
         <v>69935</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J60" s="6">
         <v>85070</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K60" s="6">
         <v>18.074266962890857</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L60" s="6">
         <v>14.424315344666301</v>
       </c>
-      <c r="M59" s="7">
+      <c r="M60" s="7">
         <v>19.054786409779787</v>
       </c>
     </row>
-    <row r="60" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="8">
+    <row r="61" spans="2:13" hidden="1">
+      <c r="B61" s="8">
         <v>2020</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C61" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D61" s="10">
         <f t="shared" si="3"/>
         <v>1115206</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E61" s="11">
         <v>567168</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F61" s="11">
         <v>547540</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G61" s="11">
         <v>498</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H61" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154854</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I61" s="11">
         <v>69936</v>
       </c>
-      <c r="J60" s="11">
+      <c r="J61" s="11">
         <v>84918</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K61" s="11">
         <v>18.123512676025275</v>
       </c>
-      <c r="L60" s="11">
+      <c r="L61" s="11">
         <v>14.441519108321389</v>
       </c>
-      <c r="M60" s="12">
+      <c r="M61" s="12">
         <v>19.111048225569849</v>
       </c>
     </row>
-    <row r="61" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="4">
+    <row r="62" spans="2:13" hidden="1">
+      <c r="B62" s="4">
         <v>2020</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D62" s="6">
         <f t="shared" si="3"/>
         <v>1112456</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E62" s="6">
         <v>566042</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F62" s="6">
         <v>545916</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G62" s="6">
         <v>498</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H62" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154797</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I62" s="6">
         <v>69959</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J62" s="6">
         <v>84838</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K62" s="6">
         <v>18.154673950369251</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L62" s="6">
         <v>14.450499686686436</v>
       </c>
-      <c r="M61" s="7">
+      <c r="M62" s="7">
         <v>19.140800505969523</v>
       </c>
     </row>
-    <row r="62" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="8">
+    <row r="63" spans="2:13" hidden="1">
+      <c r="B63" s="8">
         <v>2020</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C63" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D63" s="10">
         <f t="shared" si="3"/>
         <v>1111879</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="11">
         <v>565980</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F63" s="11">
         <v>545400</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G63" s="11">
         <v>499</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H63" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154663</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I63" s="11">
         <v>69945</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J63" s="11">
         <v>84718</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K63" s="11">
         <v>18.164229808940139</v>
       </c>
-      <c r="L62" s="11">
+      <c r="L63" s="11">
         <v>14.46115101866639</v>
       </c>
-      <c r="M62" s="12">
+      <c r="M63" s="12">
         <v>19.144045725997383</v>
       </c>
     </row>
-    <row r="63" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="4">
+    <row r="64" spans="2:13" hidden="1">
+      <c r="B64" s="4">
         <v>2020</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D64" s="6">
         <f t="shared" si="3"/>
         <v>1111626</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E64" s="6">
         <v>565883</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F64" s="6">
         <v>545244</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G64" s="6">
         <v>499</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H64" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154659</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I64" s="6">
         <v>69947</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J64" s="6">
         <v>84712</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K64" s="6">
         <v>18.16685047867491</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L64" s="6">
         <v>14.461473305788864</v>
       </c>
-      <c r="M63" s="7">
+      <c r="M64" s="7">
         <v>19.146164489832703</v>
       </c>
     </row>
-    <row r="64" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="8">
+    <row r="65" spans="2:13" hidden="1">
+      <c r="B65" s="8">
         <v>2020</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C65" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D65" s="10">
         <f t="shared" si="3"/>
         <v>1111436</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="11">
         <v>565809</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F65" s="11">
         <v>545128</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G65" s="11">
         <v>499</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H65" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154670</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I65" s="11">
         <v>69953</v>
       </c>
-      <c r="J64" s="11">
+      <c r="J65" s="11">
         <v>84717</v>
       </c>
-      <c r="K64" s="11">
+      <c r="K65" s="11">
         <v>18.1697391054253</v>
       </c>
-      <c r="L64" s="11">
+      <c r="L65" s="11">
         <v>14.461059028900239</v>
       </c>
-      <c r="M64" s="12">
+      <c r="M65" s="12">
         <v>19.148813468856098</v>
       </c>
     </row>
-    <row r="65" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="4">
+    <row r="66" spans="2:13" hidden="1">
+      <c r="B66" s="4">
         <v>2020</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D66" s="6">
         <f t="shared" si="3"/>
         <v>1107180</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E66" s="6">
         <v>564089</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F66" s="6">
         <v>542595</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G66" s="6">
         <v>496</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H66" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154310</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I66" s="6">
         <v>69893</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J66" s="6">
         <v>84417</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K66" s="6">
         <v>18.222653716036714</v>
       </c>
-      <c r="L65" s="6">
+      <c r="L66" s="6">
         <v>14.507322921392005</v>
       </c>
-      <c r="M65" s="7">
+      <c r="M66" s="7">
         <v>19.193769068356236</v>
       </c>
     </row>
-    <row r="66" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="13">
+    <row r="67" spans="2:13" hidden="1">
+      <c r="B67" s="13">
         <v>2020</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C67" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D67" s="15">
         <f t="shared" si="3"/>
         <v>1102434</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E67" s="16">
         <v>562170</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F67" s="16">
         <v>539768</v>
       </c>
-      <c r="G66" s="16">
+      <c r="G67" s="16">
         <v>496</v>
       </c>
-      <c r="H66" s="16">
+      <c r="H67" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>153904</v>
       </c>
-      <c r="I66" s="16">
+      <c r="I67" s="16">
         <v>69851</v>
       </c>
-      <c r="J66" s="16">
+      <c r="J67" s="16">
         <v>84053</v>
       </c>
-      <c r="K66" s="16">
+      <c r="K67" s="16">
         <v>18.280507420519459</v>
       </c>
-      <c r="L66" s="16">
+      <c r="L67" s="16">
         <v>14.558120646636864</v>
       </c>
-      <c r="M66" s="17">
+      <c r="M67" s="17">
         <v>19.246057242471139</v>
       </c>
     </row>
-    <row r="67" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="18">
+    <row r="68" spans="2:13" hidden="1">
+      <c r="B68" s="18">
         <v>2019</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C68" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D68" s="20">
         <f t="shared" si="3"/>
         <v>1099371</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E68" s="20">
         <v>561061</v>
       </c>
-      <c r="F67" s="20">
+      <c r="F68" s="20">
         <v>537813</v>
       </c>
-      <c r="G67" s="20">
+      <c r="G68" s="20">
         <v>497</v>
       </c>
-      <c r="H67" s="20">
+      <c r="H68" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>153726</v>
       </c>
-      <c r="I67" s="20">
+      <c r="I68" s="20">
         <v>69871</v>
       </c>
-      <c r="J67" s="20">
+      <c r="J68" s="20">
         <v>83855</v>
       </c>
-      <c r="K67" s="20">
+      <c r="K68" s="20">
         <v>17.338868752993772</v>
       </c>
-      <c r="L67" s="20">
+      <c r="L68" s="20">
         <v>13.608641348893483</v>
       </c>
-      <c r="M67" s="21">
+      <c r="M68" s="21">
         <v>18.302218475352948</v>
       </c>
     </row>
-    <row r="68" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="8">
+    <row r="69" spans="2:13" hidden="1">
+      <c r="B69" s="8">
         <v>2019</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C69" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D69" s="10">
         <f t="shared" si="3"/>
         <v>1094843</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E69" s="11">
         <v>558626</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F69" s="11">
         <v>535724</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G69" s="11">
         <v>493</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H69" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>152624</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I69" s="11">
         <v>69534</v>
       </c>
-      <c r="J68" s="11">
+      <c r="J69" s="11">
         <v>83090</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K69" s="11">
         <v>17.393954485017328</v>
       </c>
-      <c r="L68" s="11">
+      <c r="L69" s="11">
         <v>13.697282209875247</v>
       </c>
-      <c r="M68" s="12">
+      <c r="M69" s="12">
         <v>18.357969374859028</v>
       </c>
     </row>
-    <row r="69" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="4">
+    <row r="70" spans="2:13" hidden="1">
+      <c r="B70" s="4">
         <v>2019</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D70" s="6">
         <f t="shared" si="3"/>
         <v>1089907</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E70" s="6">
         <v>556346</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F70" s="6">
         <v>533069</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G70" s="6">
         <v>492</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H70" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>151838</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I70" s="6">
         <v>69318</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J70" s="6">
         <v>82520</v>
       </c>
-      <c r="K69" s="6">
+      <c r="K70" s="6">
         <v>17.456851262393727</v>
       </c>
-      <c r="L69" s="6">
+      <c r="L70" s="6">
         <v>13.773673257023932</v>
       </c>
-      <c r="M69" s="7">
+      <c r="M70" s="7">
         <v>18.416267933983526</v>
       </c>
     </row>
-    <row r="70" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="8">
+    <row r="71" spans="2:13" hidden="1">
+      <c r="B71" s="8">
         <v>2019</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D71" s="10">
         <f t="shared" si="3"/>
         <v>1026253</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="11">
         <v>519860</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="11">
         <v>505944</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G71" s="11">
         <v>449</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H71" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134666</v>
       </c>
-      <c r="I70" s="11">
+      <c r="I71" s="11">
         <v>59103</v>
       </c>
-      <c r="J70" s="11">
+      <c r="J71" s="11">
         <v>75563</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K71" s="11">
         <v>17.271427094194593</v>
       </c>
-      <c r="L70" s="11">
+      <c r="L71" s="11">
         <v>13.265634978390985</v>
       </c>
-      <c r="M70" s="12">
+      <c r="M71" s="12">
         <v>18.202425653060441</v>
       </c>
     </row>
-    <row r="71" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="4">
+    <row r="72" spans="2:13" hidden="1">
+      <c r="B72" s="4">
         <v>2019</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D72" s="6">
         <f t="shared" si="3"/>
         <v>1021601</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E72" s="6">
         <v>517666</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F72" s="6">
         <v>503486</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G72" s="6">
         <v>449</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H72" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134177</v>
       </c>
-      <c r="I71" s="6">
+      <c r="I72" s="6">
         <v>58996</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J72" s="6">
         <v>75181</v>
       </c>
-      <c r="K71" s="6">
+      <c r="K72" s="6">
         <v>17.331093567286896</v>
       </c>
-      <c r="L71" s="6">
+      <c r="L72" s="6">
         <v>13.321195137765788</v>
       </c>
-      <c r="M71" s="7">
+      <c r="M72" s="7">
         <v>18.260312634014984</v>
       </c>
     </row>
-    <row r="72" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="8">
+    <row r="73" spans="2:13" hidden="1">
+      <c r="B73" s="8">
         <v>2019</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D73" s="10">
         <f t="shared" si="3"/>
         <v>1012889</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E73" s="11">
         <v>514393</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F73" s="11">
         <v>498050</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G73" s="11">
         <v>446</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H73" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134315</v>
       </c>
-      <c r="I72" s="11">
+      <c r="I73" s="11">
         <v>59818</v>
       </c>
-      <c r="J72" s="11">
+      <c r="J73" s="11">
         <v>74497</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K73" s="11">
         <v>17.523646663027421</v>
       </c>
-      <c r="L72" s="11">
+      <c r="L73" s="11">
         <v>13.572348583553588</v>
       </c>
-      <c r="M72" s="12">
+      <c r="M73" s="12">
         <v>18.476849412803052</v>
       </c>
     </row>
-    <row r="73" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="4">
+    <row r="74" spans="2:13" hidden="1">
+      <c r="B74" s="4">
         <v>2019</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D74" s="6">
         <f t="shared" si="3"/>
         <v>1011042</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E74" s="6">
         <v>512802</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F74" s="6">
         <v>497796</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G74" s="6">
         <v>444</v>
       </c>
-      <c r="H73" s="6">
+      <c r="H74" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>132861</v>
       </c>
-      <c r="I73" s="6">
+      <c r="I74" s="6">
         <v>58917</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J74" s="6">
         <v>73944</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K74" s="6">
         <v>17.474399169537342</v>
       </c>
-      <c r="L73" s="6">
+      <c r="L74" s="6">
         <v>13.491144880740022</v>
       </c>
-      <c r="M73" s="7">
+      <c r="M74" s="7">
         <v>18.398711393481303</v>
       </c>
     </row>
-    <row r="74" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="8">
+    <row r="75" spans="2:13" hidden="1">
+      <c r="B75" s="8">
         <v>2019</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C75" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D75" s="10">
         <f t="shared" si="3"/>
         <v>1006543</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>506850</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="11">
         <v>499239</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G75" s="11">
         <v>454</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H75" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>133322</v>
       </c>
-      <c r="I74" s="11">
+      <c r="I75" s="11">
         <v>58537</v>
       </c>
-      <c r="J74" s="11">
+      <c r="J75" s="11">
         <v>74785</v>
       </c>
-      <c r="K74" s="11">
+      <c r="K75" s="11">
         <v>17.005059631686898</v>
       </c>
-      <c r="L74" s="11">
+      <c r="L75" s="11">
         <v>12.551904411875007</v>
       </c>
-      <c r="M74" s="12">
+      <c r="M75" s="12">
         <v>17.760755647627501</v>
       </c>
     </row>
-    <row r="75" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="4">
+    <row r="76" spans="2:13" hidden="1">
+      <c r="B76" s="4">
         <v>2019</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D76" s="6">
         <f t="shared" si="3"/>
         <v>1000820</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E76" s="6">
         <v>504046</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F76" s="6">
         <v>496323</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G76" s="6">
         <v>451</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H76" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>132406</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I76" s="6">
         <v>58289</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J76" s="6">
         <v>74117</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K76" s="6">
         <v>17.079096025247733</v>
       </c>
-      <c r="L75" s="6">
+      <c r="L76" s="6">
         <v>12.619949247012975</v>
       </c>
-      <c r="M75" s="7">
+      <c r="M76" s="7">
         <v>17.838770667756513</v>
       </c>
     </row>
-    <row r="76" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="8">
+    <row r="77" spans="2:13" hidden="1">
+      <c r="B77" s="8">
         <v>2019</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D77" s="10">
         <f t="shared" si="3"/>
         <v>995167</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E77" s="11">
         <v>501424</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F77" s="11">
         <v>493291</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G77" s="11">
         <v>452</v>
       </c>
-      <c r="H76" s="11">
+      <c r="H77" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>131276</v>
       </c>
-      <c r="I76" s="11">
+      <c r="I77" s="11">
         <v>57933</v>
       </c>
-      <c r="J76" s="11">
+      <c r="J77" s="11">
         <v>73343</v>
       </c>
-      <c r="K76" s="11">
+      <c r="K77" s="11">
         <v>17.153564282485384</v>
       </c>
-      <c r="L76" s="11">
+      <c r="L77" s="11">
         <v>12.722576860964685</v>
       </c>
-      <c r="M76" s="12">
+      <c r="M77" s="12">
         <v>17.901807651807651</v>
       </c>
     </row>
-    <row r="77" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="4">
+    <row r="78" spans="2:13" hidden="1">
+      <c r="B78" s="4">
         <v>2019</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D78" s="6">
         <f t="shared" si="3"/>
         <v>990002</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E78" s="6">
         <v>499221</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F78" s="6">
         <v>490327</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G78" s="6">
         <v>454</v>
       </c>
-      <c r="H77" s="6">
+      <c r="H78" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>130579</v>
       </c>
-      <c r="I77" s="6">
+      <c r="I78" s="6">
         <v>57862</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J78" s="6">
         <v>72717</v>
       </c>
-      <c r="K77" s="6">
+      <c r="K78" s="6">
         <v>17.220458930103462</v>
       </c>
-      <c r="L77" s="6">
+      <c r="L78" s="6">
         <v>12.793971465549593</v>
       </c>
-      <c r="M77" s="7">
+      <c r="M78" s="7">
         <v>17.958405195294269</v>
       </c>
     </row>
-    <row r="78" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="13">
+    <row r="79" spans="2:13" hidden="1">
+      <c r="B79" s="13">
         <v>2019</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C79" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="15">
-        <f t="shared" ref="D78:D90" si="4">SUM(E78:G78)</f>
+      <c r="D79" s="15">
+        <f t="shared" ref="D79:D91" si="4">SUM(E79:G79)</f>
         <v>985713</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E79" s="16">
         <v>497141</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F79" s="16">
         <v>488120</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G79" s="16">
         <v>452</v>
       </c>
-      <c r="H78" s="16">
+      <c r="H79" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>129833</v>
       </c>
-      <c r="I78" s="16">
+      <c r="I79" s="16">
         <v>57647</v>
       </c>
-      <c r="J78" s="16">
+      <c r="J79" s="16">
         <v>72186</v>
       </c>
-      <c r="K78" s="16">
+      <c r="K79" s="16">
         <v>17.272496309728147</v>
       </c>
-      <c r="L78" s="16">
+      <c r="L79" s="16">
         <v>12.85511387705745</v>
       </c>
-      <c r="M78" s="17">
+      <c r="M79" s="17">
         <v>18.009015550920161</v>
       </c>
     </row>
-    <row r="79" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="18">
+    <row r="80" spans="2:13" hidden="1">
+      <c r="B80" s="18">
         <v>2018</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C80" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="20">
+      <c r="D80" s="20">
         <f t="shared" si="4"/>
         <v>982856</v>
       </c>
-      <c r="E79" s="20">
+      <c r="E80" s="20">
         <v>496057</v>
       </c>
-      <c r="F79" s="20">
+      <c r="F80" s="20">
         <v>486335</v>
       </c>
-      <c r="G79" s="20">
+      <c r="G80" s="20">
         <v>464</v>
       </c>
-      <c r="H79" s="20">
+      <c r="H80" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>129315</v>
       </c>
-      <c r="I79" s="20">
+      <c r="I80" s="20">
         <v>57599</v>
       </c>
-      <c r="J79" s="20">
+      <c r="J80" s="20">
         <v>71716</v>
       </c>
-      <c r="K79" s="20">
+      <c r="K80" s="20">
         <v>15.55</v>
       </c>
-      <c r="L79" s="20">
+      <c r="L80" s="20">
         <v>11.5</v>
       </c>
-      <c r="M79" s="21">
+      <c r="M80" s="21">
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="8">
+    <row r="81" spans="2:13" hidden="1">
+      <c r="B81" s="8">
         <v>2018</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C81" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D81" s="10">
         <f t="shared" si="4"/>
         <v>978058</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E81" s="11">
         <v>493248</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F81" s="11">
         <v>484343</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G81" s="11">
         <v>467</v>
       </c>
-      <c r="H80" s="11">
+      <c r="H81" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>127995</v>
       </c>
-      <c r="I80" s="11">
+      <c r="I81" s="11">
         <v>57117</v>
       </c>
-      <c r="J80" s="11">
+      <c r="J81" s="11">
         <v>70878</v>
       </c>
-      <c r="K80" s="11">
+      <c r="K81" s="11">
         <v>15.611125202215558</v>
       </c>
-      <c r="L80" s="11">
+      <c r="L81" s="11">
         <v>11.579603101683659</v>
       </c>
-      <c r="M80" s="12">
+      <c r="M81" s="12">
         <v>16.657281844021668</v>
       </c>
     </row>
-    <row r="81" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="4">
+    <row r="82" spans="2:13" hidden="1">
+      <c r="B82" s="4">
         <v>2018</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D82" s="6">
         <f t="shared" si="4"/>
         <v>971514</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E82" s="6">
         <v>489853</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F82" s="6">
         <v>481195</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G82" s="6">
         <v>466</v>
       </c>
-      <c r="H81" s="6">
+      <c r="H82" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>126537</v>
       </c>
-      <c r="I81" s="6">
+      <c r="I82" s="6">
         <v>56599</v>
       </c>
-      <c r="J81" s="6">
+      <c r="J82" s="6">
         <v>69938</v>
       </c>
-      <c r="K81" s="6">
+      <c r="K82" s="6">
         <v>15.692013983030227</v>
       </c>
-      <c r="L81" s="6">
+      <c r="L82" s="6">
         <v>11.695425480294306</v>
       </c>
-      <c r="M81" s="7">
+      <c r="M82" s="7">
         <v>16.724397819345807</v>
       </c>
     </row>
-    <row r="82" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="8">
+    <row r="83" spans="2:13" hidden="1">
+      <c r="B83" s="8">
         <v>2018</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C83" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D83" s="10">
         <f t="shared" si="4"/>
         <v>965544</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="11">
         <v>486879</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="11">
         <v>478202</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G83" s="11">
         <v>463</v>
       </c>
-      <c r="H82" s="11">
+      <c r="H83" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>125592</v>
       </c>
-      <c r="I82" s="11">
+      <c r="I83" s="11">
         <v>56443</v>
       </c>
-      <c r="J82" s="11">
+      <c r="J83" s="11">
         <v>69149</v>
       </c>
-      <c r="K82" s="11">
+      <c r="K83" s="11">
         <v>15.766115172800014</v>
       </c>
-      <c r="L82" s="11">
+      <c r="L83" s="11">
         <v>11.775922614497736</v>
       </c>
-      <c r="M82" s="12">
+      <c r="M83" s="12">
         <v>16.795398144097401</v>
       </c>
     </row>
-    <row r="83" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="4">
+    <row r="84" spans="2:13" hidden="1">
+      <c r="B84" s="4">
         <v>2018</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D84" s="6">
         <f t="shared" si="4"/>
         <v>960111</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E84" s="6">
         <v>483912</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F84" s="6">
         <v>475735</v>
       </c>
-      <c r="G83" s="6">
+      <c r="G84" s="6">
         <v>464</v>
       </c>
-      <c r="H83" s="6">
+      <c r="H84" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>124463</v>
       </c>
-      <c r="I83" s="6">
+      <c r="I84" s="6">
         <v>56029</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J84" s="6">
         <v>68434</v>
       </c>
-      <c r="K83" s="6">
+      <c r="K84" s="6">
         <v>15.828890174645572</v>
       </c>
-      <c r="L83" s="6">
+      <c r="L84" s="6">
         <v>11.859889509332092</v>
       </c>
-      <c r="M83" s="7">
+      <c r="M84" s="7">
         <v>16.84972398287292</v>
       </c>
     </row>
-    <row r="84" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="8">
+    <row r="85" spans="2:13" hidden="1">
+      <c r="B85" s="8">
         <v>2018</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C85" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D85" s="10">
         <f t="shared" si="4"/>
         <v>953323</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="11">
         <v>480495</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F85" s="11">
         <v>472364</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G85" s="11">
         <v>464</v>
       </c>
-      <c r="H84" s="11">
+      <c r="H85" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>123737</v>
       </c>
-      <c r="I84" s="11">
+      <c r="I85" s="11">
         <v>55960</v>
       </c>
-      <c r="J84" s="11">
+      <c r="J85" s="11">
         <v>67777</v>
       </c>
-      <c r="K84" s="11">
+      <c r="K85" s="11">
         <v>15.900131480954339</v>
       </c>
-      <c r="L84" s="11">
+      <c r="L85" s="11">
         <v>11.93027888990358</v>
       </c>
-      <c r="M84" s="12">
+      <c r="M85" s="12">
         <v>16.922447322032493</v>
       </c>
     </row>
-    <row r="85" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="4">
+    <row r="86" spans="2:13" hidden="1">
+      <c r="B86" s="4">
         <v>2018</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D86" s="6">
         <f t="shared" si="4"/>
         <v>947851</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E86" s="6">
         <v>477880</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F86" s="6">
         <v>469513</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G86" s="6">
         <v>458</v>
       </c>
-      <c r="H85" s="6">
+      <c r="H86" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>122946</v>
       </c>
-      <c r="I85" s="6">
+      <c r="I86" s="6">
         <v>55790</v>
       </c>
-      <c r="J85" s="6">
+      <c r="J86" s="6">
         <v>67156</v>
       </c>
-      <c r="K85" s="6">
+      <c r="K86" s="6">
         <v>15.97</v>
       </c>
-      <c r="L85" s="6">
+      <c r="L86" s="6">
         <v>12.01</v>
       </c>
-      <c r="M85" s="7">
+      <c r="M86" s="7">
         <v>16.98</v>
       </c>
     </row>
-    <row r="86" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="8">
+    <row r="87" spans="2:13" hidden="1">
+      <c r="B87" s="8">
         <v>2018</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C87" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D87" s="10">
         <f t="shared" si="4"/>
         <v>944527</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E87" s="11">
         <v>476241</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F87" s="11">
         <v>467827</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G87" s="11">
         <v>459</v>
       </c>
-      <c r="H86" s="11">
+      <c r="H87" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>122105</v>
       </c>
-      <c r="I86" s="11">
+      <c r="I87" s="11">
         <v>55617</v>
       </c>
-      <c r="J86" s="11">
+      <c r="J87" s="11">
         <v>66488</v>
       </c>
-      <c r="K86" s="11">
+      <c r="K87" s="11">
         <v>16.02</v>
       </c>
-      <c r="L86" s="11">
+      <c r="L87" s="11">
         <v>12.1</v>
       </c>
-      <c r="M86" s="12">
+      <c r="M87" s="12">
         <v>17.03</v>
       </c>
     </row>
-    <row r="87" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="4">
+    <row r="88" spans="2:13" hidden="1">
+      <c r="B88" s="4">
         <v>2018</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D88" s="6">
         <f t="shared" si="4"/>
         <v>936533</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E88" s="6">
         <v>472271</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F88" s="6">
         <v>463807</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G88" s="6">
         <v>455</v>
       </c>
-      <c r="H87" s="6">
+      <c r="H88" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>121075</v>
       </c>
-      <c r="I87" s="6">
+      <c r="I88" s="6">
         <v>55199</v>
       </c>
-      <c r="J87" s="6">
+      <c r="J88" s="6">
         <v>65876</v>
       </c>
-      <c r="K87" s="6">
+      <c r="K88" s="6">
         <v>16.09</v>
       </c>
-      <c r="L87" s="6">
+      <c r="L88" s="6">
         <v>12.15</v>
       </c>
-      <c r="M87" s="7">
+      <c r="M88" s="7">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="88" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="8">
+    <row r="89" spans="2:13" hidden="1">
+      <c r="B89" s="8">
         <v>2018</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C89" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D89" s="10">
         <f t="shared" si="4"/>
         <v>930205</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E89" s="11">
         <v>469020</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F89" s="11">
         <v>460731</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G89" s="11">
         <v>454</v>
       </c>
-      <c r="H88" s="11">
+      <c r="H89" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>120039</v>
       </c>
-      <c r="I88" s="11">
+      <c r="I89" s="11">
         <v>54921</v>
       </c>
-      <c r="J88" s="11">
+      <c r="J89" s="11">
         <v>65118</v>
       </c>
-      <c r="K88" s="11">
+      <c r="K89" s="11">
         <v>16.160723713583874</v>
       </c>
-      <c r="L88" s="11">
+      <c r="L89" s="11">
         <v>12.219768117028636</v>
       </c>
-      <c r="M88" s="12">
+      <c r="M89" s="12">
         <v>17.169355262035737</v>
       </c>
     </row>
-    <row r="89" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="4">
+    <row r="90" spans="2:13" hidden="1">
+      <c r="B90" s="4">
         <v>2018</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D90" s="6">
         <f t="shared" si="4"/>
         <v>924012</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E90" s="6">
         <v>466319</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F90" s="6">
         <v>457242</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G90" s="6">
         <v>451</v>
       </c>
-      <c r="H89" s="6">
+      <c r="H90" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>118763</v>
       </c>
-      <c r="I89" s="6">
+      <c r="I90" s="6">
         <v>54503</v>
       </c>
-      <c r="J89" s="6">
+      <c r="J90" s="6">
         <v>64260</v>
       </c>
-      <c r="K89" s="6">
+      <c r="K90" s="6">
         <v>16.222653310134305</v>
       </c>
-      <c r="L89" s="6">
+      <c r="L90" s="6">
         <v>12.303791963827118</v>
       </c>
-      <c r="M89" s="7">
+      <c r="M90" s="7">
         <v>17.220716288635032</v>
       </c>
     </row>
-    <row r="90" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="13">
+    <row r="91" spans="2:13" hidden="1">
+      <c r="B91" s="13">
         <v>2018</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C91" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D91" s="15">
         <f t="shared" si="4"/>
         <v>920526</v>
       </c>
-      <c r="E90" s="16">
+      <c r="E91" s="16">
         <v>464622</v>
       </c>
-      <c r="F90" s="16">
+      <c r="F91" s="16">
         <v>455453</v>
       </c>
-      <c r="G90" s="16">
+      <c r="G91" s="16">
         <v>451</v>
       </c>
-      <c r="H90" s="16">
+      <c r="H91" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>118260</v>
       </c>
-      <c r="I90" s="16">
+      <c r="I91" s="16">
         <v>54504</v>
       </c>
-      <c r="J90" s="16">
+      <c r="J91" s="16">
         <v>63756</v>
       </c>
-      <c r="K90" s="16">
+      <c r="K91" s="16">
         <v>16.29</v>
       </c>
-      <c r="L90" s="16">
+      <c r="L91" s="16">
         <v>12.37</v>
       </c>
-      <c r="M90" s="17">
+      <c r="M91" s="17">
         <v>17.28</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B91" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M91" s="22"/>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:13">
       <c r="B92" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M92" s="22"/>
+    </row>
+    <row r="93" spans="2:13">
+      <c r="B93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M92" s="22"/>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B93" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="M93" s="22"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:13">
       <c r="B94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M94" s="22"/>
+    </row>
+    <row r="95" spans="2:13">
+      <c r="B95" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Flota_Antigúedad_AF.xlsx
+++ b/Flota_Antigúedad_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C283440-78D5-495C-A3F7-9083D0632D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D7FBCA-A740-4F20-8C8E-9C0E7EB939B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_15.2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="30">
   <si>
     <t>Carga</t>
   </si>
@@ -128,7 +128,7 @@
     <t>ND No Disponible.</t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -428,6 +428,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,12 +452,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -727,8 +731,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:M91" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
-  <autoFilter ref="B5:M91" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:M92" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
+  <autoFilter ref="B5:M92" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -981,7 +985,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:P95"/>
+  <dimension ref="B2:P96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1018,22 +1022,22 @@
     <row r="4" spans="2:16">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="32" t="s">
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="34"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="2:16" ht="33">
       <c r="B5" s="24" t="s">
@@ -1074,3466 +1078,3506 @@
       </c>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="19">
+      <c r="B6" s="9">
         <v>2025</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="10">
+        <f>SUM(E6:G6)</f>
+        <v>1454977</v>
+      </c>
+      <c r="E6" s="11">
+        <v>732842</v>
+      </c>
+      <c r="F6" s="11">
+        <v>721468</v>
+      </c>
+      <c r="G6" s="11">
+        <v>667</v>
+      </c>
+      <c r="H6" s="11">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>187465</v>
+      </c>
+      <c r="I6" s="10">
+        <v>73738</v>
+      </c>
+      <c r="J6" s="11">
+        <v>113727</v>
+      </c>
+      <c r="K6" s="11">
+        <v>19.18470984148254</v>
+      </c>
+      <c r="L6" s="11">
+        <v>16.007019977062384</v>
+      </c>
+      <c r="M6" s="11">
+        <v>20.020610172451907</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="37">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="20">
-        <f>SUM(E6:G6)</f>
+      <c r="D7" s="38">
+        <f>SUM(E7:G7)</f>
         <v>1448239</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E7" s="38">
         <v>729319</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F7" s="38">
         <v>718257</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G7" s="38">
         <v>663</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H7" s="38">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>186866</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I7" s="38">
         <v>73570</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J7" s="38">
         <v>113296</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K7" s="38">
         <v>19.252675224939154</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L7" s="38">
         <v>16.075695953249923</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M7" s="38">
         <v>20.096500982423329</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="13">
+    <row r="8" spans="2:16">
+      <c r="B8" s="13">
         <v>2025</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="15">
-        <f>SUM(E7:G7)</f>
+      <c r="D8" s="15">
+        <f>SUM(E8:G8)</f>
         <v>1441492</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E8" s="16">
         <v>726109</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F8" s="16">
         <v>714727</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G8" s="16">
         <v>656</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H8" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>186423</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I8" s="15">
         <v>73458</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J8" s="16">
         <v>112965</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K8" s="29">
         <v>19.321609528661387</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L8" s="29">
         <v>16.134200179162441</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M8" s="30">
         <v>20.172519552849504</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="4">
+    <row r="9" spans="2:16">
+      <c r="B9" s="4">
         <v>2024</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="6">
-        <f>SUM(E8:G8)</f>
+      <c r="D9" s="6">
+        <f>SUM(E9:G9)</f>
         <v>1435884</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="6">
         <v>723462</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="6">
         <v>711776</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G9" s="6">
         <v>646</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H9" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>186064</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I9" s="6">
         <v>73453</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J9" s="6">
         <v>112611</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K9" s="6">
         <v>18.404813538748488</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L9" s="6">
         <v>15.191272895347836</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M9" s="7">
         <v>19.269418435246081</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="8">
+    <row r="10" spans="2:16">
+      <c r="B10" s="8">
         <v>2024</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10">
-        <f>SUM(E9:G9)</f>
+      <c r="D10" s="10">
+        <f>SUM(E10:G10)</f>
         <v>1428265</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E10" s="11">
         <v>719185</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="11">
         <v>708450</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G10" s="11">
         <v>630</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H10" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>184987</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I10" s="10">
         <v>73204</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J10" s="11">
         <v>111783</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K10" s="11">
         <v>18.476960502833276</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L10" s="11">
         <v>15.270154118938088</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M10" s="12">
         <v>19.35768543559724</v>
       </c>
-      <c r="P9"/>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="4">
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="4">
         <v>2024</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="6">
-        <f t="shared" ref="D10" si="0">SUM(E10:G10)</f>
+      <c r="D11" s="6">
+        <f t="shared" ref="D11" si="0">SUM(E11:G11)</f>
         <v>1419744</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E11" s="6">
         <v>714747</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="6">
         <v>704375</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G11" s="6">
         <v>622</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H11" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>184353</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I11" s="6">
         <v>73206</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J11" s="6">
         <v>111147</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K11" s="6">
         <v>18.559178035204791</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L11" s="6">
         <v>15.333984258460672</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M11" s="7">
         <v>19.45495538980926</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="8">
+    <row r="12" spans="2:16">
+      <c r="B12" s="8">
         <v>2024</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="10">
-        <f>SUM(E11:G11)</f>
+      <c r="D12" s="10">
+        <f>SUM(E12:G12)</f>
         <v>1409947</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="11">
         <v>709391</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="11">
         <v>699945</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G12" s="11">
         <v>611</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H12" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>183444</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I12" s="10">
         <v>72959</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J12" s="11">
         <v>110485</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K12" s="11">
         <v>18.653800273735229</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L12" s="11">
         <v>15.41505309522252</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M12" s="12">
         <v>19.569322136875151</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="4">
+    <row r="13" spans="2:16">
+      <c r="B13" s="4">
         <v>2024</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="6">
-        <f>SUM(E12:G12)</f>
+      <c r="D13" s="6">
+        <f>SUM(E13:G13)</f>
         <v>1401613</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="6">
         <v>704941</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="6">
         <v>696064</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G13" s="6">
         <v>608</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H13" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>182766</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I13" s="6">
         <v>72808</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J13" s="6">
         <v>109958</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K13" s="6">
         <v>18.731302694644619</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L13" s="6">
+        <v>19.663221461086813</v>
+      </c>
+      <c r="M13" s="7">
         <v>15.486441679524638</v>
       </c>
-      <c r="M12" s="7">
-        <v>19.663221461086813</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="8">
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="8">
         <v>2024</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="10">
-        <f t="shared" ref="D13:D15" si="1">SUM(E13:G13)</f>
+      <c r="D14" s="10">
+        <f t="shared" ref="D14:D16" si="1">SUM(E14:G14)</f>
         <v>1392231</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="11">
         <v>700064</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="11">
         <v>691573</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G14" s="11">
         <v>594</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H14" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>182096</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I14" s="11">
         <v>72722</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J14" s="11">
         <v>109374</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K14" s="11">
         <v>18.818005976871554</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L14" s="11">
         <v>15.548683112204552</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M14" s="12">
         <v>19.76646992274992</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="4">
+    <row r="15" spans="2:16">
+      <c r="B15" s="4">
         <v>2024</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="6">
         <f t="shared" si="1"/>
         <v>1381670</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <v>694997</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="6">
         <v>686081</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G15" s="6">
         <v>592</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H15" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>181209</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I15" s="6">
         <v>72604</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J15" s="6">
         <v>108605</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K15" s="6">
         <v>18.917404420570612</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L15" s="6">
         <v>15.6321154026566</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M15" s="7">
         <v>19.872406643481913</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="8">
+    <row r="16" spans="2:16">
+      <c r="B16" s="8">
         <v>2024</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D16" s="10">
         <f t="shared" si="1"/>
         <v>1364076</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="11">
         <v>686433</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="11">
         <v>677060</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G16" s="11">
         <v>583</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H16" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>180169</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I16" s="11">
         <v>72197</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J16" s="11">
         <v>107972</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K16" s="11">
         <v>19.07390024500182</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L16" s="11">
         <v>15.728466051318485</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M16" s="11">
         <v>20.044184938661164</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="4">
+    <row r="17" spans="2:13">
+      <c r="B17" s="4">
         <v>2024</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="6">
-        <f t="shared" ref="D16:D46" si="2">SUM(E16:G16)</f>
+      <c r="D17" s="6">
+        <f t="shared" ref="D17:D47" si="2">SUM(E17:G17)</f>
         <v>1362046</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="6">
         <v>685435</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="6">
         <v>676046</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G17" s="6">
         <v>565</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H17" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>179118</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I17" s="6">
         <v>71981</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J17" s="6">
         <v>107137</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K17" s="6">
         <v>19.118977099167271</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L17" s="6">
         <v>15.827370783505843</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M17" s="7">
         <v>20.082257252693545</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="8">
+    <row r="18" spans="2:13">
+      <c r="B18" s="8">
         <v>2024</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D18" s="10">
         <f t="shared" si="2"/>
         <v>1353988</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E18" s="11">
         <v>681551</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F18" s="11">
         <v>671878</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G18" s="11">
         <v>559</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H18" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>178140</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I18" s="11">
         <v>71842</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J18" s="11">
         <v>106298</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K18" s="11">
         <v>19.204794560349551</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L18" s="11">
         <v>15.921746940608513</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M18" s="12">
         <v>20.167528182043604</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="4">
+    <row r="19" spans="2:13">
+      <c r="B19" s="4">
         <v>2024</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="6">
         <f t="shared" si="2"/>
         <v>1345055</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E19" s="6">
         <v>677153</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F19" s="6">
         <v>667343</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G19" s="6">
         <v>559</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H19" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>177618</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I19" s="6">
         <v>71797</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J19" s="6">
         <v>105821</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K19" s="6">
         <v>19.298350846257247</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L19" s="6">
         <v>15.980300420002475</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M19" s="7">
         <v>20.271950356861744</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="13">
+    <row r="20" spans="2:13">
+      <c r="B20" s="13">
         <v>2024</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D20" s="15">
         <f t="shared" si="2"/>
         <v>1337961</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E20" s="16">
         <v>673757</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F20" s="16">
         <v>663646</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G20" s="16">
         <v>558</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H20" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>176858</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I20" s="16">
         <v>71641</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J20" s="16">
         <v>105217</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K20" s="16">
         <v>19.37957723272276</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L20" s="16">
         <v>16.061088556921373</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M20" s="17">
         <v>20.355880532595581</v>
       </c>
     </row>
-    <row r="20" spans="2:13" hidden="1">
-      <c r="B20" s="18">
+    <row r="21" spans="2:13" hidden="1">
+      <c r="B21" s="18">
         <v>2023</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D21" s="20">
         <f t="shared" si="2"/>
         <v>1331921</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E21" s="20">
         <v>671002</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F21" s="20">
         <v>660365</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G21" s="20">
         <v>554</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H21" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>176251</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I21" s="20">
         <v>71562</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J21" s="20">
         <v>104689</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K21" s="20">
         <v>18.475869218860481</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L21" s="20">
         <v>15.134234699377592</v>
       </c>
-      <c r="M20" s="21">
+      <c r="M21" s="21">
         <v>19.458281793496891</v>
       </c>
     </row>
-    <row r="21" spans="2:13" hidden="1">
-      <c r="B21" s="8">
+    <row r="22" spans="2:13" hidden="1">
+      <c r="B22" s="8">
         <v>2023</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D22" s="10">
         <f t="shared" si="2"/>
         <v>1324591</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="11">
         <v>667021</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F22" s="11">
         <v>657017</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G22" s="11">
         <v>553</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H22" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>175311</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I22" s="11">
         <v>71379</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J22" s="11">
         <v>103932</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K22" s="11">
         <v>18.551437990754653</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L22" s="11">
         <v>15.22355699300101</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M22" s="12">
         <v>19.543477641633473</v>
       </c>
     </row>
-    <row r="22" spans="2:13" hidden="1">
-      <c r="B22" s="4">
+    <row r="23" spans="2:13" hidden="1">
+      <c r="B23" s="4">
         <v>2023</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D23" s="6">
         <f t="shared" si="2"/>
         <v>1316689</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E23" s="6">
         <v>662911</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F23" s="6">
         <v>653227</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G23" s="6">
         <v>551</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H23" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>174393</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I23" s="6">
         <v>71146</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J23" s="6">
         <v>103247</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K23" s="6">
         <v>18.63639333901811</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L23" s="6">
         <v>15.305362027145584</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M23" s="7">
         <v>19.637007079381696</v>
       </c>
     </row>
-    <row r="23" spans="2:13" hidden="1">
-      <c r="B23" s="8">
+    <row r="24" spans="2:13" hidden="1">
+      <c r="B24" s="8">
         <v>2023</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D24" s="10">
         <f t="shared" si="2"/>
         <v>1309236</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="11">
         <v>659020</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F24" s="11">
         <v>649665</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G24" s="11">
         <v>551</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H24" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>173599</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I24" s="11">
         <v>71029</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J24" s="11">
         <v>102570</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K24" s="11">
         <v>18.719585450561432</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L24" s="11">
         <v>15.387882418677528</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M24" s="12">
         <v>19.730128068950865</v>
       </c>
     </row>
-    <row r="24" spans="2:13" hidden="1">
-      <c r="B24" s="4">
+    <row r="25" spans="2:13" hidden="1">
+      <c r="B25" s="4">
         <v>2023</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D25" s="6">
         <f t="shared" si="2"/>
         <v>1302003</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E25" s="6">
         <v>655458</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F25" s="6">
         <v>645999</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G25" s="6">
         <v>546</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H25" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>172764</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I25" s="6">
         <v>70834</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J25" s="6">
         <v>101930</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K25" s="6">
         <v>18.802238606016331</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L25" s="6">
         <v>15.470034266398091</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M25" s="7">
         <v>19.817370449365175</v>
       </c>
     </row>
-    <row r="25" spans="2:13" hidden="1">
-      <c r="B25" s="8">
+    <row r="26" spans="2:13" hidden="1">
+      <c r="B26" s="8">
         <v>2023</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D26" s="10">
         <f t="shared" si="2"/>
         <v>1294209</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="11">
         <v>651761</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F26" s="11">
         <v>641907</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G26" s="11">
         <v>541</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H26" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>172137</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I26" s="11">
         <v>70783</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J26" s="11">
         <v>101354</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K26" s="11">
         <v>18.888086750966192</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L26" s="11">
         <v>15.535631502814621</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M26" s="12">
         <v>19.908092076696825</v>
       </c>
     </row>
-    <row r="26" spans="2:13" hidden="1">
-      <c r="B26" s="4">
+    <row r="27" spans="2:13" hidden="1">
+      <c r="B27" s="4">
         <v>2023</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D27" s="6">
         <f t="shared" si="2"/>
         <v>1286042</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E27" s="6">
         <v>647906</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F27" s="6">
         <v>637598</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G27" s="6">
         <v>538</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H27" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>171516</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I27" s="6">
         <v>70673</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J27" s="6">
         <v>100843</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K27" s="6">
         <v>18.982887674843173</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L27" s="6">
         <v>15.606316611861285</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M27" s="7">
         <v>20.002412386982066</v>
       </c>
     </row>
-    <row r="27" spans="2:13" hidden="1">
-      <c r="B27" s="8">
+    <row r="28" spans="2:13" hidden="1">
+      <c r="B28" s="8">
         <v>2023</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D28" s="10">
         <f t="shared" si="2"/>
         <v>1279902</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E28" s="11">
         <v>645139</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F28" s="11">
         <v>634226</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G28" s="11">
         <v>537</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H28" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>170681</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I28" s="11">
         <v>70483</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J28" s="11">
         <v>100198</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K28" s="11">
         <v>19.060761520669001</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L28" s="11">
         <v>15.688172672998164</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M28" s="12">
         <v>20.079559598784137</v>
       </c>
     </row>
-    <row r="28" spans="2:13" hidden="1">
-      <c r="B28" s="4">
+    <row r="29" spans="2:13" hidden="1">
+      <c r="B29" s="4">
         <v>2023</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D29" s="6">
         <f t="shared" si="2"/>
         <v>1273243</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E29" s="6">
         <v>641751</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F29" s="6">
         <v>630955</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G29" s="6">
         <v>537</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H29" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>170020</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I29" s="6">
         <v>70335</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J29" s="6">
         <v>99685</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K29" s="6">
         <v>19.1410877741165</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L29" s="6">
         <v>15.757763792495</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M29" s="7">
         <v>20.166095572893536</v>
       </c>
     </row>
-    <row r="29" spans="2:13" hidden="1">
-      <c r="B29" s="8">
+    <row r="30" spans="2:13" hidden="1">
+      <c r="B30" s="8">
         <v>2023</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D30" s="10">
         <f t="shared" si="2"/>
         <v>1267813</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E30" s="11">
         <v>639200</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F30" s="11">
         <v>628078</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G30" s="11">
         <v>535</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H30" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>169398</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I30" s="11">
         <v>70212</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J30" s="11">
         <v>99186</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K30" s="11">
         <v>19.207652247270783</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L30" s="11">
         <v>15.818386285552368</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M30" s="12">
         <v>20.231362640800999</v>
       </c>
     </row>
-    <row r="30" spans="2:13" hidden="1">
-      <c r="B30" s="4">
+    <row r="31" spans="2:13" hidden="1">
+      <c r="B31" s="4">
         <v>2023</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D31" s="6">
         <f t="shared" si="2"/>
         <v>1261816</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E31" s="6">
         <v>636167</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F31" s="6">
         <v>625114</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G31" s="6">
         <v>535</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H31" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>168270</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I31" s="6">
         <v>70028</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J31" s="6">
         <v>98242</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K31" s="6">
         <v>19.287032781621644</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L31" s="6">
         <v>15.924098175551196</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M31" s="7">
         <v>20.308953466621187</v>
       </c>
     </row>
-    <row r="31" spans="2:13" hidden="1">
-      <c r="B31" s="13">
+    <row r="32" spans="2:13" hidden="1">
+      <c r="B32" s="13">
         <v>2023</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D32" s="15">
         <f t="shared" si="2"/>
         <v>1256959</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E32" s="16">
         <v>633934</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F32" s="16">
         <v>622491</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G32" s="16">
         <v>534</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H32" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>167855</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I32" s="16">
         <v>70043</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J32" s="16">
         <v>97812</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K32" s="16">
         <v>19.347213328839835</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L32" s="16">
         <v>15.971731554019838</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M32" s="17">
         <v>20.368738701505205</v>
       </c>
     </row>
-    <row r="32" spans="2:13" hidden="1">
-      <c r="B32" s="18">
+    <row r="33" spans="2:13" hidden="1">
+      <c r="B33" s="18">
         <v>2022</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C33" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D33" s="20">
         <f t="shared" si="2"/>
         <v>1253020</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E33" s="20">
         <v>632252</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F33" s="20">
         <v>620240</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G33" s="20">
         <v>528</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H33" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>167359</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I33" s="20">
         <v>70056</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J33" s="20">
         <v>97303</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K33" s="20">
         <v>18.42307890053252</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L33" s="20">
         <v>15.042250491458482</v>
       </c>
-      <c r="M32" s="21">
+      <c r="M33" s="21">
         <v>19.442766491841866</v>
       </c>
     </row>
-    <row r="33" spans="2:13" hidden="1">
-      <c r="B33" s="8">
+    <row r="34" spans="2:13" hidden="1">
+      <c r="B34" s="8">
         <v>2022</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D34" s="10">
         <f t="shared" si="2"/>
         <v>1248052</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E34" s="11">
         <v>629746</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F34" s="11">
         <v>617778</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G34" s="11">
         <v>528</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H34" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>166178</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I34" s="11">
         <v>69821</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J34" s="11">
         <v>96357</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K34" s="11">
         <v>18.489979500630259</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L34" s="11">
         <v>15.145163619733058</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M34" s="12">
         <v>19.503375964277662</v>
       </c>
     </row>
-    <row r="34" spans="2:13" hidden="1">
-      <c r="B34" s="4">
+    <row r="35" spans="2:13" hidden="1">
+      <c r="B35" s="4">
         <v>2022</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D35" s="6">
         <f t="shared" si="2"/>
         <v>1243495</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E35" s="6">
         <v>627591</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F35" s="6">
         <v>615376</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G35" s="6">
         <v>528</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H35" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>165354</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I35" s="6">
         <v>69675</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J35" s="6">
         <v>95679</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K35" s="6">
         <v>18.547631541388647</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L35" s="6">
         <v>15.219299200503164</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M35" s="7">
         <v>19.558707820857851</v>
       </c>
     </row>
-    <row r="35" spans="2:13" hidden="1">
-      <c r="B35" s="8">
+    <row r="36" spans="2:13" hidden="1">
+      <c r="B36" s="8">
         <v>2022</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D36" s="10">
         <f t="shared" si="2"/>
         <v>1239858</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E36" s="11">
         <v>625802</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F36" s="11">
         <v>613527</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G36" s="11">
         <v>529</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H36" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>164931</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I36" s="11">
         <v>69723</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J36" s="11">
         <v>95208</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K36" s="11">
         <v>18.59142751342344</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L36" s="11">
         <v>15.268857886025064</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M36" s="12">
         <v>19.601036749642859</v>
       </c>
     </row>
-    <row r="36" spans="2:13" hidden="1">
-      <c r="B36" s="4">
+    <row r="37" spans="2:13" hidden="1">
+      <c r="B37" s="4">
         <v>2022</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D37" s="6">
         <f t="shared" si="2"/>
         <v>1234757</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E37" s="6">
         <v>623225</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F37" s="6">
         <v>611005</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G37" s="6">
         <v>527</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H37" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>166002</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I37" s="6">
         <v>69645</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J37" s="6">
         <v>96357</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K37" s="6">
         <v>18.633291483125653</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L37" s="6">
         <v>15.188636281490584</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M37" s="7">
         <v>19.665687352079907</v>
       </c>
     </row>
-    <row r="37" spans="2:13" hidden="1">
-      <c r="B37" s="8">
+    <row r="38" spans="2:13" hidden="1">
+      <c r="B38" s="8">
         <v>2022</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D38" s="10">
         <f t="shared" si="2"/>
         <v>1227595</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E38" s="11">
         <v>619408</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F38" s="11">
         <v>607662</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G38" s="11">
         <v>525</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H38" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>163526</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I38" s="11">
         <v>69586</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J38" s="11">
         <v>93940</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K38" s="11">
         <v>18.738775316483004</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L38" s="11">
         <v>15.421364186734833</v>
       </c>
-      <c r="M37" s="12">
+      <c r="M38" s="12">
         <v>19.756386743471182</v>
       </c>
     </row>
-    <row r="38" spans="2:13" hidden="1">
-      <c r="B38" s="4">
+    <row r="39" spans="2:13" hidden="1">
+      <c r="B39" s="4">
         <v>2022</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D39" s="6">
         <f t="shared" si="2"/>
         <v>1225289</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E39" s="6">
         <v>618040</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F39" s="6">
         <v>606724</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G39" s="6">
         <v>525</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H39" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>163070</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I39" s="6">
         <v>69430</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J39" s="6">
         <v>93640</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K39" s="6">
         <v>18.751951602280965</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L39" s="6">
         <v>15.452272030416385</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M39" s="7">
         <v>19.768709145039157</v>
       </c>
     </row>
-    <row r="39" spans="2:13" hidden="1">
-      <c r="B39" s="8">
+    <row r="40" spans="2:13" hidden="1">
+      <c r="B40" s="8">
         <v>2022</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C40" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D40" s="10">
         <f t="shared" si="2"/>
         <v>1222511</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E40" s="11">
         <v>616795</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F40" s="11">
         <v>605191</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G40" s="11">
         <v>525</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H40" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>162777</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I40" s="11">
         <v>69624</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J40" s="11">
         <v>93153</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K40" s="11">
         <v>18.804625051362581</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L40" s="11">
         <v>15.510440664221605</v>
       </c>
-      <c r="M39" s="12">
+      <c r="M40" s="12">
         <v>19.817924918327808</v>
       </c>
     </row>
-    <row r="40" spans="2:13" hidden="1">
-      <c r="B40" s="4">
+    <row r="41" spans="2:13" hidden="1">
+      <c r="B41" s="4">
         <v>2022</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D41" s="6">
         <f t="shared" si="2"/>
         <v>1217422</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E41" s="6">
         <v>614317</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F41" s="6">
         <v>602581</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G41" s="6">
         <v>524</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H41" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>162245</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I41" s="6">
         <v>69515</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J41" s="6">
         <v>92730</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K41" s="6">
         <v>18.867667819798235</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L41" s="6">
         <v>15.572301149496132</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M41" s="7">
         <v>19.875979339656887</v>
       </c>
     </row>
-    <row r="41" spans="2:13" hidden="1">
-      <c r="B41" s="8">
+    <row r="42" spans="2:13" hidden="1">
+      <c r="B42" s="8">
         <v>2022</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D42" s="10">
         <f t="shared" si="2"/>
         <v>1212635</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E42" s="11">
         <v>611918</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F42" s="11">
         <v>600194</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G42" s="11">
         <v>523</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H42" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>161903</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I42" s="11">
         <v>69487</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J42" s="11">
         <v>92416</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K42" s="11">
         <v>18.918767990160223</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L42" s="11">
         <v>15.612731079720572</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M42" s="12">
         <v>19.925975375785644</v>
       </c>
     </row>
-    <row r="42" spans="2:13" hidden="1">
-      <c r="B42" s="4">
+    <row r="43" spans="2:13" hidden="1">
+      <c r="B43" s="4">
         <v>2022</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D43" s="6">
         <f t="shared" si="2"/>
         <v>1207392</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E43" s="6">
         <v>609072</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F43" s="6">
         <v>597797</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G43" s="6">
         <v>523</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H43" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>161179</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I43" s="6">
         <v>69288</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J43" s="6">
         <v>91891</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K43" s="6">
         <v>18.985056810872138</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L43" s="6">
         <v>15.690822005348092</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M43" s="7">
         <v>19.992202892268896</v>
       </c>
     </row>
-    <row r="43" spans="2:13" hidden="1">
-      <c r="B43" s="13">
+    <row r="44" spans="2:13" hidden="1">
+      <c r="B44" s="13">
         <v>2022</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C44" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D44" s="15">
         <f t="shared" si="2"/>
         <v>1203679</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E44" s="16">
         <v>607150</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F44" s="16">
         <v>596005</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G44" s="16">
         <v>524</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H44" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>160915</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I44" s="16">
         <v>69335</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J44" s="16">
         <v>91580</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K44" s="16">
         <v>19.033586986005115</v>
       </c>
-      <c r="L43" s="16">
+      <c r="L44" s="16">
         <v>15.723189261411305</v>
       </c>
-      <c r="M43" s="17">
+      <c r="M44" s="17">
         <v>20.040443053611135</v>
       </c>
     </row>
-    <row r="44" spans="2:13" hidden="1">
-      <c r="B44" s="18">
+    <row r="45" spans="2:13" hidden="1">
+      <c r="B45" s="18">
         <v>2021</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C45" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D45" s="20">
         <f t="shared" si="2"/>
         <v>1201053</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E45" s="20">
         <v>606090</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F45" s="20">
         <v>594443</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G45" s="20">
         <v>520</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H45" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>160633</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I45" s="20">
         <v>69330</v>
       </c>
-      <c r="J44" s="20">
+      <c r="J45" s="20">
         <v>91303</v>
       </c>
-      <c r="K44" s="20">
+      <c r="K45" s="20">
         <v>18.104901973748976</v>
       </c>
-      <c r="L44" s="20">
+      <c r="L45" s="20">
         <v>14.77932927854177</v>
       </c>
-      <c r="M44" s="21">
+      <c r="M45" s="21">
         <v>19.103214044118861</v>
       </c>
     </row>
-    <row r="45" spans="2:13" hidden="1">
-      <c r="B45" s="8">
+    <row r="46" spans="2:13" hidden="1">
+      <c r="B46" s="8">
         <v>2021</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D46" s="10">
         <f t="shared" si="2"/>
         <v>1195350</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E46" s="11">
         <v>603380</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F46" s="11">
         <v>591451</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G46" s="11">
         <v>519</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H46" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>159783</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I46" s="11">
         <v>69196</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J46" s="11">
         <v>90587</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K46" s="11">
         <v>18.165010106199993</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L46" s="11">
         <v>14.853858044973496</v>
       </c>
-      <c r="M45" s="12">
+      <c r="M46" s="12">
         <v>19.159161722297721</v>
       </c>
     </row>
-    <row r="46" spans="2:13" hidden="1">
-      <c r="B46" s="4">
+    <row r="47" spans="2:13" hidden="1">
+      <c r="B47" s="4">
         <v>2021</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D47" s="6">
         <f t="shared" si="2"/>
         <v>1192781</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E47" s="6">
         <v>602061</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F47" s="6">
         <v>590200</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G47" s="6">
         <v>520</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H47" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>159209</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I47" s="6">
         <v>69167</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J47" s="6">
         <v>90042</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K47" s="6">
         <v>18.210527795659541</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L47" s="6">
         <v>14.91196477586066</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M47" s="7">
         <v>19.201099224164992</v>
       </c>
     </row>
-    <row r="47" spans="2:13" hidden="1">
-      <c r="B47" s="8">
+    <row r="48" spans="2:13" hidden="1">
+      <c r="B48" s="8">
         <v>2021</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="10">
-        <f t="shared" ref="D47:D78" si="3">SUM(E47:G47)</f>
+      <c r="D48" s="10">
+        <f t="shared" ref="D48:D79" si="3">SUM(E48:G48)</f>
         <v>1186041</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E48" s="11">
         <v>599199</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F48" s="11">
         <v>586326</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G48" s="11">
         <v>516</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H48" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>158594</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I48" s="11">
         <v>69024</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J48" s="11">
         <v>89570</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K48" s="11">
         <v>18.280978841903135</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L48" s="11">
         <v>14.981991752525316</v>
       </c>
-      <c r="M47" s="12">
+      <c r="M48" s="12">
         <v>19.262381946565331</v>
       </c>
     </row>
-    <row r="48" spans="2:13" hidden="1">
-      <c r="B48" s="4">
+    <row r="49" spans="2:13" hidden="1">
+      <c r="B49" s="4">
         <v>2021</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D49" s="6">
         <f t="shared" si="3"/>
         <v>1182334</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E49" s="6">
         <v>597975</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F49" s="6">
         <v>583854</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G49" s="6">
         <v>505</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H49" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157584</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I49" s="6">
         <v>68967</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J49" s="6">
         <v>88617</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K49" s="6">
         <v>18.343313078191716</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L49" s="6">
         <v>15.069702507868818</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M49" s="7">
         <v>19.317817634516494</v>
       </c>
     </row>
-    <row r="49" spans="2:13" hidden="1">
-      <c r="B49" s="8">
+    <row r="50" spans="2:13" hidden="1">
+      <c r="B50" s="8">
         <v>2021</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D50" s="10">
         <f t="shared" si="3"/>
         <v>1175907</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E50" s="11">
         <v>594590</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F50" s="11">
         <v>580812</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G50" s="11">
         <v>505</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H50" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157806</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I50" s="11">
         <v>69051</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J50" s="11">
         <v>88755</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K50" s="11">
         <v>18.386941872536017</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L50" s="11">
         <v>15.078070542311446</v>
       </c>
-      <c r="M49" s="12">
+      <c r="M50" s="12">
         <v>19.364975865722599</v>
       </c>
     </row>
-    <row r="50" spans="2:13" hidden="1">
-      <c r="B50" s="4">
+    <row r="51" spans="2:13" hidden="1">
+      <c r="B51" s="4">
         <v>2021</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D51" s="6">
         <f t="shared" si="3"/>
         <v>1172788</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E51" s="6">
         <v>593307</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F51" s="6">
         <v>578970</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G51" s="6">
         <v>511</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H51" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157163</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I51" s="6">
         <v>68993</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J51" s="6">
         <v>88170</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K51" s="6">
         <v>18.439486550728127</v>
       </c>
-      <c r="L50" s="6">
+      <c r="L51" s="6">
         <v>15.1151861443215</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M51" s="7">
         <v>19.410730026782087</v>
       </c>
     </row>
-    <row r="51" spans="2:13" hidden="1">
-      <c r="B51" s="8">
+    <row r="52" spans="2:13" hidden="1">
+      <c r="B52" s="8">
         <v>2021</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C52" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D52" s="10">
         <f t="shared" si="3"/>
         <v>1166805</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E52" s="11">
         <v>590245</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F52" s="11">
         <v>576050</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G52" s="11">
         <v>510</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H52" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156786</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I52" s="11">
         <v>69018</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J52" s="11">
         <v>87768</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K52" s="11">
         <v>18.504217806770711</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L52" s="11">
         <v>15.155396527751202</v>
       </c>
-      <c r="M51" s="12">
+      <c r="M52" s="12">
         <v>19.481235758032678</v>
       </c>
     </row>
-    <row r="52" spans="2:13" hidden="1">
-      <c r="B52" s="4">
+    <row r="53" spans="2:13" hidden="1">
+      <c r="B53" s="4">
         <v>2021</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D53" s="6">
         <f t="shared" si="3"/>
         <v>1162463</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E53" s="6">
         <v>588077</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F53" s="6">
         <v>573877</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G53" s="6">
         <v>509</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H53" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156695</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I53" s="6">
         <v>69223</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J53" s="6">
         <v>87472</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K53" s="6">
         <v>18.555855273086319</v>
       </c>
-      <c r="L52" s="6">
+      <c r="L53" s="6">
         <v>15.176859504132231</v>
       </c>
-      <c r="M52" s="7">
+      <c r="M53" s="7">
         <v>19.539313729324562</v>
       </c>
     </row>
-    <row r="53" spans="2:13" hidden="1">
-      <c r="B53" s="8">
+    <row r="54" spans="2:13" hidden="1">
+      <c r="B54" s="8">
         <v>2021</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D54" s="10">
         <f t="shared" si="3"/>
         <v>1157730</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E54" s="11">
         <v>586093</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F54" s="11">
         <v>571129</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G54" s="11">
         <v>508</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H54" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156467</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I54" s="11">
         <v>69334</v>
       </c>
-      <c r="J53" s="11">
+      <c r="J54" s="11">
         <v>87133</v>
       </c>
-      <c r="K53" s="11">
+      <c r="K54" s="11">
         <v>18.610992403833784</v>
       </c>
-      <c r="L53" s="11">
+      <c r="L54" s="11">
         <v>15.20547463682438</v>
       </c>
-      <c r="M53" s="12">
+      <c r="M54" s="12">
         <v>19.591187746654541</v>
       </c>
     </row>
-    <row r="54" spans="2:13" hidden="1">
-      <c r="B54" s="4">
+    <row r="55" spans="2:13" hidden="1">
+      <c r="B55" s="4">
         <v>2021</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D55" s="6">
         <f t="shared" si="3"/>
         <v>1151624</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E55" s="6">
         <v>583440</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F55" s="6">
         <v>567677</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G55" s="6">
         <v>507</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H55" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156128</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I55" s="6">
         <v>69352</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J55" s="6">
         <v>86776</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K55" s="6">
         <v>18.682593545968817</v>
       </c>
-      <c r="L54" s="6">
+      <c r="L55" s="6">
         <v>15.246899979503995</v>
       </c>
-      <c r="M54" s="7">
+      <c r="M55" s="7">
         <v>19.65870183737831</v>
       </c>
     </row>
-    <row r="55" spans="2:13" hidden="1">
-      <c r="B55" s="13">
+    <row r="56" spans="2:13" hidden="1">
+      <c r="B56" s="13">
         <v>2021</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D56" s="15">
         <f t="shared" si="3"/>
         <v>1146962</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E56" s="16">
         <v>581299</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F56" s="16">
         <v>565156</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G56" s="16">
         <v>507</v>
       </c>
-      <c r="H55" s="16">
+      <c r="H56" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156135</v>
       </c>
-      <c r="I55" s="16">
+      <c r="I56" s="16">
         <v>69558</v>
       </c>
-      <c r="J55" s="16">
+      <c r="J56" s="16">
         <v>86577</v>
       </c>
-      <c r="K55" s="16">
+      <c r="K56" s="16">
         <v>18.737382445742711</v>
       </c>
-      <c r="L55" s="16">
+      <c r="L56" s="16">
         <v>15.270791302398566</v>
       </c>
-      <c r="M55" s="17">
+      <c r="M56" s="17">
         <v>19.71498144672535</v>
       </c>
     </row>
-    <row r="56" spans="2:13" hidden="1">
-      <c r="B56" s="18">
+    <row r="57" spans="2:13" hidden="1">
+      <c r="B57" s="18">
         <v>2020</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C57" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D57" s="20">
         <f t="shared" si="3"/>
         <v>1143940</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E57" s="20">
         <v>580035</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F57" s="20">
         <v>563400</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G57" s="20">
         <v>505</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H57" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156064</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I57" s="20">
         <v>69624</v>
       </c>
-      <c r="J56" s="20">
+      <c r="J57" s="20">
         <v>86440</v>
       </c>
-      <c r="K56" s="20">
+      <c r="K57" s="20">
         <v>17.787893642088221</v>
       </c>
-      <c r="L56" s="20">
+      <c r="L57" s="20">
         <v>14.291950738158704</v>
       </c>
-      <c r="M56" s="21">
+      <c r="M57" s="21">
         <v>18.763405656555207</v>
       </c>
     </row>
-    <row r="57" spans="2:13" hidden="1">
-      <c r="B57" s="8">
+    <row r="58" spans="2:13" hidden="1">
+      <c r="B58" s="8">
         <v>2020</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C58" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D58" s="10">
         <f t="shared" si="3"/>
         <v>1137719</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E58" s="11">
         <v>576835</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F58" s="11">
         <v>560383</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G58" s="11">
         <v>501</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H58" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>155330</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I58" s="11">
         <v>69641</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J58" s="11">
         <v>85689</v>
       </c>
-      <c r="K57" s="11">
+      <c r="K58" s="11">
         <v>17.860964544450187</v>
       </c>
-      <c r="L57" s="11">
+      <c r="L58" s="11">
         <v>14.359087104873495</v>
       </c>
-      <c r="M57" s="12">
+      <c r="M58" s="12">
         <v>18.843092045385596</v>
       </c>
     </row>
-    <row r="58" spans="2:13" hidden="1">
-      <c r="B58" s="4">
+    <row r="59" spans="2:13" hidden="1">
+      <c r="B59" s="4">
         <v>2020</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D59" s="6">
         <f t="shared" si="3"/>
         <v>1131496</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E59" s="6">
         <v>574056</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F59" s="6">
         <v>556941</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G59" s="6">
         <v>499</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H59" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154998</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I59" s="6">
         <v>69581</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J59" s="6">
         <v>85417</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K59" s="6">
         <v>17.931151365285245</v>
       </c>
-      <c r="L58" s="6">
+      <c r="L59" s="6">
         <v>14.401392276029368</v>
       </c>
-      <c r="M58" s="7">
+      <c r="M59" s="7">
         <v>18.916173683403709</v>
       </c>
     </row>
-    <row r="59" spans="2:13" hidden="1">
-      <c r="B59" s="8">
+    <row r="60" spans="2:13" hidden="1">
+      <c r="B60" s="8">
         <v>2020</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D60" s="10">
         <f t="shared" si="3"/>
         <v>1124473</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E60" s="11">
         <v>571367</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F60" s="11">
         <v>552611</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G60" s="11">
         <v>495</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H60" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154974</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I60" s="11">
         <v>69802</v>
       </c>
-      <c r="J59" s="11">
+      <c r="J60" s="11">
         <v>85172</v>
       </c>
-      <c r="K59" s="11">
+      <c r="K60" s="11">
         <v>18.015470478954644</v>
       </c>
-      <c r="L59" s="11">
+      <c r="L60" s="11">
         <v>14.418154012931202</v>
       </c>
-      <c r="M59" s="12">
+      <c r="M60" s="12">
         <v>18.991473081224505</v>
       </c>
     </row>
-    <row r="60" spans="2:13" hidden="1">
-      <c r="B60" s="4">
+    <row r="61" spans="2:13" hidden="1">
+      <c r="B61" s="4">
         <v>2020</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D61" s="6">
         <f t="shared" si="3"/>
         <v>1119301</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E61" s="6">
         <v>569174</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F61" s="6">
         <v>549631</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G61" s="6">
         <v>496</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H61" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>155005</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I61" s="6">
         <v>69935</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J61" s="6">
         <v>85070</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K61" s="6">
         <v>18.074266962890857</v>
       </c>
-      <c r="L60" s="6">
+      <c r="L61" s="6">
         <v>14.424315344666301</v>
       </c>
-      <c r="M60" s="7">
+      <c r="M61" s="7">
         <v>19.054786409779787</v>
       </c>
     </row>
-    <row r="61" spans="2:13" hidden="1">
-      <c r="B61" s="8">
+    <row r="62" spans="2:13" hidden="1">
+      <c r="B62" s="8">
         <v>2020</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C62" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D62" s="10">
         <f t="shared" si="3"/>
         <v>1115206</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E62" s="11">
         <v>567168</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F62" s="11">
         <v>547540</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G62" s="11">
         <v>498</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H62" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154854</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I62" s="11">
         <v>69936</v>
       </c>
-      <c r="J61" s="11">
+      <c r="J62" s="11">
         <v>84918</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K62" s="11">
         <v>18.123512676025275</v>
       </c>
-      <c r="L61" s="11">
+      <c r="L62" s="11">
         <v>14.441519108321389</v>
       </c>
-      <c r="M61" s="12">
+      <c r="M62" s="12">
         <v>19.111048225569849</v>
       </c>
     </row>
-    <row r="62" spans="2:13" hidden="1">
-      <c r="B62" s="4">
+    <row r="63" spans="2:13" hidden="1">
+      <c r="B63" s="4">
         <v>2020</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D63" s="6">
         <f t="shared" si="3"/>
         <v>1112456</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E63" s="6">
         <v>566042</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F63" s="6">
         <v>545916</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G63" s="6">
         <v>498</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H63" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154797</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I63" s="6">
         <v>69959</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J63" s="6">
         <v>84838</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K63" s="6">
         <v>18.154673950369251</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L63" s="6">
         <v>14.450499686686436</v>
       </c>
-      <c r="M62" s="7">
+      <c r="M63" s="7">
         <v>19.140800505969523</v>
       </c>
     </row>
-    <row r="63" spans="2:13" hidden="1">
-      <c r="B63" s="8">
+    <row r="64" spans="2:13" hidden="1">
+      <c r="B64" s="8">
         <v>2020</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C64" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D64" s="10">
         <f t="shared" si="3"/>
         <v>1111879</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E64" s="11">
         <v>565980</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F64" s="11">
         <v>545400</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G64" s="11">
         <v>499</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H64" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154663</v>
       </c>
-      <c r="I63" s="11">
+      <c r="I64" s="11">
         <v>69945</v>
       </c>
-      <c r="J63" s="11">
+      <c r="J64" s="11">
         <v>84718</v>
       </c>
-      <c r="K63" s="11">
+      <c r="K64" s="11">
         <v>18.164229808940139</v>
       </c>
-      <c r="L63" s="11">
+      <c r="L64" s="11">
         <v>14.46115101866639</v>
       </c>
-      <c r="M63" s="12">
+      <c r="M64" s="12">
         <v>19.144045725997383</v>
       </c>
     </row>
-    <row r="64" spans="2:13" hidden="1">
-      <c r="B64" s="4">
+    <row r="65" spans="2:13" hidden="1">
+      <c r="B65" s="4">
         <v>2020</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D65" s="6">
         <f t="shared" si="3"/>
         <v>1111626</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E65" s="6">
         <v>565883</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F65" s="6">
         <v>545244</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G65" s="6">
         <v>499</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H65" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154659</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I65" s="6">
         <v>69947</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J65" s="6">
         <v>84712</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K65" s="6">
         <v>18.16685047867491</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L65" s="6">
         <v>14.461473305788864</v>
       </c>
-      <c r="M64" s="7">
+      <c r="M65" s="7">
         <v>19.146164489832703</v>
       </c>
     </row>
-    <row r="65" spans="2:13" hidden="1">
-      <c r="B65" s="8">
+    <row r="66" spans="2:13" hidden="1">
+      <c r="B66" s="8">
         <v>2020</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C66" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D66" s="10">
         <f t="shared" si="3"/>
         <v>1111436</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E66" s="11">
         <v>565809</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F66" s="11">
         <v>545128</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G66" s="11">
         <v>499</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H66" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154670</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I66" s="11">
         <v>69953</v>
       </c>
-      <c r="J65" s="11">
+      <c r="J66" s="11">
         <v>84717</v>
       </c>
-      <c r="K65" s="11">
+      <c r="K66" s="11">
         <v>18.1697391054253</v>
       </c>
-      <c r="L65" s="11">
+      <c r="L66" s="11">
         <v>14.461059028900239</v>
       </c>
-      <c r="M65" s="12">
+      <c r="M66" s="12">
         <v>19.148813468856098</v>
       </c>
     </row>
-    <row r="66" spans="2:13" hidden="1">
-      <c r="B66" s="4">
+    <row r="67" spans="2:13" hidden="1">
+      <c r="B67" s="4">
         <v>2020</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D67" s="6">
         <f t="shared" si="3"/>
         <v>1107180</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E67" s="6">
         <v>564089</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F67" s="6">
         <v>542595</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G67" s="6">
         <v>496</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H67" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154310</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I67" s="6">
         <v>69893</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J67" s="6">
         <v>84417</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K67" s="6">
         <v>18.222653716036714</v>
       </c>
-      <c r="L66" s="6">
+      <c r="L67" s="6">
         <v>14.507322921392005</v>
       </c>
-      <c r="M66" s="7">
+      <c r="M67" s="7">
         <v>19.193769068356236</v>
       </c>
     </row>
-    <row r="67" spans="2:13" hidden="1">
-      <c r="B67" s="13">
+    <row r="68" spans="2:13" hidden="1">
+      <c r="B68" s="13">
         <v>2020</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C68" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D68" s="15">
         <f t="shared" si="3"/>
         <v>1102434</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E68" s="16">
         <v>562170</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F68" s="16">
         <v>539768</v>
       </c>
-      <c r="G67" s="16">
+      <c r="G68" s="16">
         <v>496</v>
       </c>
-      <c r="H67" s="16">
+      <c r="H68" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>153904</v>
       </c>
-      <c r="I67" s="16">
+      <c r="I68" s="16">
         <v>69851</v>
       </c>
-      <c r="J67" s="16">
+      <c r="J68" s="16">
         <v>84053</v>
       </c>
-      <c r="K67" s="16">
+      <c r="K68" s="16">
         <v>18.280507420519459</v>
       </c>
-      <c r="L67" s="16">
+      <c r="L68" s="16">
         <v>14.558120646636864</v>
       </c>
-      <c r="M67" s="17">
+      <c r="M68" s="17">
         <v>19.246057242471139</v>
       </c>
     </row>
-    <row r="68" spans="2:13" hidden="1">
-      <c r="B68" s="18">
+    <row r="69" spans="2:13" hidden="1">
+      <c r="B69" s="18">
         <v>2019</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C69" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D69" s="20">
         <f t="shared" si="3"/>
         <v>1099371</v>
       </c>
-      <c r="E68" s="20">
+      <c r="E69" s="20">
         <v>561061</v>
       </c>
-      <c r="F68" s="20">
+      <c r="F69" s="20">
         <v>537813</v>
       </c>
-      <c r="G68" s="20">
+      <c r="G69" s="20">
         <v>497</v>
       </c>
-      <c r="H68" s="20">
+      <c r="H69" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>153726</v>
       </c>
-      <c r="I68" s="20">
+      <c r="I69" s="20">
         <v>69871</v>
       </c>
-      <c r="J68" s="20">
+      <c r="J69" s="20">
         <v>83855</v>
       </c>
-      <c r="K68" s="20">
+      <c r="K69" s="20">
         <v>17.338868752993772</v>
       </c>
-      <c r="L68" s="20">
+      <c r="L69" s="20">
         <v>13.608641348893483</v>
       </c>
-      <c r="M68" s="21">
+      <c r="M69" s="21">
         <v>18.302218475352948</v>
       </c>
     </row>
-    <row r="69" spans="2:13" hidden="1">
-      <c r="B69" s="8">
+    <row r="70" spans="2:13" hidden="1">
+      <c r="B70" s="8">
         <v>2019</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D70" s="10">
         <f t="shared" si="3"/>
         <v>1094843</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E70" s="11">
         <v>558626</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F70" s="11">
         <v>535724</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G70" s="11">
         <v>493</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H70" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>152624</v>
       </c>
-      <c r="I69" s="11">
+      <c r="I70" s="11">
         <v>69534</v>
       </c>
-      <c r="J69" s="11">
+      <c r="J70" s="11">
         <v>83090</v>
       </c>
-      <c r="K69" s="11">
+      <c r="K70" s="11">
         <v>17.393954485017328</v>
       </c>
-      <c r="L69" s="11">
+      <c r="L70" s="11">
         <v>13.697282209875247</v>
       </c>
-      <c r="M69" s="12">
+      <c r="M70" s="12">
         <v>18.357969374859028</v>
       </c>
     </row>
-    <row r="70" spans="2:13" hidden="1">
-      <c r="B70" s="4">
+    <row r="71" spans="2:13" hidden="1">
+      <c r="B71" s="4">
         <v>2019</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D71" s="6">
         <f t="shared" si="3"/>
         <v>1089907</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E71" s="6">
         <v>556346</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F71" s="6">
         <v>533069</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G71" s="6">
         <v>492</v>
       </c>
-      <c r="H70" s="6">
+      <c r="H71" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>151838</v>
       </c>
-      <c r="I70" s="6">
+      <c r="I71" s="6">
         <v>69318</v>
       </c>
-      <c r="J70" s="6">
+      <c r="J71" s="6">
         <v>82520</v>
       </c>
-      <c r="K70" s="6">
+      <c r="K71" s="6">
         <v>17.456851262393727</v>
       </c>
-      <c r="L70" s="6">
+      <c r="L71" s="6">
         <v>13.773673257023932</v>
       </c>
-      <c r="M70" s="7">
+      <c r="M71" s="7">
         <v>18.416267933983526</v>
       </c>
     </row>
-    <row r="71" spans="2:13" hidden="1">
-      <c r="B71" s="8">
+    <row r="72" spans="2:13" hidden="1">
+      <c r="B72" s="8">
         <v>2019</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C72" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D72" s="10">
         <f t="shared" si="3"/>
         <v>1026253</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E72" s="11">
         <v>519860</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F72" s="11">
         <v>505944</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G72" s="11">
         <v>449</v>
       </c>
-      <c r="H71" s="11">
+      <c r="H72" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134666</v>
       </c>
-      <c r="I71" s="11">
+      <c r="I72" s="11">
         <v>59103</v>
       </c>
-      <c r="J71" s="11">
+      <c r="J72" s="11">
         <v>75563</v>
       </c>
-      <c r="K71" s="11">
+      <c r="K72" s="11">
         <v>17.271427094194593</v>
       </c>
-      <c r="L71" s="11">
+      <c r="L72" s="11">
         <v>13.265634978390985</v>
       </c>
-      <c r="M71" s="12">
+      <c r="M72" s="12">
         <v>18.202425653060441</v>
       </c>
     </row>
-    <row r="72" spans="2:13" hidden="1">
-      <c r="B72" s="4">
+    <row r="73" spans="2:13" hidden="1">
+      <c r="B73" s="4">
         <v>2019</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D73" s="6">
         <f t="shared" si="3"/>
         <v>1021601</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E73" s="6">
         <v>517666</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F73" s="6">
         <v>503486</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G73" s="6">
         <v>449</v>
       </c>
-      <c r="H72" s="6">
+      <c r="H73" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134177</v>
       </c>
-      <c r="I72" s="6">
+      <c r="I73" s="6">
         <v>58996</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J73" s="6">
         <v>75181</v>
       </c>
-      <c r="K72" s="6">
+      <c r="K73" s="6">
         <v>17.331093567286896</v>
       </c>
-      <c r="L72" s="6">
+      <c r="L73" s="6">
         <v>13.321195137765788</v>
       </c>
-      <c r="M72" s="7">
+      <c r="M73" s="7">
         <v>18.260312634014984</v>
       </c>
     </row>
-    <row r="73" spans="2:13" hidden="1">
-      <c r="B73" s="8">
+    <row r="74" spans="2:13" hidden="1">
+      <c r="B74" s="8">
         <v>2019</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D74" s="10">
         <f t="shared" si="3"/>
         <v>1012889</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="11">
         <v>514393</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="11">
         <v>498050</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G74" s="11">
         <v>446</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H74" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134315</v>
       </c>
-      <c r="I73" s="11">
+      <c r="I74" s="11">
         <v>59818</v>
       </c>
-      <c r="J73" s="11">
+      <c r="J74" s="11">
         <v>74497</v>
       </c>
-      <c r="K73" s="11">
+      <c r="K74" s="11">
         <v>17.523646663027421</v>
       </c>
-      <c r="L73" s="11">
+      <c r="L74" s="11">
         <v>13.572348583553588</v>
       </c>
-      <c r="M73" s="12">
+      <c r="M74" s="12">
         <v>18.476849412803052</v>
       </c>
     </row>
-    <row r="74" spans="2:13" hidden="1">
-      <c r="B74" s="4">
+    <row r="75" spans="2:13" hidden="1">
+      <c r="B75" s="4">
         <v>2019</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D75" s="6">
         <f t="shared" si="3"/>
         <v>1011042</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E75" s="6">
         <v>512802</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F75" s="6">
         <v>497796</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G75" s="6">
         <v>444</v>
       </c>
-      <c r="H74" s="6">
+      <c r="H75" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>132861</v>
       </c>
-      <c r="I74" s="6">
+      <c r="I75" s="6">
         <v>58917</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J75" s="6">
         <v>73944</v>
       </c>
-      <c r="K74" s="6">
+      <c r="K75" s="6">
         <v>17.474399169537342</v>
       </c>
-      <c r="L74" s="6">
+      <c r="L75" s="6">
         <v>13.491144880740022</v>
       </c>
-      <c r="M74" s="7">
+      <c r="M75" s="7">
         <v>18.398711393481303</v>
       </c>
     </row>
-    <row r="75" spans="2:13" hidden="1">
-      <c r="B75" s="8">
+    <row r="76" spans="2:13" hidden="1">
+      <c r="B76" s="8">
         <v>2019</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C76" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D76" s="10">
         <f t="shared" si="3"/>
         <v>1006543</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E76" s="11">
         <v>506850</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F76" s="11">
         <v>499239</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G76" s="11">
         <v>454</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H76" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>133322</v>
       </c>
-      <c r="I75" s="11">
+      <c r="I76" s="11">
         <v>58537</v>
       </c>
-      <c r="J75" s="11">
+      <c r="J76" s="11">
         <v>74785</v>
       </c>
-      <c r="K75" s="11">
+      <c r="K76" s="11">
         <v>17.005059631686898</v>
       </c>
-      <c r="L75" s="11">
+      <c r="L76" s="11">
         <v>12.551904411875007</v>
       </c>
-      <c r="M75" s="12">
+      <c r="M76" s="12">
         <v>17.760755647627501</v>
       </c>
     </row>
-    <row r="76" spans="2:13" hidden="1">
-      <c r="B76" s="4">
+    <row r="77" spans="2:13" hidden="1">
+      <c r="B77" s="4">
         <v>2019</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D77" s="6">
         <f t="shared" si="3"/>
         <v>1000820</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E77" s="6">
         <v>504046</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F77" s="6">
         <v>496323</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G77" s="6">
         <v>451</v>
       </c>
-      <c r="H76" s="6">
+      <c r="H77" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>132406</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I77" s="6">
         <v>58289</v>
       </c>
-      <c r="J76" s="6">
+      <c r="J77" s="6">
         <v>74117</v>
       </c>
-      <c r="K76" s="6">
+      <c r="K77" s="6">
         <v>17.079096025247733</v>
       </c>
-      <c r="L76" s="6">
+      <c r="L77" s="6">
         <v>12.619949247012975</v>
       </c>
-      <c r="M76" s="7">
+      <c r="M77" s="7">
         <v>17.838770667756513</v>
       </c>
     </row>
-    <row r="77" spans="2:13" hidden="1">
-      <c r="B77" s="8">
+    <row r="78" spans="2:13" hidden="1">
+      <c r="B78" s="8">
         <v>2019</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C78" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D78" s="10">
         <f t="shared" si="3"/>
         <v>995167</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E78" s="11">
         <v>501424</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F78" s="11">
         <v>493291</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G78" s="11">
         <v>452</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H78" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>131276</v>
       </c>
-      <c r="I77" s="11">
+      <c r="I78" s="11">
         <v>57933</v>
       </c>
-      <c r="J77" s="11">
+      <c r="J78" s="11">
         <v>73343</v>
       </c>
-      <c r="K77" s="11">
+      <c r="K78" s="11">
         <v>17.153564282485384</v>
       </c>
-      <c r="L77" s="11">
+      <c r="L78" s="11">
         <v>12.722576860964685</v>
       </c>
-      <c r="M77" s="12">
+      <c r="M78" s="12">
         <v>17.901807651807651</v>
       </c>
     </row>
-    <row r="78" spans="2:13" hidden="1">
-      <c r="B78" s="4">
+    <row r="79" spans="2:13" hidden="1">
+      <c r="B79" s="4">
         <v>2019</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D79" s="6">
         <f t="shared" si="3"/>
         <v>990002</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E79" s="6">
         <v>499221</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F79" s="6">
         <v>490327</v>
       </c>
-      <c r="G78" s="6">
+      <c r="G79" s="6">
         <v>454</v>
       </c>
-      <c r="H78" s="6">
+      <c r="H79" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>130579</v>
       </c>
-      <c r="I78" s="6">
+      <c r="I79" s="6">
         <v>57862</v>
       </c>
-      <c r="J78" s="6">
+      <c r="J79" s="6">
         <v>72717</v>
       </c>
-      <c r="K78" s="6">
+      <c r="K79" s="6">
         <v>17.220458930103462</v>
       </c>
-      <c r="L78" s="6">
+      <c r="L79" s="6">
         <v>12.793971465549593</v>
       </c>
-      <c r="M78" s="7">
+      <c r="M79" s="7">
         <v>17.958405195294269</v>
       </c>
     </row>
-    <row r="79" spans="2:13" hidden="1">
-      <c r="B79" s="13">
+    <row r="80" spans="2:13" hidden="1">
+      <c r="B80" s="13">
         <v>2019</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C80" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="15">
-        <f t="shared" ref="D79:D91" si="4">SUM(E79:G79)</f>
+      <c r="D80" s="15">
+        <f t="shared" ref="D80:D92" si="4">SUM(E80:G80)</f>
         <v>985713</v>
       </c>
-      <c r="E79" s="16">
+      <c r="E80" s="16">
         <v>497141</v>
       </c>
-      <c r="F79" s="16">
+      <c r="F80" s="16">
         <v>488120</v>
       </c>
-      <c r="G79" s="16">
+      <c r="G80" s="16">
         <v>452</v>
       </c>
-      <c r="H79" s="16">
+      <c r="H80" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>129833</v>
       </c>
-      <c r="I79" s="16">
+      <c r="I80" s="16">
         <v>57647</v>
       </c>
-      <c r="J79" s="16">
+      <c r="J80" s="16">
         <v>72186</v>
       </c>
-      <c r="K79" s="16">
+      <c r="K80" s="16">
         <v>17.272496309728147</v>
       </c>
-      <c r="L79" s="16">
+      <c r="L80" s="16">
         <v>12.85511387705745</v>
       </c>
-      <c r="M79" s="17">
+      <c r="M80" s="17">
         <v>18.009015550920161</v>
       </c>
     </row>
-    <row r="80" spans="2:13" hidden="1">
-      <c r="B80" s="18">
+    <row r="81" spans="2:13" hidden="1">
+      <c r="B81" s="18">
         <v>2018</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C81" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="20">
+      <c r="D81" s="20">
         <f t="shared" si="4"/>
         <v>982856</v>
       </c>
-      <c r="E80" s="20">
+      <c r="E81" s="20">
         <v>496057</v>
       </c>
-      <c r="F80" s="20">
+      <c r="F81" s="20">
         <v>486335</v>
       </c>
-      <c r="G80" s="20">
+      <c r="G81" s="20">
         <v>464</v>
       </c>
-      <c r="H80" s="20">
+      <c r="H81" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>129315</v>
       </c>
-      <c r="I80" s="20">
+      <c r="I81" s="20">
         <v>57599</v>
       </c>
-      <c r="J80" s="20">
+      <c r="J81" s="20">
         <v>71716</v>
       </c>
-      <c r="K80" s="20">
+      <c r="K81" s="20">
         <v>15.55</v>
       </c>
-      <c r="L80" s="20">
+      <c r="L81" s="20">
         <v>11.5</v>
       </c>
-      <c r="M80" s="21">
+      <c r="M81" s="21">
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:13" hidden="1">
-      <c r="B81" s="8">
+    <row r="82" spans="2:13" hidden="1">
+      <c r="B82" s="8">
         <v>2018</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C82" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D82" s="10">
         <f t="shared" si="4"/>
         <v>978058</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E82" s="11">
         <v>493248</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F82" s="11">
         <v>484343</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G82" s="11">
         <v>467</v>
       </c>
-      <c r="H81" s="11">
+      <c r="H82" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>127995</v>
       </c>
-      <c r="I81" s="11">
+      <c r="I82" s="11">
         <v>57117</v>
       </c>
-      <c r="J81" s="11">
+      <c r="J82" s="11">
         <v>70878</v>
       </c>
-      <c r="K81" s="11">
+      <c r="K82" s="11">
         <v>15.611125202215558</v>
       </c>
-      <c r="L81" s="11">
+      <c r="L82" s="11">
         <v>11.579603101683659</v>
       </c>
-      <c r="M81" s="12">
+      <c r="M82" s="12">
         <v>16.657281844021668</v>
       </c>
     </row>
-    <row r="82" spans="2:13" hidden="1">
-      <c r="B82" s="4">
+    <row r="83" spans="2:13" hidden="1">
+      <c r="B83" s="4">
         <v>2018</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C83" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D83" s="6">
         <f t="shared" si="4"/>
         <v>971514</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E83" s="6">
         <v>489853</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F83" s="6">
         <v>481195</v>
       </c>
-      <c r="G82" s="6">
+      <c r="G83" s="6">
         <v>466</v>
       </c>
-      <c r="H82" s="6">
+      <c r="H83" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>126537</v>
       </c>
-      <c r="I82" s="6">
+      <c r="I83" s="6">
         <v>56599</v>
       </c>
-      <c r="J82" s="6">
+      <c r="J83" s="6">
         <v>69938</v>
       </c>
-      <c r="K82" s="6">
+      <c r="K83" s="6">
         <v>15.692013983030227</v>
       </c>
-      <c r="L82" s="6">
+      <c r="L83" s="6">
         <v>11.695425480294306</v>
       </c>
-      <c r="M82" s="7">
+      <c r="M83" s="7">
         <v>16.724397819345807</v>
       </c>
     </row>
-    <row r="83" spans="2:13" hidden="1">
-      <c r="B83" s="8">
+    <row r="84" spans="2:13" hidden="1">
+      <c r="B84" s="8">
         <v>2018</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C84" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D84" s="10">
         <f t="shared" si="4"/>
         <v>965544</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E84" s="11">
         <v>486879</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F84" s="11">
         <v>478202</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G84" s="11">
         <v>463</v>
       </c>
-      <c r="H83" s="11">
+      <c r="H84" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>125592</v>
       </c>
-      <c r="I83" s="11">
+      <c r="I84" s="11">
         <v>56443</v>
       </c>
-      <c r="J83" s="11">
+      <c r="J84" s="11">
         <v>69149</v>
       </c>
-      <c r="K83" s="11">
+      <c r="K84" s="11">
         <v>15.766115172800014</v>
       </c>
-      <c r="L83" s="11">
+      <c r="L84" s="11">
         <v>11.775922614497736</v>
       </c>
-      <c r="M83" s="12">
+      <c r="M84" s="12">
         <v>16.795398144097401</v>
       </c>
     </row>
-    <row r="84" spans="2:13" hidden="1">
-      <c r="B84" s="4">
+    <row r="85" spans="2:13" hidden="1">
+      <c r="B85" s="4">
         <v>2018</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D85" s="6">
         <f t="shared" si="4"/>
         <v>960111</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E85" s="6">
         <v>483912</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F85" s="6">
         <v>475735</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G85" s="6">
         <v>464</v>
       </c>
-      <c r="H84" s="6">
+      <c r="H85" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>124463</v>
       </c>
-      <c r="I84" s="6">
+      <c r="I85" s="6">
         <v>56029</v>
       </c>
-      <c r="J84" s="6">
+      <c r="J85" s="6">
         <v>68434</v>
       </c>
-      <c r="K84" s="6">
+      <c r="K85" s="6">
         <v>15.828890174645572</v>
       </c>
-      <c r="L84" s="6">
+      <c r="L85" s="6">
         <v>11.859889509332092</v>
       </c>
-      <c r="M84" s="7">
+      <c r="M85" s="7">
         <v>16.84972398287292</v>
       </c>
     </row>
-    <row r="85" spans="2:13" hidden="1">
-      <c r="B85" s="8">
+    <row r="86" spans="2:13" hidden="1">
+      <c r="B86" s="8">
         <v>2018</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C86" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D86" s="10">
         <f t="shared" si="4"/>
         <v>953323</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E86" s="11">
         <v>480495</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F86" s="11">
         <v>472364</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G86" s="11">
         <v>464</v>
       </c>
-      <c r="H85" s="11">
+      <c r="H86" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>123737</v>
       </c>
-      <c r="I85" s="11">
+      <c r="I86" s="11">
         <v>55960</v>
       </c>
-      <c r="J85" s="11">
+      <c r="J86" s="11">
         <v>67777</v>
       </c>
-      <c r="K85" s="11">
+      <c r="K86" s="11">
         <v>15.900131480954339</v>
       </c>
-      <c r="L85" s="11">
+      <c r="L86" s="11">
         <v>11.93027888990358</v>
       </c>
-      <c r="M85" s="12">
+      <c r="M86" s="12">
         <v>16.922447322032493</v>
       </c>
     </row>
-    <row r="86" spans="2:13" hidden="1">
-      <c r="B86" s="4">
+    <row r="87" spans="2:13" hidden="1">
+      <c r="B87" s="4">
         <v>2018</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D87" s="6">
         <f t="shared" si="4"/>
         <v>947851</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E87" s="6">
         <v>477880</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F87" s="6">
         <v>469513</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G87" s="6">
         <v>458</v>
       </c>
-      <c r="H86" s="6">
+      <c r="H87" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>122946</v>
       </c>
-      <c r="I86" s="6">
+      <c r="I87" s="6">
         <v>55790</v>
       </c>
-      <c r="J86" s="6">
+      <c r="J87" s="6">
         <v>67156</v>
       </c>
-      <c r="K86" s="6">
+      <c r="K87" s="6">
         <v>15.97</v>
       </c>
-      <c r="L86" s="6">
+      <c r="L87" s="6">
         <v>12.01</v>
       </c>
-      <c r="M86" s="7">
+      <c r="M87" s="7">
         <v>16.98</v>
       </c>
     </row>
-    <row r="87" spans="2:13" hidden="1">
-      <c r="B87" s="8">
+    <row r="88" spans="2:13" hidden="1">
+      <c r="B88" s="8">
         <v>2018</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C88" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D88" s="10">
         <f t="shared" si="4"/>
         <v>944527</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E88" s="11">
         <v>476241</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F88" s="11">
         <v>467827</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G88" s="11">
         <v>459</v>
       </c>
-      <c r="H87" s="11">
+      <c r="H88" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>122105</v>
       </c>
-      <c r="I87" s="11">
+      <c r="I88" s="11">
         <v>55617</v>
       </c>
-      <c r="J87" s="11">
+      <c r="J88" s="11">
         <v>66488</v>
       </c>
-      <c r="K87" s="11">
+      <c r="K88" s="11">
         <v>16.02</v>
       </c>
-      <c r="L87" s="11">
+      <c r="L88" s="11">
         <v>12.1</v>
       </c>
-      <c r="M87" s="12">
+      <c r="M88" s="12">
         <v>17.03</v>
       </c>
     </row>
-    <row r="88" spans="2:13" hidden="1">
-      <c r="B88" s="4">
+    <row r="89" spans="2:13" hidden="1">
+      <c r="B89" s="4">
         <v>2018</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D89" s="6">
         <f t="shared" si="4"/>
         <v>936533</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E89" s="6">
         <v>472271</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F89" s="6">
         <v>463807</v>
       </c>
-      <c r="G88" s="6">
+      <c r="G89" s="6">
         <v>455</v>
       </c>
-      <c r="H88" s="6">
+      <c r="H89" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>121075</v>
       </c>
-      <c r="I88" s="6">
+      <c r="I89" s="6">
         <v>55199</v>
       </c>
-      <c r="J88" s="6">
+      <c r="J89" s="6">
         <v>65876</v>
       </c>
-      <c r="K88" s="6">
+      <c r="K89" s="6">
         <v>16.09</v>
       </c>
-      <c r="L88" s="6">
+      <c r="L89" s="6">
         <v>12.15</v>
       </c>
-      <c r="M88" s="7">
+      <c r="M89" s="7">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="89" spans="2:13" hidden="1">
-      <c r="B89" s="8">
+    <row r="90" spans="2:13" hidden="1">
+      <c r="B90" s="8">
         <v>2018</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C90" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D90" s="10">
         <f t="shared" si="4"/>
         <v>930205</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E90" s="11">
         <v>469020</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F90" s="11">
         <v>460731</v>
       </c>
-      <c r="G89" s="11">
+      <c r="G90" s="11">
         <v>454</v>
       </c>
-      <c r="H89" s="11">
+      <c r="H90" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>120039</v>
       </c>
-      <c r="I89" s="11">
+      <c r="I90" s="11">
         <v>54921</v>
       </c>
-      <c r="J89" s="11">
+      <c r="J90" s="11">
         <v>65118</v>
       </c>
-      <c r="K89" s="11">
+      <c r="K90" s="11">
         <v>16.160723713583874</v>
       </c>
-      <c r="L89" s="11">
+      <c r="L90" s="11">
         <v>12.219768117028636</v>
       </c>
-      <c r="M89" s="12">
+      <c r="M90" s="12">
         <v>17.169355262035737</v>
       </c>
     </row>
-    <row r="90" spans="2:13" hidden="1">
-      <c r="B90" s="4">
+    <row r="91" spans="2:13" hidden="1">
+      <c r="B91" s="4">
         <v>2018</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C91" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D91" s="6">
         <f t="shared" si="4"/>
         <v>924012</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E91" s="6">
         <v>466319</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F91" s="6">
         <v>457242</v>
       </c>
-      <c r="G90" s="6">
+      <c r="G91" s="6">
         <v>451</v>
       </c>
-      <c r="H90" s="6">
+      <c r="H91" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>118763</v>
       </c>
-      <c r="I90" s="6">
+      <c r="I91" s="6">
         <v>54503</v>
       </c>
-      <c r="J90" s="6">
+      <c r="J91" s="6">
         <v>64260</v>
       </c>
-      <c r="K90" s="6">
+      <c r="K91" s="6">
         <v>16.222653310134305</v>
       </c>
-      <c r="L90" s="6">
+      <c r="L91" s="6">
         <v>12.303791963827118</v>
       </c>
-      <c r="M90" s="7">
+      <c r="M91" s="7">
         <v>17.220716288635032</v>
       </c>
     </row>
-    <row r="91" spans="2:13" hidden="1">
-      <c r="B91" s="13">
+    <row r="92" spans="2:13" hidden="1">
+      <c r="B92" s="13">
         <v>2018</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C92" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D91" s="15">
+      <c r="D92" s="15">
         <f t="shared" si="4"/>
         <v>920526</v>
       </c>
-      <c r="E91" s="16">
+      <c r="E92" s="16">
         <v>464622</v>
       </c>
-      <c r="F91" s="16">
+      <c r="F92" s="16">
         <v>455453</v>
       </c>
-      <c r="G91" s="16">
+      <c r="G92" s="16">
         <v>451</v>
       </c>
-      <c r="H91" s="16">
+      <c r="H92" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>118260</v>
       </c>
-      <c r="I91" s="16">
+      <c r="I92" s="16">
         <v>54504</v>
       </c>
-      <c r="J91" s="16">
+      <c r="J92" s="16">
         <v>63756</v>
       </c>
-      <c r="K91" s="16">
+      <c r="K92" s="16">
         <v>16.29</v>
       </c>
-      <c r="L91" s="16">
+      <c r="L92" s="16">
         <v>12.37</v>
       </c>
-      <c r="M91" s="17">
+      <c r="M92" s="17">
         <v>17.28</v>
       </c>
-    </row>
-    <row r="92" spans="2:13">
-      <c r="B92" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M92" s="22"/>
     </row>
     <row r="93" spans="2:13">
       <c r="B93" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="M93" s="22"/>
     </row>
     <row r="94" spans="2:13">
       <c r="B94" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="M94" s="22"/>
     </row>
     <row r="95" spans="2:13">
       <c r="B95" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M95" s="22"/>
+    </row>
+    <row r="96" spans="2:13">
+      <c r="B96" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Flota_Antigúedad_AF.xlsx
+++ b/Flota_Antigúedad_AF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D7FBCA-A740-4F20-8C8E-9C0E7EB939B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BE5E51-91A9-4272-9ABB-41F7D5EE5DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="29">
   <si>
     <t>Carga</t>
   </si>
@@ -125,10 +125,7 @@
     <t>Antigüedad promedio</t>
   </si>
   <si>
-    <t>ND No Disponible.</t>
-  </si>
-  <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril2025.</t>
   </si>
 </sst>
 </file>
@@ -368,7 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -452,10 +449,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -731,8 +724,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:M92" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
-  <autoFilter ref="B5:M92" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:M93" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
+  <autoFilter ref="B5:M93" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -988,7 +981,7 @@
   <dimension ref="B2:P96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A96" sqref="A96:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
@@ -1078,3501 +1071,3535 @@
       </c>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="9">
+      <c r="B6" s="5">
         <v>2025</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6">
+        <f>SUM(E6:G6)</f>
+        <v>1462190</v>
+      </c>
+      <c r="E6" s="6">
+        <v>736441</v>
+      </c>
+      <c r="F6" s="6">
+        <v>725074</v>
+      </c>
+      <c r="G6" s="6">
+        <v>675</v>
+      </c>
+      <c r="H6" s="6">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>188131</v>
+      </c>
+      <c r="I6" s="6">
+        <v>73852</v>
+      </c>
+      <c r="J6" s="6">
+        <v>114279</v>
+      </c>
+      <c r="K6" s="6">
+        <v>19.115429007193057</v>
+      </c>
+      <c r="L6" s="6">
+        <v>15.939308247976143</v>
+      </c>
+      <c r="M6" s="6">
+        <v>19.944664949398529</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="10">
-        <f>SUM(E6:G6)</f>
+      <c r="D7" s="10">
+        <f>SUM(E7:G7)</f>
         <v>1454977</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="11">
         <v>732842</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F7" s="11">
         <v>721468</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G7" s="11">
         <v>667</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H7" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>187465</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I7" s="10">
         <v>73738</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J7" s="11">
         <v>113727</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K7" s="11">
         <v>19.18470984148254</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L7" s="11">
         <v>16.007019977062384</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M7" s="11">
         <v>20.020610172451907</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="37">
+    <row r="8" spans="2:16">
+      <c r="B8" s="5">
         <v>2025</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="38">
-        <f>SUM(E7:G7)</f>
+      <c r="D8" s="6">
+        <f>SUM(E8:G8)</f>
         <v>1448239</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E8" s="6">
         <v>729319</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F8" s="6">
         <v>718257</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G8" s="6">
         <v>663</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H8" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>186866</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I8" s="6">
         <v>73570</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J8" s="6">
         <v>113296</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K8" s="6">
         <v>19.252675224939154</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L8" s="6">
         <v>16.075695953249923</v>
       </c>
-      <c r="M7" s="38">
+      <c r="M8" s="6">
         <v>20.096500982423329</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="13">
+    <row r="9" spans="2:16">
+      <c r="B9" s="13">
         <v>2025</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="15">
-        <f>SUM(E8:G8)</f>
+      <c r="D9" s="15">
+        <f>SUM(E9:G9)</f>
         <v>1441492</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E9" s="16">
         <v>726109</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F9" s="16">
         <v>714727</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G9" s="16">
         <v>656</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H9" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>186423</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I9" s="15">
         <v>73458</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J9" s="16">
         <v>112965</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K9" s="29">
         <v>19.321609528661387</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L9" s="29">
         <v>16.134200179162441</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M9" s="30">
         <v>20.172519552849504</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="4">
+    <row r="10" spans="2:16">
+      <c r="B10" s="4">
         <v>2024</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6">
-        <f>SUM(E9:G9)</f>
+      <c r="D10" s="6">
+        <f>SUM(E10:G10)</f>
         <v>1435884</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="6">
         <v>723462</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F10" s="6">
         <v>711776</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G10" s="6">
         <v>646</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H10" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>186064</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I10" s="6">
         <v>73453</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J10" s="6">
         <v>112611</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K10" s="6">
         <v>18.404813538748488</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L10" s="6">
         <v>15.191272895347836</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M10" s="7">
         <v>19.269418435246081</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="8">
+    <row r="11" spans="2:16">
+      <c r="B11" s="8">
         <v>2024</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="10">
-        <f>SUM(E10:G10)</f>
+      <c r="D11" s="10">
+        <f>SUM(E11:G11)</f>
         <v>1428265</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="11">
         <v>719185</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <v>708450</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="11">
         <v>630</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H11" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>184987</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I11" s="10">
         <v>73204</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J11" s="11">
         <v>111783</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K11" s="11">
         <v>18.476960502833276</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L11" s="11">
         <v>15.270154118938088</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M11" s="12">
         <v>19.35768543559724</v>
       </c>
-      <c r="P10"/>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="4">
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="4">
         <v>2024</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="6">
-        <f t="shared" ref="D11" si="0">SUM(E11:G11)</f>
+      <c r="D12" s="6">
+        <f t="shared" ref="D12" si="0">SUM(E12:G12)</f>
         <v>1419744</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E12" s="6">
         <v>714747</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F12" s="6">
         <v>704375</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G12" s="6">
         <v>622</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H12" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>184353</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I12" s="6">
         <v>73206</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J12" s="6">
         <v>111147</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K12" s="6">
         <v>18.559178035204791</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L12" s="6">
         <v>15.333984258460672</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M12" s="7">
         <v>19.45495538980926</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="8">
+    <row r="13" spans="2:16">
+      <c r="B13" s="8">
         <v>2024</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="10">
-        <f>SUM(E12:G12)</f>
+      <c r="D13" s="10">
+        <f>SUM(E13:G13)</f>
         <v>1409947</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="11">
         <v>709391</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="11">
         <v>699945</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G13" s="11">
         <v>611</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H13" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>183444</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I13" s="10">
         <v>72959</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J13" s="11">
         <v>110485</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K13" s="11">
         <v>18.653800273735229</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L13" s="11">
         <v>15.41505309522252</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M13" s="12">
         <v>19.569322136875151</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="4">
+    <row r="14" spans="2:16">
+      <c r="B14" s="4">
         <v>2024</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="6">
-        <f>SUM(E13:G13)</f>
+      <c r="D14" s="6">
+        <f>SUM(E14:G14)</f>
         <v>1401613</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <v>704941</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F14" s="6">
         <v>696064</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G14" s="6">
         <v>608</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H14" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>182766</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I14" s="6">
         <v>72808</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J14" s="6">
         <v>109958</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K14" s="6">
         <v>18.731302694644619</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L14" s="6">
         <v>19.663221461086813</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M14" s="7">
         <v>15.486441679524638</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="8">
+    <row r="15" spans="2:16">
+      <c r="B15" s="8">
         <v>2024</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="10">
-        <f t="shared" ref="D14:D16" si="1">SUM(E14:G14)</f>
+      <c r="D15" s="10">
+        <f t="shared" ref="D15:D17" si="1">SUM(E15:G15)</f>
         <v>1392231</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="11">
         <v>700064</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="11">
         <v>691573</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G15" s="11">
         <v>594</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H15" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>182096</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I15" s="11">
         <v>72722</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J15" s="11">
         <v>109374</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K15" s="11">
         <v>18.818005976871554</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L15" s="11">
         <v>15.548683112204552</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M15" s="12">
         <v>19.76646992274992</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="4">
+    <row r="16" spans="2:16">
+      <c r="B16" s="4">
         <v>2024</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D16" s="6">
         <f t="shared" si="1"/>
         <v>1381670</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="6">
         <v>694997</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F16" s="6">
         <v>686081</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G16" s="6">
         <v>592</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H16" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>181209</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I16" s="6">
         <v>72604</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J16" s="6">
         <v>108605</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K16" s="6">
         <v>18.917404420570612</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L16" s="6">
         <v>15.6321154026566</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M16" s="7">
         <v>19.872406643481913</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="8">
+    <row r="17" spans="2:13">
+      <c r="B17" s="8">
         <v>2024</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D17" s="10">
         <f t="shared" si="1"/>
         <v>1364076</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="11">
         <v>686433</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F17" s="11">
         <v>677060</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G17" s="11">
         <v>583</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H17" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>180169</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I17" s="11">
         <v>72197</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J17" s="11">
         <v>107972</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K17" s="11">
         <v>19.07390024500182</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L17" s="11">
         <v>15.728466051318485</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M17" s="11">
         <v>20.044184938661164</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="4">
+    <row r="18" spans="2:13">
+      <c r="B18" s="4">
         <v>2024</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="6">
-        <f t="shared" ref="D17:D47" si="2">SUM(E17:G17)</f>
+      <c r="D18" s="6">
+        <f t="shared" ref="D18:D48" si="2">SUM(E18:G18)</f>
         <v>1362046</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="6">
         <v>685435</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F18" s="6">
         <v>676046</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G18" s="6">
         <v>565</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H18" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>179118</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I18" s="6">
         <v>71981</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J18" s="6">
         <v>107137</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K18" s="6">
         <v>19.118977099167271</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L18" s="6">
         <v>15.827370783505843</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M18" s="7">
         <v>20.082257252693545</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="8">
+    <row r="19" spans="2:13">
+      <c r="B19" s="8">
         <v>2024</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D19" s="10">
         <f t="shared" si="2"/>
         <v>1353988</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="11">
         <v>681551</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F19" s="11">
         <v>671878</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G19" s="11">
         <v>559</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H19" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>178140</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I19" s="11">
         <v>71842</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J19" s="11">
         <v>106298</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K19" s="11">
         <v>19.204794560349551</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L19" s="11">
         <v>15.921746940608513</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M19" s="12">
         <v>20.167528182043604</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="4">
+    <row r="20" spans="2:13">
+      <c r="B20" s="4">
         <v>2024</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D20" s="6">
         <f t="shared" si="2"/>
         <v>1345055</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E20" s="6">
         <v>677153</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="6">
         <v>667343</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G20" s="6">
         <v>559</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H20" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>177618</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I20" s="6">
         <v>71797</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J20" s="6">
         <v>105821</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K20" s="6">
         <v>19.298350846257247</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L20" s="6">
         <v>15.980300420002475</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M20" s="7">
         <v>20.271950356861744</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="13">
+    <row r="21" spans="2:13">
+      <c r="B21" s="13">
         <v>2024</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D21" s="15">
         <f t="shared" si="2"/>
         <v>1337961</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E21" s="16">
         <v>673757</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F21" s="16">
         <v>663646</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G21" s="16">
         <v>558</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H21" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>176858</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I21" s="16">
         <v>71641</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J21" s="16">
         <v>105217</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K21" s="16">
         <v>19.37957723272276</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L21" s="16">
         <v>16.061088556921373</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M21" s="17">
         <v>20.355880532595581</v>
       </c>
     </row>
-    <row r="21" spans="2:13" hidden="1">
-      <c r="B21" s="18">
+    <row r="22" spans="2:13" hidden="1">
+      <c r="B22" s="18">
         <v>2023</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C22" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D22" s="20">
         <f t="shared" si="2"/>
         <v>1331921</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E22" s="20">
         <v>671002</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F22" s="20">
         <v>660365</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G22" s="20">
         <v>554</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H22" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>176251</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I22" s="20">
         <v>71562</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J22" s="20">
         <v>104689</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K22" s="20">
         <v>18.475869218860481</v>
       </c>
-      <c r="L21" s="20">
+      <c r="L22" s="20">
         <v>15.134234699377592</v>
       </c>
-      <c r="M21" s="21">
+      <c r="M22" s="21">
         <v>19.458281793496891</v>
       </c>
     </row>
-    <row r="22" spans="2:13" hidden="1">
-      <c r="B22" s="8">
+    <row r="23" spans="2:13" hidden="1">
+      <c r="B23" s="8">
         <v>2023</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D23" s="10">
         <f t="shared" si="2"/>
         <v>1324591</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="11">
         <v>667021</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="11">
         <v>657017</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G23" s="11">
         <v>553</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H23" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>175311</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I23" s="11">
         <v>71379</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J23" s="11">
         <v>103932</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K23" s="11">
         <v>18.551437990754653</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L23" s="11">
         <v>15.22355699300101</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M23" s="12">
         <v>19.543477641633473</v>
       </c>
     </row>
-    <row r="23" spans="2:13" hidden="1">
-      <c r="B23" s="4">
+    <row r="24" spans="2:13" hidden="1">
+      <c r="B24" s="4">
         <v>2023</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D24" s="6">
         <f t="shared" si="2"/>
         <v>1316689</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E24" s="6">
         <v>662911</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F24" s="6">
         <v>653227</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G24" s="6">
         <v>551</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H24" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>174393</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I24" s="6">
         <v>71146</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J24" s="6">
         <v>103247</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K24" s="6">
         <v>18.63639333901811</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L24" s="6">
         <v>15.305362027145584</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M24" s="7">
         <v>19.637007079381696</v>
       </c>
     </row>
-    <row r="24" spans="2:13" hidden="1">
-      <c r="B24" s="8">
+    <row r="25" spans="2:13" hidden="1">
+      <c r="B25" s="8">
         <v>2023</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D25" s="10">
         <f t="shared" si="2"/>
         <v>1309236</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="11">
         <v>659020</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="11">
         <v>649665</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G25" s="11">
         <v>551</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H25" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>173599</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I25" s="11">
         <v>71029</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J25" s="11">
         <v>102570</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K25" s="11">
         <v>18.719585450561432</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L25" s="11">
         <v>15.387882418677528</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M25" s="12">
         <v>19.730128068950865</v>
       </c>
     </row>
-    <row r="25" spans="2:13" hidden="1">
-      <c r="B25" s="4">
+    <row r="26" spans="2:13" hidden="1">
+      <c r="B26" s="4">
         <v>2023</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D26" s="6">
         <f t="shared" si="2"/>
         <v>1302003</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="6">
         <v>655458</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="6">
         <v>645999</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G26" s="6">
         <v>546</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H26" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>172764</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I26" s="6">
         <v>70834</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J26" s="6">
         <v>101930</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K26" s="6">
         <v>18.802238606016331</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L26" s="6">
         <v>15.470034266398091</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M26" s="7">
         <v>19.817370449365175</v>
       </c>
     </row>
-    <row r="26" spans="2:13" hidden="1">
-      <c r="B26" s="8">
+    <row r="27" spans="2:13" hidden="1">
+      <c r="B27" s="8">
         <v>2023</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D27" s="10">
         <f t="shared" si="2"/>
         <v>1294209</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="11">
         <v>651761</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="11">
         <v>641907</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G27" s="11">
         <v>541</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H27" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>172137</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I27" s="11">
         <v>70783</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J27" s="11">
         <v>101354</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K27" s="11">
         <v>18.888086750966192</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L27" s="11">
         <v>15.535631502814621</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M27" s="12">
         <v>19.908092076696825</v>
       </c>
     </row>
-    <row r="27" spans="2:13" hidden="1">
-      <c r="B27" s="4">
+    <row r="28" spans="2:13" hidden="1">
+      <c r="B28" s="4">
         <v>2023</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D28" s="6">
         <f t="shared" si="2"/>
         <v>1286042</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="6">
         <v>647906</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F28" s="6">
         <v>637598</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G28" s="6">
         <v>538</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H28" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>171516</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I28" s="6">
         <v>70673</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J28" s="6">
         <v>100843</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K28" s="6">
         <v>18.982887674843173</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L28" s="6">
         <v>15.606316611861285</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M28" s="7">
         <v>20.002412386982066</v>
       </c>
     </row>
-    <row r="28" spans="2:13" hidden="1">
-      <c r="B28" s="8">
+    <row r="29" spans="2:13" hidden="1">
+      <c r="B29" s="8">
         <v>2023</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D29" s="10">
         <f t="shared" si="2"/>
         <v>1279902</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="11">
         <v>645139</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="11">
         <v>634226</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G29" s="11">
         <v>537</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H29" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>170681</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I29" s="11">
         <v>70483</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J29" s="11">
         <v>100198</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K29" s="11">
         <v>19.060761520669001</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L29" s="11">
         <v>15.688172672998164</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M29" s="12">
         <v>20.079559598784137</v>
       </c>
     </row>
-    <row r="29" spans="2:13" hidden="1">
-      <c r="B29" s="4">
+    <row r="30" spans="2:13" hidden="1">
+      <c r="B30" s="4">
         <v>2023</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D30" s="6">
         <f t="shared" si="2"/>
         <v>1273243</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E30" s="6">
         <v>641751</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F30" s="6">
         <v>630955</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G30" s="6">
         <v>537</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H30" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>170020</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I30" s="6">
         <v>70335</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J30" s="6">
         <v>99685</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K30" s="6">
         <v>19.1410877741165</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L30" s="6">
         <v>15.757763792495</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M30" s="7">
         <v>20.166095572893536</v>
       </c>
     </row>
-    <row r="30" spans="2:13" hidden="1">
-      <c r="B30" s="8">
+    <row r="31" spans="2:13" hidden="1">
+      <c r="B31" s="8">
         <v>2023</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D31" s="10">
         <f t="shared" si="2"/>
         <v>1267813</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="11">
         <v>639200</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F31" s="11">
         <v>628078</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G31" s="11">
         <v>535</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H31" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>169398</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I31" s="11">
         <v>70212</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J31" s="11">
         <v>99186</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K31" s="11">
         <v>19.207652247270783</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L31" s="11">
         <v>15.818386285552368</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M31" s="12">
         <v>20.231362640800999</v>
       </c>
     </row>
-    <row r="31" spans="2:13" hidden="1">
-      <c r="B31" s="4">
+    <row r="32" spans="2:13" hidden="1">
+      <c r="B32" s="4">
         <v>2023</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D32" s="6">
         <f t="shared" si="2"/>
         <v>1261816</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E32" s="6">
         <v>636167</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F32" s="6">
         <v>625114</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G32" s="6">
         <v>535</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H32" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>168270</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I32" s="6">
         <v>70028</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J32" s="6">
         <v>98242</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K32" s="6">
         <v>19.287032781621644</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L32" s="6">
         <v>15.924098175551196</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M32" s="7">
         <v>20.308953466621187</v>
       </c>
     </row>
-    <row r="32" spans="2:13" hidden="1">
-      <c r="B32" s="13">
+    <row r="33" spans="2:13" hidden="1">
+      <c r="B33" s="13">
         <v>2023</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D33" s="15">
         <f t="shared" si="2"/>
         <v>1256959</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E33" s="16">
         <v>633934</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F33" s="16">
         <v>622491</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G33" s="16">
         <v>534</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H33" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>167855</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I33" s="16">
         <v>70043</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J33" s="16">
         <v>97812</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K33" s="16">
         <v>19.347213328839835</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L33" s="16">
         <v>15.971731554019838</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M33" s="17">
         <v>20.368738701505205</v>
       </c>
     </row>
-    <row r="33" spans="2:13" hidden="1">
-      <c r="B33" s="18">
+    <row r="34" spans="2:13" hidden="1">
+      <c r="B34" s="18">
         <v>2022</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C34" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D34" s="20">
         <f t="shared" si="2"/>
         <v>1253020</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E34" s="20">
         <v>632252</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F34" s="20">
         <v>620240</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G34" s="20">
         <v>528</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H34" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>167359</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I34" s="20">
         <v>70056</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J34" s="20">
         <v>97303</v>
       </c>
-      <c r="K33" s="20">
+      <c r="K34" s="20">
         <v>18.42307890053252</v>
       </c>
-      <c r="L33" s="20">
+      <c r="L34" s="20">
         <v>15.042250491458482</v>
       </c>
-      <c r="M33" s="21">
+      <c r="M34" s="21">
         <v>19.442766491841866</v>
       </c>
     </row>
-    <row r="34" spans="2:13" hidden="1">
-      <c r="B34" s="8">
+    <row r="35" spans="2:13" hidden="1">
+      <c r="B35" s="8">
         <v>2022</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D35" s="10">
         <f t="shared" si="2"/>
         <v>1248052</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="11">
         <v>629746</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F35" s="11">
         <v>617778</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G35" s="11">
         <v>528</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H35" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>166178</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I35" s="11">
         <v>69821</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J35" s="11">
         <v>96357</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K35" s="11">
         <v>18.489979500630259</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L35" s="11">
         <v>15.145163619733058</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M35" s="12">
         <v>19.503375964277662</v>
       </c>
     </row>
-    <row r="35" spans="2:13" hidden="1">
-      <c r="B35" s="4">
+    <row r="36" spans="2:13" hidden="1">
+      <c r="B36" s="4">
         <v>2022</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D36" s="6">
         <f t="shared" si="2"/>
         <v>1243495</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E36" s="6">
         <v>627591</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F36" s="6">
         <v>615376</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G36" s="6">
         <v>528</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H36" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>165354</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I36" s="6">
         <v>69675</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J36" s="6">
         <v>95679</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K36" s="6">
         <v>18.547631541388647</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L36" s="6">
         <v>15.219299200503164</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M36" s="7">
         <v>19.558707820857851</v>
       </c>
     </row>
-    <row r="36" spans="2:13" hidden="1">
-      <c r="B36" s="8">
+    <row r="37" spans="2:13" hidden="1">
+      <c r="B37" s="8">
         <v>2022</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D37" s="10">
         <f t="shared" si="2"/>
         <v>1239858</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E37" s="11">
         <v>625802</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F37" s="11">
         <v>613527</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G37" s="11">
         <v>529</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H37" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>164931</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I37" s="11">
         <v>69723</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J37" s="11">
         <v>95208</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K37" s="11">
         <v>18.59142751342344</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L37" s="11">
         <v>15.268857886025064</v>
       </c>
-      <c r="M36" s="12">
+      <c r="M37" s="12">
         <v>19.601036749642859</v>
       </c>
     </row>
-    <row r="37" spans="2:13" hidden="1">
-      <c r="B37" s="4">
+    <row r="38" spans="2:13" hidden="1">
+      <c r="B38" s="4">
         <v>2022</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D38" s="6">
         <f t="shared" si="2"/>
         <v>1234757</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E38" s="6">
         <v>623225</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F38" s="6">
         <v>611005</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G38" s="6">
         <v>527</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H38" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>166002</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I38" s="6">
         <v>69645</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J38" s="6">
         <v>96357</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K38" s="6">
         <v>18.633291483125653</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L38" s="6">
         <v>15.188636281490584</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M38" s="7">
         <v>19.665687352079907</v>
       </c>
     </row>
-    <row r="38" spans="2:13" hidden="1">
-      <c r="B38" s="8">
+    <row r="39" spans="2:13" hidden="1">
+      <c r="B39" s="8">
         <v>2022</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D39" s="10">
         <f t="shared" si="2"/>
         <v>1227595</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="11">
         <v>619408</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F39" s="11">
         <v>607662</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G39" s="11">
         <v>525</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H39" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>163526</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I39" s="11">
         <v>69586</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J39" s="11">
         <v>93940</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K39" s="11">
         <v>18.738775316483004</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L39" s="11">
         <v>15.421364186734833</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M39" s="12">
         <v>19.756386743471182</v>
       </c>
     </row>
-    <row r="39" spans="2:13" hidden="1">
-      <c r="B39" s="4">
+    <row r="40" spans="2:13" hidden="1">
+      <c r="B40" s="4">
         <v>2022</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D40" s="6">
         <f t="shared" si="2"/>
         <v>1225289</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E40" s="6">
         <v>618040</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F40" s="6">
         <v>606724</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G40" s="6">
         <v>525</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H40" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>163070</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I40" s="6">
         <v>69430</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J40" s="6">
         <v>93640</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K40" s="6">
         <v>18.751951602280965</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L40" s="6">
         <v>15.452272030416385</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M40" s="7">
         <v>19.768709145039157</v>
       </c>
     </row>
-    <row r="40" spans="2:13" hidden="1">
-      <c r="B40" s="8">
+    <row r="41" spans="2:13" hidden="1">
+      <c r="B41" s="8">
         <v>2022</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D41" s="10">
         <f t="shared" si="2"/>
         <v>1222511</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E41" s="11">
         <v>616795</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F41" s="11">
         <v>605191</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G41" s="11">
         <v>525</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H41" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>162777</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I41" s="11">
         <v>69624</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J41" s="11">
         <v>93153</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K41" s="11">
         <v>18.804625051362581</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L41" s="11">
         <v>15.510440664221605</v>
       </c>
-      <c r="M40" s="12">
+      <c r="M41" s="12">
         <v>19.817924918327808</v>
       </c>
     </row>
-    <row r="41" spans="2:13" hidden="1">
-      <c r="B41" s="4">
+    <row r="42" spans="2:13" hidden="1">
+      <c r="B42" s="4">
         <v>2022</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D42" s="6">
         <f t="shared" si="2"/>
         <v>1217422</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E42" s="6">
         <v>614317</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F42" s="6">
         <v>602581</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G42" s="6">
         <v>524</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H42" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>162245</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I42" s="6">
         <v>69515</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J42" s="6">
         <v>92730</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K42" s="6">
         <v>18.867667819798235</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L42" s="6">
         <v>15.572301149496132</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M42" s="7">
         <v>19.875979339656887</v>
       </c>
     </row>
-    <row r="42" spans="2:13" hidden="1">
-      <c r="B42" s="8">
+    <row r="43" spans="2:13" hidden="1">
+      <c r="B43" s="8">
         <v>2022</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C43" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D43" s="10">
         <f t="shared" si="2"/>
         <v>1212635</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E43" s="11">
         <v>611918</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F43" s="11">
         <v>600194</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G43" s="11">
         <v>523</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H43" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>161903</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I43" s="11">
         <v>69487</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J43" s="11">
         <v>92416</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K43" s="11">
         <v>18.918767990160223</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L43" s="11">
         <v>15.612731079720572</v>
       </c>
-      <c r="M42" s="12">
+      <c r="M43" s="12">
         <v>19.925975375785644</v>
       </c>
     </row>
-    <row r="43" spans="2:13" hidden="1">
-      <c r="B43" s="4">
+    <row r="44" spans="2:13" hidden="1">
+      <c r="B44" s="4">
         <v>2022</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D44" s="6">
         <f t="shared" si="2"/>
         <v>1207392</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E44" s="6">
         <v>609072</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F44" s="6">
         <v>597797</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G44" s="6">
         <v>523</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H44" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>161179</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I44" s="6">
         <v>69288</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J44" s="6">
         <v>91891</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K44" s="6">
         <v>18.985056810872138</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L44" s="6">
         <v>15.690822005348092</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M44" s="7">
         <v>19.992202892268896</v>
       </c>
     </row>
-    <row r="44" spans="2:13" hidden="1">
-      <c r="B44" s="13">
+    <row r="45" spans="2:13" hidden="1">
+      <c r="B45" s="13">
         <v>2022</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D45" s="15">
         <f t="shared" si="2"/>
         <v>1203679</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E45" s="16">
         <v>607150</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F45" s="16">
         <v>596005</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G45" s="16">
         <v>524</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H45" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>160915</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I45" s="16">
         <v>69335</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J45" s="16">
         <v>91580</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K45" s="16">
         <v>19.033586986005115</v>
       </c>
-      <c r="L44" s="16">
+      <c r="L45" s="16">
         <v>15.723189261411305</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M45" s="17">
         <v>20.040443053611135</v>
       </c>
     </row>
-    <row r="45" spans="2:13" hidden="1">
-      <c r="B45" s="18">
+    <row r="46" spans="2:13" hidden="1">
+      <c r="B46" s="18">
         <v>2021</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C46" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D46" s="20">
         <f t="shared" si="2"/>
         <v>1201053</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E46" s="20">
         <v>606090</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F46" s="20">
         <v>594443</v>
       </c>
-      <c r="G45" s="20">
+      <c r="G46" s="20">
         <v>520</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H46" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>160633</v>
       </c>
-      <c r="I45" s="20">
+      <c r="I46" s="20">
         <v>69330</v>
       </c>
-      <c r="J45" s="20">
+      <c r="J46" s="20">
         <v>91303</v>
       </c>
-      <c r="K45" s="20">
+      <c r="K46" s="20">
         <v>18.104901973748976</v>
       </c>
-      <c r="L45" s="20">
+      <c r="L46" s="20">
         <v>14.77932927854177</v>
       </c>
-      <c r="M45" s="21">
+      <c r="M46" s="21">
         <v>19.103214044118861</v>
       </c>
     </row>
-    <row r="46" spans="2:13" hidden="1">
-      <c r="B46" s="8">
+    <row r="47" spans="2:13" hidden="1">
+      <c r="B47" s="8">
         <v>2021</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D47" s="10">
         <f t="shared" si="2"/>
         <v>1195350</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="11">
         <v>603380</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F47" s="11">
         <v>591451</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G47" s="11">
         <v>519</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H47" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>159783</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I47" s="11">
         <v>69196</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J47" s="11">
         <v>90587</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K47" s="11">
         <v>18.165010106199993</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L47" s="11">
         <v>14.853858044973496</v>
       </c>
-      <c r="M46" s="12">
+      <c r="M47" s="12">
         <v>19.159161722297721</v>
       </c>
     </row>
-    <row r="47" spans="2:13" hidden="1">
-      <c r="B47" s="4">
+    <row r="48" spans="2:13" hidden="1">
+      <c r="B48" s="4">
         <v>2021</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D48" s="6">
         <f t="shared" si="2"/>
         <v>1192781</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E48" s="6">
         <v>602061</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F48" s="6">
         <v>590200</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G48" s="6">
         <v>520</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H48" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>159209</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I48" s="6">
         <v>69167</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J48" s="6">
         <v>90042</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K48" s="6">
         <v>18.210527795659541</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L48" s="6">
         <v>14.91196477586066</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M48" s="7">
         <v>19.201099224164992</v>
       </c>
     </row>
-    <row r="48" spans="2:13" hidden="1">
-      <c r="B48" s="8">
+    <row r="49" spans="2:13" hidden="1">
+      <c r="B49" s="8">
         <v>2021</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="10">
-        <f t="shared" ref="D48:D79" si="3">SUM(E48:G48)</f>
+      <c r="D49" s="10">
+        <f t="shared" ref="D49:D80" si="3">SUM(E49:G49)</f>
         <v>1186041</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E49" s="11">
         <v>599199</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F49" s="11">
         <v>586326</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G49" s="11">
         <v>516</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H49" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>158594</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I49" s="11">
         <v>69024</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J49" s="11">
         <v>89570</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K49" s="11">
         <v>18.280978841903135</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L49" s="11">
         <v>14.981991752525316</v>
       </c>
-      <c r="M48" s="12">
+      <c r="M49" s="12">
         <v>19.262381946565331</v>
       </c>
     </row>
-    <row r="49" spans="2:13" hidden="1">
-      <c r="B49" s="4">
+    <row r="50" spans="2:13" hidden="1">
+      <c r="B50" s="4">
         <v>2021</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D50" s="6">
         <f t="shared" si="3"/>
         <v>1182334</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E50" s="6">
         <v>597975</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F50" s="6">
         <v>583854</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G50" s="6">
         <v>505</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H50" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157584</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I50" s="6">
         <v>68967</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J50" s="6">
         <v>88617</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K50" s="6">
         <v>18.343313078191716</v>
       </c>
-      <c r="L49" s="6">
+      <c r="L50" s="6">
         <v>15.069702507868818</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M50" s="7">
         <v>19.317817634516494</v>
       </c>
     </row>
-    <row r="50" spans="2:13" hidden="1">
-      <c r="B50" s="8">
+    <row r="51" spans="2:13" hidden="1">
+      <c r="B51" s="8">
         <v>2021</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C51" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D51" s="10">
         <f t="shared" si="3"/>
         <v>1175907</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="11">
         <v>594590</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F51" s="11">
         <v>580812</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G51" s="11">
         <v>505</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H51" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157806</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I51" s="11">
         <v>69051</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J51" s="11">
         <v>88755</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K51" s="11">
         <v>18.386941872536017</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L51" s="11">
         <v>15.078070542311446</v>
       </c>
-      <c r="M50" s="12">
+      <c r="M51" s="12">
         <v>19.364975865722599</v>
       </c>
     </row>
-    <row r="51" spans="2:13" hidden="1">
-      <c r="B51" s="4">
+    <row r="52" spans="2:13" hidden="1">
+      <c r="B52" s="4">
         <v>2021</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D52" s="6">
         <f t="shared" si="3"/>
         <v>1172788</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E52" s="6">
         <v>593307</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F52" s="6">
         <v>578970</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G52" s="6">
         <v>511</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H52" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157163</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I52" s="6">
         <v>68993</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J52" s="6">
         <v>88170</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K52" s="6">
         <v>18.439486550728127</v>
       </c>
-      <c r="L51" s="6">
+      <c r="L52" s="6">
         <v>15.1151861443215</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M52" s="7">
         <v>19.410730026782087</v>
       </c>
     </row>
-    <row r="52" spans="2:13" hidden="1">
-      <c r="B52" s="8">
+    <row r="53" spans="2:13" hidden="1">
+      <c r="B53" s="8">
         <v>2021</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D53" s="10">
         <f t="shared" si="3"/>
         <v>1166805</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E53" s="11">
         <v>590245</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F53" s="11">
         <v>576050</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G53" s="11">
         <v>510</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H53" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156786</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I53" s="11">
         <v>69018</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J53" s="11">
         <v>87768</v>
       </c>
-      <c r="K52" s="11">
+      <c r="K53" s="11">
         <v>18.504217806770711</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L53" s="11">
         <v>15.155396527751202</v>
       </c>
-      <c r="M52" s="12">
+      <c r="M53" s="12">
         <v>19.481235758032678</v>
       </c>
     </row>
-    <row r="53" spans="2:13" hidden="1">
-      <c r="B53" s="4">
+    <row r="54" spans="2:13" hidden="1">
+      <c r="B54" s="4">
         <v>2021</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D54" s="6">
         <f t="shared" si="3"/>
         <v>1162463</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E54" s="6">
         <v>588077</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F54" s="6">
         <v>573877</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G54" s="6">
         <v>509</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H54" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156695</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I54" s="6">
         <v>69223</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J54" s="6">
         <v>87472</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K54" s="6">
         <v>18.555855273086319</v>
       </c>
-      <c r="L53" s="6">
+      <c r="L54" s="6">
         <v>15.176859504132231</v>
       </c>
-      <c r="M53" s="7">
+      <c r="M54" s="7">
         <v>19.539313729324562</v>
       </c>
     </row>
-    <row r="54" spans="2:13" hidden="1">
-      <c r="B54" s="8">
+    <row r="55" spans="2:13" hidden="1">
+      <c r="B55" s="8">
         <v>2021</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D55" s="10">
         <f t="shared" si="3"/>
         <v>1157730</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E55" s="11">
         <v>586093</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F55" s="11">
         <v>571129</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G55" s="11">
         <v>508</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H55" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156467</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I55" s="11">
         <v>69334</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J55" s="11">
         <v>87133</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K55" s="11">
         <v>18.610992403833784</v>
       </c>
-      <c r="L54" s="11">
+      <c r="L55" s="11">
         <v>15.20547463682438</v>
       </c>
-      <c r="M54" s="12">
+      <c r="M55" s="12">
         <v>19.591187746654541</v>
       </c>
     </row>
-    <row r="55" spans="2:13" hidden="1">
-      <c r="B55" s="4">
+    <row r="56" spans="2:13" hidden="1">
+      <c r="B56" s="4">
         <v>2021</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D56" s="6">
         <f t="shared" si="3"/>
         <v>1151624</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E56" s="6">
         <v>583440</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F56" s="6">
         <v>567677</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G56" s="6">
         <v>507</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H56" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156128</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I56" s="6">
         <v>69352</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J56" s="6">
         <v>86776</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K56" s="6">
         <v>18.682593545968817</v>
       </c>
-      <c r="L55" s="6">
+      <c r="L56" s="6">
         <v>15.246899979503995</v>
       </c>
-      <c r="M55" s="7">
+      <c r="M56" s="7">
         <v>19.65870183737831</v>
       </c>
     </row>
-    <row r="56" spans="2:13" hidden="1">
-      <c r="B56" s="13">
+    <row r="57" spans="2:13" hidden="1">
+      <c r="B57" s="13">
         <v>2021</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D57" s="15">
         <f t="shared" si="3"/>
         <v>1146962</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E57" s="16">
         <v>581299</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F57" s="16">
         <v>565156</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G57" s="16">
         <v>507</v>
       </c>
-      <c r="H56" s="16">
+      <c r="H57" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156135</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I57" s="16">
         <v>69558</v>
       </c>
-      <c r="J56" s="16">
+      <c r="J57" s="16">
         <v>86577</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K57" s="16">
         <v>18.737382445742711</v>
       </c>
-      <c r="L56" s="16">
+      <c r="L57" s="16">
         <v>15.270791302398566</v>
       </c>
-      <c r="M56" s="17">
+      <c r="M57" s="17">
         <v>19.71498144672535</v>
       </c>
     </row>
-    <row r="57" spans="2:13" hidden="1">
-      <c r="B57" s="18">
+    <row r="58" spans="2:13" hidden="1">
+      <c r="B58" s="18">
         <v>2020</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C58" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D58" s="20">
         <f t="shared" si="3"/>
         <v>1143940</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E58" s="20">
         <v>580035</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F58" s="20">
         <v>563400</v>
       </c>
-      <c r="G57" s="20">
+      <c r="G58" s="20">
         <v>505</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H58" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156064</v>
       </c>
-      <c r="I57" s="20">
+      <c r="I58" s="20">
         <v>69624</v>
       </c>
-      <c r="J57" s="20">
+      <c r="J58" s="20">
         <v>86440</v>
       </c>
-      <c r="K57" s="20">
+      <c r="K58" s="20">
         <v>17.787893642088221</v>
       </c>
-      <c r="L57" s="20">
+      <c r="L58" s="20">
         <v>14.291950738158704</v>
       </c>
-      <c r="M57" s="21">
+      <c r="M58" s="21">
         <v>18.763405656555207</v>
       </c>
     </row>
-    <row r="58" spans="2:13" hidden="1">
-      <c r="B58" s="8">
+    <row r="59" spans="2:13" hidden="1">
+      <c r="B59" s="8">
         <v>2020</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D59" s="10">
         <f t="shared" si="3"/>
         <v>1137719</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="11">
         <v>576835</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F59" s="11">
         <v>560383</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G59" s="11">
         <v>501</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H59" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>155330</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I59" s="11">
         <v>69641</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J59" s="11">
         <v>85689</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K59" s="11">
         <v>17.860964544450187</v>
       </c>
-      <c r="L58" s="11">
+      <c r="L59" s="11">
         <v>14.359087104873495</v>
       </c>
-      <c r="M58" s="12">
+      <c r="M59" s="12">
         <v>18.843092045385596</v>
       </c>
     </row>
-    <row r="59" spans="2:13" hidden="1">
-      <c r="B59" s="4">
+    <row r="60" spans="2:13" hidden="1">
+      <c r="B60" s="4">
         <v>2020</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D60" s="6">
         <f t="shared" si="3"/>
         <v>1131496</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E60" s="6">
         <v>574056</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F60" s="6">
         <v>556941</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G60" s="6">
         <v>499</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H60" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154998</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I60" s="6">
         <v>69581</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J60" s="6">
         <v>85417</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K60" s="6">
         <v>17.931151365285245</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L60" s="6">
         <v>14.401392276029368</v>
       </c>
-      <c r="M59" s="7">
+      <c r="M60" s="7">
         <v>18.916173683403709</v>
       </c>
     </row>
-    <row r="60" spans="2:13" hidden="1">
-      <c r="B60" s="8">
+    <row r="61" spans="2:13" hidden="1">
+      <c r="B61" s="8">
         <v>2020</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C61" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D61" s="10">
         <f t="shared" si="3"/>
         <v>1124473</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E61" s="11">
         <v>571367</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F61" s="11">
         <v>552611</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G61" s="11">
         <v>495</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H61" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154974</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I61" s="11">
         <v>69802</v>
       </c>
-      <c r="J60" s="11">
+      <c r="J61" s="11">
         <v>85172</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K61" s="11">
         <v>18.015470478954644</v>
       </c>
-      <c r="L60" s="11">
+      <c r="L61" s="11">
         <v>14.418154012931202</v>
       </c>
-      <c r="M60" s="12">
+      <c r="M61" s="12">
         <v>18.991473081224505</v>
       </c>
     </row>
-    <row r="61" spans="2:13" hidden="1">
-      <c r="B61" s="4">
+    <row r="62" spans="2:13" hidden="1">
+      <c r="B62" s="4">
         <v>2020</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D62" s="6">
         <f t="shared" si="3"/>
         <v>1119301</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E62" s="6">
         <v>569174</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F62" s="6">
         <v>549631</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G62" s="6">
         <v>496</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H62" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>155005</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I62" s="6">
         <v>69935</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J62" s="6">
         <v>85070</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K62" s="6">
         <v>18.074266962890857</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L62" s="6">
         <v>14.424315344666301</v>
       </c>
-      <c r="M61" s="7">
+      <c r="M62" s="7">
         <v>19.054786409779787</v>
       </c>
     </row>
-    <row r="62" spans="2:13" hidden="1">
-      <c r="B62" s="8">
+    <row r="63" spans="2:13" hidden="1">
+      <c r="B63" s="8">
         <v>2020</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D63" s="10">
         <f t="shared" si="3"/>
         <v>1115206</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="11">
         <v>567168</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F63" s="11">
         <v>547540</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G63" s="11">
         <v>498</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H63" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154854</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I63" s="11">
         <v>69936</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J63" s="11">
         <v>84918</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K63" s="11">
         <v>18.123512676025275</v>
       </c>
-      <c r="L62" s="11">
+      <c r="L63" s="11">
         <v>14.441519108321389</v>
       </c>
-      <c r="M62" s="12">
+      <c r="M63" s="12">
         <v>19.111048225569849</v>
       </c>
     </row>
-    <row r="63" spans="2:13" hidden="1">
-      <c r="B63" s="4">
+    <row r="64" spans="2:13" hidden="1">
+      <c r="B64" s="4">
         <v>2020</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D64" s="6">
         <f t="shared" si="3"/>
         <v>1112456</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E64" s="6">
         <v>566042</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F64" s="6">
         <v>545916</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G64" s="6">
         <v>498</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H64" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154797</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I64" s="6">
         <v>69959</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J64" s="6">
         <v>84838</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K64" s="6">
         <v>18.154673950369251</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L64" s="6">
         <v>14.450499686686436</v>
       </c>
-      <c r="M63" s="7">
+      <c r="M64" s="7">
         <v>19.140800505969523</v>
       </c>
     </row>
-    <row r="64" spans="2:13" hidden="1">
-      <c r="B64" s="8">
+    <row r="65" spans="2:13" hidden="1">
+      <c r="B65" s="8">
         <v>2020</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C65" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D65" s="10">
         <f t="shared" si="3"/>
         <v>1111879</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="11">
         <v>565980</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F65" s="11">
         <v>545400</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G65" s="11">
         <v>499</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H65" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154663</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I65" s="11">
         <v>69945</v>
       </c>
-      <c r="J64" s="11">
+      <c r="J65" s="11">
         <v>84718</v>
       </c>
-      <c r="K64" s="11">
+      <c r="K65" s="11">
         <v>18.164229808940139</v>
       </c>
-      <c r="L64" s="11">
+      <c r="L65" s="11">
         <v>14.46115101866639</v>
       </c>
-      <c r="M64" s="12">
+      <c r="M65" s="12">
         <v>19.144045725997383</v>
       </c>
     </row>
-    <row r="65" spans="2:13" hidden="1">
-      <c r="B65" s="4">
+    <row r="66" spans="2:13" hidden="1">
+      <c r="B66" s="4">
         <v>2020</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D66" s="6">
         <f t="shared" si="3"/>
         <v>1111626</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E66" s="6">
         <v>565883</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F66" s="6">
         <v>545244</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G66" s="6">
         <v>499</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H66" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154659</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I66" s="6">
         <v>69947</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J66" s="6">
         <v>84712</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K66" s="6">
         <v>18.16685047867491</v>
       </c>
-      <c r="L65" s="6">
+      <c r="L66" s="6">
         <v>14.461473305788864</v>
       </c>
-      <c r="M65" s="7">
+      <c r="M66" s="7">
         <v>19.146164489832703</v>
       </c>
     </row>
-    <row r="66" spans="2:13" hidden="1">
-      <c r="B66" s="8">
+    <row r="67" spans="2:13" hidden="1">
+      <c r="B67" s="8">
         <v>2020</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D67" s="10">
         <f t="shared" si="3"/>
         <v>1111436</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E67" s="11">
         <v>565809</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F67" s="11">
         <v>545128</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G67" s="11">
         <v>499</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H67" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154670</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I67" s="11">
         <v>69953</v>
       </c>
-      <c r="J66" s="11">
+      <c r="J67" s="11">
         <v>84717</v>
       </c>
-      <c r="K66" s="11">
+      <c r="K67" s="11">
         <v>18.1697391054253</v>
       </c>
-      <c r="L66" s="11">
+      <c r="L67" s="11">
         <v>14.461059028900239</v>
       </c>
-      <c r="M66" s="12">
+      <c r="M67" s="12">
         <v>19.148813468856098</v>
       </c>
     </row>
-    <row r="67" spans="2:13" hidden="1">
-      <c r="B67" s="4">
+    <row r="68" spans="2:13" hidden="1">
+      <c r="B68" s="4">
         <v>2020</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D68" s="6">
         <f t="shared" si="3"/>
         <v>1107180</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E68" s="6">
         <v>564089</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F68" s="6">
         <v>542595</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G68" s="6">
         <v>496</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H68" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154310</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I68" s="6">
         <v>69893</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J68" s="6">
         <v>84417</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K68" s="6">
         <v>18.222653716036714</v>
       </c>
-      <c r="L67" s="6">
+      <c r="L68" s="6">
         <v>14.507322921392005</v>
       </c>
-      <c r="M67" s="7">
+      <c r="M68" s="7">
         <v>19.193769068356236</v>
       </c>
     </row>
-    <row r="68" spans="2:13" hidden="1">
-      <c r="B68" s="13">
+    <row r="69" spans="2:13" hidden="1">
+      <c r="B69" s="13">
         <v>2020</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C69" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D69" s="15">
         <f t="shared" si="3"/>
         <v>1102434</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E69" s="16">
         <v>562170</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F69" s="16">
         <v>539768</v>
       </c>
-      <c r="G68" s="16">
+      <c r="G69" s="16">
         <v>496</v>
       </c>
-      <c r="H68" s="16">
+      <c r="H69" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>153904</v>
       </c>
-      <c r="I68" s="16">
+      <c r="I69" s="16">
         <v>69851</v>
       </c>
-      <c r="J68" s="16">
+      <c r="J69" s="16">
         <v>84053</v>
       </c>
-      <c r="K68" s="16">
+      <c r="K69" s="16">
         <v>18.280507420519459</v>
       </c>
-      <c r="L68" s="16">
+      <c r="L69" s="16">
         <v>14.558120646636864</v>
       </c>
-      <c r="M68" s="17">
+      <c r="M69" s="17">
         <v>19.246057242471139</v>
       </c>
     </row>
-    <row r="69" spans="2:13" hidden="1">
-      <c r="B69" s="18">
+    <row r="70" spans="2:13" hidden="1">
+      <c r="B70" s="18">
         <v>2019</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C70" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D70" s="20">
         <f t="shared" si="3"/>
         <v>1099371</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E70" s="20">
         <v>561061</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F70" s="20">
         <v>537813</v>
       </c>
-      <c r="G69" s="20">
+      <c r="G70" s="20">
         <v>497</v>
       </c>
-      <c r="H69" s="20">
+      <c r="H70" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>153726</v>
       </c>
-      <c r="I69" s="20">
+      <c r="I70" s="20">
         <v>69871</v>
       </c>
-      <c r="J69" s="20">
+      <c r="J70" s="20">
         <v>83855</v>
       </c>
-      <c r="K69" s="20">
+      <c r="K70" s="20">
         <v>17.338868752993772</v>
       </c>
-      <c r="L69" s="20">
+      <c r="L70" s="20">
         <v>13.608641348893483</v>
       </c>
-      <c r="M69" s="21">
+      <c r="M70" s="21">
         <v>18.302218475352948</v>
       </c>
     </row>
-    <row r="70" spans="2:13" hidden="1">
-      <c r="B70" s="8">
+    <row r="71" spans="2:13" hidden="1">
+      <c r="B71" s="8">
         <v>2019</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D71" s="10">
         <f t="shared" si="3"/>
         <v>1094843</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="11">
         <v>558626</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="11">
         <v>535724</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G71" s="11">
         <v>493</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H71" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>152624</v>
       </c>
-      <c r="I70" s="11">
+      <c r="I71" s="11">
         <v>69534</v>
       </c>
-      <c r="J70" s="11">
+      <c r="J71" s="11">
         <v>83090</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K71" s="11">
         <v>17.393954485017328</v>
       </c>
-      <c r="L70" s="11">
+      <c r="L71" s="11">
         <v>13.697282209875247</v>
       </c>
-      <c r="M70" s="12">
+      <c r="M71" s="12">
         <v>18.357969374859028</v>
       </c>
     </row>
-    <row r="71" spans="2:13" hidden="1">
-      <c r="B71" s="4">
+    <row r="72" spans="2:13" hidden="1">
+      <c r="B72" s="4">
         <v>2019</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D72" s="6">
         <f t="shared" si="3"/>
         <v>1089907</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E72" s="6">
         <v>556346</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F72" s="6">
         <v>533069</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G72" s="6">
         <v>492</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H72" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>151838</v>
       </c>
-      <c r="I71" s="6">
+      <c r="I72" s="6">
         <v>69318</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J72" s="6">
         <v>82520</v>
       </c>
-      <c r="K71" s="6">
+      <c r="K72" s="6">
         <v>17.456851262393727</v>
       </c>
-      <c r="L71" s="6">
+      <c r="L72" s="6">
         <v>13.773673257023932</v>
       </c>
-      <c r="M71" s="7">
+      <c r="M72" s="7">
         <v>18.416267933983526</v>
       </c>
     </row>
-    <row r="72" spans="2:13" hidden="1">
-      <c r="B72" s="8">
+    <row r="73" spans="2:13" hidden="1">
+      <c r="B73" s="8">
         <v>2019</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D73" s="10">
         <f t="shared" si="3"/>
         <v>1026253</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E73" s="11">
         <v>519860</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F73" s="11">
         <v>505944</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G73" s="11">
         <v>449</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H73" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134666</v>
       </c>
-      <c r="I72" s="11">
+      <c r="I73" s="11">
         <v>59103</v>
       </c>
-      <c r="J72" s="11">
+      <c r="J73" s="11">
         <v>75563</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K73" s="11">
         <v>17.271427094194593</v>
       </c>
-      <c r="L72" s="11">
+      <c r="L73" s="11">
         <v>13.265634978390985</v>
       </c>
-      <c r="M72" s="12">
+      <c r="M73" s="12">
         <v>18.202425653060441</v>
       </c>
     </row>
-    <row r="73" spans="2:13" hidden="1">
-      <c r="B73" s="4">
+    <row r="74" spans="2:13" hidden="1">
+      <c r="B74" s="4">
         <v>2019</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D74" s="6">
         <f t="shared" si="3"/>
         <v>1021601</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E74" s="6">
         <v>517666</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F74" s="6">
         <v>503486</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G74" s="6">
         <v>449</v>
       </c>
-      <c r="H73" s="6">
+      <c r="H74" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134177</v>
       </c>
-      <c r="I73" s="6">
+      <c r="I74" s="6">
         <v>58996</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J74" s="6">
         <v>75181</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K74" s="6">
         <v>17.331093567286896</v>
       </c>
-      <c r="L73" s="6">
+      <c r="L74" s="6">
         <v>13.321195137765788</v>
       </c>
-      <c r="M73" s="7">
+      <c r="M74" s="7">
         <v>18.260312634014984</v>
       </c>
     </row>
-    <row r="74" spans="2:13" hidden="1">
-      <c r="B74" s="8">
+    <row r="75" spans="2:13" hidden="1">
+      <c r="B75" s="8">
         <v>2019</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C75" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D75" s="10">
         <f t="shared" si="3"/>
         <v>1012889</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>514393</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="11">
         <v>498050</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G75" s="11">
         <v>446</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H75" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134315</v>
       </c>
-      <c r="I74" s="11">
+      <c r="I75" s="11">
         <v>59818</v>
       </c>
-      <c r="J74" s="11">
+      <c r="J75" s="11">
         <v>74497</v>
       </c>
-      <c r="K74" s="11">
+      <c r="K75" s="11">
         <v>17.523646663027421</v>
       </c>
-      <c r="L74" s="11">
+      <c r="L75" s="11">
         <v>13.572348583553588</v>
       </c>
-      <c r="M74" s="12">
+      <c r="M75" s="12">
         <v>18.476849412803052</v>
       </c>
     </row>
-    <row r="75" spans="2:13" hidden="1">
-      <c r="B75" s="4">
+    <row r="76" spans="2:13" hidden="1">
+      <c r="B76" s="4">
         <v>2019</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D76" s="6">
         <f t="shared" si="3"/>
         <v>1011042</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E76" s="6">
         <v>512802</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F76" s="6">
         <v>497796</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G76" s="6">
         <v>444</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H76" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>132861</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I76" s="6">
         <v>58917</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J76" s="6">
         <v>73944</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K76" s="6">
         <v>17.474399169537342</v>
       </c>
-      <c r="L75" s="6">
+      <c r="L76" s="6">
         <v>13.491144880740022</v>
       </c>
-      <c r="M75" s="7">
+      <c r="M76" s="7">
         <v>18.398711393481303</v>
       </c>
     </row>
-    <row r="76" spans="2:13" hidden="1">
-      <c r="B76" s="8">
+    <row r="77" spans="2:13" hidden="1">
+      <c r="B77" s="8">
         <v>2019</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D77" s="10">
         <f t="shared" si="3"/>
         <v>1006543</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E77" s="11">
         <v>506850</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F77" s="11">
         <v>499239</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G77" s="11">
         <v>454</v>
       </c>
-      <c r="H76" s="11">
+      <c r="H77" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>133322</v>
       </c>
-      <c r="I76" s="11">
+      <c r="I77" s="11">
         <v>58537</v>
       </c>
-      <c r="J76" s="11">
+      <c r="J77" s="11">
         <v>74785</v>
       </c>
-      <c r="K76" s="11">
+      <c r="K77" s="11">
         <v>17.005059631686898</v>
       </c>
-      <c r="L76" s="11">
+      <c r="L77" s="11">
         <v>12.551904411875007</v>
       </c>
-      <c r="M76" s="12">
+      <c r="M77" s="12">
         <v>17.760755647627501</v>
       </c>
     </row>
-    <row r="77" spans="2:13" hidden="1">
-      <c r="B77" s="4">
+    <row r="78" spans="2:13" hidden="1">
+      <c r="B78" s="4">
         <v>2019</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D78" s="6">
         <f t="shared" si="3"/>
         <v>1000820</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E78" s="6">
         <v>504046</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F78" s="6">
         <v>496323</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G78" s="6">
         <v>451</v>
       </c>
-      <c r="H77" s="6">
+      <c r="H78" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>132406</v>
       </c>
-      <c r="I77" s="6">
+      <c r="I78" s="6">
         <v>58289</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J78" s="6">
         <v>74117</v>
       </c>
-      <c r="K77" s="6">
+      <c r="K78" s="6">
         <v>17.079096025247733</v>
       </c>
-      <c r="L77" s="6">
+      <c r="L78" s="6">
         <v>12.619949247012975</v>
       </c>
-      <c r="M77" s="7">
+      <c r="M78" s="7">
         <v>17.838770667756513</v>
       </c>
     </row>
-    <row r="78" spans="2:13" hidden="1">
-      <c r="B78" s="8">
+    <row r="79" spans="2:13" hidden="1">
+      <c r="B79" s="8">
         <v>2019</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C79" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D79" s="10">
         <f t="shared" si="3"/>
         <v>995167</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E79" s="11">
         <v>501424</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F79" s="11">
         <v>493291</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G79" s="11">
         <v>452</v>
       </c>
-      <c r="H78" s="11">
+      <c r="H79" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>131276</v>
       </c>
-      <c r="I78" s="11">
+      <c r="I79" s="11">
         <v>57933</v>
       </c>
-      <c r="J78" s="11">
+      <c r="J79" s="11">
         <v>73343</v>
       </c>
-      <c r="K78" s="11">
+      <c r="K79" s="11">
         <v>17.153564282485384</v>
       </c>
-      <c r="L78" s="11">
+      <c r="L79" s="11">
         <v>12.722576860964685</v>
       </c>
-      <c r="M78" s="12">
+      <c r="M79" s="12">
         <v>17.901807651807651</v>
       </c>
     </row>
-    <row r="79" spans="2:13" hidden="1">
-      <c r="B79" s="4">
+    <row r="80" spans="2:13" hidden="1">
+      <c r="B80" s="4">
         <v>2019</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D80" s="6">
         <f t="shared" si="3"/>
         <v>990002</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E80" s="6">
         <v>499221</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F80" s="6">
         <v>490327</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G80" s="6">
         <v>454</v>
       </c>
-      <c r="H79" s="6">
+      <c r="H80" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>130579</v>
       </c>
-      <c r="I79" s="6">
+      <c r="I80" s="6">
         <v>57862</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J80" s="6">
         <v>72717</v>
       </c>
-      <c r="K79" s="6">
+      <c r="K80" s="6">
         <v>17.220458930103462</v>
       </c>
-      <c r="L79" s="6">
+      <c r="L80" s="6">
         <v>12.793971465549593</v>
       </c>
-      <c r="M79" s="7">
+      <c r="M80" s="7">
         <v>17.958405195294269</v>
       </c>
     </row>
-    <row r="80" spans="2:13" hidden="1">
-      <c r="B80" s="13">
+    <row r="81" spans="2:13" hidden="1">
+      <c r="B81" s="13">
         <v>2019</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C81" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="15">
-        <f t="shared" ref="D80:D92" si="4">SUM(E80:G80)</f>
+      <c r="D81" s="15">
+        <f t="shared" ref="D81:D93" si="4">SUM(E81:G81)</f>
         <v>985713</v>
       </c>
-      <c r="E80" s="16">
+      <c r="E81" s="16">
         <v>497141</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F81" s="16">
         <v>488120</v>
       </c>
-      <c r="G80" s="16">
+      <c r="G81" s="16">
         <v>452</v>
       </c>
-      <c r="H80" s="16">
+      <c r="H81" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>129833</v>
       </c>
-      <c r="I80" s="16">
+      <c r="I81" s="16">
         <v>57647</v>
       </c>
-      <c r="J80" s="16">
+      <c r="J81" s="16">
         <v>72186</v>
       </c>
-      <c r="K80" s="16">
+      <c r="K81" s="16">
         <v>17.272496309728147</v>
       </c>
-      <c r="L80" s="16">
+      <c r="L81" s="16">
         <v>12.85511387705745</v>
       </c>
-      <c r="M80" s="17">
+      <c r="M81" s="17">
         <v>18.009015550920161</v>
       </c>
     </row>
-    <row r="81" spans="2:13" hidden="1">
-      <c r="B81" s="18">
+    <row r="82" spans="2:13" hidden="1">
+      <c r="B82" s="18">
         <v>2018</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C82" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="20">
+      <c r="D82" s="20">
         <f t="shared" si="4"/>
         <v>982856</v>
       </c>
-      <c r="E81" s="20">
+      <c r="E82" s="20">
         <v>496057</v>
       </c>
-      <c r="F81" s="20">
+      <c r="F82" s="20">
         <v>486335</v>
       </c>
-      <c r="G81" s="20">
+      <c r="G82" s="20">
         <v>464</v>
       </c>
-      <c r="H81" s="20">
+      <c r="H82" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>129315</v>
       </c>
-      <c r="I81" s="20">
+      <c r="I82" s="20">
         <v>57599</v>
       </c>
-      <c r="J81" s="20">
+      <c r="J82" s="20">
         <v>71716</v>
       </c>
-      <c r="K81" s="20">
+      <c r="K82" s="20">
         <v>15.55</v>
       </c>
-      <c r="L81" s="20">
+      <c r="L82" s="20">
         <v>11.5</v>
       </c>
-      <c r="M81" s="21">
+      <c r="M82" s="21">
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="82" spans="2:13" hidden="1">
-      <c r="B82" s="8">
+    <row r="83" spans="2:13" hidden="1">
+      <c r="B83" s="8">
         <v>2018</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C83" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D83" s="10">
         <f t="shared" si="4"/>
         <v>978058</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="11">
         <v>493248</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="11">
         <v>484343</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G83" s="11">
         <v>467</v>
       </c>
-      <c r="H82" s="11">
+      <c r="H83" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>127995</v>
       </c>
-      <c r="I82" s="11">
+      <c r="I83" s="11">
         <v>57117</v>
       </c>
-      <c r="J82" s="11">
+      <c r="J83" s="11">
         <v>70878</v>
       </c>
-      <c r="K82" s="11">
+      <c r="K83" s="11">
         <v>15.611125202215558</v>
       </c>
-      <c r="L82" s="11">
+      <c r="L83" s="11">
         <v>11.579603101683659</v>
       </c>
-      <c r="M82" s="12">
+      <c r="M83" s="12">
         <v>16.657281844021668</v>
       </c>
     </row>
-    <row r="83" spans="2:13" hidden="1">
-      <c r="B83" s="4">
+    <row r="84" spans="2:13" hidden="1">
+      <c r="B84" s="4">
         <v>2018</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D84" s="6">
         <f t="shared" si="4"/>
         <v>971514</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E84" s="6">
         <v>489853</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F84" s="6">
         <v>481195</v>
       </c>
-      <c r="G83" s="6">
+      <c r="G84" s="6">
         <v>466</v>
       </c>
-      <c r="H83" s="6">
+      <c r="H84" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>126537</v>
       </c>
-      <c r="I83" s="6">
+      <c r="I84" s="6">
         <v>56599</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J84" s="6">
         <v>69938</v>
       </c>
-      <c r="K83" s="6">
+      <c r="K84" s="6">
         <v>15.692013983030227</v>
       </c>
-      <c r="L83" s="6">
+      <c r="L84" s="6">
         <v>11.695425480294306</v>
       </c>
-      <c r="M83" s="7">
+      <c r="M84" s="7">
         <v>16.724397819345807</v>
       </c>
     </row>
-    <row r="84" spans="2:13" hidden="1">
-      <c r="B84" s="8">
+    <row r="85" spans="2:13" hidden="1">
+      <c r="B85" s="8">
         <v>2018</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C85" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D85" s="10">
         <f t="shared" si="4"/>
         <v>965544</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="11">
         <v>486879</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F85" s="11">
         <v>478202</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G85" s="11">
         <v>463</v>
       </c>
-      <c r="H84" s="11">
+      <c r="H85" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>125592</v>
       </c>
-      <c r="I84" s="11">
+      <c r="I85" s="11">
         <v>56443</v>
       </c>
-      <c r="J84" s="11">
+      <c r="J85" s="11">
         <v>69149</v>
       </c>
-      <c r="K84" s="11">
+      <c r="K85" s="11">
         <v>15.766115172800014</v>
       </c>
-      <c r="L84" s="11">
+      <c r="L85" s="11">
         <v>11.775922614497736</v>
       </c>
-      <c r="M84" s="12">
+      <c r="M85" s="12">
         <v>16.795398144097401</v>
       </c>
     </row>
-    <row r="85" spans="2:13" hidden="1">
-      <c r="B85" s="4">
+    <row r="86" spans="2:13" hidden="1">
+      <c r="B86" s="4">
         <v>2018</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D86" s="6">
         <f t="shared" si="4"/>
         <v>960111</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E86" s="6">
         <v>483912</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F86" s="6">
         <v>475735</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G86" s="6">
         <v>464</v>
       </c>
-      <c r="H85" s="6">
+      <c r="H86" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>124463</v>
       </c>
-      <c r="I85" s="6">
+      <c r="I86" s="6">
         <v>56029</v>
       </c>
-      <c r="J85" s="6">
+      <c r="J86" s="6">
         <v>68434</v>
       </c>
-      <c r="K85" s="6">
+      <c r="K86" s="6">
         <v>15.828890174645572</v>
       </c>
-      <c r="L85" s="6">
+      <c r="L86" s="6">
         <v>11.859889509332092</v>
       </c>
-      <c r="M85" s="7">
+      <c r="M86" s="7">
         <v>16.84972398287292</v>
       </c>
     </row>
-    <row r="86" spans="2:13" hidden="1">
-      <c r="B86" s="8">
+    <row r="87" spans="2:13" hidden="1">
+      <c r="B87" s="8">
         <v>2018</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C87" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D87" s="10">
         <f t="shared" si="4"/>
         <v>953323</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E87" s="11">
         <v>480495</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F87" s="11">
         <v>472364</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G87" s="11">
         <v>464</v>
       </c>
-      <c r="H86" s="11">
+      <c r="H87" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>123737</v>
       </c>
-      <c r="I86" s="11">
+      <c r="I87" s="11">
         <v>55960</v>
       </c>
-      <c r="J86" s="11">
+      <c r="J87" s="11">
         <v>67777</v>
       </c>
-      <c r="K86" s="11">
+      <c r="K87" s="11">
         <v>15.900131480954339</v>
       </c>
-      <c r="L86" s="11">
+      <c r="L87" s="11">
         <v>11.93027888990358</v>
       </c>
-      <c r="M86" s="12">
+      <c r="M87" s="12">
         <v>16.922447322032493</v>
       </c>
     </row>
-    <row r="87" spans="2:13" hidden="1">
-      <c r="B87" s="4">
+    <row r="88" spans="2:13" hidden="1">
+      <c r="B88" s="4">
         <v>2018</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D88" s="6">
         <f t="shared" si="4"/>
         <v>947851</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E88" s="6">
         <v>477880</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F88" s="6">
         <v>469513</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G88" s="6">
         <v>458</v>
       </c>
-      <c r="H87" s="6">
+      <c r="H88" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>122946</v>
       </c>
-      <c r="I87" s="6">
+      <c r="I88" s="6">
         <v>55790</v>
       </c>
-      <c r="J87" s="6">
+      <c r="J88" s="6">
         <v>67156</v>
       </c>
-      <c r="K87" s="6">
+      <c r="K88" s="6">
         <v>15.97</v>
       </c>
-      <c r="L87" s="6">
+      <c r="L88" s="6">
         <v>12.01</v>
       </c>
-      <c r="M87" s="7">
+      <c r="M88" s="7">
         <v>16.98</v>
       </c>
     </row>
-    <row r="88" spans="2:13" hidden="1">
-      <c r="B88" s="8">
+    <row r="89" spans="2:13" hidden="1">
+      <c r="B89" s="8">
         <v>2018</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C89" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D89" s="10">
         <f t="shared" si="4"/>
         <v>944527</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E89" s="11">
         <v>476241</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F89" s="11">
         <v>467827</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G89" s="11">
         <v>459</v>
       </c>
-      <c r="H88" s="11">
+      <c r="H89" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>122105</v>
       </c>
-      <c r="I88" s="11">
+      <c r="I89" s="11">
         <v>55617</v>
       </c>
-      <c r="J88" s="11">
+      <c r="J89" s="11">
         <v>66488</v>
       </c>
-      <c r="K88" s="11">
+      <c r="K89" s="11">
         <v>16.02</v>
       </c>
-      <c r="L88" s="11">
+      <c r="L89" s="11">
         <v>12.1</v>
       </c>
-      <c r="M88" s="12">
+      <c r="M89" s="12">
         <v>17.03</v>
       </c>
     </row>
-    <row r="89" spans="2:13" hidden="1">
-      <c r="B89" s="4">
+    <row r="90" spans="2:13" hidden="1">
+      <c r="B90" s="4">
         <v>2018</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D90" s="6">
         <f t="shared" si="4"/>
         <v>936533</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E90" s="6">
         <v>472271</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F90" s="6">
         <v>463807</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G90" s="6">
         <v>455</v>
       </c>
-      <c r="H89" s="6">
+      <c r="H90" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>121075</v>
       </c>
-      <c r="I89" s="6">
+      <c r="I90" s="6">
         <v>55199</v>
       </c>
-      <c r="J89" s="6">
+      <c r="J90" s="6">
         <v>65876</v>
       </c>
-      <c r="K89" s="6">
+      <c r="K90" s="6">
         <v>16.09</v>
       </c>
-      <c r="L89" s="6">
+      <c r="L90" s="6">
         <v>12.15</v>
       </c>
-      <c r="M89" s="7">
+      <c r="M90" s="7">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="90" spans="2:13" hidden="1">
-      <c r="B90" s="8">
+    <row r="91" spans="2:13" hidden="1">
+      <c r="B91" s="8">
         <v>2018</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C91" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D91" s="10">
         <f t="shared" si="4"/>
         <v>930205</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E91" s="11">
         <v>469020</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F91" s="11">
         <v>460731</v>
       </c>
-      <c r="G90" s="11">
+      <c r="G91" s="11">
         <v>454</v>
       </c>
-      <c r="H90" s="11">
+      <c r="H91" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>120039</v>
       </c>
-      <c r="I90" s="11">
+      <c r="I91" s="11">
         <v>54921</v>
       </c>
-      <c r="J90" s="11">
+      <c r="J91" s="11">
         <v>65118</v>
       </c>
-      <c r="K90" s="11">
+      <c r="K91" s="11">
         <v>16.160723713583874</v>
       </c>
-      <c r="L90" s="11">
+      <c r="L91" s="11">
         <v>12.219768117028636</v>
       </c>
-      <c r="M90" s="12">
+      <c r="M91" s="12">
         <v>17.169355262035737</v>
       </c>
     </row>
-    <row r="91" spans="2:13" hidden="1">
-      <c r="B91" s="4">
+    <row r="92" spans="2:13" hidden="1">
+      <c r="B92" s="4">
         <v>2018</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D92" s="6">
         <f t="shared" si="4"/>
         <v>924012</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E92" s="6">
         <v>466319</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F92" s="6">
         <v>457242</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G92" s="6">
         <v>451</v>
       </c>
-      <c r="H91" s="6">
+      <c r="H92" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>118763</v>
       </c>
-      <c r="I91" s="6">
+      <c r="I92" s="6">
         <v>54503</v>
       </c>
-      <c r="J91" s="6">
+      <c r="J92" s="6">
         <v>64260</v>
       </c>
-      <c r="K91" s="6">
+      <c r="K92" s="6">
         <v>16.222653310134305</v>
       </c>
-      <c r="L91" s="6">
+      <c r="L92" s="6">
         <v>12.303791963827118</v>
       </c>
-      <c r="M91" s="7">
+      <c r="M92" s="7">
         <v>17.220716288635032</v>
       </c>
     </row>
-    <row r="92" spans="2:13" hidden="1">
-      <c r="B92" s="13">
+    <row r="93" spans="2:13" hidden="1">
+      <c r="B93" s="13">
         <v>2018</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C93" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D92" s="15">
+      <c r="D93" s="15">
         <f t="shared" si="4"/>
         <v>920526</v>
       </c>
-      <c r="E92" s="16">
+      <c r="E93" s="16">
         <v>464622</v>
       </c>
-      <c r="F92" s="16">
+      <c r="F93" s="16">
         <v>455453</v>
       </c>
-      <c r="G92" s="16">
+      <c r="G93" s="16">
         <v>451</v>
       </c>
-      <c r="H92" s="16">
+      <c r="H93" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>118260</v>
       </c>
-      <c r="I92" s="16">
+      <c r="I93" s="16">
         <v>54504</v>
       </c>
-      <c r="J92" s="16">
+      <c r="J93" s="16">
         <v>63756</v>
       </c>
-      <c r="K92" s="16">
+      <c r="K93" s="16">
         <v>16.29</v>
       </c>
-      <c r="L92" s="16">
+      <c r="L93" s="16">
         <v>12.37</v>
       </c>
-      <c r="M92" s="17">
+      <c r="M93" s="17">
         <v>17.28</v>
       </c>
-    </row>
-    <row r="93" spans="2:13">
-      <c r="B93" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M93" s="22"/>
     </row>
     <row r="94" spans="2:13">
       <c r="B94" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="M94" s="22"/>
     </row>
     <row r="95" spans="2:13">
       <c r="B95" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="M95" s="22"/>
     </row>

--- a/Flota_Antigúedad_AF.xlsx
+++ b/Flota_Antigúedad_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BE5E51-91A9-4272-9ABB-41F7D5EE5DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2145256C-8DAC-4146-B5D0-4CD29C64DC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_15.2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="29">
   <si>
     <t>Carga</t>
   </si>
@@ -125,7 +125,7 @@
     <t>Antigüedad promedio</t>
   </si>
   <si>
-    <t>Actualización: Abril2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -724,8 +724,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:M93" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
-  <autoFilter ref="B5:M93" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:M95" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
+  <autoFilter ref="B5:M95" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -978,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:P96"/>
+  <dimension ref="B2:P98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:XFD96"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
@@ -1075,39 +1075,39 @@
         <v>2025</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6">
         <f>SUM(E6:G6)</f>
-        <v>1462190</v>
+        <v>1477953</v>
       </c>
       <c r="E6" s="6">
-        <v>736441</v>
+        <v>744628</v>
       </c>
       <c r="F6" s="6">
-        <v>725074</v>
+        <v>732634</v>
       </c>
       <c r="G6" s="6">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="H6" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>188131</v>
+        <v>188967</v>
       </c>
       <c r="I6" s="6">
-        <v>73852</v>
+        <v>73847</v>
       </c>
       <c r="J6" s="6">
-        <v>114279</v>
+        <v>115120</v>
       </c>
       <c r="K6" s="6">
-        <v>19.115429007193057</v>
+        <v>18.993057977024765</v>
       </c>
       <c r="L6" s="6">
-        <v>15.939308247976143</v>
+        <v>15.831536723343229</v>
       </c>
       <c r="M6" s="6">
-        <v>19.944664949398529</v>
+        <v>19.807483736845786</v>
       </c>
     </row>
     <row r="7" spans="2:16">
@@ -1115,39 +1115,39 @@
         <v>2025</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="10">
         <f>SUM(E7:G7)</f>
-        <v>1454977</v>
+        <v>1467869</v>
       </c>
       <c r="E7" s="11">
-        <v>732842</v>
+        <v>738785</v>
       </c>
       <c r="F7" s="11">
-        <v>721468</v>
+        <v>728411</v>
       </c>
       <c r="G7" s="11">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="H7" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>187465</v>
+        <v>188447</v>
       </c>
       <c r="I7" s="10">
-        <v>73738</v>
+        <v>73791</v>
       </c>
       <c r="J7" s="11">
-        <v>113727</v>
+        <v>114656</v>
       </c>
       <c r="K7" s="11">
-        <v>19.18470984148254</v>
+        <v>19.058922726698931</v>
       </c>
       <c r="L7" s="11">
-        <v>16.007019977062384</v>
+        <v>15.88138309445096</v>
       </c>
       <c r="M7" s="11">
-        <v>20.020610172451907</v>
+        <v>19.887317690532427</v>
       </c>
     </row>
     <row r="8" spans="2:16">
@@ -1155,200 +1155,199 @@
         <v>2025</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" ref="D8:D13" si="0">SUM(E8:G8)</f>
+        <v>1462190</v>
+      </c>
+      <c r="E8" s="6">
+        <v>736441</v>
+      </c>
+      <c r="F8" s="6">
+        <v>725074</v>
+      </c>
+      <c r="G8" s="6">
+        <v>675</v>
+      </c>
+      <c r="H8" s="6">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>188131</v>
+      </c>
+      <c r="I8" s="6">
+        <v>73852</v>
+      </c>
+      <c r="J8" s="6">
+        <v>114279</v>
+      </c>
+      <c r="K8" s="6">
+        <v>19.115429007193057</v>
+      </c>
+      <c r="L8" s="6">
+        <v>15.939308247976143</v>
+      </c>
+      <c r="M8" s="6">
+        <v>19.944664949398529</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>1454977</v>
+      </c>
+      <c r="E9" s="11">
+        <v>732842</v>
+      </c>
+      <c r="F9" s="11">
+        <v>721468</v>
+      </c>
+      <c r="G9" s="11">
+        <v>667</v>
+      </c>
+      <c r="H9" s="11">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>187465</v>
+      </c>
+      <c r="I9" s="10">
+        <v>73738</v>
+      </c>
+      <c r="J9" s="11">
+        <v>113727</v>
+      </c>
+      <c r="K9" s="11">
+        <v>19.18470984148254</v>
+      </c>
+      <c r="L9" s="11">
+        <v>16.007019977062384</v>
+      </c>
+      <c r="M9" s="11">
+        <v>20.020610172451907</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="5">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="6">
-        <f>SUM(E8:G8)</f>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
         <v>1448239</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E10" s="6">
         <v>729319</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F10" s="6">
         <v>718257</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G10" s="6">
         <v>663</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H10" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>186866</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I10" s="6">
         <v>73570</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J10" s="6">
         <v>113296</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K10" s="6">
         <v>19.252675224939154</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L10" s="6">
         <v>16.075695953249923</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M10" s="6">
         <v>20.096500982423329</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="13">
+    <row r="11" spans="2:16">
+      <c r="B11" s="13">
         <v>2025</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="15">
-        <f>SUM(E9:G9)</f>
+      <c r="D11" s="15">
+        <f t="shared" si="0"/>
         <v>1441492</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E11" s="16">
         <v>726109</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F11" s="16">
         <v>714727</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G11" s="16">
         <v>656</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H11" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>186423</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I11" s="15">
         <v>73458</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J11" s="16">
         <v>112965</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K11" s="29">
         <v>19.321609528661387</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L11" s="29">
         <v>16.134200179162441</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M11" s="30">
         <v>20.172519552849504</v>
       </c>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="4">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="6">
-        <f>SUM(E10:G10)</f>
-        <v>1435884</v>
-      </c>
-      <c r="E10" s="6">
-        <v>723462</v>
-      </c>
-      <c r="F10" s="6">
-        <v>711776</v>
-      </c>
-      <c r="G10" s="6">
-        <v>646</v>
-      </c>
-      <c r="H10" s="6">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>186064</v>
-      </c>
-      <c r="I10" s="6">
-        <v>73453</v>
-      </c>
-      <c r="J10" s="6">
-        <v>112611</v>
-      </c>
-      <c r="K10" s="6">
-        <v>18.404813538748488</v>
-      </c>
-      <c r="L10" s="6">
-        <v>15.191272895347836</v>
-      </c>
-      <c r="M10" s="7">
-        <v>19.269418435246081</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="10">
-        <f>SUM(E11:G11)</f>
-        <v>1428265</v>
-      </c>
-      <c r="E11" s="11">
-        <v>719185</v>
-      </c>
-      <c r="F11" s="11">
-        <v>708450</v>
-      </c>
-      <c r="G11" s="11">
-        <v>630</v>
-      </c>
-      <c r="H11" s="11">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>184987</v>
-      </c>
-      <c r="I11" s="10">
-        <v>73204</v>
-      </c>
-      <c r="J11" s="11">
-        <v>111783</v>
-      </c>
-      <c r="K11" s="11">
-        <v>18.476960502833276</v>
-      </c>
-      <c r="L11" s="11">
-        <v>15.270154118938088</v>
-      </c>
-      <c r="M11" s="12">
-        <v>19.35768543559724</v>
-      </c>
-      <c r="P11"/>
     </row>
     <row r="12" spans="2:16">
       <c r="B12" s="4">
         <v>2024</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" ref="D12" si="0">SUM(E12:G12)</f>
-        <v>1419744</v>
+        <f t="shared" si="0"/>
+        <v>1435884</v>
       </c>
       <c r="E12" s="6">
-        <v>714747</v>
+        <v>723462</v>
       </c>
       <c r="F12" s="6">
-        <v>704375</v>
+        <v>711776</v>
       </c>
       <c r="G12" s="6">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="H12" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>184353</v>
+        <v>186064</v>
       </c>
       <c r="I12" s="6">
-        <v>73206</v>
+        <v>73453</v>
       </c>
       <c r="J12" s="6">
-        <v>111147</v>
+        <v>112611</v>
       </c>
       <c r="K12" s="6">
-        <v>18.559178035204791</v>
+        <v>18.404813538748488</v>
       </c>
       <c r="L12" s="6">
-        <v>15.333984258460672</v>
+        <v>15.191272895347836</v>
       </c>
       <c r="M12" s="7">
-        <v>19.45495538980926</v>
+        <v>19.269418435246081</v>
       </c>
     </row>
     <row r="13" spans="2:16">
@@ -1356,79 +1355,80 @@
         <v>2024</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="10">
-        <f>SUM(E13:G13)</f>
-        <v>1409947</v>
+        <f t="shared" si="0"/>
+        <v>1428265</v>
       </c>
       <c r="E13" s="11">
-        <v>709391</v>
+        <v>719185</v>
       </c>
       <c r="F13" s="11">
-        <v>699945</v>
+        <v>708450</v>
       </c>
       <c r="G13" s="11">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="H13" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>183444</v>
+        <v>184987</v>
       </c>
       <c r="I13" s="10">
-        <v>72959</v>
+        <v>73204</v>
       </c>
       <c r="J13" s="11">
-        <v>110485</v>
+        <v>111783</v>
       </c>
       <c r="K13" s="11">
-        <v>18.653800273735229</v>
+        <v>18.476960502833276</v>
       </c>
       <c r="L13" s="11">
-        <v>15.41505309522252</v>
+        <v>15.270154118938088</v>
       </c>
       <c r="M13" s="12">
-        <v>19.569322136875151</v>
-      </c>
+        <v>19.35768543559724</v>
+      </c>
+      <c r="P13"/>
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="4">
         <v>2024</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D14" s="6">
-        <f>SUM(E14:G14)</f>
-        <v>1401613</v>
+        <f t="shared" ref="D14" si="1">SUM(E14:G14)</f>
+        <v>1419744</v>
       </c>
       <c r="E14" s="6">
-        <v>704941</v>
+        <v>714747</v>
       </c>
       <c r="F14" s="6">
-        <v>696064</v>
+        <v>704375</v>
       </c>
       <c r="G14" s="6">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="H14" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>182766</v>
+        <v>184353</v>
       </c>
       <c r="I14" s="6">
-        <v>72808</v>
+        <v>73206</v>
       </c>
       <c r="J14" s="6">
-        <v>109958</v>
+        <v>111147</v>
       </c>
       <c r="K14" s="6">
-        <v>18.731302694644619</v>
+        <v>18.559178035204791</v>
       </c>
       <c r="L14" s="6">
-        <v>19.663221461086813</v>
+        <v>15.333984258460672</v>
       </c>
       <c r="M14" s="7">
-        <v>15.486441679524638</v>
+        <v>19.45495538980926</v>
       </c>
     </row>
     <row r="15" spans="2:16">
@@ -1436,39 +1436,39 @@
         <v>2024</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D15" s="10">
-        <f t="shared" ref="D15:D17" si="1">SUM(E15:G15)</f>
-        <v>1392231</v>
+        <f>SUM(E15:G15)</f>
+        <v>1409947</v>
       </c>
       <c r="E15" s="11">
-        <v>700064</v>
+        <v>709391</v>
       </c>
       <c r="F15" s="11">
-        <v>691573</v>
+        <v>699945</v>
       </c>
       <c r="G15" s="11">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="H15" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>182096</v>
-      </c>
-      <c r="I15" s="11">
-        <v>72722</v>
+        <v>183444</v>
+      </c>
+      <c r="I15" s="10">
+        <v>72959</v>
       </c>
       <c r="J15" s="11">
-        <v>109374</v>
+        <v>110485</v>
       </c>
       <c r="K15" s="11">
-        <v>18.818005976871554</v>
+        <v>18.653800273735229</v>
       </c>
       <c r="L15" s="11">
-        <v>15.548683112204552</v>
+        <v>15.41505309522252</v>
       </c>
       <c r="M15" s="12">
-        <v>19.76646992274992</v>
+        <v>19.569322136875151</v>
       </c>
     </row>
     <row r="16" spans="2:16">
@@ -1476,39 +1476,39 @@
         <v>2024</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="1"/>
-        <v>1381670</v>
+        <f>SUM(E16:G16)</f>
+        <v>1401613</v>
       </c>
       <c r="E16" s="6">
-        <v>694997</v>
+        <v>704941</v>
       </c>
       <c r="F16" s="6">
-        <v>686081</v>
+        <v>696064</v>
       </c>
       <c r="G16" s="6">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="H16" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>181209</v>
+        <v>182766</v>
       </c>
       <c r="I16" s="6">
-        <v>72604</v>
+        <v>72808</v>
       </c>
       <c r="J16" s="6">
-        <v>108605</v>
+        <v>109958</v>
       </c>
       <c r="K16" s="6">
-        <v>18.917404420570612</v>
+        <v>18.731302694644619</v>
       </c>
       <c r="L16" s="6">
-        <v>15.6321154026566</v>
+        <v>15.486441679524638</v>
       </c>
       <c r="M16" s="7">
-        <v>19.872406643481913</v>
+        <v>19.663221461086813</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -1516,39 +1516,39 @@
         <v>2024</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" s="10">
-        <f t="shared" si="1"/>
-        <v>1364076</v>
+        <f t="shared" ref="D17:D19" si="2">SUM(E17:G17)</f>
+        <v>1392231</v>
       </c>
       <c r="E17" s="11">
-        <v>686433</v>
+        <v>700064</v>
       </c>
       <c r="F17" s="11">
-        <v>677060</v>
+        <v>691573</v>
       </c>
       <c r="G17" s="11">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="H17" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>180169</v>
+        <v>182096</v>
       </c>
       <c r="I17" s="11">
-        <v>72197</v>
+        <v>72722</v>
       </c>
       <c r="J17" s="11">
-        <v>107972</v>
+        <v>109374</v>
       </c>
       <c r="K17" s="11">
-        <v>19.07390024500182</v>
+        <v>18.818005976871554</v>
       </c>
       <c r="L17" s="11">
-        <v>15.728466051318485</v>
-      </c>
-      <c r="M17" s="11">
-        <v>20.044184938661164</v>
+        <v>15.548683112204552</v>
+      </c>
+      <c r="M17" s="12">
+        <v>19.76646992274992</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -1556,39 +1556,39 @@
         <v>2024</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" ref="D18:D48" si="2">SUM(E18:G18)</f>
-        <v>1362046</v>
+        <f t="shared" si="2"/>
+        <v>1381670</v>
       </c>
       <c r="E18" s="6">
-        <v>685435</v>
+        <v>694997</v>
       </c>
       <c r="F18" s="6">
-        <v>676046</v>
+        <v>686081</v>
       </c>
       <c r="G18" s="6">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="H18" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>179118</v>
+        <v>181209</v>
       </c>
       <c r="I18" s="6">
-        <v>71981</v>
+        <v>72604</v>
       </c>
       <c r="J18" s="6">
-        <v>107137</v>
+        <v>108605</v>
       </c>
       <c r="K18" s="6">
-        <v>19.118977099167271</v>
+        <v>18.917404420570612</v>
       </c>
       <c r="L18" s="6">
-        <v>15.827370783505843</v>
+        <v>15.6321154026566</v>
       </c>
       <c r="M18" s="7">
-        <v>20.082257252693545</v>
+        <v>19.872406643481913</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -1596,39 +1596,39 @@
         <v>2024</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" s="10">
         <f t="shared" si="2"/>
-        <v>1353988</v>
+        <v>1364076</v>
       </c>
       <c r="E19" s="11">
-        <v>681551</v>
+        <v>686433</v>
       </c>
       <c r="F19" s="11">
-        <v>671878</v>
+        <v>677060</v>
       </c>
       <c r="G19" s="11">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="H19" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>178140</v>
+        <v>180169</v>
       </c>
       <c r="I19" s="11">
-        <v>71842</v>
+        <v>72197</v>
       </c>
       <c r="J19" s="11">
-        <v>106298</v>
+        <v>107972</v>
       </c>
       <c r="K19" s="11">
-        <v>19.204794560349551</v>
+        <v>19.07390024500182</v>
       </c>
       <c r="L19" s="11">
-        <v>15.921746940608513</v>
-      </c>
-      <c r="M19" s="12">
-        <v>20.167528182043604</v>
+        <v>15.728466051318485</v>
+      </c>
+      <c r="M19" s="11">
+        <v>20.044184938661164</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -1636,199 +1636,199 @@
         <v>2024</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" ref="D20:D50" si="3">SUM(E20:G20)</f>
+        <v>1362046</v>
+      </c>
+      <c r="E20" s="6">
+        <v>685435</v>
+      </c>
+      <c r="F20" s="6">
+        <v>676046</v>
+      </c>
+      <c r="G20" s="6">
+        <v>565</v>
+      </c>
+      <c r="H20" s="6">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>179118</v>
+      </c>
+      <c r="I20" s="6">
+        <v>71981</v>
+      </c>
+      <c r="J20" s="6">
+        <v>107137</v>
+      </c>
+      <c r="K20" s="6">
+        <v>19.118977099167271</v>
+      </c>
+      <c r="L20" s="6">
+        <v>15.827370783505843</v>
+      </c>
+      <c r="M20" s="7">
+        <v>20.082257252693545</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" si="3"/>
+        <v>1353988</v>
+      </c>
+      <c r="E21" s="11">
+        <v>681551</v>
+      </c>
+      <c r="F21" s="11">
+        <v>671878</v>
+      </c>
+      <c r="G21" s="11">
+        <v>559</v>
+      </c>
+      <c r="H21" s="11">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>178140</v>
+      </c>
+      <c r="I21" s="11">
+        <v>71842</v>
+      </c>
+      <c r="J21" s="11">
+        <v>106298</v>
+      </c>
+      <c r="K21" s="11">
+        <v>19.204794560349551</v>
+      </c>
+      <c r="L21" s="11">
+        <v>15.921746940608513</v>
+      </c>
+      <c r="M21" s="12">
+        <v>20.167528182043604</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="4">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="6">
-        <f t="shared" si="2"/>
+      <c r="D22" s="6">
+        <f t="shared" si="3"/>
         <v>1345055</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E22" s="6">
         <v>677153</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F22" s="6">
         <v>667343</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G22" s="6">
         <v>559</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H22" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>177618</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I22" s="6">
         <v>71797</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J22" s="6">
         <v>105821</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K22" s="6">
         <v>19.298350846257247</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L22" s="6">
         <v>15.980300420002475</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M22" s="7">
         <v>20.271950356861744</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
-      <c r="B21" s="13">
+    <row r="23" spans="2:13">
+      <c r="B23" s="13">
         <v>2024</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="15">
-        <f t="shared" si="2"/>
+      <c r="D23" s="15">
+        <f t="shared" si="3"/>
         <v>1337961</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E23" s="16">
         <v>673757</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F23" s="16">
         <v>663646</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G23" s="16">
         <v>558</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H23" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>176858</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I23" s="16">
         <v>71641</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J23" s="16">
         <v>105217</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K23" s="16">
         <v>19.37957723272276</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L23" s="16">
         <v>16.061088556921373</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M23" s="17">
         <v>20.355880532595581</v>
       </c>
     </row>
-    <row r="22" spans="2:13" hidden="1">
-      <c r="B22" s="18">
+    <row r="24" spans="2:13" hidden="1">
+      <c r="B24" s="18">
         <v>2023</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="20">
-        <f t="shared" si="2"/>
+      <c r="D24" s="20">
+        <f t="shared" si="3"/>
         <v>1331921</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E24" s="20">
         <v>671002</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F24" s="20">
         <v>660365</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G24" s="20">
         <v>554</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H24" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>176251</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I24" s="20">
         <v>71562</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J24" s="20">
         <v>104689</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K24" s="20">
         <v>18.475869218860481</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L24" s="20">
         <v>15.134234699377592</v>
       </c>
-      <c r="M22" s="21">
+      <c r="M24" s="21">
         <v>19.458281793496891</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" hidden="1">
-      <c r="B23" s="8">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="10">
-        <f t="shared" si="2"/>
-        <v>1324591</v>
-      </c>
-      <c r="E23" s="11">
-        <v>667021</v>
-      </c>
-      <c r="F23" s="11">
-        <v>657017</v>
-      </c>
-      <c r="G23" s="11">
-        <v>553</v>
-      </c>
-      <c r="H23" s="11">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>175311</v>
-      </c>
-      <c r="I23" s="11">
-        <v>71379</v>
-      </c>
-      <c r="J23" s="11">
-        <v>103932</v>
-      </c>
-      <c r="K23" s="11">
-        <v>18.551437990754653</v>
-      </c>
-      <c r="L23" s="11">
-        <v>15.22355699300101</v>
-      </c>
-      <c r="M23" s="12">
-        <v>19.543477641633473</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" hidden="1">
-      <c r="B24" s="4">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="6">
-        <f t="shared" si="2"/>
-        <v>1316689</v>
-      </c>
-      <c r="E24" s="6">
-        <v>662911</v>
-      </c>
-      <c r="F24" s="6">
-        <v>653227</v>
-      </c>
-      <c r="G24" s="6">
-        <v>551</v>
-      </c>
-      <c r="H24" s="6">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>174393</v>
-      </c>
-      <c r="I24" s="6">
-        <v>71146</v>
-      </c>
-      <c r="J24" s="6">
-        <v>103247</v>
-      </c>
-      <c r="K24" s="6">
-        <v>18.63639333901811</v>
-      </c>
-      <c r="L24" s="6">
-        <v>15.305362027145584</v>
-      </c>
-      <c r="M24" s="7">
-        <v>19.637007079381696</v>
       </c>
     </row>
     <row r="25" spans="2:13" hidden="1">
@@ -1836,39 +1836,39 @@
         <v>2023</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" s="10">
-        <f t="shared" si="2"/>
-        <v>1309236</v>
+        <f t="shared" si="3"/>
+        <v>1324591</v>
       </c>
       <c r="E25" s="11">
-        <v>659020</v>
+        <v>667021</v>
       </c>
       <c r="F25" s="11">
-        <v>649665</v>
+        <v>657017</v>
       </c>
       <c r="G25" s="11">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H25" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>173599</v>
+        <v>175311</v>
       </c>
       <c r="I25" s="11">
-        <v>71029</v>
+        <v>71379</v>
       </c>
       <c r="J25" s="11">
-        <v>102570</v>
+        <v>103932</v>
       </c>
       <c r="K25" s="11">
-        <v>18.719585450561432</v>
+        <v>18.551437990754653</v>
       </c>
       <c r="L25" s="11">
-        <v>15.387882418677528</v>
+        <v>15.22355699300101</v>
       </c>
       <c r="M25" s="12">
-        <v>19.730128068950865</v>
+        <v>19.543477641633473</v>
       </c>
     </row>
     <row r="26" spans="2:13" hidden="1">
@@ -1876,39 +1876,39 @@
         <v>2023</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" si="2"/>
-        <v>1302003</v>
+        <f t="shared" si="3"/>
+        <v>1316689</v>
       </c>
       <c r="E26" s="6">
-        <v>655458</v>
+        <v>662911</v>
       </c>
       <c r="F26" s="6">
-        <v>645999</v>
+        <v>653227</v>
       </c>
       <c r="G26" s="6">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="H26" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>172764</v>
+        <v>174393</v>
       </c>
       <c r="I26" s="6">
-        <v>70834</v>
+        <v>71146</v>
       </c>
       <c r="J26" s="6">
-        <v>101930</v>
+        <v>103247</v>
       </c>
       <c r="K26" s="6">
-        <v>18.802238606016331</v>
+        <v>18.63639333901811</v>
       </c>
       <c r="L26" s="6">
-        <v>15.470034266398091</v>
+        <v>15.305362027145584</v>
       </c>
       <c r="M26" s="7">
-        <v>19.817370449365175</v>
+        <v>19.637007079381696</v>
       </c>
     </row>
     <row r="27" spans="2:13" hidden="1">
@@ -1916,39 +1916,39 @@
         <v>2023</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" si="2"/>
-        <v>1294209</v>
+        <f t="shared" si="3"/>
+        <v>1309236</v>
       </c>
       <c r="E27" s="11">
-        <v>651761</v>
+        <v>659020</v>
       </c>
       <c r="F27" s="11">
-        <v>641907</v>
+        <v>649665</v>
       </c>
       <c r="G27" s="11">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="H27" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>172137</v>
+        <v>173599</v>
       </c>
       <c r="I27" s="11">
-        <v>70783</v>
+        <v>71029</v>
       </c>
       <c r="J27" s="11">
-        <v>101354</v>
+        <v>102570</v>
       </c>
       <c r="K27" s="11">
-        <v>18.888086750966192</v>
+        <v>18.719585450561432</v>
       </c>
       <c r="L27" s="11">
-        <v>15.535631502814621</v>
+        <v>15.387882418677528</v>
       </c>
       <c r="M27" s="12">
-        <v>19.908092076696825</v>
+        <v>19.730128068950865</v>
       </c>
     </row>
     <row r="28" spans="2:13" hidden="1">
@@ -1956,39 +1956,39 @@
         <v>2023</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="2"/>
-        <v>1286042</v>
+        <f t="shared" si="3"/>
+        <v>1302003</v>
       </c>
       <c r="E28" s="6">
-        <v>647906</v>
+        <v>655458</v>
       </c>
       <c r="F28" s="6">
-        <v>637598</v>
+        <v>645999</v>
       </c>
       <c r="G28" s="6">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="H28" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>171516</v>
+        <v>172764</v>
       </c>
       <c r="I28" s="6">
-        <v>70673</v>
+        <v>70834</v>
       </c>
       <c r="J28" s="6">
-        <v>100843</v>
+        <v>101930</v>
       </c>
       <c r="K28" s="6">
-        <v>18.982887674843173</v>
+        <v>18.802238606016331</v>
       </c>
       <c r="L28" s="6">
-        <v>15.606316611861285</v>
+        <v>15.470034266398091</v>
       </c>
       <c r="M28" s="7">
-        <v>20.002412386982066</v>
+        <v>19.817370449365175</v>
       </c>
     </row>
     <row r="29" spans="2:13" hidden="1">
@@ -1996,39 +1996,39 @@
         <v>2023</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D29" s="10">
-        <f t="shared" si="2"/>
-        <v>1279902</v>
+        <f t="shared" si="3"/>
+        <v>1294209</v>
       </c>
       <c r="E29" s="11">
-        <v>645139</v>
+        <v>651761</v>
       </c>
       <c r="F29" s="11">
-        <v>634226</v>
+        <v>641907</v>
       </c>
       <c r="G29" s="11">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="H29" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>170681</v>
+        <v>172137</v>
       </c>
       <c r="I29" s="11">
-        <v>70483</v>
+        <v>70783</v>
       </c>
       <c r="J29" s="11">
-        <v>100198</v>
+        <v>101354</v>
       </c>
       <c r="K29" s="11">
-        <v>19.060761520669001</v>
+        <v>18.888086750966192</v>
       </c>
       <c r="L29" s="11">
-        <v>15.688172672998164</v>
+        <v>15.535631502814621</v>
       </c>
       <c r="M29" s="12">
-        <v>20.079559598784137</v>
+        <v>19.908092076696825</v>
       </c>
     </row>
     <row r="30" spans="2:13" hidden="1">
@@ -2036,39 +2036,39 @@
         <v>2023</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="2"/>
-        <v>1273243</v>
+        <f t="shared" si="3"/>
+        <v>1286042</v>
       </c>
       <c r="E30" s="6">
-        <v>641751</v>
+        <v>647906</v>
       </c>
       <c r="F30" s="6">
-        <v>630955</v>
+        <v>637598</v>
       </c>
       <c r="G30" s="6">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H30" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>170020</v>
+        <v>171516</v>
       </c>
       <c r="I30" s="6">
-        <v>70335</v>
+        <v>70673</v>
       </c>
       <c r="J30" s="6">
-        <v>99685</v>
+        <v>100843</v>
       </c>
       <c r="K30" s="6">
-        <v>19.1410877741165</v>
+        <v>18.982887674843173</v>
       </c>
       <c r="L30" s="6">
-        <v>15.757763792495</v>
+        <v>15.606316611861285</v>
       </c>
       <c r="M30" s="7">
-        <v>20.166095572893536</v>
+        <v>20.002412386982066</v>
       </c>
     </row>
     <row r="31" spans="2:13" hidden="1">
@@ -2076,39 +2076,39 @@
         <v>2023</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31" s="10">
-        <f t="shared" si="2"/>
-        <v>1267813</v>
+        <f t="shared" si="3"/>
+        <v>1279902</v>
       </c>
       <c r="E31" s="11">
-        <v>639200</v>
+        <v>645139</v>
       </c>
       <c r="F31" s="11">
-        <v>628078</v>
+        <v>634226</v>
       </c>
       <c r="G31" s="11">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H31" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>169398</v>
+        <v>170681</v>
       </c>
       <c r="I31" s="11">
-        <v>70212</v>
+        <v>70483</v>
       </c>
       <c r="J31" s="11">
-        <v>99186</v>
+        <v>100198</v>
       </c>
       <c r="K31" s="11">
-        <v>19.207652247270783</v>
+        <v>19.060761520669001</v>
       </c>
       <c r="L31" s="11">
-        <v>15.818386285552368</v>
+        <v>15.688172672998164</v>
       </c>
       <c r="M31" s="12">
-        <v>20.231362640800999</v>
+        <v>20.079559598784137</v>
       </c>
     </row>
     <row r="32" spans="2:13" hidden="1">
@@ -2116,199 +2116,199 @@
         <v>2023</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" si="3"/>
+        <v>1273243</v>
+      </c>
+      <c r="E32" s="6">
+        <v>641751</v>
+      </c>
+      <c r="F32" s="6">
+        <v>630955</v>
+      </c>
+      <c r="G32" s="6">
+        <v>537</v>
+      </c>
+      <c r="H32" s="6">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>170020</v>
+      </c>
+      <c r="I32" s="6">
+        <v>70335</v>
+      </c>
+      <c r="J32" s="6">
+        <v>99685</v>
+      </c>
+      <c r="K32" s="6">
+        <v>19.1410877741165</v>
+      </c>
+      <c r="L32" s="6">
+        <v>15.757763792495</v>
+      </c>
+      <c r="M32" s="7">
+        <v>20.166095572893536</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" hidden="1">
+      <c r="B33" s="8">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="10">
+        <f t="shared" si="3"/>
+        <v>1267813</v>
+      </c>
+      <c r="E33" s="11">
+        <v>639200</v>
+      </c>
+      <c r="F33" s="11">
+        <v>628078</v>
+      </c>
+      <c r="G33" s="11">
+        <v>535</v>
+      </c>
+      <c r="H33" s="11">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>169398</v>
+      </c>
+      <c r="I33" s="11">
+        <v>70212</v>
+      </c>
+      <c r="J33" s="11">
+        <v>99186</v>
+      </c>
+      <c r="K33" s="11">
+        <v>19.207652247270783</v>
+      </c>
+      <c r="L33" s="11">
+        <v>15.818386285552368</v>
+      </c>
+      <c r="M33" s="12">
+        <v>20.231362640800999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" hidden="1">
+      <c r="B34" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="6">
-        <f t="shared" si="2"/>
+      <c r="D34" s="6">
+        <f t="shared" si="3"/>
         <v>1261816</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E34" s="6">
         <v>636167</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F34" s="6">
         <v>625114</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G34" s="6">
         <v>535</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H34" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>168270</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I34" s="6">
         <v>70028</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J34" s="6">
         <v>98242</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K34" s="6">
         <v>19.287032781621644</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L34" s="6">
         <v>15.924098175551196</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M34" s="7">
         <v>20.308953466621187</v>
       </c>
     </row>
-    <row r="33" spans="2:13" hidden="1">
-      <c r="B33" s="13">
+    <row r="35" spans="2:13" hidden="1">
+      <c r="B35" s="13">
         <v>2023</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="15">
-        <f t="shared" si="2"/>
+      <c r="D35" s="15">
+        <f t="shared" si="3"/>
         <v>1256959</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E35" s="16">
         <v>633934</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F35" s="16">
         <v>622491</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G35" s="16">
         <v>534</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H35" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>167855</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I35" s="16">
         <v>70043</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J35" s="16">
         <v>97812</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K35" s="16">
         <v>19.347213328839835</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L35" s="16">
         <v>15.971731554019838</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M35" s="17">
         <v>20.368738701505205</v>
       </c>
     </row>
-    <row r="34" spans="2:13" hidden="1">
-      <c r="B34" s="18">
+    <row r="36" spans="2:13" hidden="1">
+      <c r="B36" s="18">
         <v>2022</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C36" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="20">
-        <f t="shared" si="2"/>
+      <c r="D36" s="20">
+        <f t="shared" si="3"/>
         <v>1253020</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E36" s="20">
         <v>632252</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F36" s="20">
         <v>620240</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G36" s="20">
         <v>528</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H36" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>167359</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I36" s="20">
         <v>70056</v>
       </c>
-      <c r="J34" s="20">
+      <c r="J36" s="20">
         <v>97303</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K36" s="20">
         <v>18.42307890053252</v>
       </c>
-      <c r="L34" s="20">
+      <c r="L36" s="20">
         <v>15.042250491458482</v>
       </c>
-      <c r="M34" s="21">
+      <c r="M36" s="21">
         <v>19.442766491841866</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" hidden="1">
-      <c r="B35" s="8">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="10">
-        <f t="shared" si="2"/>
-        <v>1248052</v>
-      </c>
-      <c r="E35" s="11">
-        <v>629746</v>
-      </c>
-      <c r="F35" s="11">
-        <v>617778</v>
-      </c>
-      <c r="G35" s="11">
-        <v>528</v>
-      </c>
-      <c r="H35" s="11">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>166178</v>
-      </c>
-      <c r="I35" s="11">
-        <v>69821</v>
-      </c>
-      <c r="J35" s="11">
-        <v>96357</v>
-      </c>
-      <c r="K35" s="11">
-        <v>18.489979500630259</v>
-      </c>
-      <c r="L35" s="11">
-        <v>15.145163619733058</v>
-      </c>
-      <c r="M35" s="12">
-        <v>19.503375964277662</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" hidden="1">
-      <c r="B36" s="4">
-        <v>2022</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="6">
-        <f t="shared" si="2"/>
-        <v>1243495</v>
-      </c>
-      <c r="E36" s="6">
-        <v>627591</v>
-      </c>
-      <c r="F36" s="6">
-        <v>615376</v>
-      </c>
-      <c r="G36" s="6">
-        <v>528</v>
-      </c>
-      <c r="H36" s="6">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>165354</v>
-      </c>
-      <c r="I36" s="6">
-        <v>69675</v>
-      </c>
-      <c r="J36" s="6">
-        <v>95679</v>
-      </c>
-      <c r="K36" s="6">
-        <v>18.547631541388647</v>
-      </c>
-      <c r="L36" s="6">
-        <v>15.219299200503164</v>
-      </c>
-      <c r="M36" s="7">
-        <v>19.558707820857851</v>
       </c>
     </row>
     <row r="37" spans="2:13" hidden="1">
@@ -2316,39 +2316,39 @@
         <v>2022</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D37" s="10">
-        <f t="shared" si="2"/>
-        <v>1239858</v>
+        <f t="shared" si="3"/>
+        <v>1248052</v>
       </c>
       <c r="E37" s="11">
-        <v>625802</v>
+        <v>629746</v>
       </c>
       <c r="F37" s="11">
-        <v>613527</v>
+        <v>617778</v>
       </c>
       <c r="G37" s="11">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H37" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>164931</v>
+        <v>166178</v>
       </c>
       <c r="I37" s="11">
-        <v>69723</v>
+        <v>69821</v>
       </c>
       <c r="J37" s="11">
-        <v>95208</v>
+        <v>96357</v>
       </c>
       <c r="K37" s="11">
-        <v>18.59142751342344</v>
+        <v>18.489979500630259</v>
       </c>
       <c r="L37" s="11">
-        <v>15.268857886025064</v>
+        <v>15.145163619733058</v>
       </c>
       <c r="M37" s="12">
-        <v>19.601036749642859</v>
+        <v>19.503375964277662</v>
       </c>
     </row>
     <row r="38" spans="2:13" hidden="1">
@@ -2356,39 +2356,39 @@
         <v>2022</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="2"/>
-        <v>1234757</v>
+        <f t="shared" si="3"/>
+        <v>1243495</v>
       </c>
       <c r="E38" s="6">
-        <v>623225</v>
+        <v>627591</v>
       </c>
       <c r="F38" s="6">
-        <v>611005</v>
+        <v>615376</v>
       </c>
       <c r="G38" s="6">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H38" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>166002</v>
+        <v>165354</v>
       </c>
       <c r="I38" s="6">
-        <v>69645</v>
+        <v>69675</v>
       </c>
       <c r="J38" s="6">
-        <v>96357</v>
+        <v>95679</v>
       </c>
       <c r="K38" s="6">
-        <v>18.633291483125653</v>
+        <v>18.547631541388647</v>
       </c>
       <c r="L38" s="6">
-        <v>15.188636281490584</v>
+        <v>15.219299200503164</v>
       </c>
       <c r="M38" s="7">
-        <v>19.665687352079907</v>
+        <v>19.558707820857851</v>
       </c>
     </row>
     <row r="39" spans="2:13" hidden="1">
@@ -2396,39 +2396,39 @@
         <v>2022</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D39" s="10">
-        <f t="shared" si="2"/>
-        <v>1227595</v>
+        <f t="shared" si="3"/>
+        <v>1239858</v>
       </c>
       <c r="E39" s="11">
-        <v>619408</v>
+        <v>625802</v>
       </c>
       <c r="F39" s="11">
-        <v>607662</v>
+        <v>613527</v>
       </c>
       <c r="G39" s="11">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H39" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>163526</v>
+        <v>164931</v>
       </c>
       <c r="I39" s="11">
-        <v>69586</v>
+        <v>69723</v>
       </c>
       <c r="J39" s="11">
-        <v>93940</v>
+        <v>95208</v>
       </c>
       <c r="K39" s="11">
-        <v>18.738775316483004</v>
+        <v>18.59142751342344</v>
       </c>
       <c r="L39" s="11">
-        <v>15.421364186734833</v>
+        <v>15.268857886025064</v>
       </c>
       <c r="M39" s="12">
-        <v>19.756386743471182</v>
+        <v>19.601036749642859</v>
       </c>
     </row>
     <row r="40" spans="2:13" hidden="1">
@@ -2436,39 +2436,39 @@
         <v>2022</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D40" s="6">
-        <f t="shared" si="2"/>
-        <v>1225289</v>
+        <f t="shared" si="3"/>
+        <v>1234757</v>
       </c>
       <c r="E40" s="6">
-        <v>618040</v>
+        <v>623225</v>
       </c>
       <c r="F40" s="6">
-        <v>606724</v>
+        <v>611005</v>
       </c>
       <c r="G40" s="6">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H40" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>163070</v>
+        <v>166002</v>
       </c>
       <c r="I40" s="6">
-        <v>69430</v>
+        <v>69645</v>
       </c>
       <c r="J40" s="6">
-        <v>93640</v>
+        <v>96357</v>
       </c>
       <c r="K40" s="6">
-        <v>18.751951602280965</v>
+        <v>18.633291483125653</v>
       </c>
       <c r="L40" s="6">
-        <v>15.452272030416385</v>
+        <v>15.188636281490584</v>
       </c>
       <c r="M40" s="7">
-        <v>19.768709145039157</v>
+        <v>19.665687352079907</v>
       </c>
     </row>
     <row r="41" spans="2:13" hidden="1">
@@ -2476,39 +2476,39 @@
         <v>2022</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D41" s="10">
-        <f t="shared" si="2"/>
-        <v>1222511</v>
+        <f t="shared" si="3"/>
+        <v>1227595</v>
       </c>
       <c r="E41" s="11">
-        <v>616795</v>
+        <v>619408</v>
       </c>
       <c r="F41" s="11">
-        <v>605191</v>
+        <v>607662</v>
       </c>
       <c r="G41" s="11">
         <v>525</v>
       </c>
       <c r="H41" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>162777</v>
+        <v>163526</v>
       </c>
       <c r="I41" s="11">
-        <v>69624</v>
+        <v>69586</v>
       </c>
       <c r="J41" s="11">
-        <v>93153</v>
+        <v>93940</v>
       </c>
       <c r="K41" s="11">
-        <v>18.804625051362581</v>
+        <v>18.738775316483004</v>
       </c>
       <c r="L41" s="11">
-        <v>15.510440664221605</v>
+        <v>15.421364186734833</v>
       </c>
       <c r="M41" s="12">
-        <v>19.817924918327808</v>
+        <v>19.756386743471182</v>
       </c>
     </row>
     <row r="42" spans="2:13" hidden="1">
@@ -2516,39 +2516,39 @@
         <v>2022</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D42" s="6">
-        <f t="shared" si="2"/>
-        <v>1217422</v>
+        <f t="shared" si="3"/>
+        <v>1225289</v>
       </c>
       <c r="E42" s="6">
-        <v>614317</v>
+        <v>618040</v>
       </c>
       <c r="F42" s="6">
-        <v>602581</v>
+        <v>606724</v>
       </c>
       <c r="G42" s="6">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H42" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>162245</v>
+        <v>163070</v>
       </c>
       <c r="I42" s="6">
-        <v>69515</v>
+        <v>69430</v>
       </c>
       <c r="J42" s="6">
-        <v>92730</v>
+        <v>93640</v>
       </c>
       <c r="K42" s="6">
-        <v>18.867667819798235</v>
+        <v>18.751951602280965</v>
       </c>
       <c r="L42" s="6">
-        <v>15.572301149496132</v>
+        <v>15.452272030416385</v>
       </c>
       <c r="M42" s="7">
-        <v>19.875979339656887</v>
+        <v>19.768709145039157</v>
       </c>
     </row>
     <row r="43" spans="2:13" hidden="1">
@@ -2556,39 +2556,39 @@
         <v>2022</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D43" s="10">
-        <f t="shared" si="2"/>
-        <v>1212635</v>
+        <f t="shared" si="3"/>
+        <v>1222511</v>
       </c>
       <c r="E43" s="11">
-        <v>611918</v>
+        <v>616795</v>
       </c>
       <c r="F43" s="11">
-        <v>600194</v>
+        <v>605191</v>
       </c>
       <c r="G43" s="11">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H43" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>161903</v>
+        <v>162777</v>
       </c>
       <c r="I43" s="11">
-        <v>69487</v>
+        <v>69624</v>
       </c>
       <c r="J43" s="11">
-        <v>92416</v>
+        <v>93153</v>
       </c>
       <c r="K43" s="11">
-        <v>18.918767990160223</v>
+        <v>18.804625051362581</v>
       </c>
       <c r="L43" s="11">
-        <v>15.612731079720572</v>
+        <v>15.510440664221605</v>
       </c>
       <c r="M43" s="12">
-        <v>19.925975375785644</v>
+        <v>19.817924918327808</v>
       </c>
     </row>
     <row r="44" spans="2:13" hidden="1">
@@ -2596,199 +2596,199 @@
         <v>2022</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="6">
+        <f t="shared" si="3"/>
+        <v>1217422</v>
+      </c>
+      <c r="E44" s="6">
+        <v>614317</v>
+      </c>
+      <c r="F44" s="6">
+        <v>602581</v>
+      </c>
+      <c r="G44" s="6">
+        <v>524</v>
+      </c>
+      <c r="H44" s="6">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>162245</v>
+      </c>
+      <c r="I44" s="6">
+        <v>69515</v>
+      </c>
+      <c r="J44" s="6">
+        <v>92730</v>
+      </c>
+      <c r="K44" s="6">
+        <v>18.867667819798235</v>
+      </c>
+      <c r="L44" s="6">
+        <v>15.572301149496132</v>
+      </c>
+      <c r="M44" s="7">
+        <v>19.875979339656887</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" hidden="1">
+      <c r="B45" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="10">
+        <f t="shared" si="3"/>
+        <v>1212635</v>
+      </c>
+      <c r="E45" s="11">
+        <v>611918</v>
+      </c>
+      <c r="F45" s="11">
+        <v>600194</v>
+      </c>
+      <c r="G45" s="11">
+        <v>523</v>
+      </c>
+      <c r="H45" s="11">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>161903</v>
+      </c>
+      <c r="I45" s="11">
+        <v>69487</v>
+      </c>
+      <c r="J45" s="11">
+        <v>92416</v>
+      </c>
+      <c r="K45" s="11">
+        <v>18.918767990160223</v>
+      </c>
+      <c r="L45" s="11">
+        <v>15.612731079720572</v>
+      </c>
+      <c r="M45" s="12">
+        <v>19.925975375785644</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" hidden="1">
+      <c r="B46" s="4">
+        <v>2022</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="6">
-        <f t="shared" si="2"/>
+      <c r="D46" s="6">
+        <f t="shared" si="3"/>
         <v>1207392</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E46" s="6">
         <v>609072</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F46" s="6">
         <v>597797</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G46" s="6">
         <v>523</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H46" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>161179</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I46" s="6">
         <v>69288</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J46" s="6">
         <v>91891</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K46" s="6">
         <v>18.985056810872138</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L46" s="6">
         <v>15.690822005348092</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M46" s="7">
         <v>19.992202892268896</v>
       </c>
     </row>
-    <row r="45" spans="2:13" hidden="1">
-      <c r="B45" s="13">
+    <row r="47" spans="2:13" hidden="1">
+      <c r="B47" s="13">
         <v>2022</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="15">
-        <f t="shared" si="2"/>
+      <c r="D47" s="15">
+        <f t="shared" si="3"/>
         <v>1203679</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E47" s="16">
         <v>607150</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F47" s="16">
         <v>596005</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G47" s="16">
         <v>524</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H47" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>160915</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I47" s="16">
         <v>69335</v>
       </c>
-      <c r="J45" s="16">
+      <c r="J47" s="16">
         <v>91580</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K47" s="16">
         <v>19.033586986005115</v>
       </c>
-      <c r="L45" s="16">
+      <c r="L47" s="16">
         <v>15.723189261411305</v>
       </c>
-      <c r="M45" s="17">
+      <c r="M47" s="17">
         <v>20.040443053611135</v>
       </c>
     </row>
-    <row r="46" spans="2:13" hidden="1">
-      <c r="B46" s="18">
+    <row r="48" spans="2:13" hidden="1">
+      <c r="B48" s="18">
         <v>2021</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C48" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="20">
-        <f t="shared" si="2"/>
+      <c r="D48" s="20">
+        <f t="shared" si="3"/>
         <v>1201053</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E48" s="20">
         <v>606090</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F48" s="20">
         <v>594443</v>
       </c>
-      <c r="G46" s="20">
+      <c r="G48" s="20">
         <v>520</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H48" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>160633</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I48" s="20">
         <v>69330</v>
       </c>
-      <c r="J46" s="20">
+      <c r="J48" s="20">
         <v>91303</v>
       </c>
-      <c r="K46" s="20">
+      <c r="K48" s="20">
         <v>18.104901973748976</v>
       </c>
-      <c r="L46" s="20">
+      <c r="L48" s="20">
         <v>14.77932927854177</v>
       </c>
-      <c r="M46" s="21">
+      <c r="M48" s="21">
         <v>19.103214044118861</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" hidden="1">
-      <c r="B47" s="8">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="10">
-        <f t="shared" si="2"/>
-        <v>1195350</v>
-      </c>
-      <c r="E47" s="11">
-        <v>603380</v>
-      </c>
-      <c r="F47" s="11">
-        <v>591451</v>
-      </c>
-      <c r="G47" s="11">
-        <v>519</v>
-      </c>
-      <c r="H47" s="11">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>159783</v>
-      </c>
-      <c r="I47" s="11">
-        <v>69196</v>
-      </c>
-      <c r="J47" s="11">
-        <v>90587</v>
-      </c>
-      <c r="K47" s="11">
-        <v>18.165010106199993</v>
-      </c>
-      <c r="L47" s="11">
-        <v>14.853858044973496</v>
-      </c>
-      <c r="M47" s="12">
-        <v>19.159161722297721</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" hidden="1">
-      <c r="B48" s="4">
-        <v>2021</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="6">
-        <f t="shared" si="2"/>
-        <v>1192781</v>
-      </c>
-      <c r="E48" s="6">
-        <v>602061</v>
-      </c>
-      <c r="F48" s="6">
-        <v>590200</v>
-      </c>
-      <c r="G48" s="6">
-        <v>520</v>
-      </c>
-      <c r="H48" s="6">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>159209</v>
-      </c>
-      <c r="I48" s="6">
-        <v>69167</v>
-      </c>
-      <c r="J48" s="6">
-        <v>90042</v>
-      </c>
-      <c r="K48" s="6">
-        <v>18.210527795659541</v>
-      </c>
-      <c r="L48" s="6">
-        <v>14.91196477586066</v>
-      </c>
-      <c r="M48" s="7">
-        <v>19.201099224164992</v>
       </c>
     </row>
     <row r="49" spans="2:13" hidden="1">
@@ -2796,39 +2796,39 @@
         <v>2021</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D49" s="10">
-        <f t="shared" ref="D49:D80" si="3">SUM(E49:G49)</f>
-        <v>1186041</v>
+        <f t="shared" si="3"/>
+        <v>1195350</v>
       </c>
       <c r="E49" s="11">
-        <v>599199</v>
+        <v>603380</v>
       </c>
       <c r="F49" s="11">
-        <v>586326</v>
+        <v>591451</v>
       </c>
       <c r="G49" s="11">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="H49" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>158594</v>
+        <v>159783</v>
       </c>
       <c r="I49" s="11">
-        <v>69024</v>
+        <v>69196</v>
       </c>
       <c r="J49" s="11">
-        <v>89570</v>
+        <v>90587</v>
       </c>
       <c r="K49" s="11">
-        <v>18.280978841903135</v>
+        <v>18.165010106199993</v>
       </c>
       <c r="L49" s="11">
-        <v>14.981991752525316</v>
+        <v>14.853858044973496</v>
       </c>
       <c r="M49" s="12">
-        <v>19.262381946565331</v>
+        <v>19.159161722297721</v>
       </c>
     </row>
     <row r="50" spans="2:13" hidden="1">
@@ -2836,39 +2836,39 @@
         <v>2021</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D50" s="6">
         <f t="shared" si="3"/>
-        <v>1182334</v>
+        <v>1192781</v>
       </c>
       <c r="E50" s="6">
-        <v>597975</v>
+        <v>602061</v>
       </c>
       <c r="F50" s="6">
-        <v>583854</v>
+        <v>590200</v>
       </c>
       <c r="G50" s="6">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="H50" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>157584</v>
+        <v>159209</v>
       </c>
       <c r="I50" s="6">
-        <v>68967</v>
+        <v>69167</v>
       </c>
       <c r="J50" s="6">
-        <v>88617</v>
+        <v>90042</v>
       </c>
       <c r="K50" s="6">
-        <v>18.343313078191716</v>
+        <v>18.210527795659541</v>
       </c>
       <c r="L50" s="6">
-        <v>15.069702507868818</v>
+        <v>14.91196477586066</v>
       </c>
       <c r="M50" s="7">
-        <v>19.317817634516494</v>
+        <v>19.201099224164992</v>
       </c>
     </row>
     <row r="51" spans="2:13" hidden="1">
@@ -2876,39 +2876,39 @@
         <v>2021</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D51" s="10">
-        <f t="shared" si="3"/>
-        <v>1175907</v>
+        <f t="shared" ref="D51:D82" si="4">SUM(E51:G51)</f>
+        <v>1186041</v>
       </c>
       <c r="E51" s="11">
-        <v>594590</v>
+        <v>599199</v>
       </c>
       <c r="F51" s="11">
-        <v>580812</v>
+        <v>586326</v>
       </c>
       <c r="G51" s="11">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="H51" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>157806</v>
+        <v>158594</v>
       </c>
       <c r="I51" s="11">
-        <v>69051</v>
+        <v>69024</v>
       </c>
       <c r="J51" s="11">
-        <v>88755</v>
+        <v>89570</v>
       </c>
       <c r="K51" s="11">
-        <v>18.386941872536017</v>
+        <v>18.280978841903135</v>
       </c>
       <c r="L51" s="11">
-        <v>15.078070542311446</v>
+        <v>14.981991752525316</v>
       </c>
       <c r="M51" s="12">
-        <v>19.364975865722599</v>
+        <v>19.262381946565331</v>
       </c>
     </row>
     <row r="52" spans="2:13" hidden="1">
@@ -2916,39 +2916,39 @@
         <v>2021</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="3"/>
-        <v>1172788</v>
+        <f t="shared" si="4"/>
+        <v>1182334</v>
       </c>
       <c r="E52" s="6">
-        <v>593307</v>
+        <v>597975</v>
       </c>
       <c r="F52" s="6">
-        <v>578970</v>
+        <v>583854</v>
       </c>
       <c r="G52" s="6">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="H52" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>157163</v>
+        <v>157584</v>
       </c>
       <c r="I52" s="6">
-        <v>68993</v>
+        <v>68967</v>
       </c>
       <c r="J52" s="6">
-        <v>88170</v>
+        <v>88617</v>
       </c>
       <c r="K52" s="6">
-        <v>18.439486550728127</v>
+        <v>18.343313078191716</v>
       </c>
       <c r="L52" s="6">
-        <v>15.1151861443215</v>
+        <v>15.069702507868818</v>
       </c>
       <c r="M52" s="7">
-        <v>19.410730026782087</v>
+        <v>19.317817634516494</v>
       </c>
     </row>
     <row r="53" spans="2:13" hidden="1">
@@ -2956,39 +2956,39 @@
         <v>2021</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D53" s="10">
-        <f t="shared" si="3"/>
-        <v>1166805</v>
+        <f t="shared" si="4"/>
+        <v>1175907</v>
       </c>
       <c r="E53" s="11">
-        <v>590245</v>
+        <v>594590</v>
       </c>
       <c r="F53" s="11">
-        <v>576050</v>
+        <v>580812</v>
       </c>
       <c r="G53" s="11">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H53" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>156786</v>
+        <v>157806</v>
       </c>
       <c r="I53" s="11">
-        <v>69018</v>
+        <v>69051</v>
       </c>
       <c r="J53" s="11">
-        <v>87768</v>
+        <v>88755</v>
       </c>
       <c r="K53" s="11">
-        <v>18.504217806770711</v>
+        <v>18.386941872536017</v>
       </c>
       <c r="L53" s="11">
-        <v>15.155396527751202</v>
+        <v>15.078070542311446</v>
       </c>
       <c r="M53" s="12">
-        <v>19.481235758032678</v>
+        <v>19.364975865722599</v>
       </c>
     </row>
     <row r="54" spans="2:13" hidden="1">
@@ -2996,39 +2996,39 @@
         <v>2021</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" si="3"/>
-        <v>1162463</v>
+        <f t="shared" si="4"/>
+        <v>1172788</v>
       </c>
       <c r="E54" s="6">
-        <v>588077</v>
+        <v>593307</v>
       </c>
       <c r="F54" s="6">
-        <v>573877</v>
+        <v>578970</v>
       </c>
       <c r="G54" s="6">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H54" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>156695</v>
+        <v>157163</v>
       </c>
       <c r="I54" s="6">
-        <v>69223</v>
+        <v>68993</v>
       </c>
       <c r="J54" s="6">
-        <v>87472</v>
+        <v>88170</v>
       </c>
       <c r="K54" s="6">
-        <v>18.555855273086319</v>
+        <v>18.439486550728127</v>
       </c>
       <c r="L54" s="6">
-        <v>15.176859504132231</v>
+        <v>15.1151861443215</v>
       </c>
       <c r="M54" s="7">
-        <v>19.539313729324562</v>
+        <v>19.410730026782087</v>
       </c>
     </row>
     <row r="55" spans="2:13" hidden="1">
@@ -3036,39 +3036,39 @@
         <v>2021</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D55" s="10">
-        <f t="shared" si="3"/>
-        <v>1157730</v>
+        <f t="shared" si="4"/>
+        <v>1166805</v>
       </c>
       <c r="E55" s="11">
-        <v>586093</v>
+        <v>590245</v>
       </c>
       <c r="F55" s="11">
-        <v>571129</v>
+        <v>576050</v>
       </c>
       <c r="G55" s="11">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H55" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>156467</v>
+        <v>156786</v>
       </c>
       <c r="I55" s="11">
-        <v>69334</v>
+        <v>69018</v>
       </c>
       <c r="J55" s="11">
-        <v>87133</v>
+        <v>87768</v>
       </c>
       <c r="K55" s="11">
-        <v>18.610992403833784</v>
+        <v>18.504217806770711</v>
       </c>
       <c r="L55" s="11">
-        <v>15.20547463682438</v>
+        <v>15.155396527751202</v>
       </c>
       <c r="M55" s="12">
-        <v>19.591187746654541</v>
+        <v>19.481235758032678</v>
       </c>
     </row>
     <row r="56" spans="2:13" hidden="1">
@@ -3076,199 +3076,199 @@
         <v>2021</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="6">
+        <f t="shared" si="4"/>
+        <v>1162463</v>
+      </c>
+      <c r="E56" s="6">
+        <v>588077</v>
+      </c>
+      <c r="F56" s="6">
+        <v>573877</v>
+      </c>
+      <c r="G56" s="6">
+        <v>509</v>
+      </c>
+      <c r="H56" s="6">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>156695</v>
+      </c>
+      <c r="I56" s="6">
+        <v>69223</v>
+      </c>
+      <c r="J56" s="6">
+        <v>87472</v>
+      </c>
+      <c r="K56" s="6">
+        <v>18.555855273086319</v>
+      </c>
+      <c r="L56" s="6">
+        <v>15.176859504132231</v>
+      </c>
+      <c r="M56" s="7">
+        <v>19.539313729324562</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" hidden="1">
+      <c r="B57" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="10">
+        <f t="shared" si="4"/>
+        <v>1157730</v>
+      </c>
+      <c r="E57" s="11">
+        <v>586093</v>
+      </c>
+      <c r="F57" s="11">
+        <v>571129</v>
+      </c>
+      <c r="G57" s="11">
+        <v>508</v>
+      </c>
+      <c r="H57" s="11">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>156467</v>
+      </c>
+      <c r="I57" s="11">
+        <v>69334</v>
+      </c>
+      <c r="J57" s="11">
+        <v>87133</v>
+      </c>
+      <c r="K57" s="11">
+        <v>18.610992403833784</v>
+      </c>
+      <c r="L57" s="11">
+        <v>15.20547463682438</v>
+      </c>
+      <c r="M57" s="12">
+        <v>19.591187746654541</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" hidden="1">
+      <c r="B58" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="6">
-        <f t="shared" si="3"/>
+      <c r="D58" s="6">
+        <f t="shared" si="4"/>
         <v>1151624</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E58" s="6">
         <v>583440</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F58" s="6">
         <v>567677</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G58" s="6">
         <v>507</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H58" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156128</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I58" s="6">
         <v>69352</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J58" s="6">
         <v>86776</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K58" s="6">
         <v>18.682593545968817</v>
       </c>
-      <c r="L56" s="6">
+      <c r="L58" s="6">
         <v>15.246899979503995</v>
       </c>
-      <c r="M56" s="7">
+      <c r="M58" s="7">
         <v>19.65870183737831</v>
       </c>
     </row>
-    <row r="57" spans="2:13" hidden="1">
-      <c r="B57" s="13">
+    <row r="59" spans="2:13" hidden="1">
+      <c r="B59" s="13">
         <v>2021</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="15">
-        <f t="shared" si="3"/>
+      <c r="D59" s="15">
+        <f t="shared" si="4"/>
         <v>1146962</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E59" s="16">
         <v>581299</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F59" s="16">
         <v>565156</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G59" s="16">
         <v>507</v>
       </c>
-      <c r="H57" s="16">
+      <c r="H59" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156135</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I59" s="16">
         <v>69558</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J59" s="16">
         <v>86577</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K59" s="16">
         <v>18.737382445742711</v>
       </c>
-      <c r="L57" s="16">
+      <c r="L59" s="16">
         <v>15.270791302398566</v>
       </c>
-      <c r="M57" s="17">
+      <c r="M59" s="17">
         <v>19.71498144672535</v>
       </c>
     </row>
-    <row r="58" spans="2:13" hidden="1">
-      <c r="B58" s="18">
+    <row r="60" spans="2:13" hidden="1">
+      <c r="B60" s="18">
         <v>2020</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C60" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="20">
-        <f t="shared" si="3"/>
+      <c r="D60" s="20">
+        <f t="shared" si="4"/>
         <v>1143940</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E60" s="20">
         <v>580035</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F60" s="20">
         <v>563400</v>
       </c>
-      <c r="G58" s="20">
+      <c r="G60" s="20">
         <v>505</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H60" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156064</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I60" s="20">
         <v>69624</v>
       </c>
-      <c r="J58" s="20">
+      <c r="J60" s="20">
         <v>86440</v>
       </c>
-      <c r="K58" s="20">
+      <c r="K60" s="20">
         <v>17.787893642088221</v>
       </c>
-      <c r="L58" s="20">
+      <c r="L60" s="20">
         <v>14.291950738158704</v>
       </c>
-      <c r="M58" s="21">
+      <c r="M60" s="21">
         <v>18.763405656555207</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" hidden="1">
-      <c r="B59" s="8">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="10">
-        <f t="shared" si="3"/>
-        <v>1137719</v>
-      </c>
-      <c r="E59" s="11">
-        <v>576835</v>
-      </c>
-      <c r="F59" s="11">
-        <v>560383</v>
-      </c>
-      <c r="G59" s="11">
-        <v>501</v>
-      </c>
-      <c r="H59" s="11">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>155330</v>
-      </c>
-      <c r="I59" s="11">
-        <v>69641</v>
-      </c>
-      <c r="J59" s="11">
-        <v>85689</v>
-      </c>
-      <c r="K59" s="11">
-        <v>17.860964544450187</v>
-      </c>
-      <c r="L59" s="11">
-        <v>14.359087104873495</v>
-      </c>
-      <c r="M59" s="12">
-        <v>18.843092045385596</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" hidden="1">
-      <c r="B60" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" s="6">
-        <f t="shared" si="3"/>
-        <v>1131496</v>
-      </c>
-      <c r="E60" s="6">
-        <v>574056</v>
-      </c>
-      <c r="F60" s="6">
-        <v>556941</v>
-      </c>
-      <c r="G60" s="6">
-        <v>499</v>
-      </c>
-      <c r="H60" s="6">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>154998</v>
-      </c>
-      <c r="I60" s="6">
-        <v>69581</v>
-      </c>
-      <c r="J60" s="6">
-        <v>85417</v>
-      </c>
-      <c r="K60" s="6">
-        <v>17.931151365285245</v>
-      </c>
-      <c r="L60" s="6">
-        <v>14.401392276029368</v>
-      </c>
-      <c r="M60" s="7">
-        <v>18.916173683403709</v>
       </c>
     </row>
     <row r="61" spans="2:13" hidden="1">
@@ -3276,39 +3276,39 @@
         <v>2020</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D61" s="10">
-        <f t="shared" si="3"/>
-        <v>1124473</v>
+        <f t="shared" si="4"/>
+        <v>1137719</v>
       </c>
       <c r="E61" s="11">
-        <v>571367</v>
+        <v>576835</v>
       </c>
       <c r="F61" s="11">
-        <v>552611</v>
+        <v>560383</v>
       </c>
       <c r="G61" s="11">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="H61" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>154974</v>
+        <v>155330</v>
       </c>
       <c r="I61" s="11">
-        <v>69802</v>
+        <v>69641</v>
       </c>
       <c r="J61" s="11">
-        <v>85172</v>
+        <v>85689</v>
       </c>
       <c r="K61" s="11">
-        <v>18.015470478954644</v>
+        <v>17.860964544450187</v>
       </c>
       <c r="L61" s="11">
-        <v>14.418154012931202</v>
+        <v>14.359087104873495</v>
       </c>
       <c r="M61" s="12">
-        <v>18.991473081224505</v>
+        <v>18.843092045385596</v>
       </c>
     </row>
     <row r="62" spans="2:13" hidden="1">
@@ -3316,39 +3316,39 @@
         <v>2020</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D62" s="6">
-        <f t="shared" si="3"/>
-        <v>1119301</v>
+        <f t="shared" si="4"/>
+        <v>1131496</v>
       </c>
       <c r="E62" s="6">
-        <v>569174</v>
+        <v>574056</v>
       </c>
       <c r="F62" s="6">
-        <v>549631</v>
+        <v>556941</v>
       </c>
       <c r="G62" s="6">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="H62" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>155005</v>
+        <v>154998</v>
       </c>
       <c r="I62" s="6">
-        <v>69935</v>
+        <v>69581</v>
       </c>
       <c r="J62" s="6">
-        <v>85070</v>
+        <v>85417</v>
       </c>
       <c r="K62" s="6">
-        <v>18.074266962890857</v>
+        <v>17.931151365285245</v>
       </c>
       <c r="L62" s="6">
-        <v>14.424315344666301</v>
+        <v>14.401392276029368</v>
       </c>
       <c r="M62" s="7">
-        <v>19.054786409779787</v>
+        <v>18.916173683403709</v>
       </c>
     </row>
     <row r="63" spans="2:13" hidden="1">
@@ -3356,39 +3356,39 @@
         <v>2020</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D63" s="10">
-        <f t="shared" si="3"/>
-        <v>1115206</v>
+        <f t="shared" si="4"/>
+        <v>1124473</v>
       </c>
       <c r="E63" s="11">
-        <v>567168</v>
+        <v>571367</v>
       </c>
       <c r="F63" s="11">
-        <v>547540</v>
+        <v>552611</v>
       </c>
       <c r="G63" s="11">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H63" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>154854</v>
+        <v>154974</v>
       </c>
       <c r="I63" s="11">
-        <v>69936</v>
+        <v>69802</v>
       </c>
       <c r="J63" s="11">
-        <v>84918</v>
+        <v>85172</v>
       </c>
       <c r="K63" s="11">
-        <v>18.123512676025275</v>
+        <v>18.015470478954644</v>
       </c>
       <c r="L63" s="11">
-        <v>14.441519108321389</v>
+        <v>14.418154012931202</v>
       </c>
       <c r="M63" s="12">
-        <v>19.111048225569849</v>
+        <v>18.991473081224505</v>
       </c>
     </row>
     <row r="64" spans="2:13" hidden="1">
@@ -3396,39 +3396,39 @@
         <v>2020</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D64" s="6">
-        <f t="shared" si="3"/>
-        <v>1112456</v>
+        <f t="shared" si="4"/>
+        <v>1119301</v>
       </c>
       <c r="E64" s="6">
-        <v>566042</v>
+        <v>569174</v>
       </c>
       <c r="F64" s="6">
-        <v>545916</v>
+        <v>549631</v>
       </c>
       <c r="G64" s="6">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H64" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>154797</v>
+        <v>155005</v>
       </c>
       <c r="I64" s="6">
-        <v>69959</v>
+        <v>69935</v>
       </c>
       <c r="J64" s="6">
-        <v>84838</v>
+        <v>85070</v>
       </c>
       <c r="K64" s="6">
-        <v>18.154673950369251</v>
+        <v>18.074266962890857</v>
       </c>
       <c r="L64" s="6">
-        <v>14.450499686686436</v>
+        <v>14.424315344666301</v>
       </c>
       <c r="M64" s="7">
-        <v>19.140800505969523</v>
+        <v>19.054786409779787</v>
       </c>
     </row>
     <row r="65" spans="2:13" hidden="1">
@@ -3436,39 +3436,39 @@
         <v>2020</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D65" s="10">
-        <f t="shared" si="3"/>
-        <v>1111879</v>
+        <f t="shared" si="4"/>
+        <v>1115206</v>
       </c>
       <c r="E65" s="11">
-        <v>565980</v>
+        <v>567168</v>
       </c>
       <c r="F65" s="11">
-        <v>545400</v>
+        <v>547540</v>
       </c>
       <c r="G65" s="11">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H65" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>154663</v>
+        <v>154854</v>
       </c>
       <c r="I65" s="11">
-        <v>69945</v>
+        <v>69936</v>
       </c>
       <c r="J65" s="11">
-        <v>84718</v>
+        <v>84918</v>
       </c>
       <c r="K65" s="11">
-        <v>18.164229808940139</v>
+        <v>18.123512676025275</v>
       </c>
       <c r="L65" s="11">
-        <v>14.46115101866639</v>
+        <v>14.441519108321389</v>
       </c>
       <c r="M65" s="12">
-        <v>19.144045725997383</v>
+        <v>19.111048225569849</v>
       </c>
     </row>
     <row r="66" spans="2:13" hidden="1">
@@ -3476,39 +3476,39 @@
         <v>2020</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D66" s="6">
-        <f t="shared" si="3"/>
-        <v>1111626</v>
+        <f t="shared" si="4"/>
+        <v>1112456</v>
       </c>
       <c r="E66" s="6">
-        <v>565883</v>
+        <v>566042</v>
       </c>
       <c r="F66" s="6">
-        <v>545244</v>
+        <v>545916</v>
       </c>
       <c r="G66" s="6">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H66" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>154659</v>
+        <v>154797</v>
       </c>
       <c r="I66" s="6">
-        <v>69947</v>
+        <v>69959</v>
       </c>
       <c r="J66" s="6">
-        <v>84712</v>
+        <v>84838</v>
       </c>
       <c r="K66" s="6">
-        <v>18.16685047867491</v>
+        <v>18.154673950369251</v>
       </c>
       <c r="L66" s="6">
-        <v>14.461473305788864</v>
+        <v>14.450499686686436</v>
       </c>
       <c r="M66" s="7">
-        <v>19.146164489832703</v>
+        <v>19.140800505969523</v>
       </c>
     </row>
     <row r="67" spans="2:13" hidden="1">
@@ -3516,39 +3516,39 @@
         <v>2020</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D67" s="10">
-        <f t="shared" si="3"/>
-        <v>1111436</v>
+        <f t="shared" si="4"/>
+        <v>1111879</v>
       </c>
       <c r="E67" s="11">
-        <v>565809</v>
+        <v>565980</v>
       </c>
       <c r="F67" s="11">
-        <v>545128</v>
+        <v>545400</v>
       </c>
       <c r="G67" s="11">
         <v>499</v>
       </c>
       <c r="H67" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>154670</v>
+        <v>154663</v>
       </c>
       <c r="I67" s="11">
-        <v>69953</v>
+        <v>69945</v>
       </c>
       <c r="J67" s="11">
-        <v>84717</v>
+        <v>84718</v>
       </c>
       <c r="K67" s="11">
-        <v>18.1697391054253</v>
+        <v>18.164229808940139</v>
       </c>
       <c r="L67" s="11">
-        <v>14.461059028900239</v>
+        <v>14.46115101866639</v>
       </c>
       <c r="M67" s="12">
-        <v>19.148813468856098</v>
+        <v>19.144045725997383</v>
       </c>
     </row>
     <row r="68" spans="2:13" hidden="1">
@@ -3556,199 +3556,199 @@
         <v>2020</v>
       </c>
       <c r="C68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="6">
+        <f t="shared" si="4"/>
+        <v>1111626</v>
+      </c>
+      <c r="E68" s="6">
+        <v>565883</v>
+      </c>
+      <c r="F68" s="6">
+        <v>545244</v>
+      </c>
+      <c r="G68" s="6">
+        <v>499</v>
+      </c>
+      <c r="H68" s="6">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>154659</v>
+      </c>
+      <c r="I68" s="6">
+        <v>69947</v>
+      </c>
+      <c r="J68" s="6">
+        <v>84712</v>
+      </c>
+      <c r="K68" s="6">
+        <v>18.16685047867491</v>
+      </c>
+      <c r="L68" s="6">
+        <v>14.461473305788864</v>
+      </c>
+      <c r="M68" s="7">
+        <v>19.146164489832703</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" hidden="1">
+      <c r="B69" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="10">
+        <f t="shared" si="4"/>
+        <v>1111436</v>
+      </c>
+      <c r="E69" s="11">
+        <v>565809</v>
+      </c>
+      <c r="F69" s="11">
+        <v>545128</v>
+      </c>
+      <c r="G69" s="11">
+        <v>499</v>
+      </c>
+      <c r="H69" s="11">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>154670</v>
+      </c>
+      <c r="I69" s="11">
+        <v>69953</v>
+      </c>
+      <c r="J69" s="11">
+        <v>84717</v>
+      </c>
+      <c r="K69" s="11">
+        <v>18.1697391054253</v>
+      </c>
+      <c r="L69" s="11">
+        <v>14.461059028900239</v>
+      </c>
+      <c r="M69" s="12">
+        <v>19.148813468856098</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" hidden="1">
+      <c r="B70" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="6">
-        <f t="shared" si="3"/>
+      <c r="D70" s="6">
+        <f t="shared" si="4"/>
         <v>1107180</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E70" s="6">
         <v>564089</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F70" s="6">
         <v>542595</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G70" s="6">
         <v>496</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H70" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154310</v>
       </c>
-      <c r="I68" s="6">
+      <c r="I70" s="6">
         <v>69893</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J70" s="6">
         <v>84417</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K70" s="6">
         <v>18.222653716036714</v>
       </c>
-      <c r="L68" s="6">
+      <c r="L70" s="6">
         <v>14.507322921392005</v>
       </c>
-      <c r="M68" s="7">
+      <c r="M70" s="7">
         <v>19.193769068356236</v>
       </c>
     </row>
-    <row r="69" spans="2:13" hidden="1">
-      <c r="B69" s="13">
+    <row r="71" spans="2:13" hidden="1">
+      <c r="B71" s="13">
         <v>2020</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C71" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="15">
-        <f t="shared" si="3"/>
+      <c r="D71" s="15">
+        <f t="shared" si="4"/>
         <v>1102434</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E71" s="16">
         <v>562170</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F71" s="16">
         <v>539768</v>
       </c>
-      <c r="G69" s="16">
+      <c r="G71" s="16">
         <v>496</v>
       </c>
-      <c r="H69" s="16">
+      <c r="H71" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>153904</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I71" s="16">
         <v>69851</v>
       </c>
-      <c r="J69" s="16">
+      <c r="J71" s="16">
         <v>84053</v>
       </c>
-      <c r="K69" s="16">
+      <c r="K71" s="16">
         <v>18.280507420519459</v>
       </c>
-      <c r="L69" s="16">
+      <c r="L71" s="16">
         <v>14.558120646636864</v>
       </c>
-      <c r="M69" s="17">
+      <c r="M71" s="17">
         <v>19.246057242471139</v>
       </c>
     </row>
-    <row r="70" spans="2:13" hidden="1">
-      <c r="B70" s="18">
+    <row r="72" spans="2:13" hidden="1">
+      <c r="B72" s="18">
         <v>2019</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C72" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="20">
-        <f t="shared" si="3"/>
+      <c r="D72" s="20">
+        <f t="shared" si="4"/>
         <v>1099371</v>
       </c>
-      <c r="E70" s="20">
+      <c r="E72" s="20">
         <v>561061</v>
       </c>
-      <c r="F70" s="20">
+      <c r="F72" s="20">
         <v>537813</v>
       </c>
-      <c r="G70" s="20">
+      <c r="G72" s="20">
         <v>497</v>
       </c>
-      <c r="H70" s="20">
+      <c r="H72" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>153726</v>
       </c>
-      <c r="I70" s="20">
+      <c r="I72" s="20">
         <v>69871</v>
       </c>
-      <c r="J70" s="20">
+      <c r="J72" s="20">
         <v>83855</v>
       </c>
-      <c r="K70" s="20">
+      <c r="K72" s="20">
         <v>17.338868752993772</v>
       </c>
-      <c r="L70" s="20">
+      <c r="L72" s="20">
         <v>13.608641348893483</v>
       </c>
-      <c r="M70" s="21">
+      <c r="M72" s="21">
         <v>18.302218475352948</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13" hidden="1">
-      <c r="B71" s="8">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" s="10">
-        <f t="shared" si="3"/>
-        <v>1094843</v>
-      </c>
-      <c r="E71" s="11">
-        <v>558626</v>
-      </c>
-      <c r="F71" s="11">
-        <v>535724</v>
-      </c>
-      <c r="G71" s="11">
-        <v>493</v>
-      </c>
-      <c r="H71" s="11">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>152624</v>
-      </c>
-      <c r="I71" s="11">
-        <v>69534</v>
-      </c>
-      <c r="J71" s="11">
-        <v>83090</v>
-      </c>
-      <c r="K71" s="11">
-        <v>17.393954485017328</v>
-      </c>
-      <c r="L71" s="11">
-        <v>13.697282209875247</v>
-      </c>
-      <c r="M71" s="12">
-        <v>18.357969374859028</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13" hidden="1">
-      <c r="B72" s="4">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D72" s="6">
-        <f t="shared" si="3"/>
-        <v>1089907</v>
-      </c>
-      <c r="E72" s="6">
-        <v>556346</v>
-      </c>
-      <c r="F72" s="6">
-        <v>533069</v>
-      </c>
-      <c r="G72" s="6">
-        <v>492</v>
-      </c>
-      <c r="H72" s="6">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>151838</v>
-      </c>
-      <c r="I72" s="6">
-        <v>69318</v>
-      </c>
-      <c r="J72" s="6">
-        <v>82520</v>
-      </c>
-      <c r="K72" s="6">
-        <v>17.456851262393727</v>
-      </c>
-      <c r="L72" s="6">
-        <v>13.773673257023932</v>
-      </c>
-      <c r="M72" s="7">
-        <v>18.416267933983526</v>
       </c>
     </row>
     <row r="73" spans="2:13" hidden="1">
@@ -3756,39 +3756,39 @@
         <v>2019</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D73" s="10">
-        <f t="shared" si="3"/>
-        <v>1026253</v>
+        <f t="shared" si="4"/>
+        <v>1094843</v>
       </c>
       <c r="E73" s="11">
-        <v>519860</v>
+        <v>558626</v>
       </c>
       <c r="F73" s="11">
-        <v>505944</v>
+        <v>535724</v>
       </c>
       <c r="G73" s="11">
-        <v>449</v>
+        <v>493</v>
       </c>
       <c r="H73" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>134666</v>
+        <v>152624</v>
       </c>
       <c r="I73" s="11">
-        <v>59103</v>
+        <v>69534</v>
       </c>
       <c r="J73" s="11">
-        <v>75563</v>
+        <v>83090</v>
       </c>
       <c r="K73" s="11">
-        <v>17.271427094194593</v>
+        <v>17.393954485017328</v>
       </c>
       <c r="L73" s="11">
-        <v>13.265634978390985</v>
+        <v>13.697282209875247</v>
       </c>
       <c r="M73" s="12">
-        <v>18.202425653060441</v>
+        <v>18.357969374859028</v>
       </c>
     </row>
     <row r="74" spans="2:13" hidden="1">
@@ -3796,39 +3796,39 @@
         <v>2019</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D74" s="6">
-        <f t="shared" si="3"/>
-        <v>1021601</v>
+        <f t="shared" si="4"/>
+        <v>1089907</v>
       </c>
       <c r="E74" s="6">
-        <v>517666</v>
+        <v>556346</v>
       </c>
       <c r="F74" s="6">
-        <v>503486</v>
+        <v>533069</v>
       </c>
       <c r="G74" s="6">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="H74" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>134177</v>
+        <v>151838</v>
       </c>
       <c r="I74" s="6">
-        <v>58996</v>
+        <v>69318</v>
       </c>
       <c r="J74" s="6">
-        <v>75181</v>
+        <v>82520</v>
       </c>
       <c r="K74" s="6">
-        <v>17.331093567286896</v>
+        <v>17.456851262393727</v>
       </c>
       <c r="L74" s="6">
-        <v>13.321195137765788</v>
+        <v>13.773673257023932</v>
       </c>
       <c r="M74" s="7">
-        <v>18.260312634014984</v>
+        <v>18.416267933983526</v>
       </c>
     </row>
     <row r="75" spans="2:13" hidden="1">
@@ -3836,39 +3836,39 @@
         <v>2019</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D75" s="10">
-        <f t="shared" si="3"/>
-        <v>1012889</v>
+        <f t="shared" si="4"/>
+        <v>1026253</v>
       </c>
       <c r="E75" s="11">
-        <v>514393</v>
+        <v>519860</v>
       </c>
       <c r="F75" s="11">
-        <v>498050</v>
+        <v>505944</v>
       </c>
       <c r="G75" s="11">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H75" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>134315</v>
+        <v>134666</v>
       </c>
       <c r="I75" s="11">
-        <v>59818</v>
+        <v>59103</v>
       </c>
       <c r="J75" s="11">
-        <v>74497</v>
+        <v>75563</v>
       </c>
       <c r="K75" s="11">
-        <v>17.523646663027421</v>
+        <v>17.271427094194593</v>
       </c>
       <c r="L75" s="11">
-        <v>13.572348583553588</v>
+        <v>13.265634978390985</v>
       </c>
       <c r="M75" s="12">
-        <v>18.476849412803052</v>
+        <v>18.202425653060441</v>
       </c>
     </row>
     <row r="76" spans="2:13" hidden="1">
@@ -3876,39 +3876,39 @@
         <v>2019</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D76" s="6">
-        <f t="shared" si="3"/>
-        <v>1011042</v>
+        <f t="shared" si="4"/>
+        <v>1021601</v>
       </c>
       <c r="E76" s="6">
-        <v>512802</v>
+        <v>517666</v>
       </c>
       <c r="F76" s="6">
-        <v>497796</v>
+        <v>503486</v>
       </c>
       <c r="G76" s="6">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="H76" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>132861</v>
+        <v>134177</v>
       </c>
       <c r="I76" s="6">
-        <v>58917</v>
+        <v>58996</v>
       </c>
       <c r="J76" s="6">
-        <v>73944</v>
+        <v>75181</v>
       </c>
       <c r="K76" s="6">
-        <v>17.474399169537342</v>
+        <v>17.331093567286896</v>
       </c>
       <c r="L76" s="6">
-        <v>13.491144880740022</v>
+        <v>13.321195137765788</v>
       </c>
       <c r="M76" s="7">
-        <v>18.398711393481303</v>
+        <v>18.260312634014984</v>
       </c>
     </row>
     <row r="77" spans="2:13" hidden="1">
@@ -3916,39 +3916,39 @@
         <v>2019</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D77" s="10">
-        <f t="shared" si="3"/>
-        <v>1006543</v>
+        <f t="shared" si="4"/>
+        <v>1012889</v>
       </c>
       <c r="E77" s="11">
-        <v>506850</v>
+        <v>514393</v>
       </c>
       <c r="F77" s="11">
-        <v>499239</v>
+        <v>498050</v>
       </c>
       <c r="G77" s="11">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H77" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>133322</v>
+        <v>134315</v>
       </c>
       <c r="I77" s="11">
-        <v>58537</v>
+        <v>59818</v>
       </c>
       <c r="J77" s="11">
-        <v>74785</v>
+        <v>74497</v>
       </c>
       <c r="K77" s="11">
-        <v>17.005059631686898</v>
+        <v>17.523646663027421</v>
       </c>
       <c r="L77" s="11">
-        <v>12.551904411875007</v>
+        <v>13.572348583553588</v>
       </c>
       <c r="M77" s="12">
-        <v>17.760755647627501</v>
+        <v>18.476849412803052</v>
       </c>
     </row>
     <row r="78" spans="2:13" hidden="1">
@@ -3956,39 +3956,39 @@
         <v>2019</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D78" s="6">
-        <f t="shared" si="3"/>
-        <v>1000820</v>
+        <f t="shared" si="4"/>
+        <v>1011042</v>
       </c>
       <c r="E78" s="6">
-        <v>504046</v>
+        <v>512802</v>
       </c>
       <c r="F78" s="6">
-        <v>496323</v>
+        <v>497796</v>
       </c>
       <c r="G78" s="6">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="H78" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>132406</v>
+        <v>132861</v>
       </c>
       <c r="I78" s="6">
-        <v>58289</v>
+        <v>58917</v>
       </c>
       <c r="J78" s="6">
-        <v>74117</v>
+        <v>73944</v>
       </c>
       <c r="K78" s="6">
-        <v>17.079096025247733</v>
+        <v>17.474399169537342</v>
       </c>
       <c r="L78" s="6">
-        <v>12.619949247012975</v>
+        <v>13.491144880740022</v>
       </c>
       <c r="M78" s="7">
-        <v>17.838770667756513</v>
+        <v>18.398711393481303</v>
       </c>
     </row>
     <row r="79" spans="2:13" hidden="1">
@@ -3996,39 +3996,39 @@
         <v>2019</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D79" s="10">
-        <f t="shared" si="3"/>
-        <v>995167</v>
+        <f t="shared" si="4"/>
+        <v>1006543</v>
       </c>
       <c r="E79" s="11">
-        <v>501424</v>
+        <v>506850</v>
       </c>
       <c r="F79" s="11">
-        <v>493291</v>
+        <v>499239</v>
       </c>
       <c r="G79" s="11">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H79" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>131276</v>
+        <v>133322</v>
       </c>
       <c r="I79" s="11">
-        <v>57933</v>
+        <v>58537</v>
       </c>
       <c r="J79" s="11">
-        <v>73343</v>
+        <v>74785</v>
       </c>
       <c r="K79" s="11">
-        <v>17.153564282485384</v>
+        <v>17.005059631686898</v>
       </c>
       <c r="L79" s="11">
-        <v>12.722576860964685</v>
+        <v>12.551904411875007</v>
       </c>
       <c r="M79" s="12">
-        <v>17.901807651807651</v>
+        <v>17.760755647627501</v>
       </c>
     </row>
     <row r="80" spans="2:13" hidden="1">
@@ -4036,199 +4036,199 @@
         <v>2019</v>
       </c>
       <c r="C80" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="6">
+        <f t="shared" si="4"/>
+        <v>1000820</v>
+      </c>
+      <c r="E80" s="6">
+        <v>504046</v>
+      </c>
+      <c r="F80" s="6">
+        <v>496323</v>
+      </c>
+      <c r="G80" s="6">
+        <v>451</v>
+      </c>
+      <c r="H80" s="6">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>132406</v>
+      </c>
+      <c r="I80" s="6">
+        <v>58289</v>
+      </c>
+      <c r="J80" s="6">
+        <v>74117</v>
+      </c>
+      <c r="K80" s="6">
+        <v>17.079096025247733</v>
+      </c>
+      <c r="L80" s="6">
+        <v>12.619949247012975</v>
+      </c>
+      <c r="M80" s="7">
+        <v>17.838770667756513</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" hidden="1">
+      <c r="B81" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="10">
+        <f t="shared" si="4"/>
+        <v>995167</v>
+      </c>
+      <c r="E81" s="11">
+        <v>501424</v>
+      </c>
+      <c r="F81" s="11">
+        <v>493291</v>
+      </c>
+      <c r="G81" s="11">
+        <v>452</v>
+      </c>
+      <c r="H81" s="11">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>131276</v>
+      </c>
+      <c r="I81" s="11">
+        <v>57933</v>
+      </c>
+      <c r="J81" s="11">
+        <v>73343</v>
+      </c>
+      <c r="K81" s="11">
+        <v>17.153564282485384</v>
+      </c>
+      <c r="L81" s="11">
+        <v>12.722576860964685</v>
+      </c>
+      <c r="M81" s="12">
+        <v>17.901807651807651</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" hidden="1">
+      <c r="B82" s="4">
+        <v>2019</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="6">
-        <f t="shared" si="3"/>
+      <c r="D82" s="6">
+        <f t="shared" si="4"/>
         <v>990002</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E82" s="6">
         <v>499221</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F82" s="6">
         <v>490327</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G82" s="6">
         <v>454</v>
       </c>
-      <c r="H80" s="6">
+      <c r="H82" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>130579</v>
       </c>
-      <c r="I80" s="6">
+      <c r="I82" s="6">
         <v>57862</v>
       </c>
-      <c r="J80" s="6">
+      <c r="J82" s="6">
         <v>72717</v>
       </c>
-      <c r="K80" s="6">
+      <c r="K82" s="6">
         <v>17.220458930103462</v>
       </c>
-      <c r="L80" s="6">
+      <c r="L82" s="6">
         <v>12.793971465549593</v>
       </c>
-      <c r="M80" s="7">
+      <c r="M82" s="7">
         <v>17.958405195294269</v>
       </c>
     </row>
-    <row r="81" spans="2:13" hidden="1">
-      <c r="B81" s="13">
+    <row r="83" spans="2:13" hidden="1">
+      <c r="B83" s="13">
         <v>2019</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C83" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="15">
-        <f t="shared" ref="D81:D93" si="4">SUM(E81:G81)</f>
+      <c r="D83" s="15">
+        <f t="shared" ref="D83:D95" si="5">SUM(E83:G83)</f>
         <v>985713</v>
       </c>
-      <c r="E81" s="16">
+      <c r="E83" s="16">
         <v>497141</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F83" s="16">
         <v>488120</v>
       </c>
-      <c r="G81" s="16">
+      <c r="G83" s="16">
         <v>452</v>
       </c>
-      <c r="H81" s="16">
+      <c r="H83" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>129833</v>
       </c>
-      <c r="I81" s="16">
+      <c r="I83" s="16">
         <v>57647</v>
       </c>
-      <c r="J81" s="16">
+      <c r="J83" s="16">
         <v>72186</v>
       </c>
-      <c r="K81" s="16">
+      <c r="K83" s="16">
         <v>17.272496309728147</v>
       </c>
-      <c r="L81" s="16">
+      <c r="L83" s="16">
         <v>12.85511387705745</v>
       </c>
-      <c r="M81" s="17">
+      <c r="M83" s="17">
         <v>18.009015550920161</v>
       </c>
     </row>
-    <row r="82" spans="2:13" hidden="1">
-      <c r="B82" s="18">
+    <row r="84" spans="2:13" hidden="1">
+      <c r="B84" s="18">
         <v>2018</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C84" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="20">
-        <f t="shared" si="4"/>
+      <c r="D84" s="20">
+        <f t="shared" si="5"/>
         <v>982856</v>
       </c>
-      <c r="E82" s="20">
+      <c r="E84" s="20">
         <v>496057</v>
       </c>
-      <c r="F82" s="20">
+      <c r="F84" s="20">
         <v>486335</v>
       </c>
-      <c r="G82" s="20">
+      <c r="G84" s="20">
         <v>464</v>
       </c>
-      <c r="H82" s="20">
+      <c r="H84" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>129315</v>
       </c>
-      <c r="I82" s="20">
+      <c r="I84" s="20">
         <v>57599</v>
       </c>
-      <c r="J82" s="20">
+      <c r="J84" s="20">
         <v>71716</v>
       </c>
-      <c r="K82" s="20">
+      <c r="K84" s="20">
         <v>15.55</v>
       </c>
-      <c r="L82" s="20">
+      <c r="L84" s="20">
         <v>11.5</v>
       </c>
-      <c r="M82" s="21">
+      <c r="M84" s="21">
         <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="2:13" hidden="1">
-      <c r="B83" s="8">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D83" s="10">
-        <f t="shared" si="4"/>
-        <v>978058</v>
-      </c>
-      <c r="E83" s="11">
-        <v>493248</v>
-      </c>
-      <c r="F83" s="11">
-        <v>484343</v>
-      </c>
-      <c r="G83" s="11">
-        <v>467</v>
-      </c>
-      <c r="H83" s="11">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>127995</v>
-      </c>
-      <c r="I83" s="11">
-        <v>57117</v>
-      </c>
-      <c r="J83" s="11">
-        <v>70878</v>
-      </c>
-      <c r="K83" s="11">
-        <v>15.611125202215558</v>
-      </c>
-      <c r="L83" s="11">
-        <v>11.579603101683659</v>
-      </c>
-      <c r="M83" s="12">
-        <v>16.657281844021668</v>
-      </c>
-    </row>
-    <row r="84" spans="2:13" hidden="1">
-      <c r="B84" s="4">
-        <v>2018</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" s="6">
-        <f t="shared" si="4"/>
-        <v>971514</v>
-      </c>
-      <c r="E84" s="6">
-        <v>489853</v>
-      </c>
-      <c r="F84" s="6">
-        <v>481195</v>
-      </c>
-      <c r="G84" s="6">
-        <v>466</v>
-      </c>
-      <c r="H84" s="6">
-        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>126537</v>
-      </c>
-      <c r="I84" s="6">
-        <v>56599</v>
-      </c>
-      <c r="J84" s="6">
-        <v>69938</v>
-      </c>
-      <c r="K84" s="6">
-        <v>15.692013983030227</v>
-      </c>
-      <c r="L84" s="6">
-        <v>11.695425480294306</v>
-      </c>
-      <c r="M84" s="7">
-        <v>16.724397819345807</v>
       </c>
     </row>
     <row r="85" spans="2:13" hidden="1">
@@ -4236,39 +4236,39 @@
         <v>2018</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D85" s="10">
-        <f t="shared" si="4"/>
-        <v>965544</v>
+        <f t="shared" si="5"/>
+        <v>978058</v>
       </c>
       <c r="E85" s="11">
-        <v>486879</v>
+        <v>493248</v>
       </c>
       <c r="F85" s="11">
-        <v>478202</v>
+        <v>484343</v>
       </c>
       <c r="G85" s="11">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="H85" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>125592</v>
+        <v>127995</v>
       </c>
       <c r="I85" s="11">
-        <v>56443</v>
+        <v>57117</v>
       </c>
       <c r="J85" s="11">
-        <v>69149</v>
+        <v>70878</v>
       </c>
       <c r="K85" s="11">
-        <v>15.766115172800014</v>
+        <v>15.611125202215558</v>
       </c>
       <c r="L85" s="11">
-        <v>11.775922614497736</v>
+        <v>11.579603101683659</v>
       </c>
       <c r="M85" s="12">
-        <v>16.795398144097401</v>
+        <v>16.657281844021668</v>
       </c>
     </row>
     <row r="86" spans="2:13" hidden="1">
@@ -4276,39 +4276,39 @@
         <v>2018</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D86" s="6">
-        <f t="shared" si="4"/>
-        <v>960111</v>
+        <f t="shared" si="5"/>
+        <v>971514</v>
       </c>
       <c r="E86" s="6">
-        <v>483912</v>
+        <v>489853</v>
       </c>
       <c r="F86" s="6">
-        <v>475735</v>
+        <v>481195</v>
       </c>
       <c r="G86" s="6">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H86" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>124463</v>
+        <v>126537</v>
       </c>
       <c r="I86" s="6">
-        <v>56029</v>
+        <v>56599</v>
       </c>
       <c r="J86" s="6">
-        <v>68434</v>
+        <v>69938</v>
       </c>
       <c r="K86" s="6">
-        <v>15.828890174645572</v>
+        <v>15.692013983030227</v>
       </c>
       <c r="L86" s="6">
-        <v>11.859889509332092</v>
+        <v>11.695425480294306</v>
       </c>
       <c r="M86" s="7">
-        <v>16.84972398287292</v>
+        <v>16.724397819345807</v>
       </c>
     </row>
     <row r="87" spans="2:13" hidden="1">
@@ -4316,39 +4316,39 @@
         <v>2018</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D87" s="10">
-        <f t="shared" si="4"/>
-        <v>953323</v>
+        <f t="shared" si="5"/>
+        <v>965544</v>
       </c>
       <c r="E87" s="11">
-        <v>480495</v>
+        <v>486879</v>
       </c>
       <c r="F87" s="11">
-        <v>472364</v>
+        <v>478202</v>
       </c>
       <c r="G87" s="11">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H87" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>123737</v>
+        <v>125592</v>
       </c>
       <c r="I87" s="11">
-        <v>55960</v>
+        <v>56443</v>
       </c>
       <c r="J87" s="11">
-        <v>67777</v>
+        <v>69149</v>
       </c>
       <c r="K87" s="11">
-        <v>15.900131480954339</v>
+        <v>15.766115172800014</v>
       </c>
       <c r="L87" s="11">
-        <v>11.93027888990358</v>
+        <v>11.775922614497736</v>
       </c>
       <c r="M87" s="12">
-        <v>16.922447322032493</v>
+        <v>16.795398144097401</v>
       </c>
     </row>
     <row r="88" spans="2:13" hidden="1">
@@ -4356,39 +4356,39 @@
         <v>2018</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D88" s="6">
-        <f t="shared" si="4"/>
-        <v>947851</v>
+        <f t="shared" si="5"/>
+        <v>960111</v>
       </c>
       <c r="E88" s="6">
-        <v>477880</v>
+        <v>483912</v>
       </c>
       <c r="F88" s="6">
-        <v>469513</v>
+        <v>475735</v>
       </c>
       <c r="G88" s="6">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="H88" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>122946</v>
+        <v>124463</v>
       </c>
       <c r="I88" s="6">
-        <v>55790</v>
+        <v>56029</v>
       </c>
       <c r="J88" s="6">
-        <v>67156</v>
+        <v>68434</v>
       </c>
       <c r="K88" s="6">
-        <v>15.97</v>
+        <v>15.828890174645572</v>
       </c>
       <c r="L88" s="6">
-        <v>12.01</v>
+        <v>11.859889509332092</v>
       </c>
       <c r="M88" s="7">
-        <v>16.98</v>
+        <v>16.84972398287292</v>
       </c>
     </row>
     <row r="89" spans="2:13" hidden="1">
@@ -4396,39 +4396,39 @@
         <v>2018</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D89" s="10">
-        <f t="shared" si="4"/>
-        <v>944527</v>
+        <f t="shared" si="5"/>
+        <v>953323</v>
       </c>
       <c r="E89" s="11">
-        <v>476241</v>
+        <v>480495</v>
       </c>
       <c r="F89" s="11">
-        <v>467827</v>
+        <v>472364</v>
       </c>
       <c r="G89" s="11">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H89" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>122105</v>
+        <v>123737</v>
       </c>
       <c r="I89" s="11">
-        <v>55617</v>
+        <v>55960</v>
       </c>
       <c r="J89" s="11">
-        <v>66488</v>
+        <v>67777</v>
       </c>
       <c r="K89" s="11">
-        <v>16.02</v>
+        <v>15.900131480954339</v>
       </c>
       <c r="L89" s="11">
-        <v>12.1</v>
+        <v>11.93027888990358</v>
       </c>
       <c r="M89" s="12">
-        <v>17.03</v>
+        <v>16.922447322032493</v>
       </c>
     </row>
     <row r="90" spans="2:13" hidden="1">
@@ -4436,39 +4436,39 @@
         <v>2018</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D90" s="6">
-        <f t="shared" si="4"/>
-        <v>936533</v>
+        <f t="shared" si="5"/>
+        <v>947851</v>
       </c>
       <c r="E90" s="6">
-        <v>472271</v>
+        <v>477880</v>
       </c>
       <c r="F90" s="6">
-        <v>463807</v>
+        <v>469513</v>
       </c>
       <c r="G90" s="6">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H90" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>121075</v>
+        <v>122946</v>
       </c>
       <c r="I90" s="6">
-        <v>55199</v>
+        <v>55790</v>
       </c>
       <c r="J90" s="6">
-        <v>65876</v>
+        <v>67156</v>
       </c>
       <c r="K90" s="6">
-        <v>16.09</v>
+        <v>15.97</v>
       </c>
       <c r="L90" s="6">
-        <v>12.15</v>
+        <v>12.01</v>
       </c>
       <c r="M90" s="7">
-        <v>17.100000000000001</v>
+        <v>16.98</v>
       </c>
     </row>
     <row r="91" spans="2:13" hidden="1">
@@ -4476,39 +4476,39 @@
         <v>2018</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D91" s="10">
-        <f t="shared" si="4"/>
-        <v>930205</v>
+        <f t="shared" si="5"/>
+        <v>944527</v>
       </c>
       <c r="E91" s="11">
-        <v>469020</v>
+        <v>476241</v>
       </c>
       <c r="F91" s="11">
-        <v>460731</v>
+        <v>467827</v>
       </c>
       <c r="G91" s="11">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="H91" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
-        <v>120039</v>
+        <v>122105</v>
       </c>
       <c r="I91" s="11">
-        <v>54921</v>
+        <v>55617</v>
       </c>
       <c r="J91" s="11">
-        <v>65118</v>
+        <v>66488</v>
       </c>
       <c r="K91" s="11">
-        <v>16.160723713583874</v>
+        <v>16.02</v>
       </c>
       <c r="L91" s="11">
-        <v>12.219768117028636</v>
+        <v>12.1</v>
       </c>
       <c r="M91" s="12">
-        <v>17.169355262035737</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="92" spans="2:13" hidden="1">
@@ -4516,95 +4516,175 @@
         <v>2018</v>
       </c>
       <c r="C92" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="6">
+        <f t="shared" si="5"/>
+        <v>936533</v>
+      </c>
+      <c r="E92" s="6">
+        <v>472271</v>
+      </c>
+      <c r="F92" s="6">
+        <v>463807</v>
+      </c>
+      <c r="G92" s="6">
+        <v>455</v>
+      </c>
+      <c r="H92" s="6">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>121075</v>
+      </c>
+      <c r="I92" s="6">
+        <v>55199</v>
+      </c>
+      <c r="J92" s="6">
+        <v>65876</v>
+      </c>
+      <c r="K92" s="6">
+        <v>16.09</v>
+      </c>
+      <c r="L92" s="6">
+        <v>12.15</v>
+      </c>
+      <c r="M92" s="7">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" hidden="1">
+      <c r="B93" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="10">
+        <f t="shared" si="5"/>
+        <v>930205</v>
+      </c>
+      <c r="E93" s="11">
+        <v>469020</v>
+      </c>
+      <c r="F93" s="11">
+        <v>460731</v>
+      </c>
+      <c r="G93" s="11">
+        <v>454</v>
+      </c>
+      <c r="H93" s="11">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>120039</v>
+      </c>
+      <c r="I93" s="11">
+        <v>54921</v>
+      </c>
+      <c r="J93" s="11">
+        <v>65118</v>
+      </c>
+      <c r="K93" s="11">
+        <v>16.160723713583874</v>
+      </c>
+      <c r="L93" s="11">
+        <v>12.219768117028636</v>
+      </c>
+      <c r="M93" s="12">
+        <v>17.169355262035737</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" hidden="1">
+      <c r="B94" s="4">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D92" s="6">
-        <f t="shared" si="4"/>
+      <c r="D94" s="6">
+        <f t="shared" si="5"/>
         <v>924012</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E94" s="6">
         <v>466319</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F94" s="6">
         <v>457242</v>
       </c>
-      <c r="G92" s="6">
+      <c r="G94" s="6">
         <v>451</v>
       </c>
-      <c r="H92" s="6">
+      <c r="H94" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>118763</v>
       </c>
-      <c r="I92" s="6">
+      <c r="I94" s="6">
         <v>54503</v>
       </c>
-      <c r="J92" s="6">
+      <c r="J94" s="6">
         <v>64260</v>
       </c>
-      <c r="K92" s="6">
+      <c r="K94" s="6">
         <v>16.222653310134305</v>
       </c>
-      <c r="L92" s="6">
+      <c r="L94" s="6">
         <v>12.303791963827118</v>
       </c>
-      <c r="M92" s="7">
+      <c r="M94" s="7">
         <v>17.220716288635032</v>
       </c>
     </row>
-    <row r="93" spans="2:13" hidden="1">
-      <c r="B93" s="13">
+    <row r="95" spans="2:13" hidden="1">
+      <c r="B95" s="13">
         <v>2018</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C95" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D93" s="15">
-        <f t="shared" si="4"/>
+      <c r="D95" s="15">
+        <f t="shared" si="5"/>
         <v>920526</v>
       </c>
-      <c r="E93" s="16">
+      <c r="E95" s="16">
         <v>464622</v>
       </c>
-      <c r="F93" s="16">
+      <c r="F95" s="16">
         <v>455453</v>
       </c>
-      <c r="G93" s="16">
+      <c r="G95" s="16">
         <v>451</v>
       </c>
-      <c r="H93" s="16">
+      <c r="H95" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>118260</v>
       </c>
-      <c r="I93" s="16">
+      <c r="I95" s="16">
         <v>54504</v>
       </c>
-      <c r="J93" s="16">
+      <c r="J95" s="16">
         <v>63756</v>
       </c>
-      <c r="K93" s="16">
+      <c r="K95" s="16">
         <v>16.29</v>
       </c>
-      <c r="L93" s="16">
+      <c r="L95" s="16">
         <v>12.37</v>
       </c>
-      <c r="M93" s="17">
+      <c r="M95" s="17">
         <v>17.28</v>
       </c>
-    </row>
-    <row r="94" spans="2:13">
-      <c r="B94" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M94" s="22"/>
-    </row>
-    <row r="95" spans="2:13">
-      <c r="B95" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M95" s="22"/>
     </row>
     <row r="96" spans="2:13">
       <c r="B96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M96" s="22"/>
+    </row>
+    <row r="97" spans="2:13">
+      <c r="B97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M97" s="22"/>
+    </row>
+    <row r="98" spans="2:13">
+      <c r="B98" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Flota_Antigúedad_AF.xlsx
+++ b/Flota_Antigúedad_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2145256C-8DAC-4146-B5D0-4CD29C64DC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A32D9F6-7728-43A1-B25B-6D2F1129C321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_15.2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="29">
   <si>
     <t>Carga</t>
   </si>
@@ -125,7 +125,7 @@
     <t>Antigüedad promedio</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -365,7 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -449,6 +449,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -724,8 +729,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:M95" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
-  <autoFilter ref="B5:M95" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:M96" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
+  <autoFilter ref="B5:M96" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -978,7 +983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:P98"/>
+  <dimension ref="B2:P99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1071,3620 +1076,3660 @@
       </c>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="5">
+      <c r="B6" s="9">
         <v>2025</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="37">
+        <f>SUM(E6:G6)</f>
+        <v>1480576</v>
+      </c>
+      <c r="E6" s="38">
+        <v>744719</v>
+      </c>
+      <c r="F6" s="38">
+        <v>735160</v>
+      </c>
+      <c r="G6" s="38">
+        <v>697</v>
+      </c>
+      <c r="H6" s="38">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>189492</v>
+      </c>
+      <c r="I6" s="37">
+        <v>73760</v>
+      </c>
+      <c r="J6" s="38">
+        <v>115732</v>
+      </c>
+      <c r="K6" s="11">
+        <v>18.939120782618119</v>
+      </c>
+      <c r="L6" s="11">
+        <v>15.764549426888737</v>
+      </c>
+      <c r="M6" s="11">
+        <v>19.764586374189459</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="5">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6">
-        <f>SUM(E6:G6)</f>
+      <c r="D7" s="39">
+        <f>SUM(E7:G7)</f>
         <v>1477953</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E7" s="39">
         <v>744628</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F7" s="39">
         <v>732634</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G7" s="39">
         <v>691</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H7" s="39">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>188967</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I7" s="39">
         <v>73847</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J7" s="39">
         <v>115120</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K7" s="6">
         <v>18.993057977024765</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L7" s="6">
         <v>15.831536723343229</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M7" s="6">
         <v>19.807483736845786</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="9">
+    <row r="8" spans="2:16">
+      <c r="B8" s="9">
         <v>2025</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="10">
-        <f>SUM(E7:G7)</f>
+      <c r="D8" s="37">
+        <f>SUM(E8:G8)</f>
         <v>1467869</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E8" s="38">
         <v>738785</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F8" s="38">
         <v>728411</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G8" s="38">
         <v>673</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H8" s="38">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>188447</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I8" s="37">
         <v>73791</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J8" s="38">
         <v>114656</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K8" s="11">
         <v>19.058922726698931</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L8" s="11">
         <v>15.88138309445096</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M8" s="11">
         <v>19.887317690532427</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="5">
+    <row r="9" spans="2:16">
+      <c r="B9" s="5">
         <v>2025</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6">
-        <f t="shared" ref="D8:D13" si="0">SUM(E8:G8)</f>
+      <c r="D9" s="39">
+        <f t="shared" ref="D9:D14" si="0">SUM(E9:G9)</f>
         <v>1462190</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="39">
         <v>736441</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="39">
         <v>725074</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G9" s="39">
         <v>675</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H9" s="39">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>188131</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I9" s="39">
         <v>73852</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J9" s="39">
         <v>114279</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K9" s="6">
         <v>19.115429007193057</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L9" s="6">
         <v>15.939308247976143</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M9" s="6">
         <v>19.944664949398529</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="9">
+    <row r="10" spans="2:16">
+      <c r="B10" s="9">
         <v>2025</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D10" s="37">
         <f t="shared" si="0"/>
         <v>1454977</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E10" s="38">
         <v>732842</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="38">
         <v>721468</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G10" s="38">
         <v>667</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H10" s="38">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>187465</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I10" s="37">
         <v>73738</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J10" s="38">
         <v>113727</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K10" s="11">
         <v>19.18470984148254</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L10" s="11">
         <v>16.007019977062384</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M10" s="11">
         <v>20.020610172451907</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="5">
+    <row r="11" spans="2:16">
+      <c r="B11" s="5">
         <v>2025</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D11" s="39">
         <f t="shared" si="0"/>
         <v>1448239</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E11" s="39">
         <v>729319</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="39">
         <v>718257</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G11" s="39">
         <v>663</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H11" s="39">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>186866</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I11" s="39">
         <v>73570</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J11" s="39">
         <v>113296</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K11" s="6">
         <v>19.252675224939154</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L11" s="6">
         <v>16.075695953249923</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M11" s="6">
         <v>20.096500982423329</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="13">
+    <row r="12" spans="2:16">
+      <c r="B12" s="13">
         <v>2025</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D12" s="40">
         <f t="shared" si="0"/>
         <v>1441492</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E12" s="41">
         <v>726109</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F12" s="41">
         <v>714727</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G12" s="41">
         <v>656</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H12" s="41">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>186423</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I12" s="40">
         <v>73458</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J12" s="41">
         <v>112965</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K12" s="29">
         <v>19.321609528661387</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L12" s="29">
         <v>16.134200179162441</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M12" s="30">
         <v>20.172519552849504</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="4">
+    <row r="13" spans="2:16">
+      <c r="B13" s="4">
         <v>2024</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="39">
         <f t="shared" si="0"/>
         <v>1435884</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="39">
         <v>723462</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="39">
         <v>711776</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G13" s="39">
         <v>646</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H13" s="39">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>186064</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I13" s="39">
         <v>73453</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J13" s="39">
         <v>112611</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K13" s="6">
         <v>18.404813538748488</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L13" s="6">
         <v>15.191272895347836</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M13" s="7">
         <v>19.269418435246081</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="8">
+    <row r="14" spans="2:16">
+      <c r="B14" s="8">
         <v>2024</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D14" s="37">
         <f t="shared" si="0"/>
         <v>1428265</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="38">
         <v>719185</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="38">
         <v>708450</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G14" s="38">
         <v>630</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H14" s="38">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>184987</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I14" s="37">
         <v>73204</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J14" s="38">
         <v>111783</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K14" s="11">
         <v>18.476960502833276</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L14" s="11">
         <v>15.270154118938088</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M14" s="12">
         <v>19.35768543559724</v>
       </c>
-      <c r="P13"/>
-    </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="4">
+      <c r="P14"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="4">
         <v>2024</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="6">
-        <f t="shared" ref="D14" si="1">SUM(E14:G14)</f>
+      <c r="D15" s="39">
+        <f t="shared" ref="D15" si="1">SUM(E15:G15)</f>
         <v>1419744</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="39">
         <v>714747</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="39">
         <v>704375</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G15" s="39">
         <v>622</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H15" s="39">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>184353</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I15" s="39">
         <v>73206</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J15" s="39">
         <v>111147</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K15" s="6">
         <v>18.559178035204791</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L15" s="6">
         <v>15.333984258460672</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M15" s="7">
         <v>19.45495538980926</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="8">
+    <row r="16" spans="2:16">
+      <c r="B16" s="8">
         <v>2024</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="10">
-        <f>SUM(E15:G15)</f>
+      <c r="D16" s="37">
+        <f>SUM(E16:G16)</f>
         <v>1409947</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="38">
         <v>709391</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="38">
         <v>699945</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G16" s="38">
         <v>611</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H16" s="38">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>183444</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I16" s="37">
         <v>72959</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J16" s="38">
         <v>110485</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K16" s="11">
         <v>18.653800273735229</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L16" s="11">
         <v>15.41505309522252</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M16" s="12">
         <v>19.569322136875151</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="4">
+    <row r="17" spans="2:13">
+      <c r="B17" s="4">
         <v>2024</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="6">
-        <f>SUM(E16:G16)</f>
+      <c r="D17" s="39">
+        <f>SUM(E17:G17)</f>
         <v>1401613</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="39">
         <v>704941</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="39">
         <v>696064</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G17" s="39">
         <v>608</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H17" s="39">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>182766</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I17" s="39">
         <v>72808</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J17" s="39">
         <v>109958</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K17" s="6">
         <v>18.731302694644619</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L17" s="6">
         <v>15.486441679524638</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M17" s="7">
         <v>19.663221461086813</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="8">
+    <row r="18" spans="2:13">
+      <c r="B18" s="8">
         <v>2024</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="10">
-        <f t="shared" ref="D17:D19" si="2">SUM(E17:G17)</f>
+      <c r="D18" s="37">
+        <f t="shared" ref="D18:D20" si="2">SUM(E18:G18)</f>
         <v>1392231</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E18" s="38">
         <v>700064</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F18" s="38">
         <v>691573</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G18" s="38">
         <v>594</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H18" s="38">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>182096</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I18" s="38">
         <v>72722</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J18" s="38">
         <v>109374</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K18" s="11">
         <v>18.818005976871554</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L18" s="11">
         <v>15.548683112204552</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M18" s="12">
         <v>19.76646992274992</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="4">
+    <row r="19" spans="2:13">
+      <c r="B19" s="4">
         <v>2024</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="39">
         <f t="shared" si="2"/>
         <v>1381670</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E19" s="39">
         <v>694997</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F19" s="39">
         <v>686081</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G19" s="39">
         <v>592</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H19" s="39">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>181209</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I19" s="39">
         <v>72604</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J19" s="39">
         <v>108605</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K19" s="6">
         <v>18.917404420570612</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L19" s="6">
         <v>15.6321154026566</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M19" s="7">
         <v>19.872406643481913</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="8">
+    <row r="20" spans="2:13">
+      <c r="B20" s="8">
         <v>2024</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D20" s="37">
         <f t="shared" si="2"/>
         <v>1364076</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E20" s="38">
         <v>686433</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="38">
         <v>677060</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G20" s="38">
         <v>583</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H20" s="38">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>180169</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I20" s="38">
         <v>72197</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J20" s="38">
         <v>107972</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K20" s="11">
         <v>19.07390024500182</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L20" s="11">
         <v>15.728466051318485</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M20" s="11">
         <v>20.044184938661164</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="4">
+    <row r="21" spans="2:13">
+      <c r="B21" s="4">
         <v>2024</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="6">
-        <f t="shared" ref="D20:D50" si="3">SUM(E20:G20)</f>
+      <c r="D21" s="39">
+        <f t="shared" ref="D21:D51" si="3">SUM(E21:G21)</f>
         <v>1362046</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="39">
         <v>685435</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F21" s="39">
         <v>676046</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G21" s="39">
         <v>565</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H21" s="39">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>179118</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I21" s="39">
         <v>71981</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J21" s="39">
         <v>107137</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K21" s="6">
         <v>19.118977099167271</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L21" s="6">
         <v>15.827370783505843</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M21" s="7">
         <v>20.082257252693545</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
-      <c r="B21" s="8">
+    <row r="22" spans="2:13">
+      <c r="B22" s="8">
         <v>2024</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D22" s="37">
         <f t="shared" si="3"/>
         <v>1353988</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="38">
         <v>681551</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F22" s="38">
         <v>671878</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G22" s="38">
         <v>559</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H22" s="38">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>178140</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I22" s="38">
         <v>71842</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J22" s="38">
         <v>106298</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K22" s="11">
         <v>19.204794560349551</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L22" s="11">
         <v>15.921746940608513</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M22" s="12">
         <v>20.167528182043604</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="4">
+    <row r="23" spans="2:13">
+      <c r="B23" s="4">
         <v>2024</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D23" s="39">
         <f t="shared" si="3"/>
         <v>1345055</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E23" s="39">
         <v>677153</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F23" s="39">
         <v>667343</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G23" s="39">
         <v>559</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H23" s="39">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>177618</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I23" s="39">
         <v>71797</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J23" s="39">
         <v>105821</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K23" s="6">
         <v>19.298350846257247</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L23" s="6">
         <v>15.980300420002475</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M23" s="7">
         <v>20.271950356861744</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
-      <c r="B23" s="13">
+    <row r="24" spans="2:13">
+      <c r="B24" s="13">
         <v>2024</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D24" s="40">
         <f t="shared" si="3"/>
         <v>1337961</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E24" s="41">
         <v>673757</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F24" s="41">
         <v>663646</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G24" s="41">
         <v>558</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H24" s="41">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>176858</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I24" s="41">
         <v>71641</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J24" s="41">
         <v>105217</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K24" s="16">
         <v>19.37957723272276</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L24" s="16">
         <v>16.061088556921373</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M24" s="17">
         <v>20.355880532595581</v>
       </c>
     </row>
-    <row r="24" spans="2:13" hidden="1">
-      <c r="B24" s="18">
+    <row r="25" spans="2:13" hidden="1">
+      <c r="B25" s="18">
         <v>2023</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D25" s="20">
         <f t="shared" si="3"/>
         <v>1331921</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E25" s="20">
         <v>671002</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F25" s="20">
         <v>660365</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G25" s="20">
         <v>554</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H25" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>176251</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I25" s="20">
         <v>71562</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J25" s="20">
         <v>104689</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K25" s="20">
         <v>18.475869218860481</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L25" s="20">
         <v>15.134234699377592</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M25" s="21">
         <v>19.458281793496891</v>
       </c>
     </row>
-    <row r="25" spans="2:13" hidden="1">
-      <c r="B25" s="8">
+    <row r="26" spans="2:13" hidden="1">
+      <c r="B26" s="8">
         <v>2023</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D26" s="10">
         <f t="shared" si="3"/>
         <v>1324591</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="11">
         <v>667021</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F26" s="11">
         <v>657017</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G26" s="11">
         <v>553</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H26" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>175311</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I26" s="11">
         <v>71379</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J26" s="11">
         <v>103932</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K26" s="11">
         <v>18.551437990754653</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L26" s="11">
         <v>15.22355699300101</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M26" s="12">
         <v>19.543477641633473</v>
       </c>
     </row>
-    <row r="26" spans="2:13" hidden="1">
-      <c r="B26" s="4">
+    <row r="27" spans="2:13" hidden="1">
+      <c r="B27" s="4">
         <v>2023</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D27" s="6">
         <f t="shared" si="3"/>
         <v>1316689</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E27" s="6">
         <v>662911</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F27" s="6">
         <v>653227</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G27" s="6">
         <v>551</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H27" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>174393</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I27" s="6">
         <v>71146</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J27" s="6">
         <v>103247</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K27" s="6">
         <v>18.63639333901811</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L27" s="6">
         <v>15.305362027145584</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M27" s="7">
         <v>19.637007079381696</v>
       </c>
     </row>
-    <row r="27" spans="2:13" hidden="1">
-      <c r="B27" s="8">
+    <row r="28" spans="2:13" hidden="1">
+      <c r="B28" s="8">
         <v>2023</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D28" s="10">
         <f t="shared" si="3"/>
         <v>1309236</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E28" s="11">
         <v>659020</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F28" s="11">
         <v>649665</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G28" s="11">
         <v>551</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H28" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>173599</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I28" s="11">
         <v>71029</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J28" s="11">
         <v>102570</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K28" s="11">
         <v>18.719585450561432</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L28" s="11">
         <v>15.387882418677528</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M28" s="12">
         <v>19.730128068950865</v>
       </c>
     </row>
-    <row r="28" spans="2:13" hidden="1">
-      <c r="B28" s="4">
+    <row r="29" spans="2:13" hidden="1">
+      <c r="B29" s="4">
         <v>2023</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D29" s="6">
         <f t="shared" si="3"/>
         <v>1302003</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E29" s="6">
         <v>655458</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F29" s="6">
         <v>645999</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G29" s="6">
         <v>546</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H29" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>172764</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I29" s="6">
         <v>70834</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J29" s="6">
         <v>101930</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K29" s="6">
         <v>18.802238606016331</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L29" s="6">
         <v>15.470034266398091</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M29" s="7">
         <v>19.817370449365175</v>
       </c>
     </row>
-    <row r="29" spans="2:13" hidden="1">
-      <c r="B29" s="8">
+    <row r="30" spans="2:13" hidden="1">
+      <c r="B30" s="8">
         <v>2023</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D30" s="10">
         <f t="shared" si="3"/>
         <v>1294209</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E30" s="11">
         <v>651761</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F30" s="11">
         <v>641907</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G30" s="11">
         <v>541</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H30" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>172137</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I30" s="11">
         <v>70783</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J30" s="11">
         <v>101354</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K30" s="11">
         <v>18.888086750966192</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L30" s="11">
         <v>15.535631502814621</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M30" s="12">
         <v>19.908092076696825</v>
       </c>
     </row>
-    <row r="30" spans="2:13" hidden="1">
-      <c r="B30" s="4">
+    <row r="31" spans="2:13" hidden="1">
+      <c r="B31" s="4">
         <v>2023</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D31" s="6">
         <f t="shared" si="3"/>
         <v>1286042</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E31" s="6">
         <v>647906</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F31" s="6">
         <v>637598</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G31" s="6">
         <v>538</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H31" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>171516</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I31" s="6">
         <v>70673</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J31" s="6">
         <v>100843</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K31" s="6">
         <v>18.982887674843173</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L31" s="6">
         <v>15.606316611861285</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M31" s="7">
         <v>20.002412386982066</v>
       </c>
     </row>
-    <row r="31" spans="2:13" hidden="1">
-      <c r="B31" s="8">
+    <row r="32" spans="2:13" hidden="1">
+      <c r="B32" s="8">
         <v>2023</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D32" s="10">
         <f t="shared" si="3"/>
         <v>1279902</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E32" s="11">
         <v>645139</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F32" s="11">
         <v>634226</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G32" s="11">
         <v>537</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H32" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>170681</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I32" s="11">
         <v>70483</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J32" s="11">
         <v>100198</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K32" s="11">
         <v>19.060761520669001</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L32" s="11">
         <v>15.688172672998164</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M32" s="12">
         <v>20.079559598784137</v>
       </c>
     </row>
-    <row r="32" spans="2:13" hidden="1">
-      <c r="B32" s="4">
+    <row r="33" spans="2:13" hidden="1">
+      <c r="B33" s="4">
         <v>2023</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D33" s="6">
         <f t="shared" si="3"/>
         <v>1273243</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E33" s="6">
         <v>641751</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F33" s="6">
         <v>630955</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G33" s="6">
         <v>537</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H33" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>170020</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I33" s="6">
         <v>70335</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J33" s="6">
         <v>99685</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K33" s="6">
         <v>19.1410877741165</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L33" s="6">
         <v>15.757763792495</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M33" s="7">
         <v>20.166095572893536</v>
       </c>
     </row>
-    <row r="33" spans="2:13" hidden="1">
-      <c r="B33" s="8">
+    <row r="34" spans="2:13" hidden="1">
+      <c r="B34" s="8">
         <v>2023</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D34" s="10">
         <f t="shared" si="3"/>
         <v>1267813</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E34" s="11">
         <v>639200</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F34" s="11">
         <v>628078</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G34" s="11">
         <v>535</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H34" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>169398</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I34" s="11">
         <v>70212</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J34" s="11">
         <v>99186</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K34" s="11">
         <v>19.207652247270783</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L34" s="11">
         <v>15.818386285552368</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M34" s="12">
         <v>20.231362640800999</v>
       </c>
     </row>
-    <row r="34" spans="2:13" hidden="1">
-      <c r="B34" s="4">
+    <row r="35" spans="2:13" hidden="1">
+      <c r="B35" s="4">
         <v>2023</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D35" s="6">
         <f t="shared" si="3"/>
         <v>1261816</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E35" s="6">
         <v>636167</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F35" s="6">
         <v>625114</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G35" s="6">
         <v>535</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H35" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>168270</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I35" s="6">
         <v>70028</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J35" s="6">
         <v>98242</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K35" s="6">
         <v>19.287032781621644</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L35" s="6">
         <v>15.924098175551196</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M35" s="7">
         <v>20.308953466621187</v>
       </c>
     </row>
-    <row r="35" spans="2:13" hidden="1">
-      <c r="B35" s="13">
+    <row r="36" spans="2:13" hidden="1">
+      <c r="B36" s="13">
         <v>2023</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D36" s="15">
         <f t="shared" si="3"/>
         <v>1256959</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E36" s="16">
         <v>633934</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F36" s="16">
         <v>622491</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G36" s="16">
         <v>534</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H36" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>167855</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I36" s="16">
         <v>70043</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J36" s="16">
         <v>97812</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K36" s="16">
         <v>19.347213328839835</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L36" s="16">
         <v>15.971731554019838</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M36" s="17">
         <v>20.368738701505205</v>
       </c>
     </row>
-    <row r="36" spans="2:13" hidden="1">
-      <c r="B36" s="18">
+    <row r="37" spans="2:13" hidden="1">
+      <c r="B37" s="18">
         <v>2022</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C37" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D37" s="20">
         <f t="shared" si="3"/>
         <v>1253020</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E37" s="20">
         <v>632252</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F37" s="20">
         <v>620240</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G37" s="20">
         <v>528</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H37" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>167359</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I37" s="20">
         <v>70056</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J37" s="20">
         <v>97303</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K37" s="20">
         <v>18.42307890053252</v>
       </c>
-      <c r="L36" s="20">
+      <c r="L37" s="20">
         <v>15.042250491458482</v>
       </c>
-      <c r="M36" s="21">
+      <c r="M37" s="21">
         <v>19.442766491841866</v>
       </c>
     </row>
-    <row r="37" spans="2:13" hidden="1">
-      <c r="B37" s="8">
+    <row r="38" spans="2:13" hidden="1">
+      <c r="B38" s="8">
         <v>2022</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D38" s="10">
         <f t="shared" si="3"/>
         <v>1248052</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E38" s="11">
         <v>629746</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F38" s="11">
         <v>617778</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G38" s="11">
         <v>528</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H38" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>166178</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I38" s="11">
         <v>69821</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J38" s="11">
         <v>96357</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K38" s="11">
         <v>18.489979500630259</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L38" s="11">
         <v>15.145163619733058</v>
       </c>
-      <c r="M37" s="12">
+      <c r="M38" s="12">
         <v>19.503375964277662</v>
       </c>
     </row>
-    <row r="38" spans="2:13" hidden="1">
-      <c r="B38" s="4">
+    <row r="39" spans="2:13" hidden="1">
+      <c r="B39" s="4">
         <v>2022</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D39" s="6">
         <f t="shared" si="3"/>
         <v>1243495</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E39" s="6">
         <v>627591</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F39" s="6">
         <v>615376</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G39" s="6">
         <v>528</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H39" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>165354</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I39" s="6">
         <v>69675</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J39" s="6">
         <v>95679</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K39" s="6">
         <v>18.547631541388647</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L39" s="6">
         <v>15.219299200503164</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M39" s="7">
         <v>19.558707820857851</v>
       </c>
     </row>
-    <row r="39" spans="2:13" hidden="1">
-      <c r="B39" s="8">
+    <row r="40" spans="2:13" hidden="1">
+      <c r="B40" s="8">
         <v>2022</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C40" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D40" s="10">
         <f t="shared" si="3"/>
         <v>1239858</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E40" s="11">
         <v>625802</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F40" s="11">
         <v>613527</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G40" s="11">
         <v>529</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H40" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>164931</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I40" s="11">
         <v>69723</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J40" s="11">
         <v>95208</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K40" s="11">
         <v>18.59142751342344</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L40" s="11">
         <v>15.268857886025064</v>
       </c>
-      <c r="M39" s="12">
+      <c r="M40" s="12">
         <v>19.601036749642859</v>
       </c>
     </row>
-    <row r="40" spans="2:13" hidden="1">
-      <c r="B40" s="4">
+    <row r="41" spans="2:13" hidden="1">
+      <c r="B41" s="4">
         <v>2022</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D41" s="6">
         <f t="shared" si="3"/>
         <v>1234757</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E41" s="6">
         <v>623225</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F41" s="6">
         <v>611005</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G41" s="6">
         <v>527</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H41" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>166002</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I41" s="6">
         <v>69645</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J41" s="6">
         <v>96357</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K41" s="6">
         <v>18.633291483125653</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L41" s="6">
         <v>15.188636281490584</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M41" s="7">
         <v>19.665687352079907</v>
       </c>
     </row>
-    <row r="41" spans="2:13" hidden="1">
-      <c r="B41" s="8">
+    <row r="42" spans="2:13" hidden="1">
+      <c r="B42" s="8">
         <v>2022</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D42" s="10">
         <f t="shared" si="3"/>
         <v>1227595</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E42" s="11">
         <v>619408</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F42" s="11">
         <v>607662</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G42" s="11">
         <v>525</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H42" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>163526</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I42" s="11">
         <v>69586</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J42" s="11">
         <v>93940</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K42" s="11">
         <v>18.738775316483004</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L42" s="11">
         <v>15.421364186734833</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M42" s="12">
         <v>19.756386743471182</v>
       </c>
     </row>
-    <row r="42" spans="2:13" hidden="1">
-      <c r="B42" s="4">
+    <row r="43" spans="2:13" hidden="1">
+      <c r="B43" s="4">
         <v>2022</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D43" s="6">
         <f t="shared" si="3"/>
         <v>1225289</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E43" s="6">
         <v>618040</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F43" s="6">
         <v>606724</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G43" s="6">
         <v>525</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H43" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>163070</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I43" s="6">
         <v>69430</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J43" s="6">
         <v>93640</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K43" s="6">
         <v>18.751951602280965</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L43" s="6">
         <v>15.452272030416385</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M43" s="7">
         <v>19.768709145039157</v>
       </c>
     </row>
-    <row r="43" spans="2:13" hidden="1">
-      <c r="B43" s="8">
+    <row r="44" spans="2:13" hidden="1">
+      <c r="B44" s="8">
         <v>2022</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D44" s="10">
         <f t="shared" si="3"/>
         <v>1222511</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E44" s="11">
         <v>616795</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F44" s="11">
         <v>605191</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G44" s="11">
         <v>525</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H44" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>162777</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I44" s="11">
         <v>69624</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J44" s="11">
         <v>93153</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K44" s="11">
         <v>18.804625051362581</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L44" s="11">
         <v>15.510440664221605</v>
       </c>
-      <c r="M43" s="12">
+      <c r="M44" s="12">
         <v>19.817924918327808</v>
       </c>
     </row>
-    <row r="44" spans="2:13" hidden="1">
-      <c r="B44" s="4">
+    <row r="45" spans="2:13" hidden="1">
+      <c r="B45" s="4">
         <v>2022</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D45" s="6">
         <f t="shared" si="3"/>
         <v>1217422</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E45" s="6">
         <v>614317</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F45" s="6">
         <v>602581</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G45" s="6">
         <v>524</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H45" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>162245</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I45" s="6">
         <v>69515</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J45" s="6">
         <v>92730</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K45" s="6">
         <v>18.867667819798235</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L45" s="6">
         <v>15.572301149496132</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M45" s="7">
         <v>19.875979339656887</v>
       </c>
     </row>
-    <row r="45" spans="2:13" hidden="1">
-      <c r="B45" s="8">
+    <row r="46" spans="2:13" hidden="1">
+      <c r="B46" s="8">
         <v>2022</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D46" s="10">
         <f t="shared" si="3"/>
         <v>1212635</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E46" s="11">
         <v>611918</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F46" s="11">
         <v>600194</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G46" s="11">
         <v>523</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H46" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>161903</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I46" s="11">
         <v>69487</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J46" s="11">
         <v>92416</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K46" s="11">
         <v>18.918767990160223</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L46" s="11">
         <v>15.612731079720572</v>
       </c>
-      <c r="M45" s="12">
+      <c r="M46" s="12">
         <v>19.925975375785644</v>
       </c>
     </row>
-    <row r="46" spans="2:13" hidden="1">
-      <c r="B46" s="4">
+    <row r="47" spans="2:13" hidden="1">
+      <c r="B47" s="4">
         <v>2022</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D47" s="6">
         <f t="shared" si="3"/>
         <v>1207392</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E47" s="6">
         <v>609072</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F47" s="6">
         <v>597797</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G47" s="6">
         <v>523</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H47" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>161179</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I47" s="6">
         <v>69288</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J47" s="6">
         <v>91891</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K47" s="6">
         <v>18.985056810872138</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L47" s="6">
         <v>15.690822005348092</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M47" s="7">
         <v>19.992202892268896</v>
       </c>
     </row>
-    <row r="47" spans="2:13" hidden="1">
-      <c r="B47" s="13">
+    <row r="48" spans="2:13" hidden="1">
+      <c r="B48" s="13">
         <v>2022</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D48" s="15">
         <f t="shared" si="3"/>
         <v>1203679</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E48" s="16">
         <v>607150</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F48" s="16">
         <v>596005</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G48" s="16">
         <v>524</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H48" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>160915</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I48" s="16">
         <v>69335</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J48" s="16">
         <v>91580</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K48" s="16">
         <v>19.033586986005115</v>
       </c>
-      <c r="L47" s="16">
+      <c r="L48" s="16">
         <v>15.723189261411305</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M48" s="17">
         <v>20.040443053611135</v>
       </c>
     </row>
-    <row r="48" spans="2:13" hidden="1">
-      <c r="B48" s="18">
+    <row r="49" spans="2:13" hidden="1">
+      <c r="B49" s="18">
         <v>2021</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C49" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D49" s="20">
         <f t="shared" si="3"/>
         <v>1201053</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E49" s="20">
         <v>606090</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F49" s="20">
         <v>594443</v>
       </c>
-      <c r="G48" s="20">
+      <c r="G49" s="20">
         <v>520</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H49" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>160633</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I49" s="20">
         <v>69330</v>
       </c>
-      <c r="J48" s="20">
+      <c r="J49" s="20">
         <v>91303</v>
       </c>
-      <c r="K48" s="20">
+      <c r="K49" s="20">
         <v>18.104901973748976</v>
       </c>
-      <c r="L48" s="20">
+      <c r="L49" s="20">
         <v>14.77932927854177</v>
       </c>
-      <c r="M48" s="21">
+      <c r="M49" s="21">
         <v>19.103214044118861</v>
       </c>
     </row>
-    <row r="49" spans="2:13" hidden="1">
-      <c r="B49" s="8">
+    <row r="50" spans="2:13" hidden="1">
+      <c r="B50" s="8">
         <v>2021</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D50" s="10">
         <f t="shared" si="3"/>
         <v>1195350</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E50" s="11">
         <v>603380</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F50" s="11">
         <v>591451</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G50" s="11">
         <v>519</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H50" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>159783</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I50" s="11">
         <v>69196</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J50" s="11">
         <v>90587</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K50" s="11">
         <v>18.165010106199993</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L50" s="11">
         <v>14.853858044973496</v>
       </c>
-      <c r="M49" s="12">
+      <c r="M50" s="12">
         <v>19.159161722297721</v>
       </c>
     </row>
-    <row r="50" spans="2:13" hidden="1">
-      <c r="B50" s="4">
+    <row r="51" spans="2:13" hidden="1">
+      <c r="B51" s="4">
         <v>2021</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D51" s="6">
         <f t="shared" si="3"/>
         <v>1192781</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E51" s="6">
         <v>602061</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F51" s="6">
         <v>590200</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G51" s="6">
         <v>520</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H51" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>159209</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I51" s="6">
         <v>69167</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J51" s="6">
         <v>90042</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K51" s="6">
         <v>18.210527795659541</v>
       </c>
-      <c r="L50" s="6">
+      <c r="L51" s="6">
         <v>14.91196477586066</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M51" s="7">
         <v>19.201099224164992</v>
       </c>
     </row>
-    <row r="51" spans="2:13" hidden="1">
-      <c r="B51" s="8">
+    <row r="52" spans="2:13" hidden="1">
+      <c r="B52" s="8">
         <v>2021</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C52" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="10">
-        <f t="shared" ref="D51:D82" si="4">SUM(E51:G51)</f>
+      <c r="D52" s="10">
+        <f t="shared" ref="D52:D83" si="4">SUM(E52:G52)</f>
         <v>1186041</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E52" s="11">
         <v>599199</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F52" s="11">
         <v>586326</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G52" s="11">
         <v>516</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H52" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>158594</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I52" s="11">
         <v>69024</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J52" s="11">
         <v>89570</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K52" s="11">
         <v>18.280978841903135</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L52" s="11">
         <v>14.981991752525316</v>
       </c>
-      <c r="M51" s="12">
+      <c r="M52" s="12">
         <v>19.262381946565331</v>
       </c>
     </row>
-    <row r="52" spans="2:13" hidden="1">
-      <c r="B52" s="4">
+    <row r="53" spans="2:13" hidden="1">
+      <c r="B53" s="4">
         <v>2021</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D53" s="6">
         <f t="shared" si="4"/>
         <v>1182334</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E53" s="6">
         <v>597975</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F53" s="6">
         <v>583854</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G53" s="6">
         <v>505</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H53" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157584</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I53" s="6">
         <v>68967</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J53" s="6">
         <v>88617</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K53" s="6">
         <v>18.343313078191716</v>
       </c>
-      <c r="L52" s="6">
+      <c r="L53" s="6">
         <v>15.069702507868818</v>
       </c>
-      <c r="M52" s="7">
+      <c r="M53" s="7">
         <v>19.317817634516494</v>
       </c>
     </row>
-    <row r="53" spans="2:13" hidden="1">
-      <c r="B53" s="8">
+    <row r="54" spans="2:13" hidden="1">
+      <c r="B54" s="8">
         <v>2021</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D54" s="10">
         <f t="shared" si="4"/>
         <v>1175907</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E54" s="11">
         <v>594590</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F54" s="11">
         <v>580812</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G54" s="11">
         <v>505</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H54" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157806</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I54" s="11">
         <v>69051</v>
       </c>
-      <c r="J53" s="11">
+      <c r="J54" s="11">
         <v>88755</v>
       </c>
-      <c r="K53" s="11">
+      <c r="K54" s="11">
         <v>18.386941872536017</v>
       </c>
-      <c r="L53" s="11">
+      <c r="L54" s="11">
         <v>15.078070542311446</v>
       </c>
-      <c r="M53" s="12">
+      <c r="M54" s="12">
         <v>19.364975865722599</v>
       </c>
     </row>
-    <row r="54" spans="2:13" hidden="1">
-      <c r="B54" s="4">
+    <row r="55" spans="2:13" hidden="1">
+      <c r="B55" s="4">
         <v>2021</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D55" s="6">
         <f t="shared" si="4"/>
         <v>1172788</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E55" s="6">
         <v>593307</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F55" s="6">
         <v>578970</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G55" s="6">
         <v>511</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H55" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157163</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I55" s="6">
         <v>68993</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J55" s="6">
         <v>88170</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K55" s="6">
         <v>18.439486550728127</v>
       </c>
-      <c r="L54" s="6">
+      <c r="L55" s="6">
         <v>15.1151861443215</v>
       </c>
-      <c r="M54" s="7">
+      <c r="M55" s="7">
         <v>19.410730026782087</v>
       </c>
     </row>
-    <row r="55" spans="2:13" hidden="1">
-      <c r="B55" s="8">
+    <row r="56" spans="2:13" hidden="1">
+      <c r="B56" s="8">
         <v>2021</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C56" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D56" s="10">
         <f t="shared" si="4"/>
         <v>1166805</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E56" s="11">
         <v>590245</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F56" s="11">
         <v>576050</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G56" s="11">
         <v>510</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H56" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156786</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I56" s="11">
         <v>69018</v>
       </c>
-      <c r="J55" s="11">
+      <c r="J56" s="11">
         <v>87768</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K56" s="11">
         <v>18.504217806770711</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L56" s="11">
         <v>15.155396527751202</v>
       </c>
-      <c r="M55" s="12">
+      <c r="M56" s="12">
         <v>19.481235758032678</v>
       </c>
     </row>
-    <row r="56" spans="2:13" hidden="1">
-      <c r="B56" s="4">
+    <row r="57" spans="2:13" hidden="1">
+      <c r="B57" s="4">
         <v>2021</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D57" s="6">
         <f t="shared" si="4"/>
         <v>1162463</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E57" s="6">
         <v>588077</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F57" s="6">
         <v>573877</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G57" s="6">
         <v>509</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H57" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156695</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I57" s="6">
         <v>69223</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J57" s="6">
         <v>87472</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K57" s="6">
         <v>18.555855273086319</v>
       </c>
-      <c r="L56" s="6">
+      <c r="L57" s="6">
         <v>15.176859504132231</v>
       </c>
-      <c r="M56" s="7">
+      <c r="M57" s="7">
         <v>19.539313729324562</v>
       </c>
     </row>
-    <row r="57" spans="2:13" hidden="1">
-      <c r="B57" s="8">
+    <row r="58" spans="2:13" hidden="1">
+      <c r="B58" s="8">
         <v>2021</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C58" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D58" s="10">
         <f t="shared" si="4"/>
         <v>1157730</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E58" s="11">
         <v>586093</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F58" s="11">
         <v>571129</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G58" s="11">
         <v>508</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H58" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156467</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I58" s="11">
         <v>69334</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J58" s="11">
         <v>87133</v>
       </c>
-      <c r="K57" s="11">
+      <c r="K58" s="11">
         <v>18.610992403833784</v>
       </c>
-      <c r="L57" s="11">
+      <c r="L58" s="11">
         <v>15.20547463682438</v>
       </c>
-      <c r="M57" s="12">
+      <c r="M58" s="12">
         <v>19.591187746654541</v>
       </c>
     </row>
-    <row r="58" spans="2:13" hidden="1">
-      <c r="B58" s="4">
+    <row r="59" spans="2:13" hidden="1">
+      <c r="B59" s="4">
         <v>2021</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D59" s="6">
         <f t="shared" si="4"/>
         <v>1151624</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E59" s="6">
         <v>583440</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F59" s="6">
         <v>567677</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G59" s="6">
         <v>507</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H59" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156128</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I59" s="6">
         <v>69352</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J59" s="6">
         <v>86776</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K59" s="6">
         <v>18.682593545968817</v>
       </c>
-      <c r="L58" s="6">
+      <c r="L59" s="6">
         <v>15.246899979503995</v>
       </c>
-      <c r="M58" s="7">
+      <c r="M59" s="7">
         <v>19.65870183737831</v>
       </c>
     </row>
-    <row r="59" spans="2:13" hidden="1">
-      <c r="B59" s="13">
+    <row r="60" spans="2:13" hidden="1">
+      <c r="B60" s="13">
         <v>2021</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D60" s="15">
         <f t="shared" si="4"/>
         <v>1146962</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E60" s="16">
         <v>581299</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F60" s="16">
         <v>565156</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G60" s="16">
         <v>507</v>
       </c>
-      <c r="H59" s="16">
+      <c r="H60" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156135</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I60" s="16">
         <v>69558</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J60" s="16">
         <v>86577</v>
       </c>
-      <c r="K59" s="16">
+      <c r="K60" s="16">
         <v>18.737382445742711</v>
       </c>
-      <c r="L59" s="16">
+      <c r="L60" s="16">
         <v>15.270791302398566</v>
       </c>
-      <c r="M59" s="17">
+      <c r="M60" s="17">
         <v>19.71498144672535</v>
       </c>
     </row>
-    <row r="60" spans="2:13" hidden="1">
-      <c r="B60" s="18">
+    <row r="61" spans="2:13" hidden="1">
+      <c r="B61" s="18">
         <v>2020</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C61" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D61" s="20">
         <f t="shared" si="4"/>
         <v>1143940</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E61" s="20">
         <v>580035</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F61" s="20">
         <v>563400</v>
       </c>
-      <c r="G60" s="20">
+      <c r="G61" s="20">
         <v>505</v>
       </c>
-      <c r="H60" s="20">
+      <c r="H61" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156064</v>
       </c>
-      <c r="I60" s="20">
+      <c r="I61" s="20">
         <v>69624</v>
       </c>
-      <c r="J60" s="20">
+      <c r="J61" s="20">
         <v>86440</v>
       </c>
-      <c r="K60" s="20">
+      <c r="K61" s="20">
         <v>17.787893642088221</v>
       </c>
-      <c r="L60" s="20">
+      <c r="L61" s="20">
         <v>14.291950738158704</v>
       </c>
-      <c r="M60" s="21">
+      <c r="M61" s="21">
         <v>18.763405656555207</v>
       </c>
     </row>
-    <row r="61" spans="2:13" hidden="1">
-      <c r="B61" s="8">
+    <row r="62" spans="2:13" hidden="1">
+      <c r="B62" s="8">
         <v>2020</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C62" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D62" s="10">
         <f t="shared" si="4"/>
         <v>1137719</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E62" s="11">
         <v>576835</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F62" s="11">
         <v>560383</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G62" s="11">
         <v>501</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H62" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>155330</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I62" s="11">
         <v>69641</v>
       </c>
-      <c r="J61" s="11">
+      <c r="J62" s="11">
         <v>85689</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K62" s="11">
         <v>17.860964544450187</v>
       </c>
-      <c r="L61" s="11">
+      <c r="L62" s="11">
         <v>14.359087104873495</v>
       </c>
-      <c r="M61" s="12">
+      <c r="M62" s="12">
         <v>18.843092045385596</v>
       </c>
     </row>
-    <row r="62" spans="2:13" hidden="1">
-      <c r="B62" s="4">
+    <row r="63" spans="2:13" hidden="1">
+      <c r="B63" s="4">
         <v>2020</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D63" s="6">
         <f t="shared" si="4"/>
         <v>1131496</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E63" s="6">
         <v>574056</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F63" s="6">
         <v>556941</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G63" s="6">
         <v>499</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H63" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154998</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I63" s="6">
         <v>69581</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J63" s="6">
         <v>85417</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K63" s="6">
         <v>17.931151365285245</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L63" s="6">
         <v>14.401392276029368</v>
       </c>
-      <c r="M62" s="7">
+      <c r="M63" s="7">
         <v>18.916173683403709</v>
       </c>
     </row>
-    <row r="63" spans="2:13" hidden="1">
-      <c r="B63" s="8">
+    <row r="64" spans="2:13" hidden="1">
+      <c r="B64" s="8">
         <v>2020</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C64" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D64" s="10">
         <f t="shared" si="4"/>
         <v>1124473</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E64" s="11">
         <v>571367</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F64" s="11">
         <v>552611</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G64" s="11">
         <v>495</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H64" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154974</v>
       </c>
-      <c r="I63" s="11">
+      <c r="I64" s="11">
         <v>69802</v>
       </c>
-      <c r="J63" s="11">
+      <c r="J64" s="11">
         <v>85172</v>
       </c>
-      <c r="K63" s="11">
+      <c r="K64" s="11">
         <v>18.015470478954644</v>
       </c>
-      <c r="L63" s="11">
+      <c r="L64" s="11">
         <v>14.418154012931202</v>
       </c>
-      <c r="M63" s="12">
+      <c r="M64" s="12">
         <v>18.991473081224505</v>
       </c>
     </row>
-    <row r="64" spans="2:13" hidden="1">
-      <c r="B64" s="4">
+    <row r="65" spans="2:13" hidden="1">
+      <c r="B65" s="4">
         <v>2020</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D65" s="6">
         <f t="shared" si="4"/>
         <v>1119301</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E65" s="6">
         <v>569174</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F65" s="6">
         <v>549631</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G65" s="6">
         <v>496</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H65" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>155005</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I65" s="6">
         <v>69935</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J65" s="6">
         <v>85070</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K65" s="6">
         <v>18.074266962890857</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L65" s="6">
         <v>14.424315344666301</v>
       </c>
-      <c r="M64" s="7">
+      <c r="M65" s="7">
         <v>19.054786409779787</v>
       </c>
     </row>
-    <row r="65" spans="2:13" hidden="1">
-      <c r="B65" s="8">
+    <row r="66" spans="2:13" hidden="1">
+      <c r="B66" s="8">
         <v>2020</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C66" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D66" s="10">
         <f t="shared" si="4"/>
         <v>1115206</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E66" s="11">
         <v>567168</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F66" s="11">
         <v>547540</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G66" s="11">
         <v>498</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H66" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154854</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I66" s="11">
         <v>69936</v>
       </c>
-      <c r="J65" s="11">
+      <c r="J66" s="11">
         <v>84918</v>
       </c>
-      <c r="K65" s="11">
+      <c r="K66" s="11">
         <v>18.123512676025275</v>
       </c>
-      <c r="L65" s="11">
+      <c r="L66" s="11">
         <v>14.441519108321389</v>
       </c>
-      <c r="M65" s="12">
+      <c r="M66" s="12">
         <v>19.111048225569849</v>
       </c>
     </row>
-    <row r="66" spans="2:13" hidden="1">
-      <c r="B66" s="4">
+    <row r="67" spans="2:13" hidden="1">
+      <c r="B67" s="4">
         <v>2020</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D67" s="6">
         <f t="shared" si="4"/>
         <v>1112456</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E67" s="6">
         <v>566042</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F67" s="6">
         <v>545916</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G67" s="6">
         <v>498</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H67" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154797</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I67" s="6">
         <v>69959</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J67" s="6">
         <v>84838</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K67" s="6">
         <v>18.154673950369251</v>
       </c>
-      <c r="L66" s="6">
+      <c r="L67" s="6">
         <v>14.450499686686436</v>
       </c>
-      <c r="M66" s="7">
+      <c r="M67" s="7">
         <v>19.140800505969523</v>
       </c>
     </row>
-    <row r="67" spans="2:13" hidden="1">
-      <c r="B67" s="8">
+    <row r="68" spans="2:13" hidden="1">
+      <c r="B68" s="8">
         <v>2020</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C68" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D68" s="10">
         <f t="shared" si="4"/>
         <v>1111879</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E68" s="11">
         <v>565980</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F68" s="11">
         <v>545400</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G68" s="11">
         <v>499</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H68" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154663</v>
       </c>
-      <c r="I67" s="11">
+      <c r="I68" s="11">
         <v>69945</v>
       </c>
-      <c r="J67" s="11">
+      <c r="J68" s="11">
         <v>84718</v>
       </c>
-      <c r="K67" s="11">
+      <c r="K68" s="11">
         <v>18.164229808940139</v>
       </c>
-      <c r="L67" s="11">
+      <c r="L68" s="11">
         <v>14.46115101866639</v>
       </c>
-      <c r="M67" s="12">
+      <c r="M68" s="12">
         <v>19.144045725997383</v>
       </c>
     </row>
-    <row r="68" spans="2:13" hidden="1">
-      <c r="B68" s="4">
+    <row r="69" spans="2:13" hidden="1">
+      <c r="B69" s="4">
         <v>2020</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D69" s="6">
         <f t="shared" si="4"/>
         <v>1111626</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E69" s="6">
         <v>565883</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F69" s="6">
         <v>545244</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G69" s="6">
         <v>499</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H69" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154659</v>
       </c>
-      <c r="I68" s="6">
+      <c r="I69" s="6">
         <v>69947</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J69" s="6">
         <v>84712</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K69" s="6">
         <v>18.16685047867491</v>
       </c>
-      <c r="L68" s="6">
+      <c r="L69" s="6">
         <v>14.461473305788864</v>
       </c>
-      <c r="M68" s="7">
+      <c r="M69" s="7">
         <v>19.146164489832703</v>
       </c>
     </row>
-    <row r="69" spans="2:13" hidden="1">
-      <c r="B69" s="8">
+    <row r="70" spans="2:13" hidden="1">
+      <c r="B70" s="8">
         <v>2020</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D70" s="10">
         <f t="shared" si="4"/>
         <v>1111436</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E70" s="11">
         <v>565809</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F70" s="11">
         <v>545128</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G70" s="11">
         <v>499</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H70" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154670</v>
       </c>
-      <c r="I69" s="11">
+      <c r="I70" s="11">
         <v>69953</v>
       </c>
-      <c r="J69" s="11">
+      <c r="J70" s="11">
         <v>84717</v>
       </c>
-      <c r="K69" s="11">
+      <c r="K70" s="11">
         <v>18.1697391054253</v>
       </c>
-      <c r="L69" s="11">
+      <c r="L70" s="11">
         <v>14.461059028900239</v>
       </c>
-      <c r="M69" s="12">
+      <c r="M70" s="12">
         <v>19.148813468856098</v>
       </c>
     </row>
-    <row r="70" spans="2:13" hidden="1">
-      <c r="B70" s="4">
+    <row r="71" spans="2:13" hidden="1">
+      <c r="B71" s="4">
         <v>2020</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D71" s="6">
         <f t="shared" si="4"/>
         <v>1107180</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E71" s="6">
         <v>564089</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F71" s="6">
         <v>542595</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G71" s="6">
         <v>496</v>
       </c>
-      <c r="H70" s="6">
+      <c r="H71" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154310</v>
       </c>
-      <c r="I70" s="6">
+      <c r="I71" s="6">
         <v>69893</v>
       </c>
-      <c r="J70" s="6">
+      <c r="J71" s="6">
         <v>84417</v>
       </c>
-      <c r="K70" s="6">
+      <c r="K71" s="6">
         <v>18.222653716036714</v>
       </c>
-      <c r="L70" s="6">
+      <c r="L71" s="6">
         <v>14.507322921392005</v>
       </c>
-      <c r="M70" s="7">
+      <c r="M71" s="7">
         <v>19.193769068356236</v>
       </c>
     </row>
-    <row r="71" spans="2:13" hidden="1">
-      <c r="B71" s="13">
+    <row r="72" spans="2:13" hidden="1">
+      <c r="B72" s="13">
         <v>2020</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C72" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D72" s="15">
         <f t="shared" si="4"/>
         <v>1102434</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E72" s="16">
         <v>562170</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F72" s="16">
         <v>539768</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G72" s="16">
         <v>496</v>
       </c>
-      <c r="H71" s="16">
+      <c r="H72" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>153904</v>
       </c>
-      <c r="I71" s="16">
+      <c r="I72" s="16">
         <v>69851</v>
       </c>
-      <c r="J71" s="16">
+      <c r="J72" s="16">
         <v>84053</v>
       </c>
-      <c r="K71" s="16">
+      <c r="K72" s="16">
         <v>18.280507420519459</v>
       </c>
-      <c r="L71" s="16">
+      <c r="L72" s="16">
         <v>14.558120646636864</v>
       </c>
-      <c r="M71" s="17">
+      <c r="M72" s="17">
         <v>19.246057242471139</v>
       </c>
     </row>
-    <row r="72" spans="2:13" hidden="1">
-      <c r="B72" s="18">
+    <row r="73" spans="2:13" hidden="1">
+      <c r="B73" s="18">
         <v>2019</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C73" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D73" s="20">
         <f t="shared" si="4"/>
         <v>1099371</v>
       </c>
-      <c r="E72" s="20">
+      <c r="E73" s="20">
         <v>561061</v>
       </c>
-      <c r="F72" s="20">
+      <c r="F73" s="20">
         <v>537813</v>
       </c>
-      <c r="G72" s="20">
+      <c r="G73" s="20">
         <v>497</v>
       </c>
-      <c r="H72" s="20">
+      <c r="H73" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>153726</v>
       </c>
-      <c r="I72" s="20">
+      <c r="I73" s="20">
         <v>69871</v>
       </c>
-      <c r="J72" s="20">
+      <c r="J73" s="20">
         <v>83855</v>
       </c>
-      <c r="K72" s="20">
+      <c r="K73" s="20">
         <v>17.338868752993772</v>
       </c>
-      <c r="L72" s="20">
+      <c r="L73" s="20">
         <v>13.608641348893483</v>
       </c>
-      <c r="M72" s="21">
+      <c r="M73" s="21">
         <v>18.302218475352948</v>
       </c>
     </row>
-    <row r="73" spans="2:13" hidden="1">
-      <c r="B73" s="8">
+    <row r="74" spans="2:13" hidden="1">
+      <c r="B74" s="8">
         <v>2019</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D74" s="10">
         <f t="shared" si="4"/>
         <v>1094843</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="11">
         <v>558626</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="11">
         <v>535724</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G74" s="11">
         <v>493</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H74" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>152624</v>
       </c>
-      <c r="I73" s="11">
+      <c r="I74" s="11">
         <v>69534</v>
       </c>
-      <c r="J73" s="11">
+      <c r="J74" s="11">
         <v>83090</v>
       </c>
-      <c r="K73" s="11">
+      <c r="K74" s="11">
         <v>17.393954485017328</v>
       </c>
-      <c r="L73" s="11">
+      <c r="L74" s="11">
         <v>13.697282209875247</v>
       </c>
-      <c r="M73" s="12">
+      <c r="M74" s="12">
         <v>18.357969374859028</v>
       </c>
     </row>
-    <row r="74" spans="2:13" hidden="1">
-      <c r="B74" s="4">
+    <row r="75" spans="2:13" hidden="1">
+      <c r="B75" s="4">
         <v>2019</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D75" s="6">
         <f t="shared" si="4"/>
         <v>1089907</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E75" s="6">
         <v>556346</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F75" s="6">
         <v>533069</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G75" s="6">
         <v>492</v>
       </c>
-      <c r="H74" s="6">
+      <c r="H75" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>151838</v>
       </c>
-      <c r="I74" s="6">
+      <c r="I75" s="6">
         <v>69318</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J75" s="6">
         <v>82520</v>
       </c>
-      <c r="K74" s="6">
+      <c r="K75" s="6">
         <v>17.456851262393727</v>
       </c>
-      <c r="L74" s="6">
+      <c r="L75" s="6">
         <v>13.773673257023932</v>
       </c>
-      <c r="M74" s="7">
+      <c r="M75" s="7">
         <v>18.416267933983526</v>
       </c>
     </row>
-    <row r="75" spans="2:13" hidden="1">
-      <c r="B75" s="8">
+    <row r="76" spans="2:13" hidden="1">
+      <c r="B76" s="8">
         <v>2019</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C76" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D76" s="10">
         <f t="shared" si="4"/>
         <v>1026253</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E76" s="11">
         <v>519860</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F76" s="11">
         <v>505944</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G76" s="11">
         <v>449</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H76" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134666</v>
       </c>
-      <c r="I75" s="11">
+      <c r="I76" s="11">
         <v>59103</v>
       </c>
-      <c r="J75" s="11">
+      <c r="J76" s="11">
         <v>75563</v>
       </c>
-      <c r="K75" s="11">
+      <c r="K76" s="11">
         <v>17.271427094194593</v>
       </c>
-      <c r="L75" s="11">
+      <c r="L76" s="11">
         <v>13.265634978390985</v>
       </c>
-      <c r="M75" s="12">
+      <c r="M76" s="12">
         <v>18.202425653060441</v>
       </c>
     </row>
-    <row r="76" spans="2:13" hidden="1">
-      <c r="B76" s="4">
+    <row r="77" spans="2:13" hidden="1">
+      <c r="B77" s="4">
         <v>2019</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D77" s="6">
         <f t="shared" si="4"/>
         <v>1021601</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E77" s="6">
         <v>517666</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F77" s="6">
         <v>503486</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G77" s="6">
         <v>449</v>
       </c>
-      <c r="H76" s="6">
+      <c r="H77" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134177</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I77" s="6">
         <v>58996</v>
       </c>
-      <c r="J76" s="6">
+      <c r="J77" s="6">
         <v>75181</v>
       </c>
-      <c r="K76" s="6">
+      <c r="K77" s="6">
         <v>17.331093567286896</v>
       </c>
-      <c r="L76" s="6">
+      <c r="L77" s="6">
         <v>13.321195137765788</v>
       </c>
-      <c r="M76" s="7">
+      <c r="M77" s="7">
         <v>18.260312634014984</v>
       </c>
     </row>
-    <row r="77" spans="2:13" hidden="1">
-      <c r="B77" s="8">
+    <row r="78" spans="2:13" hidden="1">
+      <c r="B78" s="8">
         <v>2019</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C78" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D78" s="10">
         <f t="shared" si="4"/>
         <v>1012889</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E78" s="11">
         <v>514393</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F78" s="11">
         <v>498050</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G78" s="11">
         <v>446</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H78" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134315</v>
       </c>
-      <c r="I77" s="11">
+      <c r="I78" s="11">
         <v>59818</v>
       </c>
-      <c r="J77" s="11">
+      <c r="J78" s="11">
         <v>74497</v>
       </c>
-      <c r="K77" s="11">
+      <c r="K78" s="11">
         <v>17.523646663027421</v>
       </c>
-      <c r="L77" s="11">
+      <c r="L78" s="11">
         <v>13.572348583553588</v>
       </c>
-      <c r="M77" s="12">
+      <c r="M78" s="12">
         <v>18.476849412803052</v>
       </c>
     </row>
-    <row r="78" spans="2:13" hidden="1">
-      <c r="B78" s="4">
+    <row r="79" spans="2:13" hidden="1">
+      <c r="B79" s="4">
         <v>2019</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D79" s="6">
         <f t="shared" si="4"/>
         <v>1011042</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E79" s="6">
         <v>512802</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F79" s="6">
         <v>497796</v>
       </c>
-      <c r="G78" s="6">
+      <c r="G79" s="6">
         <v>444</v>
       </c>
-      <c r="H78" s="6">
+      <c r="H79" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>132861</v>
       </c>
-      <c r="I78" s="6">
+      <c r="I79" s="6">
         <v>58917</v>
       </c>
-      <c r="J78" s="6">
+      <c r="J79" s="6">
         <v>73944</v>
       </c>
-      <c r="K78" s="6">
+      <c r="K79" s="6">
         <v>17.474399169537342</v>
       </c>
-      <c r="L78" s="6">
+      <c r="L79" s="6">
         <v>13.491144880740022</v>
       </c>
-      <c r="M78" s="7">
+      <c r="M79" s="7">
         <v>18.398711393481303</v>
       </c>
     </row>
-    <row r="79" spans="2:13" hidden="1">
-      <c r="B79" s="8">
+    <row r="80" spans="2:13" hidden="1">
+      <c r="B80" s="8">
         <v>2019</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C80" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D80" s="10">
         <f t="shared" si="4"/>
         <v>1006543</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E80" s="11">
         <v>506850</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F80" s="11">
         <v>499239</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G80" s="11">
         <v>454</v>
       </c>
-      <c r="H79" s="11">
+      <c r="H80" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>133322</v>
       </c>
-      <c r="I79" s="11">
+      <c r="I80" s="11">
         <v>58537</v>
       </c>
-      <c r="J79" s="11">
+      <c r="J80" s="11">
         <v>74785</v>
       </c>
-      <c r="K79" s="11">
+      <c r="K80" s="11">
         <v>17.005059631686898</v>
       </c>
-      <c r="L79" s="11">
+      <c r="L80" s="11">
         <v>12.551904411875007</v>
       </c>
-      <c r="M79" s="12">
+      <c r="M80" s="12">
         <v>17.760755647627501</v>
       </c>
     </row>
-    <row r="80" spans="2:13" hidden="1">
-      <c r="B80" s="4">
+    <row r="81" spans="2:13" hidden="1">
+      <c r="B81" s="4">
         <v>2019</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D81" s="6">
         <f t="shared" si="4"/>
         <v>1000820</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E81" s="6">
         <v>504046</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F81" s="6">
         <v>496323</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G81" s="6">
         <v>451</v>
       </c>
-      <c r="H80" s="6">
+      <c r="H81" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>132406</v>
       </c>
-      <c r="I80" s="6">
+      <c r="I81" s="6">
         <v>58289</v>
       </c>
-      <c r="J80" s="6">
+      <c r="J81" s="6">
         <v>74117</v>
       </c>
-      <c r="K80" s="6">
+      <c r="K81" s="6">
         <v>17.079096025247733</v>
       </c>
-      <c r="L80" s="6">
+      <c r="L81" s="6">
         <v>12.619949247012975</v>
       </c>
-      <c r="M80" s="7">
+      <c r="M81" s="7">
         <v>17.838770667756513</v>
       </c>
     </row>
-    <row r="81" spans="2:13" hidden="1">
-      <c r="B81" s="8">
+    <row r="82" spans="2:13" hidden="1">
+      <c r="B82" s="8">
         <v>2019</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C82" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D82" s="10">
         <f t="shared" si="4"/>
         <v>995167</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E82" s="11">
         <v>501424</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F82" s="11">
         <v>493291</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G82" s="11">
         <v>452</v>
       </c>
-      <c r="H81" s="11">
+      <c r="H82" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>131276</v>
       </c>
-      <c r="I81" s="11">
+      <c r="I82" s="11">
         <v>57933</v>
       </c>
-      <c r="J81" s="11">
+      <c r="J82" s="11">
         <v>73343</v>
       </c>
-      <c r="K81" s="11">
+      <c r="K82" s="11">
         <v>17.153564282485384</v>
       </c>
-      <c r="L81" s="11">
+      <c r="L82" s="11">
         <v>12.722576860964685</v>
       </c>
-      <c r="M81" s="12">
+      <c r="M82" s="12">
         <v>17.901807651807651</v>
       </c>
     </row>
-    <row r="82" spans="2:13" hidden="1">
-      <c r="B82" s="4">
+    <row r="83" spans="2:13" hidden="1">
+      <c r="B83" s="4">
         <v>2019</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C83" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D83" s="6">
         <f t="shared" si="4"/>
         <v>990002</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E83" s="6">
         <v>499221</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F83" s="6">
         <v>490327</v>
       </c>
-      <c r="G82" s="6">
+      <c r="G83" s="6">
         <v>454</v>
       </c>
-      <c r="H82" s="6">
+      <c r="H83" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>130579</v>
       </c>
-      <c r="I82" s="6">
+      <c r="I83" s="6">
         <v>57862</v>
       </c>
-      <c r="J82" s="6">
+      <c r="J83" s="6">
         <v>72717</v>
       </c>
-      <c r="K82" s="6">
+      <c r="K83" s="6">
         <v>17.220458930103462</v>
       </c>
-      <c r="L82" s="6">
+      <c r="L83" s="6">
         <v>12.793971465549593</v>
       </c>
-      <c r="M82" s="7">
+      <c r="M83" s="7">
         <v>17.958405195294269</v>
       </c>
     </row>
-    <row r="83" spans="2:13" hidden="1">
-      <c r="B83" s="13">
+    <row r="84" spans="2:13" hidden="1">
+      <c r="B84" s="13">
         <v>2019</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C84" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D83" s="15">
-        <f t="shared" ref="D83:D95" si="5">SUM(E83:G83)</f>
+      <c r="D84" s="15">
+        <f t="shared" ref="D84:D96" si="5">SUM(E84:G84)</f>
         <v>985713</v>
       </c>
-      <c r="E83" s="16">
+      <c r="E84" s="16">
         <v>497141</v>
       </c>
-      <c r="F83" s="16">
+      <c r="F84" s="16">
         <v>488120</v>
       </c>
-      <c r="G83" s="16">
+      <c r="G84" s="16">
         <v>452</v>
       </c>
-      <c r="H83" s="16">
+      <c r="H84" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>129833</v>
       </c>
-      <c r="I83" s="16">
+      <c r="I84" s="16">
         <v>57647</v>
       </c>
-      <c r="J83" s="16">
+      <c r="J84" s="16">
         <v>72186</v>
       </c>
-      <c r="K83" s="16">
+      <c r="K84" s="16">
         <v>17.272496309728147</v>
       </c>
-      <c r="L83" s="16">
+      <c r="L84" s="16">
         <v>12.85511387705745</v>
       </c>
-      <c r="M83" s="17">
+      <c r="M84" s="17">
         <v>18.009015550920161</v>
       </c>
     </row>
-    <row r="84" spans="2:13" hidden="1">
-      <c r="B84" s="18">
+    <row r="85" spans="2:13" hidden="1">
+      <c r="B85" s="18">
         <v>2018</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C85" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D84" s="20">
+      <c r="D85" s="20">
         <f t="shared" si="5"/>
         <v>982856</v>
       </c>
-      <c r="E84" s="20">
+      <c r="E85" s="20">
         <v>496057</v>
       </c>
-      <c r="F84" s="20">
+      <c r="F85" s="20">
         <v>486335</v>
       </c>
-      <c r="G84" s="20">
+      <c r="G85" s="20">
         <v>464</v>
       </c>
-      <c r="H84" s="20">
+      <c r="H85" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>129315</v>
       </c>
-      <c r="I84" s="20">
+      <c r="I85" s="20">
         <v>57599</v>
       </c>
-      <c r="J84" s="20">
+      <c r="J85" s="20">
         <v>71716</v>
       </c>
-      <c r="K84" s="20">
+      <c r="K85" s="20">
         <v>15.55</v>
       </c>
-      <c r="L84" s="20">
+      <c r="L85" s="20">
         <v>11.5</v>
       </c>
-      <c r="M84" s="21">
+      <c r="M85" s="21">
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:13" hidden="1">
-      <c r="B85" s="8">
+    <row r="86" spans="2:13" hidden="1">
+      <c r="B86" s="8">
         <v>2018</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C86" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D86" s="10">
         <f t="shared" si="5"/>
         <v>978058</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E86" s="11">
         <v>493248</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F86" s="11">
         <v>484343</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G86" s="11">
         <v>467</v>
       </c>
-      <c r="H85" s="11">
+      <c r="H86" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>127995</v>
       </c>
-      <c r="I85" s="11">
+      <c r="I86" s="11">
         <v>57117</v>
       </c>
-      <c r="J85" s="11">
+      <c r="J86" s="11">
         <v>70878</v>
       </c>
-      <c r="K85" s="11">
+      <c r="K86" s="11">
         <v>15.611125202215558</v>
       </c>
-      <c r="L85" s="11">
+      <c r="L86" s="11">
         <v>11.579603101683659</v>
       </c>
-      <c r="M85" s="12">
+      <c r="M86" s="12">
         <v>16.657281844021668</v>
       </c>
     </row>
-    <row r="86" spans="2:13" hidden="1">
-      <c r="B86" s="4">
+    <row r="87" spans="2:13" hidden="1">
+      <c r="B87" s="4">
         <v>2018</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D87" s="6">
         <f t="shared" si="5"/>
         <v>971514</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E87" s="6">
         <v>489853</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F87" s="6">
         <v>481195</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G87" s="6">
         <v>466</v>
       </c>
-      <c r="H86" s="6">
+      <c r="H87" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>126537</v>
       </c>
-      <c r="I86" s="6">
+      <c r="I87" s="6">
         <v>56599</v>
       </c>
-      <c r="J86" s="6">
+      <c r="J87" s="6">
         <v>69938</v>
       </c>
-      <c r="K86" s="6">
+      <c r="K87" s="6">
         <v>15.692013983030227</v>
       </c>
-      <c r="L86" s="6">
+      <c r="L87" s="6">
         <v>11.695425480294306</v>
       </c>
-      <c r="M86" s="7">
+      <c r="M87" s="7">
         <v>16.724397819345807</v>
       </c>
     </row>
-    <row r="87" spans="2:13" hidden="1">
-      <c r="B87" s="8">
+    <row r="88" spans="2:13" hidden="1">
+      <c r="B88" s="8">
         <v>2018</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C88" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D88" s="10">
         <f t="shared" si="5"/>
         <v>965544</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E88" s="11">
         <v>486879</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F88" s="11">
         <v>478202</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G88" s="11">
         <v>463</v>
       </c>
-      <c r="H87" s="11">
+      <c r="H88" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>125592</v>
       </c>
-      <c r="I87" s="11">
+      <c r="I88" s="11">
         <v>56443</v>
       </c>
-      <c r="J87" s="11">
+      <c r="J88" s="11">
         <v>69149</v>
       </c>
-      <c r="K87" s="11">
+      <c r="K88" s="11">
         <v>15.766115172800014</v>
       </c>
-      <c r="L87" s="11">
+      <c r="L88" s="11">
         <v>11.775922614497736</v>
       </c>
-      <c r="M87" s="12">
+      <c r="M88" s="12">
         <v>16.795398144097401</v>
       </c>
     </row>
-    <row r="88" spans="2:13" hidden="1">
-      <c r="B88" s="4">
+    <row r="89" spans="2:13" hidden="1">
+      <c r="B89" s="4">
         <v>2018</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D89" s="6">
         <f t="shared" si="5"/>
         <v>960111</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E89" s="6">
         <v>483912</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F89" s="6">
         <v>475735</v>
       </c>
-      <c r="G88" s="6">
+      <c r="G89" s="6">
         <v>464</v>
       </c>
-      <c r="H88" s="6">
+      <c r="H89" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>124463</v>
       </c>
-      <c r="I88" s="6">
+      <c r="I89" s="6">
         <v>56029</v>
       </c>
-      <c r="J88" s="6">
+      <c r="J89" s="6">
         <v>68434</v>
       </c>
-      <c r="K88" s="6">
+      <c r="K89" s="6">
         <v>15.828890174645572</v>
       </c>
-      <c r="L88" s="6">
+      <c r="L89" s="6">
         <v>11.859889509332092</v>
       </c>
-      <c r="M88" s="7">
+      <c r="M89" s="7">
         <v>16.84972398287292</v>
       </c>
     </row>
-    <row r="89" spans="2:13" hidden="1">
-      <c r="B89" s="8">
+    <row r="90" spans="2:13" hidden="1">
+      <c r="B90" s="8">
         <v>2018</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C90" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D90" s="10">
         <f t="shared" si="5"/>
         <v>953323</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E90" s="11">
         <v>480495</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F90" s="11">
         <v>472364</v>
       </c>
-      <c r="G89" s="11">
+      <c r="G90" s="11">
         <v>464</v>
       </c>
-      <c r="H89" s="11">
+      <c r="H90" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>123737</v>
       </c>
-      <c r="I89" s="11">
+      <c r="I90" s="11">
         <v>55960</v>
       </c>
-      <c r="J89" s="11">
+      <c r="J90" s="11">
         <v>67777</v>
       </c>
-      <c r="K89" s="11">
+      <c r="K90" s="11">
         <v>15.900131480954339</v>
       </c>
-      <c r="L89" s="11">
+      <c r="L90" s="11">
         <v>11.93027888990358</v>
       </c>
-      <c r="M89" s="12">
+      <c r="M90" s="12">
         <v>16.922447322032493</v>
       </c>
     </row>
-    <row r="90" spans="2:13" hidden="1">
-      <c r="B90" s="4">
+    <row r="91" spans="2:13" hidden="1">
+      <c r="B91" s="4">
         <v>2018</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C91" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D91" s="6">
         <f t="shared" si="5"/>
         <v>947851</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E91" s="6">
         <v>477880</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F91" s="6">
         <v>469513</v>
       </c>
-      <c r="G90" s="6">
+      <c r="G91" s="6">
         <v>458</v>
       </c>
-      <c r="H90" s="6">
+      <c r="H91" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>122946</v>
       </c>
-      <c r="I90" s="6">
+      <c r="I91" s="6">
         <v>55790</v>
       </c>
-      <c r="J90" s="6">
+      <c r="J91" s="6">
         <v>67156</v>
       </c>
-      <c r="K90" s="6">
+      <c r="K91" s="6">
         <v>15.97</v>
       </c>
-      <c r="L90" s="6">
+      <c r="L91" s="6">
         <v>12.01</v>
       </c>
-      <c r="M90" s="7">
+      <c r="M91" s="7">
         <v>16.98</v>
       </c>
     </row>
-    <row r="91" spans="2:13" hidden="1">
-      <c r="B91" s="8">
+    <row r="92" spans="2:13" hidden="1">
+      <c r="B92" s="8">
         <v>2018</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C92" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D92" s="10">
         <f t="shared" si="5"/>
         <v>944527</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E92" s="11">
         <v>476241</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F92" s="11">
         <v>467827</v>
       </c>
-      <c r="G91" s="11">
+      <c r="G92" s="11">
         <v>459</v>
       </c>
-      <c r="H91" s="11">
+      <c r="H92" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>122105</v>
       </c>
-      <c r="I91" s="11">
+      <c r="I92" s="11">
         <v>55617</v>
       </c>
-      <c r="J91" s="11">
+      <c r="J92" s="11">
         <v>66488</v>
       </c>
-      <c r="K91" s="11">
+      <c r="K92" s="11">
         <v>16.02</v>
       </c>
-      <c r="L91" s="11">
+      <c r="L92" s="11">
         <v>12.1</v>
       </c>
-      <c r="M91" s="12">
+      <c r="M92" s="12">
         <v>17.03</v>
       </c>
     </row>
-    <row r="92" spans="2:13" hidden="1">
-      <c r="B92" s="4">
+    <row r="93" spans="2:13" hidden="1">
+      <c r="B93" s="4">
         <v>2018</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D93" s="6">
         <f t="shared" si="5"/>
         <v>936533</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E93" s="6">
         <v>472271</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F93" s="6">
         <v>463807</v>
       </c>
-      <c r="G92" s="6">
+      <c r="G93" s="6">
         <v>455</v>
       </c>
-      <c r="H92" s="6">
+      <c r="H93" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>121075</v>
       </c>
-      <c r="I92" s="6">
+      <c r="I93" s="6">
         <v>55199</v>
       </c>
-      <c r="J92" s="6">
+      <c r="J93" s="6">
         <v>65876</v>
       </c>
-      <c r="K92" s="6">
+      <c r="K93" s="6">
         <v>16.09</v>
       </c>
-      <c r="L92" s="6">
+      <c r="L93" s="6">
         <v>12.15</v>
       </c>
-      <c r="M92" s="7">
+      <c r="M93" s="7">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="93" spans="2:13" hidden="1">
-      <c r="B93" s="8">
+    <row r="94" spans="2:13" hidden="1">
+      <c r="B94" s="8">
         <v>2018</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C94" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D94" s="10">
         <f t="shared" si="5"/>
         <v>930205</v>
       </c>
-      <c r="E93" s="11">
+      <c r="E94" s="11">
         <v>469020</v>
       </c>
-      <c r="F93" s="11">
+      <c r="F94" s="11">
         <v>460731</v>
       </c>
-      <c r="G93" s="11">
+      <c r="G94" s="11">
         <v>454</v>
       </c>
-      <c r="H93" s="11">
+      <c r="H94" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>120039</v>
       </c>
-      <c r="I93" s="11">
+      <c r="I94" s="11">
         <v>54921</v>
       </c>
-      <c r="J93" s="11">
+      <c r="J94" s="11">
         <v>65118</v>
       </c>
-      <c r="K93" s="11">
+      <c r="K94" s="11">
         <v>16.160723713583874</v>
       </c>
-      <c r="L93" s="11">
+      <c r="L94" s="11">
         <v>12.219768117028636</v>
       </c>
-      <c r="M93" s="12">
+      <c r="M94" s="12">
         <v>17.169355262035737</v>
       </c>
     </row>
-    <row r="94" spans="2:13" hidden="1">
-      <c r="B94" s="4">
+    <row r="95" spans="2:13" hidden="1">
+      <c r="B95" s="4">
         <v>2018</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C95" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D95" s="6">
         <f t="shared" si="5"/>
         <v>924012</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E95" s="6">
         <v>466319</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F95" s="6">
         <v>457242</v>
       </c>
-      <c r="G94" s="6">
+      <c r="G95" s="6">
         <v>451</v>
       </c>
-      <c r="H94" s="6">
+      <c r="H95" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>118763</v>
       </c>
-      <c r="I94" s="6">
+      <c r="I95" s="6">
         <v>54503</v>
       </c>
-      <c r="J94" s="6">
+      <c r="J95" s="6">
         <v>64260</v>
       </c>
-      <c r="K94" s="6">
+      <c r="K95" s="6">
         <v>16.222653310134305</v>
       </c>
-      <c r="L94" s="6">
+      <c r="L95" s="6">
         <v>12.303791963827118</v>
       </c>
-      <c r="M94" s="7">
+      <c r="M95" s="7">
         <v>17.220716288635032</v>
       </c>
     </row>
-    <row r="95" spans="2:13" hidden="1">
-      <c r="B95" s="13">
+    <row r="96" spans="2:13" hidden="1">
+      <c r="B96" s="13">
         <v>2018</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C96" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D95" s="15">
+      <c r="D96" s="15">
         <f t="shared" si="5"/>
         <v>920526</v>
       </c>
-      <c r="E95" s="16">
+      <c r="E96" s="16">
         <v>464622</v>
       </c>
-      <c r="F95" s="16">
+      <c r="F96" s="16">
         <v>455453</v>
       </c>
-      <c r="G95" s="16">
+      <c r="G96" s="16">
         <v>451</v>
       </c>
-      <c r="H95" s="16">
+      <c r="H96" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>118260</v>
       </c>
-      <c r="I95" s="16">
+      <c r="I96" s="16">
         <v>54504</v>
       </c>
-      <c r="J95" s="16">
+      <c r="J96" s="16">
         <v>63756</v>
       </c>
-      <c r="K95" s="16">
+      <c r="K96" s="16">
         <v>16.29</v>
       </c>
-      <c r="L95" s="16">
+      <c r="L96" s="16">
         <v>12.37</v>
       </c>
-      <c r="M95" s="17">
+      <c r="M96" s="17">
         <v>17.28</v>
       </c>
-    </row>
-    <row r="96" spans="2:13">
-      <c r="B96" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M96" s="22"/>
     </row>
     <row r="97" spans="2:13">
       <c r="B97" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="M97" s="22"/>
     </row>
     <row r="98" spans="2:13">
       <c r="B98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M98" s="22"/>
+    </row>
+    <row r="99" spans="2:13">
+      <c r="B99" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Flota_Antigúedad_AF.xlsx
+++ b/Flota_Antigúedad_AF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A32D9F6-7728-43A1-B25B-6D2F1129C321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01E2D76-32F4-4839-BEB1-8B2A07719E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="29">
   <si>
     <t>Carga</t>
   </si>
@@ -125,7 +125,7 @@
     <t>Antigüedad promedio</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -365,7 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -431,6 +431,11 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -449,11 +454,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -729,8 +734,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:M96" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
-  <autoFilter ref="B5:M96" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}" name="Tabla1" displayName="Tabla1" ref="B5:M97" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
+  <autoFilter ref="B5:M97" xr:uid="{C3FA6F3B-E630-48A6-B1D4-4F133E394F1C}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -983,7 +988,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:P99"/>
+  <dimension ref="B2:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1020,22 +1025,22 @@
     <row r="4" spans="2:16">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33" t="s">
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="34" t="s">
+      <c r="I4" s="36"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="2:16" ht="33">
       <c r="B5" s="24" t="s">
@@ -1076,3660 +1081,3700 @@
       </c>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="9">
+      <c r="B6" s="5">
         <v>2025</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="42">
+        <f>SUM(E6:G6)</f>
+        <v>1486276</v>
+      </c>
+      <c r="E6" s="33">
+        <v>747443</v>
+      </c>
+      <c r="F6" s="33">
+        <v>738131</v>
+      </c>
+      <c r="G6" s="33">
+        <v>702</v>
+      </c>
+      <c r="H6" s="42">
+        <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
+        <v>189993</v>
+      </c>
+      <c r="I6" s="33">
+        <v>73861</v>
+      </c>
+      <c r="J6" s="33">
+        <v>116132</v>
+      </c>
+      <c r="K6" s="6">
+        <v>18.887830209117272</v>
+      </c>
+      <c r="L6" s="6">
+        <v>15.714531588005874</v>
+      </c>
+      <c r="M6" s="6">
+        <v>19.711252898214312</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="37">
-        <f>SUM(E6:G6)</f>
+      <c r="D7" s="43">
+        <f>SUM(E7:G7)</f>
         <v>1480576</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E7" s="32">
         <v>744719</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F7" s="32">
         <v>735160</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G7" s="32">
         <v>697</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H7" s="45">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>189492</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I7" s="31">
         <v>73760</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J7" s="32">
         <v>115732</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K7" s="11">
         <v>18.939120782618119</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L7" s="11">
         <v>15.764549426888737</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M7" s="11">
         <v>19.764586374189459</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="5">
+    <row r="8" spans="2:16">
+      <c r="B8" s="5">
         <v>2025</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="39">
-        <f>SUM(E7:G7)</f>
+      <c r="D8" s="42">
+        <f>SUM(E8:G8)</f>
         <v>1477953</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E8" s="33">
         <v>744628</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F8" s="33">
         <v>732634</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G8" s="33">
         <v>691</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H8" s="42">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>188967</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I8" s="33">
         <v>73847</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J8" s="33">
         <v>115120</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K8" s="6">
         <v>18.993057977024765</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L8" s="6">
         <v>15.831536723343229</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M8" s="6">
         <v>19.807483736845786</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="9">
+    <row r="9" spans="2:16">
+      <c r="B9" s="9">
         <v>2025</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="37">
-        <f>SUM(E8:G8)</f>
+      <c r="D9" s="43">
+        <f>SUM(E9:G9)</f>
         <v>1467869</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E9" s="32">
         <v>738785</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F9" s="32">
         <v>728411</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G9" s="32">
         <v>673</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H9" s="45">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>188447</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I9" s="31">
         <v>73791</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J9" s="32">
         <v>114656</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K9" s="11">
         <v>19.058922726698931</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L9" s="11">
         <v>15.88138309445096</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M9" s="11">
         <v>19.887317690532427</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="5">
+    <row r="10" spans="2:16">
+      <c r="B10" s="5">
         <v>2025</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="39">
-        <f t="shared" ref="D9:D14" si="0">SUM(E9:G9)</f>
+      <c r="D10" s="42">
+        <f t="shared" ref="D10:D15" si="0">SUM(E10:G10)</f>
         <v>1462190</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E10" s="33">
         <v>736441</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F10" s="33">
         <v>725074</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G10" s="33">
         <v>675</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H10" s="42">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>188131</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I10" s="33">
         <v>73852</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J10" s="33">
         <v>114279</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K10" s="6">
         <v>19.115429007193057</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L10" s="6">
         <v>15.939308247976143</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M10" s="6">
         <v>19.944664949398529</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="9">
+    <row r="11" spans="2:16">
+      <c r="B11" s="9">
         <v>2025</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D11" s="43">
         <f t="shared" si="0"/>
         <v>1454977</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E11" s="32">
         <v>732842</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F11" s="32">
         <v>721468</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G11" s="32">
         <v>667</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H11" s="45">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>187465</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I11" s="31">
         <v>73738</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J11" s="32">
         <v>113727</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K11" s="11">
         <v>19.18470984148254</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L11" s="11">
         <v>16.007019977062384</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M11" s="11">
         <v>20.020610172451907</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="5">
+    <row r="12" spans="2:16">
+      <c r="B12" s="5">
         <v>2025</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D12" s="42">
         <f t="shared" si="0"/>
         <v>1448239</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E12" s="33">
         <v>729319</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F12" s="33">
         <v>718257</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G12" s="33">
         <v>663</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H12" s="42">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>186866</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I12" s="33">
         <v>73570</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J12" s="33">
         <v>113296</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K12" s="6">
         <v>19.252675224939154</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L12" s="6">
         <v>16.075695953249923</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M12" s="6">
         <v>20.096500982423329</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="13">
+    <row r="13" spans="2:16">
+      <c r="B13" s="13">
         <v>2025</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D13" s="44">
         <f t="shared" si="0"/>
         <v>1441492</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E13" s="35">
         <v>726109</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F13" s="35">
         <v>714727</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G13" s="35">
         <v>656</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H13" s="46">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>186423</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I13" s="34">
         <v>73458</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J13" s="35">
         <v>112965</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K13" s="29">
         <v>19.321609528661387</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L13" s="29">
         <v>16.134200179162441</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M13" s="30">
         <v>20.172519552849504</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="4">
+    <row r="14" spans="2:16">
+      <c r="B14" s="4">
         <v>2024</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D14" s="42">
         <f t="shared" si="0"/>
         <v>1435884</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E14" s="33">
         <v>723462</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F14" s="33">
         <v>711776</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G14" s="33">
         <v>646</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H14" s="42">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>186064</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I14" s="33">
         <v>73453</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J14" s="33">
         <v>112611</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K14" s="6">
         <v>18.404813538748488</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L14" s="6">
         <v>15.191272895347836</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M14" s="7">
         <v>19.269418435246081</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="8">
+    <row r="15" spans="2:16">
+      <c r="B15" s="8">
         <v>2024</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D15" s="43">
         <f t="shared" si="0"/>
         <v>1428265</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E15" s="32">
         <v>719185</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F15" s="32">
         <v>708450</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G15" s="32">
         <v>630</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H15" s="45">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>184987</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I15" s="31">
         <v>73204</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J15" s="32">
         <v>111783</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K15" s="11">
         <v>18.476960502833276</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L15" s="11">
         <v>15.270154118938088</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M15" s="12">
         <v>19.35768543559724</v>
       </c>
-      <c r="P14"/>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="4">
+      <c r="P15"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="4">
         <v>2024</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="39">
-        <f t="shared" ref="D15" si="1">SUM(E15:G15)</f>
+      <c r="D16" s="42">
+        <f t="shared" ref="D16" si="1">SUM(E16:G16)</f>
         <v>1419744</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E16" s="33">
         <v>714747</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F16" s="33">
         <v>704375</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G16" s="33">
         <v>622</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H16" s="42">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>184353</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I16" s="33">
         <v>73206</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J16" s="33">
         <v>111147</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K16" s="6">
         <v>18.559178035204791</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L16" s="6">
         <v>15.333984258460672</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M16" s="7">
         <v>19.45495538980926</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="8">
+    <row r="17" spans="2:13">
+      <c r="B17" s="8">
         <v>2024</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="37">
-        <f>SUM(E16:G16)</f>
+      <c r="D17" s="43">
+        <f>SUM(E17:G17)</f>
         <v>1409947</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E17" s="32">
         <v>709391</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F17" s="32">
         <v>699945</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G17" s="32">
         <v>611</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H17" s="45">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>183444</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I17" s="31">
         <v>72959</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J17" s="32">
         <v>110485</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K17" s="11">
         <v>18.653800273735229</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L17" s="11">
         <v>15.41505309522252</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M17" s="12">
         <v>19.569322136875151</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="4">
+    <row r="18" spans="2:13">
+      <c r="B18" s="4">
         <v>2024</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="39">
-        <f>SUM(E17:G17)</f>
+      <c r="D18" s="42">
+        <f>SUM(E18:G18)</f>
         <v>1401613</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E18" s="33">
         <v>704941</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F18" s="33">
         <v>696064</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G18" s="33">
         <v>608</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H18" s="42">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>182766</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I18" s="33">
         <v>72808</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J18" s="33">
         <v>109958</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K18" s="6">
         <v>18.731302694644619</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L18" s="6">
         <v>15.486441679524638</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M18" s="7">
         <v>19.663221461086813</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="8">
+    <row r="19" spans="2:13">
+      <c r="B19" s="8">
         <v>2024</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="37">
-        <f t="shared" ref="D18:D20" si="2">SUM(E18:G18)</f>
+      <c r="D19" s="43">
+        <f t="shared" ref="D19:D21" si="2">SUM(E19:G19)</f>
         <v>1392231</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E19" s="32">
         <v>700064</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F19" s="32">
         <v>691573</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G19" s="32">
         <v>594</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H19" s="45">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>182096</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I19" s="32">
         <v>72722</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J19" s="32">
         <v>109374</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K19" s="11">
         <v>18.818005976871554</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L19" s="11">
         <v>15.548683112204552</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M19" s="12">
         <v>19.76646992274992</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="4">
+    <row r="20" spans="2:13">
+      <c r="B20" s="4">
         <v>2024</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D20" s="42">
         <f t="shared" si="2"/>
         <v>1381670</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E20" s="33">
         <v>694997</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F20" s="33">
         <v>686081</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G20" s="33">
         <v>592</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H20" s="42">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>181209</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I20" s="33">
         <v>72604</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J20" s="33">
         <v>108605</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K20" s="6">
         <v>18.917404420570612</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L20" s="6">
         <v>15.6321154026566</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M20" s="7">
         <v>19.872406643481913</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="8">
+    <row r="21" spans="2:13">
+      <c r="B21" s="8">
         <v>2024</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D21" s="43">
         <f t="shared" si="2"/>
         <v>1364076</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E21" s="32">
         <v>686433</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F21" s="32">
         <v>677060</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G21" s="32">
         <v>583</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H21" s="45">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>180169</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I21" s="32">
         <v>72197</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J21" s="32">
         <v>107972</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K21" s="11">
         <v>19.07390024500182</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L21" s="11">
         <v>15.728466051318485</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M21" s="11">
         <v>20.044184938661164</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
-      <c r="B21" s="4">
+    <row r="22" spans="2:13">
+      <c r="B22" s="4">
         <v>2024</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="39">
-        <f t="shared" ref="D21:D51" si="3">SUM(E21:G21)</f>
+      <c r="D22" s="42">
+        <f t="shared" ref="D22:D52" si="3">SUM(E22:G22)</f>
         <v>1362046</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E22" s="33">
         <v>685435</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F22" s="33">
         <v>676046</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G22" s="33">
         <v>565</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H22" s="42">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>179118</v>
       </c>
-      <c r="I21" s="39">
+      <c r="I22" s="33">
         <v>71981</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J22" s="33">
         <v>107137</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K22" s="6">
         <v>19.118977099167271</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L22" s="6">
         <v>15.827370783505843</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M22" s="7">
         <v>20.082257252693545</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="8">
+    <row r="23" spans="2:13">
+      <c r="B23" s="8">
         <v>2024</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D23" s="43">
         <f t="shared" si="3"/>
         <v>1353988</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E23" s="32">
         <v>681551</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F23" s="32">
         <v>671878</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G23" s="32">
         <v>559</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H23" s="45">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>178140</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I23" s="32">
         <v>71842</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J23" s="32">
         <v>106298</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K23" s="11">
         <v>19.204794560349551</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L23" s="11">
         <v>15.921746940608513</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M23" s="12">
         <v>20.167528182043604</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
-      <c r="B23" s="4">
+    <row r="24" spans="2:13">
+      <c r="B24" s="4">
         <v>2024</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D24" s="42">
         <f t="shared" si="3"/>
         <v>1345055</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E24" s="33">
         <v>677153</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F24" s="33">
         <v>667343</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G24" s="33">
         <v>559</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H24" s="42">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>177618</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I24" s="33">
         <v>71797</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J24" s="33">
         <v>105821</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K24" s="6">
         <v>19.298350846257247</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L24" s="6">
         <v>15.980300420002475</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M24" s="7">
         <v>20.271950356861744</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
-      <c r="B24" s="13">
+    <row r="25" spans="2:13">
+      <c r="B25" s="13">
         <v>2024</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D25" s="44">
         <f t="shared" si="3"/>
         <v>1337961</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E25" s="35">
         <v>673757</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F25" s="35">
         <v>663646</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G25" s="35">
         <v>558</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H25" s="46">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>176858</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I25" s="35">
         <v>71641</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J25" s="35">
         <v>105217</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K25" s="16">
         <v>19.37957723272276</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L25" s="16">
         <v>16.061088556921373</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M25" s="17">
         <v>20.355880532595581</v>
       </c>
     </row>
-    <row r="25" spans="2:13" hidden="1">
-      <c r="B25" s="18">
+    <row r="26" spans="2:13" hidden="1">
+      <c r="B26" s="18">
         <v>2023</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D26" s="20">
         <f t="shared" si="3"/>
         <v>1331921</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E26" s="20">
         <v>671002</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F26" s="20">
         <v>660365</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G26" s="20">
         <v>554</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H26" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>176251</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I26" s="20">
         <v>71562</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J26" s="20">
         <v>104689</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K26" s="20">
         <v>18.475869218860481</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L26" s="20">
         <v>15.134234699377592</v>
       </c>
-      <c r="M25" s="21">
+      <c r="M26" s="21">
         <v>19.458281793496891</v>
       </c>
     </row>
-    <row r="26" spans="2:13" hidden="1">
-      <c r="B26" s="8">
+    <row r="27" spans="2:13" hidden="1">
+      <c r="B27" s="8">
         <v>2023</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D27" s="10">
         <f t="shared" si="3"/>
         <v>1324591</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="11">
         <v>667021</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="11">
         <v>657017</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G27" s="11">
         <v>553</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H27" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>175311</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I27" s="11">
         <v>71379</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J27" s="11">
         <v>103932</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K27" s="11">
         <v>18.551437990754653</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L27" s="11">
         <v>15.22355699300101</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M27" s="12">
         <v>19.543477641633473</v>
       </c>
     </row>
-    <row r="27" spans="2:13" hidden="1">
-      <c r="B27" s="4">
+    <row r="28" spans="2:13" hidden="1">
+      <c r="B28" s="4">
         <v>2023</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D28" s="6">
         <f t="shared" si="3"/>
         <v>1316689</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="6">
         <v>662911</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F28" s="6">
         <v>653227</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G28" s="6">
         <v>551</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H28" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>174393</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I28" s="6">
         <v>71146</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J28" s="6">
         <v>103247</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K28" s="6">
         <v>18.63639333901811</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L28" s="6">
         <v>15.305362027145584</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M28" s="7">
         <v>19.637007079381696</v>
       </c>
     </row>
-    <row r="28" spans="2:13" hidden="1">
-      <c r="B28" s="8">
+    <row r="29" spans="2:13" hidden="1">
+      <c r="B29" s="8">
         <v>2023</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D29" s="10">
         <f t="shared" si="3"/>
         <v>1309236</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="11">
         <v>659020</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="11">
         <v>649665</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G29" s="11">
         <v>551</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H29" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>173599</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I29" s="11">
         <v>71029</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J29" s="11">
         <v>102570</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K29" s="11">
         <v>18.719585450561432</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L29" s="11">
         <v>15.387882418677528</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M29" s="12">
         <v>19.730128068950865</v>
       </c>
     </row>
-    <row r="29" spans="2:13" hidden="1">
-      <c r="B29" s="4">
+    <row r="30" spans="2:13" hidden="1">
+      <c r="B30" s="4">
         <v>2023</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D30" s="6">
         <f t="shared" si="3"/>
         <v>1302003</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E30" s="6">
         <v>655458</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F30" s="6">
         <v>645999</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G30" s="6">
         <v>546</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H30" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>172764</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I30" s="6">
         <v>70834</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J30" s="6">
         <v>101930</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K30" s="6">
         <v>18.802238606016331</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L30" s="6">
         <v>15.470034266398091</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M30" s="7">
         <v>19.817370449365175</v>
       </c>
     </row>
-    <row r="30" spans="2:13" hidden="1">
-      <c r="B30" s="8">
+    <row r="31" spans="2:13" hidden="1">
+      <c r="B31" s="8">
         <v>2023</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D31" s="10">
         <f t="shared" si="3"/>
         <v>1294209</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="11">
         <v>651761</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F31" s="11">
         <v>641907</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G31" s="11">
         <v>541</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H31" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>172137</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I31" s="11">
         <v>70783</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J31" s="11">
         <v>101354</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K31" s="11">
         <v>18.888086750966192</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L31" s="11">
         <v>15.535631502814621</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M31" s="12">
         <v>19.908092076696825</v>
       </c>
     </row>
-    <row r="31" spans="2:13" hidden="1">
-      <c r="B31" s="4">
+    <row r="32" spans="2:13" hidden="1">
+      <c r="B32" s="4">
         <v>2023</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D32" s="6">
         <f t="shared" si="3"/>
         <v>1286042</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E32" s="6">
         <v>647906</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F32" s="6">
         <v>637598</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G32" s="6">
         <v>538</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H32" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>171516</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I32" s="6">
         <v>70673</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J32" s="6">
         <v>100843</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K32" s="6">
         <v>18.982887674843173</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L32" s="6">
         <v>15.606316611861285</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M32" s="7">
         <v>20.002412386982066</v>
       </c>
     </row>
-    <row r="32" spans="2:13" hidden="1">
-      <c r="B32" s="8">
+    <row r="33" spans="2:13" hidden="1">
+      <c r="B33" s="8">
         <v>2023</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D33" s="10">
         <f t="shared" si="3"/>
         <v>1279902</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E33" s="11">
         <v>645139</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F33" s="11">
         <v>634226</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G33" s="11">
         <v>537</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H33" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>170681</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I33" s="11">
         <v>70483</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J33" s="11">
         <v>100198</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K33" s="11">
         <v>19.060761520669001</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L33" s="11">
         <v>15.688172672998164</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M33" s="12">
         <v>20.079559598784137</v>
       </c>
     </row>
-    <row r="33" spans="2:13" hidden="1">
-      <c r="B33" s="4">
+    <row r="34" spans="2:13" hidden="1">
+      <c r="B34" s="4">
         <v>2023</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D34" s="6">
         <f t="shared" si="3"/>
         <v>1273243</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E34" s="6">
         <v>641751</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F34" s="6">
         <v>630955</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G34" s="6">
         <v>537</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H34" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>170020</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I34" s="6">
         <v>70335</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J34" s="6">
         <v>99685</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K34" s="6">
         <v>19.1410877741165</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L34" s="6">
         <v>15.757763792495</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M34" s="7">
         <v>20.166095572893536</v>
       </c>
     </row>
-    <row r="34" spans="2:13" hidden="1">
-      <c r="B34" s="8">
+    <row r="35" spans="2:13" hidden="1">
+      <c r="B35" s="8">
         <v>2023</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D35" s="10">
         <f t="shared" si="3"/>
         <v>1267813</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="11">
         <v>639200</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F35" s="11">
         <v>628078</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G35" s="11">
         <v>535</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H35" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>169398</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I35" s="11">
         <v>70212</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J35" s="11">
         <v>99186</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K35" s="11">
         <v>19.207652247270783</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L35" s="11">
         <v>15.818386285552368</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M35" s="12">
         <v>20.231362640800999</v>
       </c>
     </row>
-    <row r="35" spans="2:13" hidden="1">
-      <c r="B35" s="4">
+    <row r="36" spans="2:13" hidden="1">
+      <c r="B36" s="4">
         <v>2023</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D36" s="6">
         <f t="shared" si="3"/>
         <v>1261816</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E36" s="6">
         <v>636167</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F36" s="6">
         <v>625114</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G36" s="6">
         <v>535</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H36" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>168270</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I36" s="6">
         <v>70028</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J36" s="6">
         <v>98242</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K36" s="6">
         <v>19.287032781621644</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L36" s="6">
         <v>15.924098175551196</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M36" s="7">
         <v>20.308953466621187</v>
       </c>
     </row>
-    <row r="36" spans="2:13" hidden="1">
-      <c r="B36" s="13">
+    <row r="37" spans="2:13" hidden="1">
+      <c r="B37" s="13">
         <v>2023</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D37" s="15">
         <f t="shared" si="3"/>
         <v>1256959</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E37" s="16">
         <v>633934</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F37" s="16">
         <v>622491</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G37" s="16">
         <v>534</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H37" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>167855</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I37" s="16">
         <v>70043</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J37" s="16">
         <v>97812</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K37" s="16">
         <v>19.347213328839835</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L37" s="16">
         <v>15.971731554019838</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M37" s="17">
         <v>20.368738701505205</v>
       </c>
     </row>
-    <row r="37" spans="2:13" hidden="1">
-      <c r="B37" s="18">
+    <row r="38" spans="2:13" hidden="1">
+      <c r="B38" s="18">
         <v>2022</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C38" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D38" s="20">
         <f t="shared" si="3"/>
         <v>1253020</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E38" s="20">
         <v>632252</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F38" s="20">
         <v>620240</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G38" s="20">
         <v>528</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H38" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>167359</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I38" s="20">
         <v>70056</v>
       </c>
-      <c r="J37" s="20">
+      <c r="J38" s="20">
         <v>97303</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K38" s="20">
         <v>18.42307890053252</v>
       </c>
-      <c r="L37" s="20">
+      <c r="L38" s="20">
         <v>15.042250491458482</v>
       </c>
-      <c r="M37" s="21">
+      <c r="M38" s="21">
         <v>19.442766491841866</v>
       </c>
     </row>
-    <row r="38" spans="2:13" hidden="1">
-      <c r="B38" s="8">
+    <row r="39" spans="2:13" hidden="1">
+      <c r="B39" s="8">
         <v>2022</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D39" s="10">
         <f t="shared" si="3"/>
         <v>1248052</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="11">
         <v>629746</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F39" s="11">
         <v>617778</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G39" s="11">
         <v>528</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H39" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>166178</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I39" s="11">
         <v>69821</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J39" s="11">
         <v>96357</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K39" s="11">
         <v>18.489979500630259</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L39" s="11">
         <v>15.145163619733058</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M39" s="12">
         <v>19.503375964277662</v>
       </c>
     </row>
-    <row r="39" spans="2:13" hidden="1">
-      <c r="B39" s="4">
+    <row r="40" spans="2:13" hidden="1">
+      <c r="B40" s="4">
         <v>2022</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D40" s="6">
         <f t="shared" si="3"/>
         <v>1243495</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E40" s="6">
         <v>627591</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F40" s="6">
         <v>615376</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G40" s="6">
         <v>528</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H40" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>165354</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I40" s="6">
         <v>69675</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J40" s="6">
         <v>95679</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K40" s="6">
         <v>18.547631541388647</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L40" s="6">
         <v>15.219299200503164</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M40" s="7">
         <v>19.558707820857851</v>
       </c>
     </row>
-    <row r="40" spans="2:13" hidden="1">
-      <c r="B40" s="8">
+    <row r="41" spans="2:13" hidden="1">
+      <c r="B41" s="8">
         <v>2022</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D41" s="10">
         <f t="shared" si="3"/>
         <v>1239858</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E41" s="11">
         <v>625802</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F41" s="11">
         <v>613527</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G41" s="11">
         <v>529</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H41" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>164931</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I41" s="11">
         <v>69723</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J41" s="11">
         <v>95208</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K41" s="11">
         <v>18.59142751342344</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L41" s="11">
         <v>15.268857886025064</v>
       </c>
-      <c r="M40" s="12">
+      <c r="M41" s="12">
         <v>19.601036749642859</v>
       </c>
     </row>
-    <row r="41" spans="2:13" hidden="1">
-      <c r="B41" s="4">
+    <row r="42" spans="2:13" hidden="1">
+      <c r="B42" s="4">
         <v>2022</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D42" s="6">
         <f t="shared" si="3"/>
         <v>1234757</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E42" s="6">
         <v>623225</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F42" s="6">
         <v>611005</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G42" s="6">
         <v>527</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H42" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>166002</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I42" s="6">
         <v>69645</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J42" s="6">
         <v>96357</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K42" s="6">
         <v>18.633291483125653</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L42" s="6">
         <v>15.188636281490584</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M42" s="7">
         <v>19.665687352079907</v>
       </c>
     </row>
-    <row r="42" spans="2:13" hidden="1">
-      <c r="B42" s="8">
+    <row r="43" spans="2:13" hidden="1">
+      <c r="B43" s="8">
         <v>2022</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C43" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D43" s="10">
         <f t="shared" si="3"/>
         <v>1227595</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E43" s="11">
         <v>619408</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F43" s="11">
         <v>607662</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G43" s="11">
         <v>525</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H43" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>163526</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I43" s="11">
         <v>69586</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J43" s="11">
         <v>93940</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K43" s="11">
         <v>18.738775316483004</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L43" s="11">
         <v>15.421364186734833</v>
       </c>
-      <c r="M42" s="12">
+      <c r="M43" s="12">
         <v>19.756386743471182</v>
       </c>
     </row>
-    <row r="43" spans="2:13" hidden="1">
-      <c r="B43" s="4">
+    <row r="44" spans="2:13" hidden="1">
+      <c r="B44" s="4">
         <v>2022</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D44" s="6">
         <f t="shared" si="3"/>
         <v>1225289</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E44" s="6">
         <v>618040</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F44" s="6">
         <v>606724</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G44" s="6">
         <v>525</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H44" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>163070</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I44" s="6">
         <v>69430</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J44" s="6">
         <v>93640</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K44" s="6">
         <v>18.751951602280965</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L44" s="6">
         <v>15.452272030416385</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M44" s="7">
         <v>19.768709145039157</v>
       </c>
     </row>
-    <row r="44" spans="2:13" hidden="1">
-      <c r="B44" s="8">
+    <row r="45" spans="2:13" hidden="1">
+      <c r="B45" s="8">
         <v>2022</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D45" s="10">
         <f t="shared" si="3"/>
         <v>1222511</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E45" s="11">
         <v>616795</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F45" s="11">
         <v>605191</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G45" s="11">
         <v>525</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H45" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>162777</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I45" s="11">
         <v>69624</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J45" s="11">
         <v>93153</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K45" s="11">
         <v>18.804625051362581</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L45" s="11">
         <v>15.510440664221605</v>
       </c>
-      <c r="M44" s="12">
+      <c r="M45" s="12">
         <v>19.817924918327808</v>
       </c>
     </row>
-    <row r="45" spans="2:13" hidden="1">
-      <c r="B45" s="4">
+    <row r="46" spans="2:13" hidden="1">
+      <c r="B46" s="4">
         <v>2022</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D46" s="6">
         <f t="shared" si="3"/>
         <v>1217422</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E46" s="6">
         <v>614317</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F46" s="6">
         <v>602581</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G46" s="6">
         <v>524</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H46" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>162245</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I46" s="6">
         <v>69515</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J46" s="6">
         <v>92730</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K46" s="6">
         <v>18.867667819798235</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L46" s="6">
         <v>15.572301149496132</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M46" s="7">
         <v>19.875979339656887</v>
       </c>
     </row>
-    <row r="46" spans="2:13" hidden="1">
-      <c r="B46" s="8">
+    <row r="47" spans="2:13" hidden="1">
+      <c r="B47" s="8">
         <v>2022</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D47" s="10">
         <f t="shared" si="3"/>
         <v>1212635</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="11">
         <v>611918</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F47" s="11">
         <v>600194</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G47" s="11">
         <v>523</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H47" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>161903</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I47" s="11">
         <v>69487</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J47" s="11">
         <v>92416</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K47" s="11">
         <v>18.918767990160223</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L47" s="11">
         <v>15.612731079720572</v>
       </c>
-      <c r="M46" s="12">
+      <c r="M47" s="12">
         <v>19.925975375785644</v>
       </c>
     </row>
-    <row r="47" spans="2:13" hidden="1">
-      <c r="B47" s="4">
+    <row r="48" spans="2:13" hidden="1">
+      <c r="B48" s="4">
         <v>2022</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D48" s="6">
         <f t="shared" si="3"/>
         <v>1207392</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E48" s="6">
         <v>609072</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F48" s="6">
         <v>597797</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G48" s="6">
         <v>523</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H48" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>161179</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I48" s="6">
         <v>69288</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J48" s="6">
         <v>91891</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K48" s="6">
         <v>18.985056810872138</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L48" s="6">
         <v>15.690822005348092</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M48" s="7">
         <v>19.992202892268896</v>
       </c>
     </row>
-    <row r="48" spans="2:13" hidden="1">
-      <c r="B48" s="13">
+    <row r="49" spans="2:13" hidden="1">
+      <c r="B49" s="13">
         <v>2022</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D49" s="15">
         <f t="shared" si="3"/>
         <v>1203679</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E49" s="16">
         <v>607150</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F49" s="16">
         <v>596005</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G49" s="16">
         <v>524</v>
       </c>
-      <c r="H48" s="16">
+      <c r="H49" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>160915</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I49" s="16">
         <v>69335</v>
       </c>
-      <c r="J48" s="16">
+      <c r="J49" s="16">
         <v>91580</v>
       </c>
-      <c r="K48" s="16">
+      <c r="K49" s="16">
         <v>19.033586986005115</v>
       </c>
-      <c r="L48" s="16">
+      <c r="L49" s="16">
         <v>15.723189261411305</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M49" s="17">
         <v>20.040443053611135</v>
       </c>
     </row>
-    <row r="49" spans="2:13" hidden="1">
-      <c r="B49" s="18">
+    <row r="50" spans="2:13" hidden="1">
+      <c r="B50" s="18">
         <v>2021</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C50" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D50" s="20">
         <f t="shared" si="3"/>
         <v>1201053</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E50" s="20">
         <v>606090</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F50" s="20">
         <v>594443</v>
       </c>
-      <c r="G49" s="20">
+      <c r="G50" s="20">
         <v>520</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H50" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>160633</v>
       </c>
-      <c r="I49" s="20">
+      <c r="I50" s="20">
         <v>69330</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J50" s="20">
         <v>91303</v>
       </c>
-      <c r="K49" s="20">
+      <c r="K50" s="20">
         <v>18.104901973748976</v>
       </c>
-      <c r="L49" s="20">
+      <c r="L50" s="20">
         <v>14.77932927854177</v>
       </c>
-      <c r="M49" s="21">
+      <c r="M50" s="21">
         <v>19.103214044118861</v>
       </c>
     </row>
-    <row r="50" spans="2:13" hidden="1">
-      <c r="B50" s="8">
+    <row r="51" spans="2:13" hidden="1">
+      <c r="B51" s="8">
         <v>2021</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C51" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D51" s="10">
         <f t="shared" si="3"/>
         <v>1195350</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="11">
         <v>603380</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F51" s="11">
         <v>591451</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G51" s="11">
         <v>519</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H51" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>159783</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I51" s="11">
         <v>69196</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J51" s="11">
         <v>90587</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K51" s="11">
         <v>18.165010106199993</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L51" s="11">
         <v>14.853858044973496</v>
       </c>
-      <c r="M50" s="12">
+      <c r="M51" s="12">
         <v>19.159161722297721</v>
       </c>
     </row>
-    <row r="51" spans="2:13" hidden="1">
-      <c r="B51" s="4">
+    <row r="52" spans="2:13" hidden="1">
+      <c r="B52" s="4">
         <v>2021</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D52" s="6">
         <f t="shared" si="3"/>
         <v>1192781</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E52" s="6">
         <v>602061</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F52" s="6">
         <v>590200</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G52" s="6">
         <v>520</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H52" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>159209</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I52" s="6">
         <v>69167</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J52" s="6">
         <v>90042</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K52" s="6">
         <v>18.210527795659541</v>
       </c>
-      <c r="L51" s="6">
+      <c r="L52" s="6">
         <v>14.91196477586066</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M52" s="7">
         <v>19.201099224164992</v>
       </c>
     </row>
-    <row r="52" spans="2:13" hidden="1">
-      <c r="B52" s="8">
+    <row r="53" spans="2:13" hidden="1">
+      <c r="B53" s="8">
         <v>2021</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="10">
-        <f t="shared" ref="D52:D83" si="4">SUM(E52:G52)</f>
+      <c r="D53" s="10">
+        <f t="shared" ref="D53:D84" si="4">SUM(E53:G53)</f>
         <v>1186041</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E53" s="11">
         <v>599199</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F53" s="11">
         <v>586326</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G53" s="11">
         <v>516</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H53" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>158594</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I53" s="11">
         <v>69024</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J53" s="11">
         <v>89570</v>
       </c>
-      <c r="K52" s="11">
+      <c r="K53" s="11">
         <v>18.280978841903135</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L53" s="11">
         <v>14.981991752525316</v>
       </c>
-      <c r="M52" s="12">
+      <c r="M53" s="12">
         <v>19.262381946565331</v>
       </c>
     </row>
-    <row r="53" spans="2:13" hidden="1">
-      <c r="B53" s="4">
+    <row r="54" spans="2:13" hidden="1">
+      <c r="B54" s="4">
         <v>2021</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D54" s="6">
         <f t="shared" si="4"/>
         <v>1182334</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E54" s="6">
         <v>597975</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F54" s="6">
         <v>583854</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G54" s="6">
         <v>505</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H54" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157584</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I54" s="6">
         <v>68967</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J54" s="6">
         <v>88617</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K54" s="6">
         <v>18.343313078191716</v>
       </c>
-      <c r="L53" s="6">
+      <c r="L54" s="6">
         <v>15.069702507868818</v>
       </c>
-      <c r="M53" s="7">
+      <c r="M54" s="7">
         <v>19.317817634516494</v>
       </c>
     </row>
-    <row r="54" spans="2:13" hidden="1">
-      <c r="B54" s="8">
+    <row r="55" spans="2:13" hidden="1">
+      <c r="B55" s="8">
         <v>2021</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D55" s="10">
         <f t="shared" si="4"/>
         <v>1175907</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E55" s="11">
         <v>594590</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F55" s="11">
         <v>580812</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G55" s="11">
         <v>505</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H55" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157806</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I55" s="11">
         <v>69051</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J55" s="11">
         <v>88755</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K55" s="11">
         <v>18.386941872536017</v>
       </c>
-      <c r="L54" s="11">
+      <c r="L55" s="11">
         <v>15.078070542311446</v>
       </c>
-      <c r="M54" s="12">
+      <c r="M55" s="12">
         <v>19.364975865722599</v>
       </c>
     </row>
-    <row r="55" spans="2:13" hidden="1">
-      <c r="B55" s="4">
+    <row r="56" spans="2:13" hidden="1">
+      <c r="B56" s="4">
         <v>2021</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D56" s="6">
         <f t="shared" si="4"/>
         <v>1172788</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E56" s="6">
         <v>593307</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F56" s="6">
         <v>578970</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G56" s="6">
         <v>511</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H56" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>157163</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I56" s="6">
         <v>68993</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J56" s="6">
         <v>88170</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K56" s="6">
         <v>18.439486550728127</v>
       </c>
-      <c r="L55" s="6">
+      <c r="L56" s="6">
         <v>15.1151861443215</v>
       </c>
-      <c r="M55" s="7">
+      <c r="M56" s="7">
         <v>19.410730026782087</v>
       </c>
     </row>
-    <row r="56" spans="2:13" hidden="1">
-      <c r="B56" s="8">
+    <row r="57" spans="2:13" hidden="1">
+      <c r="B57" s="8">
         <v>2021</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C57" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D57" s="10">
         <f t="shared" si="4"/>
         <v>1166805</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E57" s="11">
         <v>590245</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F57" s="11">
         <v>576050</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G57" s="11">
         <v>510</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H57" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156786</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I57" s="11">
         <v>69018</v>
       </c>
-      <c r="J56" s="11">
+      <c r="J57" s="11">
         <v>87768</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K57" s="11">
         <v>18.504217806770711</v>
       </c>
-      <c r="L56" s="11">
+      <c r="L57" s="11">
         <v>15.155396527751202</v>
       </c>
-      <c r="M56" s="12">
+      <c r="M57" s="12">
         <v>19.481235758032678</v>
       </c>
     </row>
-    <row r="57" spans="2:13" hidden="1">
-      <c r="B57" s="4">
+    <row r="58" spans="2:13" hidden="1">
+      <c r="B58" s="4">
         <v>2021</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D58" s="6">
         <f t="shared" si="4"/>
         <v>1162463</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E58" s="6">
         <v>588077</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F58" s="6">
         <v>573877</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G58" s="6">
         <v>509</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H58" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156695</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I58" s="6">
         <v>69223</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J58" s="6">
         <v>87472</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K58" s="6">
         <v>18.555855273086319</v>
       </c>
-      <c r="L57" s="6">
+      <c r="L58" s="6">
         <v>15.176859504132231</v>
       </c>
-      <c r="M57" s="7">
+      <c r="M58" s="7">
         <v>19.539313729324562</v>
       </c>
     </row>
-    <row r="58" spans="2:13" hidden="1">
-      <c r="B58" s="8">
+    <row r="59" spans="2:13" hidden="1">
+      <c r="B59" s="8">
         <v>2021</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D59" s="10">
         <f t="shared" si="4"/>
         <v>1157730</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="11">
         <v>586093</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F59" s="11">
         <v>571129</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G59" s="11">
         <v>508</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H59" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156467</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I59" s="11">
         <v>69334</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J59" s="11">
         <v>87133</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K59" s="11">
         <v>18.610992403833784</v>
       </c>
-      <c r="L58" s="11">
+      <c r="L59" s="11">
         <v>15.20547463682438</v>
       </c>
-      <c r="M58" s="12">
+      <c r="M59" s="12">
         <v>19.591187746654541</v>
       </c>
     </row>
-    <row r="59" spans="2:13" hidden="1">
-      <c r="B59" s="4">
+    <row r="60" spans="2:13" hidden="1">
+      <c r="B60" s="4">
         <v>2021</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D60" s="6">
         <f t="shared" si="4"/>
         <v>1151624</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E60" s="6">
         <v>583440</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F60" s="6">
         <v>567677</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G60" s="6">
         <v>507</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H60" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156128</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I60" s="6">
         <v>69352</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J60" s="6">
         <v>86776</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K60" s="6">
         <v>18.682593545968817</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L60" s="6">
         <v>15.246899979503995</v>
       </c>
-      <c r="M59" s="7">
+      <c r="M60" s="7">
         <v>19.65870183737831</v>
       </c>
     </row>
-    <row r="60" spans="2:13" hidden="1">
-      <c r="B60" s="13">
+    <row r="61" spans="2:13" hidden="1">
+      <c r="B61" s="13">
         <v>2021</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D61" s="15">
         <f t="shared" si="4"/>
         <v>1146962</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E61" s="16">
         <v>581299</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F61" s="16">
         <v>565156</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G61" s="16">
         <v>507</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H61" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156135</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I61" s="16">
         <v>69558</v>
       </c>
-      <c r="J60" s="16">
+      <c r="J61" s="16">
         <v>86577</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K61" s="16">
         <v>18.737382445742711</v>
       </c>
-      <c r="L60" s="16">
+      <c r="L61" s="16">
         <v>15.270791302398566</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M61" s="17">
         <v>19.71498144672535</v>
       </c>
     </row>
-    <row r="61" spans="2:13" hidden="1">
-      <c r="B61" s="18">
+    <row r="62" spans="2:13" hidden="1">
+      <c r="B62" s="18">
         <v>2020</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C62" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D62" s="20">
         <f t="shared" si="4"/>
         <v>1143940</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E62" s="20">
         <v>580035</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F62" s="20">
         <v>563400</v>
       </c>
-      <c r="G61" s="20">
+      <c r="G62" s="20">
         <v>505</v>
       </c>
-      <c r="H61" s="20">
+      <c r="H62" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>156064</v>
       </c>
-      <c r="I61" s="20">
+      <c r="I62" s="20">
         <v>69624</v>
       </c>
-      <c r="J61" s="20">
+      <c r="J62" s="20">
         <v>86440</v>
       </c>
-      <c r="K61" s="20">
+      <c r="K62" s="20">
         <v>17.787893642088221</v>
       </c>
-      <c r="L61" s="20">
+      <c r="L62" s="20">
         <v>14.291950738158704</v>
       </c>
-      <c r="M61" s="21">
+      <c r="M62" s="21">
         <v>18.763405656555207</v>
       </c>
     </row>
-    <row r="62" spans="2:13" hidden="1">
-      <c r="B62" s="8">
+    <row r="63" spans="2:13" hidden="1">
+      <c r="B63" s="8">
         <v>2020</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C63" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D63" s="10">
         <f t="shared" si="4"/>
         <v>1137719</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="11">
         <v>576835</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F63" s="11">
         <v>560383</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G63" s="11">
         <v>501</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H63" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>155330</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I63" s="11">
         <v>69641</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J63" s="11">
         <v>85689</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K63" s="11">
         <v>17.860964544450187</v>
       </c>
-      <c r="L62" s="11">
+      <c r="L63" s="11">
         <v>14.359087104873495</v>
       </c>
-      <c r="M62" s="12">
+      <c r="M63" s="12">
         <v>18.843092045385596</v>
       </c>
     </row>
-    <row r="63" spans="2:13" hidden="1">
-      <c r="B63" s="4">
+    <row r="64" spans="2:13" hidden="1">
+      <c r="B64" s="4">
         <v>2020</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D64" s="6">
         <f t="shared" si="4"/>
         <v>1131496</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E64" s="6">
         <v>574056</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F64" s="6">
         <v>556941</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G64" s="6">
         <v>499</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H64" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154998</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I64" s="6">
         <v>69581</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J64" s="6">
         <v>85417</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K64" s="6">
         <v>17.931151365285245</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L64" s="6">
         <v>14.401392276029368</v>
       </c>
-      <c r="M63" s="7">
+      <c r="M64" s="7">
         <v>18.916173683403709</v>
       </c>
     </row>
-    <row r="64" spans="2:13" hidden="1">
-      <c r="B64" s="8">
+    <row r="65" spans="2:13" hidden="1">
+      <c r="B65" s="8">
         <v>2020</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C65" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D65" s="10">
         <f t="shared" si="4"/>
         <v>1124473</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="11">
         <v>571367</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F65" s="11">
         <v>552611</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G65" s="11">
         <v>495</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H65" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154974</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I65" s="11">
         <v>69802</v>
       </c>
-      <c r="J64" s="11">
+      <c r="J65" s="11">
         <v>85172</v>
       </c>
-      <c r="K64" s="11">
+      <c r="K65" s="11">
         <v>18.015470478954644</v>
       </c>
-      <c r="L64" s="11">
+      <c r="L65" s="11">
         <v>14.418154012931202</v>
       </c>
-      <c r="M64" s="12">
+      <c r="M65" s="12">
         <v>18.991473081224505</v>
       </c>
     </row>
-    <row r="65" spans="2:13" hidden="1">
-      <c r="B65" s="4">
+    <row r="66" spans="2:13" hidden="1">
+      <c r="B66" s="4">
         <v>2020</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D66" s="6">
         <f t="shared" si="4"/>
         <v>1119301</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E66" s="6">
         <v>569174</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F66" s="6">
         <v>549631</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G66" s="6">
         <v>496</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H66" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>155005</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I66" s="6">
         <v>69935</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J66" s="6">
         <v>85070</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K66" s="6">
         <v>18.074266962890857</v>
       </c>
-      <c r="L65" s="6">
+      <c r="L66" s="6">
         <v>14.424315344666301</v>
       </c>
-      <c r="M65" s="7">
+      <c r="M66" s="7">
         <v>19.054786409779787</v>
       </c>
     </row>
-    <row r="66" spans="2:13" hidden="1">
-      <c r="B66" s="8">
+    <row r="67" spans="2:13" hidden="1">
+      <c r="B67" s="8">
         <v>2020</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D67" s="10">
         <f t="shared" si="4"/>
         <v>1115206</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E67" s="11">
         <v>567168</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F67" s="11">
         <v>547540</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G67" s="11">
         <v>498</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H67" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154854</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I67" s="11">
         <v>69936</v>
       </c>
-      <c r="J66" s="11">
+      <c r="J67" s="11">
         <v>84918</v>
       </c>
-      <c r="K66" s="11">
+      <c r="K67" s="11">
         <v>18.123512676025275</v>
       </c>
-      <c r="L66" s="11">
+      <c r="L67" s="11">
         <v>14.441519108321389</v>
       </c>
-      <c r="M66" s="12">
+      <c r="M67" s="12">
         <v>19.111048225569849</v>
       </c>
     </row>
-    <row r="67" spans="2:13" hidden="1">
-      <c r="B67" s="4">
+    <row r="68" spans="2:13" hidden="1">
+      <c r="B68" s="4">
         <v>2020</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D68" s="6">
         <f t="shared" si="4"/>
         <v>1112456</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E68" s="6">
         <v>566042</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F68" s="6">
         <v>545916</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G68" s="6">
         <v>498</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H68" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154797</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I68" s="6">
         <v>69959</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J68" s="6">
         <v>84838</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K68" s="6">
         <v>18.154673950369251</v>
       </c>
-      <c r="L67" s="6">
+      <c r="L68" s="6">
         <v>14.450499686686436</v>
       </c>
-      <c r="M67" s="7">
+      <c r="M68" s="7">
         <v>19.140800505969523</v>
       </c>
     </row>
-    <row r="68" spans="2:13" hidden="1">
-      <c r="B68" s="8">
+    <row r="69" spans="2:13" hidden="1">
+      <c r="B69" s="8">
         <v>2020</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C69" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D69" s="10">
         <f t="shared" si="4"/>
         <v>1111879</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E69" s="11">
         <v>565980</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F69" s="11">
         <v>545400</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G69" s="11">
         <v>499</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H69" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154663</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I69" s="11">
         <v>69945</v>
       </c>
-      <c r="J68" s="11">
+      <c r="J69" s="11">
         <v>84718</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K69" s="11">
         <v>18.164229808940139</v>
       </c>
-      <c r="L68" s="11">
+      <c r="L69" s="11">
         <v>14.46115101866639</v>
       </c>
-      <c r="M68" s="12">
+      <c r="M69" s="12">
         <v>19.144045725997383</v>
       </c>
     </row>
-    <row r="69" spans="2:13" hidden="1">
-      <c r="B69" s="4">
+    <row r="70" spans="2:13" hidden="1">
+      <c r="B70" s="4">
         <v>2020</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D70" s="6">
         <f t="shared" si="4"/>
         <v>1111626</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E70" s="6">
         <v>565883</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F70" s="6">
         <v>545244</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G70" s="6">
         <v>499</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H70" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154659</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I70" s="6">
         <v>69947</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J70" s="6">
         <v>84712</v>
       </c>
-      <c r="K69" s="6">
+      <c r="K70" s="6">
         <v>18.16685047867491</v>
       </c>
-      <c r="L69" s="6">
+      <c r="L70" s="6">
         <v>14.461473305788864</v>
       </c>
-      <c r="M69" s="7">
+      <c r="M70" s="7">
         <v>19.146164489832703</v>
       </c>
     </row>
-    <row r="70" spans="2:13" hidden="1">
-      <c r="B70" s="8">
+    <row r="71" spans="2:13" hidden="1">
+      <c r="B71" s="8">
         <v>2020</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D71" s="10">
         <f t="shared" si="4"/>
         <v>1111436</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="11">
         <v>565809</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="11">
         <v>545128</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G71" s="11">
         <v>499</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H71" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154670</v>
       </c>
-      <c r="I70" s="11">
+      <c r="I71" s="11">
         <v>69953</v>
       </c>
-      <c r="J70" s="11">
+      <c r="J71" s="11">
         <v>84717</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K71" s="11">
         <v>18.1697391054253</v>
       </c>
-      <c r="L70" s="11">
+      <c r="L71" s="11">
         <v>14.461059028900239</v>
       </c>
-      <c r="M70" s="12">
+      <c r="M71" s="12">
         <v>19.148813468856098</v>
       </c>
     </row>
-    <row r="71" spans="2:13" hidden="1">
-      <c r="B71" s="4">
+    <row r="72" spans="2:13" hidden="1">
+      <c r="B72" s="4">
         <v>2020</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D72" s="6">
         <f t="shared" si="4"/>
         <v>1107180</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E72" s="6">
         <v>564089</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F72" s="6">
         <v>542595</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G72" s="6">
         <v>496</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H72" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>154310</v>
       </c>
-      <c r="I71" s="6">
+      <c r="I72" s="6">
         <v>69893</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J72" s="6">
         <v>84417</v>
       </c>
-      <c r="K71" s="6">
+      <c r="K72" s="6">
         <v>18.222653716036714</v>
       </c>
-      <c r="L71" s="6">
+      <c r="L72" s="6">
         <v>14.507322921392005</v>
       </c>
-      <c r="M71" s="7">
+      <c r="M72" s="7">
         <v>19.193769068356236</v>
       </c>
     </row>
-    <row r="72" spans="2:13" hidden="1">
-      <c r="B72" s="13">
+    <row r="73" spans="2:13" hidden="1">
+      <c r="B73" s="13">
         <v>2020</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C73" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D73" s="15">
         <f t="shared" si="4"/>
         <v>1102434</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E73" s="16">
         <v>562170</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F73" s="16">
         <v>539768</v>
       </c>
-      <c r="G72" s="16">
+      <c r="G73" s="16">
         <v>496</v>
       </c>
-      <c r="H72" s="16">
+      <c r="H73" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>153904</v>
       </c>
-      <c r="I72" s="16">
+      <c r="I73" s="16">
         <v>69851</v>
       </c>
-      <c r="J72" s="16">
+      <c r="J73" s="16">
         <v>84053</v>
       </c>
-      <c r="K72" s="16">
+      <c r="K73" s="16">
         <v>18.280507420519459</v>
       </c>
-      <c r="L72" s="16">
+      <c r="L73" s="16">
         <v>14.558120646636864</v>
       </c>
-      <c r="M72" s="17">
+      <c r="M73" s="17">
         <v>19.246057242471139</v>
       </c>
     </row>
-    <row r="73" spans="2:13" hidden="1">
-      <c r="B73" s="18">
+    <row r="74" spans="2:13" hidden="1">
+      <c r="B74" s="18">
         <v>2019</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C74" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D74" s="20">
         <f t="shared" si="4"/>
         <v>1099371</v>
       </c>
-      <c r="E73" s="20">
+      <c r="E74" s="20">
         <v>561061</v>
       </c>
-      <c r="F73" s="20">
+      <c r="F74" s="20">
         <v>537813</v>
       </c>
-      <c r="G73" s="20">
+      <c r="G74" s="20">
         <v>497</v>
       </c>
-      <c r="H73" s="20">
+      <c r="H74" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>153726</v>
       </c>
-      <c r="I73" s="20">
+      <c r="I74" s="20">
         <v>69871</v>
       </c>
-      <c r="J73" s="20">
+      <c r="J74" s="20">
         <v>83855</v>
       </c>
-      <c r="K73" s="20">
+      <c r="K74" s="20">
         <v>17.338868752993772</v>
       </c>
-      <c r="L73" s="20">
+      <c r="L74" s="20">
         <v>13.608641348893483</v>
       </c>
-      <c r="M73" s="21">
+      <c r="M74" s="21">
         <v>18.302218475352948</v>
       </c>
     </row>
-    <row r="74" spans="2:13" hidden="1">
-      <c r="B74" s="8">
+    <row r="75" spans="2:13" hidden="1">
+      <c r="B75" s="8">
         <v>2019</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C75" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D75" s="10">
         <f t="shared" si="4"/>
         <v>1094843</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>558626</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="11">
         <v>535724</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G75" s="11">
         <v>493</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H75" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>152624</v>
       </c>
-      <c r="I74" s="11">
+      <c r="I75" s="11">
         <v>69534</v>
       </c>
-      <c r="J74" s="11">
+      <c r="J75" s="11">
         <v>83090</v>
       </c>
-      <c r="K74" s="11">
+      <c r="K75" s="11">
         <v>17.393954485017328</v>
       </c>
-      <c r="L74" s="11">
+      <c r="L75" s="11">
         <v>13.697282209875247</v>
       </c>
-      <c r="M74" s="12">
+      <c r="M75" s="12">
         <v>18.357969374859028</v>
       </c>
     </row>
-    <row r="75" spans="2:13" hidden="1">
-      <c r="B75" s="4">
+    <row r="76" spans="2:13" hidden="1">
+      <c r="B76" s="4">
         <v>2019</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D76" s="6">
         <f t="shared" si="4"/>
         <v>1089907</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E76" s="6">
         <v>556346</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F76" s="6">
         <v>533069</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G76" s="6">
         <v>492</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H76" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>151838</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I76" s="6">
         <v>69318</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J76" s="6">
         <v>82520</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K76" s="6">
         <v>17.456851262393727</v>
       </c>
-      <c r="L75" s="6">
+      <c r="L76" s="6">
         <v>13.773673257023932</v>
       </c>
-      <c r="M75" s="7">
+      <c r="M76" s="7">
         <v>18.416267933983526</v>
       </c>
     </row>
-    <row r="76" spans="2:13" hidden="1">
-      <c r="B76" s="8">
+    <row r="77" spans="2:13" hidden="1">
+      <c r="B77" s="8">
         <v>2019</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D77" s="10">
         <f t="shared" si="4"/>
         <v>1026253</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E77" s="11">
         <v>519860</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F77" s="11">
         <v>505944</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G77" s="11">
         <v>449</v>
       </c>
-      <c r="H76" s="11">
+      <c r="H77" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134666</v>
       </c>
-      <c r="I76" s="11">
+      <c r="I77" s="11">
         <v>59103</v>
       </c>
-      <c r="J76" s="11">
+      <c r="J77" s="11">
         <v>75563</v>
       </c>
-      <c r="K76" s="11">
+      <c r="K77" s="11">
         <v>17.271427094194593</v>
       </c>
-      <c r="L76" s="11">
+      <c r="L77" s="11">
         <v>13.265634978390985</v>
       </c>
-      <c r="M76" s="12">
+      <c r="M77" s="12">
         <v>18.202425653060441</v>
       </c>
     </row>
-    <row r="77" spans="2:13" hidden="1">
-      <c r="B77" s="4">
+    <row r="78" spans="2:13" hidden="1">
+      <c r="B78" s="4">
         <v>2019</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D78" s="6">
         <f t="shared" si="4"/>
         <v>1021601</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E78" s="6">
         <v>517666</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F78" s="6">
         <v>503486</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G78" s="6">
         <v>449</v>
       </c>
-      <c r="H77" s="6">
+      <c r="H78" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134177</v>
       </c>
-      <c r="I77" s="6">
+      <c r="I78" s="6">
         <v>58996</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J78" s="6">
         <v>75181</v>
       </c>
-      <c r="K77" s="6">
+      <c r="K78" s="6">
         <v>17.331093567286896</v>
       </c>
-      <c r="L77" s="6">
+      <c r="L78" s="6">
         <v>13.321195137765788</v>
       </c>
-      <c r="M77" s="7">
+      <c r="M78" s="7">
         <v>18.260312634014984</v>
       </c>
     </row>
-    <row r="78" spans="2:13" hidden="1">
-      <c r="B78" s="8">
+    <row r="79" spans="2:13" hidden="1">
+      <c r="B79" s="8">
         <v>2019</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C79" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D79" s="10">
         <f t="shared" si="4"/>
         <v>1012889</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E79" s="11">
         <v>514393</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F79" s="11">
         <v>498050</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G79" s="11">
         <v>446</v>
       </c>
-      <c r="H78" s="11">
+      <c r="H79" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>134315</v>
       </c>
-      <c r="I78" s="11">
+      <c r="I79" s="11">
         <v>59818</v>
       </c>
-      <c r="J78" s="11">
+      <c r="J79" s="11">
         <v>74497</v>
       </c>
-      <c r="K78" s="11">
+      <c r="K79" s="11">
         <v>17.523646663027421</v>
       </c>
-      <c r="L78" s="11">
+      <c r="L79" s="11">
         <v>13.572348583553588</v>
       </c>
-      <c r="M78" s="12">
+      <c r="M79" s="12">
         <v>18.476849412803052</v>
       </c>
     </row>
-    <row r="79" spans="2:13" hidden="1">
-      <c r="B79" s="4">
+    <row r="80" spans="2:13" hidden="1">
+      <c r="B80" s="4">
         <v>2019</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D80" s="6">
         <f t="shared" si="4"/>
         <v>1011042</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E80" s="6">
         <v>512802</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F80" s="6">
         <v>497796</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G80" s="6">
         <v>444</v>
       </c>
-      <c r="H79" s="6">
+      <c r="H80" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>132861</v>
       </c>
-      <c r="I79" s="6">
+      <c r="I80" s="6">
         <v>58917</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J80" s="6">
         <v>73944</v>
       </c>
-      <c r="K79" s="6">
+      <c r="K80" s="6">
         <v>17.474399169537342</v>
       </c>
-      <c r="L79" s="6">
+      <c r="L80" s="6">
         <v>13.491144880740022</v>
       </c>
-      <c r="M79" s="7">
+      <c r="M80" s="7">
         <v>18.398711393481303</v>
       </c>
     </row>
-    <row r="80" spans="2:13" hidden="1">
-      <c r="B80" s="8">
+    <row r="81" spans="2:13" hidden="1">
+      <c r="B81" s="8">
         <v>2019</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C81" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D81" s="10">
         <f t="shared" si="4"/>
         <v>1006543</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E81" s="11">
         <v>506850</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F81" s="11">
         <v>499239</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G81" s="11">
         <v>454</v>
       </c>
-      <c r="H80" s="11">
+      <c r="H81" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>133322</v>
       </c>
-      <c r="I80" s="11">
+      <c r="I81" s="11">
         <v>58537</v>
       </c>
-      <c r="J80" s="11">
+      <c r="J81" s="11">
         <v>74785</v>
       </c>
-      <c r="K80" s="11">
+      <c r="K81" s="11">
         <v>17.005059631686898</v>
       </c>
-      <c r="L80" s="11">
+      <c r="L81" s="11">
         <v>12.551904411875007</v>
       </c>
-      <c r="M80" s="12">
+      <c r="M81" s="12">
         <v>17.760755647627501</v>
       </c>
     </row>
-    <row r="81" spans="2:13" hidden="1">
-      <c r="B81" s="4">
+    <row r="82" spans="2:13" hidden="1">
+      <c r="B82" s="4">
         <v>2019</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D82" s="6">
         <f t="shared" si="4"/>
         <v>1000820</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E82" s="6">
         <v>504046</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F82" s="6">
         <v>496323</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G82" s="6">
         <v>451</v>
       </c>
-      <c r="H81" s="6">
+      <c r="H82" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>132406</v>
       </c>
-      <c r="I81" s="6">
+      <c r="I82" s="6">
         <v>58289</v>
       </c>
-      <c r="J81" s="6">
+      <c r="J82" s="6">
         <v>74117</v>
       </c>
-      <c r="K81" s="6">
+      <c r="K82" s="6">
         <v>17.079096025247733</v>
       </c>
-      <c r="L81" s="6">
+      <c r="L82" s="6">
         <v>12.619949247012975</v>
       </c>
-      <c r="M81" s="7">
+      <c r="M82" s="7">
         <v>17.838770667756513</v>
       </c>
     </row>
-    <row r="82" spans="2:13" hidden="1">
-      <c r="B82" s="8">
+    <row r="83" spans="2:13" hidden="1">
+      <c r="B83" s="8">
         <v>2019</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C83" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D83" s="10">
         <f t="shared" si="4"/>
         <v>995167</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="11">
         <v>501424</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="11">
         <v>493291</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G83" s="11">
         <v>452</v>
       </c>
-      <c r="H82" s="11">
+      <c r="H83" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>131276</v>
       </c>
-      <c r="I82" s="11">
+      <c r="I83" s="11">
         <v>57933</v>
       </c>
-      <c r="J82" s="11">
+      <c r="J83" s="11">
         <v>73343</v>
       </c>
-      <c r="K82" s="11">
+      <c r="K83" s="11">
         <v>17.153564282485384</v>
       </c>
-      <c r="L82" s="11">
+      <c r="L83" s="11">
         <v>12.722576860964685</v>
       </c>
-      <c r="M82" s="12">
+      <c r="M83" s="12">
         <v>17.901807651807651</v>
       </c>
     </row>
-    <row r="83" spans="2:13" hidden="1">
-      <c r="B83" s="4">
+    <row r="84" spans="2:13" hidden="1">
+      <c r="B84" s="4">
         <v>2019</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D84" s="6">
         <f t="shared" si="4"/>
         <v>990002</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E84" s="6">
         <v>499221</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F84" s="6">
         <v>490327</v>
       </c>
-      <c r="G83" s="6">
+      <c r="G84" s="6">
         <v>454</v>
       </c>
-      <c r="H83" s="6">
+      <c r="H84" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>130579</v>
       </c>
-      <c r="I83" s="6">
+      <c r="I84" s="6">
         <v>57862</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J84" s="6">
         <v>72717</v>
       </c>
-      <c r="K83" s="6">
+      <c r="K84" s="6">
         <v>17.220458930103462</v>
       </c>
-      <c r="L83" s="6">
+      <c r="L84" s="6">
         <v>12.793971465549593</v>
       </c>
-      <c r="M83" s="7">
+      <c r="M84" s="7">
         <v>17.958405195294269</v>
       </c>
     </row>
-    <row r="84" spans="2:13" hidden="1">
-      <c r="B84" s="13">
+    <row r="85" spans="2:13" hidden="1">
+      <c r="B85" s="13">
         <v>2019</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C85" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="15">
-        <f t="shared" ref="D84:D96" si="5">SUM(E84:G84)</f>
+      <c r="D85" s="15">
+        <f t="shared" ref="D85:D97" si="5">SUM(E85:G85)</f>
         <v>985713</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E85" s="16">
         <v>497141</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F85" s="16">
         <v>488120</v>
       </c>
-      <c r="G84" s="16">
+      <c r="G85" s="16">
         <v>452</v>
       </c>
-      <c r="H84" s="16">
+      <c r="H85" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>129833</v>
       </c>
-      <c r="I84" s="16">
+      <c r="I85" s="16">
         <v>57647</v>
       </c>
-      <c r="J84" s="16">
+      <c r="J85" s="16">
         <v>72186</v>
       </c>
-      <c r="K84" s="16">
+      <c r="K85" s="16">
         <v>17.272496309728147</v>
       </c>
-      <c r="L84" s="16">
+      <c r="L85" s="16">
         <v>12.85511387705745</v>
       </c>
-      <c r="M84" s="17">
+      <c r="M85" s="17">
         <v>18.009015550920161</v>
       </c>
     </row>
-    <row r="85" spans="2:13" hidden="1">
-      <c r="B85" s="18">
+    <row r="86" spans="2:13" hidden="1">
+      <c r="B86" s="18">
         <v>2018</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C86" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D85" s="20">
+      <c r="D86" s="20">
         <f t="shared" si="5"/>
         <v>982856</v>
       </c>
-      <c r="E85" s="20">
+      <c r="E86" s="20">
         <v>496057</v>
       </c>
-      <c r="F85" s="20">
+      <c r="F86" s="20">
         <v>486335</v>
       </c>
-      <c r="G85" s="20">
+      <c r="G86" s="20">
         <v>464</v>
       </c>
-      <c r="H85" s="20">
+      <c r="H86" s="20">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>129315</v>
       </c>
-      <c r="I85" s="20">
+      <c r="I86" s="20">
         <v>57599</v>
       </c>
-      <c r="J85" s="20">
+      <c r="J86" s="20">
         <v>71716</v>
       </c>
-      <c r="K85" s="20">
+      <c r="K86" s="20">
         <v>15.55</v>
       </c>
-      <c r="L85" s="20">
+      <c r="L86" s="20">
         <v>11.5</v>
       </c>
-      <c r="M85" s="21">
+      <c r="M86" s="21">
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="86" spans="2:13" hidden="1">
-      <c r="B86" s="8">
+    <row r="87" spans="2:13" hidden="1">
+      <c r="B87" s="8">
         <v>2018</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C87" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D87" s="10">
         <f t="shared" si="5"/>
         <v>978058</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E87" s="11">
         <v>493248</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F87" s="11">
         <v>484343</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G87" s="11">
         <v>467</v>
       </c>
-      <c r="H86" s="11">
+      <c r="H87" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>127995</v>
       </c>
-      <c r="I86" s="11">
+      <c r="I87" s="11">
         <v>57117</v>
       </c>
-      <c r="J86" s="11">
+      <c r="J87" s="11">
         <v>70878</v>
       </c>
-      <c r="K86" s="11">
+      <c r="K87" s="11">
         <v>15.611125202215558</v>
       </c>
-      <c r="L86" s="11">
+      <c r="L87" s="11">
         <v>11.579603101683659</v>
       </c>
-      <c r="M86" s="12">
+      <c r="M87" s="12">
         <v>16.657281844021668</v>
       </c>
     </row>
-    <row r="87" spans="2:13" hidden="1">
-      <c r="B87" s="4">
+    <row r="88" spans="2:13" hidden="1">
+      <c r="B88" s="4">
         <v>2018</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D88" s="6">
         <f t="shared" si="5"/>
         <v>971514</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E88" s="6">
         <v>489853</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F88" s="6">
         <v>481195</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G88" s="6">
         <v>466</v>
       </c>
-      <c r="H87" s="6">
+      <c r="H88" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>126537</v>
       </c>
-      <c r="I87" s="6">
+      <c r="I88" s="6">
         <v>56599</v>
       </c>
-      <c r="J87" s="6">
+      <c r="J88" s="6">
         <v>69938</v>
       </c>
-      <c r="K87" s="6">
+      <c r="K88" s="6">
         <v>15.692013983030227</v>
       </c>
-      <c r="L87" s="6">
+      <c r="L88" s="6">
         <v>11.695425480294306</v>
       </c>
-      <c r="M87" s="7">
+      <c r="M88" s="7">
         <v>16.724397819345807</v>
       </c>
     </row>
-    <row r="88" spans="2:13" hidden="1">
-      <c r="B88" s="8">
+    <row r="89" spans="2:13" hidden="1">
+      <c r="B89" s="8">
         <v>2018</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C89" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D89" s="10">
         <f t="shared" si="5"/>
         <v>965544</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E89" s="11">
         <v>486879</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F89" s="11">
         <v>478202</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G89" s="11">
         <v>463</v>
       </c>
-      <c r="H88" s="11">
+      <c r="H89" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>125592</v>
       </c>
-      <c r="I88" s="11">
+      <c r="I89" s="11">
         <v>56443</v>
       </c>
-      <c r="J88" s="11">
+      <c r="J89" s="11">
         <v>69149</v>
       </c>
-      <c r="K88" s="11">
+      <c r="K89" s="11">
         <v>15.766115172800014</v>
       </c>
-      <c r="L88" s="11">
+      <c r="L89" s="11">
         <v>11.775922614497736</v>
       </c>
-      <c r="M88" s="12">
+      <c r="M89" s="12">
         <v>16.795398144097401</v>
       </c>
     </row>
-    <row r="89" spans="2:13" hidden="1">
-      <c r="B89" s="4">
+    <row r="90" spans="2:13" hidden="1">
+      <c r="B90" s="4">
         <v>2018</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D90" s="6">
         <f t="shared" si="5"/>
         <v>960111</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E90" s="6">
         <v>483912</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F90" s="6">
         <v>475735</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G90" s="6">
         <v>464</v>
       </c>
-      <c r="H89" s="6">
+      <c r="H90" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>124463</v>
       </c>
-      <c r="I89" s="6">
+      <c r="I90" s="6">
         <v>56029</v>
       </c>
-      <c r="J89" s="6">
+      <c r="J90" s="6">
         <v>68434</v>
       </c>
-      <c r="K89" s="6">
+      <c r="K90" s="6">
         <v>15.828890174645572</v>
       </c>
-      <c r="L89" s="6">
+      <c r="L90" s="6">
         <v>11.859889509332092</v>
       </c>
-      <c r="M89" s="7">
+      <c r="M90" s="7">
         <v>16.84972398287292</v>
       </c>
     </row>
-    <row r="90" spans="2:13" hidden="1">
-      <c r="B90" s="8">
+    <row r="91" spans="2:13" hidden="1">
+      <c r="B91" s="8">
         <v>2018</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C91" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D91" s="10">
         <f t="shared" si="5"/>
         <v>953323</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E91" s="11">
         <v>480495</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F91" s="11">
         <v>472364</v>
       </c>
-      <c r="G90" s="11">
+      <c r="G91" s="11">
         <v>464</v>
       </c>
-      <c r="H90" s="11">
+      <c r="H91" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>123737</v>
       </c>
-      <c r="I90" s="11">
+      <c r="I91" s="11">
         <v>55960</v>
       </c>
-      <c r="J90" s="11">
+      <c r="J91" s="11">
         <v>67777</v>
       </c>
-      <c r="K90" s="11">
+      <c r="K91" s="11">
         <v>15.900131480954339</v>
       </c>
-      <c r="L90" s="11">
+      <c r="L91" s="11">
         <v>11.93027888990358</v>
       </c>
-      <c r="M90" s="12">
+      <c r="M91" s="12">
         <v>16.922447322032493</v>
       </c>
     </row>
-    <row r="91" spans="2:13" hidden="1">
-      <c r="B91" s="4">
+    <row r="92" spans="2:13" hidden="1">
+      <c r="B92" s="4">
         <v>2018</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D92" s="6">
         <f t="shared" si="5"/>
         <v>947851</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E92" s="6">
         <v>477880</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F92" s="6">
         <v>469513</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G92" s="6">
         <v>458</v>
       </c>
-      <c r="H91" s="6">
+      <c r="H92" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>122946</v>
       </c>
-      <c r="I91" s="6">
+      <c r="I92" s="6">
         <v>55790</v>
       </c>
-      <c r="J91" s="6">
+      <c r="J92" s="6">
         <v>67156</v>
       </c>
-      <c r="K91" s="6">
+      <c r="K92" s="6">
         <v>15.97</v>
       </c>
-      <c r="L91" s="6">
+      <c r="L92" s="6">
         <v>12.01</v>
       </c>
-      <c r="M91" s="7">
+      <c r="M92" s="7">
         <v>16.98</v>
       </c>
     </row>
-    <row r="92" spans="2:13" hidden="1">
-      <c r="B92" s="8">
+    <row r="93" spans="2:13" hidden="1">
+      <c r="B93" s="8">
         <v>2018</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C93" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D93" s="10">
         <f t="shared" si="5"/>
         <v>944527</v>
       </c>
-      <c r="E92" s="11">
+      <c r="E93" s="11">
         <v>476241</v>
       </c>
-      <c r="F92" s="11">
+      <c r="F93" s="11">
         <v>467827</v>
       </c>
-      <c r="G92" s="11">
+      <c r="G93" s="11">
         <v>459</v>
       </c>
-      <c r="H92" s="11">
+      <c r="H93" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>122105</v>
       </c>
-      <c r="I92" s="11">
+      <c r="I93" s="11">
         <v>55617</v>
       </c>
-      <c r="J92" s="11">
+      <c r="J93" s="11">
         <v>66488</v>
       </c>
-      <c r="K92" s="11">
+      <c r="K93" s="11">
         <v>16.02</v>
       </c>
-      <c r="L92" s="11">
+      <c r="L93" s="11">
         <v>12.1</v>
       </c>
-      <c r="M92" s="12">
+      <c r="M93" s="12">
         <v>17.03</v>
       </c>
     </row>
-    <row r="93" spans="2:13" hidden="1">
-      <c r="B93" s="4">
+    <row r="94" spans="2:13" hidden="1">
+      <c r="B94" s="4">
         <v>2018</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D94" s="6">
         <f t="shared" si="5"/>
         <v>936533</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E94" s="6">
         <v>472271</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F94" s="6">
         <v>463807</v>
       </c>
-      <c r="G93" s="6">
+      <c r="G94" s="6">
         <v>455</v>
       </c>
-      <c r="H93" s="6">
+      <c r="H94" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>121075</v>
       </c>
-      <c r="I93" s="6">
+      <c r="I94" s="6">
         <v>55199</v>
       </c>
-      <c r="J93" s="6">
+      <c r="J94" s="6">
         <v>65876</v>
       </c>
-      <c r="K93" s="6">
+      <c r="K94" s="6">
         <v>16.09</v>
       </c>
-      <c r="L93" s="6">
+      <c r="L94" s="6">
         <v>12.15</v>
       </c>
-      <c r="M93" s="7">
+      <c r="M94" s="7">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="94" spans="2:13" hidden="1">
-      <c r="B94" s="8">
+    <row r="95" spans="2:13" hidden="1">
+      <c r="B95" s="8">
         <v>2018</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C95" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D95" s="10">
         <f t="shared" si="5"/>
         <v>930205</v>
       </c>
-      <c r="E94" s="11">
+      <c r="E95" s="11">
         <v>469020</v>
       </c>
-      <c r="F94" s="11">
+      <c r="F95" s="11">
         <v>460731</v>
       </c>
-      <c r="G94" s="11">
+      <c r="G95" s="11">
         <v>454</v>
       </c>
-      <c r="H94" s="11">
+      <c r="H95" s="11">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>120039</v>
       </c>
-      <c r="I94" s="11">
+      <c r="I95" s="11">
         <v>54921</v>
       </c>
-      <c r="J94" s="11">
+      <c r="J95" s="11">
         <v>65118</v>
       </c>
-      <c r="K94" s="11">
+      <c r="K95" s="11">
         <v>16.160723713583874</v>
       </c>
-      <c r="L94" s="11">
+      <c r="L95" s="11">
         <v>12.219768117028636</v>
       </c>
-      <c r="M94" s="12">
+      <c r="M95" s="12">
         <v>17.169355262035737</v>
       </c>
     </row>
-    <row r="95" spans="2:13" hidden="1">
-      <c r="B95" s="4">
+    <row r="96" spans="2:13" hidden="1">
+      <c r="B96" s="4">
         <v>2018</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C96" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D96" s="6">
         <f t="shared" si="5"/>
         <v>924012</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E96" s="6">
         <v>466319</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F96" s="6">
         <v>457242</v>
       </c>
-      <c r="G95" s="6">
+      <c r="G96" s="6">
         <v>451</v>
       </c>
-      <c r="H95" s="6">
+      <c r="H96" s="6">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>118763</v>
       </c>
-      <c r="I95" s="6">
+      <c r="I96" s="6">
         <v>54503</v>
       </c>
-      <c r="J95" s="6">
+      <c r="J96" s="6">
         <v>64260</v>
       </c>
-      <c r="K95" s="6">
+      <c r="K96" s="6">
         <v>16.222653310134305</v>
       </c>
-      <c r="L95" s="6">
+      <c r="L96" s="6">
         <v>12.303791963827118</v>
       </c>
-      <c r="M95" s="7">
+      <c r="M96" s="7">
         <v>17.220716288635032</v>
       </c>
     </row>
-    <row r="96" spans="2:13" hidden="1">
-      <c r="B96" s="13">
+    <row r="97" spans="2:13" hidden="1">
+      <c r="B97" s="13">
         <v>2018</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C97" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D96" s="15">
+      <c r="D97" s="15">
         <f t="shared" si="5"/>
         <v>920526</v>
       </c>
-      <c r="E96" s="16">
+      <c r="E97" s="16">
         <v>464622</v>
       </c>
-      <c r="F96" s="16">
+      <c r="F97" s="16">
         <v>455453</v>
       </c>
-      <c r="G96" s="16">
+      <c r="G97" s="16">
         <v>451</v>
       </c>
-      <c r="H96" s="16">
+      <c r="H97" s="16">
         <f>SUM(Tabla1[[#This Row],[Pasajeros]:[Turismo]])</f>
         <v>118260</v>
       </c>
-      <c r="I96" s="16">
+      <c r="I97" s="16">
         <v>54504</v>
       </c>
-      <c r="J96" s="16">
+      <c r="J97" s="16">
         <v>63756</v>
       </c>
-      <c r="K96" s="16">
+      <c r="K97" s="16">
         <v>16.29</v>
       </c>
-      <c r="L96" s="16">
+      <c r="L97" s="16">
         <v>12.37</v>
       </c>
-      <c r="M96" s="17">
+      <c r="M97" s="17">
         <v>17.28</v>
       </c>
-    </row>
-    <row r="97" spans="2:13">
-      <c r="B97" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M97" s="22"/>
     </row>
     <row r="98" spans="2:13">
       <c r="B98" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="M98" s="22"/>
     </row>
     <row r="99" spans="2:13">
       <c r="B99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M99" s="22"/>
+    </row>
+    <row r="100" spans="2:13">
+      <c r="B100" s="2" t="s">
         <v>14</v>
       </c>
     </row>
